--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{1E3FC62E-8CD2-498A-BEAF-32297B74F1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6036E150-7ECB-4E8B-9688-0F1A04AF384A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{1E3FC62E-8CD2-498A-BEAF-32297B74F1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3F5FF368-010E-4679-9889-D638FF24857C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="259">
   <si>
     <t>study</t>
   </si>
@@ -2378,7 +2378,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2538,18 +2538,18 @@
       <c r="Q2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="101" t="s">
-        <v>142</v>
+      <c r="R2" s="101">
+        <v>23</v>
+      </c>
+      <c r="S2" s="101">
+        <v>7</v>
+      </c>
+      <c r="T2" s="101">
+        <v>1898</v>
       </c>
       <c r="U2" s="101" t="str">
         <f>R2&amp;"/"&amp;S2&amp;"/"&amp;T2</f>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V2" s="101">
         <v>22</v>
@@ -2625,21 +2625,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R3" s="103" t="str">
+      <c r="R3" s="103">
         <f t="shared" ref="R3:Y18" si="6">R2</f>
-        <v>x</v>
-      </c>
-      <c r="S3" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S3" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T3" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T3" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U3" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V3" s="103">
         <f t="shared" si="6"/>
@@ -2718,21 +2718,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R4" s="103" t="str">
+      <c r="R4" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S4" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S4" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T4" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T4" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U4" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V4" s="103">
         <f t="shared" si="6"/>
@@ -2811,21 +2811,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R5" s="103" t="str">
+      <c r="R5" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S5" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S5" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T5" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T5" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U5" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V5" s="103">
         <f t="shared" si="6"/>
@@ -2904,21 +2904,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R6" s="103" t="str">
+      <c r="R6" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S6" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S6" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T6" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T6" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U6" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V6" s="103">
         <f t="shared" si="6"/>
@@ -2997,21 +2997,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R7" s="103" t="str">
+      <c r="R7" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S7" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S7" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T7" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T7" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U7" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V7" s="103">
         <f t="shared" si="6"/>
@@ -3090,21 +3090,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R8" s="103" t="str">
+      <c r="R8" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S8" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S8" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T8" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T8" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U8" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V8" s="103">
         <f t="shared" si="6"/>
@@ -3183,21 +3183,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R9" s="103" t="str">
+      <c r="R9" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S9" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S9" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T9" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T9" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U9" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V9" s="103">
         <f t="shared" si="6"/>
@@ -3276,21 +3276,21 @@
         <f t="shared" si="5"/>
         <v>MK</v>
       </c>
-      <c r="R10" s="103" t="str">
+      <c r="R10" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S10" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S10" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="T10" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T10" s="103">
         <f t="shared" si="6"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U10" s="103" t="str">
         <f t="shared" si="6"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V10" s="103">
         <f t="shared" si="6"/>
@@ -3369,21 +3369,21 @@
         <f t="shared" si="14"/>
         <v>MK</v>
       </c>
-      <c r="R11" s="103" t="str">
+      <c r="R11" s="103">
         <f t="shared" ref="R11:Y11" si="15">R10</f>
-        <v>x</v>
-      </c>
-      <c r="S11" s="103" t="str">
+        <v>23</v>
+      </c>
+      <c r="S11" s="103">
         <f t="shared" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="T11" s="103" t="str">
+        <v>7</v>
+      </c>
+      <c r="T11" s="103">
         <f t="shared" si="15"/>
-        <v>x</v>
+        <v>1898</v>
       </c>
       <c r="U11" s="103" t="str">
         <f t="shared" si="15"/>
-        <v>x/x/x</v>
+        <v>23/7/1898</v>
       </c>
       <c r="V11" s="103">
         <f t="shared" si="15"/>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{1E3FC62E-8CD2-498A-BEAF-32297B74F1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CBB839CC-F704-45A6-9EF6-6D10A2964A0E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="6_{1E3FC62E-8CD2-498A-BEAF-32297B74F1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{79A6D8B2-947B-4AA6-935A-51A318EFAEA9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectlist&amp;labels" sheetId="8" r:id="rId1"/>
     <sheet name="items" sheetId="11" r:id="rId2"/>
-    <sheet name="counterbalancing" sheetId="16" r:id="rId3"/>
-    <sheet name="marker" sheetId="14" r:id="rId4"/>
-    <sheet name="procedure" sheetId="12" r:id="rId5"/>
+    <sheet name="counterbalancing_3" sheetId="16" r:id="rId3"/>
+    <sheet name="counterbalancing_2" sheetId="17" r:id="rId4"/>
+    <sheet name="marker" sheetId="14" r:id="rId5"/>
+    <sheet name="procedure" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'subjectlist&amp;labels'!$A$1:$Z$549</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3933" uniqueCount="262">
   <si>
     <t>study</t>
   </si>
@@ -1246,7 +1247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1532,13 +1533,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1987,6 +2021,34 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2385,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
@@ -54917,7 +54979,7 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59951,6 +60013,1071 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2FA204-E2E0-41F6-85C4-633ED6A70C16}">
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="191" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="129" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="188" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="193" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="193" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="148">
+        <v>1</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="168" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="136" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="150"/>
+      <c r="B3" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="190" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="196" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="169" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="143" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="145"/>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="148">
+        <v>2</v>
+      </c>
+      <c r="B4" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="168" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="N4" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="150"/>
+      <c r="B5" s="151" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="190" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="196" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="169" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="135" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="148">
+        <v>3</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="140" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="150"/>
+      <c r="B7" s="151" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="190" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="196" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="197" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="140" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+    </row>
+    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+    </row>
+    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="157"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="139" t="s">
+        <v>233</v>
+      </c>
+      <c r="N10" s="140" t="s">
+        <v>223</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+    </row>
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="157"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+    </row>
+    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="157"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="136" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="157"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+    </row>
+    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="157"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+    </row>
+    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="157"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="157"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+    </row>
+    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+    </row>
+    <row r="20" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="157"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+    </row>
+    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="157"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+    </row>
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="157"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+    </row>
+    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="157"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+    </row>
+    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="157"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+    </row>
+    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="157"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+    </row>
+    <row r="27" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="157"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+    </row>
+    <row r="28" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="157"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+    </row>
+    <row r="29" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="157"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+    </row>
+    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="157"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+    </row>
+    <row r="31" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="157"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+    </row>
+    <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="157"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+    </row>
+    <row r="33" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="157"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D77E8170-050B-4137-BDA6-26DF8A8BEAF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD37BA56-ED44-45A8-8BC4-C6ACD2907AAC}">
   <dimension ref="A1:J101"/>
   <sheetViews>
@@ -63248,7 +64375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BCB49E-F251-46D8-AB80-3127C0BB634B}">
   <dimension ref="A1:AI60"/>
   <sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9833965C-6406-4623-9B58-EB916EF2082D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{9833965C-6406-4623-9B58-EB916EF2082D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8A87852A-441D-469C-B735-EE6FF2DA92A8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="270">
   <si>
     <t>study</t>
   </si>
@@ -832,6 +832,12 @@
   </si>
   <si>
     <t xml:space="preserve">02 </t>
+  </si>
+  <si>
+    <t>not synced</t>
+  </si>
+  <si>
+    <t>Religion</t>
   </si>
 </sst>
 </file>
@@ -2475,8 +2481,8 @@
   <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2815,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="116" t="str">
-        <f t="shared" ref="K4:K15" si="5">CONCATENATE(C4,"_",D4,"_",E4,"_",F4,"_",G4,"_",I4,"_",J4)</f>
+        <f t="shared" ref="K4:K10" si="5">CONCATENATE(C4,"_",D4,"_",E4,"_",F4,"_",G4,"_",I4,"_",J4)</f>
         <v>ProVisioNET_pilot_01_01_novice_cam1_2</v>
       </c>
       <c r="L4" s="198" t="s">
@@ -5386,7 +5392,9 @@
       <c r="O30" s="117">
         <v>5</v>
       </c>
-      <c r="P30" s="117"/>
+      <c r="P30" s="117" t="s">
+        <v>269</v>
+      </c>
       <c r="Q30" s="117" t="s">
         <v>142</v>
       </c>
@@ -5464,7 +5472,9 @@
         <f>CONCATENATE(C31,"_",D31,"_",E31,"_",F31,"_",G31,"_",I31,"_",J31)</f>
         <v>ProVisioNET_pilot_03_03_novice_cam1_1</v>
       </c>
-      <c r="L31" s="198"/>
+      <c r="L31" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M31" s="116" t="s">
         <v>256</v>
       </c>
@@ -5474,7 +5484,9 @@
       <c r="O31" s="116">
         <v>5</v>
       </c>
-      <c r="P31" s="116"/>
+      <c r="P31" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q31" s="116">
         <v>0</v>
       </c>
@@ -5560,7 +5572,9 @@
         <f t="shared" ref="K32:K38" si="72">CONCATENATE(C32,"_",D32,"_",E32,"_",F32,"_",G32,"_",I32,"_",J32)</f>
         <v>ProVisioNET_pilot_03_03_novice_cam1_2</v>
       </c>
-      <c r="L32" s="198"/>
+      <c r="L32" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M32" s="116" t="s">
         <v>256</v>
       </c>
@@ -5570,7 +5584,9 @@
       <c r="O32" s="116">
         <v>5</v>
       </c>
-      <c r="P32" s="116"/>
+      <c r="P32" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q32" s="116">
         <v>0</v>
       </c>
@@ -5656,7 +5672,9 @@
         <f t="shared" si="72"/>
         <v>ProVisioNET_pilot_03_03_novice_cam2_1</v>
       </c>
-      <c r="L33" s="198"/>
+      <c r="L33" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M33" s="116" t="s">
         <v>256</v>
       </c>
@@ -5666,7 +5684,9 @@
       <c r="O33" s="116">
         <v>5</v>
       </c>
-      <c r="P33" s="116"/>
+      <c r="P33" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q33" s="116">
         <v>0</v>
       </c>
@@ -5752,7 +5772,9 @@
         <f t="shared" si="72"/>
         <v>ProVisioNET_pilot_03_03_novice_cam2_2</v>
       </c>
-      <c r="L34" s="198"/>
+      <c r="L34" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M34" s="116" t="s">
         <v>256</v>
       </c>
@@ -5762,7 +5784,9 @@
       <c r="O34" s="116">
         <v>5</v>
       </c>
-      <c r="P34" s="116"/>
+      <c r="P34" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q34" s="116">
         <v>0</v>
       </c>
@@ -5848,7 +5872,9 @@
         <f t="shared" si="72"/>
         <v>ProVisioNET_pilot_03_03_novice_cam3_1</v>
       </c>
-      <c r="L35" s="198"/>
+      <c r="L35" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M35" s="116" t="s">
         <v>256</v>
       </c>
@@ -5858,7 +5884,9 @@
       <c r="O35" s="116">
         <v>5</v>
       </c>
-      <c r="P35" s="116"/>
+      <c r="P35" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q35" s="116">
         <v>0</v>
       </c>
@@ -5944,7 +5972,9 @@
         <f t="shared" si="72"/>
         <v>ProVisioNET_pilot_03_03_novice_cam3_2</v>
       </c>
-      <c r="L36" s="198"/>
+      <c r="L36" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M36" s="116" t="s">
         <v>256</v>
       </c>
@@ -5954,7 +5984,9 @@
       <c r="O36" s="116">
         <v>5</v>
       </c>
-      <c r="P36" s="116"/>
+      <c r="P36" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q36" s="116">
         <v>0</v>
       </c>
@@ -6040,7 +6072,9 @@
         <f t="shared" si="72"/>
         <v>ProVisioNET_pilot_03_03_novice_cam4_1</v>
       </c>
-      <c r="L37" s="198"/>
+      <c r="L37" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M37" s="116" t="s">
         <v>256</v>
       </c>
@@ -6050,7 +6084,9 @@
       <c r="O37" s="116">
         <v>5</v>
       </c>
-      <c r="P37" s="116"/>
+      <c r="P37" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q37" s="116">
         <v>0</v>
       </c>
@@ -6136,7 +6172,9 @@
         <f t="shared" si="72"/>
         <v>ProVisioNET_pilot_03_03_novice_cam4_2</v>
       </c>
-      <c r="L38" s="198"/>
+      <c r="L38" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M38" s="116" t="s">
         <v>256</v>
       </c>
@@ -6146,7 +6184,9 @@
       <c r="O38" s="116">
         <v>5</v>
       </c>
-      <c r="P38" s="116"/>
+      <c r="P38" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q38" s="116">
         <v>0</v>
       </c>
@@ -6230,7 +6270,9 @@
         <f>CONCATENATE(C39,"_",D39,"_",E39,"_",F39,"_",G39,"_",I39)</f>
         <v>ProVisioNET_pilot_03_03_novice_glasses</v>
       </c>
-      <c r="L39" s="116"/>
+      <c r="L39" s="116" t="s">
+        <v>265</v>
+      </c>
       <c r="M39" s="116" t="str">
         <f t="shared" ref="M39:N39" si="94">M37</f>
         <v>f</v>
@@ -6242,7 +6284,9 @@
       <c r="O39" s="116">
         <v>5</v>
       </c>
-      <c r="P39" s="116"/>
+      <c r="P39" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q39" s="116">
         <f t="shared" ref="Q39:AA39" si="95">Q37</f>
         <v>0</v>
@@ -6327,7 +6371,9 @@
         <f>CONCATENATE(C40,"_",D40,"_",E40,"_",F40,"_",G40,"_",I40)</f>
         <v>ProVisioNET_pilot_03_03_novice_ambient</v>
       </c>
-      <c r="L40" s="116"/>
+      <c r="L40" s="198" t="s">
+        <v>268</v>
+      </c>
       <c r="M40" s="116" t="str">
         <f t="shared" ref="M40:N40" si="99">M39</f>
         <v>f</v>
@@ -6339,7 +6385,9 @@
       <c r="O40" s="116">
         <v>5</v>
       </c>
-      <c r="P40" s="116"/>
+      <c r="P40" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q40" s="116">
         <f t="shared" ref="Q40:AA40" si="100">Q39</f>
         <v>0</v>
@@ -6424,7 +6472,9 @@
         <f>CONCATENATE(C41,"_",D41,"_",E41,"_",F41,"_",G41,"_",I41)</f>
         <v>ProVisioNET_pilot_03_03_novice_ETrawdata</v>
       </c>
-      <c r="L41" s="116"/>
+      <c r="L41" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M41" s="116" t="str">
         <f t="shared" ref="M41:N43" si="103">M40</f>
         <v>f</v>
@@ -6436,7 +6486,9 @@
       <c r="O41" s="116">
         <v>5</v>
       </c>
-      <c r="P41" s="116"/>
+      <c r="P41" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q41" s="116">
         <f t="shared" ref="Q41:AA41" si="104">Q40</f>
         <v>0</v>
@@ -6518,7 +6570,9 @@
         <f>CONCATENATE(C42,"_",D42,"_",E42,"_",F42,"_",G42,"_",I42)</f>
         <v>ProVisioNET_pilot_03_03_novice_sri_obs</v>
       </c>
-      <c r="L42" s="198"/>
+      <c r="L42" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M42" s="116" t="s">
         <v>256</v>
       </c>
@@ -6529,7 +6583,9 @@
       <c r="O42" s="116">
         <v>5</v>
       </c>
-      <c r="P42" s="116"/>
+      <c r="P42" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q42" s="116">
         <f t="shared" ref="Q42:AA42" si="107">Q41</f>
         <v>0</v>
@@ -6613,7 +6669,9 @@
         <f>CONCATENATE(C43,"_",D43,"_",E43,"_",F43,"_",G43,"_",I43)</f>
         <v>ProVisioNET_pilot_03_03_novice_sri_ambient</v>
       </c>
-      <c r="L43" s="198"/>
+      <c r="L43" s="198" t="s">
+        <v>266</v>
+      </c>
       <c r="M43" s="116" t="s">
         <v>256</v>
       </c>
@@ -6624,7 +6682,9 @@
       <c r="O43" s="116">
         <v>5</v>
       </c>
-      <c r="P43" s="116"/>
+      <c r="P43" s="116" t="s">
+        <v>269</v>
+      </c>
       <c r="Q43" s="116">
         <f t="shared" ref="Q43:AA43" si="111">Q42</f>
         <v>0</v>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{9833965C-6406-4623-9B58-EB916EF2082D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2361E155-C33A-4672-A7B8-5789E02E13B8}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="14_{9833965C-6406-4623-9B58-EB916EF2082D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C6745C2B-8153-4A98-B01A-BBF2954C32DC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="273">
   <si>
     <t>study</t>
   </si>
@@ -1611,7 +1611,7 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2091,6 +2091,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2489,9 +2492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8161,7 +8164,9 @@
         <f>CONCATENATE(C58,"_",D58,"_",E58,"_",F58,"_",G58,)</f>
         <v>ProVisioNET_pilot_05_05_novice</v>
       </c>
-      <c r="L58" s="117"/>
+      <c r="L58" s="117" t="s">
+        <v>132</v>
+      </c>
       <c r="M58" s="120" t="s">
         <v>256</v>
       </c>
@@ -8183,18 +8188,18 @@
       <c r="S58" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="T58" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="U58" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="V58" s="117" t="s">
-        <v>142</v>
+      <c r="T58" s="117">
+        <v>19</v>
+      </c>
+      <c r="U58" s="117">
+        <v>4</v>
+      </c>
+      <c r="V58" s="117">
+        <v>1980</v>
       </c>
       <c r="W58" s="117" t="str">
         <f>T58&amp;"/"&amp;U58&amp;"/"&amp;V58</f>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X58" s="117">
         <v>30</v>
@@ -8280,21 +8285,21 @@
         <f t="shared" si="184"/>
         <v>MK</v>
       </c>
-      <c r="T59" s="103" t="str">
+      <c r="T59" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="U59" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U59" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="V59" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V59" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W59" s="103" t="str">
         <f t="shared" si="184"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X59" s="103">
         <f t="shared" si="184"/>
@@ -8383,21 +8388,21 @@
         <f t="shared" si="184"/>
         <v>MK</v>
       </c>
-      <c r="T60" s="103" t="str">
+      <c r="T60" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="U60" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U60" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="V60" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V60" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W60" s="103" t="str">
         <f t="shared" si="184"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X60" s="103">
         <f t="shared" si="184"/>
@@ -8486,21 +8491,21 @@
         <f t="shared" si="194"/>
         <v>MK</v>
       </c>
-      <c r="T61" s="103" t="str">
+      <c r="T61" s="103">
         <f t="shared" si="194"/>
-        <v>x</v>
-      </c>
-      <c r="U61" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U61" s="103">
         <f t="shared" si="194"/>
-        <v>x</v>
-      </c>
-      <c r="V61" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V61" s="103">
         <f t="shared" si="194"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W61" s="103" t="str">
         <f t="shared" si="194"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X61" s="103">
         <f t="shared" si="194"/>
@@ -8589,21 +8594,21 @@
         <f t="shared" si="184"/>
         <v>MK</v>
       </c>
-      <c r="T62" s="103" t="str">
+      <c r="T62" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="U62" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U62" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="V62" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V62" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W62" s="103" t="str">
         <f t="shared" si="184"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X62" s="103">
         <f t="shared" si="184"/>
@@ -8692,21 +8697,21 @@
         <f t="shared" si="202"/>
         <v>MK</v>
       </c>
-      <c r="T63" s="103" t="str">
+      <c r="T63" s="103">
         <f t="shared" si="202"/>
-        <v>x</v>
-      </c>
-      <c r="U63" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U63" s="103">
         <f t="shared" si="202"/>
-        <v>x</v>
-      </c>
-      <c r="V63" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V63" s="103">
         <f t="shared" si="202"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W63" s="103" t="str">
         <f t="shared" si="202"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X63" s="103">
         <f t="shared" si="202"/>
@@ -8794,21 +8799,21 @@
         <f t="shared" si="184"/>
         <v>MK</v>
       </c>
-      <c r="T64" s="103" t="str">
+      <c r="T64" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="U64" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U64" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="V64" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V64" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W64" s="103" t="str">
         <f t="shared" si="184"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X64" s="103">
         <f t="shared" si="184"/>
@@ -8896,21 +8901,21 @@
         <f t="shared" si="209"/>
         <v>MK</v>
       </c>
-      <c r="T65" s="103" t="str">
+      <c r="T65" s="103">
         <f t="shared" si="209"/>
-        <v>x</v>
-      </c>
-      <c r="U65" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U65" s="103">
         <f t="shared" si="209"/>
-        <v>x</v>
-      </c>
-      <c r="V65" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V65" s="103">
         <f t="shared" si="209"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W65" s="103" t="str">
         <f t="shared" si="209"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X65" s="103">
         <f t="shared" si="209"/>
@@ -8998,21 +9003,21 @@
         <f t="shared" si="184"/>
         <v>MK</v>
       </c>
-      <c r="T66" s="103" t="str">
+      <c r="T66" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="U66" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U66" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
-      </c>
-      <c r="V66" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V66" s="103">
         <f t="shared" si="184"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W66" s="103" t="str">
         <f t="shared" si="184"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X66" s="103">
         <f t="shared" si="184"/>
@@ -9099,21 +9104,21 @@
         <f t="shared" si="215"/>
         <v>MK</v>
       </c>
-      <c r="T67" s="103" t="str">
+      <c r="T67" s="103">
         <f t="shared" si="215"/>
-        <v>x</v>
-      </c>
-      <c r="U67" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U67" s="103">
         <f t="shared" si="215"/>
-        <v>x</v>
-      </c>
-      <c r="V67" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V67" s="103">
         <f t="shared" si="215"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W67" s="103" t="str">
         <f t="shared" si="215"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X67" s="103">
         <f t="shared" si="215"/>
@@ -9199,21 +9204,21 @@
         <f t="shared" si="218"/>
         <v>MK</v>
       </c>
-      <c r="T68" s="103" t="str">
+      <c r="T68" s="103">
         <f t="shared" si="218"/>
-        <v>x</v>
-      </c>
-      <c r="U68" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U68" s="103">
         <f t="shared" si="218"/>
-        <v>x</v>
-      </c>
-      <c r="V68" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V68" s="103">
         <f t="shared" si="218"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W68" s="103" t="str">
         <f t="shared" si="218"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X68" s="103">
         <f t="shared" si="218"/>
@@ -9300,21 +9305,21 @@
         <f t="shared" si="223"/>
         <v>MK</v>
       </c>
-      <c r="T69" s="103" t="str">
+      <c r="T69" s="103">
         <f t="shared" si="223"/>
-        <v>x</v>
-      </c>
-      <c r="U69" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U69" s="103">
         <f t="shared" si="223"/>
-        <v>x</v>
-      </c>
-      <c r="V69" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V69" s="103">
         <f t="shared" si="223"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W69" s="103" t="str">
         <f t="shared" si="223"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X69" s="103">
         <f t="shared" si="223"/>
@@ -9399,21 +9404,21 @@
         <f t="shared" si="227"/>
         <v>MK</v>
       </c>
-      <c r="T70" s="103" t="str">
+      <c r="T70" s="103">
         <f t="shared" si="227"/>
-        <v>x</v>
-      </c>
-      <c r="U70" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U70" s="103">
         <f t="shared" si="227"/>
-        <v>x</v>
-      </c>
-      <c r="V70" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V70" s="103">
         <f t="shared" si="227"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W70" s="103" t="str">
         <f t="shared" si="227"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X70" s="103">
         <f t="shared" si="227"/>
@@ -9499,21 +9504,21 @@
         <f t="shared" si="230"/>
         <v>MK</v>
       </c>
-      <c r="T71" s="103" t="str">
+      <c r="T71" s="103">
         <f t="shared" si="230"/>
-        <v>x</v>
-      </c>
-      <c r="U71" s="103" t="str">
+        <v>19</v>
+      </c>
+      <c r="U71" s="103">
         <f t="shared" si="230"/>
-        <v>x</v>
-      </c>
-      <c r="V71" s="103" t="str">
+        <v>4</v>
+      </c>
+      <c r="V71" s="103">
         <f t="shared" si="230"/>
-        <v>x</v>
+        <v>1980</v>
       </c>
       <c r="W71" s="103" t="str">
         <f t="shared" si="230"/>
-        <v>x/x/x</v>
+        <v>19/4/1980</v>
       </c>
       <c r="X71" s="103">
         <f t="shared" si="230"/>
@@ -9589,18 +9594,18 @@
       <c r="S72" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="T72" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="U72" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="V72" s="117" t="s">
-        <v>142</v>
+      <c r="T72" s="117">
+        <v>16</v>
+      </c>
+      <c r="U72" s="117">
+        <v>6</v>
+      </c>
+      <c r="V72" s="117">
+        <v>1999</v>
       </c>
       <c r="W72" s="117" t="str">
         <f>T72&amp;"/"&amp;U72&amp;"/"&amp;V72</f>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X72" s="117">
         <v>2</v>
@@ -9657,7 +9662,9 @@
         <f>CONCATENATE(C73,"_",D73,"_",E73,"_",F73,"_",G73,"_",I73,"_",J73)</f>
         <v>ProVisioNET_pilot_06_06_novice_cam1_1</v>
       </c>
-      <c r="L73" s="116"/>
+      <c r="L73" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M73" s="116" t="str">
         <f t="shared" ref="M73" si="233">M72</f>
         <v>f</v>
@@ -9684,21 +9691,21 @@
         <f t="shared" si="236"/>
         <v>MK</v>
       </c>
-      <c r="T73" s="103" t="str">
+      <c r="T73" s="103">
         <f t="shared" si="236"/>
-        <v>x</v>
-      </c>
-      <c r="U73" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U73" s="103">
         <f t="shared" si="236"/>
-        <v>x</v>
-      </c>
-      <c r="V73" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V73" s="103">
         <f t="shared" si="236"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W73" s="103" t="str">
         <f t="shared" si="236"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X73" s="103">
         <f t="shared" si="236"/>
@@ -9758,7 +9765,9 @@
         <f t="shared" ref="K74:K77" si="239">CONCATENATE(C74,"_",D74,"_",E74,"_",F74,"_",G74,"_",I74,"_",J74)</f>
         <v>ProVisioNET_pilot_06_06_novice_cam1_2</v>
       </c>
-      <c r="L74" s="116"/>
+      <c r="L74" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M74" s="116" t="str">
         <f t="shared" ref="M74" si="240">M73</f>
         <v>f</v>
@@ -9785,21 +9794,21 @@
         <f t="shared" si="243"/>
         <v>MK</v>
       </c>
-      <c r="T74" s="103" t="str">
+      <c r="T74" s="103">
         <f t="shared" si="243"/>
-        <v>x</v>
-      </c>
-      <c r="U74" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U74" s="103">
         <f t="shared" si="243"/>
-        <v>x</v>
-      </c>
-      <c r="V74" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V74" s="103">
         <f t="shared" si="243"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W74" s="103" t="str">
         <f t="shared" si="243"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X74" s="103">
         <f t="shared" si="243"/>
@@ -9859,7 +9868,9 @@
         <f t="shared" si="239"/>
         <v>ProVisioNET_pilot_06_06_novice_cam2_1</v>
       </c>
-      <c r="L75" s="116"/>
+      <c r="L75" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M75" s="116" t="str">
         <f t="shared" ref="M75" si="247">M73</f>
         <v>f</v>
@@ -9886,21 +9897,21 @@
         <f t="shared" si="250"/>
         <v>MK</v>
       </c>
-      <c r="T75" s="103" t="str">
+      <c r="T75" s="103">
         <f t="shared" si="250"/>
-        <v>x</v>
-      </c>
-      <c r="U75" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U75" s="103">
         <f t="shared" si="250"/>
-        <v>x</v>
-      </c>
-      <c r="V75" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V75" s="103">
         <f t="shared" si="250"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W75" s="103" t="str">
         <f t="shared" si="250"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X75" s="103">
         <f t="shared" si="250"/>
@@ -9960,7 +9971,9 @@
         <f t="shared" si="239"/>
         <v>ProVisioNET_pilot_06_06_novice_cam2_2</v>
       </c>
-      <c r="L76" s="116"/>
+      <c r="L76" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M76" s="116" t="str">
         <f t="shared" ref="M76:N76" si="253">M75</f>
         <v>f</v>
@@ -9987,21 +10000,21 @@
         <f t="shared" si="255"/>
         <v>MK</v>
       </c>
-      <c r="T76" s="103" t="str">
+      <c r="T76" s="103">
         <f t="shared" si="255"/>
-        <v>x</v>
-      </c>
-      <c r="U76" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U76" s="103">
         <f t="shared" si="255"/>
-        <v>x</v>
-      </c>
-      <c r="V76" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V76" s="103">
         <f t="shared" si="255"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W76" s="103" t="str">
         <f t="shared" si="255"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X76" s="103">
         <f t="shared" si="255"/>
@@ -10061,7 +10074,9 @@
         <f t="shared" si="239"/>
         <v>ProVisioNET_pilot_06_06_novice_cam3_1</v>
       </c>
-      <c r="L77" s="116"/>
+      <c r="L77" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M77" s="116" t="str">
         <f t="shared" ref="M77:N77" si="258">M75</f>
         <v>f</v>
@@ -10088,21 +10103,21 @@
         <f t="shared" si="260"/>
         <v>MK</v>
       </c>
-      <c r="T77" s="103" t="str">
+      <c r="T77" s="103">
         <f t="shared" si="260"/>
-        <v>x</v>
-      </c>
-      <c r="U77" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U77" s="103">
         <f t="shared" si="260"/>
-        <v>x</v>
-      </c>
-      <c r="V77" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V77" s="103">
         <f t="shared" si="260"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W77" s="103" t="str">
         <f t="shared" si="260"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X77" s="103">
         <f t="shared" si="260"/>
@@ -10162,7 +10177,9 @@
         <f>CONCATENATE(C78,"_",D78,"_",E78,"_",F78,"_",G78,"_",I78,"_",J78)</f>
         <v>ProVisioNET_pilot_06_06_novice_cam3_2</v>
       </c>
-      <c r="L78" s="116"/>
+      <c r="L78" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M78" s="116" t="str">
         <f t="shared" ref="M78:N78" si="263">M77</f>
         <v>f</v>
@@ -10188,21 +10205,21 @@
         <f t="shared" si="264"/>
         <v>MK</v>
       </c>
-      <c r="T78" s="103" t="str">
+      <c r="T78" s="103">
         <f t="shared" si="264"/>
-        <v>x</v>
-      </c>
-      <c r="U78" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U78" s="103">
         <f t="shared" si="264"/>
-        <v>x</v>
-      </c>
-      <c r="V78" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V78" s="103">
         <f t="shared" si="264"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W78" s="103" t="str">
         <f t="shared" si="264"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X78" s="103">
         <f t="shared" si="264"/>
@@ -10262,7 +10279,9 @@
         <f t="shared" ref="K79:K80" si="267">CONCATENATE(C79,"_",D79,"_",E79,"_",F79,"_",G79,"_",I79,"_",J79)</f>
         <v>ProVisioNET_pilot_06_06_novice_cam4_1</v>
       </c>
-      <c r="L79" s="116"/>
+      <c r="L79" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M79" s="116" t="str">
         <f t="shared" ref="M79" si="268">M77</f>
         <v>f</v>
@@ -10289,21 +10308,21 @@
         <f t="shared" si="270"/>
         <v>MK</v>
       </c>
-      <c r="T79" s="103" t="str">
+      <c r="T79" s="103">
         <f t="shared" si="270"/>
-        <v>x</v>
-      </c>
-      <c r="U79" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U79" s="103">
         <f t="shared" si="270"/>
-        <v>x</v>
-      </c>
-      <c r="V79" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V79" s="103">
         <f t="shared" si="270"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W79" s="103" t="str">
         <f t="shared" si="270"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X79" s="103">
         <f t="shared" si="270"/>
@@ -10363,7 +10382,9 @@
         <f t="shared" si="267"/>
         <v>ProVisioNET_pilot_06_06_novice_cam4_2</v>
       </c>
-      <c r="L80" s="116"/>
+      <c r="L80" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M80" s="116" t="str">
         <f t="shared" ref="M80:N80" si="273">M79</f>
         <v>f</v>
@@ -10389,21 +10410,21 @@
         <f t="shared" si="274"/>
         <v>MK</v>
       </c>
-      <c r="T80" s="103" t="str">
+      <c r="T80" s="103">
         <f t="shared" si="274"/>
-        <v>x</v>
-      </c>
-      <c r="U80" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U80" s="103">
         <f t="shared" si="274"/>
-        <v>x</v>
-      </c>
-      <c r="V80" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V80" s="103">
         <f t="shared" si="274"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W80" s="103" t="str">
         <f t="shared" si="274"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X80" s="103">
         <f t="shared" si="274"/>
@@ -10461,7 +10482,9 @@
         <f>CONCATENATE(C81,"_",D81,"_",E81,"_",F81,"_",G81,"_",I81)</f>
         <v>ProVisioNET_pilot_06_06_novice_glasses</v>
       </c>
-      <c r="L81" s="116"/>
+      <c r="L81" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M81" s="116" t="str">
         <f>M79</f>
         <v>f</v>
@@ -10488,21 +10511,21 @@
         <f t="shared" si="278"/>
         <v>MK</v>
       </c>
-      <c r="T81" s="103" t="str">
+      <c r="T81" s="103">
         <f t="shared" si="278"/>
-        <v>x</v>
-      </c>
-      <c r="U81" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U81" s="103">
         <f t="shared" si="278"/>
-        <v>x</v>
-      </c>
-      <c r="V81" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V81" s="103">
         <f t="shared" si="278"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W81" s="103" t="str">
         <f t="shared" si="278"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X81" s="103">
         <f t="shared" si="278"/>
@@ -10560,7 +10583,9 @@
         <f>CONCATENATE(C82,"_",D82,"_",E82,"_",F82,"_",G82,"_",I82)</f>
         <v>ProVisioNET_pilot_06_06_novice_ambient</v>
       </c>
-      <c r="L82" s="116"/>
+      <c r="L82" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M82" s="116" t="str">
         <f>M81</f>
         <v>f</v>
@@ -10586,21 +10611,21 @@
         <f t="shared" si="282"/>
         <v>MK</v>
       </c>
-      <c r="T82" s="103" t="str">
+      <c r="T82" s="103">
         <f t="shared" si="282"/>
-        <v>x</v>
-      </c>
-      <c r="U82" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U82" s="103">
         <f t="shared" si="282"/>
-        <v>x</v>
-      </c>
-      <c r="V82" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V82" s="103">
         <f t="shared" si="282"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W82" s="103" t="str">
         <f t="shared" si="282"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X82" s="103">
         <f t="shared" si="282"/>
@@ -10658,7 +10683,9 @@
         <f>CONCATENATE(C83,"_",D83,"_",E83,"_",F83,"_",G83,"_",I83)</f>
         <v>ProVisioNET_pilot_06_06_novice_ETrawdata</v>
       </c>
-      <c r="L83" s="116"/>
+      <c r="L83" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M83" s="116" t="str">
         <f t="shared" ref="M83" si="286">M82</f>
         <v>f</v>
@@ -10686,21 +10713,21 @@
         <f t="shared" si="288"/>
         <v>MK</v>
       </c>
-      <c r="T83" s="103" t="str">
+      <c r="T83" s="103">
         <f t="shared" si="288"/>
-        <v>x</v>
-      </c>
-      <c r="U83" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U83" s="103">
         <f t="shared" si="288"/>
-        <v>x</v>
-      </c>
-      <c r="V83" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V83" s="103">
         <f t="shared" si="288"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W83" s="103" t="str">
         <f t="shared" si="288"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X83" s="103">
         <f t="shared" si="288"/>
@@ -10756,7 +10783,9 @@
         <f>CONCATENATE(C84,"_",D84,"_",E84,"_",F84,"_",G84,"_",I84)</f>
         <v>ProVisioNET_pilot_06_06_novice_sri_obs</v>
       </c>
-      <c r="L84" s="116"/>
+      <c r="L84" s="197" t="s">
+        <v>266</v>
+      </c>
       <c r="M84" s="116" t="str">
         <f t="shared" ref="M84" si="292">M83</f>
         <v>f</v>
@@ -10784,21 +10813,21 @@
         <f t="shared" si="294"/>
         <v>MK</v>
       </c>
-      <c r="T84" s="103" t="str">
+      <c r="T84" s="103">
         <f t="shared" si="294"/>
-        <v>x</v>
-      </c>
-      <c r="U84" s="103" t="str">
+        <v>16</v>
+      </c>
+      <c r="U84" s="103">
         <f t="shared" si="294"/>
-        <v>x</v>
-      </c>
-      <c r="V84" s="103" t="str">
+        <v>6</v>
+      </c>
+      <c r="V84" s="103">
         <f t="shared" si="294"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W84" s="103" t="str">
         <f t="shared" si="294"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X84" s="103">
         <f t="shared" si="294"/>
@@ -10855,7 +10884,9 @@
         <f>CONCATENATE(C85,"_",D85,"_",E85,"_",F85,"_",G85,"_",I85)</f>
         <v>ProVisioNET_pilot_06_06_novice_sri_ambient</v>
       </c>
-      <c r="L85" s="114"/>
+      <c r="L85" s="199" t="s">
+        <v>266</v>
+      </c>
       <c r="M85" s="114" t="str">
         <f t="shared" ref="M85" si="297">M84</f>
         <v>f</v>
@@ -10883,21 +10914,21 @@
         <f t="shared" si="299"/>
         <v>MK</v>
       </c>
-      <c r="T85" s="114" t="str">
+      <c r="T85" s="114">
         <f t="shared" si="299"/>
-        <v>x</v>
-      </c>
-      <c r="U85" s="114" t="str">
+        <v>16</v>
+      </c>
+      <c r="U85" s="114">
         <f t="shared" si="299"/>
-        <v>x</v>
-      </c>
-      <c r="V85" s="114" t="str">
+        <v>6</v>
+      </c>
+      <c r="V85" s="114">
         <f t="shared" si="299"/>
-        <v>x</v>
+        <v>1999</v>
       </c>
       <c r="W85" s="114" t="str">
         <f t="shared" si="299"/>
-        <v>x/x/x</v>
+        <v>16/6/1999</v>
       </c>
       <c r="X85" s="114">
         <f t="shared" si="299"/>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -2493,8 +2493,8 @@
   <dimension ref="A1:AA1015"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{A7E31E37-E88C-4E49-BB43-5F9A6838A2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A18EA6CB-C763-4D69-B590-EB298CC890D7}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{A7E31E37-E88C-4E49-BB43-5F9A6838A2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94319E1A-14D0-4621-BE5B-3BAB76D7333C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="227">
   <si>
     <t>study</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>fitbit</t>
+  </si>
+  <si>
+    <t>✓ (just on hard disk)</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1764,6 +1767,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2165,8 +2174,8 @@
   <dimension ref="A1:AA1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O104" sqref="O104"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10652,7 +10661,9 @@
         <f>CONCATENATE(C86,"_",D86,"_",E86,"_",F86,"_",G86,)</f>
         <v>ProVisioNET_study_101_01_novice</v>
       </c>
-      <c r="L86" s="67"/>
+      <c r="L86" s="67" t="s">
+        <v>115</v>
+      </c>
       <c r="M86" s="73" t="s">
         <v>222</v>
       </c>
@@ -10742,7 +10753,9 @@
         <f>CONCATENATE(C87,"_",D87,"_",E87,"_",F87,"_",G87,"_",I87,"_",J87)</f>
         <v>ProVisioNET_study_101_01_novice_cam1_1</v>
       </c>
-      <c r="L87" s="66"/>
+      <c r="L87" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M87" s="66" t="str">
         <f t="shared" ref="M87:M98" si="302">M86</f>
         <v>m</v>
@@ -10842,7 +10855,9 @@
         <f t="shared" ref="K88:K91" si="316">CONCATENATE(C88,"_",D88,"_",E88,"_",F88,"_",G88,"_",I88,"_",J88)</f>
         <v>ProVisioNET_study_101_01_novice_cam1_2</v>
       </c>
-      <c r="L88" s="66"/>
+      <c r="L88" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M88" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -10942,7 +10957,9 @@
         <f t="shared" si="316"/>
         <v>ProVisioNET_study_101_01_novice_cam2_1</v>
       </c>
-      <c r="L89" s="66"/>
+      <c r="L89" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M89" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11042,7 +11059,9 @@
         <f t="shared" si="316"/>
         <v>ProVisioNET_study_101_01_novice_cam2_2</v>
       </c>
-      <c r="L90" s="66"/>
+      <c r="L90" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M90" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11142,7 +11161,9 @@
         <f t="shared" si="316"/>
         <v>ProVisioNET_study_101_01_novice_cam3_1</v>
       </c>
-      <c r="L91" s="66"/>
+      <c r="L91" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M91" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11242,7 +11263,9 @@
         <f>CONCATENATE(C92,"_",D92,"_",E92,"_",F92,"_",G92,"_",I92,"_",J92)</f>
         <v>ProVisioNET_study_101_01_novice_cam3_2</v>
       </c>
-      <c r="L92" s="66"/>
+      <c r="L92" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M92" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11342,7 +11365,9 @@
         <f t="shared" ref="K93:K94" si="328">CONCATENATE(C93,"_",D93,"_",E93,"_",F93,"_",G93,"_",I93,"_",J93)</f>
         <v>ProVisioNET_study_101_01_novice_cam4_1</v>
       </c>
-      <c r="L93" s="66"/>
+      <c r="L93" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M93" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11442,7 +11467,9 @@
         <f t="shared" si="328"/>
         <v>ProVisioNET_study_101_01_novice_cam4_2</v>
       </c>
-      <c r="L94" s="66"/>
+      <c r="L94" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M94" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11540,7 +11567,9 @@
         <f t="shared" ref="K95:K101" si="333">CONCATENATE(C95,"_",D95,"_",E95,"_",F95,"_",G95,"_",I95)</f>
         <v>ProVisioNET_study_101_01_novice_glasses</v>
       </c>
-      <c r="L95" s="66"/>
+      <c r="L95" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M95" s="66" t="str">
         <f t="shared" ref="M95:S95" si="334">M94</f>
         <v>m</v>
@@ -11638,7 +11667,9 @@
         <f t="shared" si="333"/>
         <v>ProVisioNET_study_101_01_novice_ambient</v>
       </c>
-      <c r="L96" s="66"/>
+      <c r="L96" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M96" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11736,7 +11767,9 @@
         <f t="shared" si="333"/>
         <v>ProVisioNET_study_101_01_novice_ETrawdata</v>
       </c>
-      <c r="L97" s="66"/>
+      <c r="L97" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M97" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11832,7 +11865,9 @@
         <f t="shared" si="333"/>
         <v>ProVisioNET_study_101_01_novice_sri_obs</v>
       </c>
-      <c r="L98" s="66"/>
+      <c r="L98" s="145" t="s">
+        <v>214</v>
+      </c>
       <c r="M98" s="66" t="str">
         <f t="shared" si="302"/>
         <v>m</v>
@@ -11929,7 +11964,9 @@
         <f t="shared" si="333"/>
         <v>ProVisioNET_study_101_01_novice_sri_ambient</v>
       </c>
-      <c r="L99" s="66"/>
+      <c r="L99" s="149" t="s">
+        <v>214</v>
+      </c>
       <c r="M99" s="66" t="str">
         <f t="shared" ref="M99:N100" si="342">M98</f>
         <v>m</v>
@@ -12023,7 +12060,9 @@
         <f t="shared" si="333"/>
         <v>ProVisioNET_study_101_01_novice_fitbit</v>
       </c>
-      <c r="L100" s="66"/>
+      <c r="L100" s="149" t="s">
+        <v>214</v>
+      </c>
       <c r="M100" s="66" t="str">
         <f t="shared" si="342"/>
         <v>m</v>
@@ -12118,7 +12157,9 @@
         <f t="shared" si="333"/>
         <v>ProVisioNET_study_101_01_novice_zed</v>
       </c>
-      <c r="L101" s="132"/>
+      <c r="L101" s="150" t="s">
+        <v>226</v>
+      </c>
       <c r="M101" s="132" t="str">
         <f>M99</f>
         <v>m</v>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{A7E31E37-E88C-4E49-BB43-5F9A6838A2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D9900FF5-817F-4918-96BB-60B987B55AC7}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="14_{A7E31E37-E88C-4E49-BB43-5F9A6838A2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4E89DABD-20E9-428D-ADC0-BB15A0A4E1A1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="206">
   <si>
     <t>study</t>
   </si>
@@ -2094,8 +2094,8 @@
   <dimension ref="A1:AA567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12182,7 +12182,9 @@
       <c r="N102" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="O102" s="63"/>
+      <c r="O102" s="63">
+        <v>7</v>
+      </c>
       <c r="P102" s="63" t="s">
         <v>205</v>
       </c>
@@ -12233,7 +12235,7 @@
         <v>204</v>
       </c>
       <c r="F103" s="62" t="str">
-        <f t="shared" ref="F103:H103" si="349">F102</f>
+        <f t="shared" ref="F103:G103" si="349">F102</f>
         <v>02</v>
       </c>
       <c r="G103" s="58" t="str">
@@ -12253,7 +12255,9 @@
         <f>CONCATENATE(C103,"_",D103,"_",E103,"_",F103,"_",G103,"_",I103,"_",J103)</f>
         <v>ProVisioNET_study_102_02_novice_cam1_1</v>
       </c>
-      <c r="L103" s="138"/>
+      <c r="L103" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M103" s="62" t="str">
         <f t="shared" ref="M103:N114" si="350">M102</f>
         <v>m</v>
@@ -12262,7 +12266,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O103" s="62"/>
+      <c r="O103" s="62">
+        <v>7</v>
+      </c>
       <c r="P103" s="62" t="s">
         <v>205</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>204</v>
       </c>
       <c r="F104" s="62" t="str">
-        <f t="shared" ref="F104:H104" si="353">F103</f>
+        <f t="shared" ref="F104:G104" si="353">F103</f>
         <v>02</v>
       </c>
       <c r="G104" s="58" t="str">
@@ -12338,7 +12344,9 @@
         <f t="shared" ref="K104:K107" si="354">CONCATENATE(C104,"_",D104,"_",E104,"_",F104,"_",G104,"_",I104,"_",J104)</f>
         <v>ProVisioNET_study_102_02_novice_cam1_2</v>
       </c>
-      <c r="L104" s="138"/>
+      <c r="L104" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M104" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12347,7 +12355,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O104" s="62"/>
+      <c r="O104" s="62">
+        <v>7</v>
+      </c>
       <c r="P104" s="62" t="s">
         <v>205</v>
       </c>
@@ -12424,7 +12434,9 @@
         <f t="shared" si="354"/>
         <v>ProVisioNET_study_102_02_novice_cam2_1</v>
       </c>
-      <c r="L105" s="138"/>
+      <c r="L105" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M105" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12433,7 +12445,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O105" s="62"/>
+      <c r="O105" s="62">
+        <v>7</v>
+      </c>
       <c r="P105" s="62" t="s">
         <v>205</v>
       </c>
@@ -12510,7 +12524,9 @@
         <f t="shared" si="354"/>
         <v>ProVisioNET_study_102_02_novice_cam2_2</v>
       </c>
-      <c r="L106" s="138"/>
+      <c r="L106" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M106" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12519,7 +12535,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O106" s="62"/>
+      <c r="O106" s="62">
+        <v>7</v>
+      </c>
       <c r="P106" s="62" t="s">
         <v>205</v>
       </c>
@@ -12596,7 +12614,9 @@
         <f t="shared" si="354"/>
         <v>ProVisioNET_study_102_02_novice_cam3_1</v>
       </c>
-      <c r="L107" s="138"/>
+      <c r="L107" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M107" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12605,7 +12625,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O107" s="62"/>
+      <c r="O107" s="62">
+        <v>7</v>
+      </c>
       <c r="P107" s="62" t="s">
         <v>205</v>
       </c>
@@ -12682,7 +12704,9 @@
         <f>CONCATENATE(C108,"_",D108,"_",E108,"_",F108,"_",G108,"_",I108,"_",J108)</f>
         <v>ProVisioNET_study_102_02_novice_cam3_2</v>
       </c>
-      <c r="L108" s="138"/>
+      <c r="L108" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M108" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12691,7 +12715,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O108" s="62"/>
+      <c r="O108" s="62">
+        <v>7</v>
+      </c>
       <c r="P108" s="62" t="s">
         <v>205</v>
       </c>
@@ -12768,7 +12794,9 @@
         <f t="shared" ref="K109:K110" si="366">CONCATENATE(C109,"_",D109,"_",E109,"_",F109,"_",G109,"_",I109,"_",J109)</f>
         <v>ProVisioNET_study_102_02_novice_cam4_1</v>
       </c>
-      <c r="L109" s="138"/>
+      <c r="L109" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M109" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12777,7 +12805,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O109" s="62"/>
+      <c r="O109" s="62">
+        <v>7</v>
+      </c>
       <c r="P109" s="62" t="s">
         <v>205</v>
       </c>
@@ -12854,7 +12884,9 @@
         <f t="shared" si="366"/>
         <v>ProVisioNET_study_102_02_novice_cam4_2</v>
       </c>
-      <c r="L110" s="138"/>
+      <c r="L110" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M110" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12863,7 +12895,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O110" s="62"/>
+      <c r="O110" s="62">
+        <v>7</v>
+      </c>
       <c r="P110" s="62" t="s">
         <v>205</v>
       </c>
@@ -12938,16 +12972,20 @@
         <f t="shared" ref="K111:K117" si="371">CONCATENATE(C111,"_",D111,"_",E111,"_",F111,"_",G111,"_",I111)</f>
         <v>ProVisioNET_study_102_02_novice_glasses</v>
       </c>
-      <c r="L111" s="138"/>
+      <c r="L111" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M111" s="62" t="str">
-        <f t="shared" ref="M111:S111" si="372">M110</f>
+        <f t="shared" ref="M111:N111" si="372">M110</f>
         <v>m</v>
       </c>
       <c r="N111" s="62" t="str">
         <f t="shared" si="372"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O111" s="62"/>
+      <c r="O111" s="62">
+        <v>7</v>
+      </c>
       <c r="P111" s="62" t="s">
         <v>205</v>
       </c>
@@ -13022,7 +13060,9 @@
         <f t="shared" si="371"/>
         <v>ProVisioNET_study_102_02_novice_ambient</v>
       </c>
-      <c r="L112" s="138"/>
+      <c r="L112" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M112" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -13031,7 +13071,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O112" s="62"/>
+      <c r="O112" s="62">
+        <v>7</v>
+      </c>
       <c r="P112" s="62" t="s">
         <v>205</v>
       </c>
@@ -13080,7 +13122,7 @@
         <v>ProVisioNET</v>
       </c>
       <c r="D113" s="62" t="str">
-        <f t="shared" ref="D113:F113" si="377">D112</f>
+        <f t="shared" ref="D113" si="377">D112</f>
         <v>study</v>
       </c>
       <c r="E113" s="127" t="s">
@@ -13106,7 +13148,9 @@
         <f t="shared" si="371"/>
         <v>ProVisioNET_study_102_02_novice_ETrawdata</v>
       </c>
-      <c r="L113" s="138"/>
+      <c r="L113" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M113" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -13115,7 +13159,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O113" s="62"/>
+      <c r="O113" s="62">
+        <v>7</v>
+      </c>
       <c r="P113" s="62" t="s">
         <v>205</v>
       </c>
@@ -13171,7 +13217,7 @@
         <v>204</v>
       </c>
       <c r="F114" s="62" t="str">
-        <f t="shared" ref="F114:H114" si="380">F113</f>
+        <f t="shared" ref="F114" si="380">F113</f>
         <v>02</v>
       </c>
       <c r="G114" s="62" t="s">
@@ -13188,7 +13234,9 @@
         <f t="shared" si="371"/>
         <v>ProVisioNET_study_102_02_novice_sri_obs</v>
       </c>
-      <c r="L114" s="138"/>
+      <c r="L114" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M114" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -13197,7 +13245,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O114" s="62"/>
+      <c r="O114" s="62">
+        <v>7</v>
+      </c>
       <c r="P114" s="62" t="s">
         <v>205</v>
       </c>
@@ -13271,7 +13321,9 @@
         <f t="shared" si="371"/>
         <v>ProVisioNET_study_102_02_novice_sri_ambient</v>
       </c>
-      <c r="L115" s="142"/>
+      <c r="L115" s="142" t="s">
+        <v>191</v>
+      </c>
       <c r="M115" s="62" t="str">
         <f t="shared" ref="M115:N115" si="382">M114</f>
         <v>m</v>
@@ -13280,7 +13332,9 @@
         <f t="shared" si="382"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O115" s="62"/>
+      <c r="O115" s="62">
+        <v>7</v>
+      </c>
       <c r="P115" s="62" t="s">
         <v>205</v>
       </c>
@@ -13354,7 +13408,9 @@
         <f t="shared" si="371"/>
         <v>ProVisioNET_study_102_02_novice_fitbit</v>
       </c>
-      <c r="L116" s="142"/>
+      <c r="L116" s="142" t="s">
+        <v>191</v>
+      </c>
       <c r="M116" s="62" t="str">
         <f t="shared" ref="M116:N116" si="383">M115</f>
         <v>m</v>
@@ -13363,7 +13419,9 @@
         <f t="shared" si="383"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O116" s="62"/>
+      <c r="O116" s="62">
+        <v>7</v>
+      </c>
       <c r="P116" s="62" t="s">
         <v>205</v>
       </c>
@@ -13435,7 +13493,9 @@
         <f t="shared" si="371"/>
         <v>ProVisioNET_study_102_02_novice_zed</v>
       </c>
-      <c r="L117" s="143"/>
+      <c r="L117" s="143" t="s">
+        <v>203</v>
+      </c>
       <c r="M117" s="125" t="str">
         <f>M115</f>
         <v>m</v>
@@ -13443,7 +13503,9 @@
       <c r="N117" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="O117" s="125"/>
+      <c r="O117" s="125">
+        <v>7</v>
+      </c>
       <c r="P117" s="125" t="s">
         <v>205</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{A7E31E37-E88C-4E49-BB43-5F9A6838A2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D9900FF5-817F-4918-96BB-60B987B55AC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B9AD2-7046-480F-A062-055477CFA2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2095,7 +2095,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+      <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12233,7 +12233,7 @@
         <v>204</v>
       </c>
       <c r="F103" s="62" t="str">
-        <f t="shared" ref="F103:H103" si="349">F102</f>
+        <f t="shared" ref="F103:G103" si="349">F102</f>
         <v>02</v>
       </c>
       <c r="G103" s="58" t="str">
@@ -12318,7 +12318,7 @@
         <v>204</v>
       </c>
       <c r="F104" s="62" t="str">
-        <f t="shared" ref="F104:H104" si="353">F103</f>
+        <f t="shared" ref="F104:G104" si="353">F103</f>
         <v>02</v>
       </c>
       <c r="G104" s="58" t="str">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="L111" s="138"/>
       <c r="M111" s="62" t="str">
-        <f t="shared" ref="M111:S111" si="372">M110</f>
+        <f t="shared" ref="M111:N111" si="372">M110</f>
         <v>m</v>
       </c>
       <c r="N111" s="62" t="str">
@@ -13080,7 +13080,7 @@
         <v>ProVisioNET</v>
       </c>
       <c r="D113" s="62" t="str">
-        <f t="shared" ref="D113:F113" si="377">D112</f>
+        <f t="shared" ref="D113" si="377">D112</f>
         <v>study</v>
       </c>
       <c r="E113" s="127" t="s">
@@ -13171,7 +13171,7 @@
         <v>204</v>
       </c>
       <c r="F114" s="62" t="str">
-        <f t="shared" ref="F114:H114" si="380">F113</f>
+        <f t="shared" ref="F114" si="380">F113</f>
         <v>02</v>
       </c>
       <c r="G114" s="62" t="s">

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B9AD2-7046-480F-A062-055477CFA2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA14CB41-99B5-454C-A4C5-544FF0544135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="207">
   <si>
     <t>study</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>History</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2097,7 @@
   <dimension ref="A1:AA567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
@@ -12182,7 +12185,9 @@
       <c r="N102" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="O102" s="63"/>
+      <c r="O102" s="63">
+        <v>6</v>
+      </c>
       <c r="P102" s="63" t="s">
         <v>205</v>
       </c>
@@ -12195,10 +12200,19 @@
       <c r="S102" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="T102" s="56"/>
-      <c r="U102" s="56"/>
-      <c r="V102" s="56"/>
-      <c r="W102" s="56"/>
+      <c r="T102" s="56">
+        <v>22</v>
+      </c>
+      <c r="U102" s="56">
+        <v>11</v>
+      </c>
+      <c r="V102" s="56">
+        <v>1996</v>
+      </c>
+      <c r="W102" s="56" t="str">
+        <f>T102&amp;"/"&amp;U102&amp;"/"&amp;V102</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X102" s="56">
         <v>27</v>
       </c>
@@ -12262,7 +12276,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O103" s="62"/>
+      <c r="O103" s="62">
+        <v>6</v>
+      </c>
       <c r="P103" s="62" t="s">
         <v>205</v>
       </c>
@@ -12277,10 +12293,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T103" s="58"/>
-      <c r="U103" s="58"/>
-      <c r="V103" s="58"/>
-      <c r="W103" s="58"/>
+      <c r="T103" s="58">
+        <v>22</v>
+      </c>
+      <c r="U103" s="58">
+        <v>11</v>
+      </c>
+      <c r="V103" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W103" s="58" t="str">
+        <f t="shared" ref="W103:W110" si="352">W102</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X103" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12303,26 +12328,26 @@
         <v>117</v>
       </c>
       <c r="B104" s="62">
-        <f t="shared" ref="B104:D104" si="352">B103</f>
+        <f t="shared" ref="B104:D104" si="353">B103</f>
         <v>2</v>
       </c>
       <c r="C104" s="62" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D104" s="62" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>study</v>
       </c>
       <c r="E104" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F104" s="62" t="str">
-        <f t="shared" ref="F104:G104" si="353">F103</f>
+        <f t="shared" ref="F104:G104" si="354">F103</f>
         <v>02</v>
       </c>
       <c r="G104" s="58" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>novice</v>
       </c>
       <c r="H104" s="62">
@@ -12335,7 +12360,7 @@
         <v>2</v>
       </c>
       <c r="K104" s="62" t="str">
-        <f t="shared" ref="K104:K107" si="354">CONCATENATE(C104,"_",D104,"_",E104,"_",F104,"_",G104,"_",I104,"_",J104)</f>
+        <f t="shared" ref="K104:K107" si="355">CONCATENATE(C104,"_",D104,"_",E104,"_",F104,"_",G104,"_",I104,"_",J104)</f>
         <v>ProVisioNET_study_102_02_novice_cam1_2</v>
       </c>
       <c r="L104" s="138"/>
@@ -12347,7 +12372,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O104" s="62"/>
+      <c r="O104" s="62">
+        <v>6</v>
+      </c>
       <c r="P104" s="62" t="s">
         <v>205</v>
       </c>
@@ -12362,10 +12389,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T104" s="58"/>
-      <c r="U104" s="58"/>
-      <c r="V104" s="58"/>
-      <c r="W104" s="58"/>
+      <c r="T104" s="58">
+        <v>22</v>
+      </c>
+      <c r="U104" s="58">
+        <v>11</v>
+      </c>
+      <c r="V104" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W104" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X104" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12388,30 +12424,30 @@
         <v>117</v>
       </c>
       <c r="B105" s="62">
-        <f t="shared" ref="B105:C105" si="355">B104</f>
+        <f t="shared" ref="B105:C105" si="356">B104</f>
         <v>2</v>
       </c>
       <c r="C105" s="62" t="str">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D105" s="62" t="str">
-        <f t="shared" ref="D105:D111" si="356">D103</f>
+        <f t="shared" ref="D105:D111" si="357">D103</f>
         <v>study</v>
       </c>
       <c r="E105" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F105" s="62" t="str">
-        <f t="shared" ref="F105:H105" si="357">F103</f>
+        <f t="shared" ref="F105:H105" si="358">F103</f>
         <v>02</v>
       </c>
       <c r="G105" s="58" t="str">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>novice</v>
       </c>
       <c r="H105" s="62">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>2</v>
       </c>
       <c r="I105" s="62" t="s">
@@ -12421,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="62" t="str">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>ProVisioNET_study_102_02_novice_cam2_1</v>
       </c>
       <c r="L105" s="138"/>
@@ -12433,7 +12469,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O105" s="62"/>
+      <c r="O105" s="62">
+        <v>6</v>
+      </c>
       <c r="P105" s="62" t="s">
         <v>205</v>
       </c>
@@ -12448,10 +12486,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T105" s="58"/>
-      <c r="U105" s="58"/>
-      <c r="V105" s="58"/>
-      <c r="W105" s="58"/>
+      <c r="T105" s="58">
+        <v>22</v>
+      </c>
+      <c r="U105" s="58">
+        <v>11</v>
+      </c>
+      <c r="V105" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W105" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X105" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12474,30 +12521,30 @@
         <v>117</v>
       </c>
       <c r="B106" s="62">
-        <f t="shared" ref="B106:C106" si="358">B105</f>
+        <f t="shared" ref="B106:C106" si="359">B105</f>
         <v>2</v>
       </c>
       <c r="C106" s="62" t="str">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D106" s="62" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>study</v>
       </c>
       <c r="E106" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F106" s="62" t="str">
-        <f t="shared" ref="F106:H106" si="359">F104</f>
+        <f t="shared" ref="F106:H106" si="360">F104</f>
         <v>02</v>
       </c>
       <c r="G106" s="58" t="str">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>novice</v>
       </c>
       <c r="H106" s="62">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>2</v>
       </c>
       <c r="I106" s="62" t="s">
@@ -12507,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="K106" s="62" t="str">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>ProVisioNET_study_102_02_novice_cam2_2</v>
       </c>
       <c r="L106" s="138"/>
@@ -12519,7 +12566,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O106" s="62"/>
+      <c r="O106" s="62">
+        <v>6</v>
+      </c>
       <c r="P106" s="62" t="s">
         <v>205</v>
       </c>
@@ -12534,10 +12583,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T106" s="58"/>
-      <c r="U106" s="58"/>
-      <c r="V106" s="58"/>
-      <c r="W106" s="58"/>
+      <c r="T106" s="58">
+        <v>22</v>
+      </c>
+      <c r="U106" s="58">
+        <v>11</v>
+      </c>
+      <c r="V106" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W106" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X106" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12560,30 +12618,30 @@
         <v>117</v>
       </c>
       <c r="B107" s="62">
-        <f t="shared" ref="B107:C107" si="360">B106</f>
+        <f t="shared" ref="B107:C107" si="361">B106</f>
         <v>2</v>
       </c>
       <c r="C107" s="62" t="str">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D107" s="62" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>study</v>
       </c>
       <c r="E107" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F107" s="62" t="str">
-        <f t="shared" ref="F107:H107" si="361">F105</f>
+        <f t="shared" ref="F107:H107" si="362">F105</f>
         <v>02</v>
       </c>
       <c r="G107" s="58" t="str">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>novice</v>
       </c>
       <c r="H107" s="62">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>2</v>
       </c>
       <c r="I107" s="62" t="s">
@@ -12593,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="62" t="str">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>ProVisioNET_study_102_02_novice_cam3_1</v>
       </c>
       <c r="L107" s="138"/>
@@ -12605,7 +12663,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O107" s="62"/>
+      <c r="O107" s="62">
+        <v>6</v>
+      </c>
       <c r="P107" s="62" t="s">
         <v>205</v>
       </c>
@@ -12620,10 +12680,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T107" s="58"/>
-      <c r="U107" s="58"/>
-      <c r="V107" s="58"/>
-      <c r="W107" s="58"/>
+      <c r="T107" s="58">
+        <v>22</v>
+      </c>
+      <c r="U107" s="58">
+        <v>11</v>
+      </c>
+      <c r="V107" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W107" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X107" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12646,30 +12715,30 @@
         <v>117</v>
       </c>
       <c r="B108" s="62">
-        <f t="shared" ref="B108:C108" si="362">B107</f>
+        <f t="shared" ref="B108:C108" si="363">B107</f>
         <v>2</v>
       </c>
       <c r="C108" s="62" t="str">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D108" s="62" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>study</v>
       </c>
       <c r="E108" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F108" s="62" t="str">
-        <f t="shared" ref="F108:H108" si="363">F106</f>
+        <f t="shared" ref="F108:H108" si="364">F106</f>
         <v>02</v>
       </c>
       <c r="G108" s="58" t="str">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>novice</v>
       </c>
       <c r="H108" s="62">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>2</v>
       </c>
       <c r="I108" s="62" t="s">
@@ -12691,7 +12760,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O108" s="62"/>
+      <c r="O108" s="62">
+        <v>6</v>
+      </c>
       <c r="P108" s="62" t="s">
         <v>205</v>
       </c>
@@ -12706,10 +12777,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T108" s="58"/>
-      <c r="U108" s="58"/>
-      <c r="V108" s="58"/>
-      <c r="W108" s="58"/>
+      <c r="T108" s="58">
+        <v>22</v>
+      </c>
+      <c r="U108" s="58">
+        <v>11</v>
+      </c>
+      <c r="V108" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W108" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X108" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12732,30 +12812,30 @@
         <v>117</v>
       </c>
       <c r="B109" s="62">
-        <f t="shared" ref="B109:C109" si="364">B108</f>
+        <f t="shared" ref="B109:C109" si="365">B108</f>
         <v>2</v>
       </c>
       <c r="C109" s="62" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D109" s="62" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>study</v>
       </c>
       <c r="E109" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F109" s="62" t="str">
-        <f t="shared" ref="F109:H109" si="365">F107</f>
+        <f t="shared" ref="F109:H109" si="366">F107</f>
         <v>02</v>
       </c>
       <c r="G109" s="58" t="str">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>novice</v>
       </c>
       <c r="H109" s="62">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>2</v>
       </c>
       <c r="I109" s="62" t="s">
@@ -12765,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="62" t="str">
-        <f t="shared" ref="K109:K110" si="366">CONCATENATE(C109,"_",D109,"_",E109,"_",F109,"_",G109,"_",I109,"_",J109)</f>
+        <f t="shared" ref="K109:K110" si="367">CONCATENATE(C109,"_",D109,"_",E109,"_",F109,"_",G109,"_",I109,"_",J109)</f>
         <v>ProVisioNET_study_102_02_novice_cam4_1</v>
       </c>
       <c r="L109" s="138"/>
@@ -12777,7 +12857,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O109" s="62"/>
+      <c r="O109" s="62">
+        <v>6</v>
+      </c>
       <c r="P109" s="62" t="s">
         <v>205</v>
       </c>
@@ -12792,10 +12874,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T109" s="58"/>
-      <c r="U109" s="58"/>
-      <c r="V109" s="58"/>
-      <c r="W109" s="58"/>
+      <c r="T109" s="58">
+        <v>22</v>
+      </c>
+      <c r="U109" s="58">
+        <v>11</v>
+      </c>
+      <c r="V109" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W109" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X109" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12818,30 +12909,30 @@
         <v>117</v>
       </c>
       <c r="B110" s="62">
-        <f t="shared" ref="B110:C110" si="367">B109</f>
+        <f t="shared" ref="B110:C110" si="368">B109</f>
         <v>2</v>
       </c>
       <c r="C110" s="62" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D110" s="62" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>study</v>
       </c>
       <c r="E110" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F110" s="62" t="str">
-        <f t="shared" ref="F110:H110" si="368">F108</f>
+        <f t="shared" ref="F110:H110" si="369">F108</f>
         <v>02</v>
       </c>
       <c r="G110" s="58" t="str">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>novice</v>
       </c>
       <c r="H110" s="62">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>2</v>
       </c>
       <c r="I110" s="62" t="s">
@@ -12851,7 +12942,7 @@
         <v>2</v>
       </c>
       <c r="K110" s="62" t="str">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>ProVisioNET_study_102_02_novice_cam4_2</v>
       </c>
       <c r="L110" s="138"/>
@@ -12863,7 +12954,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O110" s="62"/>
+      <c r="O110" s="62">
+        <v>6</v>
+      </c>
       <c r="P110" s="62" t="s">
         <v>205</v>
       </c>
@@ -12878,10 +12971,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T110" s="58"/>
-      <c r="U110" s="58"/>
-      <c r="V110" s="58"/>
-      <c r="W110" s="58"/>
+      <c r="T110" s="58">
+        <v>22</v>
+      </c>
+      <c r="U110" s="58">
+        <v>11</v>
+      </c>
+      <c r="V110" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W110" s="58" t="str">
+        <f t="shared" si="352"/>
+        <v>22/11/1996</v>
+      </c>
       <c r="X110" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -12904,26 +13006,26 @@
         <v>117</v>
       </c>
       <c r="B111" s="62">
-        <f t="shared" ref="B111:C111" si="369">B110</f>
+        <f t="shared" ref="B111:C111" si="370">B110</f>
         <v>2</v>
       </c>
       <c r="C111" s="62" t="str">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D111" s="62" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>study</v>
       </c>
       <c r="E111" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F111" s="62" t="str">
-        <f t="shared" ref="F111:G111" si="370">F109</f>
+        <f t="shared" ref="F111:G111" si="371">F109</f>
         <v>02</v>
       </c>
       <c r="G111" s="62" t="str">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>novice</v>
       </c>
       <c r="H111" s="62">
@@ -12935,19 +13037,21 @@
       </c>
       <c r="J111" s="62"/>
       <c r="K111" s="62" t="str">
-        <f t="shared" ref="K111:K117" si="371">CONCATENATE(C111,"_",D111,"_",E111,"_",F111,"_",G111,"_",I111)</f>
+        <f t="shared" ref="K111:K117" si="372">CONCATENATE(C111,"_",D111,"_",E111,"_",F111,"_",G111,"_",I111)</f>
         <v>ProVisioNET_study_102_02_novice_glasses</v>
       </c>
       <c r="L111" s="138"/>
       <c r="M111" s="62" t="str">
-        <f t="shared" ref="M111:N111" si="372">M110</f>
+        <f t="shared" ref="M111:N111" si="373">M110</f>
         <v>m</v>
       </c>
       <c r="N111" s="62" t="str">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O111" s="62"/>
+      <c r="O111" s="62">
+        <v>6</v>
+      </c>
       <c r="P111" s="62" t="s">
         <v>205</v>
       </c>
@@ -12955,31 +13059,40 @@
         <v>0</v>
       </c>
       <c r="R111" s="58" t="str">
-        <f t="shared" ref="R111:AA111" si="373">R110</f>
+        <f t="shared" ref="R111:AA111" si="374">R110</f>
         <v>lab</v>
       </c>
       <c r="S111" s="58" t="str">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>MK</v>
       </c>
-      <c r="T111" s="58"/>
-      <c r="U111" s="58"/>
-      <c r="V111" s="58"/>
-      <c r="W111" s="58"/>
+      <c r="T111" s="58">
+        <v>22</v>
+      </c>
+      <c r="U111" s="58">
+        <v>11</v>
+      </c>
+      <c r="V111" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W111" s="58" t="str">
+        <f t="shared" ref="W111" si="375">W110</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X111" s="58">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>27</v>
       </c>
       <c r="Y111" s="58">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>7</v>
       </c>
       <c r="Z111" s="58">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>2021</v>
       </c>
       <c r="AA111" s="58" t="str">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>27/7/2021</v>
       </c>
     </row>
@@ -12988,30 +13101,30 @@
         <v>117</v>
       </c>
       <c r="B112" s="62">
-        <f t="shared" ref="B112:D112" si="374">B111</f>
+        <f t="shared" ref="B112:D112" si="376">B111</f>
         <v>2</v>
       </c>
       <c r="C112" s="62" t="str">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D112" s="62" t="str">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>study</v>
       </c>
       <c r="E112" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F112" s="62" t="str">
-        <f t="shared" ref="F112:H112" si="375">F111</f>
+        <f t="shared" ref="F112:H112" si="377">F111</f>
         <v>02</v>
       </c>
       <c r="G112" s="62" t="str">
-        <f t="shared" si="375"/>
+        <f t="shared" si="377"/>
         <v>novice</v>
       </c>
       <c r="H112" s="62">
-        <f t="shared" si="375"/>
+        <f t="shared" si="377"/>
         <v>2</v>
       </c>
       <c r="I112" s="62" t="s">
@@ -13019,7 +13132,7 @@
       </c>
       <c r="J112" s="62"/>
       <c r="K112" s="62" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_ambient</v>
       </c>
       <c r="L112" s="138"/>
@@ -13031,7 +13144,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O112" s="62"/>
+      <c r="O112" s="62">
+        <v>6</v>
+      </c>
       <c r="P112" s="62" t="s">
         <v>205</v>
       </c>
@@ -13046,10 +13161,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T112" s="58"/>
-      <c r="U112" s="58"/>
-      <c r="V112" s="58"/>
-      <c r="W112" s="58"/>
+      <c r="T112" s="58">
+        <v>22</v>
+      </c>
+      <c r="U112" s="58">
+        <v>11</v>
+      </c>
+      <c r="V112" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W112" s="58" t="str">
+        <f t="shared" ref="W112" si="378">W111</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X112" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -13072,30 +13196,30 @@
         <v>117</v>
       </c>
       <c r="B113" s="62">
-        <f t="shared" ref="B113:C113" si="376">B111</f>
+        <f t="shared" ref="B113:C113" si="379">B111</f>
         <v>2</v>
       </c>
       <c r="C113" s="62" t="str">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D113" s="62" t="str">
-        <f t="shared" ref="D113" si="377">D112</f>
+        <f t="shared" ref="D113" si="380">D112</f>
         <v>study</v>
       </c>
       <c r="E113" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F113" s="62" t="str">
-        <f t="shared" ref="F113:H113" si="378">F112</f>
+        <f t="shared" ref="F113:H113" si="381">F112</f>
         <v>02</v>
       </c>
       <c r="G113" s="62" t="str">
-        <f t="shared" si="378"/>
+        <f t="shared" si="381"/>
         <v>novice</v>
       </c>
       <c r="H113" s="62">
-        <f t="shared" si="378"/>
+        <f t="shared" si="381"/>
         <v>2</v>
       </c>
       <c r="I113" s="62" t="s">
@@ -13103,7 +13227,7 @@
       </c>
       <c r="J113" s="62"/>
       <c r="K113" s="62" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_ETrawdata</v>
       </c>
       <c r="L113" s="138"/>
@@ -13115,7 +13239,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O113" s="62"/>
+      <c r="O113" s="62">
+        <v>6</v>
+      </c>
       <c r="P113" s="62" t="s">
         <v>205</v>
       </c>
@@ -13130,10 +13256,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T113" s="58"/>
-      <c r="U113" s="58"/>
-      <c r="V113" s="58"/>
-      <c r="W113" s="58"/>
+      <c r="T113" s="58">
+        <v>22</v>
+      </c>
+      <c r="U113" s="58">
+        <v>11</v>
+      </c>
+      <c r="V113" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W113" s="58" t="str">
+        <f t="shared" ref="W113" si="382">W112</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X113" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -13156,22 +13291,22 @@
         <v>117</v>
       </c>
       <c r="B114" s="62">
-        <f t="shared" ref="B114:D114" si="379">B113</f>
+        <f t="shared" ref="B114:D114" si="383">B113</f>
         <v>2</v>
       </c>
       <c r="C114" s="62" t="str">
-        <f t="shared" si="379"/>
+        <f t="shared" si="383"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D114" s="62" t="str">
-        <f t="shared" si="379"/>
+        <f t="shared" si="383"/>
         <v>study</v>
       </c>
       <c r="E114" s="127" t="s">
         <v>204</v>
       </c>
       <c r="F114" s="62" t="str">
-        <f t="shared" ref="F114" si="380">F113</f>
+        <f t="shared" ref="F114" si="384">F113</f>
         <v>02</v>
       </c>
       <c r="G114" s="62" t="s">
@@ -13185,7 +13320,7 @@
       </c>
       <c r="J114" s="62"/>
       <c r="K114" s="62" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_sri_obs</v>
       </c>
       <c r="L114" s="138"/>
@@ -13197,7 +13332,9 @@
         <f t="shared" si="350"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O114" s="62"/>
+      <c r="O114" s="62">
+        <v>6</v>
+      </c>
       <c r="P114" s="62" t="s">
         <v>205</v>
       </c>
@@ -13212,10 +13349,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T114" s="58"/>
-      <c r="U114" s="58"/>
-      <c r="V114" s="58"/>
-      <c r="W114" s="58"/>
+      <c r="T114" s="58">
+        <v>22</v>
+      </c>
+      <c r="U114" s="58">
+        <v>11</v>
+      </c>
+      <c r="V114" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W114" s="58" t="str">
+        <f t="shared" ref="W114" si="385">W113</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X114" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -13238,15 +13384,15 @@
         <v>117</v>
       </c>
       <c r="B115" s="62">
-        <f t="shared" ref="B115:D116" si="381">B114</f>
+        <f t="shared" ref="B115:D116" si="386">B114</f>
         <v>2</v>
       </c>
       <c r="C115" s="62" t="str">
-        <f t="shared" si="381"/>
+        <f t="shared" si="386"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D115" s="62" t="str">
-        <f t="shared" si="381"/>
+        <f t="shared" si="386"/>
         <v>study</v>
       </c>
       <c r="E115" s="127" t="s">
@@ -13268,19 +13414,21 @@
       </c>
       <c r="J115" s="62"/>
       <c r="K115" s="62" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_sri_ambient</v>
       </c>
       <c r="L115" s="142"/>
       <c r="M115" s="62" t="str">
-        <f t="shared" ref="M115:N115" si="382">M114</f>
+        <f t="shared" ref="M115:N115" si="387">M114</f>
         <v>m</v>
       </c>
       <c r="N115" s="62" t="str">
-        <f t="shared" si="382"/>
+        <f t="shared" si="387"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O115" s="62"/>
+      <c r="O115" s="62">
+        <v>6</v>
+      </c>
       <c r="P115" s="62" t="s">
         <v>205</v>
       </c>
@@ -13295,10 +13443,19 @@
         <f t="shared" si="351"/>
         <v>MK</v>
       </c>
-      <c r="T115" s="58"/>
-      <c r="U115" s="58"/>
-      <c r="V115" s="58"/>
-      <c r="W115" s="58"/>
+      <c r="T115" s="58">
+        <v>22</v>
+      </c>
+      <c r="U115" s="58">
+        <v>11</v>
+      </c>
+      <c r="V115" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W115" s="58" t="str">
+        <f t="shared" ref="W115" si="388">W114</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X115" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -13321,15 +13478,15 @@
         <v>117</v>
       </c>
       <c r="B116" s="62">
-        <f t="shared" si="381"/>
+        <f t="shared" si="386"/>
         <v>2</v>
       </c>
       <c r="C116" s="62" t="str">
-        <f t="shared" si="381"/>
+        <f t="shared" si="386"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D116" s="62" t="str">
-        <f t="shared" si="381"/>
+        <f t="shared" si="386"/>
         <v>study</v>
       </c>
       <c r="E116" s="127" t="s">
@@ -13351,19 +13508,21 @@
       </c>
       <c r="J116" s="62"/>
       <c r="K116" s="62" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_fitbit</v>
       </c>
       <c r="L116" s="142"/>
       <c r="M116" s="62" t="str">
-        <f t="shared" ref="M116:N116" si="383">M115</f>
+        <f t="shared" ref="M116:N116" si="389">M115</f>
         <v>m</v>
       </c>
       <c r="N116" s="62" t="str">
-        <f t="shared" si="383"/>
+        <f t="shared" si="389"/>
         <v>Gymnasium</v>
       </c>
-      <c r="O116" s="62"/>
+      <c r="O116" s="62">
+        <v>6</v>
+      </c>
       <c r="P116" s="62" t="s">
         <v>205</v>
       </c>
@@ -13376,10 +13535,19 @@
       <c r="S116" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T116" s="58"/>
-      <c r="U116" s="58"/>
-      <c r="V116" s="58"/>
-      <c r="W116" s="58"/>
+      <c r="T116" s="58">
+        <v>22</v>
+      </c>
+      <c r="U116" s="58">
+        <v>11</v>
+      </c>
+      <c r="V116" s="58">
+        <v>1996</v>
+      </c>
+      <c r="W116" s="58" t="str">
+        <f t="shared" ref="W116" si="390">W115</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X116" s="58">
         <f t="shared" si="351"/>
         <v>27</v>
@@ -13432,7 +13600,7 @@
       </c>
       <c r="J117" s="125"/>
       <c r="K117" s="125" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_zed</v>
       </c>
       <c r="L117" s="143"/>
@@ -13443,7 +13611,9 @@
       <c r="N117" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="O117" s="125"/>
+      <c r="O117" s="125">
+        <v>6</v>
+      </c>
       <c r="P117" s="125" t="s">
         <v>205</v>
       </c>
@@ -13458,25 +13628,1548 @@
         <f>S115</f>
         <v>MK</v>
       </c>
-      <c r="T117" s="125"/>
-      <c r="U117" s="125"/>
-      <c r="V117" s="125"/>
-      <c r="W117" s="125"/>
+      <c r="T117" s="125">
+        <v>22</v>
+      </c>
+      <c r="U117" s="125">
+        <v>11</v>
+      </c>
+      <c r="V117" s="125">
+        <v>1996</v>
+      </c>
+      <c r="W117" s="125" t="str">
+        <f t="shared" ref="W117" si="391">W116</f>
+        <v>22/11/1996</v>
+      </c>
       <c r="X117" s="125">
-        <f t="shared" ref="X117:AA117" si="384">X115</f>
+        <f t="shared" ref="X117:AA117" si="392">X115</f>
         <v>27</v>
       </c>
       <c r="Y117" s="125">
-        <f t="shared" si="384"/>
+        <f t="shared" si="392"/>
         <v>7</v>
       </c>
       <c r="Z117" s="125">
-        <f t="shared" si="384"/>
+        <f t="shared" si="392"/>
         <v>2021</v>
       </c>
       <c r="AA117" s="125" t="str">
-        <f t="shared" si="384"/>
+        <f t="shared" si="392"/>
         <v>27/7/2021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="63">
+        <v>3</v>
+      </c>
+      <c r="C118" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="H118" s="63">
+        <v>3</v>
+      </c>
+      <c r="I118" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="J118" s="63"/>
+      <c r="K118" s="123" t="str">
+        <f>CONCATENATE(C118,"_",D118,"_",E118,"_",F118,"_",G118,)</f>
+        <v>ProVisioNET_study_103_03_novice</v>
+      </c>
+      <c r="L118" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="M118" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N118" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="O118" s="63">
+        <v>11</v>
+      </c>
+      <c r="P118" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q118" s="63">
+        <v>0</v>
+      </c>
+      <c r="R118" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="S118" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T118" s="56">
+        <v>1</v>
+      </c>
+      <c r="U118" s="56">
+        <v>7</v>
+      </c>
+      <c r="V118" s="56">
+        <v>1997</v>
+      </c>
+      <c r="W118" s="56" t="str">
+        <f>T118&amp;"/"&amp;U118&amp;"/"&amp;V118</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X118" s="56">
+        <v>28</v>
+      </c>
+      <c r="Y118" s="56">
+        <v>7</v>
+      </c>
+      <c r="Z118" s="56">
+        <v>2021</v>
+      </c>
+      <c r="AA118" s="56" t="str">
+        <f>X118&amp;"/"&amp;Y118&amp;"/"&amp;Z118</f>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="62">
+        <f t="shared" ref="B119:D119" si="393">B118</f>
+        <v>3</v>
+      </c>
+      <c r="C119" s="62" t="str">
+        <f t="shared" si="393"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D119" s="62" t="str">
+        <f t="shared" si="393"/>
+        <v>study</v>
+      </c>
+      <c r="E119" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" s="62" t="str">
+        <f t="shared" ref="F119:G119" si="394">F118</f>
+        <v>03</v>
+      </c>
+      <c r="G119" s="58" t="str">
+        <f t="shared" si="394"/>
+        <v>novice</v>
+      </c>
+      <c r="H119" s="62">
+        <v>3</v>
+      </c>
+      <c r="I119" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J119" s="62">
+        <v>1</v>
+      </c>
+      <c r="K119" s="62" t="str">
+        <f>CONCATENATE(C119,"_",D119,"_",E119,"_",F119,"_",G119,"_",I119,"_",J119)</f>
+        <v>ProVisioNET_study_103_03_novice_cam1_1</v>
+      </c>
+      <c r="L119" s="138"/>
+      <c r="M119" s="62" t="str">
+        <f t="shared" ref="M119:N119" si="395">M118</f>
+        <v>f</v>
+      </c>
+      <c r="N119" s="62" t="str">
+        <f t="shared" si="395"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O119" s="62">
+        <v>11</v>
+      </c>
+      <c r="P119" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q119" s="62">
+        <v>0</v>
+      </c>
+      <c r="R119" s="58" t="str">
+        <f t="shared" ref="R119:Y119" si="396">R118</f>
+        <v>lab</v>
+      </c>
+      <c r="S119" s="58" t="str">
+        <f t="shared" si="396"/>
+        <v>MK</v>
+      </c>
+      <c r="T119" s="58">
+        <v>1</v>
+      </c>
+      <c r="U119" s="58">
+        <v>7</v>
+      </c>
+      <c r="V119" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W119" s="58" t="str">
+        <f t="shared" ref="W119:W126" si="397">W118</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X119" s="58">
+        <f t="shared" ref="X119:AE119" si="398">X118</f>
+        <v>28</v>
+      </c>
+      <c r="Y119" s="58">
+        <f t="shared" si="398"/>
+        <v>7</v>
+      </c>
+      <c r="Z119" s="58">
+        <f t="shared" si="398"/>
+        <v>2021</v>
+      </c>
+      <c r="AA119" s="58" t="str">
+        <f t="shared" si="398"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="62">
+        <f t="shared" ref="B120:D120" si="399">B119</f>
+        <v>3</v>
+      </c>
+      <c r="C120" s="62" t="str">
+        <f t="shared" si="399"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D120" s="62" t="str">
+        <f t="shared" si="399"/>
+        <v>study</v>
+      </c>
+      <c r="E120" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F120" s="62" t="str">
+        <f t="shared" ref="F120:G120" si="400">F119</f>
+        <v>03</v>
+      </c>
+      <c r="G120" s="58" t="str">
+        <f t="shared" si="400"/>
+        <v>novice</v>
+      </c>
+      <c r="H120" s="62">
+        <v>3</v>
+      </c>
+      <c r="I120" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J120" s="62">
+        <v>2</v>
+      </c>
+      <c r="K120" s="62" t="str">
+        <f t="shared" ref="K120:K123" si="401">CONCATENATE(C120,"_",D120,"_",E120,"_",F120,"_",G120,"_",I120,"_",J120)</f>
+        <v>ProVisioNET_study_103_03_novice_cam1_2</v>
+      </c>
+      <c r="L120" s="138"/>
+      <c r="M120" s="62" t="str">
+        <f t="shared" ref="M120:N120" si="402">M119</f>
+        <v>f</v>
+      </c>
+      <c r="N120" s="62" t="str">
+        <f t="shared" si="402"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O120" s="62">
+        <v>11</v>
+      </c>
+      <c r="P120" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q120" s="62">
+        <v>0</v>
+      </c>
+      <c r="R120" s="58" t="str">
+        <f t="shared" ref="R120:Y120" si="403">R119</f>
+        <v>lab</v>
+      </c>
+      <c r="S120" s="58" t="str">
+        <f t="shared" si="403"/>
+        <v>MK</v>
+      </c>
+      <c r="T120" s="58">
+        <v>1</v>
+      </c>
+      <c r="U120" s="58">
+        <v>7</v>
+      </c>
+      <c r="V120" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W120" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X120" s="58">
+        <f t="shared" ref="X120:AE120" si="404">X119</f>
+        <v>28</v>
+      </c>
+      <c r="Y120" s="58">
+        <f t="shared" si="404"/>
+        <v>7</v>
+      </c>
+      <c r="Z120" s="58">
+        <f t="shared" si="404"/>
+        <v>2021</v>
+      </c>
+      <c r="AA120" s="58" t="str">
+        <f t="shared" si="404"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="62">
+        <f t="shared" ref="B121:C121" si="405">B120</f>
+        <v>3</v>
+      </c>
+      <c r="C121" s="62" t="str">
+        <f t="shared" si="405"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D121" s="62" t="str">
+        <f t="shared" ref="D121:D127" si="406">D119</f>
+        <v>study</v>
+      </c>
+      <c r="E121" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F121" s="62" t="str">
+        <f t="shared" ref="F121:H121" si="407">F119</f>
+        <v>03</v>
+      </c>
+      <c r="G121" s="58" t="str">
+        <f t="shared" si="407"/>
+        <v>novice</v>
+      </c>
+      <c r="H121" s="62">
+        <v>3</v>
+      </c>
+      <c r="I121" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="62">
+        <v>1</v>
+      </c>
+      <c r="K121" s="62" t="str">
+        <f t="shared" si="401"/>
+        <v>ProVisioNET_study_103_03_novice_cam2_1</v>
+      </c>
+      <c r="L121" s="138"/>
+      <c r="M121" s="62" t="str">
+        <f t="shared" ref="M121:N121" si="408">M120</f>
+        <v>f</v>
+      </c>
+      <c r="N121" s="62" t="str">
+        <f t="shared" si="408"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O121" s="62">
+        <v>11</v>
+      </c>
+      <c r="P121" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q121" s="62">
+        <v>0</v>
+      </c>
+      <c r="R121" s="58" t="str">
+        <f t="shared" ref="R121:Y121" si="409">R120</f>
+        <v>lab</v>
+      </c>
+      <c r="S121" s="58" t="str">
+        <f t="shared" si="409"/>
+        <v>MK</v>
+      </c>
+      <c r="T121" s="58">
+        <v>1</v>
+      </c>
+      <c r="U121" s="58">
+        <v>7</v>
+      </c>
+      <c r="V121" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W121" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X121" s="58">
+        <f t="shared" ref="X121:AE121" si="410">X120</f>
+        <v>28</v>
+      </c>
+      <c r="Y121" s="58">
+        <f t="shared" si="410"/>
+        <v>7</v>
+      </c>
+      <c r="Z121" s="58">
+        <f t="shared" si="410"/>
+        <v>2021</v>
+      </c>
+      <c r="AA121" s="58" t="str">
+        <f t="shared" si="410"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="62">
+        <f t="shared" ref="B122:C122" si="411">B121</f>
+        <v>3</v>
+      </c>
+      <c r="C122" s="62" t="str">
+        <f t="shared" si="411"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D122" s="62" t="str">
+        <f t="shared" si="406"/>
+        <v>study</v>
+      </c>
+      <c r="E122" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F122" s="62" t="str">
+        <f t="shared" ref="F122:H122" si="412">F120</f>
+        <v>03</v>
+      </c>
+      <c r="G122" s="58" t="str">
+        <f t="shared" si="412"/>
+        <v>novice</v>
+      </c>
+      <c r="H122" s="62">
+        <f t="shared" si="412"/>
+        <v>3</v>
+      </c>
+      <c r="I122" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="62">
+        <v>2</v>
+      </c>
+      <c r="K122" s="62" t="str">
+        <f t="shared" si="401"/>
+        <v>ProVisioNET_study_103_03_novice_cam2_2</v>
+      </c>
+      <c r="L122" s="138"/>
+      <c r="M122" s="62" t="str">
+        <f t="shared" ref="M122:N122" si="413">M121</f>
+        <v>f</v>
+      </c>
+      <c r="N122" s="62" t="str">
+        <f t="shared" si="413"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O122" s="62">
+        <v>11</v>
+      </c>
+      <c r="P122" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q122" s="62">
+        <v>0</v>
+      </c>
+      <c r="R122" s="58" t="str">
+        <f t="shared" ref="R122:Y122" si="414">R121</f>
+        <v>lab</v>
+      </c>
+      <c r="S122" s="58" t="str">
+        <f t="shared" si="414"/>
+        <v>MK</v>
+      </c>
+      <c r="T122" s="58">
+        <v>1</v>
+      </c>
+      <c r="U122" s="58">
+        <v>7</v>
+      </c>
+      <c r="V122" s="58">
+        <v>1977</v>
+      </c>
+      <c r="W122" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X122" s="58">
+        <f t="shared" ref="X122:AE122" si="415">X121</f>
+        <v>28</v>
+      </c>
+      <c r="Y122" s="58">
+        <f t="shared" si="415"/>
+        <v>7</v>
+      </c>
+      <c r="Z122" s="58">
+        <f t="shared" si="415"/>
+        <v>2021</v>
+      </c>
+      <c r="AA122" s="58" t="str">
+        <f t="shared" si="415"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="62">
+        <f t="shared" ref="B123:C123" si="416">B122</f>
+        <v>3</v>
+      </c>
+      <c r="C123" s="62" t="str">
+        <f t="shared" si="416"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D123" s="62" t="str">
+        <f t="shared" si="406"/>
+        <v>study</v>
+      </c>
+      <c r="E123" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F123" s="62" t="str">
+        <f t="shared" ref="F123:H123" si="417">F121</f>
+        <v>03</v>
+      </c>
+      <c r="G123" s="58" t="str">
+        <f t="shared" si="417"/>
+        <v>novice</v>
+      </c>
+      <c r="H123" s="62">
+        <f t="shared" si="417"/>
+        <v>3</v>
+      </c>
+      <c r="I123" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123" s="62">
+        <v>1</v>
+      </c>
+      <c r="K123" s="62" t="str">
+        <f t="shared" si="401"/>
+        <v>ProVisioNET_study_103_03_novice_cam3_1</v>
+      </c>
+      <c r="L123" s="138"/>
+      <c r="M123" s="62" t="str">
+        <f t="shared" ref="M123:N123" si="418">M122</f>
+        <v>f</v>
+      </c>
+      <c r="N123" s="62" t="str">
+        <f t="shared" si="418"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O123" s="62">
+        <v>11</v>
+      </c>
+      <c r="P123" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q123" s="62">
+        <v>0</v>
+      </c>
+      <c r="R123" s="58" t="str">
+        <f t="shared" ref="R123:Y123" si="419">R122</f>
+        <v>lab</v>
+      </c>
+      <c r="S123" s="58" t="str">
+        <f t="shared" si="419"/>
+        <v>MK</v>
+      </c>
+      <c r="T123" s="58">
+        <v>1</v>
+      </c>
+      <c r="U123" s="58">
+        <v>7</v>
+      </c>
+      <c r="V123" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W123" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X123" s="58">
+        <f t="shared" ref="X123:AE123" si="420">X122</f>
+        <v>28</v>
+      </c>
+      <c r="Y123" s="58">
+        <f t="shared" si="420"/>
+        <v>7</v>
+      </c>
+      <c r="Z123" s="58">
+        <f t="shared" si="420"/>
+        <v>2021</v>
+      </c>
+      <c r="AA123" s="58" t="str">
+        <f t="shared" si="420"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="62">
+        <f t="shared" ref="B124:C124" si="421">B123</f>
+        <v>3</v>
+      </c>
+      <c r="C124" s="62" t="str">
+        <f t="shared" si="421"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D124" s="62" t="str">
+        <f t="shared" si="406"/>
+        <v>study</v>
+      </c>
+      <c r="E124" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F124" s="62" t="str">
+        <f t="shared" ref="F124:H124" si="422">F122</f>
+        <v>03</v>
+      </c>
+      <c r="G124" s="58" t="str">
+        <f t="shared" si="422"/>
+        <v>novice</v>
+      </c>
+      <c r="H124" s="62">
+        <f t="shared" si="422"/>
+        <v>3</v>
+      </c>
+      <c r="I124" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" s="62">
+        <v>2</v>
+      </c>
+      <c r="K124" s="62" t="str">
+        <f>CONCATENATE(C124,"_",D124,"_",E124,"_",F124,"_",G124,"_",I124,"_",J124)</f>
+        <v>ProVisioNET_study_103_03_novice_cam3_2</v>
+      </c>
+      <c r="L124" s="138"/>
+      <c r="M124" s="62" t="str">
+        <f t="shared" ref="M124:N124" si="423">M123</f>
+        <v>f</v>
+      </c>
+      <c r="N124" s="62" t="str">
+        <f t="shared" si="423"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O124" s="62">
+        <v>11</v>
+      </c>
+      <c r="P124" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q124" s="62">
+        <v>0</v>
+      </c>
+      <c r="R124" s="58" t="str">
+        <f t="shared" ref="R124:Y124" si="424">R123</f>
+        <v>lab</v>
+      </c>
+      <c r="S124" s="58" t="str">
+        <f t="shared" si="424"/>
+        <v>MK</v>
+      </c>
+      <c r="T124" s="58">
+        <v>1</v>
+      </c>
+      <c r="U124" s="58">
+        <v>7</v>
+      </c>
+      <c r="V124" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W124" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X124" s="58">
+        <f t="shared" ref="X124:AE124" si="425">X123</f>
+        <v>28</v>
+      </c>
+      <c r="Y124" s="58">
+        <f t="shared" si="425"/>
+        <v>7</v>
+      </c>
+      <c r="Z124" s="58">
+        <f t="shared" si="425"/>
+        <v>2021</v>
+      </c>
+      <c r="AA124" s="58" t="str">
+        <f t="shared" si="425"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" s="62">
+        <f t="shared" ref="B125:C125" si="426">B124</f>
+        <v>3</v>
+      </c>
+      <c r="C125" s="62" t="str">
+        <f t="shared" si="426"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D125" s="62" t="str">
+        <f t="shared" si="406"/>
+        <v>study</v>
+      </c>
+      <c r="E125" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F125" s="62" t="str">
+        <f t="shared" ref="F125:H125" si="427">F123</f>
+        <v>03</v>
+      </c>
+      <c r="G125" s="58" t="str">
+        <f t="shared" si="427"/>
+        <v>novice</v>
+      </c>
+      <c r="H125" s="62">
+        <f t="shared" si="427"/>
+        <v>3</v>
+      </c>
+      <c r="I125" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="62">
+        <v>1</v>
+      </c>
+      <c r="K125" s="62" t="str">
+        <f t="shared" ref="K125:K126" si="428">CONCATENATE(C125,"_",D125,"_",E125,"_",F125,"_",G125,"_",I125,"_",J125)</f>
+        <v>ProVisioNET_study_103_03_novice_cam4_1</v>
+      </c>
+      <c r="L125" s="138"/>
+      <c r="M125" s="62" t="str">
+        <f t="shared" ref="M125:N125" si="429">M124</f>
+        <v>f</v>
+      </c>
+      <c r="N125" s="62" t="str">
+        <f t="shared" si="429"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O125" s="62">
+        <v>11</v>
+      </c>
+      <c r="P125" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q125" s="62">
+        <v>0</v>
+      </c>
+      <c r="R125" s="58" t="str">
+        <f t="shared" ref="R125:Y125" si="430">R124</f>
+        <v>lab</v>
+      </c>
+      <c r="S125" s="58" t="str">
+        <f t="shared" si="430"/>
+        <v>MK</v>
+      </c>
+      <c r="T125" s="58">
+        <v>1</v>
+      </c>
+      <c r="U125" s="58">
+        <v>7</v>
+      </c>
+      <c r="V125" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W125" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X125" s="58">
+        <f t="shared" ref="X125:AE125" si="431">X124</f>
+        <v>28</v>
+      </c>
+      <c r="Y125" s="58">
+        <f t="shared" si="431"/>
+        <v>7</v>
+      </c>
+      <c r="Z125" s="58">
+        <f t="shared" si="431"/>
+        <v>2021</v>
+      </c>
+      <c r="AA125" s="58" t="str">
+        <f t="shared" si="431"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="62">
+        <f t="shared" ref="B126:C126" si="432">B125</f>
+        <v>3</v>
+      </c>
+      <c r="C126" s="62" t="str">
+        <f t="shared" si="432"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D126" s="62" t="str">
+        <f t="shared" si="406"/>
+        <v>study</v>
+      </c>
+      <c r="E126" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F126" s="62" t="str">
+        <f t="shared" ref="F126:H126" si="433">F124</f>
+        <v>03</v>
+      </c>
+      <c r="G126" s="58" t="str">
+        <f t="shared" si="433"/>
+        <v>novice</v>
+      </c>
+      <c r="H126" s="62">
+        <f t="shared" si="433"/>
+        <v>3</v>
+      </c>
+      <c r="I126" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J126" s="62">
+        <v>2</v>
+      </c>
+      <c r="K126" s="62" t="str">
+        <f t="shared" si="428"/>
+        <v>ProVisioNET_study_103_03_novice_cam4_2</v>
+      </c>
+      <c r="L126" s="138"/>
+      <c r="M126" s="62" t="str">
+        <f t="shared" ref="M126:N126" si="434">M125</f>
+        <v>f</v>
+      </c>
+      <c r="N126" s="62" t="str">
+        <f t="shared" si="434"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O126" s="62">
+        <v>11</v>
+      </c>
+      <c r="P126" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q126" s="62">
+        <v>0</v>
+      </c>
+      <c r="R126" s="58" t="str">
+        <f t="shared" ref="R126:Y126" si="435">R125</f>
+        <v>lab</v>
+      </c>
+      <c r="S126" s="58" t="str">
+        <f t="shared" si="435"/>
+        <v>MK</v>
+      </c>
+      <c r="T126" s="58">
+        <v>1</v>
+      </c>
+      <c r="U126" s="58">
+        <v>7</v>
+      </c>
+      <c r="V126" s="58">
+        <v>1977</v>
+      </c>
+      <c r="W126" s="58" t="str">
+        <f t="shared" si="397"/>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X126" s="58">
+        <f t="shared" ref="X126:AE126" si="436">X125</f>
+        <v>28</v>
+      </c>
+      <c r="Y126" s="58">
+        <f t="shared" si="436"/>
+        <v>7</v>
+      </c>
+      <c r="Z126" s="58">
+        <f t="shared" si="436"/>
+        <v>2021</v>
+      </c>
+      <c r="AA126" s="58" t="str">
+        <f t="shared" si="436"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="62">
+        <f t="shared" ref="B127:C127" si="437">B126</f>
+        <v>3</v>
+      </c>
+      <c r="C127" s="62" t="str">
+        <f t="shared" si="437"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D127" s="62" t="str">
+        <f t="shared" si="406"/>
+        <v>study</v>
+      </c>
+      <c r="E127" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F127" s="62" t="str">
+        <f t="shared" ref="F127:G127" si="438">F125</f>
+        <v>03</v>
+      </c>
+      <c r="G127" s="62" t="str">
+        <f t="shared" si="438"/>
+        <v>novice</v>
+      </c>
+      <c r="H127" s="62">
+        <f>H125</f>
+        <v>3</v>
+      </c>
+      <c r="I127" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J127" s="62"/>
+      <c r="K127" s="62" t="str">
+        <f t="shared" ref="K127:K133" si="439">CONCATENATE(C127,"_",D127,"_",E127,"_",F127,"_",G127,"_",I127)</f>
+        <v>ProVisioNET_study_103_03_novice_glasses</v>
+      </c>
+      <c r="L127" s="138"/>
+      <c r="M127" s="62" t="str">
+        <f t="shared" ref="M127:N127" si="440">M126</f>
+        <v>f</v>
+      </c>
+      <c r="N127" s="62" t="str">
+        <f t="shared" si="440"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O127" s="62">
+        <v>11</v>
+      </c>
+      <c r="P127" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q127" s="62">
+        <v>0</v>
+      </c>
+      <c r="R127" s="58" t="str">
+        <f t="shared" ref="R127:AA127" si="441">R126</f>
+        <v>lab</v>
+      </c>
+      <c r="S127" s="58" t="str">
+        <f t="shared" si="441"/>
+        <v>MK</v>
+      </c>
+      <c r="T127" s="58">
+        <v>1</v>
+      </c>
+      <c r="U127" s="58">
+        <v>7</v>
+      </c>
+      <c r="V127" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W127" s="58" t="str">
+        <f t="shared" ref="W127" si="442">W126</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X127" s="58">
+        <f t="shared" ref="X127:AG127" si="443">X126</f>
+        <v>28</v>
+      </c>
+      <c r="Y127" s="58">
+        <f t="shared" si="443"/>
+        <v>7</v>
+      </c>
+      <c r="Z127" s="58">
+        <f t="shared" si="443"/>
+        <v>2021</v>
+      </c>
+      <c r="AA127" s="58" t="str">
+        <f t="shared" si="443"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="62">
+        <f t="shared" ref="B128:D129" si="444">B127</f>
+        <v>3</v>
+      </c>
+      <c r="C128" s="62" t="str">
+        <f t="shared" si="444"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D128" s="62" t="str">
+        <f t="shared" si="444"/>
+        <v>study</v>
+      </c>
+      <c r="E128" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F128" s="62" t="str">
+        <f t="shared" ref="F128:H128" si="445">F127</f>
+        <v>03</v>
+      </c>
+      <c r="G128" s="62" t="str">
+        <f t="shared" si="445"/>
+        <v>novice</v>
+      </c>
+      <c r="H128" s="62">
+        <f t="shared" si="445"/>
+        <v>3</v>
+      </c>
+      <c r="I128" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J128" s="62"/>
+      <c r="K128" s="62" t="str">
+        <f t="shared" si="439"/>
+        <v>ProVisioNET_study_103_03_novice_ambient</v>
+      </c>
+      <c r="L128" s="138"/>
+      <c r="M128" s="62" t="str">
+        <f t="shared" ref="M128:N128" si="446">M127</f>
+        <v>f</v>
+      </c>
+      <c r="N128" s="62" t="str">
+        <f t="shared" si="446"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O128" s="62">
+        <v>11</v>
+      </c>
+      <c r="P128" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q128" s="62">
+        <v>0</v>
+      </c>
+      <c r="R128" s="58" t="str">
+        <f t="shared" ref="R128:Y128" si="447">R127</f>
+        <v>lab</v>
+      </c>
+      <c r="S128" s="58" t="str">
+        <f t="shared" si="447"/>
+        <v>MK</v>
+      </c>
+      <c r="T128" s="58">
+        <v>1</v>
+      </c>
+      <c r="U128" s="58">
+        <v>7</v>
+      </c>
+      <c r="V128" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W128" s="58" t="str">
+        <f t="shared" ref="W128" si="448">W127</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X128" s="58">
+        <f t="shared" ref="X128:AE128" si="449">X127</f>
+        <v>28</v>
+      </c>
+      <c r="Y128" s="58">
+        <f t="shared" si="449"/>
+        <v>7</v>
+      </c>
+      <c r="Z128" s="58">
+        <f t="shared" si="449"/>
+        <v>2021</v>
+      </c>
+      <c r="AA128" s="58" t="str">
+        <f t="shared" si="449"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B129" s="62">
+        <f t="shared" ref="B129:C129" si="450">B127</f>
+        <v>3</v>
+      </c>
+      <c r="C129" s="62" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D129" s="62" t="str">
+        <f t="shared" si="444"/>
+        <v>study</v>
+      </c>
+      <c r="E129" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F129" s="62" t="str">
+        <f t="shared" ref="F129:H130" si="451">F128</f>
+        <v>03</v>
+      </c>
+      <c r="G129" s="62" t="str">
+        <f t="shared" si="451"/>
+        <v>novice</v>
+      </c>
+      <c r="H129" s="62">
+        <f t="shared" si="451"/>
+        <v>3</v>
+      </c>
+      <c r="I129" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62" t="str">
+        <f t="shared" si="439"/>
+        <v>ProVisioNET_study_103_03_novice_ETrawdata</v>
+      </c>
+      <c r="L129" s="138"/>
+      <c r="M129" s="62" t="str">
+        <f t="shared" ref="M129:N129" si="452">M128</f>
+        <v>f</v>
+      </c>
+      <c r="N129" s="62" t="str">
+        <f t="shared" si="452"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O129" s="62">
+        <v>11</v>
+      </c>
+      <c r="P129" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q129" s="62">
+        <v>0</v>
+      </c>
+      <c r="R129" s="58" t="str">
+        <f t="shared" ref="R129:Y129" si="453">R128</f>
+        <v>lab</v>
+      </c>
+      <c r="S129" s="58" t="str">
+        <f t="shared" si="453"/>
+        <v>MK</v>
+      </c>
+      <c r="T129" s="58">
+        <v>1</v>
+      </c>
+      <c r="U129" s="58">
+        <v>7</v>
+      </c>
+      <c r="V129" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W129" s="58" t="str">
+        <f t="shared" ref="W129" si="454">W128</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X129" s="58">
+        <f t="shared" ref="X129:AE129" si="455">X128</f>
+        <v>28</v>
+      </c>
+      <c r="Y129" s="58">
+        <f t="shared" si="455"/>
+        <v>7</v>
+      </c>
+      <c r="Z129" s="58">
+        <f t="shared" si="455"/>
+        <v>2021</v>
+      </c>
+      <c r="AA129" s="58" t="str">
+        <f t="shared" si="455"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="62">
+        <f t="shared" ref="B130:D130" si="456">B129</f>
+        <v>3</v>
+      </c>
+      <c r="C130" s="62" t="str">
+        <f t="shared" si="456"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D130" s="62" t="str">
+        <f t="shared" si="456"/>
+        <v>study</v>
+      </c>
+      <c r="E130" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F130" s="62" t="str">
+        <f t="shared" si="451"/>
+        <v>03</v>
+      </c>
+      <c r="G130" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="H130" s="62">
+        <v>3</v>
+      </c>
+      <c r="I130" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="J130" s="62"/>
+      <c r="K130" s="62" t="str">
+        <f t="shared" si="439"/>
+        <v>ProVisioNET_study_103_03_novice_sri_obs</v>
+      </c>
+      <c r="L130" s="138"/>
+      <c r="M130" s="62" t="str">
+        <f t="shared" ref="M130:N130" si="457">M129</f>
+        <v>f</v>
+      </c>
+      <c r="N130" s="62" t="str">
+        <f t="shared" si="457"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O130" s="62">
+        <v>11</v>
+      </c>
+      <c r="P130" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q130" s="62">
+        <v>0</v>
+      </c>
+      <c r="R130" s="58" t="str">
+        <f t="shared" ref="R130:Y130" si="458">R129</f>
+        <v>lab</v>
+      </c>
+      <c r="S130" s="58" t="str">
+        <f t="shared" si="458"/>
+        <v>MK</v>
+      </c>
+      <c r="T130" s="58">
+        <v>1</v>
+      </c>
+      <c r="U130" s="58">
+        <v>7</v>
+      </c>
+      <c r="V130" s="58">
+        <v>1977</v>
+      </c>
+      <c r="W130" s="58" t="str">
+        <f t="shared" ref="W130" si="459">W129</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X130" s="58">
+        <f t="shared" ref="X130:AE130" si="460">X129</f>
+        <v>28</v>
+      </c>
+      <c r="Y130" s="58">
+        <f t="shared" si="460"/>
+        <v>7</v>
+      </c>
+      <c r="Z130" s="58">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="AA130" s="58" t="str">
+        <f t="shared" si="460"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="62">
+        <f t="shared" ref="B131:D131" si="461">B130</f>
+        <v>3</v>
+      </c>
+      <c r="C131" s="62" t="str">
+        <f t="shared" si="461"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D131" s="62" t="str">
+        <f t="shared" si="461"/>
+        <v>study</v>
+      </c>
+      <c r="E131" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F131" s="62" t="str">
+        <f>F130</f>
+        <v>03</v>
+      </c>
+      <c r="G131" s="62" t="str">
+        <f>G130</f>
+        <v>novice</v>
+      </c>
+      <c r="H131" s="62">
+        <v>3</v>
+      </c>
+      <c r="I131" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="J131" s="62"/>
+      <c r="K131" s="62" t="str">
+        <f t="shared" si="439"/>
+        <v>ProVisioNET_study_103_03_novice_sri_ambient</v>
+      </c>
+      <c r="L131" s="142"/>
+      <c r="M131" s="62" t="str">
+        <f t="shared" ref="M131:N131" si="462">M130</f>
+        <v>f</v>
+      </c>
+      <c r="N131" s="62" t="str">
+        <f t="shared" si="462"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O131" s="62">
+        <v>11</v>
+      </c>
+      <c r="P131" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q131" s="62">
+        <v>0</v>
+      </c>
+      <c r="R131" s="58" t="str">
+        <f t="shared" ref="R131:Y131" si="463">R130</f>
+        <v>lab</v>
+      </c>
+      <c r="S131" s="58" t="str">
+        <f t="shared" si="463"/>
+        <v>MK</v>
+      </c>
+      <c r="T131" s="58">
+        <v>1</v>
+      </c>
+      <c r="U131" s="58">
+        <v>7</v>
+      </c>
+      <c r="V131" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W131" s="58" t="str">
+        <f t="shared" ref="W131" si="464">W130</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X131" s="58">
+        <f t="shared" ref="X131:AE131" si="465">X130</f>
+        <v>28</v>
+      </c>
+      <c r="Y131" s="58">
+        <f t="shared" si="465"/>
+        <v>7</v>
+      </c>
+      <c r="Z131" s="58">
+        <f t="shared" si="465"/>
+        <v>2021</v>
+      </c>
+      <c r="AA131" s="58" t="str">
+        <f t="shared" si="465"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="62">
+        <f t="shared" ref="B132:D132" si="466">B131</f>
+        <v>3</v>
+      </c>
+      <c r="C132" s="62" t="str">
+        <f t="shared" si="466"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D132" s="62" t="str">
+        <f t="shared" si="466"/>
+        <v>study</v>
+      </c>
+      <c r="E132" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F132" s="62" t="str">
+        <f>F131</f>
+        <v>03</v>
+      </c>
+      <c r="G132" s="62" t="str">
+        <f>G131</f>
+        <v>novice</v>
+      </c>
+      <c r="H132" s="62">
+        <v>3</v>
+      </c>
+      <c r="I132" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="J132" s="62"/>
+      <c r="K132" s="62" t="str">
+        <f t="shared" si="439"/>
+        <v>ProVisioNET_study_103_03_novice_fitbit</v>
+      </c>
+      <c r="L132" s="142"/>
+      <c r="M132" s="62" t="str">
+        <f t="shared" ref="M132:N132" si="467">M131</f>
+        <v>f</v>
+      </c>
+      <c r="N132" s="62" t="str">
+        <f t="shared" si="467"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="O132" s="62">
+        <v>11</v>
+      </c>
+      <c r="P132" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q132" s="62">
+        <v>0</v>
+      </c>
+      <c r="R132" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="S132" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="T132" s="58">
+        <v>1</v>
+      </c>
+      <c r="U132" s="58">
+        <v>7</v>
+      </c>
+      <c r="V132" s="58">
+        <v>1997</v>
+      </c>
+      <c r="W132" s="58" t="str">
+        <f t="shared" ref="W132" si="468">W131</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X132" s="58">
+        <f t="shared" ref="X132:AE132" si="469">X131</f>
+        <v>28</v>
+      </c>
+      <c r="Y132" s="58">
+        <f t="shared" si="469"/>
+        <v>7</v>
+      </c>
+      <c r="Z132" s="58">
+        <f t="shared" si="469"/>
+        <v>2021</v>
+      </c>
+      <c r="AA132" s="58" t="str">
+        <f t="shared" si="469"/>
+        <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" s="124" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="125">
+        <f>B131</f>
+        <v>3</v>
+      </c>
+      <c r="C133" s="125" t="str">
+        <f>C131</f>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D133" s="125" t="str">
+        <f>D131</f>
+        <v>study</v>
+      </c>
+      <c r="E133" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="F133" s="125" t="str">
+        <f>F131</f>
+        <v>03</v>
+      </c>
+      <c r="G133" s="125" t="str">
+        <f>G131</f>
+        <v>novice</v>
+      </c>
+      <c r="H133" s="125">
+        <v>3</v>
+      </c>
+      <c r="I133" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125" t="str">
+        <f t="shared" si="439"/>
+        <v>ProVisioNET_study_103_03_novice_zed</v>
+      </c>
+      <c r="L133" s="143"/>
+      <c r="M133" s="125" t="str">
+        <f>M131</f>
+        <v>f</v>
+      </c>
+      <c r="N133" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="O133" s="125">
+        <v>11</v>
+      </c>
+      <c r="P133" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q133" s="125">
+        <v>0</v>
+      </c>
+      <c r="R133" s="125" t="str">
+        <f>R131</f>
+        <v>lab</v>
+      </c>
+      <c r="S133" s="125" t="str">
+        <f>S131</f>
+        <v>MK</v>
+      </c>
+      <c r="T133" s="125">
+        <v>1</v>
+      </c>
+      <c r="U133" s="125">
+        <v>7</v>
+      </c>
+      <c r="V133" s="125">
+        <v>1977</v>
+      </c>
+      <c r="W133" s="125" t="str">
+        <f t="shared" ref="W133" si="470">W132</f>
+        <v>1/7/1997</v>
+      </c>
+      <c r="X133" s="125">
+        <f t="shared" ref="X133:AA133" si="471">X131</f>
+        <v>28</v>
+      </c>
+      <c r="Y133" s="125">
+        <f t="shared" si="471"/>
+        <v>7</v>
+      </c>
+      <c r="Z133" s="125">
+        <f t="shared" si="471"/>
+        <v>2021</v>
+      </c>
+      <c r="AA133" s="125" t="str">
+        <f t="shared" si="471"/>
+        <v>28/7/2021</v>
       </c>
     </row>
     <row r="567" spans="8:10" ht="15.6" x14ac:dyDescent="0.3">

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA14CB41-99B5-454C-A4C5-544FF0544135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AA14CB41-99B5-454C-A4C5-544FF0544135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C7661351-6D48-4318-B358-5372C15A33CB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="209">
   <si>
     <t>study</t>
   </si>
@@ -638,9 +638,6 @@
     <t>fitbit</t>
   </si>
   <si>
-    <t>✓ (just on hard disk)</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -649,12 +646,21 @@
   <si>
     <t>103</t>
   </si>
+  <si>
+    <t>- deleted</t>
+  </si>
+  <si>
+    <t>✓ (just on laptop)</t>
+  </si>
+  <si>
+    <t>✓ (hard disk + laptop)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -950,6 +956,24 @@
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1371,7 +1395,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1696,6 +1720,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2097,8 +2131,8 @@
   <dimension ref="A1:AA567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12084,7 +12118,7 @@
         <v>ProVisioNET_study_101_01_novice_zed</v>
       </c>
       <c r="L101" s="143" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M101" s="125" t="str">
         <f>M99</f>
@@ -12157,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F102" s="65" t="s">
         <v>21</v>
@@ -12189,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="P102" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q102" s="63">
         <v>0</v>
@@ -12244,7 +12278,7 @@
         <v>study</v>
       </c>
       <c r="E103" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F103" s="62" t="str">
         <f t="shared" ref="F103:G103" si="349">F102</f>
@@ -12267,7 +12301,9 @@
         <f>CONCATENATE(C103,"_",D103,"_",E103,"_",F103,"_",G103,"_",I103,"_",J103)</f>
         <v>ProVisioNET_study_102_02_novice_cam1_1</v>
       </c>
-      <c r="L103" s="138"/>
+      <c r="L103" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M103" s="62" t="str">
         <f t="shared" ref="M103:N114" si="350">M102</f>
         <v>m</v>
@@ -12280,7 +12316,7 @@
         <v>6</v>
       </c>
       <c r="P103" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q103" s="62">
         <v>0</v>
@@ -12340,7 +12376,7 @@
         <v>study</v>
       </c>
       <c r="E104" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F104" s="62" t="str">
         <f t="shared" ref="F104:G104" si="354">F103</f>
@@ -12363,7 +12399,9 @@
         <f t="shared" ref="K104:K107" si="355">CONCATENATE(C104,"_",D104,"_",E104,"_",F104,"_",G104,"_",I104,"_",J104)</f>
         <v>ProVisioNET_study_102_02_novice_cam1_2</v>
       </c>
-      <c r="L104" s="138"/>
+      <c r="L104" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M104" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12376,7 +12414,7 @@
         <v>6</v>
       </c>
       <c r="P104" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q104" s="62">
         <v>0</v>
@@ -12436,7 +12474,7 @@
         <v>study</v>
       </c>
       <c r="E105" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F105" s="62" t="str">
         <f t="shared" ref="F105:H105" si="358">F103</f>
@@ -12460,7 +12498,9 @@
         <f t="shared" si="355"/>
         <v>ProVisioNET_study_102_02_novice_cam2_1</v>
       </c>
-      <c r="L105" s="138"/>
+      <c r="L105" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M105" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12473,7 +12513,7 @@
         <v>6</v>
       </c>
       <c r="P105" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q105" s="62">
         <v>0</v>
@@ -12533,7 +12573,7 @@
         <v>study</v>
       </c>
       <c r="E106" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F106" s="62" t="str">
         <f t="shared" ref="F106:H106" si="360">F104</f>
@@ -12557,7 +12597,9 @@
         <f t="shared" si="355"/>
         <v>ProVisioNET_study_102_02_novice_cam2_2</v>
       </c>
-      <c r="L106" s="138"/>
+      <c r="L106" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M106" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12570,7 +12612,7 @@
         <v>6</v>
       </c>
       <c r="P106" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q106" s="62">
         <v>0</v>
@@ -12630,7 +12672,7 @@
         <v>study</v>
       </c>
       <c r="E107" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F107" s="62" t="str">
         <f t="shared" ref="F107:H107" si="362">F105</f>
@@ -12654,7 +12696,9 @@
         <f t="shared" si="355"/>
         <v>ProVisioNET_study_102_02_novice_cam3_1</v>
       </c>
-      <c r="L107" s="138"/>
+      <c r="L107" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M107" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12667,7 +12711,7 @@
         <v>6</v>
       </c>
       <c r="P107" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q107" s="62">
         <v>0</v>
@@ -12727,7 +12771,7 @@
         <v>study</v>
       </c>
       <c r="E108" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F108" s="62" t="str">
         <f t="shared" ref="F108:H108" si="364">F106</f>
@@ -12751,7 +12795,9 @@
         <f>CONCATENATE(C108,"_",D108,"_",E108,"_",F108,"_",G108,"_",I108,"_",J108)</f>
         <v>ProVisioNET_study_102_02_novice_cam3_2</v>
       </c>
-      <c r="L108" s="138"/>
+      <c r="L108" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M108" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12764,7 +12810,7 @@
         <v>6</v>
       </c>
       <c r="P108" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q108" s="62">
         <v>0</v>
@@ -12824,7 +12870,7 @@
         <v>study</v>
       </c>
       <c r="E109" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F109" s="62" t="str">
         <f t="shared" ref="F109:H109" si="366">F107</f>
@@ -12848,7 +12894,9 @@
         <f t="shared" ref="K109:K110" si="367">CONCATENATE(C109,"_",D109,"_",E109,"_",F109,"_",G109,"_",I109,"_",J109)</f>
         <v>ProVisioNET_study_102_02_novice_cam4_1</v>
       </c>
-      <c r="L109" s="138"/>
+      <c r="L109" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M109" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12861,7 +12909,7 @@
         <v>6</v>
       </c>
       <c r="P109" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q109" s="62">
         <v>0</v>
@@ -12921,7 +12969,7 @@
         <v>study</v>
       </c>
       <c r="E110" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F110" s="62" t="str">
         <f t="shared" ref="F110:H110" si="369">F108</f>
@@ -12945,7 +12993,9 @@
         <f t="shared" si="367"/>
         <v>ProVisioNET_study_102_02_novice_cam4_2</v>
       </c>
-      <c r="L110" s="138"/>
+      <c r="L110" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M110" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -12958,7 +13008,7 @@
         <v>6</v>
       </c>
       <c r="P110" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q110" s="62">
         <v>0</v>
@@ -13018,7 +13068,7 @@
         <v>study</v>
       </c>
       <c r="E111" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F111" s="62" t="str">
         <f t="shared" ref="F111:G111" si="371">F109</f>
@@ -13040,7 +13090,9 @@
         <f t="shared" ref="K111:K117" si="372">CONCATENATE(C111,"_",D111,"_",E111,"_",F111,"_",G111,"_",I111)</f>
         <v>ProVisioNET_study_102_02_novice_glasses</v>
       </c>
-      <c r="L111" s="138"/>
+      <c r="L111" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M111" s="62" t="str">
         <f t="shared" ref="M111:N111" si="373">M110</f>
         <v>m</v>
@@ -13053,7 +13105,7 @@
         <v>6</v>
       </c>
       <c r="P111" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q111" s="62">
         <v>0</v>
@@ -13113,7 +13165,7 @@
         <v>study</v>
       </c>
       <c r="E112" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F112" s="62" t="str">
         <f t="shared" ref="F112:H112" si="377">F111</f>
@@ -13135,7 +13187,9 @@
         <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_ambient</v>
       </c>
-      <c r="L112" s="138"/>
+      <c r="L112" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M112" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -13148,7 +13202,7 @@
         <v>6</v>
       </c>
       <c r="P112" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q112" s="62">
         <v>0</v>
@@ -13208,7 +13262,7 @@
         <v>study</v>
       </c>
       <c r="E113" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F113" s="62" t="str">
         <f t="shared" ref="F113:H113" si="381">F112</f>
@@ -13230,7 +13284,9 @@
         <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_ETrawdata</v>
       </c>
-      <c r="L113" s="138"/>
+      <c r="L113" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M113" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -13243,7 +13299,7 @@
         <v>6</v>
       </c>
       <c r="P113" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q113" s="62">
         <v>0</v>
@@ -13303,7 +13359,7 @@
         <v>study</v>
       </c>
       <c r="E114" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F114" s="62" t="str">
         <f t="shared" ref="F114" si="384">F113</f>
@@ -13323,7 +13379,9 @@
         <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_sri_obs</v>
       </c>
-      <c r="L114" s="138"/>
+      <c r="L114" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M114" s="62" t="str">
         <f t="shared" si="350"/>
         <v>m</v>
@@ -13336,7 +13394,7 @@
         <v>6</v>
       </c>
       <c r="P114" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q114" s="62">
         <v>0</v>
@@ -13396,7 +13454,7 @@
         <v>study</v>
       </c>
       <c r="E115" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F115" s="62" t="str">
         <f>F114</f>
@@ -13417,7 +13475,9 @@
         <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_sri_ambient</v>
       </c>
-      <c r="L115" s="142"/>
+      <c r="L115" s="142" t="s">
+        <v>191</v>
+      </c>
       <c r="M115" s="62" t="str">
         <f t="shared" ref="M115:N115" si="387">M114</f>
         <v>m</v>
@@ -13430,7 +13490,7 @@
         <v>6</v>
       </c>
       <c r="P115" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q115" s="62">
         <v>0</v>
@@ -13490,7 +13550,7 @@
         <v>study</v>
       </c>
       <c r="E116" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F116" s="62" t="str">
         <f>F115</f>
@@ -13511,7 +13571,9 @@
         <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_fitbit</v>
       </c>
-      <c r="L116" s="142"/>
+      <c r="L116" s="142" t="s">
+        <v>191</v>
+      </c>
       <c r="M116" s="62" t="str">
         <f t="shared" ref="M116:N116" si="389">M115</f>
         <v>m</v>
@@ -13524,7 +13586,7 @@
         <v>6</v>
       </c>
       <c r="P116" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q116" s="62">
         <v>0</v>
@@ -13582,7 +13644,7 @@
         <v>study</v>
       </c>
       <c r="E117" s="141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F117" s="125" t="str">
         <f>F115</f>
@@ -13603,7 +13665,9 @@
         <f t="shared" si="372"/>
         <v>ProVisioNET_study_102_02_novice_zed</v>
       </c>
-      <c r="L117" s="143"/>
+      <c r="L117" s="143" t="s">
+        <v>207</v>
+      </c>
       <c r="M117" s="125" t="str">
         <f>M115</f>
         <v>m</v>
@@ -13615,7 +13679,7 @@
         <v>6</v>
       </c>
       <c r="P117" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q117" s="125">
         <v>0</v>
@@ -13672,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F118" s="65" t="s">
         <v>22</v>
@@ -13704,7 +13768,7 @@
         <v>11</v>
       </c>
       <c r="P118" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q118" s="63">
         <v>0</v>
@@ -13759,7 +13823,7 @@
         <v>study</v>
       </c>
       <c r="E119" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F119" s="62" t="str">
         <f t="shared" ref="F119:G119" si="394">F118</f>
@@ -13782,7 +13846,9 @@
         <f>CONCATENATE(C119,"_",D119,"_",E119,"_",F119,"_",G119,"_",I119,"_",J119)</f>
         <v>ProVisioNET_study_103_03_novice_cam1_1</v>
       </c>
-      <c r="L119" s="138"/>
+      <c r="L119" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M119" s="62" t="str">
         <f t="shared" ref="M119:N119" si="395">M118</f>
         <v>f</v>
@@ -13795,13 +13861,13 @@
         <v>11</v>
       </c>
       <c r="P119" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q119" s="62">
         <v>0</v>
       </c>
       <c r="R119" s="58" t="str">
-        <f t="shared" ref="R119:Y119" si="396">R118</f>
+        <f t="shared" ref="R119:S119" si="396">R118</f>
         <v>lab</v>
       </c>
       <c r="S119" s="58" t="str">
@@ -13822,7 +13888,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X119" s="58">
-        <f t="shared" ref="X119:AE119" si="398">X118</f>
+        <f t="shared" ref="X119:AA119" si="398">X118</f>
         <v>28</v>
       </c>
       <c r="Y119" s="58">
@@ -13855,7 +13921,7 @@
         <v>study</v>
       </c>
       <c r="E120" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F120" s="62" t="str">
         <f t="shared" ref="F120:G120" si="400">F119</f>
@@ -13878,7 +13944,9 @@
         <f t="shared" ref="K120:K123" si="401">CONCATENATE(C120,"_",D120,"_",E120,"_",F120,"_",G120,"_",I120,"_",J120)</f>
         <v>ProVisioNET_study_103_03_novice_cam1_2</v>
       </c>
-      <c r="L120" s="138"/>
+      <c r="L120" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M120" s="62" t="str">
         <f t="shared" ref="M120:N120" si="402">M119</f>
         <v>f</v>
@@ -13891,13 +13959,13 @@
         <v>11</v>
       </c>
       <c r="P120" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q120" s="62">
         <v>0</v>
       </c>
       <c r="R120" s="58" t="str">
-        <f t="shared" ref="R120:Y120" si="403">R119</f>
+        <f t="shared" ref="R120:S120" si="403">R119</f>
         <v>lab</v>
       </c>
       <c r="S120" s="58" t="str">
@@ -13918,7 +13986,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X120" s="58">
-        <f t="shared" ref="X120:AE120" si="404">X119</f>
+        <f t="shared" ref="X120:AA120" si="404">X119</f>
         <v>28</v>
       </c>
       <c r="Y120" s="58">
@@ -13951,10 +14019,10 @@
         <v>study</v>
       </c>
       <c r="E121" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F121" s="62" t="str">
-        <f t="shared" ref="F121:H121" si="407">F119</f>
+        <f t="shared" ref="F121:G121" si="407">F119</f>
         <v>03</v>
       </c>
       <c r="G121" s="58" t="str">
@@ -13974,7 +14042,9 @@
         <f t="shared" si="401"/>
         <v>ProVisioNET_study_103_03_novice_cam2_1</v>
       </c>
-      <c r="L121" s="138"/>
+      <c r="L121" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M121" s="62" t="str">
         <f t="shared" ref="M121:N121" si="408">M120</f>
         <v>f</v>
@@ -13987,13 +14057,13 @@
         <v>11</v>
       </c>
       <c r="P121" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q121" s="62">
         <v>0</v>
       </c>
       <c r="R121" s="58" t="str">
-        <f t="shared" ref="R121:Y121" si="409">R120</f>
+        <f t="shared" ref="R121:S121" si="409">R120</f>
         <v>lab</v>
       </c>
       <c r="S121" s="58" t="str">
@@ -14014,7 +14084,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X121" s="58">
-        <f t="shared" ref="X121:AE121" si="410">X120</f>
+        <f t="shared" ref="X121:AA121" si="410">X120</f>
         <v>28</v>
       </c>
       <c r="Y121" s="58">
@@ -14047,7 +14117,7 @@
         <v>study</v>
       </c>
       <c r="E122" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F122" s="62" t="str">
         <f t="shared" ref="F122:H122" si="412">F120</f>
@@ -14071,7 +14141,9 @@
         <f t="shared" si="401"/>
         <v>ProVisioNET_study_103_03_novice_cam2_2</v>
       </c>
-      <c r="L122" s="138"/>
+      <c r="L122" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M122" s="62" t="str">
         <f t="shared" ref="M122:N122" si="413">M121</f>
         <v>f</v>
@@ -14084,13 +14156,13 @@
         <v>11</v>
       </c>
       <c r="P122" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q122" s="62">
         <v>0</v>
       </c>
       <c r="R122" s="58" t="str">
-        <f t="shared" ref="R122:Y122" si="414">R121</f>
+        <f t="shared" ref="R122:S122" si="414">R121</f>
         <v>lab</v>
       </c>
       <c r="S122" s="58" t="str">
@@ -14111,7 +14183,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X122" s="58">
-        <f t="shared" ref="X122:AE122" si="415">X121</f>
+        <f t="shared" ref="X122:AA122" si="415">X121</f>
         <v>28</v>
       </c>
       <c r="Y122" s="58">
@@ -14144,7 +14216,7 @@
         <v>study</v>
       </c>
       <c r="E123" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F123" s="62" t="str">
         <f t="shared" ref="F123:H123" si="417">F121</f>
@@ -14168,7 +14240,9 @@
         <f t="shared" si="401"/>
         <v>ProVisioNET_study_103_03_novice_cam3_1</v>
       </c>
-      <c r="L123" s="138"/>
+      <c r="L123" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M123" s="62" t="str">
         <f t="shared" ref="M123:N123" si="418">M122</f>
         <v>f</v>
@@ -14181,13 +14255,13 @@
         <v>11</v>
       </c>
       <c r="P123" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q123" s="62">
         <v>0</v>
       </c>
       <c r="R123" s="58" t="str">
-        <f t="shared" ref="R123:Y123" si="419">R122</f>
+        <f t="shared" ref="R123:S123" si="419">R122</f>
         <v>lab</v>
       </c>
       <c r="S123" s="58" t="str">
@@ -14208,7 +14282,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X123" s="58">
-        <f t="shared" ref="X123:AE123" si="420">X122</f>
+        <f t="shared" ref="X123:AA123" si="420">X122</f>
         <v>28</v>
       </c>
       <c r="Y123" s="58">
@@ -14241,7 +14315,7 @@
         <v>study</v>
       </c>
       <c r="E124" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F124" s="62" t="str">
         <f t="shared" ref="F124:H124" si="422">F122</f>
@@ -14265,7 +14339,9 @@
         <f>CONCATENATE(C124,"_",D124,"_",E124,"_",F124,"_",G124,"_",I124,"_",J124)</f>
         <v>ProVisioNET_study_103_03_novice_cam3_2</v>
       </c>
-      <c r="L124" s="138"/>
+      <c r="L124" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M124" s="62" t="str">
         <f t="shared" ref="M124:N124" si="423">M123</f>
         <v>f</v>
@@ -14278,13 +14354,13 @@
         <v>11</v>
       </c>
       <c r="P124" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q124" s="62">
         <v>0</v>
       </c>
       <c r="R124" s="58" t="str">
-        <f t="shared" ref="R124:Y124" si="424">R123</f>
+        <f t="shared" ref="R124:S124" si="424">R123</f>
         <v>lab</v>
       </c>
       <c r="S124" s="58" t="str">
@@ -14305,7 +14381,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X124" s="58">
-        <f t="shared" ref="X124:AE124" si="425">X123</f>
+        <f t="shared" ref="X124:AA124" si="425">X123</f>
         <v>28</v>
       </c>
       <c r="Y124" s="58">
@@ -14338,7 +14414,7 @@
         <v>study</v>
       </c>
       <c r="E125" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F125" s="62" t="str">
         <f t="shared" ref="F125:H125" si="427">F123</f>
@@ -14362,7 +14438,9 @@
         <f t="shared" ref="K125:K126" si="428">CONCATENATE(C125,"_",D125,"_",E125,"_",F125,"_",G125,"_",I125,"_",J125)</f>
         <v>ProVisioNET_study_103_03_novice_cam4_1</v>
       </c>
-      <c r="L125" s="138"/>
+      <c r="L125" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M125" s="62" t="str">
         <f t="shared" ref="M125:N125" si="429">M124</f>
         <v>f</v>
@@ -14375,13 +14453,13 @@
         <v>11</v>
       </c>
       <c r="P125" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q125" s="62">
         <v>0</v>
       </c>
       <c r="R125" s="58" t="str">
-        <f t="shared" ref="R125:Y125" si="430">R124</f>
+        <f t="shared" ref="R125:S125" si="430">R124</f>
         <v>lab</v>
       </c>
       <c r="S125" s="58" t="str">
@@ -14402,7 +14480,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X125" s="58">
-        <f t="shared" ref="X125:AE125" si="431">X124</f>
+        <f t="shared" ref="X125:AA125" si="431">X124</f>
         <v>28</v>
       </c>
       <c r="Y125" s="58">
@@ -14435,7 +14513,7 @@
         <v>study</v>
       </c>
       <c r="E126" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F126" s="62" t="str">
         <f t="shared" ref="F126:H126" si="433">F124</f>
@@ -14459,7 +14537,9 @@
         <f t="shared" si="428"/>
         <v>ProVisioNET_study_103_03_novice_cam4_2</v>
       </c>
-      <c r="L126" s="138"/>
+      <c r="L126" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M126" s="62" t="str">
         <f t="shared" ref="M126:N126" si="434">M125</f>
         <v>f</v>
@@ -14472,13 +14552,13 @@
         <v>11</v>
       </c>
       <c r="P126" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q126" s="62">
         <v>0</v>
       </c>
       <c r="R126" s="58" t="str">
-        <f t="shared" ref="R126:Y126" si="435">R125</f>
+        <f t="shared" ref="R126:S126" si="435">R125</f>
         <v>lab</v>
       </c>
       <c r="S126" s="58" t="str">
@@ -14499,7 +14579,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X126" s="58">
-        <f t="shared" ref="X126:AE126" si="436">X125</f>
+        <f t="shared" ref="X126:AA126" si="436">X125</f>
         <v>28</v>
       </c>
       <c r="Y126" s="58">
@@ -14532,7 +14612,7 @@
         <v>study</v>
       </c>
       <c r="E127" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F127" s="62" t="str">
         <f t="shared" ref="F127:G127" si="438">F125</f>
@@ -14554,7 +14634,9 @@
         <f t="shared" ref="K127:K133" si="439">CONCATENATE(C127,"_",D127,"_",E127,"_",F127,"_",G127,"_",I127)</f>
         <v>ProVisioNET_study_103_03_novice_glasses</v>
       </c>
-      <c r="L127" s="138"/>
+      <c r="L127" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M127" s="62" t="str">
         <f t="shared" ref="M127:N127" si="440">M126</f>
         <v>f</v>
@@ -14567,13 +14649,13 @@
         <v>11</v>
       </c>
       <c r="P127" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q127" s="62">
         <v>0</v>
       </c>
       <c r="R127" s="58" t="str">
-        <f t="shared" ref="R127:AA127" si="441">R126</f>
+        <f t="shared" ref="R127:S127" si="441">R126</f>
         <v>lab</v>
       </c>
       <c r="S127" s="58" t="str">
@@ -14594,7 +14676,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X127" s="58">
-        <f t="shared" ref="X127:AG127" si="443">X126</f>
+        <f t="shared" ref="X127:AA127" si="443">X126</f>
         <v>28</v>
       </c>
       <c r="Y127" s="58">
@@ -14627,7 +14709,7 @@
         <v>study</v>
       </c>
       <c r="E128" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F128" s="62" t="str">
         <f t="shared" ref="F128:H128" si="445">F127</f>
@@ -14649,7 +14731,9 @@
         <f t="shared" si="439"/>
         <v>ProVisioNET_study_103_03_novice_ambient</v>
       </c>
-      <c r="L128" s="138"/>
+      <c r="L128" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M128" s="62" t="str">
         <f t="shared" ref="M128:N128" si="446">M127</f>
         <v>f</v>
@@ -14662,13 +14746,13 @@
         <v>11</v>
       </c>
       <c r="P128" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q128" s="62">
         <v>0</v>
       </c>
       <c r="R128" s="58" t="str">
-        <f t="shared" ref="R128:Y128" si="447">R127</f>
+        <f t="shared" ref="R128:S128" si="447">R127</f>
         <v>lab</v>
       </c>
       <c r="S128" s="58" t="str">
@@ -14689,7 +14773,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X128" s="58">
-        <f t="shared" ref="X128:AE128" si="449">X127</f>
+        <f t="shared" ref="X128:AA128" si="449">X127</f>
         <v>28</v>
       </c>
       <c r="Y128" s="58">
@@ -14722,7 +14806,7 @@
         <v>study</v>
       </c>
       <c r="E129" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F129" s="62" t="str">
         <f t="shared" ref="F129:H130" si="451">F128</f>
@@ -14744,7 +14828,9 @@
         <f t="shared" si="439"/>
         <v>ProVisioNET_study_103_03_novice_ETrawdata</v>
       </c>
-      <c r="L129" s="138"/>
+      <c r="L129" s="138" t="s">
+        <v>191</v>
+      </c>
       <c r="M129" s="62" t="str">
         <f t="shared" ref="M129:N129" si="452">M128</f>
         <v>f</v>
@@ -14757,13 +14843,13 @@
         <v>11</v>
       </c>
       <c r="P129" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q129" s="62">
         <v>0</v>
       </c>
       <c r="R129" s="58" t="str">
-        <f t="shared" ref="R129:Y129" si="453">R128</f>
+        <f t="shared" ref="R129:S129" si="453">R128</f>
         <v>lab</v>
       </c>
       <c r="S129" s="58" t="str">
@@ -14784,7 +14870,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X129" s="58">
-        <f t="shared" ref="X129:AE129" si="455">X128</f>
+        <f t="shared" ref="X129:AA129" si="455">X128</f>
         <v>28</v>
       </c>
       <c r="Y129" s="58">
@@ -14801,43 +14887,45 @@
       </c>
     </row>
     <row r="130" spans="1:27" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="62">
+      <c r="B130" s="145">
         <f t="shared" ref="B130:D130" si="456">B129</f>
         <v>3</v>
       </c>
-      <c r="C130" s="62" t="str">
+      <c r="C130" s="145" t="str">
         <f t="shared" si="456"/>
         <v>ProVisioNET</v>
       </c>
-      <c r="D130" s="62" t="str">
+      <c r="D130" s="145" t="str">
         <f t="shared" si="456"/>
         <v>study</v>
       </c>
-      <c r="E130" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="F130" s="62" t="str">
+      <c r="E130" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" s="145" t="str">
         <f t="shared" si="451"/>
         <v>03</v>
       </c>
-      <c r="G130" s="62" t="s">
+      <c r="G130" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="H130" s="62">
+      <c r="H130" s="145">
         <v>3</v>
       </c>
-      <c r="I130" s="62" t="s">
+      <c r="I130" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62" t="str">
+      <c r="J130" s="145"/>
+      <c r="K130" s="145" t="str">
         <f t="shared" si="439"/>
         <v>ProVisioNET_study_103_03_novice_sri_obs</v>
       </c>
-      <c r="L130" s="138"/>
+      <c r="L130" s="147" t="s">
+        <v>206</v>
+      </c>
       <c r="M130" s="62" t="str">
         <f t="shared" ref="M130:N130" si="457">M129</f>
         <v>f</v>
@@ -14850,13 +14938,13 @@
         <v>11</v>
       </c>
       <c r="P130" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q130" s="62">
         <v>0</v>
       </c>
       <c r="R130" s="58" t="str">
-        <f t="shared" ref="R130:Y130" si="458">R129</f>
+        <f t="shared" ref="R130:S130" si="458">R129</f>
         <v>lab</v>
       </c>
       <c r="S130" s="58" t="str">
@@ -14877,7 +14965,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X130" s="58">
-        <f t="shared" ref="X130:AE130" si="460">X129</f>
+        <f t="shared" ref="X130:AA130" si="460">X129</f>
         <v>28</v>
       </c>
       <c r="Y130" s="58">
@@ -14910,7 +14998,7 @@
         <v>study</v>
       </c>
       <c r="E131" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F131" s="62" t="str">
         <f>F130</f>
@@ -14931,7 +15019,9 @@
         <f t="shared" si="439"/>
         <v>ProVisioNET_study_103_03_novice_sri_ambient</v>
       </c>
-      <c r="L131" s="142"/>
+      <c r="L131" s="142" t="s">
+        <v>191</v>
+      </c>
       <c r="M131" s="62" t="str">
         <f t="shared" ref="M131:N131" si="462">M130</f>
         <v>f</v>
@@ -14944,13 +15034,13 @@
         <v>11</v>
       </c>
       <c r="P131" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q131" s="62">
         <v>0</v>
       </c>
       <c r="R131" s="58" t="str">
-        <f t="shared" ref="R131:Y131" si="463">R130</f>
+        <f t="shared" ref="R131:S131" si="463">R130</f>
         <v>lab</v>
       </c>
       <c r="S131" s="58" t="str">
@@ -14971,7 +15061,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X131" s="58">
-        <f t="shared" ref="X131:AE131" si="465">X130</f>
+        <f t="shared" ref="X131:AA131" si="465">X130</f>
         <v>28</v>
       </c>
       <c r="Y131" s="58">
@@ -15004,7 +15094,7 @@
         <v>study</v>
       </c>
       <c r="E132" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F132" s="62" t="str">
         <f>F131</f>
@@ -15025,7 +15115,9 @@
         <f t="shared" si="439"/>
         <v>ProVisioNET_study_103_03_novice_fitbit</v>
       </c>
-      <c r="L132" s="142"/>
+      <c r="L132" s="142" t="s">
+        <v>191</v>
+      </c>
       <c r="M132" s="62" t="str">
         <f t="shared" ref="M132:N132" si="467">M131</f>
         <v>f</v>
@@ -15038,7 +15130,7 @@
         <v>11</v>
       </c>
       <c r="P132" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q132" s="62">
         <v>0</v>
@@ -15063,7 +15155,7 @@
         <v>1/7/1997</v>
       </c>
       <c r="X132" s="58">
-        <f t="shared" ref="X132:AE132" si="469">X131</f>
+        <f t="shared" ref="X132:AA132" si="469">X131</f>
         <v>28</v>
       </c>
       <c r="Y132" s="58">
@@ -15096,7 +15188,7 @@
         <v>study</v>
       </c>
       <c r="E133" s="141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F133" s="125" t="str">
         <f>F131</f>
@@ -15117,7 +15209,9 @@
         <f t="shared" si="439"/>
         <v>ProVisioNET_study_103_03_novice_zed</v>
       </c>
-      <c r="L133" s="143"/>
+      <c r="L133" s="143" t="s">
+        <v>207</v>
+      </c>
       <c r="M133" s="125" t="str">
         <f>M131</f>
         <v>f</v>
@@ -15129,7 +15223,7 @@
         <v>11</v>
       </c>
       <c r="P133" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q133" s="125">
         <v>0</v>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empshiwi\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B566EEEC-B159-431A-A5D6-6041D8C87ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2AE99E-D7BD-4890-BC00-DE7104B70600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectlist&amp;labels" sheetId="8" r:id="rId1"/>
@@ -2113,41 +2113,41 @@
   <dimension ref="A1:Z567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="50" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>116</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>117</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>117</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>117</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>117</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>117</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>117</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>117</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>117</v>
       </c>
@@ -3202,8 +3202,8 @@
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_ambient_</v>
+        <f>CONCATENATE(C12,"_",D12,"_",E12,"_",F12,"_",H12)</f>
+        <v>ProVisioNET_pilot_01_01_ambient</v>
       </c>
       <c r="K12" s="136" t="s">
         <v>189</v>
@@ -3264,7 +3264,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>117</v>
       </c>
@@ -3296,8 +3296,8 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_ETrawdata_</v>
+        <f>CONCATENATE(C13,"_",D13,"_",E13,"_",F13,"_",H13)</f>
+        <v>ProVisioNET_pilot_01_01_ETrawdata</v>
       </c>
       <c r="K13" s="136" t="s">
         <v>189</v>
@@ -3358,7 +3358,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
@@ -3390,8 +3390,8 @@
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_sri_cam4_</v>
+        <f>CONCATENATE(C14,"_",D14,"_",E14,"_",F14,"_",H14)</f>
+        <v>ProVisioNET_pilot_01_01_sri_cam4</v>
       </c>
       <c r="K14" s="62" t="s">
         <v>188</v>
@@ -3446,7 +3446,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>117</v>
       </c>
@@ -3478,8 +3478,8 @@
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_sri_ambient_</v>
+        <f>CONCATENATE(C15,"_",D15,"_",E15,"_",F15,"_",H15)</f>
+        <v>ProVisioNET_pilot_01_01_sri_ambient</v>
       </c>
       <c r="K15" s="136" t="s">
         <v>189</v>
@@ -3539,7 +3539,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>116</v>
       </c>
@@ -3566,8 +3566,8 @@
       </c>
       <c r="I16" s="63"/>
       <c r="J16" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_label_</v>
+        <f>CONCATENATE(C16,"_",D16,"_",E16,"_",F16,"_",H16)</f>
+        <v>ProVisioNET_pilot_02_02_label</v>
       </c>
       <c r="K16" s="63" t="s">
         <v>115</v>
@@ -3620,7 +3620,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>117</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>117</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>117</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>117</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>117</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>117</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>117</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -4420,8 +4420,8 @@
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_glasses_</v>
+        <f>CONCATENATE(C25,"_",D25,"_",E25,"_",F25,"_",H25)</f>
+        <v>ProVisioNET_pilot_02_02_glasses</v>
       </c>
       <c r="K25" s="136" t="s">
         <v>189</v>
@@ -4485,7 +4485,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>117</v>
       </c>
@@ -4517,8 +4517,8 @@
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_ambient_</v>
+        <f>CONCATENATE(C26,"_",D26,"_",E26,"_",F26,"_",H26)</f>
+        <v>ProVisioNET_pilot_02_02_ambient</v>
       </c>
       <c r="K26" s="136" t="s">
         <v>189</v>
@@ -4582,7 +4582,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>117</v>
       </c>
@@ -4614,8 +4614,8 @@
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_ETrawdata_</v>
+        <f>CONCATENATE(C27,"_",D27,"_",E27,"_",F27,"_",H27)</f>
+        <v>ProVisioNET_pilot_02_02_ETrawdata</v>
       </c>
       <c r="K27" s="136" t="s">
         <v>189</v>
@@ -4679,7 +4679,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>117</v>
       </c>
@@ -4708,8 +4708,8 @@
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02 _2_sri_obs_</v>
+        <f>CONCATENATE(C28,"_",D28,"_",E28,"_",F28,"_",H28)</f>
+        <v>ProVisioNET_pilot_02 _2_sri_obs</v>
       </c>
       <c r="K28" s="136" t="s">
         <v>189</v>
@@ -4772,7 +4772,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>117</v>
       </c>
@@ -4802,8 +4802,8 @@
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_2_sri_ambient_</v>
+        <f>CONCATENATE(C29,"_",D29,"_",E29,"_",F29,"_",H29)</f>
+        <v>ProVisioNET_pilot_02_2_sri_ambient</v>
       </c>
       <c r="K29" s="136" t="s">
         <v>189</v>
@@ -4866,7 +4866,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>116</v>
       </c>
@@ -4893,8 +4893,8 @@
       </c>
       <c r="I30" s="63"/>
       <c r="J30" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_label_</v>
+        <f>CONCATENATE(C30,"_",D30,"_",E30,"_",F30,"_",H30)</f>
+        <v>ProVisioNET_pilot_03_03_label</v>
       </c>
       <c r="K30" s="63" t="s">
         <v>115</v>
@@ -4947,7 +4947,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>117</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>117</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>117</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>117</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>117</v>
       </c>
@@ -5747,8 +5747,8 @@
       </c>
       <c r="I39" s="62"/>
       <c r="J39" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_glasses_</v>
+        <f>CONCATENATE(C39,"_",D39,"_",E39,"_",F39,"_",H39)</f>
+        <v>ProVisioNET_pilot_03_03_glasses</v>
       </c>
       <c r="K39" s="62" t="s">
         <v>188</v>
@@ -5811,7 +5811,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>117</v>
       </c>
@@ -5843,8 +5843,8 @@
       </c>
       <c r="I40" s="62"/>
       <c r="J40" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_ambient_</v>
+        <f>CONCATENATE(C40,"_",D40,"_",E40,"_",F40,"_",H40)</f>
+        <v>ProVisioNET_pilot_03_03_ambient</v>
       </c>
       <c r="K40" s="136" t="s">
         <v>191</v>
@@ -5907,7 +5907,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>117</v>
       </c>
@@ -5939,8 +5939,8 @@
       </c>
       <c r="I41" s="62"/>
       <c r="J41" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_ETrawdata_</v>
+        <f>CONCATENATE(C41,"_",D41,"_",E41,"_",F41,"_",H41)</f>
+        <v>ProVisioNET_pilot_03_03_ETrawdata</v>
       </c>
       <c r="K41" s="136" t="s">
         <v>189</v>
@@ -6003,7 +6003,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>117</v>
       </c>
@@ -6033,8 +6033,8 @@
       </c>
       <c r="I42" s="62"/>
       <c r="J42" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_sri_obs_</v>
+        <f>CONCATENATE(C42,"_",D42,"_",E42,"_",F42,"_",H42)</f>
+        <v>ProVisioNET_pilot_03_03_sri_obs</v>
       </c>
       <c r="K42" s="136" t="s">
         <v>189</v>
@@ -6096,7 +6096,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>117</v>
       </c>
@@ -6126,8 +6126,8 @@
       </c>
       <c r="I43" s="62"/>
       <c r="J43" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_sri_ambient_</v>
+        <f>CONCATENATE(C43,"_",D43,"_",E43,"_",F43,"_",H43)</f>
+        <v>ProVisioNET_pilot_03_03_sri_ambient</v>
       </c>
       <c r="K43" s="136" t="s">
         <v>189</v>
@@ -6189,7 +6189,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>116</v>
       </c>
@@ -6216,8 +6216,8 @@
       </c>
       <c r="I44" s="63"/>
       <c r="J44" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_label_</v>
+        <f>CONCATENATE(C44,"_",D44,"_",E44,"_",F44,"_",H44)</f>
+        <v>ProVisioNET_pilot_04_04_label</v>
       </c>
       <c r="K44" s="63" t="s">
         <v>115</v>
@@ -6270,7 +6270,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>117</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>117</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>117</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>117</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>117</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>117</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>117</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>117</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>117</v>
       </c>
@@ -7084,8 +7084,8 @@
       </c>
       <c r="I53" s="62"/>
       <c r="J53" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_glasses_</v>
+        <f>CONCATENATE(C53,"_",D53,"_",E53,"_",F53,"_",H53)</f>
+        <v>ProVisioNET_pilot_04_04_glasses</v>
       </c>
       <c r="K53" s="136" t="s">
         <v>189</v>
@@ -7148,7 +7148,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>117</v>
       </c>
@@ -7180,8 +7180,8 @@
       </c>
       <c r="I54" s="62"/>
       <c r="J54" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_ambient_</v>
+        <f>CONCATENATE(C54,"_",D54,"_",E54,"_",F54,"_",H54)</f>
+        <v>ProVisioNET_pilot_04_04_ambient</v>
       </c>
       <c r="K54" s="136" t="s">
         <v>191</v>
@@ -7243,7 +7243,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>117</v>
       </c>
@@ -7275,8 +7275,8 @@
       </c>
       <c r="I55" s="62"/>
       <c r="J55" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_ETrawdata_</v>
+        <f>CONCATENATE(C55,"_",D55,"_",E55,"_",F55,"_",H55)</f>
+        <v>ProVisioNET_pilot_04_04_ETrawdata</v>
       </c>
       <c r="K55" s="136" t="s">
         <v>189</v>
@@ -7338,7 +7338,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>117</v>
       </c>
@@ -7369,8 +7369,8 @@
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_sri_obs_</v>
+        <f>CONCATENATE(C56,"_",D56,"_",E56,"_",F56,"_",H56)</f>
+        <v>ProVisioNET_pilot_04_04_sri_obs</v>
       </c>
       <c r="K56" s="136" t="s">
         <v>189</v>
@@ -7434,7 +7434,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>117</v>
       </c>
@@ -7465,8 +7465,8 @@
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_sri_ambient_</v>
+        <f>CONCATENATE(C57,"_",D57,"_",E57,"_",F57,"_",H57)</f>
+        <v>ProVisioNET_pilot_04_04_sri_ambient</v>
       </c>
       <c r="K57" s="136" t="s">
         <v>189</v>
@@ -7530,7 +7530,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>116</v>
       </c>
@@ -7557,8 +7557,8 @@
       </c>
       <c r="I58" s="63"/>
       <c r="J58" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_05_05_label_</v>
+        <f>CONCATENATE(C58,"_",D58,"_",E58,"_",F58,"_",H58)</f>
+        <v>ProVisioNET_pilot_05_05_label</v>
       </c>
       <c r="K58" s="63" t="s">
         <v>115</v>
@@ -7611,7 +7611,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>117</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>117</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>117</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>117</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>117</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>117</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>117</v>
       </c>
@@ -8432,8 +8432,8 @@
       </c>
       <c r="I67" s="62"/>
       <c r="J67" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_05_05_glasses_</v>
+        <f>CONCATENATE(C67,"_",D67,"_",E67,"_",F67,"_",H67)</f>
+        <v>ProVisioNET_pilot_05_05_glasses</v>
       </c>
       <c r="K67" s="136" t="s">
         <v>189</v>
@@ -8497,7 +8497,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>117</v>
       </c>
@@ -8529,8 +8529,8 @@
       </c>
       <c r="I68" s="62"/>
       <c r="J68" s="62" t="str">
-        <f t="shared" ref="J68:J131" si="211">CONCATENATE(C68,"_",D68,"_",E68,"_",F68,"_",H68,"_",I68)</f>
-        <v>ProVisioNET_pilot_05_05_ambient_</v>
+        <f>CONCATENATE(C68,"_",D68,"_",E68,"_",F68,"_",H68)</f>
+        <v>ProVisioNET_pilot_05_05_ambient</v>
       </c>
       <c r="K68" s="136" t="s">
         <v>189</v>
@@ -8553,56 +8553,56 @@
         <v>0</v>
       </c>
       <c r="Q68" s="58" t="str">
-        <f t="shared" ref="Q68:Z68" si="212">Q67</f>
+        <f t="shared" ref="Q68:Z68" si="211">Q67</f>
         <v>lab</v>
       </c>
       <c r="R68" s="58" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>MK</v>
       </c>
       <c r="S68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>19</v>
       </c>
       <c r="T68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>4</v>
       </c>
       <c r="U68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>1980</v>
       </c>
       <c r="V68" s="58" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>19/4/1980</v>
       </c>
       <c r="W68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>30</v>
       </c>
       <c r="X68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>6</v>
       </c>
       <c r="Y68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>2021</v>
       </c>
       <c r="Z68" s="58" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B69" s="62">
-        <f t="shared" ref="B69:C69" si="213">B67</f>
+        <f t="shared" ref="B69:C69" si="212">B67</f>
         <v>5</v>
       </c>
       <c r="C69" s="62" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D69" s="62" t="str">
@@ -8613,11 +8613,11 @@
         <v>127</v>
       </c>
       <c r="F69" s="62" t="str">
-        <f t="shared" ref="F69:G69" si="214">F68</f>
+        <f t="shared" ref="F69:G69" si="213">F68</f>
         <v>05</v>
       </c>
       <c r="G69" s="62">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>5</v>
       </c>
       <c r="H69" s="62" t="s">
@@ -8625,18 +8625,18 @@
       </c>
       <c r="I69" s="62"/>
       <c r="J69" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_05_05_ETrawdata_</v>
+        <f>CONCATENATE(C69,"_",D69,"_",E69,"_",F69,"_",H69)</f>
+        <v>ProVisioNET_pilot_05_05_ETrawdata</v>
       </c>
       <c r="K69" s="136" t="s">
         <v>189</v>
       </c>
       <c r="L69" s="62" t="str">
-        <f t="shared" ref="L69:M69" si="215">L68</f>
+        <f t="shared" ref="L69:M69" si="214">L68</f>
         <v>f</v>
       </c>
       <c r="M69" s="62" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>Oberschule</v>
       </c>
       <c r="N69" s="62">
@@ -8646,71 +8646,71 @@
         <v>185</v>
       </c>
       <c r="P69" s="62">
-        <f t="shared" ref="P69" si="216">P67</f>
+        <f t="shared" ref="P69" si="215">P67</f>
         <v>0</v>
       </c>
       <c r="Q69" s="58" t="str">
-        <f t="shared" ref="Q69:Z69" si="217">Q68</f>
+        <f t="shared" ref="Q69:Z69" si="216">Q68</f>
         <v>lab</v>
       </c>
       <c r="R69" s="58" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>MK</v>
       </c>
       <c r="S69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>19</v>
       </c>
       <c r="T69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>4</v>
       </c>
       <c r="U69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>1980</v>
       </c>
       <c r="V69" s="58" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>19/4/1980</v>
       </c>
       <c r="W69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>30</v>
       </c>
       <c r="X69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>6</v>
       </c>
       <c r="Y69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>2021</v>
       </c>
       <c r="Z69" s="58" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B70" s="62">
-        <f t="shared" ref="B70:D71" si="218">B69</f>
+        <f t="shared" ref="B70:D71" si="217">B69</f>
         <v>5</v>
       </c>
       <c r="C70" s="62" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D70" s="62" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>pilot</v>
       </c>
       <c r="E70" s="125" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="62" t="str">
-        <f t="shared" ref="F70" si="219">F69</f>
+        <f t="shared" ref="F70" si="218">F69</f>
         <v>05</v>
       </c>
       <c r="G70" s="62">
@@ -8721,18 +8721,18 @@
       </c>
       <c r="I70" s="62"/>
       <c r="J70" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_05_05_sri_obs_</v>
+        <f>CONCATENATE(C70,"_",D70,"_",E70,"_",F70,"_",H70)</f>
+        <v>ProVisioNET_pilot_05_05_sri_obs</v>
       </c>
       <c r="K70" s="136" t="s">
         <v>189</v>
       </c>
       <c r="L70" s="62" t="str">
-        <f t="shared" ref="L70:M70" si="220">L69</f>
+        <f t="shared" ref="L70:M70" si="219">L69</f>
         <v>f</v>
       </c>
       <c r="M70" s="62" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>Oberschule</v>
       </c>
       <c r="N70" s="62">
@@ -8742,51 +8742,51 @@
         <v>185</v>
       </c>
       <c r="P70" s="62">
-        <f t="shared" ref="P70:Z70" si="221">P69</f>
+        <f t="shared" ref="P70:Z70" si="220">P69</f>
         <v>0</v>
       </c>
       <c r="Q70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>lab</v>
       </c>
       <c r="R70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>MK</v>
       </c>
       <c r="S70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>19</v>
       </c>
       <c r="T70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>4</v>
       </c>
       <c r="U70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>1980</v>
       </c>
       <c r="V70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>19/4/1980</v>
       </c>
       <c r="W70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>30</v>
       </c>
       <c r="X70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>6</v>
       </c>
       <c r="Y70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>2021</v>
       </c>
       <c r="Z70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>117</v>
       </c>
@@ -8799,14 +8799,14 @@
         <v>ProVisioNET</v>
       </c>
       <c r="D71" s="62" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>pilot</v>
       </c>
       <c r="E71" s="125" t="s">
         <v>127</v>
       </c>
       <c r="F71" s="62" t="str">
-        <f t="shared" ref="F71" si="222">F70</f>
+        <f t="shared" ref="F71" si="221">F70</f>
         <v>05</v>
       </c>
       <c r="G71" s="62">
@@ -8817,18 +8817,18 @@
       </c>
       <c r="I71" s="62"/>
       <c r="J71" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_05_05_sri_ambient_</v>
+        <f>CONCATENATE(C71,"_",D71,"_",E71,"_",F71,"_",H71)</f>
+        <v>ProVisioNET_pilot_05_05_sri_ambient</v>
       </c>
       <c r="K71" s="136" t="s">
         <v>189</v>
       </c>
       <c r="L71" s="62" t="str">
-        <f t="shared" ref="L71:M71" si="223">L70</f>
+        <f t="shared" ref="L71:M71" si="222">L70</f>
         <v>f</v>
       </c>
       <c r="M71" s="62" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="222"/>
         <v>Oberschule</v>
       </c>
       <c r="N71" s="62">
@@ -8838,51 +8838,51 @@
         <v>185</v>
       </c>
       <c r="P71" s="62">
-        <f t="shared" ref="P71:Z71" si="224">P70</f>
+        <f t="shared" ref="P71:Z71" si="223">P70</f>
         <v>0</v>
       </c>
       <c r="Q71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>lab</v>
       </c>
       <c r="R71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>MK</v>
       </c>
       <c r="S71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>19</v>
       </c>
       <c r="T71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>4</v>
       </c>
       <c r="U71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>1980</v>
       </c>
       <c r="V71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>19/4/1980</v>
       </c>
       <c r="W71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>30</v>
       </c>
       <c r="X71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>6</v>
       </c>
       <c r="Y71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>2021</v>
       </c>
       <c r="Z71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>116</v>
       </c>
@@ -8909,8 +8909,8 @@
       </c>
       <c r="I72" s="63"/>
       <c r="J72" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_label_</v>
+        <f>CONCATENATE(C72,"_",D72,"_",E72,"_",F72,"_",H72)</f>
+        <v>ProVisioNET_pilot_06_06_label</v>
       </c>
       <c r="K72" s="63" t="s">
         <v>115</v>
@@ -8963,31 +8963,31 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B73" s="62">
-        <f t="shared" ref="B73:D73" si="225">B72</f>
+        <f t="shared" ref="B73:D73" si="224">B72</f>
         <v>6</v>
       </c>
       <c r="C73" s="62" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D73" s="62" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>pilot</v>
       </c>
       <c r="E73" s="125" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="62" t="str">
-        <f t="shared" ref="F73:G73" si="226">F72</f>
+        <f t="shared" ref="F73:G73" si="225">F72</f>
         <v>06</v>
       </c>
       <c r="G73" s="62">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>6</v>
       </c>
       <c r="H73" s="62" t="s">
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" ref="J68:J131" si="226">CONCATENATE(C73,"_",D73,"_",E73,"_",F73,"_",H73,"_",I73)</f>
         <v>ProVisioNET_pilot_06_06_cam1_1</v>
       </c>
       <c r="K73" s="136" t="s">
@@ -9062,7 +9062,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>117</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam1_2</v>
       </c>
       <c r="K74" s="136" t="s">
@@ -9161,7 +9161,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>117</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam2_1</v>
       </c>
       <c r="K75" s="136" t="s">
@@ -9260,7 +9260,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>117</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam2_2</v>
       </c>
       <c r="K76" s="136" t="s">
@@ -9359,7 +9359,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>117</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam3_1</v>
       </c>
       <c r="K77" s="136" t="s">
@@ -9458,7 +9458,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>117</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>2</v>
       </c>
       <c r="J78" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam3_2</v>
       </c>
       <c r="K78" s="136" t="s">
@@ -9556,7 +9556,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>117</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam4_1</v>
       </c>
       <c r="K79" s="136" t="s">
@@ -9655,7 +9655,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>117</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam4_2</v>
       </c>
       <c r="K80" s="136" t="s">
@@ -9753,7 +9753,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>117</v>
       </c>
@@ -9785,8 +9785,8 @@
       </c>
       <c r="I81" s="62"/>
       <c r="J81" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_glasses_</v>
+        <f>CONCATENATE(C81,"_",D81,"_",E81,"_",F81,"_",H81)</f>
+        <v>ProVisioNET_pilot_06_06_glasses</v>
       </c>
       <c r="K81" s="136" t="s">
         <v>189</v>
@@ -9850,7 +9850,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>117</v>
       </c>
@@ -9882,8 +9882,8 @@
       </c>
       <c r="I82" s="62"/>
       <c r="J82" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_ambient_</v>
+        <f>CONCATENATE(C82,"_",D82,"_",E82,"_",F82,"_",H82)</f>
+        <v>ProVisioNET_pilot_06_06_ambient</v>
       </c>
       <c r="K82" s="136" t="s">
         <v>189</v>
@@ -9946,7 +9946,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>117</v>
       </c>
@@ -9978,8 +9978,8 @@
       </c>
       <c r="I83" s="62"/>
       <c r="J83" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_ETrawdata_</v>
+        <f>CONCATENATE(C83,"_",D83,"_",E83,"_",F83,"_",H83)</f>
+        <v>ProVisioNET_pilot_06_06_ETrawdata</v>
       </c>
       <c r="K83" s="136" t="s">
         <v>189</v>
@@ -10044,7 +10044,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>117</v>
       </c>
@@ -10075,8 +10075,8 @@
       </c>
       <c r="I84" s="62"/>
       <c r="J84" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_sri_obs_</v>
+        <f>CONCATENATE(C84,"_",D84,"_",E84,"_",F84,"_",H84)</f>
+        <v>ProVisioNET_pilot_06_06_sri_obs</v>
       </c>
       <c r="K84" s="136" t="s">
         <v>189</v>
@@ -10141,7 +10141,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="59" t="s">
         <v>117</v>
       </c>
@@ -10172,8 +10172,8 @@
       </c>
       <c r="I85" s="60"/>
       <c r="J85" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_sri_ambient_</v>
+        <f>CONCATENATE(C85,"_",D85,"_",E85,"_",F85,"_",H85)</f>
+        <v>ProVisioNET_pilot_06_06_sri_ambient</v>
       </c>
       <c r="K85" s="138" t="s">
         <v>189</v>
@@ -10238,7 +10238,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>116</v>
       </c>
@@ -10265,8 +10265,8 @@
       </c>
       <c r="I86" s="63"/>
       <c r="J86" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_label_</v>
+        <f>CONCATENATE(C86,"_",D86,"_",E86,"_",F86,"_",H86)</f>
+        <v>ProVisioNET_study_101_01_label</v>
       </c>
       <c r="K86" s="63" t="s">
         <v>115</v>
@@ -10319,7 +10319,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>117</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam1_1</v>
       </c>
       <c r="K87" s="136" t="s">
@@ -10417,7 +10417,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>117</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam1_2</v>
       </c>
       <c r="K88" s="136" t="s">
@@ -10515,7 +10515,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>117</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam2_1</v>
       </c>
       <c r="K89" s="136" t="s">
@@ -10613,7 +10613,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>117</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam2_2</v>
       </c>
       <c r="K90" s="136" t="s">
@@ -10711,7 +10711,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>117</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam3_1</v>
       </c>
       <c r="K91" s="136" t="s">
@@ -10809,7 +10809,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>117</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>2</v>
       </c>
       <c r="J92" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam3_2</v>
       </c>
       <c r="K92" s="136" t="s">
@@ -10907,7 +10907,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>117</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam4_1</v>
       </c>
       <c r="K93" s="136" t="s">
@@ -11005,7 +11005,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>117</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam4_2</v>
       </c>
       <c r="K94" s="136" t="s">
@@ -11103,7 +11103,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>117</v>
       </c>
@@ -11135,8 +11135,8 @@
       </c>
       <c r="I95" s="62"/>
       <c r="J95" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_glasses_</v>
+        <f>CONCATENATE(C95,"_",D95,"_",E95,"_",F95,"_",H95)</f>
+        <v>ProVisioNET_study_101_01_glasses</v>
       </c>
       <c r="K95" s="136" t="s">
         <v>189</v>
@@ -11199,7 +11199,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>117</v>
       </c>
@@ -11231,8 +11231,8 @@
       </c>
       <c r="I96" s="62"/>
       <c r="J96" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_ambient_</v>
+        <f>CONCATENATE(C96,"_",D96,"_",E96,"_",F96,"_",H96)</f>
+        <v>ProVisioNET_study_101_01_ambient</v>
       </c>
       <c r="K96" s="136" t="s">
         <v>189</v>
@@ -11295,7 +11295,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>117</v>
       </c>
@@ -11327,8 +11327,8 @@
       </c>
       <c r="I97" s="62"/>
       <c r="J97" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_ETrawdata_</v>
+        <f>CONCATENATE(C97,"_",D97,"_",E97,"_",F97,"_",H97)</f>
+        <v>ProVisioNET_study_101_01_ETrawdata</v>
       </c>
       <c r="K97" s="136" t="s">
         <v>189</v>
@@ -11391,7 +11391,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
@@ -11422,8 +11422,8 @@
       </c>
       <c r="I98" s="62"/>
       <c r="J98" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_sri_obs_</v>
+        <f>CONCATENATE(C98,"_",D98,"_",E98,"_",F98,"_",H98)</f>
+        <v>ProVisioNET_study_101_01_sri_obs</v>
       </c>
       <c r="K98" s="136" t="s">
         <v>189</v>
@@ -11486,7 +11486,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>117</v>
       </c>
@@ -11517,8 +11517,8 @@
       </c>
       <c r="I99" s="62"/>
       <c r="J99" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_sri_ambient_</v>
+        <f>CONCATENATE(C99,"_",D99,"_",E99,"_",F99,"_",H99)</f>
+        <v>ProVisioNET_study_101_01_sri_ambient</v>
       </c>
       <c r="K99" s="140" t="s">
         <v>189</v>
@@ -11581,7 +11581,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>117</v>
       </c>
@@ -11612,8 +11612,8 @@
       </c>
       <c r="I100" s="62"/>
       <c r="J100" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_fitbit_</v>
+        <f>CONCATENATE(C100,"_",D100,"_",E100,"_",F100,"_",H100)</f>
+        <v>ProVisioNET_study_101_01_fitbit</v>
       </c>
       <c r="K100" s="140" t="s">
         <v>189</v>
@@ -11674,7 +11674,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="122" t="s">
         <v>117</v>
       </c>
@@ -11705,8 +11705,8 @@
       </c>
       <c r="I101" s="123"/>
       <c r="J101" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_zed_</v>
+        <f>CONCATENATE(C101,"_",D101,"_",E101,"_",F101,"_",H101)</f>
+        <v>ProVisioNET_study_101_01_zed</v>
       </c>
       <c r="K101" s="141" t="s">
         <v>206</v>
@@ -11768,7 +11768,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
         <v>116</v>
       </c>
@@ -11795,8 +11795,8 @@
       </c>
       <c r="I102" s="63"/>
       <c r="J102" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_label_</v>
+        <f>CONCATENATE(C102,"_",D102,"_",E102,"_",F102,"_",H102)</f>
+        <v>ProVisioNET_study_102_02_label</v>
       </c>
       <c r="K102" s="63" t="s">
         <v>115</v>
@@ -11849,7 +11849,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>117</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam1_1</v>
       </c>
       <c r="K103" s="136" t="s">
@@ -11943,7 +11943,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>117</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam1_2</v>
       </c>
       <c r="K104" s="136" t="s">
@@ -12037,7 +12037,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>117</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam2_1</v>
       </c>
       <c r="K105" s="136" t="s">
@@ -12132,7 +12132,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>117</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam2_2</v>
       </c>
       <c r="K106" s="136" t="s">
@@ -12227,7 +12227,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>117</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam3_1</v>
       </c>
       <c r="K107" s="136" t="s">
@@ -12322,7 +12322,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>117</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>2</v>
       </c>
       <c r="J108" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam3_2</v>
       </c>
       <c r="K108" s="136" t="s">
@@ -12417,7 +12417,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>117</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam4_1</v>
       </c>
       <c r="K109" s="136" t="s">
@@ -12512,7 +12512,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>117</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam4_2</v>
       </c>
       <c r="K110" s="136" t="s">
@@ -12607,7 +12607,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>117</v>
       </c>
@@ -12639,8 +12639,8 @@
       </c>
       <c r="I111" s="62"/>
       <c r="J111" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_glasses_</v>
+        <f>CONCATENATE(C111,"_",D111,"_",E111,"_",F111,"_",H111)</f>
+        <v>ProVisioNET_study_102_02_glasses</v>
       </c>
       <c r="K111" s="136" t="s">
         <v>189</v>
@@ -12700,7 +12700,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>117</v>
       </c>
@@ -12732,8 +12732,8 @@
       </c>
       <c r="I112" s="62"/>
       <c r="J112" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_ambient_</v>
+        <f>CONCATENATE(C112,"_",D112,"_",E112,"_",F112,"_",H112)</f>
+        <v>ProVisioNET_study_102_02_ambient</v>
       </c>
       <c r="K112" s="136" t="s">
         <v>189</v>
@@ -12793,7 +12793,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>117</v>
       </c>
@@ -12825,8 +12825,8 @@
       </c>
       <c r="I113" s="62"/>
       <c r="J113" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_ETrawdata_</v>
+        <f>CONCATENATE(C113,"_",D113,"_",E113,"_",F113,"_",H113)</f>
+        <v>ProVisioNET_study_102_02_ETrawdata</v>
       </c>
       <c r="K113" s="136" t="s">
         <v>189</v>
@@ -12886,7 +12886,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>117</v>
       </c>
@@ -12917,8 +12917,8 @@
       </c>
       <c r="I114" s="62"/>
       <c r="J114" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_sri_obs_</v>
+        <f>CONCATENATE(C114,"_",D114,"_",E114,"_",F114,"_",H114)</f>
+        <v>ProVisioNET_study_102_02_sri_obs</v>
       </c>
       <c r="K114" s="136" t="s">
         <v>189</v>
@@ -12978,7 +12978,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>117</v>
       </c>
@@ -13009,8 +13009,8 @@
       </c>
       <c r="I115" s="62"/>
       <c r="J115" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_sri_ambient_</v>
+        <f>CONCATENATE(C115,"_",D115,"_",E115,"_",F115,"_",H115)</f>
+        <v>ProVisioNET_study_102_02_sri_ambient</v>
       </c>
       <c r="K115" s="140" t="s">
         <v>189</v>
@@ -13070,7 +13070,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>117</v>
       </c>
@@ -13101,8 +13101,8 @@
       </c>
       <c r="I116" s="62"/>
       <c r="J116" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_fitbit_</v>
+        <f>CONCATENATE(C116,"_",D116,"_",E116,"_",F116,"_",H116)</f>
+        <v>ProVisioNET_study_102_02_fitbit</v>
       </c>
       <c r="K116" s="140" t="s">
         <v>189</v>
@@ -13160,7 +13160,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="122" t="s">
         <v>117</v>
       </c>
@@ -13191,8 +13191,8 @@
       </c>
       <c r="I117" s="123"/>
       <c r="J117" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_zed_</v>
+        <f>CONCATENATE(C117,"_",D117,"_",E117,"_",F117,"_",H117)</f>
+        <v>ProVisioNET_study_102_02_zed</v>
       </c>
       <c r="K117" s="141" t="s">
         <v>205</v>
@@ -13251,7 +13251,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="64" t="s">
         <v>116</v>
       </c>
@@ -13278,8 +13278,8 @@
       </c>
       <c r="I118" s="63"/>
       <c r="J118" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_label_</v>
+        <f>CONCATENATE(C118,"_",D118,"_",E118,"_",F118,"_",H118)</f>
+        <v>ProVisioNET_study_103_03_label</v>
       </c>
       <c r="K118" s="63" t="s">
         <v>115</v>
@@ -13332,7 +13332,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>117</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam1_1</v>
       </c>
       <c r="K119" s="136" t="s">
@@ -13426,7 +13426,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>117</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>2</v>
       </c>
       <c r="J120" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam1_2</v>
       </c>
       <c r="K120" s="136" t="s">
@@ -13520,7 +13520,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>117</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam2_1</v>
       </c>
       <c r="K121" s="136" t="s">
@@ -13614,7 +13614,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>117</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>2</v>
       </c>
       <c r="J122" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam2_2</v>
       </c>
       <c r="K122" s="136" t="s">
@@ -13709,7 +13709,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>117</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam3_1</v>
       </c>
       <c r="K123" s="136" t="s">
@@ -13804,7 +13804,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>117</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>2</v>
       </c>
       <c r="J124" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam3_2</v>
       </c>
       <c r="K124" s="136" t="s">
@@ -13899,7 +13899,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>117</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam4_1</v>
       </c>
       <c r="K125" s="136" t="s">
@@ -13994,7 +13994,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>117</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam4_2</v>
       </c>
       <c r="K126" s="136" t="s">
@@ -14089,7 +14089,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>117</v>
       </c>
@@ -14121,8 +14121,8 @@
       </c>
       <c r="I127" s="62"/>
       <c r="J127" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_glasses_</v>
+        <f>CONCATENATE(C127,"_",D127,"_",E127,"_",F127,"_",H127)</f>
+        <v>ProVisioNET_study_103_03_glasses</v>
       </c>
       <c r="K127" s="136" t="s">
         <v>189</v>
@@ -14182,7 +14182,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>117</v>
       </c>
@@ -14214,8 +14214,8 @@
       </c>
       <c r="I128" s="62"/>
       <c r="J128" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_ambient_</v>
+        <f>CONCATENATE(C128,"_",D128,"_",E128,"_",F128,"_",H128)</f>
+        <v>ProVisioNET_study_103_03_ambient</v>
       </c>
       <c r="K128" s="136" t="s">
         <v>189</v>
@@ -14275,7 +14275,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>117</v>
       </c>
@@ -14307,8 +14307,8 @@
       </c>
       <c r="I129" s="62"/>
       <c r="J129" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_ETrawdata_</v>
+        <f>CONCATENATE(C129,"_",D129,"_",E129,"_",F129,"_",H129)</f>
+        <v>ProVisioNET_study_103_03_ETrawdata</v>
       </c>
       <c r="K129" s="136" t="s">
         <v>189</v>
@@ -14368,7 +14368,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="142" t="s">
         <v>117</v>
       </c>
@@ -14399,8 +14399,8 @@
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_sri_obs_</v>
+        <f>CONCATENATE(C130,"_",D130,"_",E130,"_",F130,"_",H130)</f>
+        <v>ProVisioNET_study_103_03_sri_obs</v>
       </c>
       <c r="K130" s="145" t="s">
         <v>204</v>
@@ -14460,7 +14460,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>117</v>
       </c>
@@ -14491,8 +14491,8 @@
       </c>
       <c r="I131" s="62"/>
       <c r="J131" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_sri_ambient_</v>
+        <f>CONCATENATE(C131,"_",D131,"_",E131,"_",F131,"_",H131)</f>
+        <v>ProVisioNET_study_103_03_sri_ambient</v>
       </c>
       <c r="K131" s="140" t="s">
         <v>189</v>
@@ -14552,7 +14552,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>117</v>
       </c>
@@ -14583,18 +14583,18 @@
       </c>
       <c r="I132" s="62"/>
       <c r="J132" s="62" t="str">
-        <f t="shared" ref="J132:J133" si="450">CONCATENATE(C132,"_",D132,"_",E132,"_",F132,"_",H132,"_",I132)</f>
-        <v>ProVisioNET_study_103_03_fitbit_</v>
+        <f>CONCATENATE(C132,"_",D132,"_",E132,"_",F132,"_",H132)</f>
+        <v>ProVisioNET_study_103_03_fitbit</v>
       </c>
       <c r="K132" s="140" t="s">
         <v>189</v>
       </c>
       <c r="L132" s="62" t="str">
-        <f t="shared" ref="L132:M132" si="451">L131</f>
+        <f t="shared" ref="L132:M132" si="450">L131</f>
         <v>f</v>
       </c>
       <c r="M132" s="62" t="str">
-        <f t="shared" si="451"/>
+        <f t="shared" si="450"/>
         <v>Gymnasium</v>
       </c>
       <c r="N132" s="62">
@@ -14622,27 +14622,27 @@
         <v>1997</v>
       </c>
       <c r="V132" s="58" t="str">
-        <f t="shared" ref="V132" si="452">V131</f>
+        <f t="shared" ref="V132" si="451">V131</f>
         <v>1/7/1997</v>
       </c>
       <c r="W132" s="58">
-        <f t="shared" ref="W132:Z132" si="453">W131</f>
+        <f t="shared" ref="W132:Z132" si="452">W131</f>
         <v>28</v>
       </c>
       <c r="X132" s="58">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v>7</v>
       </c>
       <c r="Y132" s="58">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v>2021</v>
       </c>
       <c r="Z132" s="58" t="str">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="122" t="s">
         <v>117</v>
       </c>
@@ -14673,8 +14673,8 @@
       </c>
       <c r="I133" s="123"/>
       <c r="J133" s="62" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_103_03_zed_</v>
+        <f>CONCATENATE(C133,"_",D133,"_",E133,"_",F133,"_",H133)</f>
+        <v>ProVisioNET_study_103_03_zed</v>
       </c>
       <c r="K133" s="141" t="s">
         <v>205</v>
@@ -14713,27 +14713,27 @@
         <v>1977</v>
       </c>
       <c r="V133" s="123" t="str">
-        <f t="shared" ref="V133" si="454">V132</f>
+        <f t="shared" ref="V133" si="453">V132</f>
         <v>1/7/1997</v>
       </c>
       <c r="W133" s="123">
-        <f t="shared" ref="W133:Z133" si="455">W131</f>
+        <f t="shared" ref="W133:Z133" si="454">W131</f>
         <v>28</v>
       </c>
       <c r="X133" s="123">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v>7</v>
       </c>
       <c r="Y133" s="123">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v>2021</v>
       </c>
       <c r="Z133" s="123" t="str">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G567" s="58"/>
       <c r="H567" s="58"/>
       <c r="I567" s="58"/>
@@ -14753,25 +14753,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -14799,30 +14799,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -14833,35 +14833,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -14872,30 +14872,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -14906,39 +14906,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -14949,40 +14949,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -14993,35 +14993,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -15033,28 +15033,28 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>8</v>
       </c>
@@ -15065,36 +15065,36 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="14"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>67</v>
       </c>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
@@ -15125,20 +15125,20 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="89"/>
-    <col min="2" max="9" width="15.6640625" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="3"/>
-    <col min="12" max="12" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11.5546875" style="13"/>
-    <col min="22" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="11.5703125" style="89"/>
+    <col min="2" max="9" width="15.7109375" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="3"/>
+    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11.5703125" style="13"/>
+    <col min="22" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -15182,7 +15182,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -15274,7 +15274,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -15366,7 +15366,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -15458,7 +15458,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91">
         <v>4</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="94" t="s">
         <v>124</v>
@@ -15548,7 +15548,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91">
         <v>5</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93"/>
       <c r="B11" s="94" t="s">
         <v>174</v>
@@ -15640,7 +15640,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91">
         <v>6</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="94" t="s">
         <v>125</v>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91">
         <v>7</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
       <c r="B15" s="94" t="s">
         <v>90</v>
@@ -15777,7 +15777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91">
         <v>8</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="103"/>
       <c r="B17" s="104" t="s">
         <v>89</v>
@@ -15839,7 +15839,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100">
         <v>9</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="93"/>
       <c r="B19" s="94" t="s">
         <v>150</v>
@@ -15901,7 +15901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91">
         <v>10</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
       <c r="B21" s="94" t="s">
         <v>148</v>
@@ -15963,7 +15963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="91">
         <v>11</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="93"/>
       <c r="B23" s="94" t="s">
         <v>149</v>
@@ -16023,7 +16023,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91">
         <v>12</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93"/>
       <c r="B25" s="94" t="s">
         <v>124</v>
@@ -16083,7 +16083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91">
         <v>13</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
       <c r="B27" s="94" t="s">
         <v>175</v>
@@ -16145,7 +16145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>14</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="93"/>
       <c r="B29" s="94" t="s">
         <v>125</v>
@@ -16207,7 +16207,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91">
         <v>15</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="93"/>
       <c r="B31" s="94" t="s">
         <v>90</v>
@@ -16269,7 +16269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91">
         <v>16</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="103"/>
       <c r="B33" s="104" t="s">
         <v>89</v>
@@ -16331,7 +16331,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="100">
         <v>17</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="93"/>
       <c r="B35" s="94" t="s">
         <v>150</v>
@@ -16393,7 +16393,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="91">
         <v>18</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
       <c r="B37" s="94" t="s">
         <v>148</v>
@@ -16455,7 +16455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="91">
         <v>19</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
       <c r="B39" s="94" t="s">
         <v>149</v>
@@ -16515,7 +16515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91">
         <v>20</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93"/>
       <c r="B41" s="94" t="s">
         <v>124</v>
@@ -16575,7 +16575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91">
         <v>21</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="93"/>
       <c r="B43" s="94" t="s">
         <v>175</v>
@@ -16637,7 +16637,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="91">
         <v>22</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="93"/>
       <c r="B45" s="94" t="s">
         <v>125</v>
@@ -16699,7 +16699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="91">
         <v>23</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="93"/>
       <c r="B47" s="94" t="s">
         <v>90</v>
@@ -16761,7 +16761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="91">
         <v>24</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103"/>
       <c r="B49" s="104" t="s">
         <v>89</v>
@@ -16823,7 +16823,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="100">
         <v>25</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="93"/>
       <c r="B51" s="94" t="s">
         <v>150</v>
@@ -16885,7 +16885,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="91">
         <v>26</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="93"/>
       <c r="B53" s="94" t="s">
         <v>148</v>
@@ -16947,7 +16947,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="91">
         <v>27</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="93"/>
       <c r="B55" s="94" t="s">
         <v>149</v>
@@ -17007,7 +17007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91">
         <v>28</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="93"/>
       <c r="B57" s="94" t="s">
         <v>124</v>
@@ -17067,7 +17067,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="96">
         <v>29</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="97"/>
       <c r="B59" s="94" t="s">
         <v>174</v>
@@ -17129,7 +17129,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="96">
         <v>30</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="97"/>
       <c r="B61" s="94" t="s">
         <v>125</v>
@@ -17191,7 +17191,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="96">
         <v>31</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="97"/>
       <c r="B63" s="94" t="s">
         <v>90</v>
@@ -17253,7 +17253,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="96">
         <v>32</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
       <c r="B65" s="104" t="s">
         <v>89</v>
@@ -17315,7 +17315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="106">
         <v>33</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="97"/>
       <c r="B67" s="94" t="s">
         <v>150</v>
@@ -17377,7 +17377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="96">
         <v>34</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="97"/>
       <c r="B69" s="94" t="s">
         <v>148</v>
@@ -17439,7 +17439,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="96">
         <v>35</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="97"/>
       <c r="B71" s="94" t="s">
         <v>149</v>
@@ -17499,7 +17499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="96">
         <v>36</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="97"/>
       <c r="B73" s="94" t="s">
         <v>124</v>
@@ -17559,7 +17559,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="98">
         <v>37</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="99"/>
       <c r="B75" s="94" t="s">
         <v>174</v>
@@ -17621,7 +17621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="98">
         <v>38</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="99"/>
       <c r="B77" s="94" t="s">
         <v>125</v>
@@ -17683,7 +17683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="98">
         <v>39</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="99"/>
       <c r="B79" s="94" t="s">
         <v>90</v>
@@ -17745,7 +17745,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="98">
         <v>40</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="109"/>
       <c r="B81" s="104" t="s">
         <v>89</v>
@@ -17807,7 +17807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
         <v>41</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="99"/>
       <c r="B83" s="94" t="s">
         <v>150</v>
@@ -17869,7 +17869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="98">
         <v>42</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="99"/>
       <c r="B85" s="94" t="s">
         <v>148</v>
@@ -17931,7 +17931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="98">
         <v>43</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="99"/>
       <c r="B87" s="94" t="s">
         <v>149</v>
@@ -17991,7 +17991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="98">
         <v>44</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="99"/>
       <c r="B89" s="94" t="s">
         <v>124</v>
@@ -18051,7 +18051,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98">
         <v>45</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="99"/>
       <c r="B91" s="94" t="s">
         <v>174</v>
@@ -18113,7 +18113,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="98">
         <v>46</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="99"/>
       <c r="B93" s="94" t="s">
         <v>125</v>
@@ -18175,7 +18175,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="98">
         <v>47</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="99"/>
       <c r="B95" s="94" t="s">
         <v>90</v>
@@ -18237,7 +18237,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98">
         <v>48</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="109"/>
       <c r="B97" s="104" t="s">
         <v>89</v>
@@ -18299,7 +18299,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
         <v>49</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="99"/>
       <c r="B99" s="94" t="s">
         <v>150</v>
@@ -18361,7 +18361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98">
         <v>50</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="99"/>
       <c r="B101" s="94" t="s">
         <v>148</v>
@@ -18423,7 +18423,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="89">
         <v>51</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="94" t="s">
         <v>149</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="91">
         <v>52</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="93"/>
       <c r="B105" s="94" t="s">
         <v>124</v>
@@ -18542,7 +18542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="96">
         <v>53</v>
       </c>
@@ -18584,7 +18584,7 @@
       <c r="T106" s="76"/>
       <c r="U106" s="76"/>
     </row>
-    <row r="107" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="97"/>
       <c r="B107" s="94" t="s">
         <v>174</v>
@@ -18624,7 +18624,7 @@
       <c r="T107" s="76"/>
       <c r="U107" s="76"/>
     </row>
-    <row r="108" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="96">
         <v>54</v>
       </c>
@@ -18666,7 +18666,7 @@
       <c r="T108" s="76"/>
       <c r="U108" s="76"/>
     </row>
-    <row r="109" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="97"/>
       <c r="B109" s="94" t="s">
         <v>125</v>
@@ -18706,7 +18706,7 @@
       <c r="T109" s="76"/>
       <c r="U109" s="76"/>
     </row>
-    <row r="110" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="96">
         <v>55</v>
       </c>
@@ -18748,7 +18748,7 @@
       <c r="T110" s="76"/>
       <c r="U110" s="76"/>
     </row>
-    <row r="111" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="97"/>
       <c r="B111" s="94" t="s">
         <v>90</v>
@@ -18788,7 +18788,7 @@
       <c r="T111" s="76"/>
       <c r="U111" s="76"/>
     </row>
-    <row r="112" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="96">
         <v>56</v>
       </c>
@@ -18830,7 +18830,7 @@
       <c r="T112" s="76"/>
       <c r="U112" s="76"/>
     </row>
-    <row r="113" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="97"/>
       <c r="B113" s="94" t="s">
         <v>89</v>
@@ -18870,7 +18870,7 @@
       <c r="T113" s="76"/>
       <c r="U113" s="76"/>
     </row>
-    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="100"/>
       <c r="B114" s="101"/>
       <c r="C114" s="101"/>
@@ -18892,7 +18892,7 @@
       <c r="T114" s="76"/>
       <c r="U114" s="76"/>
     </row>
-    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="100"/>
       <c r="B115" s="101"/>
       <c r="C115" s="101"/>
@@ -18914,7 +18914,7 @@
       <c r="T115" s="76"/>
       <c r="U115" s="76"/>
     </row>
-    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="100"/>
       <c r="B116" s="101"/>
       <c r="C116" s="101"/>
@@ -18936,7 +18936,7 @@
       <c r="T116" s="76"/>
       <c r="U116" s="76"/>
     </row>
-    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="100"/>
       <c r="B117" s="101"/>
       <c r="C117" s="101"/>
@@ -18958,7 +18958,7 @@
       <c r="T117" s="76"/>
       <c r="U117" s="76"/>
     </row>
-    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="100"/>
       <c r="B118" s="101"/>
       <c r="C118" s="101"/>
@@ -18980,7 +18980,7 @@
       <c r="T118" s="76"/>
       <c r="U118" s="76"/>
     </row>
-    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="100"/>
       <c r="B119" s="101"/>
       <c r="C119" s="101"/>
@@ -19002,7 +19002,7 @@
       <c r="T119" s="76"/>
       <c r="U119" s="76"/>
     </row>
-    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="100"/>
       <c r="B120" s="101"/>
       <c r="C120" s="101"/>
@@ -19024,7 +19024,7 @@
       <c r="T120" s="76"/>
       <c r="U120" s="76"/>
     </row>
-    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="100"/>
       <c r="B121" s="101"/>
       <c r="C121" s="101"/>
@@ -19046,7 +19046,7 @@
       <c r="T121" s="76"/>
       <c r="U121" s="76"/>
     </row>
-    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="100"/>
       <c r="B122" s="101"/>
       <c r="C122" s="101"/>
@@ -19068,7 +19068,7 @@
       <c r="T122" s="76"/>
       <c r="U122" s="76"/>
     </row>
-    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="100"/>
       <c r="B123" s="101"/>
       <c r="C123" s="101"/>
@@ -19090,7 +19090,7 @@
       <c r="T123" s="76"/>
       <c r="U123" s="76"/>
     </row>
-    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="100"/>
       <c r="B124" s="101"/>
       <c r="C124" s="101"/>
@@ -19112,7 +19112,7 @@
       <c r="T124" s="76"/>
       <c r="U124" s="76"/>
     </row>
-    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="100"/>
       <c r="B125" s="101"/>
       <c r="C125" s="101"/>
@@ -19134,7 +19134,7 @@
       <c r="T125" s="76"/>
       <c r="U125" s="76"/>
     </row>
-    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="100"/>
       <c r="B126" s="101"/>
       <c r="C126" s="101"/>
@@ -19156,7 +19156,7 @@
       <c r="T126" s="76"/>
       <c r="U126" s="76"/>
     </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="100"/>
       <c r="B127" s="101"/>
       <c r="C127" s="101"/>
@@ -19178,7 +19178,7 @@
       <c r="T127" s="76"/>
       <c r="U127" s="76"/>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="100"/>
       <c r="B128" s="101"/>
       <c r="C128" s="101"/>
@@ -19200,7 +19200,7 @@
       <c r="T128" s="76"/>
       <c r="U128" s="76"/>
     </row>
-    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="100"/>
       <c r="B129" s="101"/>
       <c r="C129" s="101"/>
@@ -19222,7 +19222,7 @@
       <c r="T129" s="76"/>
       <c r="U129" s="76"/>
     </row>
-    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="100"/>
       <c r="B130" s="101"/>
       <c r="C130" s="101"/>
@@ -19244,7 +19244,7 @@
       <c r="T130" s="76"/>
       <c r="U130" s="76"/>
     </row>
-    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="100"/>
       <c r="B131" s="101"/>
       <c r="C131" s="101"/>
@@ -19266,7 +19266,7 @@
       <c r="T131" s="76"/>
       <c r="U131" s="76"/>
     </row>
-    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="100"/>
       <c r="B132" s="101"/>
       <c r="C132" s="101"/>
@@ -19288,7 +19288,7 @@
       <c r="T132" s="76"/>
       <c r="U132" s="76"/>
     </row>
-    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="100"/>
       <c r="B133" s="101"/>
       <c r="C133" s="101"/>
@@ -19310,7 +19310,7 @@
       <c r="T133" s="76"/>
       <c r="U133" s="76"/>
     </row>
-    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="100"/>
       <c r="B134" s="101"/>
       <c r="C134" s="101"/>
@@ -19332,7 +19332,7 @@
       <c r="T134" s="76"/>
       <c r="U134" s="76"/>
     </row>
-    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="100"/>
       <c r="B135" s="101"/>
       <c r="C135" s="101"/>
@@ -19354,7 +19354,7 @@
       <c r="T135" s="76"/>
       <c r="U135" s="76"/>
     </row>
-    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="100"/>
       <c r="B136" s="101"/>
       <c r="C136" s="101"/>
@@ -19376,7 +19376,7 @@
       <c r="T136" s="76"/>
       <c r="U136" s="76"/>
     </row>
-    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="100"/>
       <c r="B137" s="101"/>
       <c r="C137" s="101"/>
@@ -19398,7 +19398,7 @@
       <c r="T137" s="76"/>
       <c r="U137" s="76"/>
     </row>
-    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="100"/>
       <c r="B138" s="101"/>
       <c r="C138" s="101"/>
@@ -19420,7 +19420,7 @@
       <c r="T138" s="76"/>
       <c r="U138" s="76"/>
     </row>
-    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="100"/>
       <c r="B139" s="101"/>
       <c r="C139" s="101"/>
@@ -19442,7 +19442,7 @@
       <c r="T139" s="76"/>
       <c r="U139" s="76"/>
     </row>
-    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="100"/>
       <c r="B140" s="101"/>
       <c r="C140" s="101"/>
@@ -19464,7 +19464,7 @@
       <c r="T140" s="76"/>
       <c r="U140" s="76"/>
     </row>
-    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="100"/>
       <c r="B141" s="101"/>
       <c r="C141" s="101"/>
@@ -19486,7 +19486,7 @@
       <c r="T141" s="76"/>
       <c r="U141" s="76"/>
     </row>
-    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="100"/>
       <c r="B142" s="101"/>
       <c r="C142" s="101"/>
@@ -19508,7 +19508,7 @@
       <c r="T142" s="76"/>
       <c r="U142" s="76"/>
     </row>
-    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="100"/>
       <c r="B143" s="101"/>
       <c r="C143" s="101"/>
@@ -19530,7 +19530,7 @@
       <c r="T143" s="76"/>
       <c r="U143" s="76"/>
     </row>
-    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="100"/>
       <c r="B144" s="101"/>
       <c r="C144" s="101"/>
@@ -19552,7 +19552,7 @@
       <c r="T144" s="76"/>
       <c r="U144" s="76"/>
     </row>
-    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="100"/>
       <c r="B145" s="101"/>
       <c r="C145" s="101"/>
@@ -19574,7 +19574,7 @@
       <c r="T145" s="76"/>
       <c r="U145" s="76"/>
     </row>
-    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="100"/>
       <c r="B146" s="101"/>
       <c r="C146" s="101"/>
@@ -19596,7 +19596,7 @@
       <c r="T146" s="76"/>
       <c r="U146" s="76"/>
     </row>
-    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="100"/>
       <c r="B147" s="101"/>
       <c r="C147" s="101"/>
@@ -19618,7 +19618,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="76"/>
     </row>
-    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="100"/>
       <c r="B148" s="101"/>
       <c r="C148" s="101"/>
@@ -19640,7 +19640,7 @@
       <c r="T148" s="76"/>
       <c r="U148" s="76"/>
     </row>
-    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="100"/>
       <c r="B149" s="101"/>
       <c r="C149" s="101"/>
@@ -19662,7 +19662,7 @@
       <c r="T149" s="76"/>
       <c r="U149" s="76"/>
     </row>
-    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="100"/>
       <c r="B150" s="101"/>
       <c r="C150" s="101"/>
@@ -19684,7 +19684,7 @@
       <c r="T150" s="76"/>
       <c r="U150" s="76"/>
     </row>
-    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="100"/>
       <c r="B151" s="101"/>
       <c r="C151" s="101"/>
@@ -19706,7 +19706,7 @@
       <c r="T151" s="76"/>
       <c r="U151" s="76"/>
     </row>
-    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="100"/>
       <c r="B152" s="101"/>
       <c r="C152" s="101"/>
@@ -19728,7 +19728,7 @@
       <c r="T152" s="76"/>
       <c r="U152" s="76"/>
     </row>
-    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="100"/>
       <c r="B153" s="101"/>
       <c r="C153" s="101"/>
@@ -19750,7 +19750,7 @@
       <c r="T153" s="76"/>
       <c r="U153" s="76"/>
     </row>
-    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="100"/>
       <c r="B154" s="101"/>
       <c r="C154" s="101"/>
@@ -19772,7 +19772,7 @@
       <c r="T154" s="76"/>
       <c r="U154" s="76"/>
     </row>
-    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="100"/>
       <c r="B155" s="101"/>
       <c r="C155" s="101"/>
@@ -19794,7 +19794,7 @@
       <c r="T155" s="76"/>
       <c r="U155" s="76"/>
     </row>
-    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="100"/>
       <c r="B156" s="101"/>
       <c r="C156" s="101"/>
@@ -19816,7 +19816,7 @@
       <c r="T156" s="76"/>
       <c r="U156" s="76"/>
     </row>
-    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="100"/>
       <c r="B157" s="101"/>
       <c r="C157" s="101"/>
@@ -19838,7 +19838,7 @@
       <c r="T157" s="76"/>
       <c r="U157" s="76"/>
     </row>
-    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="100"/>
       <c r="B158" s="101"/>
       <c r="C158" s="101"/>
@@ -19860,7 +19860,7 @@
       <c r="T158" s="76"/>
       <c r="U158" s="76"/>
     </row>
-    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="100"/>
       <c r="B159" s="101"/>
       <c r="C159" s="101"/>
@@ -19882,7 +19882,7 @@
       <c r="T159" s="76"/>
       <c r="U159" s="76"/>
     </row>
-    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="100"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -19904,7 +19904,7 @@
       <c r="T160" s="76"/>
       <c r="U160" s="76"/>
     </row>
-    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="100"/>
       <c r="B161" s="101"/>
       <c r="C161" s="101"/>
@@ -19926,7 +19926,7 @@
       <c r="T161" s="76"/>
       <c r="U161" s="76"/>
     </row>
-    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="100"/>
       <c r="B162" s="101"/>
       <c r="C162" s="101"/>
@@ -19948,7 +19948,7 @@
       <c r="T162" s="76"/>
       <c r="U162" s="76"/>
     </row>
-    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="100"/>
       <c r="B163" s="101"/>
       <c r="C163" s="101"/>
@@ -19970,7 +19970,7 @@
       <c r="T163" s="76"/>
       <c r="U163" s="76"/>
     </row>
-    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="100"/>
       <c r="B164" s="101"/>
       <c r="C164" s="101"/>
@@ -19992,7 +19992,7 @@
       <c r="T164" s="76"/>
       <c r="U164" s="76"/>
     </row>
-    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="100"/>
       <c r="B165" s="101"/>
       <c r="C165" s="101"/>
@@ -20014,7 +20014,7 @@
       <c r="T165" s="76"/>
       <c r="U165" s="76"/>
     </row>
-    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="100"/>
       <c r="B166" s="101"/>
       <c r="C166" s="101"/>
@@ -20036,7 +20036,7 @@
       <c r="T166" s="76"/>
       <c r="U166" s="76"/>
     </row>
-    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="100"/>
       <c r="B167" s="101"/>
       <c r="C167" s="101"/>
@@ -20058,7 +20058,7 @@
       <c r="T167" s="76"/>
       <c r="U167" s="76"/>
     </row>
-    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
@@ -20080,7 +20080,7 @@
       <c r="T168" s="76"/>
       <c r="U168" s="76"/>
     </row>
-    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="100"/>
       <c r="B169" s="101"/>
       <c r="C169" s="101"/>
@@ -20102,7 +20102,7 @@
       <c r="T169" s="76"/>
       <c r="U169" s="76"/>
     </row>
-    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="100"/>
       <c r="B170" s="101"/>
       <c r="C170" s="101"/>
@@ -20124,7 +20124,7 @@
       <c r="T170" s="76"/>
       <c r="U170" s="76"/>
     </row>
-    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="100"/>
       <c r="B171" s="101"/>
       <c r="C171" s="101"/>
@@ -20163,23 +20163,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="129" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="129" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -20223,7 +20223,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -20322,7 +20322,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -20424,7 +20424,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -20476,7 +20476,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -20526,7 +20526,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
@@ -20559,7 +20559,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -20592,7 +20592,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -20625,7 +20625,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -20658,7 +20658,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -20683,7 +20683,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -20708,7 +20708,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -20733,7 +20733,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -20758,7 +20758,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -20781,7 +20781,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -20804,7 +20804,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
@@ -20827,7 +20827,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -20850,7 +20850,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -20873,7 +20873,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -20896,7 +20896,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -20919,7 +20919,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
@@ -20942,7 +20942,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -20965,7 +20965,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
@@ -20988,7 +20988,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -21011,7 +21011,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="101"/>
       <c r="C27" s="101"/>
@@ -21034,7 +21034,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="101"/>
       <c r="C28" s="101"/>
@@ -21057,7 +21057,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -21080,7 +21080,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="100"/>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -21103,7 +21103,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="101"/>
       <c r="C31" s="101"/>
@@ -21126,7 +21126,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="101"/>
       <c r="C32" s="101"/>
@@ -21149,7 +21149,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="101"/>
       <c r="C33" s="101"/>
@@ -21172,7 +21172,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -21182,7 +21182,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -21192,7 +21192,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -21202,7 +21202,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -21229,12 +21229,12 @@
       <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>100</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>37</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>38</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -22672,7 +22672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>47</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <v>55</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="53">
         <v>56</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>64</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>65</v>
       </c>
@@ -23361,7 +23361,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>66</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>67</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>68</v>
       </c>
@@ -23460,7 +23460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>69</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>70</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="44">
         <v>71</v>
       </c>
@@ -23559,7 +23559,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="44">
         <v>72</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="44">
         <v>73</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="44">
         <v>74</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>75</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>76</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
         <v>78</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -23852,7 +23852,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="50">
         <v>83</v>
       </c>
@@ -23951,7 +23951,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="50">
         <v>84</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="50">
         <v>85</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="50">
         <v>86</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="51">
         <v>87</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <v>88</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <v>89</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="51">
         <v>90</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>91</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>92</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>93</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>94</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -24413,7 +24413,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -24446,7 +24446,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B566EEEC-B159-431A-A5D6-6041D8C87ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{B566EEEC-B159-431A-A5D6-6041D8C87ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{89F0F115-8CBC-47DD-B658-B531D4DCCEE5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="208">
   <si>
     <t>study</t>
   </si>
@@ -649,12 +649,15 @@
   <si>
     <t>✓ (hard disk + laptop)</t>
   </si>
+  <si>
+    <t>104</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -968,6 +971,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1383,7 +1401,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1712,6 +1730,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2112,9 +2174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z567"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11704,7 +11766,7 @@
         <v>196</v>
       </c>
       <c r="I101" s="123"/>
-      <c r="J101" s="62" t="str">
+      <c r="J101" s="123" t="str">
         <f t="shared" si="211"/>
         <v>ProVisioNET_study_101_01_zed_</v>
       </c>
@@ -13190,7 +13252,7 @@
         <v>196</v>
       </c>
       <c r="I117" s="123"/>
-      <c r="J117" s="62" t="str">
+      <c r="J117" s="123" t="str">
         <f t="shared" si="211"/>
         <v>ProVisioNET_study_102_02_zed_</v>
       </c>
@@ -14583,7 +14645,7 @@
       </c>
       <c r="I132" s="62"/>
       <c r="J132" s="62" t="str">
-        <f t="shared" ref="J132:J133" si="450">CONCATENATE(C132,"_",D132,"_",E132,"_",F132,"_",H132,"_",I132)</f>
+        <f t="shared" ref="J132:J147" si="450">CONCATENATE(C132,"_",D132,"_",E132,"_",F132,"_",H132,"_",I132)</f>
         <v>ProVisioNET_study_103_03_fitbit_</v>
       </c>
       <c r="K132" s="140" t="s">
@@ -14672,7 +14734,7 @@
         <v>196</v>
       </c>
       <c r="I133" s="123"/>
-      <c r="J133" s="62" t="str">
+      <c r="J133" s="123" t="str">
         <f t="shared" si="450"/>
         <v>ProVisioNET_study_103_03_zed_</v>
       </c>
@@ -14731,6 +14793,1487 @@
       <c r="Z133" s="123" t="str">
         <f t="shared" si="455"/>
         <v>28/7/2021</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="147">
+        <v>3</v>
+      </c>
+      <c r="C134" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="F134" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="147">
+        <v>4</v>
+      </c>
+      <c r="H134" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I134" s="147"/>
+      <c r="J134" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_label_</v>
+      </c>
+      <c r="K134" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L134" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="M134" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="N134" s="147">
+        <v>5</v>
+      </c>
+      <c r="O134" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="P134" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R134" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S134" s="152">
+        <v>29</v>
+      </c>
+      <c r="T134" s="152">
+        <v>5</v>
+      </c>
+      <c r="U134" s="152">
+        <v>1998</v>
+      </c>
+      <c r="V134" s="152" t="str">
+        <f>S134&amp;"/"&amp;T134&amp;"/"&amp;U134</f>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W134" s="152">
+        <v>5</v>
+      </c>
+      <c r="X134" s="152">
+        <v>8</v>
+      </c>
+      <c r="Y134" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z134" s="152" t="str">
+        <f>W134&amp;"/"&amp;X134&amp;"/"&amp;Y134</f>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="150">
+        <f t="shared" ref="B135:D135" si="456">B134</f>
+        <v>3</v>
+      </c>
+      <c r="C135" s="150" t="str">
+        <f t="shared" si="456"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D135" s="150" t="str">
+        <f t="shared" si="456"/>
+        <v>study</v>
+      </c>
+      <c r="E135" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F135" s="150" t="str">
+        <f t="shared" ref="F135:F136" si="457">F134</f>
+        <v>04</v>
+      </c>
+      <c r="G135" s="150">
+        <v>4</v>
+      </c>
+      <c r="H135" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I135" s="150">
+        <v>1</v>
+      </c>
+      <c r="J135" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam1_1</v>
+      </c>
+      <c r="K135" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L135" s="150" t="str">
+        <f t="shared" ref="L135:M135" si="458">L134</f>
+        <v>f</v>
+      </c>
+      <c r="M135" s="150" t="str">
+        <f t="shared" si="458"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N135" s="150">
+        <v>5</v>
+      </c>
+      <c r="O135" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P135" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="157" t="str">
+        <f t="shared" ref="Q135:R135" si="459">Q134</f>
+        <v>lab</v>
+      </c>
+      <c r="R135" s="157" t="str">
+        <f t="shared" si="459"/>
+        <v>MK</v>
+      </c>
+      <c r="S135" s="157">
+        <v>29</v>
+      </c>
+      <c r="T135" s="157">
+        <v>5</v>
+      </c>
+      <c r="U135" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V135" s="157" t="str">
+        <f t="shared" ref="V135:Z149" si="460">V134</f>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W135" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X135" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y135" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z135" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="150">
+        <f t="shared" ref="B136:D136" si="461">B135</f>
+        <v>3</v>
+      </c>
+      <c r="C136" s="150" t="str">
+        <f t="shared" si="461"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D136" s="150" t="str">
+        <f t="shared" si="461"/>
+        <v>study</v>
+      </c>
+      <c r="E136" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F136" s="150" t="str">
+        <f t="shared" si="457"/>
+        <v>04</v>
+      </c>
+      <c r="G136" s="150">
+        <v>4</v>
+      </c>
+      <c r="H136" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I136" s="150">
+        <v>2</v>
+      </c>
+      <c r="J136" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam1_2</v>
+      </c>
+      <c r="K136" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L136" s="150" t="str">
+        <f t="shared" ref="L136:M136" si="462">L135</f>
+        <v>f</v>
+      </c>
+      <c r="M136" s="150" t="str">
+        <f t="shared" si="462"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N136" s="150">
+        <v>5</v>
+      </c>
+      <c r="O136" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P136" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="157" t="str">
+        <f t="shared" ref="Q136:R136" si="463">Q135</f>
+        <v>lab</v>
+      </c>
+      <c r="R136" s="157" t="str">
+        <f t="shared" si="463"/>
+        <v>MK</v>
+      </c>
+      <c r="S136" s="157">
+        <v>29</v>
+      </c>
+      <c r="T136" s="157">
+        <v>5</v>
+      </c>
+      <c r="U136" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V136" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W136" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X136" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y136" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z136" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="150">
+        <f t="shared" ref="B137:C137" si="464">B136</f>
+        <v>3</v>
+      </c>
+      <c r="C137" s="150" t="str">
+        <f t="shared" si="464"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D137" s="150" t="str">
+        <f t="shared" ref="D137:D143" si="465">D135</f>
+        <v>study</v>
+      </c>
+      <c r="E137" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F137" s="150" t="str">
+        <f t="shared" ref="F137" si="466">F135</f>
+        <v>04</v>
+      </c>
+      <c r="G137" s="150">
+        <v>4</v>
+      </c>
+      <c r="H137" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="150">
+        <v>1</v>
+      </c>
+      <c r="J137" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam2_1</v>
+      </c>
+      <c r="K137" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L137" s="150" t="str">
+        <f t="shared" ref="L137:M137" si="467">L136</f>
+        <v>f</v>
+      </c>
+      <c r="M137" s="150" t="str">
+        <f t="shared" si="467"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N137" s="150">
+        <v>5</v>
+      </c>
+      <c r="O137" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P137" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="157" t="str">
+        <f t="shared" ref="Q137:R137" si="468">Q136</f>
+        <v>lab</v>
+      </c>
+      <c r="R137" s="157" t="str">
+        <f t="shared" si="468"/>
+        <v>MK</v>
+      </c>
+      <c r="S137" s="157">
+        <v>29</v>
+      </c>
+      <c r="T137" s="157">
+        <v>5</v>
+      </c>
+      <c r="U137" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V137" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W137" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X137" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y137" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z137" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="150">
+        <f t="shared" ref="B138:C138" si="469">B137</f>
+        <v>3</v>
+      </c>
+      <c r="C138" s="150" t="str">
+        <f t="shared" si="469"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D138" s="150" t="str">
+        <f t="shared" si="465"/>
+        <v>study</v>
+      </c>
+      <c r="E138" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F138" s="150" t="str">
+        <f t="shared" ref="F138:G138" si="470">F136</f>
+        <v>04</v>
+      </c>
+      <c r="G138" s="150">
+        <f t="shared" si="470"/>
+        <v>4</v>
+      </c>
+      <c r="H138" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="150">
+        <v>2</v>
+      </c>
+      <c r="J138" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam2_2</v>
+      </c>
+      <c r="K138" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L138" s="150" t="str">
+        <f t="shared" ref="L138:M138" si="471">L137</f>
+        <v>f</v>
+      </c>
+      <c r="M138" s="150" t="str">
+        <f t="shared" si="471"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N138" s="150">
+        <v>5</v>
+      </c>
+      <c r="O138" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P138" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="157" t="str">
+        <f t="shared" ref="Q138:R138" si="472">Q137</f>
+        <v>lab</v>
+      </c>
+      <c r="R138" s="157" t="str">
+        <f t="shared" si="472"/>
+        <v>MK</v>
+      </c>
+      <c r="S138" s="157">
+        <v>29</v>
+      </c>
+      <c r="T138" s="157">
+        <v>5</v>
+      </c>
+      <c r="U138" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V138" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W138" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X138" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y138" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z138" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="150">
+        <f t="shared" ref="B139:C139" si="473">B138</f>
+        <v>3</v>
+      </c>
+      <c r="C139" s="150" t="str">
+        <f t="shared" si="473"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D139" s="150" t="str">
+        <f t="shared" si="465"/>
+        <v>study</v>
+      </c>
+      <c r="E139" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F139" s="150" t="str">
+        <f t="shared" ref="F139:G139" si="474">F137</f>
+        <v>04</v>
+      </c>
+      <c r="G139" s="150">
+        <f t="shared" si="474"/>
+        <v>4</v>
+      </c>
+      <c r="H139" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I139" s="150">
+        <v>1</v>
+      </c>
+      <c r="J139" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam3_1</v>
+      </c>
+      <c r="K139" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L139" s="150" t="str">
+        <f t="shared" ref="L139:M139" si="475">L138</f>
+        <v>f</v>
+      </c>
+      <c r="M139" s="150" t="str">
+        <f t="shared" si="475"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N139" s="150">
+        <v>5</v>
+      </c>
+      <c r="O139" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P139" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="157" t="str">
+        <f t="shared" ref="Q139:R139" si="476">Q138</f>
+        <v>lab</v>
+      </c>
+      <c r="R139" s="157" t="str">
+        <f t="shared" si="476"/>
+        <v>MK</v>
+      </c>
+      <c r="S139" s="157">
+        <v>29</v>
+      </c>
+      <c r="T139" s="157">
+        <v>5</v>
+      </c>
+      <c r="U139" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V139" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W139" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X139" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y139" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z139" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B140" s="150">
+        <f t="shared" ref="B140:C140" si="477">B139</f>
+        <v>3</v>
+      </c>
+      <c r="C140" s="150" t="str">
+        <f t="shared" si="477"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D140" s="150" t="str">
+        <f t="shared" si="465"/>
+        <v>study</v>
+      </c>
+      <c r="E140" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F140" s="150" t="str">
+        <f t="shared" ref="F140:G140" si="478">F138</f>
+        <v>04</v>
+      </c>
+      <c r="G140" s="150">
+        <v>4</v>
+      </c>
+      <c r="H140" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I140" s="150">
+        <v>2</v>
+      </c>
+      <c r="J140" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam3_2</v>
+      </c>
+      <c r="K140" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L140" s="150" t="str">
+        <f t="shared" ref="L140:M140" si="479">L139</f>
+        <v>f</v>
+      </c>
+      <c r="M140" s="150" t="str">
+        <f t="shared" si="479"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N140" s="150">
+        <v>5</v>
+      </c>
+      <c r="O140" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P140" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="157" t="str">
+        <f t="shared" ref="Q140:R140" si="480">Q139</f>
+        <v>lab</v>
+      </c>
+      <c r="R140" s="157" t="str">
+        <f t="shared" si="480"/>
+        <v>MK</v>
+      </c>
+      <c r="S140" s="157">
+        <v>29</v>
+      </c>
+      <c r="T140" s="157">
+        <v>5</v>
+      </c>
+      <c r="U140" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V140" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W140" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X140" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y140" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z140" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" s="150">
+        <f t="shared" ref="B141:C141" si="481">B140</f>
+        <v>3</v>
+      </c>
+      <c r="C141" s="150" t="str">
+        <f t="shared" si="481"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D141" s="150" t="str">
+        <f t="shared" si="465"/>
+        <v>study</v>
+      </c>
+      <c r="E141" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F141" s="150" t="str">
+        <f t="shared" ref="F141:G141" si="482">F139</f>
+        <v>04</v>
+      </c>
+      <c r="G141" s="150">
+        <f t="shared" si="482"/>
+        <v>4</v>
+      </c>
+      <c r="H141" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" s="150">
+        <v>1</v>
+      </c>
+      <c r="J141" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam4_1</v>
+      </c>
+      <c r="K141" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L141" s="150" t="str">
+        <f t="shared" ref="L141:M141" si="483">L140</f>
+        <v>f</v>
+      </c>
+      <c r="M141" s="150" t="str">
+        <f t="shared" si="483"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N141" s="150">
+        <v>5</v>
+      </c>
+      <c r="O141" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P141" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="157" t="str">
+        <f t="shared" ref="Q141:R141" si="484">Q140</f>
+        <v>lab</v>
+      </c>
+      <c r="R141" s="157" t="str">
+        <f t="shared" si="484"/>
+        <v>MK</v>
+      </c>
+      <c r="S141" s="157">
+        <v>29</v>
+      </c>
+      <c r="T141" s="157">
+        <v>5</v>
+      </c>
+      <c r="U141" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V141" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W141" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X141" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y141" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z141" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" s="150">
+        <f t="shared" ref="B142:C142" si="485">B141</f>
+        <v>3</v>
+      </c>
+      <c r="C142" s="150" t="str">
+        <f t="shared" si="485"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D142" s="150" t="str">
+        <f t="shared" si="465"/>
+        <v>study</v>
+      </c>
+      <c r="E142" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F142" s="150" t="str">
+        <f t="shared" ref="F142:G143" si="486">F140</f>
+        <v>04</v>
+      </c>
+      <c r="G142" s="150">
+        <f t="shared" si="486"/>
+        <v>4</v>
+      </c>
+      <c r="H142" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" s="150">
+        <v>2</v>
+      </c>
+      <c r="J142" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_cam4_2</v>
+      </c>
+      <c r="K142" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L142" s="150" t="str">
+        <f t="shared" ref="L142:M142" si="487">L141</f>
+        <v>f</v>
+      </c>
+      <c r="M142" s="150" t="str">
+        <f t="shared" si="487"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N142" s="150">
+        <v>5</v>
+      </c>
+      <c r="O142" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P142" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="157" t="str">
+        <f t="shared" ref="Q142:R142" si="488">Q141</f>
+        <v>lab</v>
+      </c>
+      <c r="R142" s="157" t="str">
+        <f t="shared" si="488"/>
+        <v>MK</v>
+      </c>
+      <c r="S142" s="157">
+        <v>29</v>
+      </c>
+      <c r="T142" s="157">
+        <v>5</v>
+      </c>
+      <c r="U142" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V142" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W142" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X142" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y142" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z142" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B143" s="150">
+        <f t="shared" ref="B143:C143" si="489">B142</f>
+        <v>3</v>
+      </c>
+      <c r="C143" s="150" t="str">
+        <f t="shared" si="489"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D143" s="150" t="str">
+        <f t="shared" si="465"/>
+        <v>study</v>
+      </c>
+      <c r="E143" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F143" s="150" t="str">
+        <f t="shared" si="486"/>
+        <v>04</v>
+      </c>
+      <c r="G143" s="150">
+        <f>G141</f>
+        <v>4</v>
+      </c>
+      <c r="H143" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="I143" s="150"/>
+      <c r="J143" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_glasses_</v>
+      </c>
+      <c r="K143" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L143" s="150" t="str">
+        <f t="shared" ref="L143:M143" si="490">L142</f>
+        <v>f</v>
+      </c>
+      <c r="M143" s="150" t="str">
+        <f t="shared" si="490"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N143" s="150">
+        <v>5</v>
+      </c>
+      <c r="O143" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P143" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="157" t="str">
+        <f t="shared" ref="Q143:R143" si="491">Q142</f>
+        <v>lab</v>
+      </c>
+      <c r="R143" s="157" t="str">
+        <f t="shared" si="491"/>
+        <v>MK</v>
+      </c>
+      <c r="S143" s="157">
+        <v>29</v>
+      </c>
+      <c r="T143" s="157">
+        <v>5</v>
+      </c>
+      <c r="U143" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V143" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W143" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X143" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y143" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z143" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="150">
+        <f t="shared" ref="B144:D144" si="492">B143</f>
+        <v>3</v>
+      </c>
+      <c r="C144" s="150" t="str">
+        <f t="shared" si="492"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D144" s="150" t="str">
+        <f t="shared" si="492"/>
+        <v>study</v>
+      </c>
+      <c r="E144" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F144" s="150" t="str">
+        <f t="shared" ref="F144:G144" si="493">F143</f>
+        <v>04</v>
+      </c>
+      <c r="G144" s="150">
+        <f t="shared" si="493"/>
+        <v>4</v>
+      </c>
+      <c r="H144" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="I144" s="150"/>
+      <c r="J144" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_ambient_</v>
+      </c>
+      <c r="K144" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L144" s="150" t="str">
+        <f t="shared" ref="L144:M144" si="494">L143</f>
+        <v>f</v>
+      </c>
+      <c r="M144" s="150" t="str">
+        <f t="shared" si="494"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N144" s="150">
+        <v>5</v>
+      </c>
+      <c r="O144" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P144" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="157" t="str">
+        <f t="shared" ref="Q144:R144" si="495">Q143</f>
+        <v>lab</v>
+      </c>
+      <c r="R144" s="157" t="str">
+        <f t="shared" si="495"/>
+        <v>MK</v>
+      </c>
+      <c r="S144" s="157">
+        <v>29</v>
+      </c>
+      <c r="T144" s="157">
+        <v>5</v>
+      </c>
+      <c r="U144" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V144" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W144" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X144" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y144" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z144" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="150">
+        <f t="shared" ref="B145:C145" si="496">B143</f>
+        <v>3</v>
+      </c>
+      <c r="C145" s="150" t="str">
+        <f t="shared" si="496"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D145" s="150" t="str">
+        <f t="shared" ref="D145:F145" si="497">D144</f>
+        <v>study</v>
+      </c>
+      <c r="E145" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F145" s="150" t="str">
+        <f t="shared" ref="F145:G145" si="498">F144</f>
+        <v>04</v>
+      </c>
+      <c r="G145" s="150">
+        <f t="shared" si="498"/>
+        <v>4</v>
+      </c>
+      <c r="H145" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="I145" s="150"/>
+      <c r="J145" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_ETrawdata_</v>
+      </c>
+      <c r="K145" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L145" s="150" t="str">
+        <f t="shared" ref="L145:M145" si="499">L144</f>
+        <v>f</v>
+      </c>
+      <c r="M145" s="150" t="str">
+        <f t="shared" si="499"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N145" s="150">
+        <v>5</v>
+      </c>
+      <c r="O145" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P145" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="157" t="str">
+        <f t="shared" ref="Q145:R145" si="500">Q144</f>
+        <v>lab</v>
+      </c>
+      <c r="R145" s="157" t="str">
+        <f t="shared" si="500"/>
+        <v>MK</v>
+      </c>
+      <c r="S145" s="157">
+        <v>29</v>
+      </c>
+      <c r="T145" s="157">
+        <v>5</v>
+      </c>
+      <c r="U145" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V145" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W145" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X145" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y145" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z145" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146" s="150">
+        <f t="shared" ref="B146:D146" si="501">B145</f>
+        <v>3</v>
+      </c>
+      <c r="C146" s="150" t="str">
+        <f t="shared" si="501"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D146" s="150" t="str">
+        <f t="shared" si="501"/>
+        <v>study</v>
+      </c>
+      <c r="E146" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F146" s="150" t="str">
+        <f t="shared" ref="F146:G146" si="502">F145</f>
+        <v>04</v>
+      </c>
+      <c r="G146" s="150">
+        <v>4</v>
+      </c>
+      <c r="H146" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="I146" s="150"/>
+      <c r="J146" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_sri_obs_</v>
+      </c>
+      <c r="K146" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L146" s="150" t="str">
+        <f t="shared" ref="L146:M146" si="503">L145</f>
+        <v>f</v>
+      </c>
+      <c r="M146" s="150" t="str">
+        <f t="shared" si="503"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N146" s="150">
+        <v>5</v>
+      </c>
+      <c r="O146" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P146" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="157" t="str">
+        <f t="shared" ref="Q146:R146" si="504">Q145</f>
+        <v>lab</v>
+      </c>
+      <c r="R146" s="157" t="str">
+        <f t="shared" si="504"/>
+        <v>MK</v>
+      </c>
+      <c r="S146" s="157">
+        <v>29</v>
+      </c>
+      <c r="T146" s="157">
+        <v>5</v>
+      </c>
+      <c r="U146" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V146" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W146" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X146" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y146" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z146" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B147" s="150">
+        <f t="shared" ref="B147:D147" si="505">B146</f>
+        <v>3</v>
+      </c>
+      <c r="C147" s="150" t="str">
+        <f t="shared" si="505"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D147" s="150" t="str">
+        <f t="shared" si="505"/>
+        <v>study</v>
+      </c>
+      <c r="E147" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F147" s="150" t="str">
+        <f>F146</f>
+        <v>04</v>
+      </c>
+      <c r="G147" s="150">
+        <v>4</v>
+      </c>
+      <c r="H147" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="I147" s="150"/>
+      <c r="J147" s="150" t="str">
+        <f t="shared" si="450"/>
+        <v>ProVisioNET_study_104_04_sri_ambient_</v>
+      </c>
+      <c r="K147" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="L147" s="150" t="str">
+        <f t="shared" ref="L147:M147" si="506">L146</f>
+        <v>f</v>
+      </c>
+      <c r="M147" s="150" t="str">
+        <f t="shared" si="506"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N147" s="150">
+        <v>5</v>
+      </c>
+      <c r="O147" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P147" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="157" t="str">
+        <f t="shared" ref="Q147:R147" si="507">Q146</f>
+        <v>lab</v>
+      </c>
+      <c r="R147" s="157" t="str">
+        <f t="shared" si="507"/>
+        <v>MK</v>
+      </c>
+      <c r="S147" s="157">
+        <v>29</v>
+      </c>
+      <c r="T147" s="157">
+        <v>5</v>
+      </c>
+      <c r="U147" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V147" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W147" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X147" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y147" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z147" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B148" s="150">
+        <f t="shared" ref="B148:D148" si="508">B147</f>
+        <v>3</v>
+      </c>
+      <c r="C148" s="150" t="str">
+        <f t="shared" si="508"/>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D148" s="150" t="str">
+        <f t="shared" si="508"/>
+        <v>study</v>
+      </c>
+      <c r="E148" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F148" s="150" t="str">
+        <f>F147</f>
+        <v>04</v>
+      </c>
+      <c r="G148" s="150">
+        <v>4</v>
+      </c>
+      <c r="H148" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="I148" s="150"/>
+      <c r="J148" s="150" t="str">
+        <f t="shared" ref="J148:J149" si="509">CONCATENATE(C148,"_",D148,"_",E148,"_",F148,"_",H148,"_",I148)</f>
+        <v>ProVisioNET_study_104_04_fitbit_</v>
+      </c>
+      <c r="K148" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="L148" s="150" t="str">
+        <f t="shared" ref="L148:M148" si="510">L147</f>
+        <v>f</v>
+      </c>
+      <c r="M148" s="150" t="str">
+        <f t="shared" si="510"/>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N148" s="150">
+        <v>5</v>
+      </c>
+      <c r="O148" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P148" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R148" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S148" s="157">
+        <v>29</v>
+      </c>
+      <c r="T148" s="157">
+        <v>5</v>
+      </c>
+      <c r="U148" s="157">
+        <v>1998</v>
+      </c>
+      <c r="V148" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W148" s="157">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="X148" s="157">
+        <f t="shared" si="460"/>
+        <v>8</v>
+      </c>
+      <c r="Y148" s="157">
+        <f t="shared" si="460"/>
+        <v>2021</v>
+      </c>
+      <c r="Z148" s="157" t="str">
+        <f t="shared" si="460"/>
+        <v>5/8/2021</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" s="160" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="B149" s="161">
+        <f>B147</f>
+        <v>3</v>
+      </c>
+      <c r="C149" s="161" t="str">
+        <f>C147</f>
+        <v>ProVisioNET</v>
+      </c>
+      <c r="D149" s="161" t="str">
+        <f>D147</f>
+        <v>study</v>
+      </c>
+      <c r="E149" s="162" t="s">
+        <v>207</v>
+      </c>
+      <c r="F149" s="161" t="str">
+        <f>F147</f>
+        <v>04</v>
+      </c>
+      <c r="G149" s="161">
+        <v>4</v>
+      </c>
+      <c r="H149" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="I149" s="161"/>
+      <c r="J149" s="161" t="str">
+        <f t="shared" si="509"/>
+        <v>ProVisioNET_study_104_04_zed_</v>
+      </c>
+      <c r="K149" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="L149" s="161" t="str">
+        <f>L147</f>
+        <v>f</v>
+      </c>
+      <c r="M149" s="161" t="s">
+        <v>184</v>
+      </c>
+      <c r="N149" s="161">
+        <v>5</v>
+      </c>
+      <c r="O149" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="P149" s="161">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="161" t="str">
+        <f>Q147</f>
+        <v>lab</v>
+      </c>
+      <c r="R149" s="161" t="str">
+        <f>R147</f>
+        <v>MK</v>
+      </c>
+      <c r="S149" s="161">
+        <v>29</v>
+      </c>
+      <c r="T149" s="161">
+        <v>5</v>
+      </c>
+      <c r="U149" s="161">
+        <v>1998</v>
+      </c>
+      <c r="V149" s="161" t="str">
+        <f t="shared" si="460"/>
+        <v>29/5/1998</v>
+      </c>
+      <c r="W149" s="161">
+        <f t="shared" ref="W149:Z149" si="511">W147</f>
+        <v>5</v>
+      </c>
+      <c r="X149" s="161">
+        <f t="shared" si="511"/>
+        <v>8</v>
+      </c>
+      <c r="Y149" s="161">
+        <f t="shared" si="511"/>
+        <v>2021</v>
+      </c>
+      <c r="Z149" s="161" t="str">
+        <f t="shared" si="511"/>
+        <v>5/8/2021</v>
       </c>
     </row>
     <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{B566EEEC-B159-431A-A5D6-6041D8C87ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{89F0F115-8CBC-47DD-B658-B531D4DCCEE5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{B566EEEC-B159-431A-A5D6-6041D8C87ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02EDD324-65DF-4ADA-81DC-9CBD0650BD34}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2174,9 +2174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M152" sqref="M152"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C12,"_",D12,"_",E12,"_",F12,"_",H12,"_",I12)</f>
         <v>ProVisioNET_pilot_01_01_ambient_</v>
       </c>
       <c r="K12" s="136" t="s">
@@ -14800,7 +14800,7 @@
         <v>116</v>
       </c>
       <c r="B134" s="147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" s="147" t="s">
         <v>176</v>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="B135" s="150">
         <f t="shared" ref="B135:D135" si="456">B134</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" s="150" t="str">
         <f t="shared" si="456"/>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="B136" s="150">
         <f t="shared" ref="B136:D136" si="461">B135</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" s="150" t="str">
         <f t="shared" si="461"/>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B137" s="150">
         <f t="shared" ref="B137:C137" si="464">B136</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137" s="150" t="str">
         <f t="shared" si="464"/>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="B138" s="150">
         <f t="shared" ref="B138:C138" si="469">B137</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" s="150" t="str">
         <f t="shared" si="469"/>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="B139" s="150">
         <f t="shared" ref="B139:C139" si="473">B138</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139" s="150" t="str">
         <f t="shared" si="473"/>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="B140" s="150">
         <f t="shared" ref="B140:C140" si="477">B139</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C140" s="150" t="str">
         <f t="shared" si="477"/>
@@ -15368,7 +15368,7 @@
         <v>207</v>
       </c>
       <c r="F140" s="150" t="str">
-        <f t="shared" ref="F140:G140" si="478">F138</f>
+        <f t="shared" ref="F140" si="478">F138</f>
         <v>04</v>
       </c>
       <c r="G140" s="150">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B141" s="150">
         <f t="shared" ref="B141:C141" si="481">B140</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141" s="150" t="str">
         <f t="shared" si="481"/>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="B142" s="150">
         <f t="shared" ref="B142:C142" si="485">B141</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" s="150" t="str">
         <f t="shared" si="485"/>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B143" s="150">
         <f t="shared" ref="B143:C143" si="489">B142</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" s="150" t="str">
         <f t="shared" si="489"/>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="B144" s="150">
         <f t="shared" ref="B144:D144" si="492">B143</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" s="150" t="str">
         <f t="shared" si="492"/>
@@ -15824,14 +15824,14 @@
       </c>
       <c r="B145" s="150">
         <f t="shared" ref="B145:C145" si="496">B143</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C145" s="150" t="str">
         <f t="shared" si="496"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D145" s="150" t="str">
-        <f t="shared" ref="D145:F145" si="497">D144</f>
+        <f t="shared" ref="D145" si="497">D144</f>
         <v>study</v>
       </c>
       <c r="E145" s="155" t="s">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="B146" s="150">
         <f t="shared" ref="B146:D146" si="501">B145</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146" s="150" t="str">
         <f t="shared" si="501"/>
@@ -15931,7 +15931,7 @@
         <v>207</v>
       </c>
       <c r="F146" s="150" t="str">
-        <f t="shared" ref="F146:G146" si="502">F145</f>
+        <f t="shared" ref="F146" si="502">F145</f>
         <v>04</v>
       </c>
       <c r="G146" s="150">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="B147" s="150">
         <f t="shared" ref="B147:D147" si="505">B146</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="150" t="str">
         <f t="shared" si="505"/>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="B148" s="150">
         <f t="shared" ref="B148:D148" si="508">B147</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148" s="150" t="str">
         <f t="shared" si="508"/>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="B149" s="161">
         <f>B147</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149" s="161" t="str">
         <f>C147</f>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{B566EEEC-B159-431A-A5D6-6041D8C87ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02EDD324-65DF-4ADA-81DC-9CBD0650BD34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD1AA9-3BAC-482E-AE6F-B64F71C65CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectlist&amp;labels" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'subjectlist&amp;labels'!$A$1:$Z$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2175,41 +2175,41 @@
   <dimension ref="A1:Z567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="50" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>116</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>117</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>117</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>117</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>117</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>117</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>117</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>117</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>117</v>
       </c>
@@ -3264,8 +3264,8 @@
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62" t="str">
-        <f>CONCATENATE(C12,"_",D12,"_",E12,"_",F12,"_",H12,"_",I12)</f>
-        <v>ProVisioNET_pilot_01_01_ambient_</v>
+        <f>CONCATENATE(C12,"_",D12,"_",E12,"_",F12,"_",H12)</f>
+        <v>ProVisioNET_pilot_01_01_ambient</v>
       </c>
       <c r="K12" s="136" t="s">
         <v>189</v>
@@ -3326,7 +3326,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>117</v>
       </c>
@@ -3358,8 +3358,8 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_ETrawdata_</v>
+        <f>CONCATENATE(C13,"_",D13,"_",E13,"_",F13,"_",H13)</f>
+        <v>ProVisioNET_pilot_01_01_ETrawdata</v>
       </c>
       <c r="K13" s="136" t="s">
         <v>189</v>
@@ -3420,7 +3420,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
@@ -3452,8 +3452,8 @@
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_sri_cam4_</v>
+        <f>CONCATENATE(C14,"_",D14,"_",E14,"_",F14,"_",H14)</f>
+        <v>ProVisioNET_pilot_01_01_sri_cam4</v>
       </c>
       <c r="K14" s="62" t="s">
         <v>188</v>
@@ -3508,7 +3508,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>117</v>
       </c>
@@ -3540,8 +3540,8 @@
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_01_01_sri_ambient_</v>
+        <f>CONCATENATE(C15,"_",D15,"_",E15,"_",F15,"_",H15)</f>
+        <v>ProVisioNET_pilot_01_01_sri_ambient</v>
       </c>
       <c r="K15" s="136" t="s">
         <v>189</v>
@@ -3601,7 +3601,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>116</v>
       </c>
@@ -3628,8 +3628,8 @@
       </c>
       <c r="I16" s="63"/>
       <c r="J16" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_label_</v>
+        <f>CONCATENATE(C16,"_",D16,"_",E16,"_",F16,"_",H16)</f>
+        <v>ProVisioNET_pilot_02_02_label</v>
       </c>
       <c r="K16" s="63" t="s">
         <v>115</v>
@@ -3682,7 +3682,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>117</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>117</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>117</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>117</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>117</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>117</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>117</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -4482,8 +4482,8 @@
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_glasses_</v>
+        <f>CONCATENATE(C25,"_",D25,"_",E25,"_",F25,"_",H25)</f>
+        <v>ProVisioNET_pilot_02_02_glasses</v>
       </c>
       <c r="K25" s="136" t="s">
         <v>189</v>
@@ -4547,7 +4547,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>117</v>
       </c>
@@ -4579,8 +4579,8 @@
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_ambient_</v>
+        <f>CONCATENATE(C26,"_",D26,"_",E26,"_",F26,"_",H26)</f>
+        <v>ProVisioNET_pilot_02_02_ambient</v>
       </c>
       <c r="K26" s="136" t="s">
         <v>189</v>
@@ -4644,7 +4644,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>117</v>
       </c>
@@ -4676,8 +4676,8 @@
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_02_ETrawdata_</v>
+        <f>CONCATENATE(C27,"_",D27,"_",E27,"_",F27,"_",H27)</f>
+        <v>ProVisioNET_pilot_02_02_ETrawdata</v>
       </c>
       <c r="K27" s="136" t="s">
         <v>189</v>
@@ -4741,7 +4741,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>117</v>
       </c>
@@ -4770,8 +4770,8 @@
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02 _2_sri_obs_</v>
+        <f>CONCATENATE(C28,"_",D28,"_",E28,"_",F28,"_",H28)</f>
+        <v>ProVisioNET_pilot_02 _2_sri_obs</v>
       </c>
       <c r="K28" s="136" t="s">
         <v>189</v>
@@ -4834,7 +4834,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>117</v>
       </c>
@@ -4864,8 +4864,8 @@
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_02_2_sri_ambient_</v>
+        <f>CONCATENATE(C29,"_",D29,"_",E29,"_",F29,"_",H29)</f>
+        <v>ProVisioNET_pilot_02_2_sri_ambient</v>
       </c>
       <c r="K29" s="136" t="s">
         <v>189</v>
@@ -4928,7 +4928,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>116</v>
       </c>
@@ -4955,8 +4955,8 @@
       </c>
       <c r="I30" s="63"/>
       <c r="J30" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_label_</v>
+        <f>CONCATENATE(C30,"_",D30,"_",E30,"_",F30,"_",H30)</f>
+        <v>ProVisioNET_pilot_03_03_label</v>
       </c>
       <c r="K30" s="63" t="s">
         <v>115</v>
@@ -5009,7 +5009,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>117</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>117</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>117</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>117</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>117</v>
       </c>
@@ -5809,8 +5809,8 @@
       </c>
       <c r="I39" s="62"/>
       <c r="J39" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_glasses_</v>
+        <f>CONCATENATE(C39,"_",D39,"_",E39,"_",F39,"_",H39)</f>
+        <v>ProVisioNET_pilot_03_03_glasses</v>
       </c>
       <c r="K39" s="62" t="s">
         <v>188</v>
@@ -5873,7 +5873,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>117</v>
       </c>
@@ -5905,8 +5905,8 @@
       </c>
       <c r="I40" s="62"/>
       <c r="J40" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_ambient_</v>
+        <f>CONCATENATE(C40,"_",D40,"_",E40,"_",F40,"_",H40)</f>
+        <v>ProVisioNET_pilot_03_03_ambient</v>
       </c>
       <c r="K40" s="136" t="s">
         <v>191</v>
@@ -5969,7 +5969,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>117</v>
       </c>
@@ -6001,8 +6001,8 @@
       </c>
       <c r="I41" s="62"/>
       <c r="J41" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_ETrawdata_</v>
+        <f>CONCATENATE(C41,"_",D41,"_",E41,"_",F41,"_",H41)</f>
+        <v>ProVisioNET_pilot_03_03_ETrawdata</v>
       </c>
       <c r="K41" s="136" t="s">
         <v>189</v>
@@ -6065,7 +6065,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>117</v>
       </c>
@@ -6095,8 +6095,8 @@
       </c>
       <c r="I42" s="62"/>
       <c r="J42" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_sri_obs_</v>
+        <f>CONCATENATE(C42,"_",D42,"_",E42,"_",F42,"_",H42)</f>
+        <v>ProVisioNET_pilot_03_03_sri_obs</v>
       </c>
       <c r="K42" s="136" t="s">
         <v>189</v>
@@ -6158,7 +6158,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>117</v>
       </c>
@@ -6188,8 +6188,8 @@
       </c>
       <c r="I43" s="62"/>
       <c r="J43" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_03_03_sri_ambient_</v>
+        <f>CONCATENATE(C43,"_",D43,"_",E43,"_",F43,"_",H43)</f>
+        <v>ProVisioNET_pilot_03_03_sri_ambient</v>
       </c>
       <c r="K43" s="136" t="s">
         <v>189</v>
@@ -6251,7 +6251,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>116</v>
       </c>
@@ -6278,8 +6278,8 @@
       </c>
       <c r="I44" s="63"/>
       <c r="J44" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_label_</v>
+        <f>CONCATENATE(C44,"_",D44,"_",E44,"_",F44,"_",H44)</f>
+        <v>ProVisioNET_pilot_04_04_label</v>
       </c>
       <c r="K44" s="63" t="s">
         <v>115</v>
@@ -6332,7 +6332,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>117</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>117</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>117</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>117</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>117</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>117</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>117</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>117</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>117</v>
       </c>
@@ -7146,8 +7146,8 @@
       </c>
       <c r="I53" s="62"/>
       <c r="J53" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_glasses_</v>
+        <f>CONCATENATE(C53,"_",D53,"_",E53,"_",F53,"_",H53)</f>
+        <v>ProVisioNET_pilot_04_04_glasses</v>
       </c>
       <c r="K53" s="136" t="s">
         <v>189</v>
@@ -7210,7 +7210,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>117</v>
       </c>
@@ -7242,8 +7242,8 @@
       </c>
       <c r="I54" s="62"/>
       <c r="J54" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_ambient_</v>
+        <f>CONCATENATE(C54,"_",D54,"_",E54,"_",F54,"_",H54)</f>
+        <v>ProVisioNET_pilot_04_04_ambient</v>
       </c>
       <c r="K54" s="136" t="s">
         <v>191</v>
@@ -7305,7 +7305,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>117</v>
       </c>
@@ -7337,8 +7337,8 @@
       </c>
       <c r="I55" s="62"/>
       <c r="J55" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_ETrawdata_</v>
+        <f>CONCATENATE(C55,"_",D55,"_",E55,"_",F55,"_",H55)</f>
+        <v>ProVisioNET_pilot_04_04_ETrawdata</v>
       </c>
       <c r="K55" s="136" t="s">
         <v>189</v>
@@ -7400,7 +7400,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>117</v>
       </c>
@@ -7431,8 +7431,8 @@
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_sri_obs_</v>
+        <f>CONCATENATE(C56,"_",D56,"_",E56,"_",F56,"_",H56)</f>
+        <v>ProVisioNET_pilot_04_04_sri_obs</v>
       </c>
       <c r="K56" s="136" t="s">
         <v>189</v>
@@ -7496,7 +7496,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>117</v>
       </c>
@@ -7527,8 +7527,8 @@
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_04_04_sri_ambient_</v>
+        <f>CONCATENATE(C57,"_",D57,"_",E57,"_",F57,"_",H57)</f>
+        <v>ProVisioNET_pilot_04_04_sri_ambient</v>
       </c>
       <c r="K57" s="136" t="s">
         <v>189</v>
@@ -7592,7 +7592,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>116</v>
       </c>
@@ -7619,8 +7619,8 @@
       </c>
       <c r="I58" s="63"/>
       <c r="J58" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_05_05_label_</v>
+        <f>CONCATENATE(C58,"_",D58,"_",E58,"_",F58,"_",H58)</f>
+        <v>ProVisioNET_pilot_05_05_label</v>
       </c>
       <c r="K58" s="63" t="s">
         <v>115</v>
@@ -7673,7 +7673,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>117</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>117</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>117</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>117</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>117</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>117</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>117</v>
       </c>
@@ -8494,8 +8494,8 @@
       </c>
       <c r="I67" s="62"/>
       <c r="J67" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>ProVisioNET_pilot_05_05_glasses_</v>
+        <f>CONCATENATE(C67,"_",D67,"_",E67,"_",F67,"_",H67)</f>
+        <v>ProVisioNET_pilot_05_05_glasses</v>
       </c>
       <c r="K67" s="136" t="s">
         <v>189</v>
@@ -8559,7 +8559,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>117</v>
       </c>
@@ -8591,8 +8591,8 @@
       </c>
       <c r="I68" s="62"/>
       <c r="J68" s="62" t="str">
-        <f t="shared" ref="J68:J131" si="211">CONCATENATE(C68,"_",D68,"_",E68,"_",F68,"_",H68,"_",I68)</f>
-        <v>ProVisioNET_pilot_05_05_ambient_</v>
+        <f>CONCATENATE(C68,"_",D68,"_",E68,"_",F68,"_",H68)</f>
+        <v>ProVisioNET_pilot_05_05_ambient</v>
       </c>
       <c r="K68" s="136" t="s">
         <v>189</v>
@@ -8615,56 +8615,56 @@
         <v>0</v>
       </c>
       <c r="Q68" s="58" t="str">
-        <f t="shared" ref="Q68:Z68" si="212">Q67</f>
+        <f t="shared" ref="Q68:Z68" si="211">Q67</f>
         <v>lab</v>
       </c>
       <c r="R68" s="58" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>MK</v>
       </c>
       <c r="S68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>19</v>
       </c>
       <c r="T68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>4</v>
       </c>
       <c r="U68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>1980</v>
       </c>
       <c r="V68" s="58" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>19/4/1980</v>
       </c>
       <c r="W68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>30</v>
       </c>
       <c r="X68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>6</v>
       </c>
       <c r="Y68" s="58">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>2021</v>
       </c>
       <c r="Z68" s="58" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B69" s="62">
-        <f t="shared" ref="B69:C69" si="213">B67</f>
+        <f t="shared" ref="B69:C69" si="212">B67</f>
         <v>5</v>
       </c>
       <c r="C69" s="62" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D69" s="62" t="str">
@@ -8675,11 +8675,11 @@
         <v>127</v>
       </c>
       <c r="F69" s="62" t="str">
-        <f t="shared" ref="F69:G69" si="214">F68</f>
+        <f t="shared" ref="F69:G69" si="213">F68</f>
         <v>05</v>
       </c>
       <c r="G69" s="62">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>5</v>
       </c>
       <c r="H69" s="62" t="s">
@@ -8687,18 +8687,18 @@
       </c>
       <c r="I69" s="62"/>
       <c r="J69" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_05_05_ETrawdata_</v>
+        <f>CONCATENATE(C69,"_",D69,"_",E69,"_",F69,"_",H69)</f>
+        <v>ProVisioNET_pilot_05_05_ETrawdata</v>
       </c>
       <c r="K69" s="136" t="s">
         <v>189</v>
       </c>
       <c r="L69" s="62" t="str">
-        <f t="shared" ref="L69:M69" si="215">L68</f>
+        <f t="shared" ref="L69:M69" si="214">L68</f>
         <v>f</v>
       </c>
       <c r="M69" s="62" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>Oberschule</v>
       </c>
       <c r="N69" s="62">
@@ -8708,71 +8708,71 @@
         <v>185</v>
       </c>
       <c r="P69" s="62">
-        <f t="shared" ref="P69" si="216">P67</f>
+        <f t="shared" ref="P69" si="215">P67</f>
         <v>0</v>
       </c>
       <c r="Q69" s="58" t="str">
-        <f t="shared" ref="Q69:Z69" si="217">Q68</f>
+        <f t="shared" ref="Q69:Z69" si="216">Q68</f>
         <v>lab</v>
       </c>
       <c r="R69" s="58" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>MK</v>
       </c>
       <c r="S69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>19</v>
       </c>
       <c r="T69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>4</v>
       </c>
       <c r="U69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>1980</v>
       </c>
       <c r="V69" s="58" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>19/4/1980</v>
       </c>
       <c r="W69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>30</v>
       </c>
       <c r="X69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>6</v>
       </c>
       <c r="Y69" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>2021</v>
       </c>
       <c r="Z69" s="58" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B70" s="62">
-        <f t="shared" ref="B70:D71" si="218">B69</f>
+        <f t="shared" ref="B70:D71" si="217">B69</f>
         <v>5</v>
       </c>
       <c r="C70" s="62" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D70" s="62" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>pilot</v>
       </c>
       <c r="E70" s="125" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="62" t="str">
-        <f t="shared" ref="F70" si="219">F69</f>
+        <f t="shared" ref="F70" si="218">F69</f>
         <v>05</v>
       </c>
       <c r="G70" s="62">
@@ -8783,18 +8783,18 @@
       </c>
       <c r="I70" s="62"/>
       <c r="J70" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_05_05_sri_obs_</v>
+        <f>CONCATENATE(C70,"_",D70,"_",E70,"_",F70,"_",H70)</f>
+        <v>ProVisioNET_pilot_05_05_sri_obs</v>
       </c>
       <c r="K70" s="136" t="s">
         <v>189</v>
       </c>
       <c r="L70" s="62" t="str">
-        <f t="shared" ref="L70:M70" si="220">L69</f>
+        <f t="shared" ref="L70:M70" si="219">L69</f>
         <v>f</v>
       </c>
       <c r="M70" s="62" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>Oberschule</v>
       </c>
       <c r="N70" s="62">
@@ -8804,51 +8804,51 @@
         <v>185</v>
       </c>
       <c r="P70" s="62">
-        <f t="shared" ref="P70:Z70" si="221">P69</f>
+        <f t="shared" ref="P70:Z70" si="220">P69</f>
         <v>0</v>
       </c>
       <c r="Q70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>lab</v>
       </c>
       <c r="R70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>MK</v>
       </c>
       <c r="S70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>19</v>
       </c>
       <c r="T70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>4</v>
       </c>
       <c r="U70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>1980</v>
       </c>
       <c r="V70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>19/4/1980</v>
       </c>
       <c r="W70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>30</v>
       </c>
       <c r="X70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>6</v>
       </c>
       <c r="Y70" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>2021</v>
       </c>
       <c r="Z70" s="58" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>117</v>
       </c>
@@ -8861,14 +8861,14 @@
         <v>ProVisioNET</v>
       </c>
       <c r="D71" s="62" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>pilot</v>
       </c>
       <c r="E71" s="125" t="s">
         <v>127</v>
       </c>
       <c r="F71" s="62" t="str">
-        <f t="shared" ref="F71" si="222">F70</f>
+        <f t="shared" ref="F71" si="221">F70</f>
         <v>05</v>
       </c>
       <c r="G71" s="62">
@@ -8879,18 +8879,18 @@
       </c>
       <c r="I71" s="62"/>
       <c r="J71" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_05_05_sri_ambient_</v>
+        <f>CONCATENATE(C71,"_",D71,"_",E71,"_",F71,"_",H71)</f>
+        <v>ProVisioNET_pilot_05_05_sri_ambient</v>
       </c>
       <c r="K71" s="136" t="s">
         <v>189</v>
       </c>
       <c r="L71" s="62" t="str">
-        <f t="shared" ref="L71:M71" si="223">L70</f>
+        <f t="shared" ref="L71:M71" si="222">L70</f>
         <v>f</v>
       </c>
       <c r="M71" s="62" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="222"/>
         <v>Oberschule</v>
       </c>
       <c r="N71" s="62">
@@ -8900,51 +8900,51 @@
         <v>185</v>
       </c>
       <c r="P71" s="62">
-        <f t="shared" ref="P71:Z71" si="224">P70</f>
+        <f t="shared" ref="P71:Z71" si="223">P70</f>
         <v>0</v>
       </c>
       <c r="Q71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>lab</v>
       </c>
       <c r="R71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>MK</v>
       </c>
       <c r="S71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>19</v>
       </c>
       <c r="T71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>4</v>
       </c>
       <c r="U71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>1980</v>
       </c>
       <c r="V71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>19/4/1980</v>
       </c>
       <c r="W71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>30</v>
       </c>
       <c r="X71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>6</v>
       </c>
       <c r="Y71" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>2021</v>
       </c>
       <c r="Z71" s="58" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>116</v>
       </c>
@@ -8971,8 +8971,8 @@
       </c>
       <c r="I72" s="63"/>
       <c r="J72" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_label_</v>
+        <f>CONCATENATE(C72,"_",D72,"_",E72,"_",F72,"_",H72)</f>
+        <v>ProVisioNET_pilot_06_06_label</v>
       </c>
       <c r="K72" s="63" t="s">
         <v>115</v>
@@ -9025,31 +9025,31 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B73" s="62">
-        <f t="shared" ref="B73:D73" si="225">B72</f>
+        <f t="shared" ref="B73:D73" si="224">B72</f>
         <v>6</v>
       </c>
       <c r="C73" s="62" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D73" s="62" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>pilot</v>
       </c>
       <c r="E73" s="125" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="62" t="str">
-        <f t="shared" ref="F73:G73" si="226">F72</f>
+        <f t="shared" ref="F73:G73" si="225">F72</f>
         <v>06</v>
       </c>
       <c r="G73" s="62">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>6</v>
       </c>
       <c r="H73" s="62" t="s">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" ref="J68:J131" si="226">CONCATENATE(C73,"_",D73,"_",E73,"_",F73,"_",H73,"_",I73)</f>
         <v>ProVisioNET_pilot_06_06_cam1_1</v>
       </c>
       <c r="K73" s="136" t="s">
@@ -9124,7 +9124,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>117</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam1_2</v>
       </c>
       <c r="K74" s="136" t="s">
@@ -9223,7 +9223,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>117</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam2_1</v>
       </c>
       <c r="K75" s="136" t="s">
@@ -9322,7 +9322,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>117</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam2_2</v>
       </c>
       <c r="K76" s="136" t="s">
@@ -9421,7 +9421,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>117</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam3_1</v>
       </c>
       <c r="K77" s="136" t="s">
@@ -9520,7 +9520,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>117</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="J78" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam3_2</v>
       </c>
       <c r="K78" s="136" t="s">
@@ -9618,7 +9618,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>117</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam4_1</v>
       </c>
       <c r="K79" s="136" t="s">
@@ -9717,7 +9717,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>117</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_pilot_06_06_cam4_2</v>
       </c>
       <c r="K80" s="136" t="s">
@@ -9815,7 +9815,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>117</v>
       </c>
@@ -9847,8 +9847,8 @@
       </c>
       <c r="I81" s="62"/>
       <c r="J81" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_glasses_</v>
+        <f>CONCATENATE(C81,"_",D81,"_",E81,"_",F81,"_",H81)</f>
+        <v>ProVisioNET_pilot_06_06_glasses</v>
       </c>
       <c r="K81" s="136" t="s">
         <v>189</v>
@@ -9912,7 +9912,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>117</v>
       </c>
@@ -9944,8 +9944,8 @@
       </c>
       <c r="I82" s="62"/>
       <c r="J82" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_ambient_</v>
+        <f>CONCATENATE(C82,"_",D82,"_",E82,"_",F82,"_",H82)</f>
+        <v>ProVisioNET_pilot_06_06_ambient</v>
       </c>
       <c r="K82" s="136" t="s">
         <v>189</v>
@@ -10008,7 +10008,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>117</v>
       </c>
@@ -10040,8 +10040,8 @@
       </c>
       <c r="I83" s="62"/>
       <c r="J83" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_ETrawdata_</v>
+        <f>CONCATENATE(C83,"_",D83,"_",E83,"_",F83,"_",H83)</f>
+        <v>ProVisioNET_pilot_06_06_ETrawdata</v>
       </c>
       <c r="K83" s="136" t="s">
         <v>189</v>
@@ -10106,7 +10106,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>117</v>
       </c>
@@ -10137,8 +10137,8 @@
       </c>
       <c r="I84" s="62"/>
       <c r="J84" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_sri_obs_</v>
+        <f>CONCATENATE(C84,"_",D84,"_",E84,"_",F84,"_",H84)</f>
+        <v>ProVisioNET_pilot_06_06_sri_obs</v>
       </c>
       <c r="K84" s="136" t="s">
         <v>189</v>
@@ -10203,7 +10203,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="59" t="s">
         <v>117</v>
       </c>
@@ -10234,8 +10234,8 @@
       </c>
       <c r="I85" s="60"/>
       <c r="J85" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_pilot_06_06_sri_ambient_</v>
+        <f>CONCATENATE(C85,"_",D85,"_",E85,"_",F85,"_",H85)</f>
+        <v>ProVisioNET_pilot_06_06_sri_ambient</v>
       </c>
       <c r="K85" s="138" t="s">
         <v>189</v>
@@ -10300,7 +10300,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>116</v>
       </c>
@@ -10327,8 +10327,8 @@
       </c>
       <c r="I86" s="63"/>
       <c r="J86" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_label_</v>
+        <f>CONCATENATE(C86,"_",D86,"_",E86,"_",F86,"_",H86)</f>
+        <v>ProVisioNET_study_101_01_label</v>
       </c>
       <c r="K86" s="63" t="s">
         <v>115</v>
@@ -10381,7 +10381,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>117</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam1_1</v>
       </c>
       <c r="K87" s="136" t="s">
@@ -10479,7 +10479,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>117</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam1_2</v>
       </c>
       <c r="K88" s="136" t="s">
@@ -10577,7 +10577,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>117</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam2_1</v>
       </c>
       <c r="K89" s="136" t="s">
@@ -10675,7 +10675,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>117</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam2_2</v>
       </c>
       <c r="K90" s="136" t="s">
@@ -10773,7 +10773,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>117</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam3_1</v>
       </c>
       <c r="K91" s="136" t="s">
@@ -10871,7 +10871,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>117</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>2</v>
       </c>
       <c r="J92" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam3_2</v>
       </c>
       <c r="K92" s="136" t="s">
@@ -10969,7 +10969,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>117</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam4_1</v>
       </c>
       <c r="K93" s="136" t="s">
@@ -11067,7 +11067,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>117</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_101_01_cam4_2</v>
       </c>
       <c r="K94" s="136" t="s">
@@ -11165,7 +11165,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>117</v>
       </c>
@@ -11197,8 +11197,8 @@
       </c>
       <c r="I95" s="62"/>
       <c r="J95" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_glasses_</v>
+        <f>CONCATENATE(C95,"_",D95,"_",E95,"_",F95,"_",H95)</f>
+        <v>ProVisioNET_study_101_01_glasses</v>
       </c>
       <c r="K95" s="136" t="s">
         <v>189</v>
@@ -11261,7 +11261,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>117</v>
       </c>
@@ -11293,8 +11293,8 @@
       </c>
       <c r="I96" s="62"/>
       <c r="J96" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_ambient_</v>
+        <f>CONCATENATE(C96,"_",D96,"_",E96,"_",F96,"_",H96)</f>
+        <v>ProVisioNET_study_101_01_ambient</v>
       </c>
       <c r="K96" s="136" t="s">
         <v>189</v>
@@ -11357,7 +11357,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>117</v>
       </c>
@@ -11389,8 +11389,8 @@
       </c>
       <c r="I97" s="62"/>
       <c r="J97" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_ETrawdata_</v>
+        <f>CONCATENATE(C97,"_",D97,"_",E97,"_",F97,"_",H97)</f>
+        <v>ProVisioNET_study_101_01_ETrawdata</v>
       </c>
       <c r="K97" s="136" t="s">
         <v>189</v>
@@ -11453,7 +11453,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
@@ -11484,8 +11484,8 @@
       </c>
       <c r="I98" s="62"/>
       <c r="J98" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_sri_obs_</v>
+        <f>CONCATENATE(C98,"_",D98,"_",E98,"_",F98,"_",H98)</f>
+        <v>ProVisioNET_study_101_01_sri_obs</v>
       </c>
       <c r="K98" s="136" t="s">
         <v>189</v>
@@ -11548,7 +11548,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>117</v>
       </c>
@@ -11579,8 +11579,8 @@
       </c>
       <c r="I99" s="62"/>
       <c r="J99" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_sri_ambient_</v>
+        <f>CONCATENATE(C99,"_",D99,"_",E99,"_",F99,"_",H99)</f>
+        <v>ProVisioNET_study_101_01_sri_ambient</v>
       </c>
       <c r="K99" s="140" t="s">
         <v>189</v>
@@ -11643,7 +11643,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>117</v>
       </c>
@@ -11674,8 +11674,8 @@
       </c>
       <c r="I100" s="62"/>
       <c r="J100" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_fitbit_</v>
+        <f>CONCATENATE(C100,"_",D100,"_",E100,"_",F100,"_",H100)</f>
+        <v>ProVisioNET_study_101_01_fitbit</v>
       </c>
       <c r="K100" s="140" t="s">
         <v>189</v>
@@ -11736,7 +11736,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="122" t="s">
         <v>117</v>
       </c>
@@ -11767,8 +11767,8 @@
       </c>
       <c r="I101" s="123"/>
       <c r="J101" s="123" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_101_01_zed_</v>
+        <f>CONCATENATE(C101,"_",D101,"_",E101,"_",F101,"_",H101)</f>
+        <v>ProVisioNET_study_101_01_zed</v>
       </c>
       <c r="K101" s="141" t="s">
         <v>206</v>
@@ -11830,7 +11830,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
         <v>116</v>
       </c>
@@ -11857,8 +11857,8 @@
       </c>
       <c r="I102" s="63"/>
       <c r="J102" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_label_</v>
+        <f>CONCATENATE(C102,"_",D102,"_",E102,"_",F102,"_",H102)</f>
+        <v>ProVisioNET_study_102_02_label</v>
       </c>
       <c r="K102" s="63" t="s">
         <v>115</v>
@@ -11911,7 +11911,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>117</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam1_1</v>
       </c>
       <c r="K103" s="136" t="s">
@@ -12005,7 +12005,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>117</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam1_2</v>
       </c>
       <c r="K104" s="136" t="s">
@@ -12099,7 +12099,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>117</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam2_1</v>
       </c>
       <c r="K105" s="136" t="s">
@@ -12194,7 +12194,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>117</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam2_2</v>
       </c>
       <c r="K106" s="136" t="s">
@@ -12289,7 +12289,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>117</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam3_1</v>
       </c>
       <c r="K107" s="136" t="s">
@@ -12384,7 +12384,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>117</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="J108" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam3_2</v>
       </c>
       <c r="K108" s="136" t="s">
@@ -12479,7 +12479,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>117</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam4_1</v>
       </c>
       <c r="K109" s="136" t="s">
@@ -12574,7 +12574,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>117</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_102_02_cam4_2</v>
       </c>
       <c r="K110" s="136" t="s">
@@ -12669,7 +12669,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>117</v>
       </c>
@@ -12701,8 +12701,8 @@
       </c>
       <c r="I111" s="62"/>
       <c r="J111" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_glasses_</v>
+        <f>CONCATENATE(C111,"_",D111,"_",E111,"_",F111,"_",H111)</f>
+        <v>ProVisioNET_study_102_02_glasses</v>
       </c>
       <c r="K111" s="136" t="s">
         <v>189</v>
@@ -12762,7 +12762,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>117</v>
       </c>
@@ -12794,8 +12794,8 @@
       </c>
       <c r="I112" s="62"/>
       <c r="J112" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_ambient_</v>
+        <f>CONCATENATE(C112,"_",D112,"_",E112,"_",F112,"_",H112)</f>
+        <v>ProVisioNET_study_102_02_ambient</v>
       </c>
       <c r="K112" s="136" t="s">
         <v>189</v>
@@ -12855,7 +12855,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>117</v>
       </c>
@@ -12887,8 +12887,8 @@
       </c>
       <c r="I113" s="62"/>
       <c r="J113" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_ETrawdata_</v>
+        <f>CONCATENATE(C113,"_",D113,"_",E113,"_",F113,"_",H113)</f>
+        <v>ProVisioNET_study_102_02_ETrawdata</v>
       </c>
       <c r="K113" s="136" t="s">
         <v>189</v>
@@ -12948,7 +12948,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>117</v>
       </c>
@@ -12979,8 +12979,8 @@
       </c>
       <c r="I114" s="62"/>
       <c r="J114" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_sri_obs_</v>
+        <f>CONCATENATE(C114,"_",D114,"_",E114,"_",F114,"_",H114)</f>
+        <v>ProVisioNET_study_102_02_sri_obs</v>
       </c>
       <c r="K114" s="136" t="s">
         <v>189</v>
@@ -13040,7 +13040,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>117</v>
       </c>
@@ -13071,8 +13071,8 @@
       </c>
       <c r="I115" s="62"/>
       <c r="J115" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_sri_ambient_</v>
+        <f>CONCATENATE(C115,"_",D115,"_",E115,"_",F115,"_",H115)</f>
+        <v>ProVisioNET_study_102_02_sri_ambient</v>
       </c>
       <c r="K115" s="140" t="s">
         <v>189</v>
@@ -13132,7 +13132,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>117</v>
       </c>
@@ -13163,8 +13163,8 @@
       </c>
       <c r="I116" s="62"/>
       <c r="J116" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_fitbit_</v>
+        <f>CONCATENATE(C116,"_",D116,"_",E116,"_",F116,"_",H116)</f>
+        <v>ProVisioNET_study_102_02_fitbit</v>
       </c>
       <c r="K116" s="140" t="s">
         <v>189</v>
@@ -13222,7 +13222,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="122" t="s">
         <v>117</v>
       </c>
@@ -13253,8 +13253,8 @@
       </c>
       <c r="I117" s="123"/>
       <c r="J117" s="123" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_102_02_zed_</v>
+        <f>CONCATENATE(C117,"_",D117,"_",E117,"_",F117,"_",H117)</f>
+        <v>ProVisioNET_study_102_02_zed</v>
       </c>
       <c r="K117" s="141" t="s">
         <v>205</v>
@@ -13313,7 +13313,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="64" t="s">
         <v>116</v>
       </c>
@@ -13340,8 +13340,8 @@
       </c>
       <c r="I118" s="63"/>
       <c r="J118" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_label_</v>
+        <f>CONCATENATE(C118,"_",D118,"_",E118,"_",F118,"_",H118)</f>
+        <v>ProVisioNET_study_103_03_label</v>
       </c>
       <c r="K118" s="63" t="s">
         <v>115</v>
@@ -13394,7 +13394,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>117</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam1_1</v>
       </c>
       <c r="K119" s="136" t="s">
@@ -13488,7 +13488,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>117</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>2</v>
       </c>
       <c r="J120" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam1_2</v>
       </c>
       <c r="K120" s="136" t="s">
@@ -13582,7 +13582,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>117</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam2_1</v>
       </c>
       <c r="K121" s="136" t="s">
@@ -13676,7 +13676,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>117</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>2</v>
       </c>
       <c r="J122" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam2_2</v>
       </c>
       <c r="K122" s="136" t="s">
@@ -13771,7 +13771,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>117</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam3_1</v>
       </c>
       <c r="K123" s="136" t="s">
@@ -13866,7 +13866,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>117</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>2</v>
       </c>
       <c r="J124" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam3_2</v>
       </c>
       <c r="K124" s="136" t="s">
@@ -13961,7 +13961,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>117</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam4_1</v>
       </c>
       <c r="K125" s="136" t="s">
@@ -14056,7 +14056,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>117</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="62" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>ProVisioNET_study_103_03_cam4_2</v>
       </c>
       <c r="K126" s="136" t="s">
@@ -14151,7 +14151,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>117</v>
       </c>
@@ -14183,8 +14183,8 @@
       </c>
       <c r="I127" s="62"/>
       <c r="J127" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_glasses_</v>
+        <f>CONCATENATE(C127,"_",D127,"_",E127,"_",F127,"_",H127)</f>
+        <v>ProVisioNET_study_103_03_glasses</v>
       </c>
       <c r="K127" s="136" t="s">
         <v>189</v>
@@ -14244,7 +14244,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>117</v>
       </c>
@@ -14276,8 +14276,8 @@
       </c>
       <c r="I128" s="62"/>
       <c r="J128" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_ambient_</v>
+        <f>CONCATENATE(C128,"_",D128,"_",E128,"_",F128,"_",H128)</f>
+        <v>ProVisioNET_study_103_03_ambient</v>
       </c>
       <c r="K128" s="136" t="s">
         <v>189</v>
@@ -14337,7 +14337,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>117</v>
       </c>
@@ -14369,8 +14369,8 @@
       </c>
       <c r="I129" s="62"/>
       <c r="J129" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_ETrawdata_</v>
+        <f>CONCATENATE(C129,"_",D129,"_",E129,"_",F129,"_",H129)</f>
+        <v>ProVisioNET_study_103_03_ETrawdata</v>
       </c>
       <c r="K129" s="136" t="s">
         <v>189</v>
@@ -14430,7 +14430,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="142" t="s">
         <v>117</v>
       </c>
@@ -14461,8 +14461,8 @@
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_sri_obs_</v>
+        <f>CONCATENATE(C130,"_",D130,"_",E130,"_",F130,"_",H130)</f>
+        <v>ProVisioNET_study_103_03_sri_obs</v>
       </c>
       <c r="K130" s="145" t="s">
         <v>204</v>
@@ -14522,7 +14522,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>117</v>
       </c>
@@ -14553,8 +14553,8 @@
       </c>
       <c r="I131" s="62"/>
       <c r="J131" s="62" t="str">
-        <f t="shared" si="211"/>
-        <v>ProVisioNET_study_103_03_sri_ambient_</v>
+        <f>CONCATENATE(C131,"_",D131,"_",E131,"_",F131,"_",H131)</f>
+        <v>ProVisioNET_study_103_03_sri_ambient</v>
       </c>
       <c r="K131" s="140" t="s">
         <v>189</v>
@@ -14614,7 +14614,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>117</v>
       </c>
@@ -14645,18 +14645,18 @@
       </c>
       <c r="I132" s="62"/>
       <c r="J132" s="62" t="str">
-        <f t="shared" ref="J132:J147" si="450">CONCATENATE(C132,"_",D132,"_",E132,"_",F132,"_",H132,"_",I132)</f>
-        <v>ProVisioNET_study_103_03_fitbit_</v>
+        <f>CONCATENATE(C132,"_",D132,"_",E132,"_",F132,"_",H132)</f>
+        <v>ProVisioNET_study_103_03_fitbit</v>
       </c>
       <c r="K132" s="140" t="s">
         <v>189</v>
       </c>
       <c r="L132" s="62" t="str">
-        <f t="shared" ref="L132:M132" si="451">L131</f>
+        <f t="shared" ref="L132:M132" si="450">L131</f>
         <v>f</v>
       </c>
       <c r="M132" s="62" t="str">
-        <f t="shared" si="451"/>
+        <f t="shared" si="450"/>
         <v>Gymnasium</v>
       </c>
       <c r="N132" s="62">
@@ -14684,27 +14684,27 @@
         <v>1997</v>
       </c>
       <c r="V132" s="58" t="str">
-        <f t="shared" ref="V132" si="452">V131</f>
+        <f t="shared" ref="V132" si="451">V131</f>
         <v>1/7/1997</v>
       </c>
       <c r="W132" s="58">
-        <f t="shared" ref="W132:Z132" si="453">W131</f>
+        <f t="shared" ref="W132:Z132" si="452">W131</f>
         <v>28</v>
       </c>
       <c r="X132" s="58">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v>7</v>
       </c>
       <c r="Y132" s="58">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v>2021</v>
       </c>
       <c r="Z132" s="58" t="str">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="122" t="s">
         <v>117</v>
       </c>
@@ -14735,8 +14735,8 @@
       </c>
       <c r="I133" s="123"/>
       <c r="J133" s="123" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_103_03_zed_</v>
+        <f>CONCATENATE(C133,"_",D133,"_",E133,"_",F133,"_",H133)</f>
+        <v>ProVisioNET_study_103_03_zed</v>
       </c>
       <c r="K133" s="141" t="s">
         <v>205</v>
@@ -14775,27 +14775,27 @@
         <v>1977</v>
       </c>
       <c r="V133" s="123" t="str">
-        <f t="shared" ref="V133" si="454">V132</f>
+        <f t="shared" ref="V133" si="453">V132</f>
         <v>1/7/1997</v>
       </c>
       <c r="W133" s="123">
-        <f t="shared" ref="W133:Z133" si="455">W131</f>
+        <f t="shared" ref="W133:Z133" si="454">W131</f>
         <v>28</v>
       </c>
       <c r="X133" s="123">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v>7</v>
       </c>
       <c r="Y133" s="123">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v>2021</v>
       </c>
       <c r="Z133" s="123" t="str">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="146" t="s">
         <v>116</v>
       </c>
@@ -14822,8 +14822,8 @@
       </c>
       <c r="I134" s="147"/>
       <c r="J134" s="150" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_104_04_label_</v>
+        <f>CONCATENATE(C134,"_",D134,"_",E134,"_",F134,"_",H134)</f>
+        <v>ProVisioNET_study_104_04_label</v>
       </c>
       <c r="K134" s="147" t="s">
         <v>115</v>
@@ -14876,27 +14876,27 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="154" t="s">
         <v>117</v>
       </c>
       <c r="B135" s="150">
-        <f t="shared" ref="B135:D135" si="456">B134</f>
+        <f t="shared" ref="B135:D135" si="455">B134</f>
         <v>4</v>
       </c>
       <c r="C135" s="150" t="str">
-        <f t="shared" si="456"/>
+        <f t="shared" si="455"/>
         <v>ProVisioNET</v>
       </c>
       <c r="D135" s="150" t="str">
-        <f t="shared" si="456"/>
+        <f t="shared" si="455"/>
         <v>study</v>
       </c>
       <c r="E135" s="155" t="s">
         <v>207</v>
       </c>
       <c r="F135" s="150" t="str">
-        <f t="shared" ref="F135:F136" si="457">F134</f>
+        <f t="shared" ref="F135:F136" si="456">F134</f>
         <v>04</v>
       </c>
       <c r="G135" s="150">
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" ref="J132:J147" si="457">CONCATENATE(C135,"_",D135,"_",E135,"_",F135,"_",H135,"_",I135)</f>
         <v>ProVisioNET_study_104_04_cam1_1</v>
       </c>
       <c r="K135" s="156" t="s">
@@ -14970,7 +14970,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="154" t="s">
         <v>117</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>207</v>
       </c>
       <c r="F136" s="150" t="str">
-        <f t="shared" si="457"/>
+        <f t="shared" si="456"/>
         <v>04</v>
       </c>
       <c r="G136" s="150">
@@ -15003,7 +15003,7 @@
         <v>2</v>
       </c>
       <c r="J136" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam1_2</v>
       </c>
       <c r="K136" s="156" t="s">
@@ -15064,7 +15064,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="154" t="s">
         <v>117</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam2_1</v>
       </c>
       <c r="K137" s="156" t="s">
@@ -15158,7 +15158,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="154" t="s">
         <v>117</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>2</v>
       </c>
       <c r="J138" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam2_2</v>
       </c>
       <c r="K138" s="156" t="s">
@@ -15253,7 +15253,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="154" t="s">
         <v>117</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam3_1</v>
       </c>
       <c r="K139" s="156" t="s">
@@ -15348,7 +15348,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="154" t="s">
         <v>117</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>2</v>
       </c>
       <c r="J140" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam3_2</v>
       </c>
       <c r="K140" s="156" t="s">
@@ -15442,7 +15442,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="154" t="s">
         <v>117</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam4_1</v>
       </c>
       <c r="K141" s="156" t="s">
@@ -15537,7 +15537,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="154" t="s">
         <v>117</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>2</v>
       </c>
       <c r="J142" s="150" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="457"/>
         <v>ProVisioNET_study_104_04_cam4_2</v>
       </c>
       <c r="K142" s="156" t="s">
@@ -15632,7 +15632,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="154" t="s">
         <v>117</v>
       </c>
@@ -15664,8 +15664,8 @@
       </c>
       <c r="I143" s="150"/>
       <c r="J143" s="150" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_104_04_glasses_</v>
+        <f>CONCATENATE(C143,"_",D143,"_",E143,"_",F143,"_",H143)</f>
+        <v>ProVisioNET_study_104_04_glasses</v>
       </c>
       <c r="K143" s="156" t="s">
         <v>189</v>
@@ -15725,7 +15725,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="154" t="s">
         <v>117</v>
       </c>
@@ -15757,8 +15757,8 @@
       </c>
       <c r="I144" s="150"/>
       <c r="J144" s="150" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_104_04_ambient_</v>
+        <f>CONCATENATE(C144,"_",D144,"_",E144,"_",F144,"_",H144)</f>
+        <v>ProVisioNET_study_104_04_ambient</v>
       </c>
       <c r="K144" s="156" t="s">
         <v>189</v>
@@ -15818,7 +15818,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="154" t="s">
         <v>117</v>
       </c>
@@ -15850,8 +15850,8 @@
       </c>
       <c r="I145" s="150"/>
       <c r="J145" s="150" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_104_04_ETrawdata_</v>
+        <f>CONCATENATE(C145,"_",D145,"_",E145,"_",F145,"_",H145)</f>
+        <v>ProVisioNET_study_104_04_ETrawdata</v>
       </c>
       <c r="K145" s="156" t="s">
         <v>189</v>
@@ -15911,7 +15911,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="154" t="s">
         <v>117</v>
       </c>
@@ -15942,8 +15942,8 @@
       </c>
       <c r="I146" s="150"/>
       <c r="J146" s="150" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_104_04_sri_obs_</v>
+        <f>CONCATENATE(C146,"_",D146,"_",E146,"_",F146,"_",H146)</f>
+        <v>ProVisioNET_study_104_04_sri_obs</v>
       </c>
       <c r="K146" s="156" t="s">
         <v>189</v>
@@ -16003,7 +16003,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="154" t="s">
         <v>117</v>
       </c>
@@ -16034,8 +16034,8 @@
       </c>
       <c r="I147" s="150"/>
       <c r="J147" s="150" t="str">
-        <f t="shared" si="450"/>
-        <v>ProVisioNET_study_104_04_sri_ambient_</v>
+        <f>CONCATENATE(C147,"_",D147,"_",E147,"_",F147,"_",H147)</f>
+        <v>ProVisioNET_study_104_04_sri_ambient</v>
       </c>
       <c r="K147" s="159" t="s">
         <v>189</v>
@@ -16095,7 +16095,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="154" t="s">
         <v>117</v>
       </c>
@@ -16126,18 +16126,18 @@
       </c>
       <c r="I148" s="150"/>
       <c r="J148" s="150" t="str">
-        <f t="shared" ref="J148:J149" si="509">CONCATENATE(C148,"_",D148,"_",E148,"_",F148,"_",H148,"_",I148)</f>
-        <v>ProVisioNET_study_104_04_fitbit_</v>
+        <f>CONCATENATE(C148,"_",D148,"_",E148,"_",F148,"_",H148)</f>
+        <v>ProVisioNET_study_104_04_fitbit</v>
       </c>
       <c r="K148" s="159" t="s">
         <v>189</v>
       </c>
       <c r="L148" s="150" t="str">
-        <f t="shared" ref="L148:M148" si="510">L147</f>
+        <f t="shared" ref="L148:M148" si="509">L147</f>
         <v>f</v>
       </c>
       <c r="M148" s="150" t="str">
-        <f t="shared" si="510"/>
+        <f t="shared" si="509"/>
         <v>Gymnasium</v>
       </c>
       <c r="N148" s="150">
@@ -16185,7 +16185,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="160" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" s="160" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="160" t="s">
         <v>117</v>
       </c>
@@ -16216,8 +16216,8 @@
       </c>
       <c r="I149" s="161"/>
       <c r="J149" s="161" t="str">
-        <f t="shared" si="509"/>
-        <v>ProVisioNET_study_104_04_zed_</v>
+        <f>CONCATENATE(C149,"_",D149,"_",E149,"_",F149,"_",H149)</f>
+        <v>ProVisioNET_study_104_04_zed</v>
       </c>
       <c r="K149" s="163" t="s">
         <v>205</v>
@@ -16260,23 +16260,23 @@
         <v>29/5/1998</v>
       </c>
       <c r="W149" s="161">
-        <f t="shared" ref="W149:Z149" si="511">W147</f>
+        <f t="shared" ref="W149:Z149" si="510">W147</f>
         <v>5</v>
       </c>
       <c r="X149" s="161">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>8</v>
       </c>
       <c r="Y149" s="161">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>2021</v>
       </c>
       <c r="Z149" s="161" t="str">
-        <f t="shared" si="511"/>
+        <f t="shared" si="510"/>
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G567" s="58"/>
       <c r="H567" s="58"/>
       <c r="I567" s="58"/>
@@ -16296,25 +16296,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -16342,30 +16342,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -16376,35 +16376,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -16415,30 +16415,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -16449,39 +16449,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -16492,40 +16492,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -16536,35 +16536,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -16576,28 +16576,28 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>8</v>
       </c>
@@ -16608,36 +16608,36 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="14"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>67</v>
       </c>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
@@ -16668,20 +16668,20 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="89"/>
-    <col min="2" max="9" width="15.6640625" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="3"/>
-    <col min="12" max="12" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11.5546875" style="13"/>
-    <col min="22" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="11.5703125" style="89"/>
+    <col min="2" max="9" width="15.7109375" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="3"/>
+    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11.5703125" style="13"/>
+    <col min="22" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -16725,7 +16725,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -16817,7 +16817,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -16909,7 +16909,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -17001,7 +17001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91">
         <v>4</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="94" t="s">
         <v>124</v>
@@ -17091,7 +17091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91">
         <v>5</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93"/>
       <c r="B11" s="94" t="s">
         <v>174</v>
@@ -17183,7 +17183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91">
         <v>6</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="94" t="s">
         <v>125</v>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91">
         <v>7</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
       <c r="B15" s="94" t="s">
         <v>90</v>
@@ -17320,7 +17320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91">
         <v>8</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="103"/>
       <c r="B17" s="104" t="s">
         <v>89</v>
@@ -17382,7 +17382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100">
         <v>9</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="93"/>
       <c r="B19" s="94" t="s">
         <v>150</v>
@@ -17444,7 +17444,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91">
         <v>10</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
       <c r="B21" s="94" t="s">
         <v>148</v>
@@ -17506,7 +17506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="91">
         <v>11</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="93"/>
       <c r="B23" s="94" t="s">
         <v>149</v>
@@ -17566,7 +17566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91">
         <v>12</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93"/>
       <c r="B25" s="94" t="s">
         <v>124</v>
@@ -17626,7 +17626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91">
         <v>13</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
       <c r="B27" s="94" t="s">
         <v>175</v>
@@ -17688,7 +17688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>14</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="93"/>
       <c r="B29" s="94" t="s">
         <v>125</v>
@@ -17750,7 +17750,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91">
         <v>15</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="93"/>
       <c r="B31" s="94" t="s">
         <v>90</v>
@@ -17812,7 +17812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91">
         <v>16</v>
       </c>
@@ -17844,7 +17844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="103"/>
       <c r="B33" s="104" t="s">
         <v>89</v>
@@ -17874,7 +17874,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="100">
         <v>17</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="93"/>
       <c r="B35" s="94" t="s">
         <v>150</v>
@@ -17936,7 +17936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="91">
         <v>18</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
       <c r="B37" s="94" t="s">
         <v>148</v>
@@ -17998,7 +17998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="91">
         <v>19</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
       <c r="B39" s="94" t="s">
         <v>149</v>
@@ -18058,7 +18058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91">
         <v>20</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93"/>
       <c r="B41" s="94" t="s">
         <v>124</v>
@@ -18118,7 +18118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91">
         <v>21</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="93"/>
       <c r="B43" s="94" t="s">
         <v>175</v>
@@ -18180,7 +18180,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="91">
         <v>22</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="93"/>
       <c r="B45" s="94" t="s">
         <v>125</v>
@@ -18242,7 +18242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="91">
         <v>23</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="93"/>
       <c r="B47" s="94" t="s">
         <v>90</v>
@@ -18304,7 +18304,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="91">
         <v>24</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103"/>
       <c r="B49" s="104" t="s">
         <v>89</v>
@@ -18366,7 +18366,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="100">
         <v>25</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="93"/>
       <c r="B51" s="94" t="s">
         <v>150</v>
@@ -18428,7 +18428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="91">
         <v>26</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="93"/>
       <c r="B53" s="94" t="s">
         <v>148</v>
@@ -18490,7 +18490,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="91">
         <v>27</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="93"/>
       <c r="B55" s="94" t="s">
         <v>149</v>
@@ -18550,7 +18550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91">
         <v>28</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="93"/>
       <c r="B57" s="94" t="s">
         <v>124</v>
@@ -18610,7 +18610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="96">
         <v>29</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="97"/>
       <c r="B59" s="94" t="s">
         <v>174</v>
@@ -18672,7 +18672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="96">
         <v>30</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="97"/>
       <c r="B61" s="94" t="s">
         <v>125</v>
@@ -18734,7 +18734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="96">
         <v>31</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="97"/>
       <c r="B63" s="94" t="s">
         <v>90</v>
@@ -18796,7 +18796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="96">
         <v>32</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
       <c r="B65" s="104" t="s">
         <v>89</v>
@@ -18858,7 +18858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="106">
         <v>33</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="97"/>
       <c r="B67" s="94" t="s">
         <v>150</v>
@@ -18920,7 +18920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="96">
         <v>34</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="97"/>
       <c r="B69" s="94" t="s">
         <v>148</v>
@@ -18982,7 +18982,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="96">
         <v>35</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="97"/>
       <c r="B71" s="94" t="s">
         <v>149</v>
@@ -19042,7 +19042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="96">
         <v>36</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="97"/>
       <c r="B73" s="94" t="s">
         <v>124</v>
@@ -19102,7 +19102,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="98">
         <v>37</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="99"/>
       <c r="B75" s="94" t="s">
         <v>174</v>
@@ -19164,7 +19164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="98">
         <v>38</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="99"/>
       <c r="B77" s="94" t="s">
         <v>125</v>
@@ -19226,7 +19226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="98">
         <v>39</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="99"/>
       <c r="B79" s="94" t="s">
         <v>90</v>
@@ -19288,7 +19288,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="98">
         <v>40</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="109"/>
       <c r="B81" s="104" t="s">
         <v>89</v>
@@ -19350,7 +19350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
         <v>41</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="99"/>
       <c r="B83" s="94" t="s">
         <v>150</v>
@@ -19412,7 +19412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="98">
         <v>42</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="99"/>
       <c r="B85" s="94" t="s">
         <v>148</v>
@@ -19474,7 +19474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="98">
         <v>43</v>
       </c>
@@ -19504,7 +19504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="99"/>
       <c r="B87" s="94" t="s">
         <v>149</v>
@@ -19534,7 +19534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="98">
         <v>44</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="99"/>
       <c r="B89" s="94" t="s">
         <v>124</v>
@@ -19594,7 +19594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98">
         <v>45</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="99"/>
       <c r="B91" s="94" t="s">
         <v>174</v>
@@ -19656,7 +19656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="98">
         <v>46</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="99"/>
       <c r="B93" s="94" t="s">
         <v>125</v>
@@ -19718,7 +19718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="98">
         <v>47</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="99"/>
       <c r="B95" s="94" t="s">
         <v>90</v>
@@ -19780,7 +19780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98">
         <v>48</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="109"/>
       <c r="B97" s="104" t="s">
         <v>89</v>
@@ -19842,7 +19842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
         <v>49</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="99"/>
       <c r="B99" s="94" t="s">
         <v>150</v>
@@ -19904,7 +19904,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98">
         <v>50</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="99"/>
       <c r="B101" s="94" t="s">
         <v>148</v>
@@ -19966,7 +19966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="89">
         <v>51</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="94" t="s">
         <v>149</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="91">
         <v>52</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="93"/>
       <c r="B105" s="94" t="s">
         <v>124</v>
@@ -20085,7 +20085,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="96">
         <v>53</v>
       </c>
@@ -20127,7 +20127,7 @@
       <c r="T106" s="76"/>
       <c r="U106" s="76"/>
     </row>
-    <row r="107" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="97"/>
       <c r="B107" s="94" t="s">
         <v>174</v>
@@ -20167,7 +20167,7 @@
       <c r="T107" s="76"/>
       <c r="U107" s="76"/>
     </row>
-    <row r="108" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="96">
         <v>54</v>
       </c>
@@ -20209,7 +20209,7 @@
       <c r="T108" s="76"/>
       <c r="U108" s="76"/>
     </row>
-    <row r="109" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="97"/>
       <c r="B109" s="94" t="s">
         <v>125</v>
@@ -20249,7 +20249,7 @@
       <c r="T109" s="76"/>
       <c r="U109" s="76"/>
     </row>
-    <row r="110" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="96">
         <v>55</v>
       </c>
@@ -20291,7 +20291,7 @@
       <c r="T110" s="76"/>
       <c r="U110" s="76"/>
     </row>
-    <row r="111" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="97"/>
       <c r="B111" s="94" t="s">
         <v>90</v>
@@ -20331,7 +20331,7 @@
       <c r="T111" s="76"/>
       <c r="U111" s="76"/>
     </row>
-    <row r="112" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="96">
         <v>56</v>
       </c>
@@ -20373,7 +20373,7 @@
       <c r="T112" s="76"/>
       <c r="U112" s="76"/>
     </row>
-    <row r="113" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="97"/>
       <c r="B113" s="94" t="s">
         <v>89</v>
@@ -20413,7 +20413,7 @@
       <c r="T113" s="76"/>
       <c r="U113" s="76"/>
     </row>
-    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="100"/>
       <c r="B114" s="101"/>
       <c r="C114" s="101"/>
@@ -20435,7 +20435,7 @@
       <c r="T114" s="76"/>
       <c r="U114" s="76"/>
     </row>
-    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="100"/>
       <c r="B115" s="101"/>
       <c r="C115" s="101"/>
@@ -20457,7 +20457,7 @@
       <c r="T115" s="76"/>
       <c r="U115" s="76"/>
     </row>
-    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="100"/>
       <c r="B116" s="101"/>
       <c r="C116" s="101"/>
@@ -20479,7 +20479,7 @@
       <c r="T116" s="76"/>
       <c r="U116" s="76"/>
     </row>
-    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="100"/>
       <c r="B117" s="101"/>
       <c r="C117" s="101"/>
@@ -20501,7 +20501,7 @@
       <c r="T117" s="76"/>
       <c r="U117" s="76"/>
     </row>
-    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="100"/>
       <c r="B118" s="101"/>
       <c r="C118" s="101"/>
@@ -20523,7 +20523,7 @@
       <c r="T118" s="76"/>
       <c r="U118" s="76"/>
     </row>
-    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="100"/>
       <c r="B119" s="101"/>
       <c r="C119" s="101"/>
@@ -20545,7 +20545,7 @@
       <c r="T119" s="76"/>
       <c r="U119" s="76"/>
     </row>
-    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="100"/>
       <c r="B120" s="101"/>
       <c r="C120" s="101"/>
@@ -20567,7 +20567,7 @@
       <c r="T120" s="76"/>
       <c r="U120" s="76"/>
     </row>
-    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="100"/>
       <c r="B121" s="101"/>
       <c r="C121" s="101"/>
@@ -20589,7 +20589,7 @@
       <c r="T121" s="76"/>
       <c r="U121" s="76"/>
     </row>
-    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="100"/>
       <c r="B122" s="101"/>
       <c r="C122" s="101"/>
@@ -20611,7 +20611,7 @@
       <c r="T122" s="76"/>
       <c r="U122" s="76"/>
     </row>
-    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="100"/>
       <c r="B123" s="101"/>
       <c r="C123" s="101"/>
@@ -20633,7 +20633,7 @@
       <c r="T123" s="76"/>
       <c r="U123" s="76"/>
     </row>
-    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="100"/>
       <c r="B124" s="101"/>
       <c r="C124" s="101"/>
@@ -20655,7 +20655,7 @@
       <c r="T124" s="76"/>
       <c r="U124" s="76"/>
     </row>
-    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="100"/>
       <c r="B125" s="101"/>
       <c r="C125" s="101"/>
@@ -20677,7 +20677,7 @@
       <c r="T125" s="76"/>
       <c r="U125" s="76"/>
     </row>
-    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="100"/>
       <c r="B126" s="101"/>
       <c r="C126" s="101"/>
@@ -20699,7 +20699,7 @@
       <c r="T126" s="76"/>
       <c r="U126" s="76"/>
     </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="100"/>
       <c r="B127" s="101"/>
       <c r="C127" s="101"/>
@@ -20721,7 +20721,7 @@
       <c r="T127" s="76"/>
       <c r="U127" s="76"/>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="100"/>
       <c r="B128" s="101"/>
       <c r="C128" s="101"/>
@@ -20743,7 +20743,7 @@
       <c r="T128" s="76"/>
       <c r="U128" s="76"/>
     </row>
-    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="100"/>
       <c r="B129" s="101"/>
       <c r="C129" s="101"/>
@@ -20765,7 +20765,7 @@
       <c r="T129" s="76"/>
       <c r="U129" s="76"/>
     </row>
-    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="100"/>
       <c r="B130" s="101"/>
       <c r="C130" s="101"/>
@@ -20787,7 +20787,7 @@
       <c r="T130" s="76"/>
       <c r="U130" s="76"/>
     </row>
-    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="100"/>
       <c r="B131" s="101"/>
       <c r="C131" s="101"/>
@@ -20809,7 +20809,7 @@
       <c r="T131" s="76"/>
       <c r="U131" s="76"/>
     </row>
-    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="100"/>
       <c r="B132" s="101"/>
       <c r="C132" s="101"/>
@@ -20831,7 +20831,7 @@
       <c r="T132" s="76"/>
       <c r="U132" s="76"/>
     </row>
-    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="100"/>
       <c r="B133" s="101"/>
       <c r="C133" s="101"/>
@@ -20853,7 +20853,7 @@
       <c r="T133" s="76"/>
       <c r="U133" s="76"/>
     </row>
-    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="100"/>
       <c r="B134" s="101"/>
       <c r="C134" s="101"/>
@@ -20875,7 +20875,7 @@
       <c r="T134" s="76"/>
       <c r="U134" s="76"/>
     </row>
-    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="100"/>
       <c r="B135" s="101"/>
       <c r="C135" s="101"/>
@@ -20897,7 +20897,7 @@
       <c r="T135" s="76"/>
       <c r="U135" s="76"/>
     </row>
-    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="100"/>
       <c r="B136" s="101"/>
       <c r="C136" s="101"/>
@@ -20919,7 +20919,7 @@
       <c r="T136" s="76"/>
       <c r="U136" s="76"/>
     </row>
-    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="100"/>
       <c r="B137" s="101"/>
       <c r="C137" s="101"/>
@@ -20941,7 +20941,7 @@
       <c r="T137" s="76"/>
       <c r="U137" s="76"/>
     </row>
-    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="100"/>
       <c r="B138" s="101"/>
       <c r="C138" s="101"/>
@@ -20963,7 +20963,7 @@
       <c r="T138" s="76"/>
       <c r="U138" s="76"/>
     </row>
-    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="100"/>
       <c r="B139" s="101"/>
       <c r="C139" s="101"/>
@@ -20985,7 +20985,7 @@
       <c r="T139" s="76"/>
       <c r="U139" s="76"/>
     </row>
-    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="100"/>
       <c r="B140" s="101"/>
       <c r="C140" s="101"/>
@@ -21007,7 +21007,7 @@
       <c r="T140" s="76"/>
       <c r="U140" s="76"/>
     </row>
-    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="100"/>
       <c r="B141" s="101"/>
       <c r="C141" s="101"/>
@@ -21029,7 +21029,7 @@
       <c r="T141" s="76"/>
       <c r="U141" s="76"/>
     </row>
-    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="100"/>
       <c r="B142" s="101"/>
       <c r="C142" s="101"/>
@@ -21051,7 +21051,7 @@
       <c r="T142" s="76"/>
       <c r="U142" s="76"/>
     </row>
-    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="100"/>
       <c r="B143" s="101"/>
       <c r="C143" s="101"/>
@@ -21073,7 +21073,7 @@
       <c r="T143" s="76"/>
       <c r="U143" s="76"/>
     </row>
-    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="100"/>
       <c r="B144" s="101"/>
       <c r="C144" s="101"/>
@@ -21095,7 +21095,7 @@
       <c r="T144" s="76"/>
       <c r="U144" s="76"/>
     </row>
-    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="100"/>
       <c r="B145" s="101"/>
       <c r="C145" s="101"/>
@@ -21117,7 +21117,7 @@
       <c r="T145" s="76"/>
       <c r="U145" s="76"/>
     </row>
-    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="100"/>
       <c r="B146" s="101"/>
       <c r="C146" s="101"/>
@@ -21139,7 +21139,7 @@
       <c r="T146" s="76"/>
       <c r="U146" s="76"/>
     </row>
-    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="100"/>
       <c r="B147" s="101"/>
       <c r="C147" s="101"/>
@@ -21161,7 +21161,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="76"/>
     </row>
-    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="100"/>
       <c r="B148" s="101"/>
       <c r="C148" s="101"/>
@@ -21183,7 +21183,7 @@
       <c r="T148" s="76"/>
       <c r="U148" s="76"/>
     </row>
-    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="100"/>
       <c r="B149" s="101"/>
       <c r="C149" s="101"/>
@@ -21205,7 +21205,7 @@
       <c r="T149" s="76"/>
       <c r="U149" s="76"/>
     </row>
-    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="100"/>
       <c r="B150" s="101"/>
       <c r="C150" s="101"/>
@@ -21227,7 +21227,7 @@
       <c r="T150" s="76"/>
       <c r="U150" s="76"/>
     </row>
-    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="100"/>
       <c r="B151" s="101"/>
       <c r="C151" s="101"/>
@@ -21249,7 +21249,7 @@
       <c r="T151" s="76"/>
       <c r="U151" s="76"/>
     </row>
-    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="100"/>
       <c r="B152" s="101"/>
       <c r="C152" s="101"/>
@@ -21271,7 +21271,7 @@
       <c r="T152" s="76"/>
       <c r="U152" s="76"/>
     </row>
-    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="100"/>
       <c r="B153" s="101"/>
       <c r="C153" s="101"/>
@@ -21293,7 +21293,7 @@
       <c r="T153" s="76"/>
       <c r="U153" s="76"/>
     </row>
-    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="100"/>
       <c r="B154" s="101"/>
       <c r="C154" s="101"/>
@@ -21315,7 +21315,7 @@
       <c r="T154" s="76"/>
       <c r="U154" s="76"/>
     </row>
-    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="100"/>
       <c r="B155" s="101"/>
       <c r="C155" s="101"/>
@@ -21337,7 +21337,7 @@
       <c r="T155" s="76"/>
       <c r="U155" s="76"/>
     </row>
-    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="100"/>
       <c r="B156" s="101"/>
       <c r="C156" s="101"/>
@@ -21359,7 +21359,7 @@
       <c r="T156" s="76"/>
       <c r="U156" s="76"/>
     </row>
-    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="100"/>
       <c r="B157" s="101"/>
       <c r="C157" s="101"/>
@@ -21381,7 +21381,7 @@
       <c r="T157" s="76"/>
       <c r="U157" s="76"/>
     </row>
-    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="100"/>
       <c r="B158" s="101"/>
       <c r="C158" s="101"/>
@@ -21403,7 +21403,7 @@
       <c r="T158" s="76"/>
       <c r="U158" s="76"/>
     </row>
-    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="100"/>
       <c r="B159" s="101"/>
       <c r="C159" s="101"/>
@@ -21425,7 +21425,7 @@
       <c r="T159" s="76"/>
       <c r="U159" s="76"/>
     </row>
-    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="100"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -21447,7 +21447,7 @@
       <c r="T160" s="76"/>
       <c r="U160" s="76"/>
     </row>
-    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="100"/>
       <c r="B161" s="101"/>
       <c r="C161" s="101"/>
@@ -21469,7 +21469,7 @@
       <c r="T161" s="76"/>
       <c r="U161" s="76"/>
     </row>
-    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="100"/>
       <c r="B162" s="101"/>
       <c r="C162" s="101"/>
@@ -21491,7 +21491,7 @@
       <c r="T162" s="76"/>
       <c r="U162" s="76"/>
     </row>
-    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="100"/>
       <c r="B163" s="101"/>
       <c r="C163" s="101"/>
@@ -21513,7 +21513,7 @@
       <c r="T163" s="76"/>
       <c r="U163" s="76"/>
     </row>
-    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="100"/>
       <c r="B164" s="101"/>
       <c r="C164" s="101"/>
@@ -21535,7 +21535,7 @@
       <c r="T164" s="76"/>
       <c r="U164" s="76"/>
     </row>
-    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="100"/>
       <c r="B165" s="101"/>
       <c r="C165" s="101"/>
@@ -21557,7 +21557,7 @@
       <c r="T165" s="76"/>
       <c r="U165" s="76"/>
     </row>
-    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="100"/>
       <c r="B166" s="101"/>
       <c r="C166" s="101"/>
@@ -21579,7 +21579,7 @@
       <c r="T166" s="76"/>
       <c r="U166" s="76"/>
     </row>
-    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="100"/>
       <c r="B167" s="101"/>
       <c r="C167" s="101"/>
@@ -21601,7 +21601,7 @@
       <c r="T167" s="76"/>
       <c r="U167" s="76"/>
     </row>
-    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
@@ -21623,7 +21623,7 @@
       <c r="T168" s="76"/>
       <c r="U168" s="76"/>
     </row>
-    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="100"/>
       <c r="B169" s="101"/>
       <c r="C169" s="101"/>
@@ -21645,7 +21645,7 @@
       <c r="T169" s="76"/>
       <c r="U169" s="76"/>
     </row>
-    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="100"/>
       <c r="B170" s="101"/>
       <c r="C170" s="101"/>
@@ -21667,7 +21667,7 @@
       <c r="T170" s="76"/>
       <c r="U170" s="76"/>
     </row>
-    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="100"/>
       <c r="B171" s="101"/>
       <c r="C171" s="101"/>
@@ -21706,23 +21706,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="129" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="129" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -21766,7 +21766,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -21814,7 +21814,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -21865,7 +21865,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -21917,7 +21917,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -21967,7 +21967,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -22019,7 +22019,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -22069,7 +22069,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
@@ -22102,7 +22102,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -22135,7 +22135,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -22168,7 +22168,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -22201,7 +22201,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -22226,7 +22226,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -22251,7 +22251,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -22276,7 +22276,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -22301,7 +22301,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -22324,7 +22324,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -22347,7 +22347,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
@@ -22370,7 +22370,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -22393,7 +22393,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -22416,7 +22416,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -22439,7 +22439,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -22462,7 +22462,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
@@ -22485,7 +22485,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -22508,7 +22508,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
@@ -22531,7 +22531,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -22554,7 +22554,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="101"/>
       <c r="C27" s="101"/>
@@ -22577,7 +22577,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="101"/>
       <c r="C28" s="101"/>
@@ -22600,7 +22600,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -22623,7 +22623,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="100"/>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -22646,7 +22646,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="101"/>
       <c r="C31" s="101"/>
@@ -22669,7 +22669,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="101"/>
       <c r="C32" s="101"/>
@@ -22692,7 +22692,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="101"/>
       <c r="C33" s="101"/>
@@ -22715,7 +22715,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -22725,7 +22725,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -22735,7 +22735,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -22745,7 +22745,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -22772,12 +22772,12 @@
       <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>100</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -23070,7 +23070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -23460,7 +23460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -23559,7 +23559,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -23757,7 +23757,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>37</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>38</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>47</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -24413,7 +24413,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -24446,7 +24446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <v>55</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="53">
         <v>56</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>64</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>65</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>66</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>67</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>68</v>
       </c>
@@ -25003,7 +25003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>69</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>70</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="44">
         <v>71</v>
       </c>
@@ -25102,7 +25102,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="44">
         <v>72</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="44">
         <v>73</v>
       </c>
@@ -25168,7 +25168,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="44">
         <v>74</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>75</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>76</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
         <v>78</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -25362,7 +25362,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -25461,7 +25461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="50">
         <v>83</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="50">
         <v>84</v>
       </c>
@@ -25527,7 +25527,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="50">
         <v>85</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="50">
         <v>86</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="51">
         <v>87</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <v>88</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <v>89</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="51">
         <v>90</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>91</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>92</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>93</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>94</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842691CA-F1BE-4343-B713-9ACA760E2033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797CAE82-8EF6-4528-9854-8BD32F8D6432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="220">
   <si>
     <t>study</t>
   </si>
@@ -674,13 +674,19 @@
     <t>07</t>
   </si>
   <si>
-    <t>Mathematik</t>
-  </si>
-  <si>
     <t>Grundschule</t>
   </si>
   <si>
     <t>Gundschule</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t>GRW</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
   </si>
 </sst>
 </file>
@@ -2204,9 +2210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z567"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P119" sqref="P119"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q247" sqref="Q247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14868,7 +14874,7 @@
         <v>5</v>
       </c>
       <c r="O134" s="147" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P134" s="147">
         <v>0</v>
@@ -14957,7 +14963,7 @@
         <v>5</v>
       </c>
       <c r="O135" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P135" s="150">
         <v>0</v>
@@ -15051,7 +15057,7 @@
         <v>5</v>
       </c>
       <c r="O136" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P136" s="150">
         <v>0</v>
@@ -15145,7 +15151,7 @@
         <v>5</v>
       </c>
       <c r="O137" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P137" s="150">
         <v>0</v>
@@ -15240,7 +15246,7 @@
         <v>5</v>
       </c>
       <c r="O138" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P138" s="150">
         <v>0</v>
@@ -15335,7 +15341,7 @@
         <v>5</v>
       </c>
       <c r="O139" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P139" s="150">
         <v>0</v>
@@ -15429,7 +15435,7 @@
         <v>5</v>
       </c>
       <c r="O140" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P140" s="150">
         <v>0</v>
@@ -15524,7 +15530,7 @@
         <v>5</v>
       </c>
       <c r="O141" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P141" s="150">
         <v>0</v>
@@ -15619,7 +15625,7 @@
         <v>5</v>
       </c>
       <c r="O142" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P142" s="150">
         <v>0</v>
@@ -15712,7 +15718,7 @@
         <v>5</v>
       </c>
       <c r="O143" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P143" s="150">
         <v>0</v>
@@ -15805,7 +15811,7 @@
         <v>5</v>
       </c>
       <c r="O144" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P144" s="150">
         <v>0</v>
@@ -15898,7 +15904,7 @@
         <v>5</v>
       </c>
       <c r="O145" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P145" s="150">
         <v>0</v>
@@ -15990,7 +15996,7 @@
         <v>5</v>
       </c>
       <c r="O146" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P146" s="150">
         <v>0</v>
@@ -16082,7 +16088,7 @@
         <v>5</v>
       </c>
       <c r="O147" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P147" s="150">
         <v>0</v>
@@ -16174,7 +16180,7 @@
         <v>5</v>
       </c>
       <c r="O148" s="150" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P148" s="150">
         <v>0</v>
@@ -16262,8 +16268,8 @@
       <c r="N149" s="160">
         <v>5</v>
       </c>
-      <c r="O149" s="160" t="s">
-        <v>202</v>
+      <c r="O149" s="150" t="s">
+        <v>217</v>
       </c>
       <c r="P149" s="160">
         <v>0</v>
@@ -16349,10 +16355,10 @@
         <v>5</v>
       </c>
       <c r="O150" s="147" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="P150" s="147">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q150" s="152" t="s">
         <v>11</v>
@@ -16425,6 +16431,12 @@
       <c r="L151" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O151" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P151" s="150">
+        <v>29</v>
+      </c>
       <c r="Q151" s="157" t="s">
         <v>11</v>
       </c>
@@ -16496,6 +16508,12 @@
       <c r="L152" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O152" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P152" s="150">
+        <v>29</v>
+      </c>
       <c r="Q152" s="157" t="s">
         <v>11</v>
       </c>
@@ -16567,6 +16585,12 @@
       <c r="L153" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O153" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P153" s="150">
+        <v>29</v>
+      </c>
       <c r="Q153" s="157" t="s">
         <v>11</v>
       </c>
@@ -16638,6 +16662,12 @@
       <c r="L154" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O154" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P154" s="150">
+        <v>29</v>
+      </c>
       <c r="Q154" s="157" t="s">
         <v>11</v>
       </c>
@@ -16709,6 +16739,12 @@
       <c r="L155" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O155" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P155" s="150">
+        <v>29</v>
+      </c>
       <c r="Q155" s="157" t="s">
         <v>11</v>
       </c>
@@ -16780,6 +16816,12 @@
       <c r="L156" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O156" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P156" s="150">
+        <v>29</v>
+      </c>
       <c r="Q156" s="157" t="s">
         <v>11</v>
       </c>
@@ -16851,6 +16893,12 @@
       <c r="L157" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O157" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P157" s="150">
+        <v>29</v>
+      </c>
       <c r="Q157" s="157" t="s">
         <v>11</v>
       </c>
@@ -16922,6 +16970,12 @@
       <c r="L158" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O158" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P158" s="150">
+        <v>29</v>
+      </c>
       <c r="Q158" s="157" t="s">
         <v>11</v>
       </c>
@@ -16990,6 +17044,12 @@
       <c r="L159" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O159" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P159" s="150">
+        <v>29</v>
+      </c>
       <c r="Q159" s="157" t="s">
         <v>11</v>
       </c>
@@ -17058,6 +17118,12 @@
       <c r="L160" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O160" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P160" s="150">
+        <v>29</v>
+      </c>
       <c r="Q160" s="157" t="s">
         <v>11</v>
       </c>
@@ -17126,6 +17192,12 @@
       <c r="L161" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O161" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P161" s="150">
+        <v>29</v>
+      </c>
       <c r="Q161" s="157" t="s">
         <v>11</v>
       </c>
@@ -17194,6 +17266,12 @@
       <c r="L162" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O162" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P162" s="150">
+        <v>29</v>
+      </c>
       <c r="Q162" s="157" t="s">
         <v>11</v>
       </c>
@@ -17262,6 +17340,12 @@
       <c r="L163" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O163" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P163" s="150">
+        <v>29</v>
+      </c>
       <c r="Q163" s="157" t="s">
         <v>11</v>
       </c>
@@ -17330,6 +17414,12 @@
       <c r="L164" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O164" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P164" s="150">
+        <v>29</v>
+      </c>
       <c r="Q164" s="157" t="s">
         <v>11</v>
       </c>
@@ -17397,6 +17487,12 @@
       </c>
       <c r="L165" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="O165" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P165" s="150">
+        <v>29</v>
       </c>
       <c r="Q165" s="157" t="s">
         <v>11</v>
@@ -17474,7 +17570,7 @@
         <v>5</v>
       </c>
       <c r="O166" s="147" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="P166" s="147">
         <v>0</v>
@@ -17550,6 +17646,12 @@
       <c r="L167" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O167" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P167" s="150">
+        <v>0</v>
+      </c>
       <c r="Q167" s="157" t="s">
         <v>11</v>
       </c>
@@ -17621,6 +17723,12 @@
       <c r="L168" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O168" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P168" s="150">
+        <v>0</v>
+      </c>
       <c r="Q168" s="157" t="s">
         <v>11</v>
       </c>
@@ -17692,6 +17800,12 @@
       <c r="L169" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O169" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P169" s="150">
+        <v>0</v>
+      </c>
       <c r="Q169" s="157" t="s">
         <v>11</v>
       </c>
@@ -17763,6 +17877,12 @@
       <c r="L170" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O170" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P170" s="150">
+        <v>0</v>
+      </c>
       <c r="Q170" s="157" t="s">
         <v>11</v>
       </c>
@@ -17834,6 +17954,12 @@
       <c r="L171" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O171" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P171" s="150">
+        <v>0</v>
+      </c>
       <c r="Q171" s="157" t="s">
         <v>11</v>
       </c>
@@ -17905,6 +18031,12 @@
       <c r="L172" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O172" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P172" s="150">
+        <v>0</v>
+      </c>
       <c r="Q172" s="157" t="s">
         <v>11</v>
       </c>
@@ -17976,6 +18108,12 @@
       <c r="L173" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O173" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P173" s="150">
+        <v>0</v>
+      </c>
       <c r="Q173" s="157" t="s">
         <v>11</v>
       </c>
@@ -18047,6 +18185,12 @@
       <c r="L174" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O174" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P174" s="150">
+        <v>0</v>
+      </c>
       <c r="Q174" s="157" t="s">
         <v>11</v>
       </c>
@@ -18115,6 +18259,12 @@
       <c r="L175" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O175" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P175" s="150">
+        <v>0</v>
+      </c>
       <c r="Q175" s="157" t="s">
         <v>11</v>
       </c>
@@ -18183,6 +18333,12 @@
       <c r="L176" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O176" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P176" s="150">
+        <v>0</v>
+      </c>
       <c r="Q176" s="157" t="s">
         <v>11</v>
       </c>
@@ -18251,6 +18407,12 @@
       <c r="L177" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O177" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P177" s="150">
+        <v>0</v>
+      </c>
       <c r="Q177" s="157" t="s">
         <v>11</v>
       </c>
@@ -18319,6 +18481,12 @@
       <c r="L178" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O178" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P178" s="150">
+        <v>0</v>
+      </c>
       <c r="Q178" s="157" t="s">
         <v>11</v>
       </c>
@@ -18387,6 +18555,12 @@
       <c r="L179" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O179" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P179" s="150">
+        <v>0</v>
+      </c>
       <c r="Q179" s="157" t="s">
         <v>11</v>
       </c>
@@ -18455,6 +18629,12 @@
       <c r="L180" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O180" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P180" s="150">
+        <v>0</v>
+      </c>
       <c r="Q180" s="157" t="s">
         <v>11</v>
       </c>
@@ -18522,6 +18702,12 @@
       </c>
       <c r="L181" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="O181" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="P181" s="150">
+        <v>0</v>
       </c>
       <c r="Q181" s="157" t="s">
         <v>11</v>
@@ -18599,7 +18785,7 @@
         <v>5</v>
       </c>
       <c r="O182" s="147" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P182" s="147">
         <v>0</v>
@@ -18675,6 +18861,12 @@
       <c r="L183" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O183" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P183" s="150">
+        <v>0</v>
+      </c>
       <c r="Q183" s="157" t="s">
         <v>11</v>
       </c>
@@ -18746,6 +18938,12 @@
       <c r="L184" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O184" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P184" s="150">
+        <v>0</v>
+      </c>
       <c r="Q184" s="157" t="s">
         <v>11</v>
       </c>
@@ -18817,6 +19015,12 @@
       <c r="L185" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O185" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P185" s="150">
+        <v>0</v>
+      </c>
       <c r="Q185" s="157" t="s">
         <v>11</v>
       </c>
@@ -18888,6 +19092,12 @@
       <c r="L186" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O186" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P186" s="150">
+        <v>0</v>
+      </c>
       <c r="Q186" s="157" t="s">
         <v>11</v>
       </c>
@@ -18959,6 +19169,12 @@
       <c r="L187" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O187" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P187" s="150">
+        <v>0</v>
+      </c>
       <c r="Q187" s="157" t="s">
         <v>11</v>
       </c>
@@ -19030,6 +19246,12 @@
       <c r="L188" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O188" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P188" s="150">
+        <v>0</v>
+      </c>
       <c r="Q188" s="157" t="s">
         <v>11</v>
       </c>
@@ -19101,6 +19323,12 @@
       <c r="L189" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O189" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P189" s="150">
+        <v>0</v>
+      </c>
       <c r="Q189" s="157" t="s">
         <v>11</v>
       </c>
@@ -19172,6 +19400,12 @@
       <c r="L190" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O190" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P190" s="150">
+        <v>0</v>
+      </c>
       <c r="Q190" s="157" t="s">
         <v>11</v>
       </c>
@@ -19240,6 +19474,12 @@
       <c r="L191" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O191" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P191" s="150">
+        <v>0</v>
+      </c>
       <c r="Q191" s="157" t="s">
         <v>11</v>
       </c>
@@ -19308,6 +19548,12 @@
       <c r="L192" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O192" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P192" s="150">
+        <v>0</v>
+      </c>
       <c r="Q192" s="157" t="s">
         <v>11</v>
       </c>
@@ -19376,6 +19622,12 @@
       <c r="L193" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O193" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P193" s="150">
+        <v>0</v>
+      </c>
       <c r="Q193" s="157" t="s">
         <v>11</v>
       </c>
@@ -19444,6 +19696,12 @@
       <c r="L194" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O194" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P194" s="150">
+        <v>0</v>
+      </c>
       <c r="Q194" s="157" t="s">
         <v>11</v>
       </c>
@@ -19512,6 +19770,12 @@
       <c r="L195" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O195" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P195" s="150">
+        <v>0</v>
+      </c>
       <c r="Q195" s="157" t="s">
         <v>11</v>
       </c>
@@ -19580,6 +19844,12 @@
       <c r="L196" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="O196" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P196" s="150">
+        <v>0</v>
+      </c>
       <c r="Q196" s="157" t="s">
         <v>11</v>
       </c>
@@ -19647,6 +19917,12 @@
       </c>
       <c r="L197" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="O197" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P197" s="150">
+        <v>0</v>
       </c>
       <c r="Q197" s="157" t="s">
         <v>11</v>
@@ -19727,7 +20003,7 @@
         <v>202</v>
       </c>
       <c r="P198" s="147">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q198" s="152" t="s">
         <v>11</v>
@@ -19800,6 +20076,12 @@
       <c r="L199" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O199" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P199" s="3">
+        <v>32</v>
+      </c>
       <c r="Q199" s="157" t="s">
         <v>11</v>
       </c>
@@ -19871,6 +20153,12 @@
       <c r="L200" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O200" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P200" s="3">
+        <v>32</v>
+      </c>
       <c r="Q200" s="157" t="s">
         <v>11</v>
       </c>
@@ -19942,6 +20230,12 @@
       <c r="L201" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O201" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P201" s="3">
+        <v>32</v>
+      </c>
       <c r="Q201" s="157" t="s">
         <v>11</v>
       </c>
@@ -20013,6 +20307,12 @@
       <c r="L202" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O202" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P202" s="3">
+        <v>32</v>
+      </c>
       <c r="Q202" s="157" t="s">
         <v>11</v>
       </c>
@@ -20084,6 +20384,12 @@
       <c r="L203" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O203" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P203" s="3">
+        <v>32</v>
+      </c>
       <c r="Q203" s="157" t="s">
         <v>11</v>
       </c>
@@ -20155,6 +20461,12 @@
       <c r="L204" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O204" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P204" s="3">
+        <v>32</v>
+      </c>
       <c r="Q204" s="157" t="s">
         <v>11</v>
       </c>
@@ -20226,6 +20538,12 @@
       <c r="L205" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O205" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P205" s="3">
+        <v>32</v>
+      </c>
       <c r="Q205" s="157" t="s">
         <v>11</v>
       </c>
@@ -20297,6 +20615,12 @@
       <c r="L206" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O206" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P206" s="3">
+        <v>32</v>
+      </c>
       <c r="Q206" s="157" t="s">
         <v>11</v>
       </c>
@@ -20356,7 +20680,7 @@
         <v>120</v>
       </c>
       <c r="J207" s="150" t="str">
-        <f t="shared" ref="J207:J211" si="536">CONCATENATE(C207,"_",D207,"_",E207,"_",F207,"_",H207)</f>
+        <f t="shared" ref="J207:J210" si="536">CONCATENATE(C207,"_",D207,"_",E207,"_",F207,"_",H207)</f>
         <v>ProVisioNET_study_202_02_glasses</v>
       </c>
       <c r="K207" s="156" t="s">
@@ -20364,6 +20688,12 @@
       </c>
       <c r="L207" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P207" s="3">
+        <v>32</v>
       </c>
       <c r="Q207" s="157" t="s">
         <v>11</v>
@@ -20433,6 +20763,12 @@
       <c r="L208" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O208" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P208" s="3">
+        <v>32</v>
+      </c>
       <c r="Q208" s="157" t="s">
         <v>11</v>
       </c>
@@ -20501,6 +20837,12 @@
       <c r="L209" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O209" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P209" s="3">
+        <v>32</v>
+      </c>
       <c r="Q209" s="157" t="s">
         <v>11</v>
       </c>
@@ -20569,6 +20911,12 @@
       <c r="L210" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O210" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P210" s="3">
+        <v>32</v>
+      </c>
       <c r="Q210" s="157" t="s">
         <v>11</v>
       </c>
@@ -20640,6 +20988,12 @@
       <c r="L211" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O211" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P211" s="3">
+        <v>32</v>
+      </c>
       <c r="Q211" s="157" t="s">
         <v>11</v>
       </c>
@@ -20711,6 +21065,12 @@
       <c r="L212" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O212" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P212" s="3">
+        <v>32</v>
+      </c>
       <c r="Q212" s="157" t="s">
         <v>11</v>
       </c>
@@ -20779,6 +21139,12 @@
       <c r="L213" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="O213" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P213" s="3">
+        <v>32</v>
+      </c>
       <c r="Q213" s="157" t="s">
         <v>11</v>
       </c>
@@ -20846,6 +21212,12 @@
       </c>
       <c r="L214" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P214" s="3">
+        <v>32</v>
       </c>
       <c r="Q214" s="157" t="s">
         <v>11</v>
@@ -20917,16 +21289,16 @@
         <v>179</v>
       </c>
       <c r="M215" s="147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N215" s="147">
         <v>3</v>
       </c>
       <c r="O215" s="147" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P215" s="147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q215" s="152" t="s">
         <v>11</v>
@@ -21000,13 +21372,16 @@
         <v>179</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N216" s="3">
         <v>3</v>
       </c>
       <c r="O216" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P216" s="3">
+        <v>3</v>
       </c>
       <c r="Q216" s="157" t="s">
         <v>11</v>
@@ -21080,13 +21455,16 @@
         <v>179</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N217" s="3">
         <v>3</v>
       </c>
       <c r="O217" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P217" s="3">
+        <v>3</v>
       </c>
       <c r="Q217" s="157" t="s">
         <v>11</v>
@@ -21160,13 +21538,16 @@
         <v>179</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N218" s="3">
         <v>3</v>
       </c>
       <c r="O218" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P218" s="3">
+        <v>3</v>
       </c>
       <c r="Q218" s="157" t="s">
         <v>11</v>
@@ -21240,13 +21621,16 @@
         <v>179</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N219" s="3">
         <v>3</v>
       </c>
       <c r="O219" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P219" s="3">
+        <v>3</v>
       </c>
       <c r="Q219" s="157" t="s">
         <v>11</v>
@@ -21320,13 +21704,16 @@
         <v>179</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N220" s="3">
         <v>3</v>
       </c>
       <c r="O220" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P220" s="3">
+        <v>3</v>
       </c>
       <c r="Q220" s="157" t="s">
         <v>11</v>
@@ -21400,13 +21787,16 @@
         <v>179</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N221" s="3">
         <v>3</v>
       </c>
       <c r="O221" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P221" s="3">
+        <v>3</v>
       </c>
       <c r="Q221" s="157" t="s">
         <v>11</v>
@@ -21480,13 +21870,16 @@
         <v>179</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N222" s="3">
         <v>3</v>
       </c>
       <c r="O222" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P222" s="3">
+        <v>3</v>
       </c>
       <c r="Q222" s="157" t="s">
         <v>11</v>
@@ -21560,13 +21953,16 @@
         <v>179</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N223" s="3">
         <v>3</v>
       </c>
       <c r="O223" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P223" s="3">
+        <v>3</v>
       </c>
       <c r="Q223" s="157" t="s">
         <v>11</v>
@@ -21637,13 +22033,16 @@
         <v>179</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N224" s="3">
         <v>3</v>
       </c>
       <c r="O224" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P224" s="3">
+        <v>3</v>
       </c>
       <c r="Q224" s="157" t="s">
         <v>11</v>
@@ -21714,13 +22113,16 @@
         <v>179</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N225" s="3">
         <v>3</v>
       </c>
       <c r="O225" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P225" s="3">
+        <v>3</v>
       </c>
       <c r="Q225" s="157" t="s">
         <v>11</v>
@@ -21791,13 +22193,16 @@
         <v>179</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N226" s="3">
         <v>3</v>
       </c>
       <c r="O226" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P226" s="3">
+        <v>3</v>
       </c>
       <c r="Q226" s="157" t="s">
         <v>11</v>
@@ -21868,13 +22273,16 @@
         <v>179</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N227" s="3">
         <v>3</v>
       </c>
       <c r="O227" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P227" s="3">
+        <v>3</v>
       </c>
       <c r="Q227" s="157" t="s">
         <v>11</v>
@@ -21945,13 +22353,16 @@
         <v>179</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N228" s="3">
         <v>3</v>
       </c>
       <c r="O228" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P228" s="3">
+        <v>3</v>
       </c>
       <c r="Q228" s="157" t="s">
         <v>11</v>
@@ -22022,13 +22433,16 @@
         <v>179</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N229" s="3">
         <v>3</v>
       </c>
       <c r="O229" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P229" s="3">
+        <v>3</v>
       </c>
       <c r="Q229" s="157" t="s">
         <v>11</v>
@@ -22099,13 +22513,16 @@
         <v>179</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N230" s="3">
         <v>3</v>
       </c>
       <c r="O230" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="P230" s="3">
+        <v>3</v>
       </c>
       <c r="Q230" s="157" t="s">
         <v>11</v>
@@ -22183,7 +22600,7 @@
         <v>7</v>
       </c>
       <c r="O231" s="147" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P231" s="147">
         <v>0</v>
@@ -22266,7 +22683,7 @@
         <v>7</v>
       </c>
       <c r="O232" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P232" s="3">
         <v>0</v>
@@ -22349,7 +22766,7 @@
         <v>7</v>
       </c>
       <c r="O233" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P233" s="3">
         <v>0</v>
@@ -22432,7 +22849,7 @@
         <v>7</v>
       </c>
       <c r="O234" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P234" s="3">
         <v>0</v>
@@ -22515,7 +22932,7 @@
         <v>7</v>
       </c>
       <c r="O235" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P235" s="3">
         <v>0</v>
@@ -22598,7 +23015,7 @@
         <v>7</v>
       </c>
       <c r="O236" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P236" s="3">
         <v>0</v>
@@ -22681,7 +23098,7 @@
         <v>7</v>
       </c>
       <c r="O237" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P237" s="3">
         <v>0</v>
@@ -22764,7 +23181,7 @@
         <v>7</v>
       </c>
       <c r="O238" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P238" s="3">
         <v>0</v>
@@ -22847,7 +23264,7 @@
         <v>7</v>
       </c>
       <c r="O239" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P239" s="3">
         <v>0</v>
@@ -22927,7 +23344,7 @@
         <v>7</v>
       </c>
       <c r="O240" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P240" s="3">
         <v>0</v>
@@ -23007,7 +23424,7 @@
         <v>7</v>
       </c>
       <c r="O241" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P241" s="3">
         <v>0</v>
@@ -23087,7 +23504,7 @@
         <v>7</v>
       </c>
       <c r="O242" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P242" s="3">
         <v>0</v>
@@ -23167,7 +23584,7 @@
         <v>7</v>
       </c>
       <c r="O243" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P243" s="3">
         <v>0</v>
@@ -23247,7 +23664,7 @@
         <v>7</v>
       </c>
       <c r="O244" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P244" s="3">
         <v>0</v>
@@ -23327,7 +23744,7 @@
         <v>7</v>
       </c>
       <c r="O245" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P245" s="3">
         <v>0</v>
@@ -23407,7 +23824,7 @@
         <v>7</v>
       </c>
       <c r="O246" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P246" s="3">
         <v>0</v>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797CAE82-8EF6-4528-9854-8BD32F8D6432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D9B8A3-92BB-4BD8-9DC5-E87275D42FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="224">
   <si>
     <t>study</t>
   </si>
@@ -563,9 +563,6 @@
     <t>pilot</t>
   </si>
   <si>
-    <t xml:space="preserve">script </t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -687,6 +684,21 @@
   </si>
   <si>
     <t>Mathematics</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>script</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1449,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1810,6 +1822,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2210,9 +2225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q247" sqref="Q247"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V264" sqref="V264:V278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,16 +2277,16 @@
         <v>126</v>
       </c>
       <c r="F1" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="70" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>178</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>118</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J1" s="120" t="s">
         <v>19</v>
@@ -2286,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="N1" s="72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O1" s="72" t="s">
         <v>25</v>
@@ -2359,16 +2374,16 @@
         <v>115</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N2" s="63">
         <v>5</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P2" s="63">
         <v>0</v>
@@ -2444,19 +2459,19 @@
         <v>ProVisioNET_pilot_01_01_cam1_1</v>
       </c>
       <c r="K3" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N3" s="62">
         <v>5</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P3" s="62">
         <v>0</v>
@@ -2540,19 +2555,19 @@
         <v>ProVisioNET_pilot_01_01_cam1_2</v>
       </c>
       <c r="K4" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L4" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N4" s="62">
         <v>5</v>
       </c>
       <c r="O4" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P4" s="62">
         <v>0</v>
@@ -2636,19 +2651,19 @@
         <v>ProVisioNET_pilot_01_01_cam2_1</v>
       </c>
       <c r="K5" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N5" s="62">
         <v>5</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P5" s="62">
         <v>0</v>
@@ -2732,19 +2747,19 @@
         <v>ProVisioNET_pilot_01_01_cam2_2</v>
       </c>
       <c r="K6" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N6" s="62">
         <v>5</v>
       </c>
       <c r="O6" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" s="62">
         <v>0</v>
@@ -2828,19 +2843,19 @@
         <v>ProVisioNET_pilot_01_01_cam3_1</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N7" s="62">
         <v>5</v>
       </c>
       <c r="O7" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P7" s="62">
         <v>0</v>
@@ -2924,19 +2939,19 @@
         <v>ProVisioNET_pilot_01_01_cam3_2</v>
       </c>
       <c r="K8" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N8" s="62">
         <v>5</v>
       </c>
       <c r="O8" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P8" s="62">
         <v>0</v>
@@ -3020,19 +3035,19 @@
         <v>ProVisioNET_pilot_01_01_cam4_1</v>
       </c>
       <c r="K9" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N9" s="62">
         <v>5</v>
       </c>
       <c r="O9" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9" s="62">
         <v>0</v>
@@ -3116,19 +3131,19 @@
         <v>ProVisioNET_pilot_01_01_cam4_2</v>
       </c>
       <c r="K10" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N10" s="62">
         <v>5</v>
       </c>
       <c r="O10" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P10" s="62">
         <v>0</v>
@@ -3210,19 +3225,19 @@
         <v>ProVisioNET_pilot_01_01_glasses</v>
       </c>
       <c r="K11" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N11" s="62">
         <v>5</v>
       </c>
       <c r="O11" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P11" s="62">
         <v>0</v>
@@ -3304,19 +3319,19 @@
         <v>ProVisioNET_pilot_01_01_ambient</v>
       </c>
       <c r="K12" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N12" s="62">
         <v>5</v>
       </c>
       <c r="O12" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P12" s="62">
         <v>0</v>
@@ -3398,19 +3413,19 @@
         <v>ProVisioNET_pilot_01_01_ETrawdata</v>
       </c>
       <c r="K13" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M13" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N13" s="62">
         <v>5</v>
       </c>
       <c r="O13" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P13" s="62">
         <v>0</v>
@@ -3484,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62" t="str">
@@ -3492,19 +3507,19 @@
         <v>ProVisioNET_pilot_01_01_sri_cam4</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M14" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N14" s="62">
         <v>5</v>
       </c>
       <c r="O14" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="62">
         <v>0</v>
@@ -3572,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62" t="str">
@@ -3580,19 +3595,19 @@
         <v>ProVisioNET_pilot_01_01_sri_ambient</v>
       </c>
       <c r="K15" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N15" s="62">
         <v>5</v>
       </c>
       <c r="O15" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P15" s="62">
         <v>0</v>
@@ -3671,16 +3686,16 @@
         <v>115</v>
       </c>
       <c r="L16" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M16" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N16" s="63">
         <v>12</v>
       </c>
       <c r="O16" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P16" s="63">
         <v>0</v>
@@ -3756,19 +3771,19 @@
         <v>ProVisioNET_pilot_02_02_cam1_1</v>
       </c>
       <c r="K17" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N17" s="62">
         <v>12</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P17" s="62">
         <v>0</v>
@@ -3852,19 +3867,19 @@
         <v>ProVisioNET_pilot_02_02_cam1_2</v>
       </c>
       <c r="K18" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M18" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N18" s="62">
         <v>12</v>
       </c>
       <c r="O18" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P18" s="62">
         <v>0</v>
@@ -3948,19 +3963,19 @@
         <v>ProVisioNET_pilot_02_02_cam2_1</v>
       </c>
       <c r="K19" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M19" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N19" s="62">
         <v>12</v>
       </c>
       <c r="O19" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P19" s="62">
         <v>0</v>
@@ -4044,19 +4059,19 @@
         <v>ProVisioNET_pilot_02_02_cam2_2</v>
       </c>
       <c r="K20" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M20" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N20" s="62">
         <v>12</v>
       </c>
       <c r="O20" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P20" s="62">
         <v>0</v>
@@ -4140,19 +4155,19 @@
         <v>ProVisioNET_pilot_02_02_cam3_1</v>
       </c>
       <c r="K21" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M21" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N21" s="62">
         <v>12</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P21" s="62">
         <v>0</v>
@@ -4236,19 +4251,19 @@
         <v>ProVisioNET_pilot_02_02_cam3_2</v>
       </c>
       <c r="K22" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M22" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N22" s="62">
         <v>12</v>
       </c>
       <c r="O22" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P22" s="62">
         <v>0</v>
@@ -4332,19 +4347,19 @@
         <v>ProVisioNET_pilot_02_02_cam4_1</v>
       </c>
       <c r="K23" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M23" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N23" s="62">
         <v>12</v>
       </c>
       <c r="O23" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P23" s="62">
         <v>0</v>
@@ -4428,19 +4443,19 @@
         <v>ProVisioNET_pilot_02_02_cam4_2</v>
       </c>
       <c r="K24" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L24" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M24" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N24" s="62">
         <v>12</v>
       </c>
       <c r="O24" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P24" s="62">
         <v>0</v>
@@ -4522,7 +4537,7 @@
         <v>ProVisioNET_pilot_02_02_glasses</v>
       </c>
       <c r="K25" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L25" s="62" t="str">
         <f>L24</f>
@@ -4536,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P25" s="62">
         <f t="shared" ref="P25:Z25" si="52">P24</f>
@@ -4619,7 +4634,7 @@
         <v>ProVisioNET_pilot_02_02_ambient</v>
       </c>
       <c r="K26" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L26" s="62" t="str">
         <f t="shared" ref="L26:M26" si="55">L25</f>
@@ -4633,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P26" s="62">
         <f t="shared" ref="P26:Z26" si="56">P25</f>
@@ -4716,7 +4731,7 @@
         <v>ProVisioNET_pilot_02_02_ETrawdata</v>
       </c>
       <c r="K27" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L27" s="62" t="str">
         <f t="shared" ref="L27:M27" si="59">L26</f>
@@ -4730,7 +4745,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P27" s="62">
         <f t="shared" ref="P27:Z27" si="60">P26</f>
@@ -4793,7 +4808,7 @@
         <v>pilot</v>
       </c>
       <c r="E28" s="125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="62">
         <v>2</v>
@@ -4802,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="62" t="str">
@@ -4810,10 +4825,10 @@
         <v>ProVisioNET_pilot_02 _2_sri_obs</v>
       </c>
       <c r="K28" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M28" s="62" t="str">
         <f t="shared" ref="M28" si="62">M27</f>
@@ -4823,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="O28" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P28" s="62">
         <f t="shared" ref="P28:Z28" si="63">P27</f>
@@ -4896,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="62" t="str">
@@ -4904,10 +4919,10 @@
         <v>ProVisioNET_pilot_02_2_sri_ambient</v>
       </c>
       <c r="K29" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M29" s="62" t="str">
         <f t="shared" ref="M29" si="65">M28</f>
@@ -4917,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="O29" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P29" s="62">
         <f t="shared" ref="P29:Z29" si="66">P28</f>
@@ -4998,16 +5013,16 @@
         <v>115</v>
       </c>
       <c r="L30" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M30" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N30" s="63">
         <v>5</v>
       </c>
       <c r="O30" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P30" s="63">
         <v>0</v>
@@ -5083,19 +5098,19 @@
         <v>ProVisioNET_pilot_03_03_cam1_1</v>
       </c>
       <c r="K31" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L31" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M31" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N31" s="62">
         <v>5</v>
       </c>
       <c r="O31" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P31" s="62">
         <v>0</v>
@@ -5179,19 +5194,19 @@
         <v>ProVisioNET_pilot_03_03_cam1_2</v>
       </c>
       <c r="K32" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L32" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M32" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N32" s="62">
         <v>5</v>
       </c>
       <c r="O32" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P32" s="62">
         <v>0</v>
@@ -5275,19 +5290,19 @@
         <v>ProVisioNET_pilot_03_03_cam2_1</v>
       </c>
       <c r="K33" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M33" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N33" s="62">
         <v>5</v>
       </c>
       <c r="O33" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P33" s="62">
         <v>0</v>
@@ -5371,19 +5386,19 @@
         <v>ProVisioNET_pilot_03_03_cam2_2</v>
       </c>
       <c r="K34" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M34" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N34" s="62">
         <v>5</v>
       </c>
       <c r="O34" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P34" s="62">
         <v>0</v>
@@ -5467,19 +5482,19 @@
         <v>ProVisioNET_pilot_03_03_cam3_1</v>
       </c>
       <c r="K35" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M35" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N35" s="62">
         <v>5</v>
       </c>
       <c r="O35" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P35" s="62">
         <v>0</v>
@@ -5563,19 +5578,19 @@
         <v>ProVisioNET_pilot_03_03_cam3_2</v>
       </c>
       <c r="K36" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M36" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N36" s="62">
         <v>5</v>
       </c>
       <c r="O36" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P36" s="62">
         <v>0</v>
@@ -5659,19 +5674,19 @@
         <v>ProVisioNET_pilot_03_03_cam4_1</v>
       </c>
       <c r="K37" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L37" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M37" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N37" s="62">
         <v>5</v>
       </c>
       <c r="O37" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P37" s="62">
         <v>0</v>
@@ -5755,19 +5770,19 @@
         <v>ProVisioNET_pilot_03_03_cam4_2</v>
       </c>
       <c r="K38" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L38" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M38" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N38" s="62">
         <v>5</v>
       </c>
       <c r="O38" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P38" s="62">
         <v>0</v>
@@ -5849,20 +5864,20 @@
         <v>ProVisioNET_pilot_03_03_glasses</v>
       </c>
       <c r="K39" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L39" s="62" t="str">
         <f t="shared" ref="L39" si="94">L37</f>
         <v>f</v>
       </c>
       <c r="M39" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N39" s="62">
         <v>5</v>
       </c>
       <c r="O39" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P39" s="62">
         <f t="shared" ref="P39:Z39" si="95">P37</f>
@@ -5945,20 +5960,20 @@
         <v>ProVisioNET_pilot_03_03_ambient</v>
       </c>
       <c r="K40" s="136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L40" s="62" t="str">
         <f t="shared" ref="L40" si="99">L39</f>
         <v>f</v>
       </c>
       <c r="M40" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N40" s="62">
         <v>5</v>
       </c>
       <c r="O40" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P40" s="62">
         <f t="shared" ref="P40:Z40" si="100">P39</f>
@@ -6041,20 +6056,20 @@
         <v>ProVisioNET_pilot_03_03_ETrawdata</v>
       </c>
       <c r="K41" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L41" s="62" t="str">
         <f t="shared" ref="L41" si="103">L40</f>
         <v>f</v>
       </c>
       <c r="M41" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N41" s="62">
         <v>5</v>
       </c>
       <c r="O41" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P41" s="62">
         <f t="shared" ref="P41:Z41" si="104">P40</f>
@@ -6127,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I42" s="62"/>
       <c r="J42" s="62" t="str">
@@ -6135,19 +6150,19 @@
         <v>ProVisioNET_pilot_03_03_sri_obs</v>
       </c>
       <c r="K42" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L42" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M42" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N42" s="62">
         <v>5</v>
       </c>
       <c r="O42" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P42" s="62">
         <f t="shared" ref="P42:Z42" si="107">P41</f>
@@ -6220,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I43" s="62"/>
       <c r="J43" s="62" t="str">
@@ -6228,19 +6243,19 @@
         <v>ProVisioNET_pilot_03_03_sri_ambient</v>
       </c>
       <c r="K43" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L43" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M43" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N43" s="62">
         <v>5</v>
       </c>
       <c r="O43" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P43" s="62">
         <f t="shared" ref="P43:Z43" si="110">P42</f>
@@ -6321,16 +6336,16 @@
         <v>115</v>
       </c>
       <c r="L44" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M44" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N44" s="63">
         <v>6</v>
       </c>
       <c r="O44" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P44" s="63">
         <v>0</v>
@@ -6406,7 +6421,7 @@
         <v>ProVisioNET_pilot_04_04_cam1_1</v>
       </c>
       <c r="K45" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L45" s="62" t="str">
         <f t="shared" ref="L45:M45" si="113">L44</f>
@@ -6420,7 +6435,7 @@
         <v>6</v>
       </c>
       <c r="O45" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P45" s="62">
         <f t="shared" ref="P45:Z45" si="114">P44</f>
@@ -6505,7 +6520,7 @@
         <v>ProVisioNET_pilot_04_04_cam1_2</v>
       </c>
       <c r="K46" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L46" s="62" t="str">
         <f t="shared" ref="L46:M46" si="117">L45</f>
@@ -6519,7 +6534,7 @@
         <v>6</v>
       </c>
       <c r="O46" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P46" s="62">
         <f t="shared" ref="P46:Z46" si="118">P45</f>
@@ -6604,7 +6619,7 @@
         <v>ProVisioNET_pilot_04_04_cam2_1</v>
       </c>
       <c r="K47" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" s="62" t="str">
         <f t="shared" ref="L47:M47" si="122">L46</f>
@@ -6618,7 +6633,7 @@
         <v>6</v>
       </c>
       <c r="O47" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P47" s="62">
         <f t="shared" ref="P47:Z47" si="123">P46</f>
@@ -6703,7 +6718,7 @@
         <v>ProVisioNET_pilot_04_04_cam2_2</v>
       </c>
       <c r="K48" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" s="62" t="str">
         <f t="shared" ref="L48:M48" si="127">L47</f>
@@ -6717,7 +6732,7 @@
         <v>6</v>
       </c>
       <c r="O48" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P48" s="62">
         <f t="shared" ref="P48:Z48" si="128">P47</f>
@@ -6802,7 +6817,7 @@
         <v>ProVisioNET_pilot_04_04_cam3_1</v>
       </c>
       <c r="K49" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L49" s="62" t="str">
         <f t="shared" ref="L49:M49" si="132">L48</f>
@@ -6816,7 +6831,7 @@
         <v>6</v>
       </c>
       <c r="O49" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P49" s="62">
         <f t="shared" ref="P49:Z49" si="133">P48</f>
@@ -6901,10 +6916,10 @@
         <v>ProVisioNET_pilot_04_04_cam3_2</v>
       </c>
       <c r="K50" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L50" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M50" s="62" t="str">
         <f t="shared" ref="M50" si="137">M49</f>
@@ -6914,7 +6929,7 @@
         <v>6</v>
       </c>
       <c r="O50" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P50" s="62">
         <v>0</v>
@@ -6994,10 +7009,10 @@
         <v>ProVisioNET_pilot_04_04_cam4_1</v>
       </c>
       <c r="K51" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L51" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M51" s="62" t="str">
         <f t="shared" ref="M51" si="143">M50</f>
@@ -7007,7 +7022,7 @@
         <v>6</v>
       </c>
       <c r="O51" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P51" s="62">
         <v>0</v>
@@ -7091,10 +7106,10 @@
         <v>ProVisioNET_pilot_04_04_cam4_2</v>
       </c>
       <c r="K52" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M52" s="62" t="str">
         <f t="shared" ref="M52" si="149">M51</f>
@@ -7104,7 +7119,7 @@
         <v>6</v>
       </c>
       <c r="O52" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P52" s="62">
         <v>0</v>
@@ -7186,10 +7201,10 @@
         <v>ProVisioNET_pilot_04_04_glasses</v>
       </c>
       <c r="K53" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L53" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M53" s="62" t="str">
         <f t="shared" ref="M53" si="156">M52</f>
@@ -7199,7 +7214,7 @@
         <v>6</v>
       </c>
       <c r="O53" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P53" s="62">
         <f t="shared" ref="P53" si="157">P49</f>
@@ -7282,10 +7297,10 @@
         <v>ProVisioNET_pilot_04_04_ambient</v>
       </c>
       <c r="K54" s="136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L54" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M54" s="62" t="str">
         <f t="shared" ref="M54" si="163">M53</f>
@@ -7295,7 +7310,7 @@
         <v>6</v>
       </c>
       <c r="O54" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P54" s="62">
         <v>0</v>
@@ -7377,10 +7392,10 @@
         <v>ProVisioNET_pilot_04_04_ETrawdata</v>
       </c>
       <c r="K55" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L55" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M55" s="62" t="str">
         <f t="shared" ref="M55" si="169">M54</f>
@@ -7390,7 +7405,7 @@
         <v>6</v>
       </c>
       <c r="O55" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P55" s="62">
         <f t="shared" ref="P55:V55" si="170">P53</f>
@@ -7463,7 +7478,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="62" t="str">
@@ -7471,7 +7486,7 @@
         <v>ProVisioNET_pilot_04_04_sri_obs</v>
       </c>
       <c r="K56" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L56" s="62" t="str">
         <f t="shared" ref="L56:M56" si="174">L55</f>
@@ -7485,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="O56" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P56" s="62">
         <f t="shared" ref="P56:Z56" si="175">P55</f>
@@ -7559,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="62" t="str">
@@ -7567,7 +7582,7 @@
         <v>ProVisioNET_pilot_04_04_sri_ambient</v>
       </c>
       <c r="K57" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L57" s="62" t="str">
         <f t="shared" ref="L57:M57" si="177">L56</f>
@@ -7581,7 +7596,7 @@
         <v>6</v>
       </c>
       <c r="O57" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P57" s="62">
         <f t="shared" ref="P57:Z57" si="178">P56</f>
@@ -7662,16 +7677,16 @@
         <v>115</v>
       </c>
       <c r="L58" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M58" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N58" s="63">
         <v>8</v>
       </c>
       <c r="O58" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P58" s="63">
         <v>0</v>
@@ -7747,7 +7762,7 @@
         <v>ProVisioNET_pilot_05_05_cam1_1</v>
       </c>
       <c r="K59" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L59" s="62" t="str">
         <f t="shared" ref="L59:M66" si="181">L58</f>
@@ -7761,7 +7776,7 @@
         <v>8</v>
       </c>
       <c r="O59" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P59" s="62">
         <f t="shared" ref="P59" si="182">P58</f>
@@ -7846,7 +7861,7 @@
         <v>ProVisioNET_pilot_05_05_cam1_2</v>
       </c>
       <c r="K60" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L60" s="62" t="str">
         <f t="shared" si="181"/>
@@ -7860,7 +7875,7 @@
         <v>8</v>
       </c>
       <c r="O60" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P60" s="62">
         <f t="shared" ref="P60" si="186">P59</f>
@@ -7945,7 +7960,7 @@
         <v>ProVisioNET_pilot_05_05_cam2_1</v>
       </c>
       <c r="K61" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" s="62" t="str">
         <f t="shared" ref="L61:M61" si="190">L59</f>
@@ -7959,7 +7974,7 @@
         <v>8</v>
       </c>
       <c r="O61" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P61" s="62">
         <f t="shared" ref="P61" si="191">P60</f>
@@ -8044,7 +8059,7 @@
         <v>ProVisioNET_pilot_05_05_cam2_2</v>
       </c>
       <c r="K62" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L62" s="62" t="str">
         <f t="shared" si="181"/>
@@ -8058,7 +8073,7 @@
         <v>8</v>
       </c>
       <c r="O62" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P62" s="62">
         <f t="shared" ref="P62" si="195">P61</f>
@@ -8143,7 +8158,7 @@
         <v>ProVisioNET_pilot_05_05_cam3_1</v>
       </c>
       <c r="K63" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L63" s="62" t="str">
         <f t="shared" ref="L63:M63" si="198">L61</f>
@@ -8157,7 +8172,7 @@
         <v>8</v>
       </c>
       <c r="O63" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P63" s="62">
         <f t="shared" ref="P63" si="199">P62</f>
@@ -8242,7 +8257,7 @@
         <v>ProVisioNET_pilot_05_05_cam3_2</v>
       </c>
       <c r="K64" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L64" s="62" t="str">
         <f t="shared" si="181"/>
@@ -8256,7 +8271,7 @@
         <v>8</v>
       </c>
       <c r="O64" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P64" s="62">
         <v>0</v>
@@ -8340,7 +8355,7 @@
         <v>ProVisioNET_pilot_05_05_cam4_1</v>
       </c>
       <c r="K65" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L65" s="62" t="str">
         <f t="shared" ref="L65:M65" si="205">L63</f>
@@ -8354,7 +8369,7 @@
         <v>8</v>
       </c>
       <c r="O65" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P65" s="62">
         <v>0</v>
@@ -8438,7 +8453,7 @@
         <v>ProVisioNET_pilot_05_05_cam4_2</v>
       </c>
       <c r="K66" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L66" s="62" t="str">
         <f t="shared" si="181"/>
@@ -8452,7 +8467,7 @@
         <v>8</v>
       </c>
       <c r="O66" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P66" s="62">
         <v>0</v>
@@ -8534,7 +8549,7 @@
         <v>ProVisioNET_pilot_05_05_glasses</v>
       </c>
       <c r="K67" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L67" s="62" t="str">
         <f>L65</f>
@@ -8548,7 +8563,7 @@
         <v>8</v>
       </c>
       <c r="O67" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P67" s="62">
         <f t="shared" ref="P67" si="212">P63</f>
@@ -8631,7 +8646,7 @@
         <v>ProVisioNET_pilot_05_05_ambient</v>
       </c>
       <c r="K68" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L68" s="62" t="str">
         <f>L67</f>
@@ -8645,7 +8660,7 @@
         <v>8</v>
       </c>
       <c r="O68" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P68" s="62">
         <v>0</v>
@@ -8727,7 +8742,7 @@
         <v>ProVisioNET_pilot_05_05_ETrawdata</v>
       </c>
       <c r="K69" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L69" s="62" t="str">
         <f t="shared" ref="L69:M69" si="219">L68</f>
@@ -8741,7 +8756,7 @@
         <v>8</v>
       </c>
       <c r="O69" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P69" s="62">
         <f t="shared" ref="P69" si="220">P67</f>
@@ -8815,7 +8830,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I70" s="62"/>
       <c r="J70" s="62" t="str">
@@ -8823,7 +8838,7 @@
         <v>ProVisioNET_pilot_05_05_sri_obs</v>
       </c>
       <c r="K70" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L70" s="62" t="str">
         <f t="shared" ref="L70:M70" si="224">L69</f>
@@ -8837,7 +8852,7 @@
         <v>8</v>
       </c>
       <c r="O70" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P70" s="62">
         <f t="shared" ref="P70:Z70" si="225">P69</f>
@@ -8911,7 +8926,7 @@
         <v>5</v>
       </c>
       <c r="H71" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I71" s="62"/>
       <c r="J71" s="62" t="str">
@@ -8919,7 +8934,7 @@
         <v>ProVisioNET_pilot_05_05_sri_ambient</v>
       </c>
       <c r="K71" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L71" s="62" t="str">
         <f t="shared" ref="L71:M71" si="227">L70</f>
@@ -8933,7 +8948,7 @@
         <v>8</v>
       </c>
       <c r="O71" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P71" s="62">
         <f t="shared" ref="P71:Z71" si="228">P70</f>
@@ -9014,16 +9029,16 @@
         <v>115</v>
       </c>
       <c r="L72" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M72" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N72" s="63">
         <v>5</v>
       </c>
       <c r="O72" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P72" s="63">
         <v>0</v>
@@ -9099,7 +9114,7 @@
         <v>ProVisioNET_pilot_06_06_cam1_1</v>
       </c>
       <c r="K73" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L73" s="62" t="str">
         <f t="shared" ref="L73" si="232">L72</f>
@@ -9113,7 +9128,7 @@
         <v>5</v>
       </c>
       <c r="O73" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P73" s="62">
         <f t="shared" ref="P73" si="234">P72</f>
@@ -9198,7 +9213,7 @@
         <v>ProVisioNET_pilot_06_06_cam1_2</v>
       </c>
       <c r="K74" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" s="62" t="str">
         <f t="shared" ref="L74" si="238">L73</f>
@@ -9212,7 +9227,7 @@
         <v>5</v>
       </c>
       <c r="O74" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P74" s="62">
         <f t="shared" ref="P74" si="240">P73</f>
@@ -9297,7 +9312,7 @@
         <v>ProVisioNET_pilot_06_06_cam2_1</v>
       </c>
       <c r="K75" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L75" s="62" t="str">
         <f t="shared" ref="L75" si="245">L73</f>
@@ -9311,7 +9326,7 @@
         <v>5</v>
       </c>
       <c r="O75" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P75" s="62">
         <f t="shared" ref="P75" si="247">P74</f>
@@ -9396,7 +9411,7 @@
         <v>ProVisioNET_pilot_06_06_cam2_2</v>
       </c>
       <c r="K76" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L76" s="62" t="str">
         <f t="shared" ref="L76:M76" si="251">L75</f>
@@ -9410,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="O76" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P76" s="62">
         <f t="shared" ref="P76" si="252">P75</f>
@@ -9495,7 +9510,7 @@
         <v>ProVisioNET_pilot_06_06_cam3_1</v>
       </c>
       <c r="K77" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L77" s="62" t="str">
         <f t="shared" ref="L77:M77" si="256">L75</f>
@@ -9509,7 +9524,7 @@
         <v>5</v>
       </c>
       <c r="O77" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P77" s="62">
         <f t="shared" ref="P77" si="257">P76</f>
@@ -9594,7 +9609,7 @@
         <v>ProVisioNET_pilot_06_06_cam3_2</v>
       </c>
       <c r="K78" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L78" s="62" t="str">
         <f t="shared" ref="L78:M78" si="261">L77</f>
@@ -9608,7 +9623,7 @@
         <v>5</v>
       </c>
       <c r="O78" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P78" s="62">
         <v>0</v>
@@ -9692,7 +9707,7 @@
         <v>ProVisioNET_pilot_06_06_cam4_1</v>
       </c>
       <c r="K79" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L79" s="62" t="str">
         <f t="shared" ref="L79" si="265">L77</f>
@@ -9791,7 +9806,7 @@
         <v>ProVisioNET_pilot_06_06_cam4_2</v>
       </c>
       <c r="K80" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L80" s="62" t="str">
         <f t="shared" ref="L80:M80" si="270">L79</f>
@@ -9805,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="O80" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P80" s="62">
         <v>0</v>
@@ -9887,7 +9902,7 @@
         <v>ProVisioNET_pilot_06_06_glasses</v>
       </c>
       <c r="K81" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L81" s="62" t="str">
         <f>L79</f>
@@ -9901,7 +9916,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P81" s="62">
         <f t="shared" ref="P81" si="275">P77</f>
@@ -9984,7 +9999,7 @@
         <v>ProVisioNET_pilot_06_06_ambient</v>
       </c>
       <c r="K82" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L82" s="62" t="str">
         <f>L81</f>
@@ -9998,7 +10013,7 @@
         <v>5</v>
       </c>
       <c r="O82" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P82" s="62">
         <v>0</v>
@@ -10080,7 +10095,7 @@
         <v>ProVisioNET_pilot_06_06_ETrawdata</v>
       </c>
       <c r="K83" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L83" s="62" t="str">
         <f t="shared" ref="L83" si="284">L82</f>
@@ -10169,7 +10184,7 @@
         <v>6</v>
       </c>
       <c r="H84" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I84" s="62"/>
       <c r="J84" s="62" t="str">
@@ -10177,7 +10192,7 @@
         <v>ProVisioNET_pilot_06_06_sri_obs</v>
       </c>
       <c r="K84" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L84" s="62" t="str">
         <f t="shared" ref="L84" si="290">L83</f>
@@ -10266,7 +10281,7 @@
         <v>6</v>
       </c>
       <c r="H85" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I85" s="60"/>
       <c r="J85" s="62" t="str">
@@ -10274,7 +10289,7 @@
         <v>ProVisioNET_pilot_06_06_sri_ambient</v>
       </c>
       <c r="K85" s="138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L85" s="60" t="str">
         <f t="shared" ref="L85" si="295">L84</f>
@@ -10350,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F86" s="65" t="s">
         <v>20</v>
@@ -10370,16 +10385,16 @@
         <v>115</v>
       </c>
       <c r="L86" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M86" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N86" s="63">
         <v>7</v>
       </c>
       <c r="O86" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P86" s="63">
         <v>0</v>
@@ -10434,7 +10449,7 @@
         <v>study</v>
       </c>
       <c r="E87" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F87" s="62" t="str">
         <f t="shared" ref="F87:G87" si="299">F86</f>
@@ -10455,7 +10470,7 @@
         <v>ProVisioNET_study_101_01_cam1_1</v>
       </c>
       <c r="K87" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L87" s="62" t="str">
         <f t="shared" ref="L87:L98" si="300">L86</f>
@@ -10469,7 +10484,7 @@
         <v>7</v>
       </c>
       <c r="O87" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P87" s="62">
         <v>0</v>
@@ -10532,7 +10547,7 @@
         <v>study</v>
       </c>
       <c r="E88" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F88" s="62" t="str">
         <f t="shared" ref="F88:G88" si="313">F87</f>
@@ -10553,7 +10568,7 @@
         <v>ProVisioNET_study_101_01_cam1_2</v>
       </c>
       <c r="K88" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L88" s="62" t="str">
         <f t="shared" si="300"/>
@@ -10567,7 +10582,7 @@
         <v>7</v>
       </c>
       <c r="O88" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P88" s="62">
         <v>0</v>
@@ -10630,7 +10645,7 @@
         <v>study</v>
       </c>
       <c r="E89" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F89" s="62" t="str">
         <f t="shared" ref="F89:G89" si="316">F87</f>
@@ -10651,7 +10666,7 @@
         <v>ProVisioNET_study_101_01_cam2_1</v>
       </c>
       <c r="K89" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L89" s="62" t="str">
         <f t="shared" si="300"/>
@@ -10665,7 +10680,7 @@
         <v>7</v>
       </c>
       <c r="O89" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P89" s="62">
         <v>0</v>
@@ -10728,7 +10743,7 @@
         <v>study</v>
       </c>
       <c r="E90" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F90" s="62" t="str">
         <f t="shared" ref="F90:G90" si="318">F88</f>
@@ -10749,7 +10764,7 @@
         <v>ProVisioNET_study_101_01_cam2_2</v>
       </c>
       <c r="K90" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L90" s="62" t="str">
         <f t="shared" si="300"/>
@@ -10763,7 +10778,7 @@
         <v>7</v>
       </c>
       <c r="O90" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P90" s="62">
         <v>0</v>
@@ -10826,7 +10841,7 @@
         <v>study</v>
       </c>
       <c r="E91" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F91" s="62" t="str">
         <f t="shared" ref="F91:G91" si="320">F89</f>
@@ -10847,7 +10862,7 @@
         <v>ProVisioNET_study_101_01_cam3_1</v>
       </c>
       <c r="K91" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L91" s="62" t="str">
         <f t="shared" si="300"/>
@@ -10861,7 +10876,7 @@
         <v>7</v>
       </c>
       <c r="O91" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P91" s="62">
         <v>0</v>
@@ -10924,7 +10939,7 @@
         <v>study</v>
       </c>
       <c r="E92" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F92" s="62" t="str">
         <f t="shared" ref="F92:G92" si="322">F90</f>
@@ -10945,7 +10960,7 @@
         <v>ProVisioNET_study_101_01_cam3_2</v>
       </c>
       <c r="K92" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L92" s="62" t="str">
         <f t="shared" si="300"/>
@@ -10959,7 +10974,7 @@
         <v>7</v>
       </c>
       <c r="O92" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P92" s="62">
         <v>0</v>
@@ -11022,7 +11037,7 @@
         <v>study</v>
       </c>
       <c r="E93" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F93" s="62" t="str">
         <f t="shared" ref="F93:G93" si="324">F91</f>
@@ -11043,7 +11058,7 @@
         <v>ProVisioNET_study_101_01_cam4_1</v>
       </c>
       <c r="K93" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L93" s="62" t="str">
         <f t="shared" si="300"/>
@@ -11057,7 +11072,7 @@
         <v>7</v>
       </c>
       <c r="O93" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P93" s="62">
         <v>0</v>
@@ -11120,7 +11135,7 @@
         <v>study</v>
       </c>
       <c r="E94" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F94" s="62" t="str">
         <f t="shared" ref="F94:G94" si="326">F92</f>
@@ -11141,7 +11156,7 @@
         <v>ProVisioNET_study_101_01_cam4_2</v>
       </c>
       <c r="K94" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L94" s="62" t="str">
         <f t="shared" si="300"/>
@@ -11155,7 +11170,7 @@
         <v>7</v>
       </c>
       <c r="O94" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P94" s="62">
         <v>0</v>
@@ -11218,7 +11233,7 @@
         <v>study</v>
       </c>
       <c r="E95" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F95" s="62" t="str">
         <f t="shared" ref="F95" si="328">F93</f>
@@ -11237,7 +11252,7 @@
         <v>ProVisioNET_study_101_01_glasses</v>
       </c>
       <c r="K95" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L95" s="62" t="str">
         <f t="shared" ref="L95:R95" si="330">L94</f>
@@ -11251,7 +11266,7 @@
         <v>7</v>
       </c>
       <c r="O95" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P95" s="62">
         <v>0</v>
@@ -11314,7 +11329,7 @@
         <v>study</v>
       </c>
       <c r="E96" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F96" s="62" t="str">
         <f t="shared" ref="F96:G96" si="333">F95</f>
@@ -11333,7 +11348,7 @@
         <v>ProVisioNET_study_101_01_ambient</v>
       </c>
       <c r="K96" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L96" s="62" t="str">
         <f t="shared" si="300"/>
@@ -11347,7 +11362,7 @@
         <v>7</v>
       </c>
       <c r="O96" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P96" s="62">
         <v>0</v>
@@ -11410,7 +11425,7 @@
         <v>study</v>
       </c>
       <c r="E97" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F97" s="62" t="str">
         <f t="shared" ref="F97:G98" si="335">F96</f>
@@ -11429,7 +11444,7 @@
         <v>ProVisioNET_study_101_01_ETrawdata</v>
       </c>
       <c r="K97" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L97" s="62" t="str">
         <f t="shared" si="300"/>
@@ -11443,7 +11458,7 @@
         <v>7</v>
       </c>
       <c r="O97" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P97" s="62">
         <v>0</v>
@@ -11506,7 +11521,7 @@
         <v>study</v>
       </c>
       <c r="E98" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F98" s="62" t="str">
         <f t="shared" si="335"/>
@@ -11516,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I98" s="62"/>
       <c r="J98" s="62" t="str">
@@ -11524,7 +11539,7 @@
         <v>ProVisioNET_study_101_01_sri_obs</v>
       </c>
       <c r="K98" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L98" s="62" t="str">
         <f t="shared" si="300"/>
@@ -11538,7 +11553,7 @@
         <v>7</v>
       </c>
       <c r="O98" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P98" s="62">
         <v>0</v>
@@ -11601,7 +11616,7 @@
         <v>study</v>
       </c>
       <c r="E99" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F99" s="62" t="str">
         <f>F98</f>
@@ -11611,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I99" s="62"/>
       <c r="J99" s="62" t="str">
@@ -11619,7 +11634,7 @@
         <v>ProVisioNET_study_101_01_sri_ambient</v>
       </c>
       <c r="K99" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L99" s="62" t="str">
         <f t="shared" ref="L99:M100" si="338">L98</f>
@@ -11633,7 +11648,7 @@
         <v>7</v>
       </c>
       <c r="O99" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P99" s="62">
         <v>0</v>
@@ -11696,7 +11711,7 @@
         <v>study</v>
       </c>
       <c r="E100" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F100" s="62" t="str">
         <f>F99</f>
@@ -11706,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I100" s="62"/>
       <c r="J100" s="62" t="str">
@@ -11714,7 +11729,7 @@
         <v>ProVisioNET_study_101_01_fitbit</v>
       </c>
       <c r="K100" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L100" s="62" t="str">
         <f t="shared" si="338"/>
@@ -11728,7 +11743,7 @@
         <v>7</v>
       </c>
       <c r="O100" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P100" s="62">
         <v>0</v>
@@ -11789,7 +11804,7 @@
         <v>study</v>
       </c>
       <c r="E101" s="139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F101" s="123" t="str">
         <f>F99</f>
@@ -11799,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I101" s="123"/>
       <c r="J101" s="123" t="str">
@@ -11807,20 +11822,20 @@
         <v>ProVisioNET_study_101_01_zed</v>
       </c>
       <c r="K101" s="141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L101" s="123" t="str">
         <f>L99</f>
         <v>m</v>
       </c>
       <c r="M101" s="123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N101" s="123">
         <v>7</v>
       </c>
       <c r="O101" s="123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P101" s="123">
         <v>0</v>
@@ -11880,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F102" s="65" t="s">
         <v>21</v>
@@ -11900,16 +11915,16 @@
         <v>115</v>
       </c>
       <c r="L102" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M102" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N102" s="63">
         <v>6</v>
       </c>
       <c r="O102" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P102" s="63">
         <v>0</v>
@@ -11964,7 +11979,7 @@
         <v>study</v>
       </c>
       <c r="E103" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F103" s="62" t="str">
         <f t="shared" ref="F103" si="345">F102</f>
@@ -11984,7 +11999,7 @@
         <v>ProVisioNET_study_102_02_cam1_1</v>
       </c>
       <c r="K103" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L103" s="62" t="str">
         <f t="shared" ref="L103:M114" si="346">L102</f>
@@ -11998,7 +12013,7 @@
         <v>6</v>
       </c>
       <c r="O103" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P103" s="62">
         <v>0</v>
@@ -12058,7 +12073,7 @@
         <v>study</v>
       </c>
       <c r="E104" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F104" s="62" t="str">
         <f t="shared" ref="F104" si="350">F103</f>
@@ -12078,7 +12093,7 @@
         <v>ProVisioNET_study_102_02_cam1_2</v>
       </c>
       <c r="K104" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L104" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12092,7 +12107,7 @@
         <v>6</v>
       </c>
       <c r="O104" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P104" s="62">
         <v>0</v>
@@ -12152,7 +12167,7 @@
         <v>study</v>
       </c>
       <c r="E105" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F105" s="62" t="str">
         <f t="shared" ref="F105:G105" si="353">F103</f>
@@ -12173,7 +12188,7 @@
         <v>ProVisioNET_study_102_02_cam2_1</v>
       </c>
       <c r="K105" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L105" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12187,7 +12202,7 @@
         <v>6</v>
       </c>
       <c r="O105" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P105" s="62">
         <v>0</v>
@@ -12247,7 +12262,7 @@
         <v>study</v>
       </c>
       <c r="E106" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F106" s="62" t="str">
         <f t="shared" ref="F106:G106" si="355">F104</f>
@@ -12268,7 +12283,7 @@
         <v>ProVisioNET_study_102_02_cam2_2</v>
       </c>
       <c r="K106" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L106" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12282,7 +12297,7 @@
         <v>6</v>
       </c>
       <c r="O106" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P106" s="62">
         <v>0</v>
@@ -12342,7 +12357,7 @@
         <v>study</v>
       </c>
       <c r="E107" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F107" s="62" t="str">
         <f t="shared" ref="F107:G107" si="357">F105</f>
@@ -12363,7 +12378,7 @@
         <v>ProVisioNET_study_102_02_cam3_1</v>
       </c>
       <c r="K107" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L107" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12377,7 +12392,7 @@
         <v>6</v>
       </c>
       <c r="O107" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P107" s="62">
         <v>0</v>
@@ -12437,7 +12452,7 @@
         <v>study</v>
       </c>
       <c r="E108" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F108" s="62" t="str">
         <f t="shared" ref="F108:G108" si="359">F106</f>
@@ -12458,7 +12473,7 @@
         <v>ProVisioNET_study_102_02_cam3_2</v>
       </c>
       <c r="K108" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L108" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12472,7 +12487,7 @@
         <v>6</v>
       </c>
       <c r="O108" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P108" s="62">
         <v>0</v>
@@ -12532,7 +12547,7 @@
         <v>study</v>
       </c>
       <c r="E109" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F109" s="62" t="str">
         <f t="shared" ref="F109:G109" si="361">F107</f>
@@ -12553,7 +12568,7 @@
         <v>ProVisioNET_study_102_02_cam4_1</v>
       </c>
       <c r="K109" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L109" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12567,7 +12582,7 @@
         <v>6</v>
       </c>
       <c r="O109" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P109" s="62">
         <v>0</v>
@@ -12627,7 +12642,7 @@
         <v>study</v>
       </c>
       <c r="E110" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F110" s="62" t="str">
         <f t="shared" ref="F110:G110" si="363">F108</f>
@@ -12648,7 +12663,7 @@
         <v>ProVisioNET_study_102_02_cam4_2</v>
       </c>
       <c r="K110" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L110" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12662,7 +12677,7 @@
         <v>6</v>
       </c>
       <c r="O110" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P110" s="62">
         <v>0</v>
@@ -12722,7 +12737,7 @@
         <v>study</v>
       </c>
       <c r="E111" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F111" s="62" t="str">
         <f t="shared" ref="F111" si="365">F109</f>
@@ -12741,7 +12756,7 @@
         <v>ProVisioNET_study_102_02_glasses</v>
       </c>
       <c r="K111" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L111" s="62" t="str">
         <f t="shared" ref="L111:M111" si="367">L110</f>
@@ -12755,7 +12770,7 @@
         <v>6</v>
       </c>
       <c r="O111" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P111" s="62">
         <v>0</v>
@@ -12815,7 +12830,7 @@
         <v>study</v>
       </c>
       <c r="E112" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F112" s="62" t="str">
         <f t="shared" ref="F112:G112" si="371">F111</f>
@@ -12834,7 +12849,7 @@
         <v>ProVisioNET_study_102_02_ambient</v>
       </c>
       <c r="K112" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L112" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12848,7 +12863,7 @@
         <v>6</v>
       </c>
       <c r="O112" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P112" s="62">
         <v>0</v>
@@ -12908,7 +12923,7 @@
         <v>study</v>
       </c>
       <c r="E113" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F113" s="62" t="str">
         <f t="shared" ref="F113:G113" si="375">F112</f>
@@ -12927,7 +12942,7 @@
         <v>ProVisioNET_study_102_02_ETrawdata</v>
       </c>
       <c r="K113" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L113" s="62" t="str">
         <f t="shared" si="346"/>
@@ -12941,7 +12956,7 @@
         <v>6</v>
       </c>
       <c r="O113" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P113" s="62">
         <v>0</v>
@@ -13001,7 +13016,7 @@
         <v>study</v>
       </c>
       <c r="E114" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F114" s="62" t="str">
         <f t="shared" ref="F114" si="378">F113</f>
@@ -13011,7 +13026,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I114" s="62"/>
       <c r="J114" s="62" t="str">
@@ -13019,7 +13034,7 @@
         <v>ProVisioNET_study_102_02_sri_obs</v>
       </c>
       <c r="K114" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L114" s="62" t="str">
         <f t="shared" si="346"/>
@@ -13033,7 +13048,7 @@
         <v>6</v>
       </c>
       <c r="O114" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P114" s="62">
         <v>0</v>
@@ -13093,7 +13108,7 @@
         <v>study</v>
       </c>
       <c r="E115" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F115" s="62" t="str">
         <f>F114</f>
@@ -13103,7 +13118,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I115" s="62"/>
       <c r="J115" s="62" t="str">
@@ -13111,7 +13126,7 @@
         <v>ProVisioNET_study_102_02_sri_ambient</v>
       </c>
       <c r="K115" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L115" s="62" t="str">
         <f t="shared" ref="L115:M115" si="381">L114</f>
@@ -13125,7 +13140,7 @@
         <v>6</v>
       </c>
       <c r="O115" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P115" s="62">
         <v>0</v>
@@ -13185,7 +13200,7 @@
         <v>study</v>
       </c>
       <c r="E116" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F116" s="62" t="str">
         <f>F115</f>
@@ -13195,7 +13210,7 @@
         <v>2</v>
       </c>
       <c r="H116" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I116" s="62"/>
       <c r="J116" s="62" t="str">
@@ -13203,7 +13218,7 @@
         <v>ProVisioNET_study_102_02_fitbit</v>
       </c>
       <c r="K116" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L116" s="62" t="str">
         <f t="shared" ref="L116:M116" si="383">L115</f>
@@ -13217,7 +13232,7 @@
         <v>6</v>
       </c>
       <c r="O116" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P116" s="62">
         <v>0</v>
@@ -13275,7 +13290,7 @@
         <v>study</v>
       </c>
       <c r="E117" s="139" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F117" s="123" t="str">
         <f>F115</f>
@@ -13285,7 +13300,7 @@
         <v>2</v>
       </c>
       <c r="H117" s="123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I117" s="123"/>
       <c r="J117" s="123" t="str">
@@ -13293,20 +13308,20 @@
         <v>ProVisioNET_study_102_02_zed</v>
       </c>
       <c r="K117" s="141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L117" s="123" t="str">
         <f>L115</f>
         <v>m</v>
       </c>
       <c r="M117" s="123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N117" s="123">
         <v>6</v>
       </c>
       <c r="O117" s="123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P117" s="123">
         <v>0</v>
@@ -13363,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F118" s="65" t="s">
         <v>22</v>
@@ -13383,16 +13398,16 @@
         <v>115</v>
       </c>
       <c r="L118" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M118" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N118" s="63">
         <v>11</v>
       </c>
       <c r="O118" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P118" s="63">
         <v>0</v>
@@ -13447,7 +13462,7 @@
         <v>study</v>
       </c>
       <c r="E119" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F119" s="62" t="str">
         <f t="shared" ref="F119" si="388">F118</f>
@@ -13467,7 +13482,7 @@
         <v>ProVisioNET_study_103_03_cam1_1</v>
       </c>
       <c r="K119" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L119" s="62" t="str">
         <f t="shared" ref="L119:M119" si="389">L118</f>
@@ -13481,7 +13496,7 @@
         <v>11</v>
       </c>
       <c r="O119" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P119" s="62">
         <v>0</v>
@@ -13541,7 +13556,7 @@
         <v>study</v>
       </c>
       <c r="E120" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F120" s="62" t="str">
         <f t="shared" ref="F120" si="394">F119</f>
@@ -13561,7 +13576,7 @@
         <v>ProVisioNET_study_103_03_cam1_2</v>
       </c>
       <c r="K120" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L120" s="62" t="str">
         <f t="shared" ref="L120:M120" si="395">L119</f>
@@ -13575,7 +13590,7 @@
         <v>11</v>
       </c>
       <c r="O120" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P120" s="62">
         <v>0</v>
@@ -13635,7 +13650,7 @@
         <v>study</v>
       </c>
       <c r="E121" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F121" s="62" t="str">
         <f t="shared" ref="F121" si="400">F119</f>
@@ -13655,7 +13670,7 @@
         <v>ProVisioNET_study_103_03_cam2_1</v>
       </c>
       <c r="K121" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L121" s="62" t="str">
         <f t="shared" ref="L121:M121" si="401">L120</f>
@@ -13669,7 +13684,7 @@
         <v>11</v>
       </c>
       <c r="O121" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P121" s="62">
         <v>0</v>
@@ -13729,7 +13744,7 @@
         <v>study</v>
       </c>
       <c r="E122" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F122" s="62" t="str">
         <f t="shared" ref="F122:G122" si="405">F120</f>
@@ -13750,7 +13765,7 @@
         <v>ProVisioNET_study_103_03_cam2_2</v>
       </c>
       <c r="K122" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L122" s="62" t="str">
         <f t="shared" ref="L122:M122" si="406">L121</f>
@@ -13764,7 +13779,7 @@
         <v>11</v>
       </c>
       <c r="O122" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P122" s="62">
         <v>0</v>
@@ -13824,7 +13839,7 @@
         <v>study</v>
       </c>
       <c r="E123" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F123" s="62" t="str">
         <f t="shared" ref="F123:G123" si="410">F121</f>
@@ -13845,7 +13860,7 @@
         <v>ProVisioNET_study_103_03_cam3_1</v>
       </c>
       <c r="K123" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L123" s="62" t="str">
         <f t="shared" ref="L123:M123" si="411">L122</f>
@@ -13859,7 +13874,7 @@
         <v>11</v>
       </c>
       <c r="O123" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P123" s="62">
         <v>0</v>
@@ -13919,7 +13934,7 @@
         <v>study</v>
       </c>
       <c r="E124" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F124" s="62" t="str">
         <f t="shared" ref="F124:G124" si="415">F122</f>
@@ -13940,7 +13955,7 @@
         <v>ProVisioNET_study_103_03_cam3_2</v>
       </c>
       <c r="K124" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L124" s="62" t="str">
         <f t="shared" ref="L124:M124" si="416">L123</f>
@@ -13954,7 +13969,7 @@
         <v>11</v>
       </c>
       <c r="O124" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P124" s="62">
         <v>0</v>
@@ -14014,7 +14029,7 @@
         <v>study</v>
       </c>
       <c r="E125" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F125" s="62" t="str">
         <f t="shared" ref="F125:G125" si="420">F123</f>
@@ -14035,7 +14050,7 @@
         <v>ProVisioNET_study_103_03_cam4_1</v>
       </c>
       <c r="K125" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L125" s="62" t="str">
         <f t="shared" ref="L125:M125" si="421">L124</f>
@@ -14049,7 +14064,7 @@
         <v>11</v>
       </c>
       <c r="O125" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P125" s="62">
         <v>0</v>
@@ -14109,7 +14124,7 @@
         <v>study</v>
       </c>
       <c r="E126" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F126" s="62" t="str">
         <f t="shared" ref="F126:G126" si="425">F124</f>
@@ -14130,7 +14145,7 @@
         <v>ProVisioNET_study_103_03_cam4_2</v>
       </c>
       <c r="K126" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L126" s="62" t="str">
         <f t="shared" ref="L126:M126" si="426">L125</f>
@@ -14144,7 +14159,7 @@
         <v>11</v>
       </c>
       <c r="O126" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P126" s="62">
         <v>0</v>
@@ -14204,7 +14219,7 @@
         <v>study</v>
       </c>
       <c r="E127" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F127" s="62" t="str">
         <f t="shared" ref="F127" si="430">F125</f>
@@ -14223,7 +14238,7 @@
         <v>ProVisioNET_study_103_03_glasses</v>
       </c>
       <c r="K127" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L127" s="62" t="str">
         <f t="shared" ref="L127:M127" si="432">L126</f>
@@ -14237,7 +14252,7 @@
         <v>11</v>
       </c>
       <c r="O127" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P127" s="62">
         <v>0</v>
@@ -14297,7 +14312,7 @@
         <v>study</v>
       </c>
       <c r="E128" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F128" s="62" t="str">
         <f t="shared" ref="F128:G128" si="437">F127</f>
@@ -14316,7 +14331,7 @@
         <v>ProVisioNET_study_103_03_ambient</v>
       </c>
       <c r="K128" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L128" s="62" t="str">
         <f t="shared" ref="L128:M128" si="438">L127</f>
@@ -14330,7 +14345,7 @@
         <v>11</v>
       </c>
       <c r="O128" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P128" s="62">
         <v>0</v>
@@ -14390,7 +14405,7 @@
         <v>study</v>
       </c>
       <c r="E129" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F129" s="62" t="str">
         <f t="shared" ref="F129:G130" si="443">F128</f>
@@ -14409,7 +14424,7 @@
         <v>ProVisioNET_study_103_03_ETrawdata</v>
       </c>
       <c r="K129" s="136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L129" s="62" t="str">
         <f t="shared" ref="L129:M129" si="444">L128</f>
@@ -14423,7 +14438,7 @@
         <v>11</v>
       </c>
       <c r="O129" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P129" s="62">
         <v>0</v>
@@ -14483,7 +14498,7 @@
         <v>study</v>
       </c>
       <c r="E130" s="144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F130" s="143" t="str">
         <f t="shared" si="443"/>
@@ -14493,7 +14508,7 @@
         <v>3</v>
       </c>
       <c r="H130" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="62" t="str">
@@ -14501,7 +14516,7 @@
         <v>ProVisioNET_study_103_03_sri_obs</v>
       </c>
       <c r="K130" s="145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L130" s="62" t="str">
         <f t="shared" ref="L130:M130" si="449">L129</f>
@@ -14515,7 +14530,7 @@
         <v>11</v>
       </c>
       <c r="O130" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P130" s="62">
         <v>0</v>
@@ -14575,7 +14590,7 @@
         <v>study</v>
       </c>
       <c r="E131" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F131" s="62" t="str">
         <f>F130</f>
@@ -14585,7 +14600,7 @@
         <v>3</v>
       </c>
       <c r="H131" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I131" s="62"/>
       <c r="J131" s="62" t="str">
@@ -14593,7 +14608,7 @@
         <v>ProVisioNET_study_103_03_sri_ambient</v>
       </c>
       <c r="K131" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L131" s="62" t="str">
         <f t="shared" ref="L131:M131" si="454">L130</f>
@@ -14607,7 +14622,7 @@
         <v>11</v>
       </c>
       <c r="O131" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P131" s="62">
         <v>0</v>
@@ -14667,7 +14682,7 @@
         <v>study</v>
       </c>
       <c r="E132" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F132" s="62" t="str">
         <f>F131</f>
@@ -14677,7 +14692,7 @@
         <v>3</v>
       </c>
       <c r="H132" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I132" s="62"/>
       <c r="J132" s="62" t="str">
@@ -14685,7 +14700,7 @@
         <v>ProVisioNET_study_103_03_fitbit</v>
       </c>
       <c r="K132" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L132" s="62" t="str">
         <f t="shared" ref="L132:M132" si="459">L131</f>
@@ -14699,7 +14714,7 @@
         <v>11</v>
       </c>
       <c r="O132" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P132" s="62">
         <v>0</v>
@@ -14757,7 +14772,7 @@
         <v>study</v>
       </c>
       <c r="E133" s="139" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F133" s="123" t="str">
         <f>F131</f>
@@ -14767,7 +14782,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I133" s="123"/>
       <c r="J133" s="123" t="str">
@@ -14775,20 +14790,20 @@
         <v>ProVisioNET_study_103_03_zed</v>
       </c>
       <c r="K133" s="141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L133" s="123" t="str">
         <f>L131</f>
         <v>f</v>
       </c>
       <c r="M133" s="123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N133" s="123">
         <v>11</v>
       </c>
       <c r="O133" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P133" s="123">
         <v>0</v>
@@ -14845,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F134" s="149" t="s">
         <v>23</v>
@@ -14865,16 +14880,16 @@
         <v>115</v>
       </c>
       <c r="L134" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M134" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N134" s="147">
         <v>5</v>
       </c>
       <c r="O134" s="147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P134" s="147">
         <v>0</v>
@@ -14929,7 +14944,7 @@
         <v>study</v>
       </c>
       <c r="E135" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F135" s="150" t="str">
         <f t="shared" ref="F135:F136" si="465">F134</f>
@@ -14949,7 +14964,7 @@
         <v>ProVisioNET_study_104_04_cam1_1</v>
       </c>
       <c r="K135" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L135" s="150" t="str">
         <f t="shared" ref="L135:M135" si="467">L134</f>
@@ -14963,7 +14978,7 @@
         <v>5</v>
       </c>
       <c r="O135" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P135" s="150">
         <v>0</v>
@@ -15023,7 +15038,7 @@
         <v>study</v>
       </c>
       <c r="E136" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F136" s="150" t="str">
         <f t="shared" si="465"/>
@@ -15043,7 +15058,7 @@
         <v>ProVisioNET_study_104_04_cam1_2</v>
       </c>
       <c r="K136" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L136" s="150" t="str">
         <f t="shared" ref="L136:M136" si="471">L135</f>
@@ -15057,7 +15072,7 @@
         <v>5</v>
       </c>
       <c r="O136" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P136" s="150">
         <v>0</v>
@@ -15117,7 +15132,7 @@
         <v>study</v>
       </c>
       <c r="E137" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F137" s="150" t="str">
         <f t="shared" ref="F137" si="475">F135</f>
@@ -15137,7 +15152,7 @@
         <v>ProVisioNET_study_104_04_cam2_1</v>
       </c>
       <c r="K137" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L137" s="150" t="str">
         <f t="shared" ref="L137:M137" si="476">L136</f>
@@ -15151,7 +15166,7 @@
         <v>5</v>
       </c>
       <c r="O137" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P137" s="150">
         <v>0</v>
@@ -15211,7 +15226,7 @@
         <v>study</v>
       </c>
       <c r="E138" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F138" s="150" t="str">
         <f t="shared" ref="F138:G138" si="479">F136</f>
@@ -15232,7 +15247,7 @@
         <v>ProVisioNET_study_104_04_cam2_2</v>
       </c>
       <c r="K138" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L138" s="150" t="str">
         <f t="shared" ref="L138:M138" si="480">L137</f>
@@ -15246,7 +15261,7 @@
         <v>5</v>
       </c>
       <c r="O138" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P138" s="150">
         <v>0</v>
@@ -15306,7 +15321,7 @@
         <v>study</v>
       </c>
       <c r="E139" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F139" s="150" t="str">
         <f t="shared" ref="F139:G139" si="483">F137</f>
@@ -15327,7 +15342,7 @@
         <v>ProVisioNET_study_104_04_cam3_1</v>
       </c>
       <c r="K139" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L139" s="150" t="str">
         <f t="shared" ref="L139:M139" si="484">L138</f>
@@ -15341,7 +15356,7 @@
         <v>5</v>
       </c>
       <c r="O139" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P139" s="150">
         <v>0</v>
@@ -15401,7 +15416,7 @@
         <v>study</v>
       </c>
       <c r="E140" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F140" s="150" t="str">
         <f t="shared" ref="F140" si="487">F138</f>
@@ -15421,7 +15436,7 @@
         <v>ProVisioNET_study_104_04_cam3_2</v>
       </c>
       <c r="K140" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L140" s="150" t="str">
         <f t="shared" ref="L140:M140" si="488">L139</f>
@@ -15435,7 +15450,7 @@
         <v>5</v>
       </c>
       <c r="O140" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P140" s="150">
         <v>0</v>
@@ -15495,7 +15510,7 @@
         <v>study</v>
       </c>
       <c r="E141" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F141" s="150" t="str">
         <f t="shared" ref="F141:G141" si="491">F139</f>
@@ -15516,7 +15531,7 @@
         <v>ProVisioNET_study_104_04_cam4_1</v>
       </c>
       <c r="K141" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L141" s="150" t="str">
         <f t="shared" ref="L141:M141" si="492">L140</f>
@@ -15530,7 +15545,7 @@
         <v>5</v>
       </c>
       <c r="O141" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P141" s="150">
         <v>0</v>
@@ -15590,7 +15605,7 @@
         <v>study</v>
       </c>
       <c r="E142" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F142" s="150" t="str">
         <f t="shared" ref="F142:G143" si="495">F140</f>
@@ -15611,7 +15626,7 @@
         <v>ProVisioNET_study_104_04_cam4_2</v>
       </c>
       <c r="K142" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L142" s="150" t="str">
         <f t="shared" ref="L142:M142" si="496">L141</f>
@@ -15625,7 +15640,7 @@
         <v>5</v>
       </c>
       <c r="O142" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P142" s="150">
         <v>0</v>
@@ -15685,7 +15700,7 @@
         <v>study</v>
       </c>
       <c r="E143" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F143" s="150" t="str">
         <f t="shared" si="495"/>
@@ -15704,7 +15719,7 @@
         <v>ProVisioNET_study_104_04_glasses</v>
       </c>
       <c r="K143" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L143" s="150" t="str">
         <f t="shared" ref="L143:M143" si="500">L142</f>
@@ -15718,7 +15733,7 @@
         <v>5</v>
       </c>
       <c r="O143" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P143" s="150">
         <v>0</v>
@@ -15778,7 +15793,7 @@
         <v>study</v>
       </c>
       <c r="E144" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F144" s="150" t="str">
         <f t="shared" ref="F144:G144" si="503">F143</f>
@@ -15797,7 +15812,7 @@
         <v>ProVisioNET_study_104_04_ambient</v>
       </c>
       <c r="K144" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L144" s="150" t="str">
         <f t="shared" ref="L144:M144" si="504">L143</f>
@@ -15811,7 +15826,7 @@
         <v>5</v>
       </c>
       <c r="O144" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P144" s="150">
         <v>0</v>
@@ -15871,7 +15886,7 @@
         <v>study</v>
       </c>
       <c r="E145" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F145" s="150" t="str">
         <f t="shared" ref="F145:G145" si="508">F144</f>
@@ -15890,7 +15905,7 @@
         <v>ProVisioNET_study_104_04_ETrawdata</v>
       </c>
       <c r="K145" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L145" s="150" t="str">
         <f t="shared" ref="L145:M145" si="509">L144</f>
@@ -15904,7 +15919,7 @@
         <v>5</v>
       </c>
       <c r="O145" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P145" s="150">
         <v>0</v>
@@ -15964,7 +15979,7 @@
         <v>study</v>
       </c>
       <c r="E146" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F146" s="150" t="str">
         <f t="shared" ref="F146" si="512">F145</f>
@@ -15974,7 +15989,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I146" s="150"/>
       <c r="J146" s="150" t="str">
@@ -15982,7 +15997,7 @@
         <v>ProVisioNET_study_104_04_sri_obs</v>
       </c>
       <c r="K146" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L146" s="150" t="str">
         <f t="shared" ref="L146:M146" si="513">L145</f>
@@ -15996,7 +16011,7 @@
         <v>5</v>
       </c>
       <c r="O146" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P146" s="150">
         <v>0</v>
@@ -16056,7 +16071,7 @@
         <v>study</v>
       </c>
       <c r="E147" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F147" s="150" t="str">
         <f>F146</f>
@@ -16066,7 +16081,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I147" s="150"/>
       <c r="J147" s="150" t="str">
@@ -16074,7 +16089,7 @@
         <v>ProVisioNET_study_104_04_sri_ambient</v>
       </c>
       <c r="K147" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L147" s="150" t="str">
         <f t="shared" ref="L147:M147" si="516">L146</f>
@@ -16088,7 +16103,7 @@
         <v>5</v>
       </c>
       <c r="O147" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P147" s="150">
         <v>0</v>
@@ -16148,7 +16163,7 @@
         <v>study</v>
       </c>
       <c r="E148" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F148" s="150" t="str">
         <f>F147</f>
@@ -16158,7 +16173,7 @@
         <v>4</v>
       </c>
       <c r="H148" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I148" s="150"/>
       <c r="J148" s="150" t="str">
@@ -16166,7 +16181,7 @@
         <v>ProVisioNET_study_104_04_fitbit</v>
       </c>
       <c r="K148" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L148" s="150" t="str">
         <f t="shared" ref="L148:M148" si="519">L147</f>
@@ -16180,7 +16195,7 @@
         <v>5</v>
       </c>
       <c r="O148" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P148" s="150">
         <v>0</v>
@@ -16238,7 +16253,7 @@
         <v>study</v>
       </c>
       <c r="E149" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F149" s="160" t="str">
         <f>F147</f>
@@ -16248,7 +16263,7 @@
         <v>4</v>
       </c>
       <c r="H149" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I149" s="160"/>
       <c r="J149" s="160" t="str">
@@ -16256,20 +16271,20 @@
         <v>ProVisioNET_study_104_04_zed</v>
       </c>
       <c r="K149" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L149" s="160" t="str">
         <f>L147</f>
         <v>f</v>
       </c>
       <c r="M149" s="160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N149" s="160">
         <v>5</v>
       </c>
       <c r="O149" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P149" s="160">
         <v>0</v>
@@ -16326,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F150" s="149" t="s">
         <v>20</v>
@@ -16346,16 +16361,16 @@
         <v>115</v>
       </c>
       <c r="L150" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M150" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N150" s="147">
         <v>5</v>
       </c>
       <c r="O150" s="147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P150" s="147">
         <v>29</v>
@@ -16407,7 +16422,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F151" s="162" t="s">
         <v>20</v>
@@ -16426,13 +16441,13 @@
         <v>ProVisioNET_study_201_01_cam1_1</v>
       </c>
       <c r="K151" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O151" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P151" s="150">
         <v>29</v>
@@ -16484,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F152" s="162" t="s">
         <v>20</v>
@@ -16503,13 +16518,13 @@
         <v>ProVisioNET_study_201_01_cam1_2</v>
       </c>
       <c r="K152" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O152" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P152" s="150">
         <v>29</v>
@@ -16561,7 +16576,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F153" s="162" t="s">
         <v>20</v>
@@ -16580,13 +16595,13 @@
         <v>ProVisioNET_study_201_01_cam2_1</v>
       </c>
       <c r="K153" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O153" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P153" s="150">
         <v>29</v>
@@ -16638,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F154" s="162" t="s">
         <v>20</v>
@@ -16657,13 +16672,13 @@
         <v>ProVisioNET_study_201_01_cam2_2</v>
       </c>
       <c r="K154" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O154" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P154" s="150">
         <v>29</v>
@@ -16715,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F155" s="162" t="s">
         <v>20</v>
@@ -16734,13 +16749,13 @@
         <v>ProVisioNET_study_201_01_cam3_1</v>
       </c>
       <c r="K155" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O155" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P155" s="150">
         <v>29</v>
@@ -16792,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F156" s="162" t="s">
         <v>20</v>
@@ -16811,13 +16826,13 @@
         <v>ProVisioNET_study_201_01_cam3_2</v>
       </c>
       <c r="K156" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O156" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P156" s="150">
         <v>29</v>
@@ -16869,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F157" s="162" t="s">
         <v>20</v>
@@ -16888,13 +16903,13 @@
         <v>ProVisioNET_study_201_01_cam4_1</v>
       </c>
       <c r="K157" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O157" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P157" s="150">
         <v>29</v>
@@ -16946,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F158" s="162" t="s">
         <v>20</v>
@@ -16965,13 +16980,13 @@
         <v>ProVisioNET_study_201_01_cam4_2</v>
       </c>
       <c r="K158" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O158" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P158" s="150">
         <v>29</v>
@@ -17023,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F159" s="162" t="s">
         <v>20</v>
@@ -17039,13 +17054,13 @@
         <v>ProVisioNET_study_201_01_glasses</v>
       </c>
       <c r="K159" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O159" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P159" s="150">
         <v>29</v>
@@ -17097,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F160" s="162" t="s">
         <v>20</v>
@@ -17113,13 +17128,13 @@
         <v>ProVisioNET_study_201_01_ambient</v>
       </c>
       <c r="K160" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O160" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P160" s="150">
         <v>29</v>
@@ -17171,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F161" s="162" t="s">
         <v>20</v>
@@ -17187,13 +17202,13 @@
         <v>ProVisioNET_study_201_01_ETrawdata</v>
       </c>
       <c r="K161" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O161" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P161" s="150">
         <v>29</v>
@@ -17245,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F162" s="162" t="s">
         <v>20</v>
@@ -17254,20 +17269,20 @@
         <v>5</v>
       </c>
       <c r="H162" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J162" s="150" t="str">
         <f t="shared" si="524"/>
         <v>ProVisioNET_study_201_01_sri_obs</v>
       </c>
       <c r="K162" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O162" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P162" s="150">
         <v>29</v>
@@ -17319,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F163" s="162" t="s">
         <v>20</v>
@@ -17328,20 +17343,20 @@
         <v>5</v>
       </c>
       <c r="H163" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J163" s="150" t="str">
         <f t="shared" si="524"/>
         <v>ProVisioNET_study_201_01_sri_ambient</v>
       </c>
       <c r="K163" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O163" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P163" s="150">
         <v>29</v>
@@ -17393,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F164" s="162" t="s">
         <v>20</v>
@@ -17402,20 +17417,20 @@
         <v>5</v>
       </c>
       <c r="H164" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J164" s="150" t="str">
         <f t="shared" si="524"/>
         <v>ProVisioNET_study_201_01_fitbit</v>
       </c>
       <c r="K164" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O164" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P164" s="150">
         <v>29</v>
@@ -17467,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F165" s="162" t="s">
         <v>20</v>
@@ -17476,20 +17491,20 @@
         <v>5</v>
       </c>
       <c r="H165" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J165" s="160" t="str">
         <f t="shared" si="524"/>
         <v>ProVisioNET_study_201_01_zed</v>
       </c>
       <c r="K165" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O165" s="150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P165" s="150">
         <v>29</v>
@@ -17541,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="148" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F166" s="149" t="s">
         <v>127</v>
@@ -17561,16 +17576,16 @@
         <v>115</v>
       </c>
       <c r="L166" s="151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M166" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N166" s="147">
         <v>5</v>
       </c>
       <c r="O166" s="147" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P166" s="147">
         <v>0</v>
@@ -17622,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F167" s="162" t="s">
         <v>127</v>
@@ -17641,13 +17656,13 @@
         <v>ProVisioNET_study_105_05_cam1_1</v>
       </c>
       <c r="K167" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O167" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P167" s="150">
         <v>0</v>
@@ -17699,7 +17714,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F168" s="162" t="s">
         <v>127</v>
@@ -17718,13 +17733,13 @@
         <v>ProVisioNET_study_105_05_cam1_2</v>
       </c>
       <c r="K168" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O168" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P168" s="150">
         <v>0</v>
@@ -17776,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F169" s="162" t="s">
         <v>127</v>
@@ -17795,13 +17810,13 @@
         <v>ProVisioNET_study_105_05_cam2_1</v>
       </c>
       <c r="K169" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O169" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P169" s="150">
         <v>0</v>
@@ -17853,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F170" s="162" t="s">
         <v>127</v>
@@ -17872,13 +17887,13 @@
         <v>ProVisioNET_study_105_05_cam2_2</v>
       </c>
       <c r="K170" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O170" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P170" s="150">
         <v>0</v>
@@ -17930,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F171" s="162" t="s">
         <v>127</v>
@@ -17949,13 +17964,13 @@
         <v>ProVisioNET_study_105_05_cam3_1</v>
       </c>
       <c r="K171" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O171" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P171" s="150">
         <v>0</v>
@@ -18007,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F172" s="162" t="s">
         <v>127</v>
@@ -18026,13 +18041,13 @@
         <v>ProVisioNET_study_105_05_cam3_2</v>
       </c>
       <c r="K172" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O172" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P172" s="150">
         <v>0</v>
@@ -18084,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F173" s="162" t="s">
         <v>127</v>
@@ -18103,13 +18118,13 @@
         <v>ProVisioNET_study_105_05_cam4_1</v>
       </c>
       <c r="K173" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O173" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P173" s="150">
         <v>0</v>
@@ -18161,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F174" s="162" t="s">
         <v>127</v>
@@ -18180,13 +18195,13 @@
         <v>ProVisioNET_study_105_05_cam4_2</v>
       </c>
       <c r="K174" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O174" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P174" s="150">
         <v>0</v>
@@ -18238,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F175" s="162" t="s">
         <v>127</v>
@@ -18254,13 +18269,13 @@
         <v>ProVisioNET_study_105_05_glasses</v>
       </c>
       <c r="K175" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O175" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P175" s="150">
         <v>0</v>
@@ -18312,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F176" s="162" t="s">
         <v>127</v>
@@ -18328,13 +18343,13 @@
         <v>ProVisioNET_study_105_05_ambient</v>
       </c>
       <c r="K176" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O176" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P176" s="150">
         <v>0</v>
@@ -18386,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="E177" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F177" s="162" t="s">
         <v>127</v>
@@ -18402,13 +18417,13 @@
         <v>ProVisioNET_study_105_05_ETrawdata</v>
       </c>
       <c r="K177" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O177" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P177" s="150">
         <v>0</v>
@@ -18460,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="E178" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F178" s="162" t="s">
         <v>127</v>
@@ -18469,20 +18484,20 @@
         <v>6</v>
       </c>
       <c r="H178" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J178" s="150" t="str">
         <f t="shared" si="528"/>
         <v>ProVisioNET_study_105_05_sri_obs</v>
       </c>
       <c r="K178" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O178" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P178" s="150">
         <v>0</v>
@@ -18534,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="E179" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F179" s="162" t="s">
         <v>127</v>
@@ -18543,20 +18558,20 @@
         <v>6</v>
       </c>
       <c r="H179" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J179" s="150" t="str">
         <f t="shared" si="528"/>
         <v>ProVisioNET_study_105_05_sri_ambient</v>
       </c>
       <c r="K179" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O179" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P179" s="150">
         <v>0</v>
@@ -18608,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F180" s="162" t="s">
         <v>127</v>
@@ -18617,20 +18632,20 @@
         <v>6</v>
       </c>
       <c r="H180" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J180" s="150" t="str">
         <f t="shared" si="528"/>
         <v>ProVisioNET_study_105_05_fitbit</v>
       </c>
       <c r="K180" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O180" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P180" s="150">
         <v>0</v>
@@ -18682,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F181" s="162" t="s">
         <v>127</v>
@@ -18691,20 +18706,20 @@
         <v>6</v>
       </c>
       <c r="H181" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J181" s="160" t="str">
         <f t="shared" si="528"/>
         <v>ProVisioNET_study_105_05_zed</v>
       </c>
       <c r="K181" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O181" s="150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P181" s="150">
         <v>0</v>
@@ -18756,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="148" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F182" s="149" t="s">
         <v>128</v>
@@ -18776,16 +18791,16 @@
         <v>115</v>
       </c>
       <c r="L182" s="151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M182" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N182" s="147">
         <v>5</v>
       </c>
       <c r="O182" s="147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P182" s="147">
         <v>0</v>
@@ -18837,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F183" s="162" t="s">
         <v>128</v>
@@ -18856,13 +18871,13 @@
         <v>ProVisioNET_study_106_06_cam1_1</v>
       </c>
       <c r="K183" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P183" s="150">
         <v>0</v>
@@ -18914,7 +18929,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F184" s="162" t="s">
         <v>128</v>
@@ -18933,13 +18948,13 @@
         <v>ProVisioNET_study_106_06_cam1_2</v>
       </c>
       <c r="K184" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P184" s="150">
         <v>0</v>
@@ -18991,7 +19006,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F185" s="162" t="s">
         <v>128</v>
@@ -19010,13 +19025,13 @@
         <v>ProVisioNET_study_106_06_cam2_1</v>
       </c>
       <c r="K185" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P185" s="150">
         <v>0</v>
@@ -19068,7 +19083,7 @@
         <v>0</v>
       </c>
       <c r="E186" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F186" s="162" t="s">
         <v>128</v>
@@ -19087,13 +19102,13 @@
         <v>ProVisioNET_study_106_06_cam2_2</v>
       </c>
       <c r="K186" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P186" s="150">
         <v>0</v>
@@ -19145,7 +19160,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F187" s="162" t="s">
         <v>128</v>
@@ -19164,13 +19179,13 @@
         <v>ProVisioNET_study_106_06_cam3_1</v>
       </c>
       <c r="K187" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P187" s="150">
         <v>0</v>
@@ -19222,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F188" s="162" t="s">
         <v>128</v>
@@ -19241,13 +19256,13 @@
         <v>ProVisioNET_study_106_06_cam3_2</v>
       </c>
       <c r="K188" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P188" s="150">
         <v>0</v>
@@ -19299,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F189" s="162" t="s">
         <v>128</v>
@@ -19318,13 +19333,13 @@
         <v>ProVisioNET_study_106_06_cam4_1</v>
       </c>
       <c r="K189" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P189" s="150">
         <v>0</v>
@@ -19376,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F190" s="162" t="s">
         <v>128</v>
@@ -19395,13 +19410,13 @@
         <v>ProVisioNET_study_106_06_cam4_2</v>
       </c>
       <c r="K190" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P190" s="150">
         <v>0</v>
@@ -19453,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="E191" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F191" s="162" t="s">
         <v>128</v>
@@ -19469,13 +19484,13 @@
         <v>ProVisioNET_study_106_06_glasses</v>
       </c>
       <c r="K191" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P191" s="150">
         <v>0</v>
@@ -19527,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="E192" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F192" s="162" t="s">
         <v>128</v>
@@ -19543,13 +19558,13 @@
         <v>ProVisioNET_study_106_06_ambient</v>
       </c>
       <c r="K192" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P192" s="150">
         <v>0</v>
@@ -19601,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E193" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F193" s="162" t="s">
         <v>128</v>
@@ -19617,13 +19632,13 @@
         <v>ProVisioNET_study_106_06_ETrawdata</v>
       </c>
       <c r="K193" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P193" s="150">
         <v>0</v>
@@ -19675,7 +19690,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F194" s="162" t="s">
         <v>128</v>
@@ -19684,20 +19699,20 @@
         <v>7</v>
       </c>
       <c r="H194" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J194" s="150" t="str">
         <f t="shared" si="532"/>
         <v>ProVisioNET_study_106_06_sri_obs</v>
       </c>
       <c r="K194" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P194" s="150">
         <v>0</v>
@@ -19749,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F195" s="162" t="s">
         <v>128</v>
@@ -19758,20 +19773,20 @@
         <v>7</v>
       </c>
       <c r="H195" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J195" s="150" t="str">
         <f t="shared" si="532"/>
         <v>ProVisioNET_study_106_06_sri_ambient</v>
       </c>
       <c r="K195" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P195" s="150">
         <v>0</v>
@@ -19823,7 +19838,7 @@
         <v>0</v>
       </c>
       <c r="E196" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F196" s="162" t="s">
         <v>128</v>
@@ -19832,20 +19847,20 @@
         <v>7</v>
       </c>
       <c r="H196" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J196" s="150" t="str">
         <f t="shared" si="532"/>
         <v>ProVisioNET_study_106_06_fitbit</v>
       </c>
       <c r="K196" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P196" s="150">
         <v>0</v>
@@ -19897,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="E197" s="155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F197" s="162" t="s">
         <v>128</v>
@@ -19906,20 +19921,20 @@
         <v>7</v>
       </c>
       <c r="H197" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J197" s="160" t="str">
         <f t="shared" si="532"/>
         <v>ProVisioNET_study_106_06_zed</v>
       </c>
       <c r="K197" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P197" s="150">
         <v>0</v>
@@ -19971,7 +19986,7 @@
         <v>0</v>
       </c>
       <c r="E198" s="148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F198" s="149" t="s">
         <v>21</v>
@@ -19991,16 +20006,16 @@
         <v>115</v>
       </c>
       <c r="L198" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M198" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N198" s="147">
         <v>5</v>
       </c>
       <c r="O198" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P198" s="147">
         <v>32</v>
@@ -20052,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="E199" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F199" s="162" t="s">
         <v>21</v>
@@ -20071,13 +20086,13 @@
         <v>ProVisioNET_study_202_02_cam1_1</v>
       </c>
       <c r="K199" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P199" s="3">
         <v>32</v>
@@ -20129,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F200" s="162" t="s">
         <v>21</v>
@@ -20148,13 +20163,13 @@
         <v>ProVisioNET_study_202_02_cam1_2</v>
       </c>
       <c r="K200" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P200" s="3">
         <v>32</v>
@@ -20206,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="E201" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F201" s="162" t="s">
         <v>21</v>
@@ -20225,13 +20240,13 @@
         <v>ProVisioNET_study_202_02_cam2_1</v>
       </c>
       <c r="K201" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P201" s="3">
         <v>32</v>
@@ -20283,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F202" s="162" t="s">
         <v>21</v>
@@ -20302,13 +20317,13 @@
         <v>ProVisioNET_study_202_02_cam2_2</v>
       </c>
       <c r="K202" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P202" s="3">
         <v>32</v>
@@ -20360,7 +20375,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F203" s="162" t="s">
         <v>21</v>
@@ -20379,13 +20394,13 @@
         <v>ProVisioNET_study_202_02_cam3_1</v>
       </c>
       <c r="K203" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P203" s="3">
         <v>32</v>
@@ -20437,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="E204" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F204" s="162" t="s">
         <v>21</v>
@@ -20456,13 +20471,13 @@
         <v>ProVisioNET_study_202_02_cam3_2</v>
       </c>
       <c r="K204" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P204" s="3">
         <v>32</v>
@@ -20514,7 +20529,7 @@
         <v>0</v>
       </c>
       <c r="E205" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F205" s="162" t="s">
         <v>21</v>
@@ -20533,13 +20548,13 @@
         <v>ProVisioNET_study_202_02_cam4_1</v>
       </c>
       <c r="K205" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P205" s="3">
         <v>32</v>
@@ -20591,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="E206" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F206" s="162" t="s">
         <v>21</v>
@@ -20610,13 +20625,13 @@
         <v>ProVisioNET_study_202_02_cam4_2</v>
       </c>
       <c r="K206" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P206" s="3">
         <v>32</v>
@@ -20668,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="E207" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F207" s="162" t="s">
         <v>21</v>
@@ -20684,13 +20699,13 @@
         <v>ProVisioNET_study_202_02_glasses</v>
       </c>
       <c r="K207" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P207" s="3">
         <v>32</v>
@@ -20742,7 +20757,7 @@
         <v>0</v>
       </c>
       <c r="E208" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F208" s="162" t="s">
         <v>21</v>
@@ -20758,13 +20773,13 @@
         <v>ProVisioNET_study_202_02_ambient</v>
       </c>
       <c r="K208" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P208" s="3">
         <v>32</v>
@@ -20816,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="E209" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F209" s="162" t="s">
         <v>21</v>
@@ -20832,13 +20847,13 @@
         <v>ProVisioNET_study_202_02_ETrawdata</v>
       </c>
       <c r="K209" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P209" s="3">
         <v>32</v>
@@ -20890,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="E210" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F210" s="162" t="s">
         <v>21</v>
@@ -20899,20 +20914,20 @@
         <v>8</v>
       </c>
       <c r="H210" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J210" s="150" t="str">
         <f t="shared" si="536"/>
         <v>ProVisioNET_study_202_02_sri_obs</v>
       </c>
       <c r="K210" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P210" s="3">
         <v>32</v>
@@ -20964,7 +20979,7 @@
         <v>0</v>
       </c>
       <c r="E211" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F211" s="162" t="s">
         <v>21</v>
@@ -20973,7 +20988,7 @@
         <v>8</v>
       </c>
       <c r="H211" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I211" s="3">
         <v>1</v>
@@ -20983,13 +20998,13 @@
         <v>ProVisioNET_study_202_02_sri_ambient_1</v>
       </c>
       <c r="K211" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P211" s="3">
         <v>32</v>
@@ -21050,7 +21065,7 @@
         <v>8</v>
       </c>
       <c r="H212" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I212" s="3">
         <v>2</v>
@@ -21060,13 +21075,13 @@
         <v>ProVisioNET_study_202_02_sri_ambient_2</v>
       </c>
       <c r="K212" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P212" s="3">
         <v>32</v>
@@ -21118,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="E213" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F213" s="162" t="s">
         <v>21</v>
@@ -21127,20 +21142,20 @@
         <v>8</v>
       </c>
       <c r="H213" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J213" s="150" t="str">
         <f>CONCATENATE(C213,"_",D213,"_",E213,"_",F213,"_",H213)</f>
         <v>ProVisioNET_study_202_02_fitbit</v>
       </c>
       <c r="K213" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P213" s="3">
         <v>32</v>
@@ -21192,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="E214" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F214" s="162" t="s">
         <v>21</v>
@@ -21201,20 +21216,20 @@
         <v>8</v>
       </c>
       <c r="H214" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J214" s="160" t="str">
         <f>CONCATENATE(C214,"_",D214,"_",E214,"_",F214,"_",H214)</f>
         <v>ProVisioNET_study_202_02_zed</v>
       </c>
       <c r="K214" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P214" s="3">
         <v>32</v>
@@ -21266,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F215" s="149" t="s">
         <v>22</v>
@@ -21286,16 +21301,16 @@
         <v>115</v>
       </c>
       <c r="L215" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M215" s="147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N215" s="147">
         <v>3</v>
       </c>
       <c r="O215" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P215" s="147">
         <v>3</v>
@@ -21347,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="E216" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F216" s="162" t="s">
         <v>22</v>
@@ -21366,19 +21381,19 @@
         <v>ProVisioNET_study_203_03_cam1_1</v>
       </c>
       <c r="K216" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N216" s="3">
         <v>3</v>
       </c>
       <c r="O216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P216" s="3">
         <v>3</v>
@@ -21430,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="E217" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F217" s="162" t="s">
         <v>22</v>
@@ -21449,19 +21464,19 @@
         <v>ProVisioNET_study_203_03_cam1_2</v>
       </c>
       <c r="K217" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N217" s="3">
         <v>3</v>
       </c>
       <c r="O217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P217" s="3">
         <v>3</v>
@@ -21513,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="E218" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F218" s="162" t="s">
         <v>22</v>
@@ -21532,19 +21547,19 @@
         <v>ProVisioNET_study_203_03_cam2_1</v>
       </c>
       <c r="K218" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N218" s="3">
         <v>3</v>
       </c>
       <c r="O218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P218" s="3">
         <v>3</v>
@@ -21596,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="E219" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F219" s="162" t="s">
         <v>22</v>
@@ -21615,19 +21630,19 @@
         <v>ProVisioNET_study_203_03_cam2_2</v>
       </c>
       <c r="K219" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N219" s="3">
         <v>3</v>
       </c>
       <c r="O219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P219" s="3">
         <v>3</v>
@@ -21679,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F220" s="162" t="s">
         <v>22</v>
@@ -21698,19 +21713,19 @@
         <v>ProVisioNET_study_203_03_cam3_1</v>
       </c>
       <c r="K220" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N220" s="3">
         <v>3</v>
       </c>
       <c r="O220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P220" s="3">
         <v>3</v>
@@ -21762,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="E221" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F221" s="162" t="s">
         <v>22</v>
@@ -21781,19 +21796,19 @@
         <v>ProVisioNET_study_203_03_cam3_2</v>
       </c>
       <c r="K221" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N221" s="3">
         <v>3</v>
       </c>
       <c r="O221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P221" s="3">
         <v>3</v>
@@ -21845,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="E222" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F222" s="162" t="s">
         <v>22</v>
@@ -21864,19 +21879,19 @@
         <v>ProVisioNET_study_203_03_cam4_1</v>
       </c>
       <c r="K222" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N222" s="3">
         <v>3</v>
       </c>
       <c r="O222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P222" s="3">
         <v>3</v>
@@ -21928,7 +21943,7 @@
         <v>0</v>
       </c>
       <c r="E223" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F223" s="162" t="s">
         <v>22</v>
@@ -21947,19 +21962,19 @@
         <v>ProVisioNET_study_203_03_cam4_2</v>
       </c>
       <c r="K223" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N223" s="3">
         <v>3</v>
       </c>
       <c r="O223" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P223" s="3">
         <v>3</v>
@@ -22011,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="E224" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F224" s="162" t="s">
         <v>22</v>
@@ -22027,19 +22042,19 @@
         <v>ProVisioNET_study_203_03_glasses</v>
       </c>
       <c r="K224" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N224" s="3">
         <v>3</v>
       </c>
       <c r="O224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P224" s="3">
         <v>3</v>
@@ -22091,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="E225" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F225" s="162" t="s">
         <v>22</v>
@@ -22107,19 +22122,19 @@
         <v>ProVisioNET_study_203_03_ambient</v>
       </c>
       <c r="K225" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N225" s="3">
         <v>3</v>
       </c>
       <c r="O225" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P225" s="3">
         <v>3</v>
@@ -22171,7 +22186,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F226" s="162" t="s">
         <v>22</v>
@@ -22187,19 +22202,19 @@
         <v>ProVisioNET_study_203_03_ETrawdata</v>
       </c>
       <c r="K226" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N226" s="3">
         <v>3</v>
       </c>
       <c r="O226" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P226" s="3">
         <v>3</v>
@@ -22251,7 +22266,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F227" s="162" t="s">
         <v>22</v>
@@ -22260,26 +22275,26 @@
         <v>9</v>
       </c>
       <c r="H227" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J227" s="150" t="str">
         <f t="shared" si="540"/>
         <v>ProVisioNET_study_203_03_sri_obs</v>
       </c>
       <c r="K227" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N227" s="3">
         <v>3</v>
       </c>
       <c r="O227" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P227" s="3">
         <v>3</v>
@@ -22331,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F228" s="162" t="s">
         <v>22</v>
@@ -22340,26 +22355,26 @@
         <v>9</v>
       </c>
       <c r="H228" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J228" s="150" t="str">
         <f t="shared" si="540"/>
         <v>ProVisioNET_study_203_03_sri_ambient</v>
       </c>
       <c r="K228" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N228" s="3">
         <v>3</v>
       </c>
       <c r="O228" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P228" s="3">
         <v>3</v>
@@ -22411,7 +22426,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F229" s="162" t="s">
         <v>22</v>
@@ -22420,26 +22435,26 @@
         <v>9</v>
       </c>
       <c r="H229" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J229" s="150" t="str">
         <f t="shared" si="540"/>
         <v>ProVisioNET_study_203_03_fitbit</v>
       </c>
       <c r="K229" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N229" s="3">
         <v>3</v>
       </c>
       <c r="O229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P229" s="3">
         <v>3</v>
@@ -22491,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F230" s="162" t="s">
         <v>22</v>
@@ -22500,26 +22515,26 @@
         <v>9</v>
       </c>
       <c r="H230" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J230" s="160" t="str">
         <f t="shared" si="540"/>
         <v>ProVisioNET_study_203_03_zed</v>
       </c>
       <c r="K230" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N230" s="3">
         <v>3</v>
       </c>
       <c r="O230" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P230" s="3">
         <v>3</v>
@@ -22571,10 +22586,10 @@
         <v>0</v>
       </c>
       <c r="E231" s="148" t="s">
+        <v>212</v>
+      </c>
+      <c r="F231" s="149" t="s">
         <v>213</v>
-      </c>
-      <c r="F231" s="149" t="s">
-        <v>214</v>
       </c>
       <c r="G231" s="147">
         <v>10</v>
@@ -22591,16 +22606,16 @@
         <v>115</v>
       </c>
       <c r="L231" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M231" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N231" s="147">
         <v>7</v>
       </c>
       <c r="O231" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P231" s="147">
         <v>0</v>
@@ -22652,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="E232" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F232" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F232" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G232" s="150">
         <v>10</v>
@@ -22671,19 +22686,19 @@
         <v>ProVisioNET_study_107_07_cam1_1</v>
       </c>
       <c r="K232" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N232" s="3">
         <v>7</v>
       </c>
       <c r="O232" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P232" s="3">
         <v>0</v>
@@ -22735,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="E233" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F233" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F233" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G233" s="150">
         <v>10</v>
@@ -22754,19 +22769,19 @@
         <v>ProVisioNET_study_107_07_cam1_2</v>
       </c>
       <c r="K233" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N233" s="3">
         <v>7</v>
       </c>
       <c r="O233" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P233" s="3">
         <v>0</v>
@@ -22787,7 +22802,7 @@
         <v>1998</v>
       </c>
       <c r="V233" s="163" t="str">
-        <f t="shared" ref="V233:V246" si="543">"28/8/1998"</f>
+        <f t="shared" ref="V233:V247" si="543">"28/8/1998"</f>
         <v>28/8/1998</v>
       </c>
       <c r="W233" s="157">
@@ -22818,10 +22833,10 @@
         <v>0</v>
       </c>
       <c r="E234" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F234" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F234" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G234" s="150">
         <v>10</v>
@@ -22837,19 +22852,19 @@
         <v>ProVisioNET_study_107_07_cam2_1</v>
       </c>
       <c r="K234" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N234" s="3">
         <v>7</v>
       </c>
       <c r="O234" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P234" s="3">
         <v>0</v>
@@ -22901,10 +22916,10 @@
         <v>0</v>
       </c>
       <c r="E235" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F235" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F235" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G235" s="150">
         <v>10</v>
@@ -22920,19 +22935,19 @@
         <v>ProVisioNET_study_107_07_cam2_2</v>
       </c>
       <c r="K235" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N235" s="3">
         <v>7</v>
       </c>
       <c r="O235" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P235" s="3">
         <v>0</v>
@@ -22984,10 +22999,10 @@
         <v>0</v>
       </c>
       <c r="E236" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F236" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F236" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G236" s="150">
         <v>10</v>
@@ -23003,19 +23018,19 @@
         <v>ProVisioNET_study_107_07_cam3_1</v>
       </c>
       <c r="K236" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N236" s="3">
         <v>7</v>
       </c>
       <c r="O236" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P236" s="3">
         <v>0</v>
@@ -23067,10 +23082,10 @@
         <v>0</v>
       </c>
       <c r="E237" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F237" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F237" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G237" s="150">
         <v>10</v>
@@ -23086,19 +23101,19 @@
         <v>ProVisioNET_study_107_07_cam3_2</v>
       </c>
       <c r="K237" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N237" s="3">
         <v>7</v>
       </c>
       <c r="O237" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P237" s="3">
         <v>0</v>
@@ -23150,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="E238" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F238" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F238" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G238" s="150">
         <v>10</v>
@@ -23169,19 +23184,19 @@
         <v>ProVisioNET_study_107_07_cam4_1</v>
       </c>
       <c r="K238" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N238" s="3">
         <v>7</v>
       </c>
       <c r="O238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P238" s="3">
         <v>0</v>
@@ -23233,10 +23248,10 @@
         <v>0</v>
       </c>
       <c r="E239" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F239" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F239" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G239" s="150">
         <v>10</v>
@@ -23252,19 +23267,19 @@
         <v>ProVisioNET_study_107_07_cam4_2</v>
       </c>
       <c r="K239" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N239" s="3">
         <v>7</v>
       </c>
       <c r="O239" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P239" s="3">
         <v>0</v>
@@ -23316,10 +23331,10 @@
         <v>0</v>
       </c>
       <c r="E240" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F240" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F240" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G240" s="150">
         <v>10</v>
@@ -23328,23 +23343,23 @@
         <v>120</v>
       </c>
       <c r="J240" s="150" t="str">
-        <f t="shared" ref="J240:J246" si="544">CONCATENATE(C240,"_",D240,"_",E240,"_",F240,"_",H240)</f>
+        <f t="shared" ref="J240:J247" si="544">CONCATENATE(C240,"_",D240,"_",E240,"_",F240,"_",H240)</f>
         <v>ProVisioNET_study_107_07_glasses</v>
       </c>
       <c r="K240" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N240" s="3">
         <v>7</v>
       </c>
       <c r="O240" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P240" s="3">
         <v>0</v>
@@ -23396,10 +23411,10 @@
         <v>0</v>
       </c>
       <c r="E241" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F241" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F241" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G241" s="150">
         <v>10</v>
@@ -23412,19 +23427,19 @@
         <v>ProVisioNET_study_107_07_ambient</v>
       </c>
       <c r="K241" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N241" s="3">
         <v>7</v>
       </c>
       <c r="O241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P241" s="3">
         <v>0</v>
@@ -23476,10 +23491,10 @@
         <v>0</v>
       </c>
       <c r="E242" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F242" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F242" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G242" s="150">
         <v>10</v>
@@ -23489,22 +23504,22 @@
       </c>
       <c r="J242" s="150" t="str">
         <f t="shared" si="544"/>
-        <v>ProVisioNET_study_107_07_ETrawdata</v>
+        <v>ProVisioNET_study_108_07_ETrawdata</v>
       </c>
       <c r="K242" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N242" s="3">
         <v>7</v>
       </c>
       <c r="O242" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P242" s="3">
         <v>0</v>
@@ -23556,35 +23571,35 @@
         <v>0</v>
       </c>
       <c r="E243" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F243" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F243" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G243" s="150">
         <v>10</v>
       </c>
       <c r="H243" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J243" s="150" t="str">
         <f t="shared" si="544"/>
-        <v>ProVisioNET_study_107_07_sri_obs</v>
+        <v>ProVisioNET_study_108_07_sri_obs</v>
       </c>
       <c r="K243" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N243" s="3">
         <v>7</v>
       </c>
       <c r="O243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P243" s="3">
         <v>0</v>
@@ -23636,35 +23651,35 @@
         <v>0</v>
       </c>
       <c r="E244" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F244" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F244" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G244" s="150">
         <v>10</v>
       </c>
       <c r="H244" s="150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J244" s="150" t="str">
         <f t="shared" si="544"/>
-        <v>ProVisioNET_study_107_07_sri_ambient</v>
+        <v>ProVisioNET_study_108_07_sri_ambient</v>
       </c>
       <c r="K244" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N244" s="3">
         <v>7</v>
       </c>
       <c r="O244" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P244" s="3">
         <v>0</v>
@@ -23716,35 +23731,35 @@
         <v>0</v>
       </c>
       <c r="E245" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F245" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F245" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G245" s="150">
         <v>10</v>
       </c>
       <c r="H245" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J245" s="150" t="str">
         <f t="shared" si="544"/>
-        <v>ProVisioNET_study_107_07_fitbit</v>
+        <v>ProVisioNET_study_108_07_fitbit</v>
       </c>
       <c r="K245" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N245" s="3">
         <v>7</v>
       </c>
       <c r="O245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P245" s="3">
         <v>0</v>
@@ -23796,35 +23811,35 @@
         <v>0</v>
       </c>
       <c r="E246" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F246" s="162" t="s">
         <v>213</v>
-      </c>
-      <c r="F246" s="162" t="s">
-        <v>214</v>
       </c>
       <c r="G246" s="150">
         <v>10</v>
       </c>
       <c r="H246" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J246" s="160" t="str">
         <f t="shared" si="544"/>
-        <v>ProVisioNET_study_107_07_zed</v>
+        <v>ProVisioNET_study_108_07_zed</v>
       </c>
       <c r="K246" s="156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N246" s="3">
         <v>7</v>
       </c>
       <c r="O246" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P246" s="3">
         <v>0</v>
@@ -23861,6 +23876,2618 @@
         <f t="shared" si="542"/>
         <v>6/10/2021</v>
       </c>
+    </row>
+    <row r="247" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B247" s="147">
+        <v>11</v>
+      </c>
+      <c r="C247" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D247" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E247" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="F247" s="149" t="s">
+        <v>220</v>
+      </c>
+      <c r="G247" s="147">
+        <v>11</v>
+      </c>
+      <c r="H247" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I247" s="147"/>
+      <c r="J247" s="150" t="str">
+        <f t="shared" si="544"/>
+        <v>ProVisioNET_study_108_08_label</v>
+      </c>
+      <c r="K247" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L247" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="M247" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="N247" s="147">
+        <v>10</v>
+      </c>
+      <c r="O247" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="P247" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R247" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S247" s="152">
+        <v>14</v>
+      </c>
+      <c r="T247" s="152">
+        <v>5</v>
+      </c>
+      <c r="U247" s="152">
+        <v>1997</v>
+      </c>
+      <c r="V247" s="164" t="str">
+        <f>"14/5/1997"</f>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W247" s="152">
+        <v>13</v>
+      </c>
+      <c r="X247" s="152">
+        <v>10</v>
+      </c>
+      <c r="Y247" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z247" s="152" t="str">
+        <f>W247&amp;"/"&amp;X247&amp;"/"&amp;Y247</f>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B248" s="3">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>176</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E248" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F248" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G248" s="150">
+        <v>11</v>
+      </c>
+      <c r="H248" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I248" s="3">
+        <v>1</v>
+      </c>
+      <c r="J248" s="150" t="str">
+        <f t="shared" ref="J248:J255" si="545">CONCATENATE(C248,"_",D248,"_",E248,"_",F248,"_",H248,"_",I248)</f>
+        <v>ProVisioNET_study_108_08_cam1_1</v>
+      </c>
+      <c r="K248" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N248" s="3">
+        <v>10</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P248" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R248" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S248" s="3">
+        <v>14</v>
+      </c>
+      <c r="T248" s="3">
+        <v>5</v>
+      </c>
+      <c r="U248" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V248" s="163" t="str">
+        <f>"14/5/1997"</f>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W248" s="157">
+        <v>13</v>
+      </c>
+      <c r="X248" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y248" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z248" s="157" t="str">
+        <f t="shared" ref="Z248:Z262" si="546">W248&amp;"/"&amp;X248&amp;"/"&amp;Y248</f>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B249" s="3">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>176</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F249" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G249" s="150">
+        <v>11</v>
+      </c>
+      <c r="H249" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I249" s="150">
+        <v>2</v>
+      </c>
+      <c r="J249" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam1_2</v>
+      </c>
+      <c r="K249" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N249" s="3">
+        <v>10</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P249" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R249" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S249" s="3">
+        <v>14</v>
+      </c>
+      <c r="T249" s="3">
+        <v>5</v>
+      </c>
+      <c r="U249" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V249" s="163" t="str">
+        <f t="shared" ref="V249:V262" si="547">"14/5/1997"</f>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W249" s="157">
+        <v>13</v>
+      </c>
+      <c r="X249" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y249" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z249" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B250" s="3">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>176</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F250" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G250" s="150">
+        <v>11</v>
+      </c>
+      <c r="H250" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I250" s="150">
+        <v>1</v>
+      </c>
+      <c r="J250" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam2_1</v>
+      </c>
+      <c r="K250" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N250" s="3">
+        <v>10</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P250" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q250" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R250" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S250" s="3">
+        <v>14</v>
+      </c>
+      <c r="T250" s="3">
+        <v>5</v>
+      </c>
+      <c r="U250" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V250" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W250" s="157">
+        <v>13</v>
+      </c>
+      <c r="X250" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y250" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z250" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B251" s="3">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>176</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F251" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G251" s="150">
+        <v>11</v>
+      </c>
+      <c r="H251" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I251" s="150">
+        <v>2</v>
+      </c>
+      <c r="J251" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam2_2</v>
+      </c>
+      <c r="K251" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N251" s="3">
+        <v>10</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P251" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R251" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S251" s="3">
+        <v>14</v>
+      </c>
+      <c r="T251" s="3">
+        <v>5</v>
+      </c>
+      <c r="U251" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V251" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W251" s="157">
+        <v>13</v>
+      </c>
+      <c r="X251" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y251" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z251" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B252" s="3">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s">
+        <v>176</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E252" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F252" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G252" s="150">
+        <v>11</v>
+      </c>
+      <c r="H252" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I252" s="150">
+        <v>1</v>
+      </c>
+      <c r="J252" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam3_1</v>
+      </c>
+      <c r="K252" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N252" s="3">
+        <v>10</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P252" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R252" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S252" s="3">
+        <v>14</v>
+      </c>
+      <c r="T252" s="3">
+        <v>5</v>
+      </c>
+      <c r="U252" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V252" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W252" s="157">
+        <v>13</v>
+      </c>
+      <c r="X252" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y252" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z252" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B253" s="3">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>176</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F253" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G253" s="150">
+        <v>11</v>
+      </c>
+      <c r="H253" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I253" s="150">
+        <v>2</v>
+      </c>
+      <c r="J253" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam3_2</v>
+      </c>
+      <c r="K253" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N253" s="3">
+        <v>10</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P253" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R253" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S253" s="3">
+        <v>14</v>
+      </c>
+      <c r="T253" s="3">
+        <v>5</v>
+      </c>
+      <c r="U253" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V253" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W253" s="157">
+        <v>13</v>
+      </c>
+      <c r="X253" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y253" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z253" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B254" s="3">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>176</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E254" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F254" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G254" s="150">
+        <v>11</v>
+      </c>
+      <c r="H254" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I254" s="150">
+        <v>1</v>
+      </c>
+      <c r="J254" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam4_1</v>
+      </c>
+      <c r="K254" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N254" s="3">
+        <v>10</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P254" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q254" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R254" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S254" s="3">
+        <v>14</v>
+      </c>
+      <c r="T254" s="3">
+        <v>5</v>
+      </c>
+      <c r="U254" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V254" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W254" s="157">
+        <v>13</v>
+      </c>
+      <c r="X254" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y254" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z254" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B255" s="3">
+        <v>11</v>
+      </c>
+      <c r="C255" t="s">
+        <v>176</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E255" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F255" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G255" s="150">
+        <v>11</v>
+      </c>
+      <c r="H255" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I255" s="150">
+        <v>2</v>
+      </c>
+      <c r="J255" s="150" t="str">
+        <f t="shared" si="545"/>
+        <v>ProVisioNET_study_108_08_cam4_2</v>
+      </c>
+      <c r="K255" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N255" s="3">
+        <v>10</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P255" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R255" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S255" s="3">
+        <v>14</v>
+      </c>
+      <c r="T255" s="3">
+        <v>5</v>
+      </c>
+      <c r="U255" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V255" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W255" s="157">
+        <v>13</v>
+      </c>
+      <c r="X255" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y255" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z255" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B256" s="3">
+        <v>11</v>
+      </c>
+      <c r="C256" t="s">
+        <v>176</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E256" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F256" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G256" s="150">
+        <v>11</v>
+      </c>
+      <c r="H256" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J256" s="150" t="str">
+        <f t="shared" ref="J256:J263" si="548">CONCATENATE(C256,"_",D256,"_",E256,"_",F256,"_",H256)</f>
+        <v>ProVisioNET_study_108_08_glasses</v>
+      </c>
+      <c r="K256" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N256" s="3">
+        <v>10</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P256" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R256" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S256" s="3">
+        <v>14</v>
+      </c>
+      <c r="T256" s="3">
+        <v>5</v>
+      </c>
+      <c r="U256" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V256" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W256" s="157">
+        <v>13</v>
+      </c>
+      <c r="X256" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y256" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z256" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B257" s="3">
+        <v>11</v>
+      </c>
+      <c r="C257" t="s">
+        <v>176</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E257" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F257" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G257" s="150">
+        <v>11</v>
+      </c>
+      <c r="H257" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J257" s="150" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_108_08_ambient</v>
+      </c>
+      <c r="K257" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N257" s="3">
+        <v>10</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P257" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q257" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R257" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S257" s="3">
+        <v>14</v>
+      </c>
+      <c r="T257" s="3">
+        <v>5</v>
+      </c>
+      <c r="U257" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V257" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W257" s="157">
+        <v>13</v>
+      </c>
+      <c r="X257" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y257" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z257" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B258" s="3">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>176</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F258" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G258" s="150">
+        <v>11</v>
+      </c>
+      <c r="H258" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J258" s="150" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_108_08_ETrawdata</v>
+      </c>
+      <c r="K258" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N258" s="3">
+        <v>10</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P258" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R258" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S258" s="3">
+        <v>14</v>
+      </c>
+      <c r="T258" s="3">
+        <v>5</v>
+      </c>
+      <c r="U258" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V258" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W258" s="157">
+        <v>13</v>
+      </c>
+      <c r="X258" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y258" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z258" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B259" s="3">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>176</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E259" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F259" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G259" s="150">
+        <v>11</v>
+      </c>
+      <c r="H259" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J259" s="150" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_108_08_sri_obs</v>
+      </c>
+      <c r="K259" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N259" s="3">
+        <v>10</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P259" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R259" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S259" s="3">
+        <v>14</v>
+      </c>
+      <c r="T259" s="3">
+        <v>5</v>
+      </c>
+      <c r="U259" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V259" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W259" s="157">
+        <v>13</v>
+      </c>
+      <c r="X259" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y259" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z259" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B260" s="3">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>176</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E260" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F260" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G260" s="150">
+        <v>11</v>
+      </c>
+      <c r="H260" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="J260" s="150" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_108_08_sri_ambient</v>
+      </c>
+      <c r="K260" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N260" s="3">
+        <v>10</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P260" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R260" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S260" s="3">
+        <v>14</v>
+      </c>
+      <c r="T260" s="3">
+        <v>5</v>
+      </c>
+      <c r="U260" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V260" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W260" s="157">
+        <v>13</v>
+      </c>
+      <c r="X260" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y260" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z260" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B261" s="3">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>176</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F261" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G261" s="150">
+        <v>11</v>
+      </c>
+      <c r="H261" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J261" s="150" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_108_08_fitbit</v>
+      </c>
+      <c r="K261" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N261" s="3">
+        <v>10</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P261" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R261" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S261" s="3">
+        <v>14</v>
+      </c>
+      <c r="T261" s="3">
+        <v>5</v>
+      </c>
+      <c r="U261" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V261" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W261" s="157">
+        <v>13</v>
+      </c>
+      <c r="X261" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y261" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z261" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B262" s="3">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>176</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E262" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="F262" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="G262" s="150">
+        <v>11</v>
+      </c>
+      <c r="H262" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="J262" s="160" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_108_08_zed</v>
+      </c>
+      <c r="K262" s="156"/>
+      <c r="L262" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N262" s="3">
+        <v>10</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P262" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R262" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S262" s="3">
+        <v>14</v>
+      </c>
+      <c r="T262" s="3">
+        <v>5</v>
+      </c>
+      <c r="U262" s="3">
+        <v>1997</v>
+      </c>
+      <c r="V262" s="163" t="str">
+        <f t="shared" si="547"/>
+        <v>14/5/1997</v>
+      </c>
+      <c r="W262" s="157">
+        <v>13</v>
+      </c>
+      <c r="X262" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y262" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z262" s="157" t="str">
+        <f t="shared" si="546"/>
+        <v>13/10/2021</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B263" s="147">
+        <v>12</v>
+      </c>
+      <c r="C263" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D263" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E263" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="F263" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G263" s="147">
+        <v>12</v>
+      </c>
+      <c r="H263" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I263" s="147"/>
+      <c r="J263" s="150" t="str">
+        <f t="shared" si="548"/>
+        <v>ProVisioNET_study_109_01_label</v>
+      </c>
+      <c r="K263" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L263" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="M263" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="N263" s="147">
+        <v>10</v>
+      </c>
+      <c r="O263" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="P263" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R263" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S263" s="152">
+        <v>7</v>
+      </c>
+      <c r="T263" s="152">
+        <v>4</v>
+      </c>
+      <c r="U263" s="152">
+        <v>1998</v>
+      </c>
+      <c r="V263" s="152" t="str">
+        <f>S263&amp;"/"&amp;T263&amp;"/"&amp;U263</f>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W263" s="152">
+        <v>18</v>
+      </c>
+      <c r="X263" s="152">
+        <v>10</v>
+      </c>
+      <c r="Y263" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z263" s="152" t="str">
+        <f>W263&amp;"/"&amp;X263&amp;"/"&amp;Y263</f>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B264" s="3">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>176</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E264" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F264" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264" s="150">
+        <v>12</v>
+      </c>
+      <c r="H264" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I264" s="3">
+        <v>1</v>
+      </c>
+      <c r="J264" s="150" t="str">
+        <f t="shared" ref="J264:J271" si="549">CONCATENATE(C264,"_",D264,"_",E264,"_",F264,"_",H264,"_",I264)</f>
+        <v>ProVisioNET_study_109_01_cam1_1</v>
+      </c>
+      <c r="K264" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N264" s="3">
+        <v>10</v>
+      </c>
+      <c r="O264" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P264" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R264" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S264" s="3">
+        <v>7</v>
+      </c>
+      <c r="T264" s="3">
+        <v>4</v>
+      </c>
+      <c r="U264" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V264" s="163" t="str">
+        <f>"7/4/1998"</f>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W264" s="157">
+        <v>18</v>
+      </c>
+      <c r="X264" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y264" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z264" s="157" t="str">
+        <f t="shared" ref="Z264:Z278" si="550">W264&amp;"/"&amp;X264&amp;"/"&amp;Y264</f>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B265" s="3">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>176</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E265" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F265" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G265" s="150">
+        <v>12</v>
+      </c>
+      <c r="H265" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I265" s="150">
+        <v>2</v>
+      </c>
+      <c r="J265" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam1_2</v>
+      </c>
+      <c r="K265" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N265" s="3">
+        <v>10</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P265" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R265" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S265" s="3">
+        <v>7</v>
+      </c>
+      <c r="T265" s="3">
+        <v>4</v>
+      </c>
+      <c r="U265" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V265" s="163" t="str">
+        <f t="shared" ref="V265:V278" si="551">"7/4/1998"</f>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W265" s="157">
+        <v>18</v>
+      </c>
+      <c r="X265" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y265" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z265" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B266" s="3">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>176</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E266" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F266" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G266" s="150">
+        <v>12</v>
+      </c>
+      <c r="H266" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I266" s="150">
+        <v>1</v>
+      </c>
+      <c r="J266" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam2_1</v>
+      </c>
+      <c r="K266" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N266" s="3">
+        <v>10</v>
+      </c>
+      <c r="O266" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P266" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R266" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S266" s="3">
+        <v>7</v>
+      </c>
+      <c r="T266" s="3">
+        <v>4</v>
+      </c>
+      <c r="U266" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V266" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W266" s="157">
+        <v>18</v>
+      </c>
+      <c r="X266" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y266" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z266" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B267" s="3">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>176</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E267" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F267" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267" s="150">
+        <v>12</v>
+      </c>
+      <c r="H267" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I267" s="150">
+        <v>2</v>
+      </c>
+      <c r="J267" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam2_2</v>
+      </c>
+      <c r="K267" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N267" s="3">
+        <v>10</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P267" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R267" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S267" s="3">
+        <v>7</v>
+      </c>
+      <c r="T267" s="3">
+        <v>4</v>
+      </c>
+      <c r="U267" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V267" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W267" s="157">
+        <v>18</v>
+      </c>
+      <c r="X267" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y267" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z267" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B268" s="3">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>176</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E268" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F268" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G268" s="150">
+        <v>12</v>
+      </c>
+      <c r="H268" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I268" s="150">
+        <v>1</v>
+      </c>
+      <c r="J268" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam3_1</v>
+      </c>
+      <c r="K268" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N268" s="3">
+        <v>10</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P268" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R268" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S268" s="3">
+        <v>7</v>
+      </c>
+      <c r="T268" s="3">
+        <v>4</v>
+      </c>
+      <c r="U268" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V268" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W268" s="157">
+        <v>18</v>
+      </c>
+      <c r="X268" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y268" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z268" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B269" s="3">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>176</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F269" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G269" s="150">
+        <v>12</v>
+      </c>
+      <c r="H269" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I269" s="150">
+        <v>2</v>
+      </c>
+      <c r="J269" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam3_2</v>
+      </c>
+      <c r="K269" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N269" s="3">
+        <v>10</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P269" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R269" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S269" s="3">
+        <v>7</v>
+      </c>
+      <c r="T269" s="3">
+        <v>4</v>
+      </c>
+      <c r="U269" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V269" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W269" s="157">
+        <v>18</v>
+      </c>
+      <c r="X269" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y269" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z269" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B270" s="3">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>176</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E270" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F270" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G270" s="150">
+        <v>12</v>
+      </c>
+      <c r="H270" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I270" s="150">
+        <v>1</v>
+      </c>
+      <c r="J270" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam4_1</v>
+      </c>
+      <c r="K270" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N270" s="3">
+        <v>10</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P270" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R270" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S270" s="3">
+        <v>7</v>
+      </c>
+      <c r="T270" s="3">
+        <v>4</v>
+      </c>
+      <c r="U270" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V270" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W270" s="157">
+        <v>18</v>
+      </c>
+      <c r="X270" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y270" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z270" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B271" s="3">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>176</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E271" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F271" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G271" s="150">
+        <v>12</v>
+      </c>
+      <c r="H271" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I271" s="150">
+        <v>2</v>
+      </c>
+      <c r="J271" s="150" t="str">
+        <f t="shared" si="549"/>
+        <v>ProVisioNET_study_109_01_cam4_2</v>
+      </c>
+      <c r="K271" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N271" s="3">
+        <v>10</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P271" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q271" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R271" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S271" s="3">
+        <v>7</v>
+      </c>
+      <c r="T271" s="3">
+        <v>4</v>
+      </c>
+      <c r="U271" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V271" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W271" s="157">
+        <v>18</v>
+      </c>
+      <c r="X271" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y271" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z271" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B272" s="3">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>176</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E272" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F272" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G272" s="150">
+        <v>12</v>
+      </c>
+      <c r="H272" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J272" s="150" t="str">
+        <f t="shared" ref="J272:J278" si="552">CONCATENATE(C272,"_",D272,"_",E272,"_",F272,"_",H272)</f>
+        <v>ProVisioNET_study_109_01_glasses</v>
+      </c>
+      <c r="K272" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N272" s="3">
+        <v>10</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P272" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R272" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S272" s="3">
+        <v>7</v>
+      </c>
+      <c r="T272" s="3">
+        <v>4</v>
+      </c>
+      <c r="U272" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V272" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W272" s="157">
+        <v>18</v>
+      </c>
+      <c r="X272" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y272" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z272" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B273" s="3">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>176</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E273" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F273" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G273" s="150">
+        <v>12</v>
+      </c>
+      <c r="H273" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J273" s="150" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_109_01_ambient</v>
+      </c>
+      <c r="K273" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N273" s="3">
+        <v>10</v>
+      </c>
+      <c r="O273" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P273" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R273" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S273" s="3">
+        <v>7</v>
+      </c>
+      <c r="T273" s="3">
+        <v>4</v>
+      </c>
+      <c r="U273" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V273" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W273" s="157">
+        <v>18</v>
+      </c>
+      <c r="X273" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y273" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z273" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B274" s="3">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>176</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F274" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G274" s="150">
+        <v>12</v>
+      </c>
+      <c r="H274" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J274" s="150" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_109_01_ETrawdata</v>
+      </c>
+      <c r="K274" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N274" s="3">
+        <v>10</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P274" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R274" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S274" s="3">
+        <v>7</v>
+      </c>
+      <c r="T274" s="3">
+        <v>4</v>
+      </c>
+      <c r="U274" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V274" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W274" s="157">
+        <v>18</v>
+      </c>
+      <c r="X274" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y274" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z274" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B275" s="3">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>176</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E275" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F275" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G275" s="150">
+        <v>12</v>
+      </c>
+      <c r="H275" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J275" s="150" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_109_01_sri_obs</v>
+      </c>
+      <c r="K275" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N275" s="3">
+        <v>10</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P275" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R275" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S275" s="3">
+        <v>7</v>
+      </c>
+      <c r="T275" s="3">
+        <v>4</v>
+      </c>
+      <c r="U275" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V275" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W275" s="157">
+        <v>18</v>
+      </c>
+      <c r="X275" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y275" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z275" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B276" s="3">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>176</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E276" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F276" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G276" s="150">
+        <v>12</v>
+      </c>
+      <c r="H276" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="J276" s="150" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_109_01_sri_ambient</v>
+      </c>
+      <c r="K276" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N276" s="3">
+        <v>10</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P276" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q276" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R276" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S276" s="3">
+        <v>7</v>
+      </c>
+      <c r="T276" s="3">
+        <v>4</v>
+      </c>
+      <c r="U276" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V276" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W276" s="157">
+        <v>18</v>
+      </c>
+      <c r="X276" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y276" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z276" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B277" s="3">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>176</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E277" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F277" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G277" s="150">
+        <v>12</v>
+      </c>
+      <c r="H277" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J277" s="150" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_109_01_fitbit</v>
+      </c>
+      <c r="K277" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N277" s="3">
+        <v>10</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P277" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R277" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S277" s="3">
+        <v>7</v>
+      </c>
+      <c r="T277" s="3">
+        <v>4</v>
+      </c>
+      <c r="U277" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V277" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W277" s="157">
+        <v>18</v>
+      </c>
+      <c r="X277" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y277" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z277" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B278" s="3">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>176</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E278" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="F278" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G278" s="150">
+        <v>12</v>
+      </c>
+      <c r="H278" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="J278" s="160" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_109_01_zed</v>
+      </c>
+      <c r="K278" s="156"/>
+      <c r="L278" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N278" s="3">
+        <v>10</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P278" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R278" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S278" s="3">
+        <v>7</v>
+      </c>
+      <c r="T278" s="3">
+        <v>4</v>
+      </c>
+      <c r="U278" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V278" s="163" t="str">
+        <f t="shared" si="551"/>
+        <v>7/4/1998</v>
+      </c>
+      <c r="W278" s="157">
+        <v>18</v>
+      </c>
+      <c r="X278" s="157">
+        <v>10</v>
+      </c>
+      <c r="Y278" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z278" s="157" t="str">
+        <f t="shared" si="550"/>
+        <v>18/10/2021</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M280" s="3"/>
     </row>
     <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G567" s="58"/>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\service\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D9B8A3-92BB-4BD8-9DC5-E87275D42FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BB0591-80DC-4C54-AE1C-76A4965B6DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="225">
   <si>
     <t>study</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>script</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -2226,41 +2229,41 @@
   <dimension ref="A1:Z567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V264" sqref="V264:V278"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M294" sqref="M294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="50" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>116</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>117</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>117</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>117</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>117</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>117</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>117</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>117</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>117</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>117</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>117</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>116</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>117</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>117</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>117</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>117</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>117</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>117</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>117</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>117</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>117</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>117</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>117</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>116</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>117</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>117</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>117</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>117</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>117</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>117</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>117</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>117</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>117</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>116</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>117</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>117</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>117</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>117</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>117</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>117</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>117</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>117</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>117</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>117</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>117</v>
       </c>
@@ -7451,7 +7454,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>117</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>117</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>116</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>117</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>117</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>117</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>117</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>117</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>117</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>117</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>117</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>117</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>117</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>116</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>117</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>117</v>
       </c>
@@ -9274,7 +9277,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>117</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>117</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>117</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>117</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>117</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>117</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>117</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>117</v>
       </c>
@@ -10059,7 +10062,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>117</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>117</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="59" t="s">
         <v>117</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>116</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>117</v>
       </c>
@@ -10530,7 +10533,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>117</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>117</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>117</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>117</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>117</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>117</v>
       </c>
@@ -11118,7 +11121,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>117</v>
       </c>
@@ -11216,7 +11219,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>117</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>117</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>117</v>
       </c>
@@ -11504,7 +11507,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>117</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>117</v>
       </c>
@@ -11787,7 +11790,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="122" t="s">
         <v>117</v>
       </c>
@@ -11881,7 +11884,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
         <v>116</v>
       </c>
@@ -11962,7 +11965,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>117</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>117</v>
       </c>
@@ -12150,7 +12153,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>117</v>
       </c>
@@ -12245,7 +12248,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>117</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>117</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>117</v>
       </c>
@@ -12530,7 +12533,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>117</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>117</v>
       </c>
@@ -12720,7 +12723,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>117</v>
       </c>
@@ -12813,7 +12816,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>117</v>
       </c>
@@ -12906,7 +12909,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>117</v>
       </c>
@@ -12999,7 +13002,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>117</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>117</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>117</v>
       </c>
@@ -13273,7 +13276,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="122" t="s">
         <v>117</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="64" t="s">
         <v>116</v>
       </c>
@@ -13445,7 +13448,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>117</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>117</v>
       </c>
@@ -13633,7 +13636,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>117</v>
       </c>
@@ -13727,7 +13730,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>117</v>
       </c>
@@ -13822,7 +13825,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>117</v>
       </c>
@@ -13917,7 +13920,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>117</v>
       </c>
@@ -14012,7 +14015,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>117</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>117</v>
       </c>
@@ -14202,7 +14205,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>117</v>
       </c>
@@ -14295,7 +14298,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>117</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>117</v>
       </c>
@@ -14481,7 +14484,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="142" t="s">
         <v>117</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>117</v>
       </c>
@@ -14665,7 +14668,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>117</v>
       </c>
@@ -14755,7 +14758,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="122" t="s">
         <v>117</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="146" t="s">
         <v>116</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="154" t="s">
         <v>117</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="154" t="s">
         <v>117</v>
       </c>
@@ -15115,7 +15118,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="154" t="s">
         <v>117</v>
       </c>
@@ -15209,7 +15212,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="154" t="s">
         <v>117</v>
       </c>
@@ -15304,7 +15307,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="154" t="s">
         <v>117</v>
       </c>
@@ -15399,7 +15402,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="154" t="s">
         <v>117</v>
       </c>
@@ -15493,7 +15496,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="154" t="s">
         <v>117</v>
       </c>
@@ -15588,7 +15591,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="154" t="s">
         <v>117</v>
       </c>
@@ -15683,7 +15686,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="154" t="s">
         <v>117</v>
       </c>
@@ -15776,7 +15779,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="154" t="s">
         <v>117</v>
       </c>
@@ -15869,7 +15872,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="154" t="s">
         <v>117</v>
       </c>
@@ -15962,7 +15965,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="154" t="s">
         <v>117</v>
       </c>
@@ -16054,7 +16057,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="154" t="s">
         <v>117</v>
       </c>
@@ -16146,7 +16149,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="154" t="s">
         <v>117</v>
       </c>
@@ -16236,7 +16239,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="159" t="s">
         <v>117</v>
       </c>
@@ -16327,7 +16330,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="146" t="s">
         <v>116</v>
       </c>
@@ -16408,7 +16411,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="154" t="s">
         <v>117</v>
       </c>
@@ -16485,7 +16488,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="154" t="s">
         <v>117</v>
       </c>
@@ -16562,7 +16565,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="154" t="s">
         <v>117</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="154" t="s">
         <v>117</v>
       </c>
@@ -16716,7 +16719,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="154" t="s">
         <v>117</v>
       </c>
@@ -16793,7 +16796,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="154" t="s">
         <v>117</v>
       </c>
@@ -16870,7 +16873,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="154" t="s">
         <v>117</v>
       </c>
@@ -16947,7 +16950,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="154" t="s">
         <v>117</v>
       </c>
@@ -17024,7 +17027,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="154" t="s">
         <v>117</v>
       </c>
@@ -17098,7 +17101,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="154" t="s">
         <v>117</v>
       </c>
@@ -17172,7 +17175,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="154" t="s">
         <v>117</v>
       </c>
@@ -17246,7 +17249,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="154" t="s">
         <v>117</v>
       </c>
@@ -17320,7 +17323,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="154" t="s">
         <v>117</v>
       </c>
@@ -17394,7 +17397,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="154" t="s">
         <v>117</v>
       </c>
@@ -17468,7 +17471,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="159" t="s">
         <v>117</v>
       </c>
@@ -17542,7 +17545,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="146" t="s">
         <v>117</v>
       </c>
@@ -17623,7 +17626,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="154" t="s">
         <v>117</v>
       </c>
@@ -17700,7 +17703,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="154" t="s">
         <v>117</v>
       </c>
@@ -17777,7 +17780,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="154" t="s">
         <v>117</v>
       </c>
@@ -17854,7 +17857,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="154" t="s">
         <v>117</v>
       </c>
@@ -17931,7 +17934,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="154" t="s">
         <v>117</v>
       </c>
@@ -18008,7 +18011,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="154" t="s">
         <v>117</v>
       </c>
@@ -18085,7 +18088,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="154" t="s">
         <v>117</v>
       </c>
@@ -18162,7 +18165,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="154" t="s">
         <v>117</v>
       </c>
@@ -18239,7 +18242,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="154" t="s">
         <v>117</v>
       </c>
@@ -18313,7 +18316,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="154" t="s">
         <v>117</v>
       </c>
@@ -18387,7 +18390,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="154" t="s">
         <v>117</v>
       </c>
@@ -18461,7 +18464,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="154" t="s">
         <v>117</v>
       </c>
@@ -18535,7 +18538,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="154" t="s">
         <v>117</v>
       </c>
@@ -18609,7 +18612,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="154" t="s">
         <v>117</v>
       </c>
@@ -18683,7 +18686,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="159" t="s">
         <v>117</v>
       </c>
@@ -18757,7 +18760,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="146" t="s">
         <v>117</v>
       </c>
@@ -18838,7 +18841,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="154" t="s">
         <v>117</v>
       </c>
@@ -18915,7 +18918,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="154" t="s">
         <v>117</v>
       </c>
@@ -18992,7 +18995,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="154" t="s">
         <v>117</v>
       </c>
@@ -19069,7 +19072,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="154" t="s">
         <v>117</v>
       </c>
@@ -19146,7 +19149,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="154" t="s">
         <v>117</v>
       </c>
@@ -19223,7 +19226,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="154" t="s">
         <v>117</v>
       </c>
@@ -19300,7 +19303,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="154" t="s">
         <v>117</v>
       </c>
@@ -19377,7 +19380,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="154" t="s">
         <v>117</v>
       </c>
@@ -19454,7 +19457,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="154" t="s">
         <v>117</v>
       </c>
@@ -19528,7 +19531,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="154" t="s">
         <v>117</v>
       </c>
@@ -19602,7 +19605,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="154" t="s">
         <v>117</v>
       </c>
@@ -19676,7 +19679,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="154" t="s">
         <v>117</v>
       </c>
@@ -19750,7 +19753,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="154" t="s">
         <v>117</v>
       </c>
@@ -19824,7 +19827,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="154" t="s">
         <v>117</v>
       </c>
@@ -19898,7 +19901,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="159" t="s">
         <v>117</v>
       </c>
@@ -19972,7 +19975,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="146" t="s">
         <v>117</v>
       </c>
@@ -20053,7 +20056,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="154" t="s">
         <v>117</v>
       </c>
@@ -20130,7 +20133,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="154" t="s">
         <v>117</v>
       </c>
@@ -20207,7 +20210,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="154" t="s">
         <v>117</v>
       </c>
@@ -20284,7 +20287,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="154" t="s">
         <v>117</v>
       </c>
@@ -20361,7 +20364,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="154" t="s">
         <v>117</v>
       </c>
@@ -20438,7 +20441,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="154" t="s">
         <v>117</v>
       </c>
@@ -20515,7 +20518,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="154" t="s">
         <v>117</v>
       </c>
@@ -20592,7 +20595,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="154" t="s">
         <v>117</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="154" t="s">
         <v>117</v>
       </c>
@@ -20743,7 +20746,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="154" t="s">
         <v>117</v>
       </c>
@@ -20817,7 +20820,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="154" t="s">
         <v>117</v>
       </c>
@@ -20891,7 +20894,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="154" t="s">
         <v>117</v>
       </c>
@@ -20965,7 +20968,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="154" t="s">
         <v>117</v>
       </c>
@@ -21042,7 +21045,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="154" t="s">
         <v>117</v>
       </c>
@@ -21119,7 +21122,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="154" t="s">
         <v>117</v>
       </c>
@@ -21193,7 +21196,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="159" t="s">
         <v>117</v>
       </c>
@@ -21267,7 +21270,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="146" t="s">
         <v>117</v>
       </c>
@@ -21348,7 +21351,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="154" t="s">
         <v>117</v>
       </c>
@@ -21431,7 +21434,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="154" t="s">
         <v>117</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="154" t="s">
         <v>117</v>
       </c>
@@ -21597,7 +21600,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="154" t="s">
         <v>117</v>
       </c>
@@ -21680,7 +21683,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="154" t="s">
         <v>117</v>
       </c>
@@ -21763,7 +21766,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="154" t="s">
         <v>117</v>
       </c>
@@ -21846,7 +21849,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="154" t="s">
         <v>117</v>
       </c>
@@ -21929,7 +21932,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="154" t="s">
         <v>117</v>
       </c>
@@ -22012,7 +22015,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="154" t="s">
         <v>117</v>
       </c>
@@ -22092,7 +22095,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="154" t="s">
         <v>117</v>
       </c>
@@ -22172,7 +22175,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="154" t="s">
         <v>117</v>
       </c>
@@ -22252,7 +22255,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="154" t="s">
         <v>117</v>
       </c>
@@ -22332,7 +22335,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="154" t="s">
         <v>117</v>
       </c>
@@ -22412,7 +22415,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="154" t="s">
         <v>117</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="159" t="s">
         <v>117</v>
       </c>
@@ -22572,7 +22575,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="146" t="s">
         <v>117</v>
       </c>
@@ -22653,7 +22656,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="154" t="s">
         <v>117</v>
       </c>
@@ -22736,7 +22739,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="154" t="s">
         <v>117</v>
       </c>
@@ -22802,7 +22805,7 @@
         <v>1998</v>
       </c>
       <c r="V233" s="163" t="str">
-        <f t="shared" ref="V233:V247" si="543">"28/8/1998"</f>
+        <f t="shared" ref="V233:V246" si="543">"28/8/1998"</f>
         <v>28/8/1998</v>
       </c>
       <c r="W233" s="157">
@@ -22819,7 +22822,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="154" t="s">
         <v>117</v>
       </c>
@@ -22902,7 +22905,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="154" t="s">
         <v>117</v>
       </c>
@@ -22985,7 +22988,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="154" t="s">
         <v>117</v>
       </c>
@@ -23068,7 +23071,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="154" t="s">
         <v>117</v>
       </c>
@@ -23151,7 +23154,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="154" t="s">
         <v>117</v>
       </c>
@@ -23234,7 +23237,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="154" t="s">
         <v>117</v>
       </c>
@@ -23317,7 +23320,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="154" t="s">
         <v>117</v>
       </c>
@@ -23397,7 +23400,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="154" t="s">
         <v>117</v>
       </c>
@@ -23477,7 +23480,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="154" t="s">
         <v>117</v>
       </c>
@@ -23557,7 +23560,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="154" t="s">
         <v>117</v>
       </c>
@@ -23637,7 +23640,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="154" t="s">
         <v>117</v>
       </c>
@@ -23717,7 +23720,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="154" t="s">
         <v>117</v>
       </c>
@@ -23797,7 +23800,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="159" t="s">
         <v>117</v>
       </c>
@@ -23877,7 +23880,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="146" t="s">
         <v>117</v>
       </c>
@@ -23958,7 +23961,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="154" t="s">
         <v>117</v>
       </c>
@@ -24041,7 +24044,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="154" t="s">
         <v>117</v>
       </c>
@@ -24124,7 +24127,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="154" t="s">
         <v>117</v>
       </c>
@@ -24207,7 +24210,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="154" t="s">
         <v>117</v>
       </c>
@@ -24290,7 +24293,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="154" t="s">
         <v>117</v>
       </c>
@@ -24373,7 +24376,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="154" t="s">
         <v>117</v>
       </c>
@@ -24456,7 +24459,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="154" t="s">
         <v>117</v>
       </c>
@@ -24539,7 +24542,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="154" t="s">
         <v>117</v>
       </c>
@@ -24622,7 +24625,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="154" t="s">
         <v>117</v>
       </c>
@@ -24702,7 +24705,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="154" t="s">
         <v>117</v>
       </c>
@@ -24782,7 +24785,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="154" t="s">
         <v>117</v>
       </c>
@@ -24862,7 +24865,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="154" t="s">
         <v>117</v>
       </c>
@@ -24942,7 +24945,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="154" t="s">
         <v>117</v>
       </c>
@@ -25022,7 +25025,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="154" t="s">
         <v>117</v>
       </c>
@@ -25102,7 +25105,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="159" t="s">
         <v>117</v>
       </c>
@@ -25180,7 +25183,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="146" t="s">
         <v>117</v>
       </c>
@@ -25261,7 +25264,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="154" t="s">
         <v>117</v>
       </c>
@@ -25344,7 +25347,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="154" t="s">
         <v>117</v>
       </c>
@@ -25427,7 +25430,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="154" t="s">
         <v>117</v>
       </c>
@@ -25510,7 +25513,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="154" t="s">
         <v>117</v>
       </c>
@@ -25593,7 +25596,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="154" t="s">
         <v>117</v>
       </c>
@@ -25676,7 +25679,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="154" t="s">
         <v>117</v>
       </c>
@@ -25759,7 +25762,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="154" t="s">
         <v>117</v>
       </c>
@@ -25842,7 +25845,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="154" t="s">
         <v>117</v>
       </c>
@@ -25925,7 +25928,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="154" t="s">
         <v>117</v>
       </c>
@@ -25951,7 +25954,7 @@
         <v>120</v>
       </c>
       <c r="J272" s="150" t="str">
-        <f t="shared" ref="J272:J278" si="552">CONCATENATE(C272,"_",D272,"_",E272,"_",F272,"_",H272)</f>
+        <f t="shared" ref="J272:J279" si="552">CONCATENATE(C272,"_",D272,"_",E272,"_",F272,"_",H272)</f>
         <v>ProVisioNET_study_109_01_glasses</v>
       </c>
       <c r="K272" s="156" t="s">
@@ -26005,7 +26008,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="154" t="s">
         <v>117</v>
       </c>
@@ -26085,7 +26088,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="154" t="s">
         <v>117</v>
       </c>
@@ -26165,7 +26168,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="154" t="s">
         <v>117</v>
       </c>
@@ -26245,7 +26248,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="154" t="s">
         <v>117</v>
       </c>
@@ -26325,7 +26328,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="154" t="s">
         <v>117</v>
       </c>
@@ -26405,7 +26408,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="159" t="s">
         <v>117</v>
       </c>
@@ -26483,13 +26486,1246 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M279" s="3"/>
-    </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B279" s="147">
+        <v>13</v>
+      </c>
+      <c r="C279" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D279" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E279" s="148" t="s">
+        <v>224</v>
+      </c>
+      <c r="F279" s="149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G279" s="147">
+        <v>13</v>
+      </c>
+      <c r="H279" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I279" s="147"/>
+      <c r="J279" s="150" t="str">
+        <f t="shared" si="552"/>
+        <v>ProVisioNET_study_110_02_label</v>
+      </c>
+      <c r="K279" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L279" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="M279" s="147"/>
+      <c r="N279" s="147"/>
+      <c r="O279" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="P279" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R279" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S279" s="152">
+        <v>18</v>
+      </c>
+      <c r="T279" s="152">
+        <v>8</v>
+      </c>
+      <c r="U279" s="152">
+        <v>1998</v>
+      </c>
+      <c r="V279" s="152" t="str">
+        <f>S279&amp;"/"&amp;T279&amp;"/"&amp;U279</f>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W279" s="152">
+        <v>9</v>
+      </c>
+      <c r="X279" s="152">
+        <v>11</v>
+      </c>
+      <c r="Y279" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z279" s="152" t="str">
+        <f>W279&amp;"/"&amp;X279&amp;"/"&amp;Y279</f>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B280" s="3">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>176</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E280" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F280" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G280" s="150">
+        <v>13</v>
+      </c>
+      <c r="H280" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I280" s="3">
+        <v>1</v>
+      </c>
+      <c r="J280" s="150" t="str">
+        <f t="shared" ref="J280:J287" si="553">CONCATENATE(C280,"_",D280,"_",E280,"_",F280,"_",H280,"_",I280)</f>
+        <v>ProVisioNET_study_110_02_cam1_1</v>
+      </c>
+      <c r="K280" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="M280" s="3"/>
-    </row>
-    <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N280" s="3"/>
+      <c r="O280" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P280" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q280" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R280" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S280" s="3">
+        <v>18</v>
+      </c>
+      <c r="T280" s="3">
+        <v>8</v>
+      </c>
+      <c r="U280" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V280" s="163" t="str">
+        <f>"18/8/1998"</f>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W280" s="157">
+        <v>9</v>
+      </c>
+      <c r="X280" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y280" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z280" s="157" t="str">
+        <f t="shared" ref="Z280:Z294" si="554">W280&amp;"/"&amp;X280&amp;"/"&amp;Y280</f>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B281" s="3">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>176</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E281" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F281" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G281" s="150">
+        <v>13</v>
+      </c>
+      <c r="H281" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I281" s="150">
+        <v>2</v>
+      </c>
+      <c r="J281" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam1_2</v>
+      </c>
+      <c r="K281" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M281" s="3"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P281" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R281" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S281" s="3">
+        <v>18</v>
+      </c>
+      <c r="T281" s="3">
+        <v>8</v>
+      </c>
+      <c r="U281" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V281" s="163" t="str">
+        <f t="shared" ref="V281:V294" si="555">"18/8/1998"</f>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W281" s="157">
+        <v>9</v>
+      </c>
+      <c r="X281" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y281" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z281" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B282" s="3">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>176</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E282" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F282" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G282" s="150">
+        <v>13</v>
+      </c>
+      <c r="H282" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I282" s="150">
+        <v>1</v>
+      </c>
+      <c r="J282" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam2_1</v>
+      </c>
+      <c r="K282" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P282" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R282" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S282" s="3">
+        <v>18</v>
+      </c>
+      <c r="T282" s="3">
+        <v>8</v>
+      </c>
+      <c r="U282" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V282" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W282" s="157">
+        <v>9</v>
+      </c>
+      <c r="X282" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y282" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z282" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B283" s="3">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>176</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F283" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G283" s="150">
+        <v>13</v>
+      </c>
+      <c r="H283" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I283" s="150">
+        <v>2</v>
+      </c>
+      <c r="J283" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam2_2</v>
+      </c>
+      <c r="K283" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P283" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q283" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R283" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S283" s="3">
+        <v>18</v>
+      </c>
+      <c r="T283" s="3">
+        <v>8</v>
+      </c>
+      <c r="U283" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V283" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W283" s="157">
+        <v>9</v>
+      </c>
+      <c r="X283" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y283" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z283" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B284" s="3">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
+        <v>176</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E284" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F284" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G284" s="150">
+        <v>13</v>
+      </c>
+      <c r="H284" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I284" s="150">
+        <v>1</v>
+      </c>
+      <c r="J284" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam3_1</v>
+      </c>
+      <c r="K284" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P284" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q284" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R284" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S284" s="3">
+        <v>18</v>
+      </c>
+      <c r="T284" s="3">
+        <v>8</v>
+      </c>
+      <c r="U284" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V284" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W284" s="157">
+        <v>9</v>
+      </c>
+      <c r="X284" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y284" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z284" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B285" s="3">
+        <v>13</v>
+      </c>
+      <c r="C285" t="s">
+        <v>176</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E285" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F285" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G285" s="150">
+        <v>13</v>
+      </c>
+      <c r="H285" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I285" s="150">
+        <v>2</v>
+      </c>
+      <c r="J285" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam3_2</v>
+      </c>
+      <c r="K285" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P285" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R285" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S285" s="3">
+        <v>18</v>
+      </c>
+      <c r="T285" s="3">
+        <v>8</v>
+      </c>
+      <c r="U285" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V285" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W285" s="157">
+        <v>9</v>
+      </c>
+      <c r="X285" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y285" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z285" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B286" s="3">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>176</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F286" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G286" s="150">
+        <v>13</v>
+      </c>
+      <c r="H286" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I286" s="150">
+        <v>1</v>
+      </c>
+      <c r="J286" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam4_1</v>
+      </c>
+      <c r="K286" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P286" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q286" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R286" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S286" s="3">
+        <v>18</v>
+      </c>
+      <c r="T286" s="3">
+        <v>8</v>
+      </c>
+      <c r="U286" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V286" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W286" s="157">
+        <v>9</v>
+      </c>
+      <c r="X286" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y286" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z286" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B287" s="3">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>176</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E287" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F287" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G287" s="150">
+        <v>13</v>
+      </c>
+      <c r="H287" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I287" s="150">
+        <v>2</v>
+      </c>
+      <c r="J287" s="150" t="str">
+        <f t="shared" si="553"/>
+        <v>ProVisioNET_study_110_02_cam4_2</v>
+      </c>
+      <c r="K287" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P287" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q287" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R287" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S287" s="3">
+        <v>18</v>
+      </c>
+      <c r="T287" s="3">
+        <v>8</v>
+      </c>
+      <c r="U287" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V287" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W287" s="157">
+        <v>9</v>
+      </c>
+      <c r="X287" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y287" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z287" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B288" s="3">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>176</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F288" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G288" s="150">
+        <v>13</v>
+      </c>
+      <c r="H288" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J288" s="150" t="str">
+        <f t="shared" ref="J288:J294" si="556">CONCATENATE(C288,"_",D288,"_",E288,"_",F288,"_",H288)</f>
+        <v>ProVisioNET_study_110_02_glasses</v>
+      </c>
+      <c r="K288" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P288" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q288" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R288" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S288" s="3">
+        <v>18</v>
+      </c>
+      <c r="T288" s="3">
+        <v>8</v>
+      </c>
+      <c r="U288" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V288" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W288" s="157">
+        <v>9</v>
+      </c>
+      <c r="X288" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y288" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z288" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B289" s="3">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>176</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E289" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F289" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G289" s="150">
+        <v>13</v>
+      </c>
+      <c r="H289" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J289" s="150" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_110_02_ambient</v>
+      </c>
+      <c r="K289" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M289" s="3"/>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P289" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q289" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R289" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S289" s="3">
+        <v>18</v>
+      </c>
+      <c r="T289" s="3">
+        <v>8</v>
+      </c>
+      <c r="U289" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V289" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W289" s="157">
+        <v>9</v>
+      </c>
+      <c r="X289" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y289" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z289" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B290" s="3">
+        <v>13</v>
+      </c>
+      <c r="C290" t="s">
+        <v>176</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F290" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G290" s="150">
+        <v>13</v>
+      </c>
+      <c r="H290" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J290" s="150" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_110_02_ETrawdata</v>
+      </c>
+      <c r="K290" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P290" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q290" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R290" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S290" s="3">
+        <v>18</v>
+      </c>
+      <c r="T290" s="3">
+        <v>8</v>
+      </c>
+      <c r="U290" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V290" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W290" s="157">
+        <v>9</v>
+      </c>
+      <c r="X290" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y290" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z290" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B291" s="3">
+        <v>13</v>
+      </c>
+      <c r="C291" t="s">
+        <v>176</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E291" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F291" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G291" s="150">
+        <v>13</v>
+      </c>
+      <c r="H291" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J291" s="150" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_110_02_sri_obs</v>
+      </c>
+      <c r="K291" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P291" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q291" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R291" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S291" s="3">
+        <v>18</v>
+      </c>
+      <c r="T291" s="3">
+        <v>8</v>
+      </c>
+      <c r="U291" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V291" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W291" s="157">
+        <v>9</v>
+      </c>
+      <c r="X291" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y291" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z291" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B292" s="3">
+        <v>13</v>
+      </c>
+      <c r="C292" t="s">
+        <v>176</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E292" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F292" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G292" s="150">
+        <v>13</v>
+      </c>
+      <c r="H292" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="J292" s="150" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_110_02_sri_ambient</v>
+      </c>
+      <c r="K292" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P292" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q292" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R292" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S292" s="3">
+        <v>18</v>
+      </c>
+      <c r="T292" s="3">
+        <v>8</v>
+      </c>
+      <c r="U292" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V292" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W292" s="157">
+        <v>9</v>
+      </c>
+      <c r="X292" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y292" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z292" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B293" s="3">
+        <v>13</v>
+      </c>
+      <c r="C293" t="s">
+        <v>176</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E293" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F293" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G293" s="150">
+        <v>13</v>
+      </c>
+      <c r="H293" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J293" s="150" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_110_02_fitbit</v>
+      </c>
+      <c r="K293" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P293" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q293" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R293" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S293" s="3">
+        <v>18</v>
+      </c>
+      <c r="T293" s="3">
+        <v>8</v>
+      </c>
+      <c r="U293" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V293" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W293" s="157">
+        <v>9</v>
+      </c>
+      <c r="X293" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y293" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z293" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B294" s="3">
+        <v>13</v>
+      </c>
+      <c r="C294" t="s">
+        <v>176</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E294" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F294" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G294" s="150">
+        <v>13</v>
+      </c>
+      <c r="H294" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="J294" s="160" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_110_02_zed</v>
+      </c>
+      <c r="K294" s="156"/>
+      <c r="L294" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P294" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R294" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S294" s="3">
+        <v>18</v>
+      </c>
+      <c r="T294" s="3">
+        <v>8</v>
+      </c>
+      <c r="U294" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V294" s="163" t="str">
+        <f t="shared" si="555"/>
+        <v>18/8/1998</v>
+      </c>
+      <c r="W294" s="157">
+        <v>9</v>
+      </c>
+      <c r="X294" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y294" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z294" s="157" t="str">
+        <f t="shared" si="554"/>
+        <v>9/11/2021</v>
+      </c>
+    </row>
+    <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G567" s="58"/>
       <c r="H567" s="58"/>
       <c r="I567" s="58"/>
@@ -26509,25 +27745,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -26544,7 +27780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -26555,30 +27791,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -26589,35 +27825,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -26628,30 +27864,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -26662,39 +27898,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -26705,40 +27941,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -26749,35 +27985,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -26789,28 +28025,28 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>8</v>
       </c>
@@ -26821,36 +28057,36 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="14"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>67</v>
       </c>
@@ -26859,7 +28095,7 @@
       </c>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
@@ -26881,20 +28117,20 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="89"/>
-    <col min="2" max="9" width="15.6640625" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="3"/>
-    <col min="12" max="12" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11.5546875" style="13"/>
-    <col min="22" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="11.5703125" style="89"/>
+    <col min="2" max="9" width="15.7109375" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="3"/>
+    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11.5703125" style="13"/>
+    <col min="22" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -26938,7 +28174,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -26979,7 +28215,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -27030,7 +28266,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -27077,7 +28313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -27122,7 +28358,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -27169,7 +28405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -27214,7 +28450,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91">
         <v>4</v>
       </c>
@@ -27259,7 +28495,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="94" t="s">
         <v>124</v>
@@ -27304,7 +28540,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91">
         <v>5</v>
       </c>
@@ -27351,7 +28587,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93"/>
       <c r="B11" s="94" t="s">
         <v>174</v>
@@ -27396,7 +28632,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91">
         <v>6</v>
       </c>
@@ -27431,7 +28667,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="94" t="s">
         <v>125</v>
@@ -27465,7 +28701,7 @@
       </c>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91">
         <v>7</v>
       </c>
@@ -27500,7 +28736,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
       <c r="B15" s="94" t="s">
         <v>90</v>
@@ -27533,7 +28769,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91">
         <v>8</v>
       </c>
@@ -27565,7 +28801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="103"/>
       <c r="B17" s="104" t="s">
         <v>89</v>
@@ -27595,7 +28831,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100">
         <v>9</v>
       </c>
@@ -27627,7 +28863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="93"/>
       <c r="B19" s="94" t="s">
         <v>150</v>
@@ -27657,7 +28893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91">
         <v>10</v>
       </c>
@@ -27689,7 +28925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
       <c r="B21" s="94" t="s">
         <v>148</v>
@@ -27719,7 +28955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="91">
         <v>11</v>
       </c>
@@ -27749,7 +28985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="93"/>
       <c r="B23" s="94" t="s">
         <v>149</v>
@@ -27779,7 +29015,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91">
         <v>12</v>
       </c>
@@ -27809,7 +29045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93"/>
       <c r="B25" s="94" t="s">
         <v>124</v>
@@ -27839,7 +29075,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91">
         <v>13</v>
       </c>
@@ -27871,7 +29107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
       <c r="B27" s="94" t="s">
         <v>175</v>
@@ -27901,7 +29137,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>14</v>
       </c>
@@ -27933,7 +29169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="93"/>
       <c r="B29" s="94" t="s">
         <v>125</v>
@@ -27963,7 +29199,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91">
         <v>15</v>
       </c>
@@ -27995,7 +29231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="93"/>
       <c r="B31" s="94" t="s">
         <v>90</v>
@@ -28025,7 +29261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91">
         <v>16</v>
       </c>
@@ -28057,7 +29293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="103"/>
       <c r="B33" s="104" t="s">
         <v>89</v>
@@ -28087,7 +29323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="100">
         <v>17</v>
       </c>
@@ -28119,7 +29355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="93"/>
       <c r="B35" s="94" t="s">
         <v>150</v>
@@ -28149,7 +29385,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="91">
         <v>18</v>
       </c>
@@ -28181,7 +29417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
       <c r="B37" s="94" t="s">
         <v>148</v>
@@ -28211,7 +29447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="91">
         <v>19</v>
       </c>
@@ -28241,7 +29477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
       <c r="B39" s="94" t="s">
         <v>149</v>
@@ -28271,7 +29507,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91">
         <v>20</v>
       </c>
@@ -28301,7 +29537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93"/>
       <c r="B41" s="94" t="s">
         <v>124</v>
@@ -28331,7 +29567,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91">
         <v>21</v>
       </c>
@@ -28363,7 +29599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="93"/>
       <c r="B43" s="94" t="s">
         <v>175</v>
@@ -28393,7 +29629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="91">
         <v>22</v>
       </c>
@@ -28425,7 +29661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="93"/>
       <c r="B45" s="94" t="s">
         <v>125</v>
@@ -28455,7 +29691,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="91">
         <v>23</v>
       </c>
@@ -28487,7 +29723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="93"/>
       <c r="B47" s="94" t="s">
         <v>90</v>
@@ -28517,7 +29753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="91">
         <v>24</v>
       </c>
@@ -28549,7 +29785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103"/>
       <c r="B49" s="104" t="s">
         <v>89</v>
@@ -28579,7 +29815,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="100">
         <v>25</v>
       </c>
@@ -28611,7 +29847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="93"/>
       <c r="B51" s="94" t="s">
         <v>150</v>
@@ -28641,7 +29877,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="91">
         <v>26</v>
       </c>
@@ -28673,7 +29909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="93"/>
       <c r="B53" s="94" t="s">
         <v>148</v>
@@ -28703,7 +29939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="91">
         <v>27</v>
       </c>
@@ -28733,7 +29969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="93"/>
       <c r="B55" s="94" t="s">
         <v>149</v>
@@ -28763,7 +29999,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91">
         <v>28</v>
       </c>
@@ -28793,7 +30029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="93"/>
       <c r="B57" s="94" t="s">
         <v>124</v>
@@ -28823,7 +30059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="96">
         <v>29</v>
       </c>
@@ -28855,7 +30091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="97"/>
       <c r="B59" s="94" t="s">
         <v>174</v>
@@ -28885,7 +30121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="96">
         <v>30</v>
       </c>
@@ -28917,7 +30153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="97"/>
       <c r="B61" s="94" t="s">
         <v>125</v>
@@ -28947,7 +30183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="96">
         <v>31</v>
       </c>
@@ -28979,7 +30215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="97"/>
       <c r="B63" s="94" t="s">
         <v>90</v>
@@ -29009,7 +30245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="96">
         <v>32</v>
       </c>
@@ -29041,7 +30277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
       <c r="B65" s="104" t="s">
         <v>89</v>
@@ -29071,7 +30307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="106">
         <v>33</v>
       </c>
@@ -29103,7 +30339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="97"/>
       <c r="B67" s="94" t="s">
         <v>150</v>
@@ -29133,7 +30369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="96">
         <v>34</v>
       </c>
@@ -29165,7 +30401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="97"/>
       <c r="B69" s="94" t="s">
         <v>148</v>
@@ -29195,7 +30431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="96">
         <v>35</v>
       </c>
@@ -29225,7 +30461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="97"/>
       <c r="B71" s="94" t="s">
         <v>149</v>
@@ -29255,7 +30491,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="96">
         <v>36</v>
       </c>
@@ -29285,7 +30521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="97"/>
       <c r="B73" s="94" t="s">
         <v>124</v>
@@ -29315,7 +30551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="98">
         <v>37</v>
       </c>
@@ -29347,7 +30583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="99"/>
       <c r="B75" s="94" t="s">
         <v>174</v>
@@ -29377,7 +30613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="98">
         <v>38</v>
       </c>
@@ -29409,7 +30645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="99"/>
       <c r="B77" s="94" t="s">
         <v>125</v>
@@ -29439,7 +30675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="98">
         <v>39</v>
       </c>
@@ -29471,7 +30707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="99"/>
       <c r="B79" s="94" t="s">
         <v>90</v>
@@ -29501,7 +30737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="98">
         <v>40</v>
       </c>
@@ -29533,7 +30769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="109"/>
       <c r="B81" s="104" t="s">
         <v>89</v>
@@ -29563,7 +30799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
         <v>41</v>
       </c>
@@ -29595,7 +30831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="99"/>
       <c r="B83" s="94" t="s">
         <v>150</v>
@@ -29625,7 +30861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="98">
         <v>42</v>
       </c>
@@ -29657,7 +30893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="99"/>
       <c r="B85" s="94" t="s">
         <v>148</v>
@@ -29687,7 +30923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="98">
         <v>43</v>
       </c>
@@ -29717,7 +30953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="99"/>
       <c r="B87" s="94" t="s">
         <v>149</v>
@@ -29747,7 +30983,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="98">
         <v>44</v>
       </c>
@@ -29777,7 +31013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="99"/>
       <c r="B89" s="94" t="s">
         <v>124</v>
@@ -29807,7 +31043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98">
         <v>45</v>
       </c>
@@ -29839,7 +31075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="99"/>
       <c r="B91" s="94" t="s">
         <v>174</v>
@@ -29869,7 +31105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="98">
         <v>46</v>
       </c>
@@ -29901,7 +31137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="99"/>
       <c r="B93" s="94" t="s">
         <v>125</v>
@@ -29931,7 +31167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="98">
         <v>47</v>
       </c>
@@ -29963,7 +31199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="99"/>
       <c r="B95" s="94" t="s">
         <v>90</v>
@@ -29993,7 +31229,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98">
         <v>48</v>
       </c>
@@ -30025,7 +31261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="109"/>
       <c r="B97" s="104" t="s">
         <v>89</v>
@@ -30055,7 +31291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
         <v>49</v>
       </c>
@@ -30087,7 +31323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="99"/>
       <c r="B99" s="94" t="s">
         <v>150</v>
@@ -30117,7 +31353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98">
         <v>50</v>
       </c>
@@ -30149,7 +31385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="99"/>
       <c r="B101" s="94" t="s">
         <v>148</v>
@@ -30179,7 +31415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="89">
         <v>51</v>
       </c>
@@ -30209,7 +31445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="94" t="s">
         <v>149</v>
       </c>
@@ -30238,7 +31474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="91">
         <v>52</v>
       </c>
@@ -30268,7 +31504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="93"/>
       <c r="B105" s="94" t="s">
         <v>124</v>
@@ -30298,7 +31534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="96">
         <v>53</v>
       </c>
@@ -30340,7 +31576,7 @@
       <c r="T106" s="76"/>
       <c r="U106" s="76"/>
     </row>
-    <row r="107" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="97"/>
       <c r="B107" s="94" t="s">
         <v>174</v>
@@ -30380,7 +31616,7 @@
       <c r="T107" s="76"/>
       <c r="U107" s="76"/>
     </row>
-    <row r="108" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="96">
         <v>54</v>
       </c>
@@ -30422,7 +31658,7 @@
       <c r="T108" s="76"/>
       <c r="U108" s="76"/>
     </row>
-    <row r="109" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="97"/>
       <c r="B109" s="94" t="s">
         <v>125</v>
@@ -30462,7 +31698,7 @@
       <c r="T109" s="76"/>
       <c r="U109" s="76"/>
     </row>
-    <row r="110" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="96">
         <v>55</v>
       </c>
@@ -30504,7 +31740,7 @@
       <c r="T110" s="76"/>
       <c r="U110" s="76"/>
     </row>
-    <row r="111" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="97"/>
       <c r="B111" s="94" t="s">
         <v>90</v>
@@ -30544,7 +31780,7 @@
       <c r="T111" s="76"/>
       <c r="U111" s="76"/>
     </row>
-    <row r="112" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="96">
         <v>56</v>
       </c>
@@ -30586,7 +31822,7 @@
       <c r="T112" s="76"/>
       <c r="U112" s="76"/>
     </row>
-    <row r="113" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="97"/>
       <c r="B113" s="94" t="s">
         <v>89</v>
@@ -30626,7 +31862,7 @@
       <c r="T113" s="76"/>
       <c r="U113" s="76"/>
     </row>
-    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="100"/>
       <c r="B114" s="101"/>
       <c r="C114" s="101"/>
@@ -30648,7 +31884,7 @@
       <c r="T114" s="76"/>
       <c r="U114" s="76"/>
     </row>
-    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="100"/>
       <c r="B115" s="101"/>
       <c r="C115" s="101"/>
@@ -30670,7 +31906,7 @@
       <c r="T115" s="76"/>
       <c r="U115" s="76"/>
     </row>
-    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="100"/>
       <c r="B116" s="101"/>
       <c r="C116" s="101"/>
@@ -30692,7 +31928,7 @@
       <c r="T116" s="76"/>
       <c r="U116" s="76"/>
     </row>
-    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="100"/>
       <c r="B117" s="101"/>
       <c r="C117" s="101"/>
@@ -30714,7 +31950,7 @@
       <c r="T117" s="76"/>
       <c r="U117" s="76"/>
     </row>
-    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="100"/>
       <c r="B118" s="101"/>
       <c r="C118" s="101"/>
@@ -30736,7 +31972,7 @@
       <c r="T118" s="76"/>
       <c r="U118" s="76"/>
     </row>
-    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="100"/>
       <c r="B119" s="101"/>
       <c r="C119" s="101"/>
@@ -30758,7 +31994,7 @@
       <c r="T119" s="76"/>
       <c r="U119" s="76"/>
     </row>
-    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="100"/>
       <c r="B120" s="101"/>
       <c r="C120" s="101"/>
@@ -30780,7 +32016,7 @@
       <c r="T120" s="76"/>
       <c r="U120" s="76"/>
     </row>
-    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="100"/>
       <c r="B121" s="101"/>
       <c r="C121" s="101"/>
@@ -30802,7 +32038,7 @@
       <c r="T121" s="76"/>
       <c r="U121" s="76"/>
     </row>
-    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="100"/>
       <c r="B122" s="101"/>
       <c r="C122" s="101"/>
@@ -30824,7 +32060,7 @@
       <c r="T122" s="76"/>
       <c r="U122" s="76"/>
     </row>
-    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="100"/>
       <c r="B123" s="101"/>
       <c r="C123" s="101"/>
@@ -30846,7 +32082,7 @@
       <c r="T123" s="76"/>
       <c r="U123" s="76"/>
     </row>
-    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="100"/>
       <c r="B124" s="101"/>
       <c r="C124" s="101"/>
@@ -30868,7 +32104,7 @@
       <c r="T124" s="76"/>
       <c r="U124" s="76"/>
     </row>
-    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="100"/>
       <c r="B125" s="101"/>
       <c r="C125" s="101"/>
@@ -30890,7 +32126,7 @@
       <c r="T125" s="76"/>
       <c r="U125" s="76"/>
     </row>
-    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="100"/>
       <c r="B126" s="101"/>
       <c r="C126" s="101"/>
@@ -30912,7 +32148,7 @@
       <c r="T126" s="76"/>
       <c r="U126" s="76"/>
     </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="100"/>
       <c r="B127" s="101"/>
       <c r="C127" s="101"/>
@@ -30934,7 +32170,7 @@
       <c r="T127" s="76"/>
       <c r="U127" s="76"/>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="100"/>
       <c r="B128" s="101"/>
       <c r="C128" s="101"/>
@@ -30956,7 +32192,7 @@
       <c r="T128" s="76"/>
       <c r="U128" s="76"/>
     </row>
-    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="100"/>
       <c r="B129" s="101"/>
       <c r="C129" s="101"/>
@@ -30978,7 +32214,7 @@
       <c r="T129" s="76"/>
       <c r="U129" s="76"/>
     </row>
-    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="100"/>
       <c r="B130" s="101"/>
       <c r="C130" s="101"/>
@@ -31000,7 +32236,7 @@
       <c r="T130" s="76"/>
       <c r="U130" s="76"/>
     </row>
-    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="100"/>
       <c r="B131" s="101"/>
       <c r="C131" s="101"/>
@@ -31022,7 +32258,7 @@
       <c r="T131" s="76"/>
       <c r="U131" s="76"/>
     </row>
-    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="100"/>
       <c r="B132" s="101"/>
       <c r="C132" s="101"/>
@@ -31044,7 +32280,7 @@
       <c r="T132" s="76"/>
       <c r="U132" s="76"/>
     </row>
-    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="100"/>
       <c r="B133" s="101"/>
       <c r="C133" s="101"/>
@@ -31066,7 +32302,7 @@
       <c r="T133" s="76"/>
       <c r="U133" s="76"/>
     </row>
-    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="100"/>
       <c r="B134" s="101"/>
       <c r="C134" s="101"/>
@@ -31088,7 +32324,7 @@
       <c r="T134" s="76"/>
       <c r="U134" s="76"/>
     </row>
-    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="100"/>
       <c r="B135" s="101"/>
       <c r="C135" s="101"/>
@@ -31110,7 +32346,7 @@
       <c r="T135" s="76"/>
       <c r="U135" s="76"/>
     </row>
-    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="100"/>
       <c r="B136" s="101"/>
       <c r="C136" s="101"/>
@@ -31132,7 +32368,7 @@
       <c r="T136" s="76"/>
       <c r="U136" s="76"/>
     </row>
-    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="100"/>
       <c r="B137" s="101"/>
       <c r="C137" s="101"/>
@@ -31154,7 +32390,7 @@
       <c r="T137" s="76"/>
       <c r="U137" s="76"/>
     </row>
-    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="100"/>
       <c r="B138" s="101"/>
       <c r="C138" s="101"/>
@@ -31176,7 +32412,7 @@
       <c r="T138" s="76"/>
       <c r="U138" s="76"/>
     </row>
-    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="100"/>
       <c r="B139" s="101"/>
       <c r="C139" s="101"/>
@@ -31198,7 +32434,7 @@
       <c r="T139" s="76"/>
       <c r="U139" s="76"/>
     </row>
-    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="100"/>
       <c r="B140" s="101"/>
       <c r="C140" s="101"/>
@@ -31220,7 +32456,7 @@
       <c r="T140" s="76"/>
       <c r="U140" s="76"/>
     </row>
-    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="100"/>
       <c r="B141" s="101"/>
       <c r="C141" s="101"/>
@@ -31242,7 +32478,7 @@
       <c r="T141" s="76"/>
       <c r="U141" s="76"/>
     </row>
-    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="100"/>
       <c r="B142" s="101"/>
       <c r="C142" s="101"/>
@@ -31264,7 +32500,7 @@
       <c r="T142" s="76"/>
       <c r="U142" s="76"/>
     </row>
-    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="100"/>
       <c r="B143" s="101"/>
       <c r="C143" s="101"/>
@@ -31286,7 +32522,7 @@
       <c r="T143" s="76"/>
       <c r="U143" s="76"/>
     </row>
-    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="100"/>
       <c r="B144" s="101"/>
       <c r="C144" s="101"/>
@@ -31308,7 +32544,7 @@
       <c r="T144" s="76"/>
       <c r="U144" s="76"/>
     </row>
-    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="100"/>
       <c r="B145" s="101"/>
       <c r="C145" s="101"/>
@@ -31330,7 +32566,7 @@
       <c r="T145" s="76"/>
       <c r="U145" s="76"/>
     </row>
-    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="100"/>
       <c r="B146" s="101"/>
       <c r="C146" s="101"/>
@@ -31352,7 +32588,7 @@
       <c r="T146" s="76"/>
       <c r="U146" s="76"/>
     </row>
-    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="100"/>
       <c r="B147" s="101"/>
       <c r="C147" s="101"/>
@@ -31374,7 +32610,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="76"/>
     </row>
-    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="100"/>
       <c r="B148" s="101"/>
       <c r="C148" s="101"/>
@@ -31396,7 +32632,7 @@
       <c r="T148" s="76"/>
       <c r="U148" s="76"/>
     </row>
-    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="100"/>
       <c r="B149" s="101"/>
       <c r="C149" s="101"/>
@@ -31418,7 +32654,7 @@
       <c r="T149" s="76"/>
       <c r="U149" s="76"/>
     </row>
-    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="100"/>
       <c r="B150" s="101"/>
       <c r="C150" s="101"/>
@@ -31440,7 +32676,7 @@
       <c r="T150" s="76"/>
       <c r="U150" s="76"/>
     </row>
-    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="100"/>
       <c r="B151" s="101"/>
       <c r="C151" s="101"/>
@@ -31462,7 +32698,7 @@
       <c r="T151" s="76"/>
       <c r="U151" s="76"/>
     </row>
-    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="100"/>
       <c r="B152" s="101"/>
       <c r="C152" s="101"/>
@@ -31484,7 +32720,7 @@
       <c r="T152" s="76"/>
       <c r="U152" s="76"/>
     </row>
-    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="100"/>
       <c r="B153" s="101"/>
       <c r="C153" s="101"/>
@@ -31506,7 +32742,7 @@
       <c r="T153" s="76"/>
       <c r="U153" s="76"/>
     </row>
-    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="100"/>
       <c r="B154" s="101"/>
       <c r="C154" s="101"/>
@@ -31528,7 +32764,7 @@
       <c r="T154" s="76"/>
       <c r="U154" s="76"/>
     </row>
-    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="100"/>
       <c r="B155" s="101"/>
       <c r="C155" s="101"/>
@@ -31550,7 +32786,7 @@
       <c r="T155" s="76"/>
       <c r="U155" s="76"/>
     </row>
-    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="100"/>
       <c r="B156" s="101"/>
       <c r="C156" s="101"/>
@@ -31572,7 +32808,7 @@
       <c r="T156" s="76"/>
       <c r="U156" s="76"/>
     </row>
-    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="100"/>
       <c r="B157" s="101"/>
       <c r="C157" s="101"/>
@@ -31594,7 +32830,7 @@
       <c r="T157" s="76"/>
       <c r="U157" s="76"/>
     </row>
-    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="100"/>
       <c r="B158" s="101"/>
       <c r="C158" s="101"/>
@@ -31616,7 +32852,7 @@
       <c r="T158" s="76"/>
       <c r="U158" s="76"/>
     </row>
-    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="100"/>
       <c r="B159" s="101"/>
       <c r="C159" s="101"/>
@@ -31638,7 +32874,7 @@
       <c r="T159" s="76"/>
       <c r="U159" s="76"/>
     </row>
-    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="100"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -31660,7 +32896,7 @@
       <c r="T160" s="76"/>
       <c r="U160" s="76"/>
     </row>
-    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="100"/>
       <c r="B161" s="101"/>
       <c r="C161" s="101"/>
@@ -31682,7 +32918,7 @@
       <c r="T161" s="76"/>
       <c r="U161" s="76"/>
     </row>
-    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="100"/>
       <c r="B162" s="101"/>
       <c r="C162" s="101"/>
@@ -31704,7 +32940,7 @@
       <c r="T162" s="76"/>
       <c r="U162" s="76"/>
     </row>
-    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="100"/>
       <c r="B163" s="101"/>
       <c r="C163" s="101"/>
@@ -31726,7 +32962,7 @@
       <c r="T163" s="76"/>
       <c r="U163" s="76"/>
     </row>
-    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="100"/>
       <c r="B164" s="101"/>
       <c r="C164" s="101"/>
@@ -31748,7 +32984,7 @@
       <c r="T164" s="76"/>
       <c r="U164" s="76"/>
     </row>
-    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="100"/>
       <c r="B165" s="101"/>
       <c r="C165" s="101"/>
@@ -31770,7 +33006,7 @@
       <c r="T165" s="76"/>
       <c r="U165" s="76"/>
     </row>
-    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="100"/>
       <c r="B166" s="101"/>
       <c r="C166" s="101"/>
@@ -31792,7 +33028,7 @@
       <c r="T166" s="76"/>
       <c r="U166" s="76"/>
     </row>
-    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="100"/>
       <c r="B167" s="101"/>
       <c r="C167" s="101"/>
@@ -31814,7 +33050,7 @@
       <c r="T167" s="76"/>
       <c r="U167" s="76"/>
     </row>
-    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
@@ -31836,7 +33072,7 @@
       <c r="T168" s="76"/>
       <c r="U168" s="76"/>
     </row>
-    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="100"/>
       <c r="B169" s="101"/>
       <c r="C169" s="101"/>
@@ -31858,7 +33094,7 @@
       <c r="T169" s="76"/>
       <c r="U169" s="76"/>
     </row>
-    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="100"/>
       <c r="B170" s="101"/>
       <c r="C170" s="101"/>
@@ -31880,7 +33116,7 @@
       <c r="T170" s="76"/>
       <c r="U170" s="76"/>
     </row>
-    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="100"/>
       <c r="B171" s="101"/>
       <c r="C171" s="101"/>
@@ -31919,23 +33155,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="129" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="129" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -31979,7 +33215,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -32027,7 +33263,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -32078,7 +33314,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -32130,7 +33366,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -32180,7 +33416,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -32232,7 +33468,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -32282,7 +33518,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
@@ -32315,7 +33551,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -32348,7 +33584,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -32381,7 +33617,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -32414,7 +33650,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -32439,7 +33675,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -32464,7 +33700,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -32489,7 +33725,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -32514,7 +33750,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -32537,7 +33773,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -32560,7 +33796,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
@@ -32583,7 +33819,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -32606,7 +33842,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -32629,7 +33865,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -32652,7 +33888,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -32675,7 +33911,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
@@ -32698,7 +33934,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -32721,7 +33957,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
@@ -32744,7 +33980,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -32767,7 +34003,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="101"/>
       <c r="C27" s="101"/>
@@ -32790,7 +34026,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="101"/>
       <c r="C28" s="101"/>
@@ -32813,7 +34049,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -32836,7 +34072,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="100"/>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -32859,7 +34095,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="101"/>
       <c r="C31" s="101"/>
@@ -32882,7 +34118,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="101"/>
       <c r="C32" s="101"/>
@@ -32905,7 +34141,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="101"/>
       <c r="C33" s="101"/>
@@ -32928,7 +34164,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -32938,7 +34174,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -32948,7 +34184,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -32958,7 +34194,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -32985,12 +34221,12 @@
       <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>100</v>
       </c>
@@ -33013,7 +34249,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -33043,7 +34279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -33073,7 +34309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -33103,7 +34339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -33133,7 +34369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -33163,7 +34399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -33193,7 +34429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -33223,7 +34459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -33253,7 +34489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -33283,7 +34519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -33316,7 +34552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -33349,7 +34585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -33382,7 +34618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -33415,7 +34651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -33446,7 +34682,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -33479,7 +34715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -33512,7 +34748,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -33543,7 +34779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -33574,7 +34810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -33607,7 +34843,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -33640,7 +34876,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -33673,7 +34909,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -33706,7 +34942,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -33739,7 +34975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -33772,7 +35008,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -33805,7 +35041,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -33838,7 +35074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -33871,7 +35107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -33904,7 +35140,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -33937,7 +35173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -33970,7 +35206,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -34003,7 +35239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -34036,7 +35272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -34069,7 +35305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -34102,7 +35338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -34135,7 +35371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -34168,7 +35404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>37</v>
       </c>
@@ -34199,7 +35435,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>38</v>
       </c>
@@ -34230,7 +35466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
@@ -34263,7 +35499,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -34296,7 +35532,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
@@ -34329,7 +35565,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
@@ -34362,7 +35598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -34395,7 +35631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -34428,7 +35664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -34461,7 +35697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -34494,7 +35730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>47</v>
       </c>
@@ -34527,7 +35763,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -34560,7 +35796,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -34593,7 +35829,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -34626,7 +35862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -34659,7 +35895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -34692,7 +35928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -34725,7 +35961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -34758,7 +35994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <v>55</v>
       </c>
@@ -34791,7 +36027,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="53">
         <v>56</v>
       </c>
@@ -34824,7 +36060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -34855,7 +36091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -34886,7 +36122,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -34919,7 +36155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -34952,7 +36188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -34985,7 +36221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -35018,7 +36254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -35051,7 +36287,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>64</v>
       </c>
@@ -35084,7 +36320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>65</v>
       </c>
@@ -35117,7 +36353,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>66</v>
       </c>
@@ -35150,7 +36386,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>67</v>
       </c>
@@ -35183,7 +36419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>68</v>
       </c>
@@ -35216,7 +36452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>69</v>
       </c>
@@ -35249,7 +36485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>70</v>
       </c>
@@ -35282,7 +36518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="44">
         <v>71</v>
       </c>
@@ -35315,7 +36551,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="44">
         <v>72</v>
       </c>
@@ -35348,7 +36584,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="44">
         <v>73</v>
       </c>
@@ -35381,7 +36617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="44">
         <v>74</v>
       </c>
@@ -35414,7 +36650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>75</v>
       </c>
@@ -35447,7 +36683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>76</v>
       </c>
@@ -35480,7 +36716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -35511,7 +36747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
         <v>78</v>
       </c>
@@ -35542,7 +36778,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -35575,7 +36811,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -35608,7 +36844,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -35641,7 +36877,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -35674,7 +36910,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="50">
         <v>83</v>
       </c>
@@ -35707,7 +36943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="50">
         <v>84</v>
       </c>
@@ -35740,7 +36976,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="50">
         <v>85</v>
       </c>
@@ -35773,7 +37009,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="50">
         <v>86</v>
       </c>
@@ -35806,7 +37042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="51">
         <v>87</v>
       </c>
@@ -35839,7 +37075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <v>88</v>
       </c>
@@ -35872,7 +37108,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <v>89</v>
       </c>
@@ -35905,7 +37141,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="51">
         <v>90</v>
       </c>
@@ -35938,7 +37174,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>91</v>
       </c>
@@ -35971,7 +37207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>92</v>
       </c>
@@ -36004,7 +37240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>93</v>
       </c>
@@ -36037,7 +37273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>94</v>
       </c>
@@ -36070,7 +37306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -36103,7 +37339,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -36136,7 +37372,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -36169,7 +37405,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -36202,7 +37438,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -36235,7 +37471,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\service\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BB0591-80DC-4C54-AE1C-76A4965B6DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5487AF1-056F-45E6-B466-468C1164EF02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2228,9 +2228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z567"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M294" sqref="M294"/>
+      <selection pane="bottomLeft" activeCell="W292" sqref="W292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26550,7 +26550,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W279" s="152">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X279" s="152">
         <v>11</v>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="Z279" s="152" t="str">
         <f>W279&amp;"/"&amp;X279&amp;"/"&amp;Y279</f>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="280" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -26629,7 +26629,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W280" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X280" s="157">
         <v>11</v>
@@ -26639,7 +26639,7 @@
       </c>
       <c r="Z280" s="157" t="str">
         <f t="shared" ref="Z280:Z294" si="554">W280&amp;"/"&amp;X280&amp;"/"&amp;Y280</f>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="281" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -26708,7 +26708,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W281" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X281" s="157">
         <v>11</v>
@@ -26718,7 +26718,7 @@
       </c>
       <c r="Z281" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -26787,7 +26787,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W282" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X282" s="157">
         <v>11</v>
@@ -26797,7 +26797,7 @@
       </c>
       <c r="Z282" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="283" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -26866,7 +26866,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W283" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X283" s="157">
         <v>11</v>
@@ -26876,7 +26876,7 @@
       </c>
       <c r="Z283" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="284" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -26945,7 +26945,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W284" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X284" s="157">
         <v>11</v>
@@ -26955,7 +26955,7 @@
       </c>
       <c r="Z284" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="285" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27024,7 +27024,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W285" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X285" s="157">
         <v>11</v>
@@ -27034,7 +27034,7 @@
       </c>
       <c r="Z285" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="286" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27103,7 +27103,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W286" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X286" s="157">
         <v>11</v>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="Z286" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="287" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27182,7 +27182,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W287" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X287" s="157">
         <v>11</v>
@@ -27192,7 +27192,7 @@
       </c>
       <c r="Z287" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="288" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27258,7 +27258,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W288" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X288" s="157">
         <v>11</v>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="Z288" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="289" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27334,7 +27334,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W289" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X289" s="157">
         <v>11</v>
@@ -27344,7 +27344,7 @@
       </c>
       <c r="Z289" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="290" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27410,7 +27410,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W290" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X290" s="157">
         <v>11</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="Z290" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="291" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27486,7 +27486,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W291" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X291" s="157">
         <v>11</v>
@@ -27496,7 +27496,7 @@
       </c>
       <c r="Z291" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="292" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27562,7 +27562,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W292" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X292" s="157">
         <v>11</v>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="Z292" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="293" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27638,7 +27638,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W293" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X293" s="157">
         <v>11</v>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="Z293" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="294" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -27712,7 +27712,7 @@
         <v>18/8/1998</v>
       </c>
       <c r="W294" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X294" s="157">
         <v>11</v>
@@ -27722,7 +27722,7 @@
       </c>
       <c r="Z294" s="157" t="str">
         <f t="shared" si="554"/>
-        <v>9/11/2021</v>
+        <v>8/11/2021</v>
       </c>
     </row>
     <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\service\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5487AF1-056F-45E6-B466-468C1164EF02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F00BDA-E9F6-4CC6-AAC3-0D9D7130F551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="228">
   <si>
     <t>study</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Sachkunde</t>
   </si>
 </sst>
 </file>
@@ -2228,42 +2237,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W292" sqref="W292"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N312" sqref="N312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="50" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>116</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>117</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>117</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>117</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>117</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>117</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>117</v>
       </c>
@@ -3192,7 +3201,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>117</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>117</v>
       </c>
@@ -3380,7 +3389,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>117</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>117</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>116</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>117</v>
       </c>
@@ -3928,7 +3937,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>117</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>117</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>117</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>117</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>117</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>117</v>
       </c>
@@ -4504,7 +4513,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -4601,7 +4610,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>117</v>
       </c>
@@ -4698,7 +4707,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>117</v>
       </c>
@@ -4795,7 +4804,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>117</v>
       </c>
@@ -4888,7 +4897,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>117</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="64" t="s">
         <v>116</v>
       </c>
@@ -5063,7 +5072,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>117</v>
       </c>
@@ -5159,7 +5168,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>117</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>117</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5447,7 +5456,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -5543,7 +5552,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>117</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>117</v>
       </c>
@@ -5927,7 +5936,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>117</v>
       </c>
@@ -6023,7 +6032,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>117</v>
       </c>
@@ -6119,7 +6128,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>117</v>
       </c>
@@ -6212,7 +6221,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>117</v>
       </c>
@@ -6305,7 +6314,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>116</v>
       </c>
@@ -6386,7 +6395,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>117</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>117</v>
       </c>
@@ -6584,7 +6593,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>117</v>
       </c>
@@ -6683,7 +6692,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>117</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>117</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>117</v>
       </c>
@@ -6974,7 +6983,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>117</v>
       </c>
@@ -7071,7 +7080,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>117</v>
       </c>
@@ -7168,7 +7177,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>117</v>
       </c>
@@ -7264,7 +7273,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>117</v>
       </c>
@@ -7359,7 +7368,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>117</v>
       </c>
@@ -7454,7 +7463,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>117</v>
       </c>
@@ -7550,7 +7559,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>117</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>116</v>
       </c>
@@ -7727,7 +7736,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
@@ -7826,7 +7835,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
         <v>117</v>
       </c>
@@ -7925,7 +7934,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
@@ -8024,7 +8033,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>117</v>
       </c>
@@ -8123,7 +8132,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
         <v>117</v>
       </c>
@@ -8222,7 +8231,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>117</v>
       </c>
@@ -8320,7 +8329,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>117</v>
       </c>
@@ -8418,7 +8427,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>117</v>
       </c>
@@ -8516,7 +8525,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>117</v>
       </c>
@@ -8613,7 +8622,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>117</v>
       </c>
@@ -8709,7 +8718,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
@@ -8806,7 +8815,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="61" t="s">
         <v>117</v>
       </c>
@@ -8902,7 +8911,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="61" t="s">
         <v>117</v>
       </c>
@@ -8998,7 +9007,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>116</v>
       </c>
@@ -9079,7 +9088,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>117</v>
       </c>
@@ -9178,7 +9187,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>117</v>
       </c>
@@ -9277,7 +9286,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>117</v>
       </c>
@@ -9376,7 +9385,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>117</v>
       </c>
@@ -9475,7 +9484,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>117</v>
       </c>
@@ -9574,7 +9583,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>117</v>
       </c>
@@ -9672,7 +9681,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
         <v>117</v>
       </c>
@@ -9771,7 +9780,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>117</v>
       </c>
@@ -9869,7 +9878,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
         <v>117</v>
       </c>
@@ -9966,7 +9975,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="61" t="s">
         <v>117</v>
       </c>
@@ -10062,7 +10071,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="61" t="s">
         <v>117</v>
       </c>
@@ -10160,7 +10169,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="61" t="s">
         <v>117</v>
       </c>
@@ -10257,7 +10266,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="59" t="s">
         <v>117</v>
       </c>
@@ -10354,7 +10363,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>116</v>
       </c>
@@ -10435,7 +10444,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="61" t="s">
         <v>117</v>
       </c>
@@ -10533,7 +10542,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="61" t="s">
         <v>117</v>
       </c>
@@ -10631,7 +10640,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="61" t="s">
         <v>117</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
         <v>117</v>
       </c>
@@ -10827,7 +10836,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="61" t="s">
         <v>117</v>
       </c>
@@ -10925,7 +10934,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="61" t="s">
         <v>117</v>
       </c>
@@ -11023,7 +11032,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="61" t="s">
         <v>117</v>
       </c>
@@ -11121,7 +11130,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="61" t="s">
         <v>117</v>
       </c>
@@ -11219,7 +11228,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="61" t="s">
         <v>117</v>
       </c>
@@ -11315,7 +11324,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="61" t="s">
         <v>117</v>
       </c>
@@ -11411,7 +11420,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="61" t="s">
         <v>117</v>
       </c>
@@ -11507,7 +11516,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
@@ -11602,7 +11611,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="61" t="s">
         <v>117</v>
       </c>
@@ -11697,7 +11706,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="61" t="s">
         <v>117</v>
       </c>
@@ -11790,7 +11799,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="122" t="s">
         <v>117</v>
       </c>
@@ -11884,7 +11893,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="64" t="s">
         <v>116</v>
       </c>
@@ -11965,7 +11974,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="61" t="s">
         <v>117</v>
       </c>
@@ -12059,7 +12068,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="61" t="s">
         <v>117</v>
       </c>
@@ -12153,7 +12162,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="61" t="s">
         <v>117</v>
       </c>
@@ -12248,7 +12257,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="61" t="s">
         <v>117</v>
       </c>
@@ -12343,7 +12352,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="61" t="s">
         <v>117</v>
       </c>
@@ -12438,7 +12447,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="61" t="s">
         <v>117</v>
       </c>
@@ -12533,7 +12542,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="61" t="s">
         <v>117</v>
       </c>
@@ -12628,7 +12637,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="61" t="s">
         <v>117</v>
       </c>
@@ -12723,7 +12732,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="61" t="s">
         <v>117</v>
       </c>
@@ -12816,7 +12825,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="61" t="s">
         <v>117</v>
       </c>
@@ -12909,7 +12918,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="61" t="s">
         <v>117</v>
       </c>
@@ -13002,7 +13011,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="61" t="s">
         <v>117</v>
       </c>
@@ -13094,7 +13103,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="61" t="s">
         <v>117</v>
       </c>
@@ -13186,7 +13195,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="61" t="s">
         <v>117</v>
       </c>
@@ -13276,7 +13285,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="122" t="s">
         <v>117</v>
       </c>
@@ -13367,7 +13376,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>116</v>
       </c>
@@ -13448,7 +13457,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="61" t="s">
         <v>117</v>
       </c>
@@ -13542,7 +13551,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="61" t="s">
         <v>117</v>
       </c>
@@ -13636,7 +13645,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="61" t="s">
         <v>117</v>
       </c>
@@ -13730,7 +13739,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="61" t="s">
         <v>117</v>
       </c>
@@ -13825,7 +13834,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="61" t="s">
         <v>117</v>
       </c>
@@ -13920,7 +13929,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="61" t="s">
         <v>117</v>
       </c>
@@ -14015,7 +14024,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="61" t="s">
         <v>117</v>
       </c>
@@ -14110,7 +14119,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="61" t="s">
         <v>117</v>
       </c>
@@ -14205,7 +14214,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="61" t="s">
         <v>117</v>
       </c>
@@ -14298,7 +14307,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="61" t="s">
         <v>117</v>
       </c>
@@ -14391,7 +14400,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="61" t="s">
         <v>117</v>
       </c>
@@ -14484,7 +14493,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="142" t="s">
         <v>117</v>
       </c>
@@ -14576,7 +14585,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="61" t="s">
         <v>117</v>
       </c>
@@ -14668,7 +14677,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="61" t="s">
         <v>117</v>
       </c>
@@ -14758,7 +14767,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="122" t="s">
         <v>117</v>
       </c>
@@ -14849,7 +14858,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="146" t="s">
         <v>116</v>
       </c>
@@ -14930,7 +14939,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="154" t="s">
         <v>117</v>
       </c>
@@ -15024,7 +15033,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="154" t="s">
         <v>117</v>
       </c>
@@ -15118,7 +15127,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="154" t="s">
         <v>117</v>
       </c>
@@ -15212,7 +15221,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="154" t="s">
         <v>117</v>
       </c>
@@ -15307,7 +15316,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="154" t="s">
         <v>117</v>
       </c>
@@ -15402,7 +15411,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="154" t="s">
         <v>117</v>
       </c>
@@ -15496,7 +15505,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="154" t="s">
         <v>117</v>
       </c>
@@ -15591,7 +15600,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="154" t="s">
         <v>117</v>
       </c>
@@ -15686,7 +15695,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="154" t="s">
         <v>117</v>
       </c>
@@ -15779,7 +15788,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="154" t="s">
         <v>117</v>
       </c>
@@ -15872,7 +15881,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="154" t="s">
         <v>117</v>
       </c>
@@ -15965,7 +15974,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="154" t="s">
         <v>117</v>
       </c>
@@ -16057,7 +16066,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="154" t="s">
         <v>117</v>
       </c>
@@ -16149,7 +16158,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="154" t="s">
         <v>117</v>
       </c>
@@ -16239,7 +16248,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="159" t="s">
         <v>117</v>
       </c>
@@ -16330,7 +16339,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="146" t="s">
         <v>116</v>
       </c>
@@ -16411,7 +16420,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="154" t="s">
         <v>117</v>
       </c>
@@ -16488,7 +16497,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="154" t="s">
         <v>117</v>
       </c>
@@ -16565,7 +16574,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="154" t="s">
         <v>117</v>
       </c>
@@ -16642,7 +16651,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="154" t="s">
         <v>117</v>
       </c>
@@ -16719,7 +16728,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="154" t="s">
         <v>117</v>
       </c>
@@ -16796,7 +16805,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="154" t="s">
         <v>117</v>
       </c>
@@ -16873,7 +16882,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="154" t="s">
         <v>117</v>
       </c>
@@ -16950,7 +16959,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="154" t="s">
         <v>117</v>
       </c>
@@ -17027,7 +17036,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="154" t="s">
         <v>117</v>
       </c>
@@ -17101,7 +17110,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="154" t="s">
         <v>117</v>
       </c>
@@ -17175,7 +17184,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="154" t="s">
         <v>117</v>
       </c>
@@ -17249,7 +17258,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="154" t="s">
         <v>117</v>
       </c>
@@ -17323,7 +17332,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="154" t="s">
         <v>117</v>
       </c>
@@ -17397,7 +17406,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="154" t="s">
         <v>117</v>
       </c>
@@ -17471,7 +17480,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="159" t="s">
         <v>117</v>
       </c>
@@ -17545,7 +17554,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="146" t="s">
         <v>117</v>
       </c>
@@ -17626,7 +17635,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="154" t="s">
         <v>117</v>
       </c>
@@ -17703,7 +17712,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="154" t="s">
         <v>117</v>
       </c>
@@ -17780,7 +17789,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="154" t="s">
         <v>117</v>
       </c>
@@ -17857,7 +17866,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="154" t="s">
         <v>117</v>
       </c>
@@ -17934,7 +17943,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="154" t="s">
         <v>117</v>
       </c>
@@ -18011,7 +18020,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="154" t="s">
         <v>117</v>
       </c>
@@ -18088,7 +18097,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="154" t="s">
         <v>117</v>
       </c>
@@ -18165,7 +18174,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="154" t="s">
         <v>117</v>
       </c>
@@ -18242,7 +18251,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="154" t="s">
         <v>117</v>
       </c>
@@ -18316,7 +18325,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="154" t="s">
         <v>117</v>
       </c>
@@ -18390,7 +18399,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="154" t="s">
         <v>117</v>
       </c>
@@ -18464,7 +18473,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="154" t="s">
         <v>117</v>
       </c>
@@ -18538,7 +18547,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="154" t="s">
         <v>117</v>
       </c>
@@ -18612,7 +18621,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="154" t="s">
         <v>117</v>
       </c>
@@ -18686,7 +18695,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="159" t="s">
         <v>117</v>
       </c>
@@ -18760,7 +18769,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="146" t="s">
         <v>117</v>
       </c>
@@ -18841,7 +18850,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="154" t="s">
         <v>117</v>
       </c>
@@ -18918,7 +18927,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="154" t="s">
         <v>117</v>
       </c>
@@ -18995,7 +19004,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="154" t="s">
         <v>117</v>
       </c>
@@ -19072,7 +19081,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="154" t="s">
         <v>117</v>
       </c>
@@ -19149,7 +19158,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="154" t="s">
         <v>117</v>
       </c>
@@ -19226,7 +19235,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="154" t="s">
         <v>117</v>
       </c>
@@ -19303,7 +19312,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="154" t="s">
         <v>117</v>
       </c>
@@ -19380,7 +19389,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="154" t="s">
         <v>117</v>
       </c>
@@ -19457,7 +19466,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="154" t="s">
         <v>117</v>
       </c>
@@ -19531,7 +19540,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="154" t="s">
         <v>117</v>
       </c>
@@ -19605,7 +19614,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="154" t="s">
         <v>117</v>
       </c>
@@ -19679,7 +19688,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="154" t="s">
         <v>117</v>
       </c>
@@ -19753,7 +19762,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="154" t="s">
         <v>117</v>
       </c>
@@ -19827,7 +19836,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="154" t="s">
         <v>117</v>
       </c>
@@ -19901,7 +19910,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="159" t="s">
         <v>117</v>
       </c>
@@ -19975,7 +19984,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="146" t="s">
         <v>117</v>
       </c>
@@ -20056,7 +20065,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="154" t="s">
         <v>117</v>
       </c>
@@ -20133,7 +20142,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="154" t="s">
         <v>117</v>
       </c>
@@ -20210,7 +20219,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="154" t="s">
         <v>117</v>
       </c>
@@ -20287,7 +20296,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="154" t="s">
         <v>117</v>
       </c>
@@ -20364,7 +20373,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="154" t="s">
         <v>117</v>
       </c>
@@ -20441,7 +20450,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="154" t="s">
         <v>117</v>
       </c>
@@ -20518,7 +20527,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="154" t="s">
         <v>117</v>
       </c>
@@ -20595,7 +20604,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="154" t="s">
         <v>117</v>
       </c>
@@ -20672,7 +20681,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="154" t="s">
         <v>117</v>
       </c>
@@ -20746,7 +20755,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="154" t="s">
         <v>117</v>
       </c>
@@ -20820,7 +20829,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="154" t="s">
         <v>117</v>
       </c>
@@ -20894,7 +20903,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="154" t="s">
         <v>117</v>
       </c>
@@ -20968,7 +20977,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="154" t="s">
         <v>117</v>
       </c>
@@ -21045,7 +21054,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="154" t="s">
         <v>117</v>
       </c>
@@ -21122,7 +21131,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="154" t="s">
         <v>117</v>
       </c>
@@ -21196,7 +21205,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="159" t="s">
         <v>117</v>
       </c>
@@ -21270,7 +21279,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="146" t="s">
         <v>117</v>
       </c>
@@ -21351,7 +21360,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="154" t="s">
         <v>117</v>
       </c>
@@ -21434,7 +21443,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="154" t="s">
         <v>117</v>
       </c>
@@ -21517,7 +21526,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="154" t="s">
         <v>117</v>
       </c>
@@ -21600,7 +21609,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="154" t="s">
         <v>117</v>
       </c>
@@ -21683,7 +21692,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="154" t="s">
         <v>117</v>
       </c>
@@ -21766,7 +21775,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="154" t="s">
         <v>117</v>
       </c>
@@ -21849,7 +21858,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="154" t="s">
         <v>117</v>
       </c>
@@ -21932,7 +21941,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="154" t="s">
         <v>117</v>
       </c>
@@ -22015,7 +22024,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="154" t="s">
         <v>117</v>
       </c>
@@ -22095,7 +22104,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="154" t="s">
         <v>117</v>
       </c>
@@ -22175,7 +22184,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="154" t="s">
         <v>117</v>
       </c>
@@ -22255,7 +22264,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="154" t="s">
         <v>117</v>
       </c>
@@ -22335,7 +22344,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="154" t="s">
         <v>117</v>
       </c>
@@ -22415,7 +22424,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="154" t="s">
         <v>117</v>
       </c>
@@ -22495,7 +22504,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="159" t="s">
         <v>117</v>
       </c>
@@ -22575,7 +22584,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="146" t="s">
         <v>117</v>
       </c>
@@ -22656,7 +22665,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="154" t="s">
         <v>117</v>
       </c>
@@ -22739,7 +22748,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="154" t="s">
         <v>117</v>
       </c>
@@ -22822,7 +22831,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="154" t="s">
         <v>117</v>
       </c>
@@ -22905,7 +22914,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="154" t="s">
         <v>117</v>
       </c>
@@ -22988,7 +22997,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="154" t="s">
         <v>117</v>
       </c>
@@ -23071,7 +23080,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="154" t="s">
         <v>117</v>
       </c>
@@ -23154,7 +23163,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="154" t="s">
         <v>117</v>
       </c>
@@ -23237,7 +23246,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="154" t="s">
         <v>117</v>
       </c>
@@ -23320,7 +23329,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="154" t="s">
         <v>117</v>
       </c>
@@ -23400,7 +23409,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="154" t="s">
         <v>117</v>
       </c>
@@ -23480,7 +23489,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="154" t="s">
         <v>117</v>
       </c>
@@ -23560,7 +23569,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="154" t="s">
         <v>117</v>
       </c>
@@ -23640,7 +23649,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="154" t="s">
         <v>117</v>
       </c>
@@ -23720,7 +23729,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="154" t="s">
         <v>117</v>
       </c>
@@ -23800,7 +23809,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="159" t="s">
         <v>117</v>
       </c>
@@ -23880,7 +23889,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="146" t="s">
         <v>117</v>
       </c>
@@ -23961,7 +23970,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="154" t="s">
         <v>117</v>
       </c>
@@ -24044,7 +24053,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="154" t="s">
         <v>117</v>
       </c>
@@ -24127,7 +24136,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="154" t="s">
         <v>117</v>
       </c>
@@ -24210,7 +24219,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="154" t="s">
         <v>117</v>
       </c>
@@ -24293,7 +24302,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="154" t="s">
         <v>117</v>
       </c>
@@ -24376,7 +24385,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="154" t="s">
         <v>117</v>
       </c>
@@ -24459,7 +24468,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="154" t="s">
         <v>117</v>
       </c>
@@ -24542,7 +24551,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="154" t="s">
         <v>117</v>
       </c>
@@ -24625,7 +24634,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="154" t="s">
         <v>117</v>
       </c>
@@ -24705,7 +24714,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="154" t="s">
         <v>117</v>
       </c>
@@ -24785,7 +24794,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="154" t="s">
         <v>117</v>
       </c>
@@ -24865,7 +24874,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="154" t="s">
         <v>117</v>
       </c>
@@ -24945,7 +24954,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="154" t="s">
         <v>117</v>
       </c>
@@ -25025,7 +25034,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="154" t="s">
         <v>117</v>
       </c>
@@ -25105,7 +25114,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="159" t="s">
         <v>117</v>
       </c>
@@ -25183,7 +25192,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="146" t="s">
         <v>117</v>
       </c>
@@ -25264,7 +25273,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="154" t="s">
         <v>117</v>
       </c>
@@ -25347,7 +25356,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="154" t="s">
         <v>117</v>
       </c>
@@ -25430,7 +25439,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="154" t="s">
         <v>117</v>
       </c>
@@ -25513,7 +25522,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="154" t="s">
         <v>117</v>
       </c>
@@ -25596,7 +25605,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="154" t="s">
         <v>117</v>
       </c>
@@ -25679,7 +25688,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="154" t="s">
         <v>117</v>
       </c>
@@ -25762,7 +25771,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="154" t="s">
         <v>117</v>
       </c>
@@ -25845,7 +25854,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="154" t="s">
         <v>117</v>
       </c>
@@ -25928,7 +25937,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="154" t="s">
         <v>117</v>
       </c>
@@ -26008,7 +26017,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="154" t="s">
         <v>117</v>
       </c>
@@ -26088,7 +26097,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="154" t="s">
         <v>117</v>
       </c>
@@ -26168,7 +26177,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="154" t="s">
         <v>117</v>
       </c>
@@ -26248,7 +26257,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="154" t="s">
         <v>117</v>
       </c>
@@ -26328,7 +26337,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="154" t="s">
         <v>117</v>
       </c>
@@ -26408,7 +26417,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="159" t="s">
         <v>117</v>
       </c>
@@ -26486,7 +26495,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="146" t="s">
         <v>117</v>
       </c>
@@ -26563,7 +26572,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="154" t="s">
         <v>117</v>
       </c>
@@ -26642,7 +26651,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="154" t="s">
         <v>117</v>
       </c>
@@ -26721,7 +26730,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="154" t="s">
         <v>117</v>
       </c>
@@ -26800,7 +26809,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="154" t="s">
         <v>117</v>
       </c>
@@ -26879,7 +26888,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="154" t="s">
         <v>117</v>
       </c>
@@ -26958,7 +26967,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="154" t="s">
         <v>117</v>
       </c>
@@ -27037,7 +27046,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="154" t="s">
         <v>117</v>
       </c>
@@ -27116,7 +27125,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="154" t="s">
         <v>117</v>
       </c>
@@ -27195,7 +27204,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="154" t="s">
         <v>117</v>
       </c>
@@ -27221,7 +27230,7 @@
         <v>120</v>
       </c>
       <c r="J288" s="150" t="str">
-        <f t="shared" ref="J288:J294" si="556">CONCATENATE(C288,"_",D288,"_",E288,"_",F288,"_",H288)</f>
+        <f t="shared" ref="J288:J295" si="556">CONCATENATE(C288,"_",D288,"_",E288,"_",F288,"_",H288)</f>
         <v>ProVisioNET_study_110_02_glasses</v>
       </c>
       <c r="K288" s="156" t="s">
@@ -27271,7 +27280,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="154" t="s">
         <v>117</v>
       </c>
@@ -27347,7 +27356,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="154" t="s">
         <v>117</v>
       </c>
@@ -27423,7 +27432,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="154" t="s">
         <v>117</v>
       </c>
@@ -27499,7 +27508,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="154" t="s">
         <v>117</v>
       </c>
@@ -27575,7 +27584,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="154" t="s">
         <v>117</v>
       </c>
@@ -27651,7 +27660,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="159" t="s">
         <v>117</v>
       </c>
@@ -27725,7 +27734,2549 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B295" s="147">
+        <v>14</v>
+      </c>
+      <c r="C295" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D295" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E295" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F295" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G295" s="147">
+        <v>14</v>
+      </c>
+      <c r="H295" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I295" s="147"/>
+      <c r="J295" s="150" t="str">
+        <f t="shared" si="556"/>
+        <v>ProVisioNET_study_204_04_label</v>
+      </c>
+      <c r="K295" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L295" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="M295" s="147"/>
+      <c r="N295" s="147"/>
+      <c r="O295" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="P295" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q295" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R295" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S295" s="152">
+        <v>7</v>
+      </c>
+      <c r="T295" s="152">
+        <v>9</v>
+      </c>
+      <c r="U295" s="152">
+        <v>1962</v>
+      </c>
+      <c r="V295" s="152" t="str">
+        <f>S295&amp;"/"&amp;T295&amp;"/"&amp;U295</f>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W295" s="152">
+        <v>12</v>
+      </c>
+      <c r="X295" s="152">
+        <v>11</v>
+      </c>
+      <c r="Y295" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z295" s="152" t="str">
+        <f>W295&amp;"/"&amp;X295&amp;"/"&amp;Y295</f>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A296" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B296" s="3">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>176</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E296" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F296" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G296" s="150">
+        <v>14</v>
+      </c>
+      <c r="H296" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I296" s="3">
+        <v>1</v>
+      </c>
+      <c r="J296" s="150" t="str">
+        <f t="shared" ref="J296:J303" si="557">CONCATENATE(C296,"_",D296,"_",E296,"_",F296,"_",H296,"_",I296)</f>
+        <v>ProVisioNET_study_204_04_cam1_1</v>
+      </c>
+      <c r="K296" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P296" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q296" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R296" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S296" s="3">
+        <v>7</v>
+      </c>
+      <c r="T296" s="3">
+        <v>9</v>
+      </c>
+      <c r="U296" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V296" s="163" t="str">
+        <f>"7/9/1962"</f>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W296" s="157">
+        <v>12</v>
+      </c>
+      <c r="X296" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y296" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z296" s="157" t="str">
+        <f t="shared" ref="Z296:Z310" si="558">W296&amp;"/"&amp;X296&amp;"/"&amp;Y296</f>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B297" s="3">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>176</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E297" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F297" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G297" s="150">
+        <v>14</v>
+      </c>
+      <c r="H297" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I297" s="150">
+        <v>2</v>
+      </c>
+      <c r="J297" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam1_2</v>
+      </c>
+      <c r="K297" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P297" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q297" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R297" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S297" s="3">
+        <v>7</v>
+      </c>
+      <c r="T297" s="3">
+        <v>9</v>
+      </c>
+      <c r="U297" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V297" s="163" t="str">
+        <f t="shared" ref="V297:V310" si="559">"7/9/1962"</f>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W297" s="157">
+        <v>12</v>
+      </c>
+      <c r="X297" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y297" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z297" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B298" s="3">
+        <v>14</v>
+      </c>
+      <c r="C298" t="s">
+        <v>176</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E298" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F298" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G298" s="150">
+        <v>14</v>
+      </c>
+      <c r="H298" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I298" s="150">
+        <v>1</v>
+      </c>
+      <c r="J298" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam2_1</v>
+      </c>
+      <c r="K298" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P298" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q298" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R298" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S298" s="3">
+        <v>7</v>
+      </c>
+      <c r="T298" s="3">
+        <v>9</v>
+      </c>
+      <c r="U298" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V298" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W298" s="157">
+        <v>12</v>
+      </c>
+      <c r="X298" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y298" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z298" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B299" s="3">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>176</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E299" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F299" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G299" s="150">
+        <v>14</v>
+      </c>
+      <c r="H299" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I299" s="150">
+        <v>2</v>
+      </c>
+      <c r="J299" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam2_2</v>
+      </c>
+      <c r="K299" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P299" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q299" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R299" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S299" s="3">
+        <v>7</v>
+      </c>
+      <c r="T299" s="3">
+        <v>9</v>
+      </c>
+      <c r="U299" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V299" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W299" s="157">
+        <v>12</v>
+      </c>
+      <c r="X299" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y299" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z299" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B300" s="3">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>176</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E300" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F300" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G300" s="150">
+        <v>14</v>
+      </c>
+      <c r="H300" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I300" s="150">
+        <v>1</v>
+      </c>
+      <c r="J300" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam3_1</v>
+      </c>
+      <c r="K300" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P300" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q300" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R300" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S300" s="3">
+        <v>7</v>
+      </c>
+      <c r="T300" s="3">
+        <v>9</v>
+      </c>
+      <c r="U300" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V300" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W300" s="157">
+        <v>12</v>
+      </c>
+      <c r="X300" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y300" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z300" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B301" s="3">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>176</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E301" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F301" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G301" s="150">
+        <v>14</v>
+      </c>
+      <c r="H301" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I301" s="150">
+        <v>2</v>
+      </c>
+      <c r="J301" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam3_2</v>
+      </c>
+      <c r="K301" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P301" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q301" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R301" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S301" s="3">
+        <v>7</v>
+      </c>
+      <c r="T301" s="3">
+        <v>9</v>
+      </c>
+      <c r="U301" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V301" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W301" s="157">
+        <v>12</v>
+      </c>
+      <c r="X301" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y301" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z301" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B302" s="3">
+        <v>14</v>
+      </c>
+      <c r="C302" t="s">
+        <v>176</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E302" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F302" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G302" s="150">
+        <v>14</v>
+      </c>
+      <c r="H302" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I302" s="150">
+        <v>1</v>
+      </c>
+      <c r="J302" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam4_1</v>
+      </c>
+      <c r="K302" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M302" s="3"/>
+      <c r="N302" s="3"/>
+      <c r="O302" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P302" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q302" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R302" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S302" s="3">
+        <v>7</v>
+      </c>
+      <c r="T302" s="3">
+        <v>9</v>
+      </c>
+      <c r="U302" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V302" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W302" s="157">
+        <v>12</v>
+      </c>
+      <c r="X302" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y302" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z302" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B303" s="3">
+        <v>14</v>
+      </c>
+      <c r="C303" t="s">
+        <v>176</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E303" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F303" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" s="150">
+        <v>14</v>
+      </c>
+      <c r="H303" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I303" s="150">
+        <v>2</v>
+      </c>
+      <c r="J303" s="150" t="str">
+        <f t="shared" si="557"/>
+        <v>ProVisioNET_study_204_04_cam4_2</v>
+      </c>
+      <c r="K303" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P303" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q303" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R303" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S303" s="3">
+        <v>7</v>
+      </c>
+      <c r="T303" s="3">
+        <v>9</v>
+      </c>
+      <c r="U303" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V303" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W303" s="157">
+        <v>12</v>
+      </c>
+      <c r="X303" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y303" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z303" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B304" s="3">
+        <v>14</v>
+      </c>
+      <c r="C304" t="s">
+        <v>176</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E304" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F304" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G304" s="150">
+        <v>14</v>
+      </c>
+      <c r="H304" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J304" s="150" t="str">
+        <f t="shared" ref="J304:J311" si="560">CONCATENATE(C304,"_",D304,"_",E304,"_",F304,"_",H304)</f>
+        <v>ProVisioNET_study_204_04_glasses</v>
+      </c>
+      <c r="K304" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P304" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q304" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R304" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S304" s="3">
+        <v>7</v>
+      </c>
+      <c r="T304" s="3">
+        <v>9</v>
+      </c>
+      <c r="U304" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V304" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W304" s="157">
+        <v>12</v>
+      </c>
+      <c r="X304" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y304" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z304" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A305" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B305" s="3">
+        <v>14</v>
+      </c>
+      <c r="C305" t="s">
+        <v>176</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E305" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F305" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" s="150">
+        <v>14</v>
+      </c>
+      <c r="H305" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J305" s="150" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_204_04_ambient</v>
+      </c>
+      <c r="K305" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P305" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R305" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S305" s="3">
+        <v>7</v>
+      </c>
+      <c r="T305" s="3">
+        <v>9</v>
+      </c>
+      <c r="U305" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V305" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W305" s="157">
+        <v>12</v>
+      </c>
+      <c r="X305" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y305" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z305" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B306" s="3">
+        <v>14</v>
+      </c>
+      <c r="C306" t="s">
+        <v>176</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E306" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F306" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G306" s="150">
+        <v>14</v>
+      </c>
+      <c r="H306" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J306" s="150" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_204_04_ETrawdata</v>
+      </c>
+      <c r="K306" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M306" s="3"/>
+      <c r="N306" s="3"/>
+      <c r="O306" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P306" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q306" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R306" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S306" s="3">
+        <v>7</v>
+      </c>
+      <c r="T306" s="3">
+        <v>9</v>
+      </c>
+      <c r="U306" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V306" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W306" s="157">
+        <v>12</v>
+      </c>
+      <c r="X306" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y306" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z306" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B307" s="3">
+        <v>14</v>
+      </c>
+      <c r="C307" t="s">
+        <v>176</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E307" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F307" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G307" s="150">
+        <v>14</v>
+      </c>
+      <c r="H307" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J307" s="150" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_204_04_sri_obs</v>
+      </c>
+      <c r="K307" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P307" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q307" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R307" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S307" s="3">
+        <v>7</v>
+      </c>
+      <c r="T307" s="3">
+        <v>9</v>
+      </c>
+      <c r="U307" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V307" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W307" s="157">
+        <v>12</v>
+      </c>
+      <c r="X307" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y307" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z307" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B308" s="3">
+        <v>14</v>
+      </c>
+      <c r="C308" t="s">
+        <v>176</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E308" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F308" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G308" s="150">
+        <v>14</v>
+      </c>
+      <c r="H308" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="J308" s="150" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_204_04_sri_ambient</v>
+      </c>
+      <c r="K308" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P308" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q308" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R308" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S308" s="3">
+        <v>7</v>
+      </c>
+      <c r="T308" s="3">
+        <v>9</v>
+      </c>
+      <c r="U308" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V308" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W308" s="157">
+        <v>12</v>
+      </c>
+      <c r="X308" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y308" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z308" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B309" s="3">
+        <v>14</v>
+      </c>
+      <c r="C309" t="s">
+        <v>176</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E309" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F309" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G309" s="150">
+        <v>14</v>
+      </c>
+      <c r="H309" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J309" s="150" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_204_04_fitbit</v>
+      </c>
+      <c r="K309" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M309" s="3"/>
+      <c r="N309" s="3"/>
+      <c r="O309" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P309" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q309" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R309" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S309" s="3">
+        <v>7</v>
+      </c>
+      <c r="T309" s="3">
+        <v>9</v>
+      </c>
+      <c r="U309" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V309" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W309" s="157">
+        <v>12</v>
+      </c>
+      <c r="X309" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y309" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z309" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B310" s="3">
+        <v>14</v>
+      </c>
+      <c r="C310" t="s">
+        <v>176</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F310" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G310" s="150">
+        <v>14</v>
+      </c>
+      <c r="H310" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="J310" s="160" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_204_04_zed</v>
+      </c>
+      <c r="K310" s="156"/>
+      <c r="L310" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M310" s="3"/>
+      <c r="N310" s="3"/>
+      <c r="O310" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P310" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q310" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R310" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S310" s="3">
+        <v>7</v>
+      </c>
+      <c r="T310" s="3">
+        <v>9</v>
+      </c>
+      <c r="U310" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V310" s="163" t="str">
+        <f t="shared" si="559"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W310" s="157">
+        <v>12</v>
+      </c>
+      <c r="X310" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y310" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z310" s="157" t="str">
+        <f t="shared" si="558"/>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A311" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B311" s="147">
+        <v>15</v>
+      </c>
+      <c r="C311" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D311" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E311" s="148" t="s">
+        <v>226</v>
+      </c>
+      <c r="F311" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G311" s="147">
+        <v>15</v>
+      </c>
+      <c r="H311" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I311" s="147"/>
+      <c r="J311" s="150" t="str">
+        <f t="shared" si="560"/>
+        <v>ProVisioNET_study_111_03_label</v>
+      </c>
+      <c r="K311" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L311" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="M311" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="N311" s="147">
+        <v>3</v>
+      </c>
+      <c r="O311" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="P311" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q311" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R311" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S311" s="152">
+        <v>1</v>
+      </c>
+      <c r="T311" s="152">
+        <v>10</v>
+      </c>
+      <c r="U311" s="152">
+        <v>2000</v>
+      </c>
+      <c r="V311" s="152" t="str">
+        <f>S311&amp;"/"&amp;T311&amp;"/"&amp;U311</f>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W311" s="152">
+        <v>15</v>
+      </c>
+      <c r="X311" s="152">
+        <v>11</v>
+      </c>
+      <c r="Y311" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z311" s="152" t="str">
+        <f>W311&amp;"/"&amp;X311&amp;"/"&amp;Y311</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B312" s="3">
+        <v>15</v>
+      </c>
+      <c r="C312" t="s">
+        <v>176</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E312" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F312" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G312" s="150">
+        <v>15</v>
+      </c>
+      <c r="H312" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I312" s="3">
+        <v>1</v>
+      </c>
+      <c r="J312" s="150" t="str">
+        <f t="shared" ref="J312:J319" si="561">CONCATENATE(C312,"_",D312,"_",E312,"_",F312,"_",H312,"_",I312)</f>
+        <v>ProVisioNET_study_111_03_cam1_1</v>
+      </c>
+      <c r="K312" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N312" s="3">
+        <v>3</v>
+      </c>
+      <c r="O312" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P312" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R312" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S312" s="3">
+        <v>1</v>
+      </c>
+      <c r="T312" s="3">
+        <v>10</v>
+      </c>
+      <c r="U312" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V312" s="163" t="str">
+        <f>"1/10/2000"</f>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W312" s="157">
+        <v>15</v>
+      </c>
+      <c r="X312" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y312" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z312" s="157" t="str">
+        <f t="shared" ref="Z312:Z326" si="562">W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B313" s="3">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>176</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E313" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F313" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G313" s="150">
+        <v>15</v>
+      </c>
+      <c r="H313" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I313" s="150">
+        <v>2</v>
+      </c>
+      <c r="J313" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam1_2</v>
+      </c>
+      <c r="K313" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N313" s="3">
+        <v>3</v>
+      </c>
+      <c r="O313" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P313" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R313" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S313" s="3">
+        <v>1</v>
+      </c>
+      <c r="T313" s="3">
+        <v>10</v>
+      </c>
+      <c r="U313" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V313" s="163" t="str">
+        <f t="shared" ref="V313:V326" si="563">"1/10/2000"</f>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W313" s="157">
+        <v>15</v>
+      </c>
+      <c r="X313" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y313" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z313" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B314" s="3">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>176</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F314" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G314" s="150">
+        <v>15</v>
+      </c>
+      <c r="H314" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I314" s="150">
+        <v>1</v>
+      </c>
+      <c r="J314" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam2_1</v>
+      </c>
+      <c r="K314" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N314" s="3">
+        <v>3</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P314" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q314" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R314" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S314" s="3">
+        <v>1</v>
+      </c>
+      <c r="T314" s="3">
+        <v>10</v>
+      </c>
+      <c r="U314" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V314" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W314" s="157">
+        <v>15</v>
+      </c>
+      <c r="X314" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y314" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z314" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B315" s="3">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>176</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E315" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F315" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G315" s="150">
+        <v>15</v>
+      </c>
+      <c r="H315" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I315" s="150">
+        <v>2</v>
+      </c>
+      <c r="J315" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam2_2</v>
+      </c>
+      <c r="K315" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N315" s="3">
+        <v>3</v>
+      </c>
+      <c r="O315" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P315" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q315" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R315" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S315" s="3">
+        <v>1</v>
+      </c>
+      <c r="T315" s="3">
+        <v>10</v>
+      </c>
+      <c r="U315" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V315" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W315" s="157">
+        <v>15</v>
+      </c>
+      <c r="X315" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y315" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z315" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A316" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B316" s="3">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>176</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E316" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F316" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G316" s="150">
+        <v>15</v>
+      </c>
+      <c r="H316" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I316" s="150">
+        <v>1</v>
+      </c>
+      <c r="J316" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam3_1</v>
+      </c>
+      <c r="K316" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N316" s="3">
+        <v>3</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P316" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q316" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R316" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S316" s="3">
+        <v>1</v>
+      </c>
+      <c r="T316" s="3">
+        <v>10</v>
+      </c>
+      <c r="U316" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V316" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W316" s="157">
+        <v>15</v>
+      </c>
+      <c r="X316" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y316" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z316" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B317" s="3">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>176</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E317" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F317" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G317" s="150">
+        <v>15</v>
+      </c>
+      <c r="H317" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I317" s="150">
+        <v>2</v>
+      </c>
+      <c r="J317" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam3_2</v>
+      </c>
+      <c r="K317" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N317" s="3">
+        <v>3</v>
+      </c>
+      <c r="O317" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P317" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q317" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R317" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S317" s="3">
+        <v>1</v>
+      </c>
+      <c r="T317" s="3">
+        <v>10</v>
+      </c>
+      <c r="U317" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V317" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W317" s="157">
+        <v>15</v>
+      </c>
+      <c r="X317" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y317" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z317" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B318" s="3">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>176</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F318" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G318" s="150">
+        <v>15</v>
+      </c>
+      <c r="H318" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I318" s="150">
+        <v>1</v>
+      </c>
+      <c r="J318" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam4_1</v>
+      </c>
+      <c r="K318" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M318" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N318" s="3">
+        <v>3</v>
+      </c>
+      <c r="O318" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P318" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q318" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R318" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S318" s="3">
+        <v>1</v>
+      </c>
+      <c r="T318" s="3">
+        <v>10</v>
+      </c>
+      <c r="U318" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V318" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W318" s="157">
+        <v>15</v>
+      </c>
+      <c r="X318" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y318" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z318" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B319" s="3">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>176</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E319" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F319" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G319" s="150">
+        <v>15</v>
+      </c>
+      <c r="H319" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I319" s="150">
+        <v>2</v>
+      </c>
+      <c r="J319" s="150" t="str">
+        <f t="shared" si="561"/>
+        <v>ProVisioNET_study_111_03_cam4_2</v>
+      </c>
+      <c r="K319" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M319" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N319" s="3">
+        <v>3</v>
+      </c>
+      <c r="O319" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P319" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q319" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R319" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S319" s="3">
+        <v>1</v>
+      </c>
+      <c r="T319" s="3">
+        <v>10</v>
+      </c>
+      <c r="U319" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V319" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W319" s="157">
+        <v>15</v>
+      </c>
+      <c r="X319" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y319" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z319" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B320" s="3">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>176</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E320" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F320" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G320" s="150">
+        <v>15</v>
+      </c>
+      <c r="H320" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J320" s="150" t="str">
+        <f t="shared" ref="J320:J326" si="564">CONCATENATE(C320,"_",D320,"_",E320,"_",F320,"_",H320)</f>
+        <v>ProVisioNET_study_111_03_glasses</v>
+      </c>
+      <c r="K320" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N320" s="3">
+        <v>3</v>
+      </c>
+      <c r="O320" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P320" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q320" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R320" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S320" s="3">
+        <v>1</v>
+      </c>
+      <c r="T320" s="3">
+        <v>10</v>
+      </c>
+      <c r="U320" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V320" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W320" s="157">
+        <v>15</v>
+      </c>
+      <c r="X320" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y320" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z320" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B321" s="3">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>176</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E321" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F321" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G321" s="150">
+        <v>15</v>
+      </c>
+      <c r="H321" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J321" s="150" t="str">
+        <f t="shared" si="564"/>
+        <v>ProVisioNET_study_111_03_ambient</v>
+      </c>
+      <c r="K321" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N321" s="3">
+        <v>3</v>
+      </c>
+      <c r="O321" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P321" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q321" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R321" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S321" s="3">
+        <v>1</v>
+      </c>
+      <c r="T321" s="3">
+        <v>10</v>
+      </c>
+      <c r="U321" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V321" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W321" s="157">
+        <v>15</v>
+      </c>
+      <c r="X321" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y321" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z321" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B322" s="3">
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>176</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E322" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F322" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G322" s="150">
+        <v>15</v>
+      </c>
+      <c r="H322" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J322" s="150" t="str">
+        <f t="shared" si="564"/>
+        <v>ProVisioNET_study_111_03_ETrawdata</v>
+      </c>
+      <c r="K322" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N322" s="3">
+        <v>3</v>
+      </c>
+      <c r="O322" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P322" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q322" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R322" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S322" s="3">
+        <v>1</v>
+      </c>
+      <c r="T322" s="3">
+        <v>10</v>
+      </c>
+      <c r="U322" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V322" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W322" s="157">
+        <v>15</v>
+      </c>
+      <c r="X322" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y322" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z322" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B323" s="3">
+        <v>15</v>
+      </c>
+      <c r="C323" t="s">
+        <v>176</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E323" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F323" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G323" s="150">
+        <v>15</v>
+      </c>
+      <c r="H323" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J323" s="150" t="str">
+        <f t="shared" si="564"/>
+        <v>ProVisioNET_study_111_03_sri_obs</v>
+      </c>
+      <c r="K323" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N323" s="3">
+        <v>3</v>
+      </c>
+      <c r="O323" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P323" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q323" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R323" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S323" s="3">
+        <v>1</v>
+      </c>
+      <c r="T323" s="3">
+        <v>10</v>
+      </c>
+      <c r="U323" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V323" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W323" s="157">
+        <v>15</v>
+      </c>
+      <c r="X323" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y323" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z323" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B324" s="3">
+        <v>15</v>
+      </c>
+      <c r="C324" t="s">
+        <v>176</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E324" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F324" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G324" s="150">
+        <v>15</v>
+      </c>
+      <c r="H324" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="J324" s="150" t="str">
+        <f t="shared" si="564"/>
+        <v>ProVisioNET_study_111_03_sri_ambient</v>
+      </c>
+      <c r="K324" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N324" s="3">
+        <v>3</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P324" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q324" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R324" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S324" s="3">
+        <v>1</v>
+      </c>
+      <c r="T324" s="3">
+        <v>10</v>
+      </c>
+      <c r="U324" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V324" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W324" s="157">
+        <v>15</v>
+      </c>
+      <c r="X324" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y324" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z324" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B325" s="3">
+        <v>15</v>
+      </c>
+      <c r="C325" t="s">
+        <v>176</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E325" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F325" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G325" s="150">
+        <v>15</v>
+      </c>
+      <c r="H325" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J325" s="150" t="str">
+        <f t="shared" si="564"/>
+        <v>ProVisioNET_study_111_03_fitbit</v>
+      </c>
+      <c r="K325" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N325" s="3">
+        <v>3</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P325" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q325" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R325" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S325" s="3">
+        <v>1</v>
+      </c>
+      <c r="T325" s="3">
+        <v>10</v>
+      </c>
+      <c r="U325" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V325" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W325" s="157">
+        <v>15</v>
+      </c>
+      <c r="X325" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y325" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z325" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B326" s="3">
+        <v>15</v>
+      </c>
+      <c r="C326" t="s">
+        <v>176</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E326" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F326" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G326" s="150">
+        <v>15</v>
+      </c>
+      <c r="H326" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="J326" s="160" t="str">
+        <f t="shared" si="564"/>
+        <v>ProVisioNET_study_111_03_zed</v>
+      </c>
+      <c r="K326" s="156"/>
+      <c r="L326" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N326" s="3">
+        <v>3</v>
+      </c>
+      <c r="O326" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P326" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R326" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S326" s="3">
+        <v>1</v>
+      </c>
+      <c r="T326" s="3">
+        <v>10</v>
+      </c>
+      <c r="U326" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V326" s="163" t="str">
+        <f t="shared" si="563"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W326" s="157">
+        <v>15</v>
+      </c>
+      <c r="X326" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y326" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z326" s="157" t="str">
+        <f t="shared" si="562"/>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G567" s="58"/>
       <c r="H567" s="58"/>
       <c r="I567" s="58"/>
@@ -27745,25 +30296,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -27780,7 +30331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -27791,30 +30342,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -27825,35 +30376,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -27864,30 +30415,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -27898,39 +30449,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -27941,40 +30492,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -27985,35 +30536,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -28025,28 +30576,28 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>8</v>
       </c>
@@ -28057,36 +30608,36 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C53" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="14"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>67</v>
       </c>
@@ -28095,7 +30646,7 @@
       </c>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
@@ -28117,20 +30668,20 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="89"/>
-    <col min="2" max="9" width="15.7109375" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="3"/>
-    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11.5703125" style="13"/>
-    <col min="22" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="11.5546875" style="89"/>
+    <col min="2" max="9" width="15.6640625" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="3"/>
+    <col min="12" max="12" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11.5546875" style="13"/>
+    <col min="22" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -28174,7 +30725,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -28215,7 +30766,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -28266,7 +30817,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -28313,7 +30864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -28358,7 +30909,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -28405,7 +30956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -28450,7 +31001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91">
         <v>4</v>
       </c>
@@ -28495,7 +31046,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="93"/>
       <c r="B9" s="94" t="s">
         <v>124</v>
@@ -28540,7 +31091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91">
         <v>5</v>
       </c>
@@ -28587,7 +31138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="93"/>
       <c r="B11" s="94" t="s">
         <v>174</v>
@@ -28632,7 +31183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91">
         <v>6</v>
       </c>
@@ -28667,7 +31218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="93"/>
       <c r="B13" s="94" t="s">
         <v>125</v>
@@ -28701,7 +31252,7 @@
       </c>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="91">
         <v>7</v>
       </c>
@@ -28736,7 +31287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="93"/>
       <c r="B15" s="94" t="s">
         <v>90</v>
@@ -28769,7 +31320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="91">
         <v>8</v>
       </c>
@@ -28801,7 +31352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="103"/>
       <c r="B17" s="104" t="s">
         <v>89</v>
@@ -28831,7 +31382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="100">
         <v>9</v>
       </c>
@@ -28863,7 +31414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="93"/>
       <c r="B19" s="94" t="s">
         <v>150</v>
@@ -28893,7 +31444,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="91">
         <v>10</v>
       </c>
@@ -28925,7 +31476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="93"/>
       <c r="B21" s="94" t="s">
         <v>148</v>
@@ -28955,7 +31506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="91">
         <v>11</v>
       </c>
@@ -28985,7 +31536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="93"/>
       <c r="B23" s="94" t="s">
         <v>149</v>
@@ -29015,7 +31566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="91">
         <v>12</v>
       </c>
@@ -29045,7 +31596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="93"/>
       <c r="B25" s="94" t="s">
         <v>124</v>
@@ -29075,7 +31626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="91">
         <v>13</v>
       </c>
@@ -29107,7 +31658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="93"/>
       <c r="B27" s="94" t="s">
         <v>175</v>
@@ -29137,7 +31688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="91">
         <v>14</v>
       </c>
@@ -29169,7 +31720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="93"/>
       <c r="B29" s="94" t="s">
         <v>125</v>
@@ -29199,7 +31750,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="91">
         <v>15</v>
       </c>
@@ -29231,7 +31782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="93"/>
       <c r="B31" s="94" t="s">
         <v>90</v>
@@ -29261,7 +31812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91">
         <v>16</v>
       </c>
@@ -29293,7 +31844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="103"/>
       <c r="B33" s="104" t="s">
         <v>89</v>
@@ -29323,7 +31874,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="100">
         <v>17</v>
       </c>
@@ -29355,7 +31906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="93"/>
       <c r="B35" s="94" t="s">
         <v>150</v>
@@ -29385,7 +31936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="91">
         <v>18</v>
       </c>
@@ -29417,7 +31968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="93"/>
       <c r="B37" s="94" t="s">
         <v>148</v>
@@ -29447,7 +31998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="91">
         <v>19</v>
       </c>
@@ -29477,7 +32028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="93"/>
       <c r="B39" s="94" t="s">
         <v>149</v>
@@ -29507,7 +32058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="91">
         <v>20</v>
       </c>
@@ -29537,7 +32088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="93"/>
       <c r="B41" s="94" t="s">
         <v>124</v>
@@ -29567,7 +32118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91">
         <v>21</v>
       </c>
@@ -29599,7 +32150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="93"/>
       <c r="B43" s="94" t="s">
         <v>175</v>
@@ -29629,7 +32180,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="91">
         <v>22</v>
       </c>
@@ -29661,7 +32212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="93"/>
       <c r="B45" s="94" t="s">
         <v>125</v>
@@ -29691,7 +32242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="91">
         <v>23</v>
       </c>
@@ -29723,7 +32274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="93"/>
       <c r="B47" s="94" t="s">
         <v>90</v>
@@ -29753,7 +32304,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="91">
         <v>24</v>
       </c>
@@ -29785,7 +32336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="103"/>
       <c r="B49" s="104" t="s">
         <v>89</v>
@@ -29815,7 +32366,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="100">
         <v>25</v>
       </c>
@@ -29847,7 +32398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="93"/>
       <c r="B51" s="94" t="s">
         <v>150</v>
@@ -29877,7 +32428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="91">
         <v>26</v>
       </c>
@@ -29909,7 +32460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="93"/>
       <c r="B53" s="94" t="s">
         <v>148</v>
@@ -29939,7 +32490,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="91">
         <v>27</v>
       </c>
@@ -29969,7 +32520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="93"/>
       <c r="B55" s="94" t="s">
         <v>149</v>
@@ -29999,7 +32550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="91">
         <v>28</v>
       </c>
@@ -30029,7 +32580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="93"/>
       <c r="B57" s="94" t="s">
         <v>124</v>
@@ -30059,7 +32610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="96">
         <v>29</v>
       </c>
@@ -30091,7 +32642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="97"/>
       <c r="B59" s="94" t="s">
         <v>174</v>
@@ -30121,7 +32672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="96">
         <v>30</v>
       </c>
@@ -30153,7 +32704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="97"/>
       <c r="B61" s="94" t="s">
         <v>125</v>
@@ -30183,7 +32734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="96">
         <v>31</v>
       </c>
@@ -30215,7 +32766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="97"/>
       <c r="B63" s="94" t="s">
         <v>90</v>
@@ -30245,7 +32796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="96">
         <v>32</v>
       </c>
@@ -30277,7 +32828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="107"/>
       <c r="B65" s="104" t="s">
         <v>89</v>
@@ -30307,7 +32858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="106">
         <v>33</v>
       </c>
@@ -30339,7 +32890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="97"/>
       <c r="B67" s="94" t="s">
         <v>150</v>
@@ -30369,7 +32920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="96">
         <v>34</v>
       </c>
@@ -30401,7 +32952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="97"/>
       <c r="B69" s="94" t="s">
         <v>148</v>
@@ -30431,7 +32982,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="96">
         <v>35</v>
       </c>
@@ -30461,7 +33012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="97"/>
       <c r="B71" s="94" t="s">
         <v>149</v>
@@ -30491,7 +33042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="96">
         <v>36</v>
       </c>
@@ -30521,7 +33072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="97"/>
       <c r="B73" s="94" t="s">
         <v>124</v>
@@ -30551,7 +33102,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="98">
         <v>37</v>
       </c>
@@ -30583,7 +33134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="99"/>
       <c r="B75" s="94" t="s">
         <v>174</v>
@@ -30613,7 +33164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="98">
         <v>38</v>
       </c>
@@ -30645,7 +33196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="99"/>
       <c r="B77" s="94" t="s">
         <v>125</v>
@@ -30675,7 +33226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="98">
         <v>39</v>
       </c>
@@ -30707,7 +33258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="99"/>
       <c r="B79" s="94" t="s">
         <v>90</v>
@@ -30737,7 +33288,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="98">
         <v>40</v>
       </c>
@@ -30769,7 +33320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="109"/>
       <c r="B81" s="104" t="s">
         <v>89</v>
@@ -30799,7 +33350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="108">
         <v>41</v>
       </c>
@@ -30831,7 +33382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="99"/>
       <c r="B83" s="94" t="s">
         <v>150</v>
@@ -30861,7 +33412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="98">
         <v>42</v>
       </c>
@@ -30893,7 +33444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="99"/>
       <c r="B85" s="94" t="s">
         <v>148</v>
@@ -30923,7 +33474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="98">
         <v>43</v>
       </c>
@@ -30953,7 +33504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="99"/>
       <c r="B87" s="94" t="s">
         <v>149</v>
@@ -30983,7 +33534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="98">
         <v>44</v>
       </c>
@@ -31013,7 +33564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="99"/>
       <c r="B89" s="94" t="s">
         <v>124</v>
@@ -31043,7 +33594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="98">
         <v>45</v>
       </c>
@@ -31075,7 +33626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="99"/>
       <c r="B91" s="94" t="s">
         <v>174</v>
@@ -31105,7 +33656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="98">
         <v>46</v>
       </c>
@@ -31137,7 +33688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="99"/>
       <c r="B93" s="94" t="s">
         <v>125</v>
@@ -31167,7 +33718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="98">
         <v>47</v>
       </c>
@@ -31199,7 +33750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="99"/>
       <c r="B95" s="94" t="s">
         <v>90</v>
@@ -31229,7 +33780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="98">
         <v>48</v>
       </c>
@@ -31261,7 +33812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="109"/>
       <c r="B97" s="104" t="s">
         <v>89</v>
@@ -31291,7 +33842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="108">
         <v>49</v>
       </c>
@@ -31323,7 +33874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="99"/>
       <c r="B99" s="94" t="s">
         <v>150</v>
@@ -31353,7 +33904,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="98">
         <v>50</v>
       </c>
@@ -31385,7 +33936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="99"/>
       <c r="B101" s="94" t="s">
         <v>148</v>
@@ -31415,7 +33966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="89">
         <v>51</v>
       </c>
@@ -31445,7 +33996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="94" t="s">
         <v>149</v>
       </c>
@@ -31474,7 +34025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="91">
         <v>52</v>
       </c>
@@ -31504,7 +34055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="93"/>
       <c r="B105" s="94" t="s">
         <v>124</v>
@@ -31534,7 +34085,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="96">
         <v>53</v>
       </c>
@@ -31576,7 +34127,7 @@
       <c r="T106" s="76"/>
       <c r="U106" s="76"/>
     </row>
-    <row r="107" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="97"/>
       <c r="B107" s="94" t="s">
         <v>174</v>
@@ -31616,7 +34167,7 @@
       <c r="T107" s="76"/>
       <c r="U107" s="76"/>
     </row>
-    <row r="108" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="96">
         <v>54</v>
       </c>
@@ -31658,7 +34209,7 @@
       <c r="T108" s="76"/>
       <c r="U108" s="76"/>
     </row>
-    <row r="109" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="97"/>
       <c r="B109" s="94" t="s">
         <v>125</v>
@@ -31698,7 +34249,7 @@
       <c r="T109" s="76"/>
       <c r="U109" s="76"/>
     </row>
-    <row r="110" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="96">
         <v>55</v>
       </c>
@@ -31740,7 +34291,7 @@
       <c r="T110" s="76"/>
       <c r="U110" s="76"/>
     </row>
-    <row r="111" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="97"/>
       <c r="B111" s="94" t="s">
         <v>90</v>
@@ -31780,7 +34331,7 @@
       <c r="T111" s="76"/>
       <c r="U111" s="76"/>
     </row>
-    <row r="112" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="96">
         <v>56</v>
       </c>
@@ -31822,7 +34373,7 @@
       <c r="T112" s="76"/>
       <c r="U112" s="76"/>
     </row>
-    <row r="113" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="97"/>
       <c r="B113" s="94" t="s">
         <v>89</v>
@@ -31862,7 +34413,7 @@
       <c r="T113" s="76"/>
       <c r="U113" s="76"/>
     </row>
-    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="100"/>
       <c r="B114" s="101"/>
       <c r="C114" s="101"/>
@@ -31884,7 +34435,7 @@
       <c r="T114" s="76"/>
       <c r="U114" s="76"/>
     </row>
-    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="100"/>
       <c r="B115" s="101"/>
       <c r="C115" s="101"/>
@@ -31906,7 +34457,7 @@
       <c r="T115" s="76"/>
       <c r="U115" s="76"/>
     </row>
-    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="100"/>
       <c r="B116" s="101"/>
       <c r="C116" s="101"/>
@@ -31928,7 +34479,7 @@
       <c r="T116" s="76"/>
       <c r="U116" s="76"/>
     </row>
-    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="100"/>
       <c r="B117" s="101"/>
       <c r="C117" s="101"/>
@@ -31950,7 +34501,7 @@
       <c r="T117" s="76"/>
       <c r="U117" s="76"/>
     </row>
-    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="100"/>
       <c r="B118" s="101"/>
       <c r="C118" s="101"/>
@@ -31972,7 +34523,7 @@
       <c r="T118" s="76"/>
       <c r="U118" s="76"/>
     </row>
-    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="100"/>
       <c r="B119" s="101"/>
       <c r="C119" s="101"/>
@@ -31994,7 +34545,7 @@
       <c r="T119" s="76"/>
       <c r="U119" s="76"/>
     </row>
-    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="100"/>
       <c r="B120" s="101"/>
       <c r="C120" s="101"/>
@@ -32016,7 +34567,7 @@
       <c r="T120" s="76"/>
       <c r="U120" s="76"/>
     </row>
-    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="100"/>
       <c r="B121" s="101"/>
       <c r="C121" s="101"/>
@@ -32038,7 +34589,7 @@
       <c r="T121" s="76"/>
       <c r="U121" s="76"/>
     </row>
-    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="100"/>
       <c r="B122" s="101"/>
       <c r="C122" s="101"/>
@@ -32060,7 +34611,7 @@
       <c r="T122" s="76"/>
       <c r="U122" s="76"/>
     </row>
-    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="100"/>
       <c r="B123" s="101"/>
       <c r="C123" s="101"/>
@@ -32082,7 +34633,7 @@
       <c r="T123" s="76"/>
       <c r="U123" s="76"/>
     </row>
-    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="100"/>
       <c r="B124" s="101"/>
       <c r="C124" s="101"/>
@@ -32104,7 +34655,7 @@
       <c r="T124" s="76"/>
       <c r="U124" s="76"/>
     </row>
-    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="100"/>
       <c r="B125" s="101"/>
       <c r="C125" s="101"/>
@@ -32126,7 +34677,7 @@
       <c r="T125" s="76"/>
       <c r="U125" s="76"/>
     </row>
-    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="100"/>
       <c r="B126" s="101"/>
       <c r="C126" s="101"/>
@@ -32148,7 +34699,7 @@
       <c r="T126" s="76"/>
       <c r="U126" s="76"/>
     </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="100"/>
       <c r="B127" s="101"/>
       <c r="C127" s="101"/>
@@ -32170,7 +34721,7 @@
       <c r="T127" s="76"/>
       <c r="U127" s="76"/>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="100"/>
       <c r="B128" s="101"/>
       <c r="C128" s="101"/>
@@ -32192,7 +34743,7 @@
       <c r="T128" s="76"/>
       <c r="U128" s="76"/>
     </row>
-    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="100"/>
       <c r="B129" s="101"/>
       <c r="C129" s="101"/>
@@ -32214,7 +34765,7 @@
       <c r="T129" s="76"/>
       <c r="U129" s="76"/>
     </row>
-    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="100"/>
       <c r="B130" s="101"/>
       <c r="C130" s="101"/>
@@ -32236,7 +34787,7 @@
       <c r="T130" s="76"/>
       <c r="U130" s="76"/>
     </row>
-    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="100"/>
       <c r="B131" s="101"/>
       <c r="C131" s="101"/>
@@ -32258,7 +34809,7 @@
       <c r="T131" s="76"/>
       <c r="U131" s="76"/>
     </row>
-    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="100"/>
       <c r="B132" s="101"/>
       <c r="C132" s="101"/>
@@ -32280,7 +34831,7 @@
       <c r="T132" s="76"/>
       <c r="U132" s="76"/>
     </row>
-    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="100"/>
       <c r="B133" s="101"/>
       <c r="C133" s="101"/>
@@ -32302,7 +34853,7 @@
       <c r="T133" s="76"/>
       <c r="U133" s="76"/>
     </row>
-    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="100"/>
       <c r="B134" s="101"/>
       <c r="C134" s="101"/>
@@ -32324,7 +34875,7 @@
       <c r="T134" s="76"/>
       <c r="U134" s="76"/>
     </row>
-    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="100"/>
       <c r="B135" s="101"/>
       <c r="C135" s="101"/>
@@ -32346,7 +34897,7 @@
       <c r="T135" s="76"/>
       <c r="U135" s="76"/>
     </row>
-    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="100"/>
       <c r="B136" s="101"/>
       <c r="C136" s="101"/>
@@ -32368,7 +34919,7 @@
       <c r="T136" s="76"/>
       <c r="U136" s="76"/>
     </row>
-    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="100"/>
       <c r="B137" s="101"/>
       <c r="C137" s="101"/>
@@ -32390,7 +34941,7 @@
       <c r="T137" s="76"/>
       <c r="U137" s="76"/>
     </row>
-    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="100"/>
       <c r="B138" s="101"/>
       <c r="C138" s="101"/>
@@ -32412,7 +34963,7 @@
       <c r="T138" s="76"/>
       <c r="U138" s="76"/>
     </row>
-    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="100"/>
       <c r="B139" s="101"/>
       <c r="C139" s="101"/>
@@ -32434,7 +34985,7 @@
       <c r="T139" s="76"/>
       <c r="U139" s="76"/>
     </row>
-    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="100"/>
       <c r="B140" s="101"/>
       <c r="C140" s="101"/>
@@ -32456,7 +35007,7 @@
       <c r="T140" s="76"/>
       <c r="U140" s="76"/>
     </row>
-    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="100"/>
       <c r="B141" s="101"/>
       <c r="C141" s="101"/>
@@ -32478,7 +35029,7 @@
       <c r="T141" s="76"/>
       <c r="U141" s="76"/>
     </row>
-    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="100"/>
       <c r="B142" s="101"/>
       <c r="C142" s="101"/>
@@ -32500,7 +35051,7 @@
       <c r="T142" s="76"/>
       <c r="U142" s="76"/>
     </row>
-    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="100"/>
       <c r="B143" s="101"/>
       <c r="C143" s="101"/>
@@ -32522,7 +35073,7 @@
       <c r="T143" s="76"/>
       <c r="U143" s="76"/>
     </row>
-    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="100"/>
       <c r="B144" s="101"/>
       <c r="C144" s="101"/>
@@ -32544,7 +35095,7 @@
       <c r="T144" s="76"/>
       <c r="U144" s="76"/>
     </row>
-    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="100"/>
       <c r="B145" s="101"/>
       <c r="C145" s="101"/>
@@ -32566,7 +35117,7 @@
       <c r="T145" s="76"/>
       <c r="U145" s="76"/>
     </row>
-    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="100"/>
       <c r="B146" s="101"/>
       <c r="C146" s="101"/>
@@ -32588,7 +35139,7 @@
       <c r="T146" s="76"/>
       <c r="U146" s="76"/>
     </row>
-    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="100"/>
       <c r="B147" s="101"/>
       <c r="C147" s="101"/>
@@ -32610,7 +35161,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="76"/>
     </row>
-    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="100"/>
       <c r="B148" s="101"/>
       <c r="C148" s="101"/>
@@ -32632,7 +35183,7 @@
       <c r="T148" s="76"/>
       <c r="U148" s="76"/>
     </row>
-    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="100"/>
       <c r="B149" s="101"/>
       <c r="C149" s="101"/>
@@ -32654,7 +35205,7 @@
       <c r="T149" s="76"/>
       <c r="U149" s="76"/>
     </row>
-    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="100"/>
       <c r="B150" s="101"/>
       <c r="C150" s="101"/>
@@ -32676,7 +35227,7 @@
       <c r="T150" s="76"/>
       <c r="U150" s="76"/>
     </row>
-    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="100"/>
       <c r="B151" s="101"/>
       <c r="C151" s="101"/>
@@ -32698,7 +35249,7 @@
       <c r="T151" s="76"/>
       <c r="U151" s="76"/>
     </row>
-    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="100"/>
       <c r="B152" s="101"/>
       <c r="C152" s="101"/>
@@ -32720,7 +35271,7 @@
       <c r="T152" s="76"/>
       <c r="U152" s="76"/>
     </row>
-    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="100"/>
       <c r="B153" s="101"/>
       <c r="C153" s="101"/>
@@ -32742,7 +35293,7 @@
       <c r="T153" s="76"/>
       <c r="U153" s="76"/>
     </row>
-    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="100"/>
       <c r="B154" s="101"/>
       <c r="C154" s="101"/>
@@ -32764,7 +35315,7 @@
       <c r="T154" s="76"/>
       <c r="U154" s="76"/>
     </row>
-    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="100"/>
       <c r="B155" s="101"/>
       <c r="C155" s="101"/>
@@ -32786,7 +35337,7 @@
       <c r="T155" s="76"/>
       <c r="U155" s="76"/>
     </row>
-    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="100"/>
       <c r="B156" s="101"/>
       <c r="C156" s="101"/>
@@ -32808,7 +35359,7 @@
       <c r="T156" s="76"/>
       <c r="U156" s="76"/>
     </row>
-    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="100"/>
       <c r="B157" s="101"/>
       <c r="C157" s="101"/>
@@ -32830,7 +35381,7 @@
       <c r="T157" s="76"/>
       <c r="U157" s="76"/>
     </row>
-    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="100"/>
       <c r="B158" s="101"/>
       <c r="C158" s="101"/>
@@ -32852,7 +35403,7 @@
       <c r="T158" s="76"/>
       <c r="U158" s="76"/>
     </row>
-    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="100"/>
       <c r="B159" s="101"/>
       <c r="C159" s="101"/>
@@ -32874,7 +35425,7 @@
       <c r="T159" s="76"/>
       <c r="U159" s="76"/>
     </row>
-    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="100"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -32896,7 +35447,7 @@
       <c r="T160" s="76"/>
       <c r="U160" s="76"/>
     </row>
-    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="100"/>
       <c r="B161" s="101"/>
       <c r="C161" s="101"/>
@@ -32918,7 +35469,7 @@
       <c r="T161" s="76"/>
       <c r="U161" s="76"/>
     </row>
-    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="100"/>
       <c r="B162" s="101"/>
       <c r="C162" s="101"/>
@@ -32940,7 +35491,7 @@
       <c r="T162" s="76"/>
       <c r="U162" s="76"/>
     </row>
-    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="100"/>
       <c r="B163" s="101"/>
       <c r="C163" s="101"/>
@@ -32962,7 +35513,7 @@
       <c r="T163" s="76"/>
       <c r="U163" s="76"/>
     </row>
-    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="100"/>
       <c r="B164" s="101"/>
       <c r="C164" s="101"/>
@@ -32984,7 +35535,7 @@
       <c r="T164" s="76"/>
       <c r="U164" s="76"/>
     </row>
-    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="100"/>
       <c r="B165" s="101"/>
       <c r="C165" s="101"/>
@@ -33006,7 +35557,7 @@
       <c r="T165" s="76"/>
       <c r="U165" s="76"/>
     </row>
-    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="100"/>
       <c r="B166" s="101"/>
       <c r="C166" s="101"/>
@@ -33028,7 +35579,7 @@
       <c r="T166" s="76"/>
       <c r="U166" s="76"/>
     </row>
-    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="100"/>
       <c r="B167" s="101"/>
       <c r="C167" s="101"/>
@@ -33050,7 +35601,7 @@
       <c r="T167" s="76"/>
       <c r="U167" s="76"/>
     </row>
-    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
@@ -33072,7 +35623,7 @@
       <c r="T168" s="76"/>
       <c r="U168" s="76"/>
     </row>
-    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="100"/>
       <c r="B169" s="101"/>
       <c r="C169" s="101"/>
@@ -33094,7 +35645,7 @@
       <c r="T169" s="76"/>
       <c r="U169" s="76"/>
     </row>
-    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="100"/>
       <c r="B170" s="101"/>
       <c r="C170" s="101"/>
@@ -33116,7 +35667,7 @@
       <c r="T170" s="76"/>
       <c r="U170" s="76"/>
     </row>
-    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="100"/>
       <c r="B171" s="101"/>
       <c r="C171" s="101"/>
@@ -33155,23 +35706,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="129" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="129" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -33215,7 +35766,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -33263,7 +35814,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -33314,7 +35865,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -33366,7 +35917,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -33416,7 +35967,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -33468,7 +36019,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -33518,7 +36069,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
@@ -33551,7 +36102,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -33584,7 +36135,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -33617,7 +36168,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -33650,7 +36201,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -33675,7 +36226,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -33700,7 +36251,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -33725,7 +36276,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -33750,7 +36301,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="100"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -33773,7 +36324,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="100"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -33796,7 +36347,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
@@ -33819,7 +36370,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="100"/>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -33842,7 +36393,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="100"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -33865,7 +36416,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -33888,7 +36439,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -33911,7 +36462,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
@@ -33934,7 +36485,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -33957,7 +36508,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
@@ -33980,7 +36531,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="100"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -34003,7 +36554,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="100"/>
       <c r="B27" s="101"/>
       <c r="C27" s="101"/>
@@ -34026,7 +36577,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="100"/>
       <c r="B28" s="101"/>
       <c r="C28" s="101"/>
@@ -34049,7 +36600,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="100"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -34072,7 +36623,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="100"/>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -34095,7 +36646,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="100"/>
       <c r="B31" s="101"/>
       <c r="C31" s="101"/>
@@ -34118,7 +36669,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="100"/>
       <c r="B32" s="101"/>
       <c r="C32" s="101"/>
@@ -34141,7 +36692,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="100"/>
       <c r="B33" s="101"/>
       <c r="C33" s="101"/>
@@ -34164,7 +36715,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -34174,7 +36725,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -34184,7 +36735,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -34194,7 +36745,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -34221,12 +36772,12 @@
       <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>100</v>
       </c>
@@ -34249,7 +36800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -34279,7 +36830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -34309,7 +36860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -34339,7 +36890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -34369,7 +36920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -34399,7 +36950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -34429,7 +36980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -34459,7 +37010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -34489,7 +37040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -34519,7 +37070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -34552,7 +37103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -34585,7 +37136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -34618,7 +37169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -34651,7 +37202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -34682,7 +37233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -34715,7 +37266,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -34748,7 +37299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -34779,7 +37330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -34810,7 +37361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -34843,7 +37394,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -34876,7 +37427,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -34909,7 +37460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -34942,7 +37493,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -34975,7 +37526,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -35008,7 +37559,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -35041,7 +37592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -35074,7 +37625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -35107,7 +37658,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -35140,7 +37691,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -35173,7 +37724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -35206,7 +37757,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -35239,7 +37790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -35272,7 +37823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -35305,7 +37856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -35338,7 +37889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -35371,7 +37922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -35404,7 +37955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="32">
         <v>37</v>
       </c>
@@ -35435,7 +37986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="46">
         <v>38</v>
       </c>
@@ -35466,7 +38017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <v>39</v>
       </c>
@@ -35499,7 +38050,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -35532,7 +38083,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <v>41</v>
       </c>
@@ -35565,7 +38116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>42</v>
       </c>
@@ -35598,7 +38149,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -35631,7 +38182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -35664,7 +38215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -35697,7 +38248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -35730,7 +38281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="36">
         <v>47</v>
       </c>
@@ -35763,7 +38314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -35796,7 +38347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -35829,7 +38380,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -35862,7 +38413,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -35895,7 +38446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -35928,7 +38479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -35961,7 +38512,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -35994,7 +38545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="53">
         <v>55</v>
       </c>
@@ -36027,7 +38578,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="53">
         <v>56</v>
       </c>
@@ -36060,7 +38611,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -36091,7 +38642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -36122,7 +38673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -36155,7 +38706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -36188,7 +38739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -36221,7 +38772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -36254,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -36287,7 +38838,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="52">
         <v>64</v>
       </c>
@@ -36320,7 +38871,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="52">
         <v>65</v>
       </c>
@@ -36353,7 +38904,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="52">
         <v>66</v>
       </c>
@@ -36386,7 +38937,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="42">
         <v>67</v>
       </c>
@@ -36419,7 +38970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="42">
         <v>68</v>
       </c>
@@ -36452,7 +39003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="42">
         <v>69</v>
       </c>
@@ -36485,7 +39036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="42">
         <v>70</v>
       </c>
@@ -36518,7 +39069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="44">
         <v>71</v>
       </c>
@@ -36551,7 +39102,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="44">
         <v>72</v>
       </c>
@@ -36584,7 +39135,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="44">
         <v>73</v>
       </c>
@@ -36617,7 +39168,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="44">
         <v>74</v>
       </c>
@@ -36650,7 +39201,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="45">
         <v>75</v>
       </c>
@@ -36683,7 +39234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="45">
         <v>76</v>
       </c>
@@ -36716,7 +39267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -36747,7 +39298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="48">
         <v>78</v>
       </c>
@@ -36778,7 +39329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -36811,7 +39362,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -36844,7 +39395,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -36877,7 +39428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -36910,7 +39461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="50">
         <v>83</v>
       </c>
@@ -36943,7 +39494,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="50">
         <v>84</v>
       </c>
@@ -36976,7 +39527,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="50">
         <v>85</v>
       </c>
@@ -37009,7 +39560,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="50">
         <v>86</v>
       </c>
@@ -37042,7 +39593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="51">
         <v>87</v>
       </c>
@@ -37075,7 +39626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="51">
         <v>88</v>
       </c>
@@ -37108,7 +39659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="51">
         <v>89</v>
       </c>
@@ -37141,7 +39692,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="51">
         <v>90</v>
       </c>
@@ -37174,7 +39725,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="54">
         <v>91</v>
       </c>
@@ -37207,7 +39758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="54">
         <v>92</v>
       </c>
@@ -37240,7 +39791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="54">
         <v>93</v>
       </c>
@@ -37273,7 +39824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="54">
         <v>94</v>
       </c>
@@ -37306,7 +39857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -37339,7 +39890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -37372,7 +39923,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -37405,7 +39956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -37438,7 +39989,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -37471,7 +40022,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>100</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F00BDA-E9F6-4CC6-AAC3-0D9D7130F551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C8F00BDA-E9F6-4CC6-AAC3-0D9D7130F551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{73B1958F-31C2-44CB-A8FA-B1D6FAF3B585}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="228">
   <si>
     <t>study</t>
   </si>
@@ -1461,7 +1461,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1837,6 +1837,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2238,8 +2248,8 @@
   <dimension ref="A1:Z567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N312" sqref="N312"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P307" sqref="P307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16282,7 +16292,7 @@
         <f t="shared" si="499"/>
         <v>ProVisioNET_study_104_04_zed</v>
       </c>
-      <c r="K149" s="156" t="s">
+      <c r="K149" s="165" t="s">
         <v>188</v>
       </c>
       <c r="L149" s="160" t="str">
@@ -16295,7 +16305,7 @@
       <c r="N149" s="160">
         <v>5</v>
       </c>
-      <c r="O149" s="150" t="s">
+      <c r="O149" s="160" t="s">
         <v>216</v>
       </c>
       <c r="P149" s="160">
@@ -16458,6 +16468,13 @@
       <c r="L151" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M151" s="150" t="str">
+        <f t="shared" ref="M151" si="522">M150</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N151" s="3">
+        <v>5</v>
+      </c>
       <c r="O151" s="150" t="s">
         <v>185</v>
       </c>
@@ -16493,7 +16510,7 @@
         <v>2021</v>
       </c>
       <c r="Z151" s="157" t="str">
-        <f t="shared" ref="Z151:Z165" si="522">W151&amp;"/"&amp;X151&amp;"/"&amp;Y151</f>
+        <f t="shared" ref="Z151:Z165" si="523">W151&amp;"/"&amp;X151&amp;"/"&amp;Y151</f>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16535,6 +16552,13 @@
       <c r="L152" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M152" s="150" t="str">
+        <f t="shared" ref="M152" si="524">M151</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N152" s="3">
+        <v>5</v>
+      </c>
       <c r="O152" s="150" t="s">
         <v>185</v>
       </c>
@@ -16557,7 +16581,7 @@
         <v>1966</v>
       </c>
       <c r="V152" s="150" t="str">
-        <f t="shared" ref="V152:V165" si="523">S152&amp;"/"&amp;T152&amp;"/"&amp;U152</f>
+        <f t="shared" ref="V152:V165" si="525">S152&amp;"/"&amp;T152&amp;"/"&amp;U152</f>
         <v>11/3/1966</v>
       </c>
       <c r="W152" s="157">
@@ -16570,7 +16594,7 @@
         <v>2021</v>
       </c>
       <c r="Z152" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16612,6 +16636,13 @@
       <c r="L153" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M153" s="150" t="str">
+        <f t="shared" ref="M153" si="526">M152</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N153" s="3">
+        <v>5</v>
+      </c>
       <c r="O153" s="150" t="s">
         <v>185</v>
       </c>
@@ -16634,7 +16665,7 @@
         <v>1966</v>
       </c>
       <c r="V153" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W153" s="157">
@@ -16647,7 +16678,7 @@
         <v>2021</v>
       </c>
       <c r="Z153" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16689,6 +16720,13 @@
       <c r="L154" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M154" s="150" t="str">
+        <f t="shared" ref="M154" si="527">M153</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N154" s="3">
+        <v>5</v>
+      </c>
       <c r="O154" s="150" t="s">
         <v>185</v>
       </c>
@@ -16711,7 +16749,7 @@
         <v>1966</v>
       </c>
       <c r="V154" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W154" s="157">
@@ -16724,7 +16762,7 @@
         <v>2021</v>
       </c>
       <c r="Z154" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16766,6 +16804,13 @@
       <c r="L155" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M155" s="150" t="str">
+        <f t="shared" ref="M155" si="528">M154</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N155" s="3">
+        <v>5</v>
+      </c>
       <c r="O155" s="150" t="s">
         <v>185</v>
       </c>
@@ -16788,7 +16833,7 @@
         <v>1966</v>
       </c>
       <c r="V155" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W155" s="157">
@@ -16801,7 +16846,7 @@
         <v>2021</v>
       </c>
       <c r="Z155" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16843,6 +16888,13 @@
       <c r="L156" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M156" s="150" t="str">
+        <f t="shared" ref="M156" si="529">M155</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N156" s="3">
+        <v>5</v>
+      </c>
       <c r="O156" s="150" t="s">
         <v>185</v>
       </c>
@@ -16865,7 +16917,7 @@
         <v>1966</v>
       </c>
       <c r="V156" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W156" s="157">
@@ -16878,7 +16930,7 @@
         <v>2021</v>
       </c>
       <c r="Z156" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16920,6 +16972,13 @@
       <c r="L157" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M157" s="150" t="str">
+        <f t="shared" ref="M157" si="530">M156</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N157" s="3">
+        <v>5</v>
+      </c>
       <c r="O157" s="150" t="s">
         <v>185</v>
       </c>
@@ -16942,7 +17001,7 @@
         <v>1966</v>
       </c>
       <c r="V157" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W157" s="157">
@@ -16955,7 +17014,7 @@
         <v>2021</v>
       </c>
       <c r="Z157" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -16997,6 +17056,13 @@
       <c r="L158" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M158" s="150" t="str">
+        <f t="shared" ref="M158" si="531">M157</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N158" s="3">
+        <v>5</v>
+      </c>
       <c r="O158" s="150" t="s">
         <v>185</v>
       </c>
@@ -17019,7 +17085,7 @@
         <v>1966</v>
       </c>
       <c r="V158" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W158" s="157">
@@ -17032,7 +17098,7 @@
         <v>2021</v>
       </c>
       <c r="Z158" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17062,7 +17128,7 @@
         <v>120</v>
       </c>
       <c r="J159" s="150" t="str">
-        <f t="shared" ref="J159:J166" si="524">CONCATENATE(C159,"_",D159,"_",E159,"_",F159,"_",H159)</f>
+        <f t="shared" ref="J159:J166" si="532">CONCATENATE(C159,"_",D159,"_",E159,"_",F159,"_",H159)</f>
         <v>ProVisioNET_study_201_01_glasses</v>
       </c>
       <c r="K159" s="156" t="s">
@@ -17071,6 +17137,13 @@
       <c r="L159" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M159" s="150" t="str">
+        <f t="shared" ref="M159" si="533">M158</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N159" s="3">
+        <v>5</v>
+      </c>
       <c r="O159" s="150" t="s">
         <v>185</v>
       </c>
@@ -17093,7 +17166,7 @@
         <v>1966</v>
       </c>
       <c r="V159" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W159" s="157">
@@ -17106,7 +17179,7 @@
         <v>2021</v>
       </c>
       <c r="Z159" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17136,7 +17209,7 @@
         <v>121</v>
       </c>
       <c r="J160" s="150" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_201_01_ambient</v>
       </c>
       <c r="K160" s="156" t="s">
@@ -17145,6 +17218,13 @@
       <c r="L160" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M160" s="150" t="str">
+        <f t="shared" ref="M160" si="534">M159</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N160" s="3">
+        <v>5</v>
+      </c>
       <c r="O160" s="150" t="s">
         <v>185</v>
       </c>
@@ -17167,7 +17247,7 @@
         <v>1966</v>
       </c>
       <c r="V160" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W160" s="157">
@@ -17180,7 +17260,7 @@
         <v>2021</v>
       </c>
       <c r="Z160" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17210,7 +17290,7 @@
         <v>122</v>
       </c>
       <c r="J161" s="150" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_201_01_ETrawdata</v>
       </c>
       <c r="K161" s="156" t="s">
@@ -17219,6 +17299,13 @@
       <c r="L161" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M161" s="150" t="str">
+        <f t="shared" ref="M161" si="535">M160</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N161" s="3">
+        <v>5</v>
+      </c>
       <c r="O161" s="150" t="s">
         <v>185</v>
       </c>
@@ -17241,7 +17328,7 @@
         <v>1966</v>
       </c>
       <c r="V161" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W161" s="157">
@@ -17254,7 +17341,7 @@
         <v>2021</v>
       </c>
       <c r="Z161" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17284,7 +17371,7 @@
         <v>186</v>
       </c>
       <c r="J162" s="150" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_201_01_sri_obs</v>
       </c>
       <c r="K162" s="156" t="s">
@@ -17293,6 +17380,13 @@
       <c r="L162" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M162" s="150" t="str">
+        <f t="shared" ref="M162" si="536">M161</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N162" s="3">
+        <v>5</v>
+      </c>
       <c r="O162" s="150" t="s">
         <v>185</v>
       </c>
@@ -17315,7 +17409,7 @@
         <v>1966</v>
       </c>
       <c r="V162" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W162" s="157">
@@ -17328,7 +17422,7 @@
         <v>2021</v>
       </c>
       <c r="Z162" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17358,7 +17452,7 @@
         <v>180</v>
       </c>
       <c r="J163" s="150" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_201_01_sri_ambient</v>
       </c>
       <c r="K163" s="156" t="s">
@@ -17367,6 +17461,13 @@
       <c r="L163" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M163" s="150" t="str">
+        <f t="shared" ref="M163" si="537">M162</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N163" s="3">
+        <v>5</v>
+      </c>
       <c r="O163" s="150" t="s">
         <v>185</v>
       </c>
@@ -17389,7 +17490,7 @@
         <v>1966</v>
       </c>
       <c r="V163" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W163" s="157">
@@ -17402,7 +17503,7 @@
         <v>2021</v>
       </c>
       <c r="Z163" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17432,7 +17533,7 @@
         <v>199</v>
       </c>
       <c r="J164" s="150" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_201_01_fitbit</v>
       </c>
       <c r="K164" s="156" t="s">
@@ -17441,6 +17542,13 @@
       <c r="L164" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M164" s="150" t="str">
+        <f t="shared" ref="M164" si="538">M163</f>
+        <v>Gymnasium</v>
+      </c>
+      <c r="N164" s="3">
+        <v>5</v>
+      </c>
       <c r="O164" s="150" t="s">
         <v>185</v>
       </c>
@@ -17463,7 +17571,7 @@
         <v>1966</v>
       </c>
       <c r="V164" s="150" t="str">
-        <f t="shared" si="523"/>
+        <f t="shared" si="525"/>
         <v>11/3/1966</v>
       </c>
       <c r="W164" s="157">
@@ -17476,81 +17584,87 @@
         <v>2021</v>
       </c>
       <c r="Z164" s="157" t="str">
-        <f t="shared" si="522"/>
+        <f t="shared" si="523"/>
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="5">
         <v>5</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E165" s="155" t="s">
+      <c r="D165" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="F165" s="162" t="s">
+      <c r="F165" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="G165" s="150">
+      <c r="G165" s="160">
         <v>5</v>
       </c>
       <c r="H165" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J165" s="160" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_201_01_zed</v>
       </c>
-      <c r="K165" s="156" t="s">
+      <c r="K165" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="L165" s="3" t="s">
+      <c r="L165" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O165" s="150" t="s">
+      <c r="M165" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="N165" s="5">
+        <v>5</v>
+      </c>
+      <c r="O165" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="P165" s="150">
+      <c r="P165" s="160">
         <v>29</v>
       </c>
-      <c r="Q165" s="157" t="s">
+      <c r="Q165" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R165" s="157" t="s">
+      <c r="R165" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S165" s="150">
+      <c r="S165" s="160">
         <v>11</v>
       </c>
-      <c r="T165" s="150">
+      <c r="T165" s="160">
         <v>3</v>
       </c>
-      <c r="U165" s="150">
+      <c r="U165" s="160">
         <v>1966</v>
       </c>
-      <c r="V165" s="150" t="str">
+      <c r="V165" s="160" t="str">
+        <f t="shared" si="525"/>
+        <v>11/3/1966</v>
+      </c>
+      <c r="W165" s="160">
+        <v>31</v>
+      </c>
+      <c r="X165" s="160">
+        <v>8</v>
+      </c>
+      <c r="Y165" s="160">
+        <v>2021</v>
+      </c>
+      <c r="Z165" s="160" t="str">
         <f t="shared" si="523"/>
-        <v>11/3/1966</v>
-      </c>
-      <c r="W165" s="157">
-        <v>31</v>
-      </c>
-      <c r="X165" s="157">
-        <v>8</v>
-      </c>
-      <c r="Y165" s="157">
-        <v>2021</v>
-      </c>
-      <c r="Z165" s="157" t="str">
-        <f t="shared" si="522"/>
         <v>31/8/2021</v>
       </c>
     </row>
@@ -17581,7 +17695,7 @@
       </c>
       <c r="I166" s="147"/>
       <c r="J166" s="150" t="str">
-        <f t="shared" si="524"/>
+        <f t="shared" si="532"/>
         <v>ProVisioNET_study_105_05_label</v>
       </c>
       <c r="K166" s="147" t="s">
@@ -17664,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="J167" s="150" t="str">
-        <f t="shared" ref="J167:J174" si="525">CONCATENATE(C167,"_",D167,"_",E167,"_",F167,"_",H167,"_",I167)</f>
+        <f t="shared" ref="J167:J174" si="539">CONCATENATE(C167,"_",D167,"_",E167,"_",F167,"_",H167,"_",I167)</f>
         <v>ProVisioNET_study_105_05_cam1_1</v>
       </c>
       <c r="K167" s="156" t="s">
@@ -17672,6 +17786,12 @@
       </c>
       <c r="L167" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N167" s="3">
+        <v>5</v>
       </c>
       <c r="O167" s="150" t="s">
         <v>217</v>
@@ -17708,7 +17828,7 @@
         <v>2021</v>
       </c>
       <c r="Z167" s="157" t="str">
-        <f t="shared" ref="Z167:Z181" si="526">W167&amp;"/"&amp;X167&amp;"/"&amp;Y167</f>
+        <f t="shared" ref="Z167:Z181" si="540">W167&amp;"/"&amp;X167&amp;"/"&amp;Y167</f>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -17741,7 +17861,7 @@
         <v>2</v>
       </c>
       <c r="J168" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam1_2</v>
       </c>
       <c r="K168" s="156" t="s">
@@ -17750,6 +17870,12 @@
       <c r="L168" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M168" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N168" s="3">
+        <v>5</v>
+      </c>
       <c r="O168" s="150" t="s">
         <v>217</v>
       </c>
@@ -17772,7 +17898,7 @@
         <v>1998</v>
       </c>
       <c r="V168" s="3" t="str">
-        <f t="shared" ref="V168:V181" si="527">"29/1/1998"</f>
+        <f t="shared" ref="V168:V181" si="541">"29/1/1998"</f>
         <v>29/1/1998</v>
       </c>
       <c r="W168" s="157">
@@ -17785,7 +17911,7 @@
         <v>2021</v>
       </c>
       <c r="Z168" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -17818,7 +17944,7 @@
         <v>1</v>
       </c>
       <c r="J169" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam2_1</v>
       </c>
       <c r="K169" s="156" t="s">
@@ -17827,6 +17953,12 @@
       <c r="L169" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M169" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N169" s="3">
+        <v>5</v>
+      </c>
       <c r="O169" s="150" t="s">
         <v>217</v>
       </c>
@@ -17849,7 +17981,7 @@
         <v>1998</v>
       </c>
       <c r="V169" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W169" s="157">
@@ -17862,7 +17994,7 @@
         <v>2021</v>
       </c>
       <c r="Z169" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -17895,7 +18027,7 @@
         <v>2</v>
       </c>
       <c r="J170" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam2_2</v>
       </c>
       <c r="K170" s="156" t="s">
@@ -17904,6 +18036,12 @@
       <c r="L170" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M170" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N170" s="3">
+        <v>5</v>
+      </c>
       <c r="O170" s="150" t="s">
         <v>217</v>
       </c>
@@ -17926,7 +18064,7 @@
         <v>1998</v>
       </c>
       <c r="V170" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W170" s="157">
@@ -17939,7 +18077,7 @@
         <v>2021</v>
       </c>
       <c r="Z170" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -17972,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam3_1</v>
       </c>
       <c r="K171" s="156" t="s">
@@ -17981,6 +18119,12 @@
       <c r="L171" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M171" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N171" s="3">
+        <v>5</v>
+      </c>
       <c r="O171" s="150" t="s">
         <v>217</v>
       </c>
@@ -18003,7 +18147,7 @@
         <v>1998</v>
       </c>
       <c r="V171" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W171" s="157">
@@ -18016,7 +18160,7 @@
         <v>2021</v>
       </c>
       <c r="Z171" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18049,7 +18193,7 @@
         <v>2</v>
       </c>
       <c r="J172" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam3_2</v>
       </c>
       <c r="K172" s="156" t="s">
@@ -18058,6 +18202,12 @@
       <c r="L172" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M172" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N172" s="3">
+        <v>5</v>
+      </c>
       <c r="O172" s="150" t="s">
         <v>217</v>
       </c>
@@ -18080,7 +18230,7 @@
         <v>1998</v>
       </c>
       <c r="V172" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W172" s="157">
@@ -18093,7 +18243,7 @@
         <v>2021</v>
       </c>
       <c r="Z172" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18126,7 +18276,7 @@
         <v>1</v>
       </c>
       <c r="J173" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam4_1</v>
       </c>
       <c r="K173" s="156" t="s">
@@ -18135,6 +18285,12 @@
       <c r="L173" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M173" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N173" s="3">
+        <v>5</v>
+      </c>
       <c r="O173" s="150" t="s">
         <v>217</v>
       </c>
@@ -18157,7 +18313,7 @@
         <v>1998</v>
       </c>
       <c r="V173" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W173" s="157">
@@ -18170,7 +18326,7 @@
         <v>2021</v>
       </c>
       <c r="Z173" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18203,7 +18359,7 @@
         <v>2</v>
       </c>
       <c r="J174" s="150" t="str">
-        <f t="shared" si="525"/>
+        <f t="shared" si="539"/>
         <v>ProVisioNET_study_105_05_cam4_2</v>
       </c>
       <c r="K174" s="156" t="s">
@@ -18212,6 +18368,12 @@
       <c r="L174" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M174" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N174" s="3">
+        <v>5</v>
+      </c>
       <c r="O174" s="150" t="s">
         <v>217</v>
       </c>
@@ -18234,7 +18396,7 @@
         <v>1998</v>
       </c>
       <c r="V174" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W174" s="157">
@@ -18247,7 +18409,7 @@
         <v>2021</v>
       </c>
       <c r="Z174" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18277,7 +18439,7 @@
         <v>120</v>
       </c>
       <c r="J175" s="150" t="str">
-        <f t="shared" ref="J175:J182" si="528">CONCATENATE(C175,"_",D175,"_",E175,"_",F175,"_",H175)</f>
+        <f t="shared" ref="J175:J182" si="542">CONCATENATE(C175,"_",D175,"_",E175,"_",F175,"_",H175)</f>
         <v>ProVisioNET_study_105_05_glasses</v>
       </c>
       <c r="K175" s="156" t="s">
@@ -18286,6 +18448,12 @@
       <c r="L175" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M175" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N175" s="3">
+        <v>5</v>
+      </c>
       <c r="O175" s="150" t="s">
         <v>217</v>
       </c>
@@ -18308,7 +18476,7 @@
         <v>1998</v>
       </c>
       <c r="V175" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W175" s="157">
@@ -18321,7 +18489,7 @@
         <v>2021</v>
       </c>
       <c r="Z175" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18351,7 +18519,7 @@
         <v>121</v>
       </c>
       <c r="J176" s="150" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_105_05_ambient</v>
       </c>
       <c r="K176" s="156" t="s">
@@ -18360,6 +18528,12 @@
       <c r="L176" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M176" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N176" s="3">
+        <v>5</v>
+      </c>
       <c r="O176" s="150" t="s">
         <v>217</v>
       </c>
@@ -18382,7 +18556,7 @@
         <v>1998</v>
       </c>
       <c r="V176" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W176" s="157">
@@ -18395,7 +18569,7 @@
         <v>2021</v>
       </c>
       <c r="Z176" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18425,7 +18599,7 @@
         <v>122</v>
       </c>
       <c r="J177" s="150" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_105_05_ETrawdata</v>
       </c>
       <c r="K177" s="156" t="s">
@@ -18434,6 +18608,12 @@
       <c r="L177" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M177" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N177" s="3">
+        <v>5</v>
+      </c>
       <c r="O177" s="150" t="s">
         <v>217</v>
       </c>
@@ -18456,7 +18636,7 @@
         <v>1998</v>
       </c>
       <c r="V177" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W177" s="157">
@@ -18469,7 +18649,7 @@
         <v>2021</v>
       </c>
       <c r="Z177" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18499,7 +18679,7 @@
         <v>186</v>
       </c>
       <c r="J178" s="150" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_105_05_sri_obs</v>
       </c>
       <c r="K178" s="156" t="s">
@@ -18508,6 +18688,12 @@
       <c r="L178" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M178" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N178" s="3">
+        <v>5</v>
+      </c>
       <c r="O178" s="150" t="s">
         <v>217</v>
       </c>
@@ -18530,7 +18716,7 @@
         <v>1998</v>
       </c>
       <c r="V178" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W178" s="157">
@@ -18543,7 +18729,7 @@
         <v>2021</v>
       </c>
       <c r="Z178" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18573,7 +18759,7 @@
         <v>180</v>
       </c>
       <c r="J179" s="150" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_105_05_sri_ambient</v>
       </c>
       <c r="K179" s="156" t="s">
@@ -18582,6 +18768,12 @@
       <c r="L179" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M179" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N179" s="3">
+        <v>5</v>
+      </c>
       <c r="O179" s="150" t="s">
         <v>217</v>
       </c>
@@ -18604,7 +18796,7 @@
         <v>1998</v>
       </c>
       <c r="V179" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W179" s="157">
@@ -18617,7 +18809,7 @@
         <v>2021</v>
       </c>
       <c r="Z179" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18647,7 +18839,7 @@
         <v>199</v>
       </c>
       <c r="J180" s="150" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_105_05_fitbit</v>
       </c>
       <c r="K180" s="156" t="s">
@@ -18656,6 +18848,12 @@
       <c r="L180" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M180" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N180" s="3">
+        <v>5</v>
+      </c>
       <c r="O180" s="150" t="s">
         <v>217</v>
       </c>
@@ -18678,7 +18876,7 @@
         <v>1998</v>
       </c>
       <c r="V180" s="3" t="str">
-        <f t="shared" si="527"/>
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
       <c r="W180" s="157">
@@ -18691,81 +18889,87 @@
         <v>2021</v>
       </c>
       <c r="Z180" s="157" t="str">
-        <f t="shared" si="526"/>
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="5">
         <v>6</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E181" s="155" t="s">
+      <c r="D181" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="F181" s="162" t="s">
+      <c r="F181" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="G181" s="150">
+      <c r="G181" s="160">
         <v>6</v>
       </c>
       <c r="H181" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J181" s="160" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_105_05_zed</v>
       </c>
-      <c r="K181" s="156" t="s">
+      <c r="K181" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="L181" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="O181" s="150" t="s">
+      <c r="M181" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N181" s="5">
+        <v>5</v>
+      </c>
+      <c r="O181" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="P181" s="150">
-        <v>0</v>
-      </c>
-      <c r="Q181" s="157" t="s">
+      <c r="P181" s="160">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R181" s="157" t="s">
+      <c r="R181" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S181" s="3">
+      <c r="S181" s="5">
         <v>29</v>
       </c>
-      <c r="T181" s="3">
+      <c r="T181" s="5">
         <v>1</v>
       </c>
-      <c r="U181" s="3">
+      <c r="U181" s="5">
         <v>1998</v>
       </c>
-      <c r="V181" s="3" t="str">
-        <f t="shared" si="527"/>
+      <c r="V181" s="5" t="str">
+        <f t="shared" si="541"/>
         <v>29/1/1998</v>
       </c>
-      <c r="W181" s="157">
+      <c r="W181" s="160">
         <v>1</v>
       </c>
-      <c r="X181" s="157">
+      <c r="X181" s="160">
         <v>9</v>
       </c>
-      <c r="Y181" s="157">
+      <c r="Y181" s="160">
         <v>2021</v>
       </c>
-      <c r="Z181" s="157" t="str">
-        <f t="shared" si="526"/>
+      <c r="Z181" s="160" t="str">
+        <f t="shared" si="540"/>
         <v>1/9/2021</v>
       </c>
     </row>
@@ -18796,7 +19000,7 @@
       </c>
       <c r="I182" s="147"/>
       <c r="J182" s="150" t="str">
-        <f t="shared" si="528"/>
+        <f t="shared" si="542"/>
         <v>ProVisioNET_study_106_06_label</v>
       </c>
       <c r="K182" s="147" t="s">
@@ -18879,7 +19083,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="150" t="str">
-        <f t="shared" ref="J183:J190" si="529">CONCATENATE(C183,"_",D183,"_",E183,"_",F183,"_",H183,"_",I183)</f>
+        <f t="shared" ref="J183:J190" si="543">CONCATENATE(C183,"_",D183,"_",E183,"_",F183,"_",H183,"_",I183)</f>
         <v>ProVisioNET_study_106_06_cam1_1</v>
       </c>
       <c r="K183" s="156" t="s">
@@ -18887,6 +19091,12 @@
       </c>
       <c r="L183" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N183" s="3">
+        <v>5</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>191</v>
@@ -18923,7 +19133,7 @@
         <v>2021</v>
       </c>
       <c r="Z183" s="157" t="str">
-        <f t="shared" ref="Z183:Z197" si="530">W183&amp;"/"&amp;X183&amp;"/"&amp;Y183</f>
+        <f t="shared" ref="Z183:Z197" si="544">W183&amp;"/"&amp;X183&amp;"/"&amp;Y183</f>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -18956,7 +19166,7 @@
         <v>2</v>
       </c>
       <c r="J184" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam1_2</v>
       </c>
       <c r="K184" s="156" t="s">
@@ -18965,6 +19175,12 @@
       <c r="L184" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M184" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N184" s="3">
+        <v>5</v>
+      </c>
       <c r="O184" s="3" t="s">
         <v>191</v>
       </c>
@@ -18987,7 +19203,7 @@
         <v>1996</v>
       </c>
       <c r="V184" s="3" t="str">
-        <f t="shared" ref="V184:V197" si="531">"16/8/1996"</f>
+        <f t="shared" ref="V184:V197" si="545">"16/8/1996"</f>
         <v>16/8/1996</v>
       </c>
       <c r="W184" s="157">
@@ -19000,7 +19216,7 @@
         <v>2021</v>
       </c>
       <c r="Z184" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19033,7 +19249,7 @@
         <v>1</v>
       </c>
       <c r="J185" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam2_1</v>
       </c>
       <c r="K185" s="156" t="s">
@@ -19042,6 +19258,12 @@
       <c r="L185" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M185" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N185" s="3">
+        <v>5</v>
+      </c>
       <c r="O185" s="3" t="s">
         <v>191</v>
       </c>
@@ -19064,7 +19286,7 @@
         <v>1996</v>
       </c>
       <c r="V185" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W185" s="157">
@@ -19077,7 +19299,7 @@
         <v>2021</v>
       </c>
       <c r="Z185" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19110,7 +19332,7 @@
         <v>2</v>
       </c>
       <c r="J186" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam2_2</v>
       </c>
       <c r="K186" s="156" t="s">
@@ -19119,6 +19341,12 @@
       <c r="L186" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M186" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N186" s="3">
+        <v>5</v>
+      </c>
       <c r="O186" s="3" t="s">
         <v>191</v>
       </c>
@@ -19141,7 +19369,7 @@
         <v>1996</v>
       </c>
       <c r="V186" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W186" s="157">
@@ -19154,7 +19382,7 @@
         <v>2021</v>
       </c>
       <c r="Z186" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19187,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="J187" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam3_1</v>
       </c>
       <c r="K187" s="156" t="s">
@@ -19196,6 +19424,12 @@
       <c r="L187" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M187" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N187" s="3">
+        <v>5</v>
+      </c>
       <c r="O187" s="3" t="s">
         <v>191</v>
       </c>
@@ -19218,7 +19452,7 @@
         <v>1996</v>
       </c>
       <c r="V187" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W187" s="157">
@@ -19231,7 +19465,7 @@
         <v>2021</v>
       </c>
       <c r="Z187" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19264,7 +19498,7 @@
         <v>2</v>
       </c>
       <c r="J188" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam3_2</v>
       </c>
       <c r="K188" s="156" t="s">
@@ -19273,6 +19507,12 @@
       <c r="L188" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M188" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N188" s="3">
+        <v>5</v>
+      </c>
       <c r="O188" s="3" t="s">
         <v>191</v>
       </c>
@@ -19295,7 +19535,7 @@
         <v>1996</v>
       </c>
       <c r="V188" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W188" s="157">
@@ -19308,7 +19548,7 @@
         <v>2021</v>
       </c>
       <c r="Z188" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19341,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="J189" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam4_1</v>
       </c>
       <c r="K189" s="156" t="s">
@@ -19350,6 +19590,12 @@
       <c r="L189" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M189" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N189" s="3">
+        <v>5</v>
+      </c>
       <c r="O189" s="3" t="s">
         <v>191</v>
       </c>
@@ -19372,7 +19618,7 @@
         <v>1996</v>
       </c>
       <c r="V189" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W189" s="157">
@@ -19385,7 +19631,7 @@
         <v>2021</v>
       </c>
       <c r="Z189" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19418,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="J190" s="150" t="str">
-        <f t="shared" si="529"/>
+        <f t="shared" si="543"/>
         <v>ProVisioNET_study_106_06_cam4_2</v>
       </c>
       <c r="K190" s="156" t="s">
@@ -19427,6 +19673,12 @@
       <c r="L190" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M190" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N190" s="3">
+        <v>5</v>
+      </c>
       <c r="O190" s="3" t="s">
         <v>191</v>
       </c>
@@ -19449,7 +19701,7 @@
         <v>1996</v>
       </c>
       <c r="V190" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W190" s="157">
@@ -19462,7 +19714,7 @@
         <v>2021</v>
       </c>
       <c r="Z190" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19492,7 +19744,7 @@
         <v>120</v>
       </c>
       <c r="J191" s="150" t="str">
-        <f t="shared" ref="J191:J198" si="532">CONCATENATE(C191,"_",D191,"_",E191,"_",F191,"_",H191)</f>
+        <f t="shared" ref="J191:J198" si="546">CONCATENATE(C191,"_",D191,"_",E191,"_",F191,"_",H191)</f>
         <v>ProVisioNET_study_106_06_glasses</v>
       </c>
       <c r="K191" s="156" t="s">
@@ -19501,6 +19753,12 @@
       <c r="L191" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M191" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N191" s="3">
+        <v>5</v>
+      </c>
       <c r="O191" s="3" t="s">
         <v>191</v>
       </c>
@@ -19523,7 +19781,7 @@
         <v>1996</v>
       </c>
       <c r="V191" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W191" s="157">
@@ -19536,7 +19794,7 @@
         <v>2021</v>
       </c>
       <c r="Z191" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19566,7 +19824,7 @@
         <v>121</v>
       </c>
       <c r="J192" s="150" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_106_06_ambient</v>
       </c>
       <c r="K192" s="156" t="s">
@@ -19575,6 +19833,12 @@
       <c r="L192" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M192" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N192" s="3">
+        <v>5</v>
+      </c>
       <c r="O192" s="3" t="s">
         <v>191</v>
       </c>
@@ -19597,7 +19861,7 @@
         <v>1996</v>
       </c>
       <c r="V192" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W192" s="157">
@@ -19610,7 +19874,7 @@
         <v>2021</v>
       </c>
       <c r="Z192" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19640,7 +19904,7 @@
         <v>122</v>
       </c>
       <c r="J193" s="150" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_106_06_ETrawdata</v>
       </c>
       <c r="K193" s="156" t="s">
@@ -19649,6 +19913,12 @@
       <c r="L193" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M193" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N193" s="3">
+        <v>5</v>
+      </c>
       <c r="O193" s="3" t="s">
         <v>191</v>
       </c>
@@ -19671,7 +19941,7 @@
         <v>1996</v>
       </c>
       <c r="V193" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W193" s="157">
@@ -19684,7 +19954,7 @@
         <v>2021</v>
       </c>
       <c r="Z193" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19714,7 +19984,7 @@
         <v>186</v>
       </c>
       <c r="J194" s="150" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_106_06_sri_obs</v>
       </c>
       <c r="K194" s="156" t="s">
@@ -19723,6 +19993,12 @@
       <c r="L194" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M194" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N194" s="3">
+        <v>5</v>
+      </c>
       <c r="O194" s="3" t="s">
         <v>191</v>
       </c>
@@ -19745,7 +20021,7 @@
         <v>1996</v>
       </c>
       <c r="V194" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W194" s="157">
@@ -19758,7 +20034,7 @@
         <v>2021</v>
       </c>
       <c r="Z194" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19788,7 +20064,7 @@
         <v>180</v>
       </c>
       <c r="J195" s="150" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_106_06_sri_ambient</v>
       </c>
       <c r="K195" s="156" t="s">
@@ -19797,6 +20073,12 @@
       <c r="L195" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M195" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N195" s="3">
+        <v>5</v>
+      </c>
       <c r="O195" s="3" t="s">
         <v>191</v>
       </c>
@@ -19819,7 +20101,7 @@
         <v>1996</v>
       </c>
       <c r="V195" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W195" s="157">
@@ -19832,7 +20114,7 @@
         <v>2021</v>
       </c>
       <c r="Z195" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -19862,7 +20144,7 @@
         <v>199</v>
       </c>
       <c r="J196" s="150" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_106_06_fitbit</v>
       </c>
       <c r="K196" s="156" t="s">
@@ -19871,6 +20153,12 @@
       <c r="L196" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="M196" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N196" s="3">
+        <v>5</v>
+      </c>
       <c r="O196" s="3" t="s">
         <v>191</v>
       </c>
@@ -19893,7 +20181,7 @@
         <v>1996</v>
       </c>
       <c r="V196" s="3" t="str">
-        <f t="shared" si="531"/>
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
       <c r="W196" s="157">
@@ -19906,81 +20194,87 @@
         <v>2021</v>
       </c>
       <c r="Z196" s="157" t="str">
-        <f t="shared" si="530"/>
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="5">
         <v>7</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E197" s="155" t="s">
+      <c r="D197" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="F197" s="162" t="s">
+      <c r="F197" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="G197" s="150">
+      <c r="G197" s="160">
         <v>7</v>
       </c>
       <c r="H197" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J197" s="160" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_106_06_zed</v>
       </c>
-      <c r="K197" s="156" t="s">
+      <c r="K197" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="L197" s="3" t="s">
+      <c r="L197" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="O197" s="3" t="s">
+      <c r="M197" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N197" s="5">
+        <v>5</v>
+      </c>
+      <c r="O197" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="P197" s="150">
-        <v>0</v>
-      </c>
-      <c r="Q197" s="157" t="s">
+      <c r="P197" s="160">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R197" s="157" t="s">
+      <c r="R197" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S197" s="3">
+      <c r="S197" s="5">
         <v>16</v>
       </c>
-      <c r="T197" s="3">
+      <c r="T197" s="5">
         <v>8</v>
       </c>
-      <c r="U197" s="3">
+      <c r="U197" s="5">
         <v>1996</v>
       </c>
-      <c r="V197" s="3" t="str">
-        <f t="shared" si="531"/>
+      <c r="V197" s="5" t="str">
+        <f t="shared" si="545"/>
         <v>16/8/1996</v>
       </c>
-      <c r="W197" s="157">
+      <c r="W197" s="160">
         <v>15</v>
       </c>
-      <c r="X197" s="157">
+      <c r="X197" s="160">
         <v>9</v>
       </c>
-      <c r="Y197" s="157">
+      <c r="Y197" s="160">
         <v>2021</v>
       </c>
-      <c r="Z197" s="157" t="str">
-        <f t="shared" si="530"/>
+      <c r="Z197" s="160" t="str">
+        <f t="shared" si="544"/>
         <v>15/9/2021</v>
       </c>
     </row>
@@ -20011,7 +20305,7 @@
       </c>
       <c r="I198" s="147"/>
       <c r="J198" s="150" t="str">
-        <f t="shared" si="532"/>
+        <f t="shared" si="546"/>
         <v>ProVisioNET_study_202_02_label</v>
       </c>
       <c r="K198" s="147" t="s">
@@ -20094,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="150" t="str">
-        <f t="shared" ref="J199:J206" si="533">CONCATENATE(C199,"_",D199,"_",E199,"_",F199,"_",H199,"_",I199)</f>
+        <f t="shared" ref="J199:J206" si="547">CONCATENATE(C199,"_",D199,"_",E199,"_",F199,"_",H199,"_",I199)</f>
         <v>ProVisioNET_study_202_02_cam1_1</v>
       </c>
       <c r="K199" s="156" t="s">
@@ -20102,6 +20396,12 @@
       </c>
       <c r="L199" s="3" t="s">
         <v>178</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N199" s="3">
+        <v>5</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>201</v>
@@ -20138,7 +20438,7 @@
         <v>2021</v>
       </c>
       <c r="Z199" s="157" t="str">
-        <f t="shared" ref="Z199:Z212" si="534">W199&amp;"/"&amp;X199&amp;"/"&amp;Y199</f>
+        <f t="shared" ref="Z199:Z212" si="548">W199&amp;"/"&amp;X199&amp;"/"&amp;Y199</f>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20171,7 +20471,7 @@
         <v>2</v>
       </c>
       <c r="J200" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam1_2</v>
       </c>
       <c r="K200" s="156" t="s">
@@ -20180,6 +20480,12 @@
       <c r="L200" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M200" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N200" s="3">
+        <v>5</v>
+      </c>
       <c r="O200" s="3" t="s">
         <v>201</v>
       </c>
@@ -20202,7 +20508,7 @@
         <v>1965</v>
       </c>
       <c r="V200" s="3" t="str">
-        <f t="shared" ref="V200:V214" si="535">"7/7/1965"</f>
+        <f t="shared" ref="V200:V214" si="549">"7/7/1965"</f>
         <v>7/7/1965</v>
       </c>
       <c r="W200" s="157">
@@ -20215,7 +20521,7 @@
         <v>2021</v>
       </c>
       <c r="Z200" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20248,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam2_1</v>
       </c>
       <c r="K201" s="156" t="s">
@@ -20257,6 +20563,12 @@
       <c r="L201" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M201" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N201" s="3">
+        <v>5</v>
+      </c>
       <c r="O201" s="3" t="s">
         <v>201</v>
       </c>
@@ -20279,7 +20591,7 @@
         <v>1965</v>
       </c>
       <c r="V201" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W201" s="157">
@@ -20292,7 +20604,7 @@
         <v>2021</v>
       </c>
       <c r="Z201" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20325,7 +20637,7 @@
         <v>2</v>
       </c>
       <c r="J202" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam2_2</v>
       </c>
       <c r="K202" s="156" t="s">
@@ -20334,6 +20646,12 @@
       <c r="L202" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M202" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N202" s="3">
+        <v>5</v>
+      </c>
       <c r="O202" s="3" t="s">
         <v>201</v>
       </c>
@@ -20356,7 +20674,7 @@
         <v>1965</v>
       </c>
       <c r="V202" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W202" s="157">
@@ -20369,7 +20687,7 @@
         <v>2021</v>
       </c>
       <c r="Z202" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20402,7 +20720,7 @@
         <v>1</v>
       </c>
       <c r="J203" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam3_1</v>
       </c>
       <c r="K203" s="156" t="s">
@@ -20411,6 +20729,12 @@
       <c r="L203" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M203" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N203" s="3">
+        <v>5</v>
+      </c>
       <c r="O203" s="3" t="s">
         <v>201</v>
       </c>
@@ -20433,7 +20757,7 @@
         <v>1965</v>
       </c>
       <c r="V203" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W203" s="157">
@@ -20446,7 +20770,7 @@
         <v>2021</v>
       </c>
       <c r="Z203" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20479,7 +20803,7 @@
         <v>2</v>
       </c>
       <c r="J204" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam3_2</v>
       </c>
       <c r="K204" s="156" t="s">
@@ -20488,6 +20812,12 @@
       <c r="L204" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M204" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N204" s="3">
+        <v>5</v>
+      </c>
       <c r="O204" s="3" t="s">
         <v>201</v>
       </c>
@@ -20510,7 +20840,7 @@
         <v>1965</v>
       </c>
       <c r="V204" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W204" s="157">
@@ -20523,7 +20853,7 @@
         <v>2021</v>
       </c>
       <c r="Z204" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20556,7 +20886,7 @@
         <v>1</v>
       </c>
       <c r="J205" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam4_1</v>
       </c>
       <c r="K205" s="156" t="s">
@@ -20565,6 +20895,12 @@
       <c r="L205" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M205" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N205" s="3">
+        <v>5</v>
+      </c>
       <c r="O205" s="3" t="s">
         <v>201</v>
       </c>
@@ -20587,7 +20923,7 @@
         <v>1965</v>
       </c>
       <c r="V205" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W205" s="157">
@@ -20600,7 +20936,7 @@
         <v>2021</v>
       </c>
       <c r="Z205" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20633,7 +20969,7 @@
         <v>2</v>
       </c>
       <c r="J206" s="150" t="str">
-        <f t="shared" si="533"/>
+        <f t="shared" si="547"/>
         <v>ProVisioNET_study_202_02_cam4_2</v>
       </c>
       <c r="K206" s="156" t="s">
@@ -20642,6 +20978,12 @@
       <c r="L206" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M206" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N206" s="3">
+        <v>5</v>
+      </c>
       <c r="O206" s="3" t="s">
         <v>201</v>
       </c>
@@ -20664,7 +21006,7 @@
         <v>1965</v>
       </c>
       <c r="V206" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W206" s="157">
@@ -20677,7 +21019,7 @@
         <v>2021</v>
       </c>
       <c r="Z206" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20707,7 +21049,7 @@
         <v>120</v>
       </c>
       <c r="J207" s="150" t="str">
-        <f t="shared" ref="J207:J210" si="536">CONCATENATE(C207,"_",D207,"_",E207,"_",F207,"_",H207)</f>
+        <f t="shared" ref="J207:J210" si="550">CONCATENATE(C207,"_",D207,"_",E207,"_",F207,"_",H207)</f>
         <v>ProVisioNET_study_202_02_glasses</v>
       </c>
       <c r="K207" s="156" t="s">
@@ -20716,6 +21058,12 @@
       <c r="L207" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M207" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N207" s="3">
+        <v>5</v>
+      </c>
       <c r="O207" s="3" t="s">
         <v>201</v>
       </c>
@@ -20738,7 +21086,7 @@
         <v>1965</v>
       </c>
       <c r="V207" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W207" s="157">
@@ -20751,7 +21099,7 @@
         <v>2021</v>
       </c>
       <c r="Z207" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20781,7 +21129,7 @@
         <v>121</v>
       </c>
       <c r="J208" s="150" t="str">
-        <f t="shared" si="536"/>
+        <f t="shared" si="550"/>
         <v>ProVisioNET_study_202_02_ambient</v>
       </c>
       <c r="K208" s="156" t="s">
@@ -20790,6 +21138,12 @@
       <c r="L208" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M208" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N208" s="3">
+        <v>5</v>
+      </c>
       <c r="O208" s="3" t="s">
         <v>201</v>
       </c>
@@ -20812,7 +21166,7 @@
         <v>1965</v>
       </c>
       <c r="V208" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W208" s="157">
@@ -20825,7 +21179,7 @@
         <v>2021</v>
       </c>
       <c r="Z208" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20855,7 +21209,7 @@
         <v>122</v>
       </c>
       <c r="J209" s="150" t="str">
-        <f t="shared" si="536"/>
+        <f t="shared" si="550"/>
         <v>ProVisioNET_study_202_02_ETrawdata</v>
       </c>
       <c r="K209" s="156" t="s">
@@ -20864,6 +21218,12 @@
       <c r="L209" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M209" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N209" s="3">
+        <v>5</v>
+      </c>
       <c r="O209" s="3" t="s">
         <v>201</v>
       </c>
@@ -20886,7 +21246,7 @@
         <v>1965</v>
       </c>
       <c r="V209" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W209" s="157">
@@ -20899,7 +21259,7 @@
         <v>2021</v>
       </c>
       <c r="Z209" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -20929,7 +21289,7 @@
         <v>186</v>
       </c>
       <c r="J210" s="150" t="str">
-        <f t="shared" si="536"/>
+        <f t="shared" si="550"/>
         <v>ProVisioNET_study_202_02_sri_obs</v>
       </c>
       <c r="K210" s="156" t="s">
@@ -20938,6 +21298,12 @@
       <c r="L210" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M210" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N210" s="3">
+        <v>5</v>
+      </c>
       <c r="O210" s="3" t="s">
         <v>201</v>
       </c>
@@ -20960,7 +21326,7 @@
         <v>1965</v>
       </c>
       <c r="V210" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W210" s="157">
@@ -20973,7 +21339,7 @@
         <v>2021</v>
       </c>
       <c r="Z210" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -21015,6 +21381,12 @@
       <c r="L211" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M211" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N211" s="3">
+        <v>5</v>
+      </c>
       <c r="O211" s="3" t="s">
         <v>201</v>
       </c>
@@ -21037,7 +21409,7 @@
         <v>1965</v>
       </c>
       <c r="V211" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W211" s="157">
@@ -21050,7 +21422,7 @@
         <v>2021</v>
       </c>
       <c r="Z211" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -21092,6 +21464,12 @@
       <c r="L212" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M212" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N212" s="3">
+        <v>5</v>
+      </c>
       <c r="O212" s="3" t="s">
         <v>201</v>
       </c>
@@ -21114,7 +21492,7 @@
         <v>1965</v>
       </c>
       <c r="V212" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W212" s="157">
@@ -21127,7 +21505,7 @@
         <v>2021</v>
       </c>
       <c r="Z212" s="157" t="str">
-        <f t="shared" si="534"/>
+        <f t="shared" si="548"/>
         <v>27/9/2021</v>
       </c>
     </row>
@@ -21166,6 +21544,12 @@
       <c r="L213" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="M213" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N213" s="3">
+        <v>5</v>
+      </c>
       <c r="O213" s="3" t="s">
         <v>201</v>
       </c>
@@ -21188,7 +21572,7 @@
         <v>1965</v>
       </c>
       <c r="V213" s="3" t="str">
-        <f t="shared" si="535"/>
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
       <c r="W213" s="157">
@@ -21205,26 +21589,26 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="5">
         <v>8</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D214" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E214" s="155" t="s">
+      <c r="D214" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="F214" s="162" t="s">
+      <c r="F214" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="G214" s="150">
+      <c r="G214" s="160">
         <v>8</v>
       </c>
       <c r="H214" s="160" t="s">
@@ -21234,47 +21618,53 @@
         <f>CONCATENATE(C214,"_",D214,"_",E214,"_",F214,"_",H214)</f>
         <v>ProVisioNET_study_202_02_zed</v>
       </c>
-      <c r="K214" s="156" t="s">
+      <c r="K214" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="L214" s="3" t="s">
+      <c r="L214" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O214" s="3" t="s">
+      <c r="M214" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N214" s="5">
+        <v>5</v>
+      </c>
+      <c r="O214" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="P214" s="3">
+      <c r="P214" s="5">
         <v>32</v>
       </c>
-      <c r="Q214" s="157" t="s">
+      <c r="Q214" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R214" s="157" t="s">
+      <c r="R214" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S214" s="3">
+      <c r="S214" s="5">
         <v>7</v>
       </c>
-      <c r="T214" s="3">
+      <c r="T214" s="5">
         <v>7</v>
       </c>
-      <c r="U214" s="3">
+      <c r="U214" s="5">
         <v>1965</v>
       </c>
-      <c r="V214" s="3" t="str">
-        <f t="shared" si="535"/>
+      <c r="V214" s="5" t="str">
+        <f t="shared" si="549"/>
         <v>7/7/1965</v>
       </c>
-      <c r="W214" s="157">
+      <c r="W214" s="160">
         <v>27</v>
       </c>
-      <c r="X214" s="157">
+      <c r="X214" s="160">
         <v>9</v>
       </c>
-      <c r="Y214" s="157">
+      <c r="Y214" s="160">
         <v>2021</v>
       </c>
-      <c r="Z214" s="157" t="str">
+      <c r="Z214" s="160" t="str">
         <f>W214&amp;"/"&amp;X214&amp;"/"&amp;Y214</f>
         <v>27/9/2021</v>
       </c>
@@ -21389,7 +21779,7 @@
         <v>1</v>
       </c>
       <c r="J216" s="150" t="str">
-        <f t="shared" ref="J216:J223" si="537">CONCATENATE(C216,"_",D216,"_",E216,"_",F216,"_",H216,"_",I216)</f>
+        <f t="shared" ref="J216:J223" si="551">CONCATENATE(C216,"_",D216,"_",E216,"_",F216,"_",H216,"_",I216)</f>
         <v>ProVisioNET_study_203_03_cam1_1</v>
       </c>
       <c r="K216" s="156" t="s">
@@ -21439,7 +21829,7 @@
         <v>2021</v>
       </c>
       <c r="Z216" s="157" t="str">
-        <f t="shared" ref="Z216:Z230" si="538">W216&amp;"/"&amp;X216&amp;"/"&amp;Y216</f>
+        <f t="shared" ref="Z216:Z230" si="552">W216&amp;"/"&amp;X216&amp;"/"&amp;Y216</f>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21472,7 +21862,7 @@
         <v>2</v>
       </c>
       <c r="J217" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam1_2</v>
       </c>
       <c r="K217" s="156" t="s">
@@ -21509,7 +21899,7 @@
         <v>1994</v>
       </c>
       <c r="V217" s="3" t="str">
-        <f t="shared" ref="V217:V230" si="539">"30/1/1994"</f>
+        <f t="shared" ref="V217:V230" si="553">"30/1/1994"</f>
         <v>30/1/1994</v>
       </c>
       <c r="W217" s="157">
@@ -21522,7 +21912,7 @@
         <v>2021</v>
       </c>
       <c r="Z217" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21555,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="J218" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam2_1</v>
       </c>
       <c r="K218" s="156" t="s">
@@ -21592,7 +21982,7 @@
         <v>1994</v>
       </c>
       <c r="V218" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W218" s="157">
@@ -21605,7 +21995,7 @@
         <v>2021</v>
       </c>
       <c r="Z218" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21638,7 +22028,7 @@
         <v>2</v>
       </c>
       <c r="J219" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam2_2</v>
       </c>
       <c r="K219" s="156" t="s">
@@ -21675,7 +22065,7 @@
         <v>1994</v>
       </c>
       <c r="V219" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W219" s="157">
@@ -21688,7 +22078,7 @@
         <v>2021</v>
       </c>
       <c r="Z219" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21721,7 +22111,7 @@
         <v>1</v>
       </c>
       <c r="J220" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam3_1</v>
       </c>
       <c r="K220" s="156" t="s">
@@ -21758,7 +22148,7 @@
         <v>1994</v>
       </c>
       <c r="V220" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W220" s="157">
@@ -21771,7 +22161,7 @@
         <v>2021</v>
       </c>
       <c r="Z220" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21804,7 +22194,7 @@
         <v>2</v>
       </c>
       <c r="J221" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam3_2</v>
       </c>
       <c r="K221" s="156" t="s">
@@ -21841,7 +22231,7 @@
         <v>1994</v>
       </c>
       <c r="V221" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W221" s="157">
@@ -21854,7 +22244,7 @@
         <v>2021</v>
       </c>
       <c r="Z221" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21887,7 +22277,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam4_1</v>
       </c>
       <c r="K222" s="156" t="s">
@@ -21924,7 +22314,7 @@
         <v>1994</v>
       </c>
       <c r="V222" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W222" s="157">
@@ -21937,7 +22327,7 @@
         <v>2021</v>
       </c>
       <c r="Z222" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -21970,7 +22360,7 @@
         <v>2</v>
       </c>
       <c r="J223" s="150" t="str">
-        <f t="shared" si="537"/>
+        <f t="shared" si="551"/>
         <v>ProVisioNET_study_203_03_cam4_2</v>
       </c>
       <c r="K223" s="156" t="s">
@@ -22007,7 +22397,7 @@
         <v>1994</v>
       </c>
       <c r="V223" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W223" s="157">
@@ -22020,7 +22410,7 @@
         <v>2021</v>
       </c>
       <c r="Z223" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -22050,7 +22440,7 @@
         <v>120</v>
       </c>
       <c r="J224" s="150" t="str">
-        <f t="shared" ref="J224:J231" si="540">CONCATENATE(C224,"_",D224,"_",E224,"_",F224,"_",H224)</f>
+        <f t="shared" ref="J224:J231" si="554">CONCATENATE(C224,"_",D224,"_",E224,"_",F224,"_",H224)</f>
         <v>ProVisioNET_study_203_03_glasses</v>
       </c>
       <c r="K224" s="156" t="s">
@@ -22087,7 +22477,7 @@
         <v>1994</v>
       </c>
       <c r="V224" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W224" s="157">
@@ -22100,7 +22490,7 @@
         <v>2021</v>
       </c>
       <c r="Z224" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -22130,7 +22520,7 @@
         <v>121</v>
       </c>
       <c r="J225" s="150" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_203_03_ambient</v>
       </c>
       <c r="K225" s="156" t="s">
@@ -22167,7 +22557,7 @@
         <v>1994</v>
       </c>
       <c r="V225" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W225" s="157">
@@ -22180,7 +22570,7 @@
         <v>2021</v>
       </c>
       <c r="Z225" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -22210,7 +22600,7 @@
         <v>122</v>
       </c>
       <c r="J226" s="150" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_203_03_ETrawdata</v>
       </c>
       <c r="K226" s="156" t="s">
@@ -22247,7 +22637,7 @@
         <v>1994</v>
       </c>
       <c r="V226" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W226" s="157">
@@ -22260,7 +22650,7 @@
         <v>2021</v>
       </c>
       <c r="Z226" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -22290,7 +22680,7 @@
         <v>186</v>
       </c>
       <c r="J227" s="150" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_203_03_sri_obs</v>
       </c>
       <c r="K227" s="156" t="s">
@@ -22327,7 +22717,7 @@
         <v>1994</v>
       </c>
       <c r="V227" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W227" s="157">
@@ -22340,7 +22730,7 @@
         <v>2021</v>
       </c>
       <c r="Z227" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -22370,7 +22760,7 @@
         <v>180</v>
       </c>
       <c r="J228" s="150" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_203_03_sri_ambient</v>
       </c>
       <c r="K228" s="156" t="s">
@@ -22407,7 +22797,7 @@
         <v>1994</v>
       </c>
       <c r="V228" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W228" s="157">
@@ -22420,7 +22810,7 @@
         <v>2021</v>
       </c>
       <c r="Z228" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
@@ -22450,7 +22840,7 @@
         <v>199</v>
       </c>
       <c r="J229" s="150" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_203_03_fitbit</v>
       </c>
       <c r="K229" s="156" t="s">
@@ -22487,7 +22877,7 @@
         <v>1994</v>
       </c>
       <c r="V229" s="3" t="str">
-        <f t="shared" si="539"/>
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
       <c r="W229" s="157">
@@ -22500,91 +22890,91 @@
         <v>2021</v>
       </c>
       <c r="Z229" s="157" t="str">
-        <f t="shared" si="538"/>
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="5">
         <v>9</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E230" s="155" t="s">
+      <c r="D230" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="F230" s="162" t="s">
+      <c r="F230" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="G230" s="150">
+      <c r="G230" s="160">
         <v>9</v>
       </c>
       <c r="H230" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J230" s="160" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_203_03_zed</v>
       </c>
-      <c r="K230" s="156" t="s">
+      <c r="K230" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="L230" s="3" t="s">
+      <c r="L230" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M230" s="3" t="s">
+      <c r="M230" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N230" s="3">
+      <c r="N230" s="5">
         <v>3</v>
       </c>
-      <c r="O230" t="s">
+      <c r="O230" s="166" t="s">
         <v>218</v>
       </c>
-      <c r="P230" s="3">
+      <c r="P230" s="5">
         <v>3</v>
       </c>
-      <c r="Q230" s="157" t="s">
+      <c r="Q230" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R230" s="157" t="s">
+      <c r="R230" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S230" s="3">
+      <c r="S230" s="5">
         <v>30</v>
       </c>
-      <c r="T230" s="3">
+      <c r="T230" s="5">
         <v>1</v>
       </c>
-      <c r="U230" s="3">
+      <c r="U230" s="5">
         <v>1994</v>
       </c>
-      <c r="V230" s="3" t="str">
-        <f t="shared" si="539"/>
+      <c r="V230" s="5" t="str">
+        <f t="shared" si="553"/>
         <v>30/1/1994</v>
       </c>
-      <c r="W230" s="157">
+      <c r="W230" s="160">
         <v>5</v>
       </c>
-      <c r="X230" s="157">
+      <c r="X230" s="160">
         <v>10</v>
       </c>
-      <c r="Y230" s="157">
+      <c r="Y230" s="160">
         <v>2021</v>
       </c>
-      <c r="Z230" s="157" t="str">
-        <f t="shared" si="538"/>
+      <c r="Z230" s="160" t="str">
+        <f t="shared" si="552"/>
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="146" t="s">
         <v>117</v>
       </c>
@@ -22611,7 +23001,7 @@
       </c>
       <c r="I231" s="147"/>
       <c r="J231" s="150" t="str">
-        <f t="shared" si="540"/>
+        <f t="shared" si="554"/>
         <v>ProVisioNET_study_107_07_label</v>
       </c>
       <c r="K231" s="147" t="s">
@@ -22632,35 +23022,35 @@
       <c r="P231" s="147">
         <v>0</v>
       </c>
-      <c r="Q231" s="152" t="s">
+      <c r="Q231" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="R231" s="152" t="s">
+      <c r="R231" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="S231" s="152">
+      <c r="S231" s="147">
         <v>28</v>
       </c>
-      <c r="T231" s="152">
+      <c r="T231" s="147">
         <v>8</v>
       </c>
-      <c r="U231" s="152">
+      <c r="U231" s="147">
         <v>1998</v>
       </c>
-      <c r="V231" s="152" t="str">
+      <c r="V231" s="147" t="str">
         <f>S231&amp;"/"&amp;T231&amp;"/"&amp;U231</f>
         <v>28/8/1998</v>
       </c>
-      <c r="W231" s="152">
+      <c r="W231" s="147">
         <v>6</v>
       </c>
-      <c r="X231" s="152">
+      <c r="X231" s="147">
         <v>10</v>
       </c>
-      <c r="Y231" s="152">
+      <c r="Y231" s="147">
         <v>2021</v>
       </c>
-      <c r="Z231" s="152" t="str">
+      <c r="Z231" s="147" t="str">
         <f>W231&amp;"/"&amp;X231&amp;"/"&amp;Y231</f>
         <v>6/10/2021</v>
       </c>
@@ -22694,7 +23084,7 @@
         <v>1</v>
       </c>
       <c r="J232" s="150" t="str">
-        <f t="shared" ref="J232:J239" si="541">CONCATENATE(C232,"_",D232,"_",E232,"_",F232,"_",H232,"_",I232)</f>
+        <f t="shared" ref="J232:J239" si="555">CONCATENATE(C232,"_",D232,"_",E232,"_",F232,"_",H232,"_",I232)</f>
         <v>ProVisioNET_study_107_07_cam1_1</v>
       </c>
       <c r="K232" s="156" t="s">
@@ -22744,7 +23134,7 @@
         <v>2021</v>
       </c>
       <c r="Z232" s="157" t="str">
-        <f t="shared" ref="Z232:Z246" si="542">W232&amp;"/"&amp;X232&amp;"/"&amp;Y232</f>
+        <f t="shared" ref="Z232:Z246" si="556">W232&amp;"/"&amp;X232&amp;"/"&amp;Y232</f>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -22777,7 +23167,7 @@
         <v>2</v>
       </c>
       <c r="J233" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam1_2</v>
       </c>
       <c r="K233" s="156" t="s">
@@ -22814,7 +23204,7 @@
         <v>1998</v>
       </c>
       <c r="V233" s="163" t="str">
-        <f t="shared" ref="V233:V246" si="543">"28/8/1998"</f>
+        <f t="shared" ref="V233:V246" si="557">"28/8/1998"</f>
         <v>28/8/1998</v>
       </c>
       <c r="W233" s="157">
@@ -22827,7 +23217,7 @@
         <v>2021</v>
       </c>
       <c r="Z233" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -22860,7 +23250,7 @@
         <v>1</v>
       </c>
       <c r="J234" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam2_1</v>
       </c>
       <c r="K234" s="156" t="s">
@@ -22897,7 +23287,7 @@
         <v>1998</v>
       </c>
       <c r="V234" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W234" s="157">
@@ -22910,7 +23300,7 @@
         <v>2021</v>
       </c>
       <c r="Z234" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -22943,7 +23333,7 @@
         <v>2</v>
       </c>
       <c r="J235" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam2_2</v>
       </c>
       <c r="K235" s="156" t="s">
@@ -22980,7 +23370,7 @@
         <v>1998</v>
       </c>
       <c r="V235" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W235" s="157">
@@ -22993,7 +23383,7 @@
         <v>2021</v>
       </c>
       <c r="Z235" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23026,7 +23416,7 @@
         <v>1</v>
       </c>
       <c r="J236" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam3_1</v>
       </c>
       <c r="K236" s="156" t="s">
@@ -23063,7 +23453,7 @@
         <v>1998</v>
       </c>
       <c r="V236" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W236" s="157">
@@ -23076,7 +23466,7 @@
         <v>2021</v>
       </c>
       <c r="Z236" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23109,7 +23499,7 @@
         <v>2</v>
       </c>
       <c r="J237" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam3_2</v>
       </c>
       <c r="K237" s="156" t="s">
@@ -23146,7 +23536,7 @@
         <v>1998</v>
       </c>
       <c r="V237" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W237" s="157">
@@ -23159,7 +23549,7 @@
         <v>2021</v>
       </c>
       <c r="Z237" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23192,7 +23582,7 @@
         <v>1</v>
       </c>
       <c r="J238" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam4_1</v>
       </c>
       <c r="K238" s="156" t="s">
@@ -23229,7 +23619,7 @@
         <v>1998</v>
       </c>
       <c r="V238" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W238" s="157">
@@ -23242,7 +23632,7 @@
         <v>2021</v>
       </c>
       <c r="Z238" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23275,7 +23665,7 @@
         <v>2</v>
       </c>
       <c r="J239" s="150" t="str">
-        <f t="shared" si="541"/>
+        <f t="shared" si="555"/>
         <v>ProVisioNET_study_107_07_cam4_2</v>
       </c>
       <c r="K239" s="156" t="s">
@@ -23312,7 +23702,7 @@
         <v>1998</v>
       </c>
       <c r="V239" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W239" s="157">
@@ -23325,7 +23715,7 @@
         <v>2021</v>
       </c>
       <c r="Z239" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23355,7 +23745,7 @@
         <v>120</v>
       </c>
       <c r="J240" s="150" t="str">
-        <f t="shared" ref="J240:J247" si="544">CONCATENATE(C240,"_",D240,"_",E240,"_",F240,"_",H240)</f>
+        <f t="shared" ref="J240:J247" si="558">CONCATENATE(C240,"_",D240,"_",E240,"_",F240,"_",H240)</f>
         <v>ProVisioNET_study_107_07_glasses</v>
       </c>
       <c r="K240" s="156" t="s">
@@ -23392,7 +23782,7 @@
         <v>1998</v>
       </c>
       <c r="V240" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W240" s="157">
@@ -23405,7 +23795,7 @@
         <v>2021</v>
       </c>
       <c r="Z240" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23435,7 +23825,7 @@
         <v>121</v>
       </c>
       <c r="J241" s="150" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_107_07_ambient</v>
       </c>
       <c r="K241" s="156" t="s">
@@ -23472,7 +23862,7 @@
         <v>1998</v>
       </c>
       <c r="V241" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W241" s="157">
@@ -23485,7 +23875,7 @@
         <v>2021</v>
       </c>
       <c r="Z241" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23515,7 +23905,7 @@
         <v>122</v>
       </c>
       <c r="J242" s="150" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_108_07_ETrawdata</v>
       </c>
       <c r="K242" s="156" t="s">
@@ -23552,7 +23942,7 @@
         <v>1998</v>
       </c>
       <c r="V242" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W242" s="157">
@@ -23565,7 +23955,7 @@
         <v>2021</v>
       </c>
       <c r="Z242" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23595,7 +23985,7 @@
         <v>186</v>
       </c>
       <c r="J243" s="150" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_108_07_sri_obs</v>
       </c>
       <c r="K243" s="156" t="s">
@@ -23632,7 +24022,7 @@
         <v>1998</v>
       </c>
       <c r="V243" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W243" s="157">
@@ -23645,7 +24035,7 @@
         <v>2021</v>
       </c>
       <c r="Z243" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23675,7 +24065,7 @@
         <v>180</v>
       </c>
       <c r="J244" s="150" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_108_07_sri_ambient</v>
       </c>
       <c r="K244" s="156" t="s">
@@ -23712,7 +24102,7 @@
         <v>1998</v>
       </c>
       <c r="V244" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W244" s="157">
@@ -23725,7 +24115,7 @@
         <v>2021</v>
       </c>
       <c r="Z244" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23755,7 +24145,7 @@
         <v>199</v>
       </c>
       <c r="J245" s="150" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_108_07_fitbit</v>
       </c>
       <c r="K245" s="156" t="s">
@@ -23792,7 +24182,7 @@
         <v>1998</v>
       </c>
       <c r="V245" s="163" t="str">
-        <f t="shared" si="543"/>
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
       <c r="W245" s="157">
@@ -23805,87 +24195,87 @@
         <v>2021</v>
       </c>
       <c r="Z245" s="157" t="str">
-        <f t="shared" si="542"/>
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="5">
         <v>10</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D246" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E246" s="155" t="s">
+      <c r="D246" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" s="161" t="s">
         <v>219</v>
       </c>
-      <c r="F246" s="162" t="s">
+      <c r="F246" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="G246" s="150">
+      <c r="G246" s="160">
         <v>10</v>
       </c>
       <c r="H246" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J246" s="160" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_108_07_zed</v>
       </c>
-      <c r="K246" s="156" t="s">
+      <c r="K246" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="L246" s="3" t="s">
+      <c r="L246" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M246" s="3" t="s">
+      <c r="M246" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="N246" s="3">
+      <c r="N246" s="5">
         <v>7</v>
       </c>
-      <c r="O246" t="s">
+      <c r="O246" s="166" t="s">
         <v>218</v>
       </c>
-      <c r="P246" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q246" s="157" t="s">
+      <c r="P246" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R246" s="157" t="s">
+      <c r="R246" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S246" s="3">
+      <c r="S246" s="5">
         <v>28</v>
       </c>
-      <c r="T246" s="3">
+      <c r="T246" s="5">
         <v>8</v>
       </c>
-      <c r="U246" s="3">
+      <c r="U246" s="5">
         <v>1998</v>
       </c>
-      <c r="V246" s="163" t="str">
-        <f t="shared" si="543"/>
+      <c r="V246" s="168" t="str">
+        <f t="shared" si="557"/>
         <v>28/8/1998</v>
       </c>
-      <c r="W246" s="157">
+      <c r="W246" s="160">
         <v>6</v>
       </c>
-      <c r="X246" s="157">
+      <c r="X246" s="160">
         <v>10</v>
       </c>
-      <c r="Y246" s="157">
+      <c r="Y246" s="160">
         <v>2021</v>
       </c>
-      <c r="Z246" s="157" t="str">
-        <f t="shared" si="542"/>
+      <c r="Z246" s="160" t="str">
+        <f t="shared" si="556"/>
         <v>6/10/2021</v>
       </c>
     </row>
@@ -23916,7 +24306,7 @@
       </c>
       <c r="I247" s="147"/>
       <c r="J247" s="150" t="str">
-        <f t="shared" si="544"/>
+        <f t="shared" si="558"/>
         <v>ProVisioNET_study_108_08_label</v>
       </c>
       <c r="K247" s="147" t="s">
@@ -23999,7 +24389,7 @@
         <v>1</v>
       </c>
       <c r="J248" s="150" t="str">
-        <f t="shared" ref="J248:J255" si="545">CONCATENATE(C248,"_",D248,"_",E248,"_",F248,"_",H248,"_",I248)</f>
+        <f t="shared" ref="J248:J255" si="559">CONCATENATE(C248,"_",D248,"_",E248,"_",F248,"_",H248,"_",I248)</f>
         <v>ProVisioNET_study_108_08_cam1_1</v>
       </c>
       <c r="K248" s="156" t="s">
@@ -24049,7 +24439,7 @@
         <v>2021</v>
       </c>
       <c r="Z248" s="157" t="str">
-        <f t="shared" ref="Z248:Z262" si="546">W248&amp;"/"&amp;X248&amp;"/"&amp;Y248</f>
+        <f t="shared" ref="Z248:Z262" si="560">W248&amp;"/"&amp;X248&amp;"/"&amp;Y248</f>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24082,7 +24472,7 @@
         <v>2</v>
       </c>
       <c r="J249" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam1_2</v>
       </c>
       <c r="K249" s="156" t="s">
@@ -24119,7 +24509,7 @@
         <v>1997</v>
       </c>
       <c r="V249" s="163" t="str">
-        <f t="shared" ref="V249:V262" si="547">"14/5/1997"</f>
+        <f t="shared" ref="V249:V262" si="561">"14/5/1997"</f>
         <v>14/5/1997</v>
       </c>
       <c r="W249" s="157">
@@ -24132,7 +24522,7 @@
         <v>2021</v>
       </c>
       <c r="Z249" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24165,7 +24555,7 @@
         <v>1</v>
       </c>
       <c r="J250" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam2_1</v>
       </c>
       <c r="K250" s="156" t="s">
@@ -24202,7 +24592,7 @@
         <v>1997</v>
       </c>
       <c r="V250" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W250" s="157">
@@ -24215,7 +24605,7 @@
         <v>2021</v>
       </c>
       <c r="Z250" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24248,7 +24638,7 @@
         <v>2</v>
       </c>
       <c r="J251" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam2_2</v>
       </c>
       <c r="K251" s="156" t="s">
@@ -24285,7 +24675,7 @@
         <v>1997</v>
       </c>
       <c r="V251" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W251" s="157">
@@ -24298,7 +24688,7 @@
         <v>2021</v>
       </c>
       <c r="Z251" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24331,7 +24721,7 @@
         <v>1</v>
       </c>
       <c r="J252" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam3_1</v>
       </c>
       <c r="K252" s="156" t="s">
@@ -24368,7 +24758,7 @@
         <v>1997</v>
       </c>
       <c r="V252" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W252" s="157">
@@ -24381,7 +24771,7 @@
         <v>2021</v>
       </c>
       <c r="Z252" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24414,7 +24804,7 @@
         <v>2</v>
       </c>
       <c r="J253" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam3_2</v>
       </c>
       <c r="K253" s="156" t="s">
@@ -24451,7 +24841,7 @@
         <v>1997</v>
       </c>
       <c r="V253" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W253" s="157">
@@ -24464,7 +24854,7 @@
         <v>2021</v>
       </c>
       <c r="Z253" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24497,7 +24887,7 @@
         <v>1</v>
       </c>
       <c r="J254" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam4_1</v>
       </c>
       <c r="K254" s="156" t="s">
@@ -24534,7 +24924,7 @@
         <v>1997</v>
       </c>
       <c r="V254" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W254" s="157">
@@ -24547,7 +24937,7 @@
         <v>2021</v>
       </c>
       <c r="Z254" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24580,7 +24970,7 @@
         <v>2</v>
       </c>
       <c r="J255" s="150" t="str">
-        <f t="shared" si="545"/>
+        <f t="shared" si="559"/>
         <v>ProVisioNET_study_108_08_cam4_2</v>
       </c>
       <c r="K255" s="156" t="s">
@@ -24617,7 +25007,7 @@
         <v>1997</v>
       </c>
       <c r="V255" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W255" s="157">
@@ -24630,7 +25020,7 @@
         <v>2021</v>
       </c>
       <c r="Z255" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24660,7 +25050,7 @@
         <v>120</v>
       </c>
       <c r="J256" s="150" t="str">
-        <f t="shared" ref="J256:J263" si="548">CONCATENATE(C256,"_",D256,"_",E256,"_",F256,"_",H256)</f>
+        <f t="shared" ref="J256:J263" si="562">CONCATENATE(C256,"_",D256,"_",E256,"_",F256,"_",H256)</f>
         <v>ProVisioNET_study_108_08_glasses</v>
       </c>
       <c r="K256" s="156" t="s">
@@ -24697,7 +25087,7 @@
         <v>1997</v>
       </c>
       <c r="V256" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W256" s="157">
@@ -24710,7 +25100,7 @@
         <v>2021</v>
       </c>
       <c r="Z256" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24740,7 +25130,7 @@
         <v>121</v>
       </c>
       <c r="J257" s="150" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_108_08_ambient</v>
       </c>
       <c r="K257" s="156" t="s">
@@ -24777,7 +25167,7 @@
         <v>1997</v>
       </c>
       <c r="V257" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W257" s="157">
@@ -24790,7 +25180,7 @@
         <v>2021</v>
       </c>
       <c r="Z257" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24820,7 +25210,7 @@
         <v>122</v>
       </c>
       <c r="J258" s="150" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_108_08_ETrawdata</v>
       </c>
       <c r="K258" s="156" t="s">
@@ -24857,7 +25247,7 @@
         <v>1997</v>
       </c>
       <c r="V258" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W258" s="157">
@@ -24870,7 +25260,7 @@
         <v>2021</v>
       </c>
       <c r="Z258" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24900,7 +25290,7 @@
         <v>186</v>
       </c>
       <c r="J259" s="150" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_108_08_sri_obs</v>
       </c>
       <c r="K259" s="156" t="s">
@@ -24937,7 +25327,7 @@
         <v>1997</v>
       </c>
       <c r="V259" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W259" s="157">
@@ -24950,7 +25340,7 @@
         <v>2021</v>
       </c>
       <c r="Z259" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -24980,7 +25370,7 @@
         <v>180</v>
       </c>
       <c r="J260" s="150" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_108_08_sri_ambient</v>
       </c>
       <c r="K260" s="156" t="s">
@@ -25017,7 +25407,7 @@
         <v>1997</v>
       </c>
       <c r="V260" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W260" s="157">
@@ -25030,7 +25420,7 @@
         <v>2021</v>
       </c>
       <c r="Z260" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -25060,7 +25450,7 @@
         <v>199</v>
       </c>
       <c r="J261" s="150" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_108_08_fitbit</v>
       </c>
       <c r="K261" s="156" t="s">
@@ -25097,7 +25487,7 @@
         <v>1997</v>
       </c>
       <c r="V261" s="163" t="str">
-        <f t="shared" si="547"/>
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
       <c r="W261" s="157">
@@ -25110,85 +25500,85 @@
         <v>2021</v>
       </c>
       <c r="Z261" s="157" t="str">
-        <f t="shared" si="546"/>
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="5">
         <v>11</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D262" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E262" s="155" t="s">
+      <c r="D262" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E262" s="161" t="s">
         <v>219</v>
       </c>
-      <c r="F262" s="162" t="s">
+      <c r="F262" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="G262" s="150">
+      <c r="G262" s="160">
         <v>11</v>
       </c>
       <c r="H262" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J262" s="160" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_108_08_zed</v>
       </c>
-      <c r="K262" s="156"/>
-      <c r="L262" s="3" t="s">
+      <c r="K262" s="165"/>
+      <c r="L262" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M262" s="3" t="s">
+      <c r="M262" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N262" s="3">
+      <c r="N262" s="5">
         <v>10</v>
       </c>
-      <c r="O262" s="3" t="s">
+      <c r="O262" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="P262" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q262" s="157" t="s">
+      <c r="P262" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R262" s="157" t="s">
+      <c r="R262" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S262" s="3">
+      <c r="S262" s="5">
         <v>14</v>
       </c>
-      <c r="T262" s="3">
+      <c r="T262" s="5">
         <v>5</v>
       </c>
-      <c r="U262" s="3">
+      <c r="U262" s="5">
         <v>1997</v>
       </c>
-      <c r="V262" s="163" t="str">
-        <f t="shared" si="547"/>
+      <c r="V262" s="168" t="str">
+        <f t="shared" si="561"/>
         <v>14/5/1997</v>
       </c>
-      <c r="W262" s="157">
+      <c r="W262" s="160">
         <v>13</v>
       </c>
-      <c r="X262" s="157">
+      <c r="X262" s="160">
         <v>10</v>
       </c>
-      <c r="Y262" s="157">
+      <c r="Y262" s="160">
         <v>2021</v>
       </c>
-      <c r="Z262" s="157" t="str">
-        <f t="shared" si="546"/>
+      <c r="Z262" s="160" t="str">
+        <f t="shared" si="560"/>
         <v>13/10/2021</v>
       </c>
     </row>
@@ -25219,7 +25609,7 @@
       </c>
       <c r="I263" s="147"/>
       <c r="J263" s="150" t="str">
-        <f t="shared" si="548"/>
+        <f t="shared" si="562"/>
         <v>ProVisioNET_study_109_01_label</v>
       </c>
       <c r="K263" s="147" t="s">
@@ -25302,7 +25692,7 @@
         <v>1</v>
       </c>
       <c r="J264" s="150" t="str">
-        <f t="shared" ref="J264:J271" si="549">CONCATENATE(C264,"_",D264,"_",E264,"_",F264,"_",H264,"_",I264)</f>
+        <f t="shared" ref="J264:J271" si="563">CONCATENATE(C264,"_",D264,"_",E264,"_",F264,"_",H264,"_",I264)</f>
         <v>ProVisioNET_study_109_01_cam1_1</v>
       </c>
       <c r="K264" s="156" t="s">
@@ -25352,7 +25742,7 @@
         <v>2021</v>
       </c>
       <c r="Z264" s="157" t="str">
-        <f t="shared" ref="Z264:Z278" si="550">W264&amp;"/"&amp;X264&amp;"/"&amp;Y264</f>
+        <f t="shared" ref="Z264:Z278" si="564">W264&amp;"/"&amp;X264&amp;"/"&amp;Y264</f>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25385,7 +25775,7 @@
         <v>2</v>
       </c>
       <c r="J265" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam1_2</v>
       </c>
       <c r="K265" s="156" t="s">
@@ -25422,7 +25812,7 @@
         <v>1998</v>
       </c>
       <c r="V265" s="163" t="str">
-        <f t="shared" ref="V265:V278" si="551">"7/4/1998"</f>
+        <f t="shared" ref="V265:V278" si="565">"7/4/1998"</f>
         <v>7/4/1998</v>
       </c>
       <c r="W265" s="157">
@@ -25435,7 +25825,7 @@
         <v>2021</v>
       </c>
       <c r="Z265" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25468,7 +25858,7 @@
         <v>1</v>
       </c>
       <c r="J266" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam2_1</v>
       </c>
       <c r="K266" s="156" t="s">
@@ -25505,7 +25895,7 @@
         <v>1998</v>
       </c>
       <c r="V266" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W266" s="157">
@@ -25518,7 +25908,7 @@
         <v>2021</v>
       </c>
       <c r="Z266" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25551,7 +25941,7 @@
         <v>2</v>
       </c>
       <c r="J267" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam2_2</v>
       </c>
       <c r="K267" s="156" t="s">
@@ -25588,7 +25978,7 @@
         <v>1998</v>
       </c>
       <c r="V267" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W267" s="157">
@@ -25601,7 +25991,7 @@
         <v>2021</v>
       </c>
       <c r="Z267" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25634,7 +26024,7 @@
         <v>1</v>
       </c>
       <c r="J268" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam3_1</v>
       </c>
       <c r="K268" s="156" t="s">
@@ -25671,7 +26061,7 @@
         <v>1998</v>
       </c>
       <c r="V268" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W268" s="157">
@@ -25684,7 +26074,7 @@
         <v>2021</v>
       </c>
       <c r="Z268" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25717,7 +26107,7 @@
         <v>2</v>
       </c>
       <c r="J269" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam3_2</v>
       </c>
       <c r="K269" s="156" t="s">
@@ -25754,7 +26144,7 @@
         <v>1998</v>
       </c>
       <c r="V269" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W269" s="157">
@@ -25767,7 +26157,7 @@
         <v>2021</v>
       </c>
       <c r="Z269" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25800,7 +26190,7 @@
         <v>1</v>
       </c>
       <c r="J270" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam4_1</v>
       </c>
       <c r="K270" s="156" t="s">
@@ -25837,7 +26227,7 @@
         <v>1998</v>
       </c>
       <c r="V270" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W270" s="157">
@@ -25850,7 +26240,7 @@
         <v>2021</v>
       </c>
       <c r="Z270" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25883,7 +26273,7 @@
         <v>2</v>
       </c>
       <c r="J271" s="150" t="str">
-        <f t="shared" si="549"/>
+        <f t="shared" si="563"/>
         <v>ProVisioNET_study_109_01_cam4_2</v>
       </c>
       <c r="K271" s="156" t="s">
@@ -25920,7 +26310,7 @@
         <v>1998</v>
       </c>
       <c r="V271" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W271" s="157">
@@ -25933,7 +26323,7 @@
         <v>2021</v>
       </c>
       <c r="Z271" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -25963,7 +26353,7 @@
         <v>120</v>
       </c>
       <c r="J272" s="150" t="str">
-        <f t="shared" ref="J272:J279" si="552">CONCATENATE(C272,"_",D272,"_",E272,"_",F272,"_",H272)</f>
+        <f t="shared" ref="J272:J279" si="566">CONCATENATE(C272,"_",D272,"_",E272,"_",F272,"_",H272)</f>
         <v>ProVisioNET_study_109_01_glasses</v>
       </c>
       <c r="K272" s="156" t="s">
@@ -26000,7 +26390,7 @@
         <v>1998</v>
       </c>
       <c r="V272" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W272" s="157">
@@ -26013,7 +26403,7 @@
         <v>2021</v>
       </c>
       <c r="Z272" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -26043,7 +26433,7 @@
         <v>121</v>
       </c>
       <c r="J273" s="150" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_109_01_ambient</v>
       </c>
       <c r="K273" s="156" t="s">
@@ -26080,7 +26470,7 @@
         <v>1998</v>
       </c>
       <c r="V273" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W273" s="157">
@@ -26093,7 +26483,7 @@
         <v>2021</v>
       </c>
       <c r="Z273" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -26123,7 +26513,7 @@
         <v>122</v>
       </c>
       <c r="J274" s="150" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_109_01_ETrawdata</v>
       </c>
       <c r="K274" s="156" t="s">
@@ -26160,7 +26550,7 @@
         <v>1998</v>
       </c>
       <c r="V274" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W274" s="157">
@@ -26173,7 +26563,7 @@
         <v>2021</v>
       </c>
       <c r="Z274" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -26203,7 +26593,7 @@
         <v>186</v>
       </c>
       <c r="J275" s="150" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_109_01_sri_obs</v>
       </c>
       <c r="K275" s="156" t="s">
@@ -26240,7 +26630,7 @@
         <v>1998</v>
       </c>
       <c r="V275" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W275" s="157">
@@ -26253,7 +26643,7 @@
         <v>2021</v>
       </c>
       <c r="Z275" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -26283,7 +26673,7 @@
         <v>180</v>
       </c>
       <c r="J276" s="150" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_109_01_sri_ambient</v>
       </c>
       <c r="K276" s="156" t="s">
@@ -26320,7 +26710,7 @@
         <v>1998</v>
       </c>
       <c r="V276" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W276" s="157">
@@ -26333,7 +26723,7 @@
         <v>2021</v>
       </c>
       <c r="Z276" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -26363,7 +26753,7 @@
         <v>199</v>
       </c>
       <c r="J277" s="150" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_109_01_fitbit</v>
       </c>
       <c r="K277" s="156" t="s">
@@ -26400,7 +26790,7 @@
         <v>1998</v>
       </c>
       <c r="V277" s="163" t="str">
-        <f t="shared" si="551"/>
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
       <c r="W277" s="157">
@@ -26413,85 +26803,85 @@
         <v>2021</v>
       </c>
       <c r="Z277" s="157" t="str">
-        <f t="shared" si="550"/>
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="5">
         <v>12</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E278" s="155" t="s">
+      <c r="D278" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E278" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="F278" s="162" t="s">
+      <c r="F278" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="G278" s="150">
+      <c r="G278" s="160">
         <v>12</v>
       </c>
       <c r="H278" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J278" s="160" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_109_01_zed</v>
       </c>
-      <c r="K278" s="156"/>
-      <c r="L278" s="3" t="s">
+      <c r="K278" s="165"/>
+      <c r="L278" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M278" s="3" t="s">
+      <c r="M278" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N278" s="3">
+      <c r="N278" s="5">
         <v>10</v>
       </c>
-      <c r="O278" s="3" t="s">
+      <c r="O278" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="P278" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q278" s="157" t="s">
+      <c r="P278" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R278" s="157" t="s">
+      <c r="R278" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S278" s="3">
+      <c r="S278" s="5">
         <v>7</v>
       </c>
-      <c r="T278" s="3">
+      <c r="T278" s="5">
         <v>4</v>
       </c>
-      <c r="U278" s="3">
+      <c r="U278" s="5">
         <v>1998</v>
       </c>
-      <c r="V278" s="163" t="str">
-        <f t="shared" si="551"/>
+      <c r="V278" s="168" t="str">
+        <f t="shared" si="565"/>
         <v>7/4/1998</v>
       </c>
-      <c r="W278" s="157">
+      <c r="W278" s="160">
         <v>18</v>
       </c>
-      <c r="X278" s="157">
+      <c r="X278" s="160">
         <v>10</v>
       </c>
-      <c r="Y278" s="157">
+      <c r="Y278" s="160">
         <v>2021</v>
       </c>
-      <c r="Z278" s="157" t="str">
-        <f t="shared" si="550"/>
+      <c r="Z278" s="160" t="str">
+        <f t="shared" si="564"/>
         <v>18/10/2021</v>
       </c>
     </row>
@@ -26522,7 +26912,7 @@
       </c>
       <c r="I279" s="147"/>
       <c r="J279" s="150" t="str">
-        <f t="shared" si="552"/>
+        <f t="shared" si="566"/>
         <v>ProVisioNET_study_110_02_label</v>
       </c>
       <c r="K279" s="147" t="s">
@@ -26531,8 +26921,12 @@
       <c r="L279" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="M279" s="147"/>
-      <c r="N279" s="147"/>
+      <c r="M279" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="N279" s="147">
+        <v>8</v>
+      </c>
       <c r="O279" s="147" t="s">
         <v>218</v>
       </c>
@@ -26601,7 +26995,7 @@
         <v>1</v>
       </c>
       <c r="J280" s="150" t="str">
-        <f t="shared" ref="J280:J287" si="553">CONCATENATE(C280,"_",D280,"_",E280,"_",F280,"_",H280,"_",I280)</f>
+        <f t="shared" ref="J280:J287" si="567">CONCATENATE(C280,"_",D280,"_",E280,"_",F280,"_",H280,"_",I280)</f>
         <v>ProVisioNET_study_110_02_cam1_1</v>
       </c>
       <c r="K280" s="156" t="s">
@@ -26610,8 +27004,12 @@
       <c r="L280" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
+      <c r="M280" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N280" s="3">
+        <v>8</v>
+      </c>
       <c r="O280" s="3" t="s">
         <v>218</v>
       </c>
@@ -26647,7 +27045,7 @@
         <v>2021</v>
       </c>
       <c r="Z280" s="157" t="str">
-        <f t="shared" ref="Z280:Z294" si="554">W280&amp;"/"&amp;X280&amp;"/"&amp;Y280</f>
+        <f t="shared" ref="Z280:Z294" si="568">W280&amp;"/"&amp;X280&amp;"/"&amp;Y280</f>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -26680,7 +27078,7 @@
         <v>2</v>
       </c>
       <c r="J281" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam1_2</v>
       </c>
       <c r="K281" s="156" t="s">
@@ -26689,8 +27087,12 @@
       <c r="L281" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
+      <c r="M281" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N281" s="3">
+        <v>8</v>
+      </c>
       <c r="O281" s="3" t="s">
         <v>218</v>
       </c>
@@ -26713,7 +27115,7 @@
         <v>1998</v>
       </c>
       <c r="V281" s="163" t="str">
-        <f t="shared" ref="V281:V294" si="555">"18/8/1998"</f>
+        <f t="shared" ref="V281:V294" si="569">"18/8/1998"</f>
         <v>18/8/1998</v>
       </c>
       <c r="W281" s="157">
@@ -26726,7 +27128,7 @@
         <v>2021</v>
       </c>
       <c r="Z281" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -26759,7 +27161,7 @@
         <v>1</v>
       </c>
       <c r="J282" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam2_1</v>
       </c>
       <c r="K282" s="156" t="s">
@@ -26768,8 +27170,12 @@
       <c r="L282" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
+      <c r="M282" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N282" s="3">
+        <v>8</v>
+      </c>
       <c r="O282" s="3" t="s">
         <v>218</v>
       </c>
@@ -26792,7 +27198,7 @@
         <v>1998</v>
       </c>
       <c r="V282" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W282" s="157">
@@ -26805,7 +27211,7 @@
         <v>2021</v>
       </c>
       <c r="Z282" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -26838,7 +27244,7 @@
         <v>2</v>
       </c>
       <c r="J283" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam2_2</v>
       </c>
       <c r="K283" s="156" t="s">
@@ -26847,8 +27253,12 @@
       <c r="L283" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
+      <c r="M283" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N283" s="3">
+        <v>8</v>
+      </c>
       <c r="O283" s="3" t="s">
         <v>218</v>
       </c>
@@ -26871,7 +27281,7 @@
         <v>1998</v>
       </c>
       <c r="V283" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W283" s="157">
@@ -26884,7 +27294,7 @@
         <v>2021</v>
       </c>
       <c r="Z283" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -26917,7 +27327,7 @@
         <v>1</v>
       </c>
       <c r="J284" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam3_1</v>
       </c>
       <c r="K284" s="156" t="s">
@@ -26926,8 +27336,12 @@
       <c r="L284" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M284" s="3"/>
-      <c r="N284" s="3"/>
+      <c r="M284" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N284" s="3">
+        <v>8</v>
+      </c>
       <c r="O284" s="3" t="s">
         <v>218</v>
       </c>
@@ -26950,7 +27364,7 @@
         <v>1998</v>
       </c>
       <c r="V284" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W284" s="157">
@@ -26963,7 +27377,7 @@
         <v>2021</v>
       </c>
       <c r="Z284" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -26996,7 +27410,7 @@
         <v>2</v>
       </c>
       <c r="J285" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam3_2</v>
       </c>
       <c r="K285" s="156" t="s">
@@ -27005,8 +27419,12 @@
       <c r="L285" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
+      <c r="M285" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N285" s="3">
+        <v>8</v>
+      </c>
       <c r="O285" s="3" t="s">
         <v>218</v>
       </c>
@@ -27029,7 +27447,7 @@
         <v>1998</v>
       </c>
       <c r="V285" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W285" s="157">
@@ -27042,7 +27460,7 @@
         <v>2021</v>
       </c>
       <c r="Z285" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27075,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="J286" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam4_1</v>
       </c>
       <c r="K286" s="156" t="s">
@@ -27084,8 +27502,12 @@
       <c r="L286" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
+      <c r="M286" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N286" s="3">
+        <v>8</v>
+      </c>
       <c r="O286" s="3" t="s">
         <v>218</v>
       </c>
@@ -27108,7 +27530,7 @@
         <v>1998</v>
       </c>
       <c r="V286" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W286" s="157">
@@ -27121,7 +27543,7 @@
         <v>2021</v>
       </c>
       <c r="Z286" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27154,7 +27576,7 @@
         <v>2</v>
       </c>
       <c r="J287" s="150" t="str">
-        <f t="shared" si="553"/>
+        <f t="shared" si="567"/>
         <v>ProVisioNET_study_110_02_cam4_2</v>
       </c>
       <c r="K287" s="156" t="s">
@@ -27163,8 +27585,12 @@
       <c r="L287" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M287" s="3"/>
-      <c r="N287" s="3"/>
+      <c r="M287" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N287" s="3">
+        <v>8</v>
+      </c>
       <c r="O287" s="3" t="s">
         <v>218</v>
       </c>
@@ -27187,7 +27613,7 @@
         <v>1998</v>
       </c>
       <c r="V287" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W287" s="157">
@@ -27200,7 +27626,7 @@
         <v>2021</v>
       </c>
       <c r="Z287" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27230,7 +27656,7 @@
         <v>120</v>
       </c>
       <c r="J288" s="150" t="str">
-        <f t="shared" ref="J288:J295" si="556">CONCATENATE(C288,"_",D288,"_",E288,"_",F288,"_",H288)</f>
+        <f t="shared" ref="J288:J295" si="570">CONCATENATE(C288,"_",D288,"_",E288,"_",F288,"_",H288)</f>
         <v>ProVisioNET_study_110_02_glasses</v>
       </c>
       <c r="K288" s="156" t="s">
@@ -27239,8 +27665,12 @@
       <c r="L288" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M288" s="3"/>
-      <c r="N288" s="3"/>
+      <c r="M288" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N288" s="3">
+        <v>8</v>
+      </c>
       <c r="O288" s="3" t="s">
         <v>218</v>
       </c>
@@ -27263,7 +27693,7 @@
         <v>1998</v>
       </c>
       <c r="V288" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W288" s="157">
@@ -27276,7 +27706,7 @@
         <v>2021</v>
       </c>
       <c r="Z288" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27306,7 +27736,7 @@
         <v>121</v>
       </c>
       <c r="J289" s="150" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_110_02_ambient</v>
       </c>
       <c r="K289" s="156" t="s">
@@ -27315,8 +27745,12 @@
       <c r="L289" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M289" s="3"/>
-      <c r="N289" s="3"/>
+      <c r="M289" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N289" s="3">
+        <v>8</v>
+      </c>
       <c r="O289" s="3" t="s">
         <v>218</v>
       </c>
@@ -27339,7 +27773,7 @@
         <v>1998</v>
       </c>
       <c r="V289" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W289" s="157">
@@ -27352,7 +27786,7 @@
         <v>2021</v>
       </c>
       <c r="Z289" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27382,7 +27816,7 @@
         <v>122</v>
       </c>
       <c r="J290" s="150" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_110_02_ETrawdata</v>
       </c>
       <c r="K290" s="156" t="s">
@@ -27391,8 +27825,12 @@
       <c r="L290" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M290" s="3"/>
-      <c r="N290" s="3"/>
+      <c r="M290" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N290" s="3">
+        <v>8</v>
+      </c>
       <c r="O290" s="3" t="s">
         <v>218</v>
       </c>
@@ -27415,7 +27853,7 @@
         <v>1998</v>
       </c>
       <c r="V290" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W290" s="157">
@@ -27428,7 +27866,7 @@
         <v>2021</v>
       </c>
       <c r="Z290" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27458,7 +27896,7 @@
         <v>186</v>
       </c>
       <c r="J291" s="150" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_110_02_sri_obs</v>
       </c>
       <c r="K291" s="156" t="s">
@@ -27467,8 +27905,12 @@
       <c r="L291" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M291" s="3"/>
-      <c r="N291" s="3"/>
+      <c r="M291" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N291" s="3">
+        <v>8</v>
+      </c>
       <c r="O291" s="3" t="s">
         <v>218</v>
       </c>
@@ -27491,7 +27933,7 @@
         <v>1998</v>
       </c>
       <c r="V291" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W291" s="157">
@@ -27504,7 +27946,7 @@
         <v>2021</v>
       </c>
       <c r="Z291" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27534,7 +27976,7 @@
         <v>180</v>
       </c>
       <c r="J292" s="150" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_110_02_sri_ambient</v>
       </c>
       <c r="K292" s="156" t="s">
@@ -27543,8 +27985,12 @@
       <c r="L292" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M292" s="3"/>
-      <c r="N292" s="3"/>
+      <c r="M292" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N292" s="3">
+        <v>8</v>
+      </c>
       <c r="O292" s="3" t="s">
         <v>218</v>
       </c>
@@ -27567,7 +28013,7 @@
         <v>1998</v>
       </c>
       <c r="V292" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W292" s="157">
@@ -27580,7 +28026,7 @@
         <v>2021</v>
       </c>
       <c r="Z292" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27610,7 +28056,7 @@
         <v>199</v>
       </c>
       <c r="J293" s="150" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_110_02_fitbit</v>
       </c>
       <c r="K293" s="156" t="s">
@@ -27619,8 +28065,12 @@
       <c r="L293" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M293" s="3"/>
-      <c r="N293" s="3"/>
+      <c r="M293" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N293" s="3">
+        <v>8</v>
+      </c>
       <c r="O293" s="3" t="s">
         <v>218</v>
       </c>
@@ -27643,7 +28093,7 @@
         <v>1998</v>
       </c>
       <c r="V293" s="163" t="str">
-        <f t="shared" si="555"/>
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
       <c r="W293" s="157">
@@ -27656,81 +28106,85 @@
         <v>2021</v>
       </c>
       <c r="Z293" s="157" t="str">
-        <f t="shared" si="554"/>
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="5">
         <v>13</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D294" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E294" s="155" t="s">
+      <c r="D294" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E294" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="F294" s="162" t="s">
+      <c r="F294" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="G294" s="150">
+      <c r="G294" s="160">
         <v>13</v>
       </c>
       <c r="H294" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J294" s="160" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_110_02_zed</v>
       </c>
-      <c r="K294" s="156"/>
-      <c r="L294" s="3" t="s">
+      <c r="K294" s="165"/>
+      <c r="L294" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M294" s="3"/>
-      <c r="N294" s="3"/>
-      <c r="O294" s="3" t="s">
+      <c r="M294" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N294" s="5">
+        <v>8</v>
+      </c>
+      <c r="O294" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="P294" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q294" s="157" t="s">
+      <c r="P294" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R294" s="157" t="s">
+      <c r="R294" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S294" s="3">
+      <c r="S294" s="5">
         <v>18</v>
       </c>
-      <c r="T294" s="3">
+      <c r="T294" s="5">
         <v>8</v>
       </c>
-      <c r="U294" s="3">
+      <c r="U294" s="5">
         <v>1998</v>
       </c>
-      <c r="V294" s="163" t="str">
-        <f t="shared" si="555"/>
+      <c r="V294" s="168" t="str">
+        <f t="shared" si="569"/>
         <v>18/8/1998</v>
       </c>
-      <c r="W294" s="157">
+      <c r="W294" s="160">
         <v>8</v>
       </c>
-      <c r="X294" s="157">
+      <c r="X294" s="160">
         <v>11</v>
       </c>
-      <c r="Y294" s="157">
+      <c r="Y294" s="160">
         <v>2021</v>
       </c>
-      <c r="Z294" s="157" t="str">
-        <f t="shared" si="554"/>
+      <c r="Z294" s="160" t="str">
+        <f t="shared" si="568"/>
         <v>8/11/2021</v>
       </c>
     </row>
@@ -27761,7 +28215,7 @@
       </c>
       <c r="I295" s="147"/>
       <c r="J295" s="150" t="str">
-        <f t="shared" si="556"/>
+        <f t="shared" si="570"/>
         <v>ProVisioNET_study_204_04_label</v>
       </c>
       <c r="K295" s="147" t="s">
@@ -27770,13 +28224,17 @@
       <c r="L295" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="M295" s="147"/>
-      <c r="N295" s="147"/>
+      <c r="M295" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="N295" s="147">
+        <v>7</v>
+      </c>
       <c r="O295" s="147" t="s">
         <v>218</v>
       </c>
       <c r="P295" s="147">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q295" s="152" t="s">
         <v>11</v>
@@ -27840,7 +28298,7 @@
         <v>1</v>
       </c>
       <c r="J296" s="150" t="str">
-        <f t="shared" ref="J296:J303" si="557">CONCATENATE(C296,"_",D296,"_",E296,"_",F296,"_",H296,"_",I296)</f>
+        <f t="shared" ref="J296:J303" si="571">CONCATENATE(C296,"_",D296,"_",E296,"_",F296,"_",H296,"_",I296)</f>
         <v>ProVisioNET_study_204_04_cam1_1</v>
       </c>
       <c r="K296" s="156" t="s">
@@ -27849,13 +28307,17 @@
       <c r="L296" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M296" s="3"/>
-      <c r="N296" s="3"/>
+      <c r="M296" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N296" s="3">
+        <v>7</v>
+      </c>
       <c r="O296" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P296" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q296" s="157" t="s">
         <v>11</v>
@@ -27886,7 +28348,7 @@
         <v>2021</v>
       </c>
       <c r="Z296" s="157" t="str">
-        <f t="shared" ref="Z296:Z310" si="558">W296&amp;"/"&amp;X296&amp;"/"&amp;Y296</f>
+        <f t="shared" ref="Z296:Z310" si="572">W296&amp;"/"&amp;X296&amp;"/"&amp;Y296</f>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -27919,7 +28381,7 @@
         <v>2</v>
       </c>
       <c r="J297" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam1_2</v>
       </c>
       <c r="K297" s="156" t="s">
@@ -27928,13 +28390,17 @@
       <c r="L297" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M297" s="3"/>
-      <c r="N297" s="3"/>
+      <c r="M297" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N297" s="3">
+        <v>7</v>
+      </c>
       <c r="O297" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P297" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q297" s="157" t="s">
         <v>11</v>
@@ -27952,7 +28418,7 @@
         <v>1962</v>
       </c>
       <c r="V297" s="163" t="str">
-        <f t="shared" ref="V297:V310" si="559">"7/9/1962"</f>
+        <f t="shared" ref="V297:V310" si="573">"7/9/1962"</f>
         <v>7/9/1962</v>
       </c>
       <c r="W297" s="157">
@@ -27965,7 +28431,7 @@
         <v>2021</v>
       </c>
       <c r="Z297" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -27998,7 +28464,7 @@
         <v>1</v>
       </c>
       <c r="J298" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam2_1</v>
       </c>
       <c r="K298" s="156" t="s">
@@ -28007,13 +28473,17 @@
       <c r="L298" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M298" s="3"/>
-      <c r="N298" s="3"/>
+      <c r="M298" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N298" s="3">
+        <v>7</v>
+      </c>
       <c r="O298" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P298" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q298" s="157" t="s">
         <v>11</v>
@@ -28031,7 +28501,7 @@
         <v>1962</v>
       </c>
       <c r="V298" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W298" s="157">
@@ -28044,7 +28514,7 @@
         <v>2021</v>
       </c>
       <c r="Z298" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28077,7 +28547,7 @@
         <v>2</v>
       </c>
       <c r="J299" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam2_2</v>
       </c>
       <c r="K299" s="156" t="s">
@@ -28086,13 +28556,17 @@
       <c r="L299" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M299" s="3"/>
-      <c r="N299" s="3"/>
+      <c r="M299" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N299" s="3">
+        <v>7</v>
+      </c>
       <c r="O299" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P299" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q299" s="157" t="s">
         <v>11</v>
@@ -28110,7 +28584,7 @@
         <v>1962</v>
       </c>
       <c r="V299" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W299" s="157">
@@ -28123,7 +28597,7 @@
         <v>2021</v>
       </c>
       <c r="Z299" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28156,7 +28630,7 @@
         <v>1</v>
       </c>
       <c r="J300" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam3_1</v>
       </c>
       <c r="K300" s="156" t="s">
@@ -28165,13 +28639,17 @@
       <c r="L300" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M300" s="3"/>
-      <c r="N300" s="3"/>
+      <c r="M300" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N300" s="3">
+        <v>7</v>
+      </c>
       <c r="O300" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P300" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q300" s="157" t="s">
         <v>11</v>
@@ -28189,7 +28667,7 @@
         <v>1962</v>
       </c>
       <c r="V300" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W300" s="157">
@@ -28202,7 +28680,7 @@
         <v>2021</v>
       </c>
       <c r="Z300" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28235,7 +28713,7 @@
         <v>2</v>
       </c>
       <c r="J301" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam3_2</v>
       </c>
       <c r="K301" s="156" t="s">
@@ -28244,13 +28722,17 @@
       <c r="L301" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
+      <c r="M301" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N301" s="3">
+        <v>7</v>
+      </c>
       <c r="O301" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P301" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q301" s="157" t="s">
         <v>11</v>
@@ -28268,7 +28750,7 @@
         <v>1962</v>
       </c>
       <c r="V301" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W301" s="157">
@@ -28281,7 +28763,7 @@
         <v>2021</v>
       </c>
       <c r="Z301" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28314,7 +28796,7 @@
         <v>1</v>
       </c>
       <c r="J302" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam4_1</v>
       </c>
       <c r="K302" s="156" t="s">
@@ -28323,13 +28805,17 @@
       <c r="L302" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M302" s="3"/>
-      <c r="N302" s="3"/>
+      <c r="M302" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N302" s="3">
+        <v>7</v>
+      </c>
       <c r="O302" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P302" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q302" s="157" t="s">
         <v>11</v>
@@ -28347,7 +28833,7 @@
         <v>1962</v>
       </c>
       <c r="V302" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W302" s="157">
@@ -28360,7 +28846,7 @@
         <v>2021</v>
       </c>
       <c r="Z302" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28393,7 +28879,7 @@
         <v>2</v>
       </c>
       <c r="J303" s="150" t="str">
-        <f t="shared" si="557"/>
+        <f t="shared" si="571"/>
         <v>ProVisioNET_study_204_04_cam4_2</v>
       </c>
       <c r="K303" s="156" t="s">
@@ -28402,13 +28888,17 @@
       <c r="L303" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M303" s="3"/>
-      <c r="N303" s="3"/>
+      <c r="M303" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N303" s="3">
+        <v>7</v>
+      </c>
       <c r="O303" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P303" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q303" s="157" t="s">
         <v>11</v>
@@ -28426,7 +28916,7 @@
         <v>1962</v>
       </c>
       <c r="V303" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W303" s="157">
@@ -28439,7 +28929,7 @@
         <v>2021</v>
       </c>
       <c r="Z303" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28469,7 +28959,7 @@
         <v>120</v>
       </c>
       <c r="J304" s="150" t="str">
-        <f t="shared" ref="J304:J311" si="560">CONCATENATE(C304,"_",D304,"_",E304,"_",F304,"_",H304)</f>
+        <f t="shared" ref="J304:J311" si="574">CONCATENATE(C304,"_",D304,"_",E304,"_",F304,"_",H304)</f>
         <v>ProVisioNET_study_204_04_glasses</v>
       </c>
       <c r="K304" s="156" t="s">
@@ -28478,13 +28968,17 @@
       <c r="L304" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M304" s="3"/>
-      <c r="N304" s="3"/>
+      <c r="M304" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N304" s="3">
+        <v>7</v>
+      </c>
       <c r="O304" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P304" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q304" s="157" t="s">
         <v>11</v>
@@ -28502,7 +28996,7 @@
         <v>1962</v>
       </c>
       <c r="V304" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W304" s="157">
@@ -28515,7 +29009,7 @@
         <v>2021</v>
       </c>
       <c r="Z304" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28545,7 +29039,7 @@
         <v>121</v>
       </c>
       <c r="J305" s="150" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_204_04_ambient</v>
       </c>
       <c r="K305" s="156" t="s">
@@ -28554,13 +29048,17 @@
       <c r="L305" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M305" s="3"/>
-      <c r="N305" s="3"/>
+      <c r="M305" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N305" s="3">
+        <v>7</v>
+      </c>
       <c r="O305" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P305" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q305" s="157" t="s">
         <v>11</v>
@@ -28578,7 +29076,7 @@
         <v>1962</v>
       </c>
       <c r="V305" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W305" s="157">
@@ -28591,7 +29089,7 @@
         <v>2021</v>
       </c>
       <c r="Z305" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28621,7 +29119,7 @@
         <v>122</v>
       </c>
       <c r="J306" s="150" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_204_04_ETrawdata</v>
       </c>
       <c r="K306" s="156" t="s">
@@ -28630,13 +29128,17 @@
       <c r="L306" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M306" s="3"/>
-      <c r="N306" s="3"/>
+      <c r="M306" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N306" s="3">
+        <v>7</v>
+      </c>
       <c r="O306" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P306" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q306" s="157" t="s">
         <v>11</v>
@@ -28654,7 +29156,7 @@
         <v>1962</v>
       </c>
       <c r="V306" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W306" s="157">
@@ -28667,7 +29169,7 @@
         <v>2021</v>
       </c>
       <c r="Z306" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28697,7 +29199,7 @@
         <v>186</v>
       </c>
       <c r="J307" s="150" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_204_04_sri_obs</v>
       </c>
       <c r="K307" s="156" t="s">
@@ -28706,13 +29208,17 @@
       <c r="L307" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M307" s="3"/>
-      <c r="N307" s="3"/>
+      <c r="M307" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N307" s="3">
+        <v>7</v>
+      </c>
       <c r="O307" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P307" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q307" s="157" t="s">
         <v>11</v>
@@ -28730,7 +29236,7 @@
         <v>1962</v>
       </c>
       <c r="V307" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W307" s="157">
@@ -28743,7 +29249,7 @@
         <v>2021</v>
       </c>
       <c r="Z307" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28773,7 +29279,7 @@
         <v>180</v>
       </c>
       <c r="J308" s="150" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_204_04_sri_ambient</v>
       </c>
       <c r="K308" s="156" t="s">
@@ -28782,13 +29288,17 @@
       <c r="L308" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M308" s="3"/>
-      <c r="N308" s="3"/>
+      <c r="M308" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N308" s="3">
+        <v>7</v>
+      </c>
       <c r="O308" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P308" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q308" s="157" t="s">
         <v>11</v>
@@ -28806,7 +29316,7 @@
         <v>1962</v>
       </c>
       <c r="V308" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W308" s="157">
@@ -28819,7 +29329,7 @@
         <v>2021</v>
       </c>
       <c r="Z308" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -28849,7 +29359,7 @@
         <v>199</v>
       </c>
       <c r="J309" s="150" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_204_04_fitbit</v>
       </c>
       <c r="K309" s="156" t="s">
@@ -28858,13 +29368,17 @@
       <c r="L309" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M309" s="3"/>
-      <c r="N309" s="3"/>
+      <c r="M309" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N309" s="3">
+        <v>7</v>
+      </c>
       <c r="O309" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P309" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q309" s="157" t="s">
         <v>11</v>
@@ -28882,7 +29396,7 @@
         <v>1962</v>
       </c>
       <c r="V309" s="163" t="str">
-        <f t="shared" si="559"/>
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
       <c r="W309" s="157">
@@ -28895,81 +29409,85 @@
         <v>2021</v>
       </c>
       <c r="Z309" s="157" t="str">
-        <f t="shared" si="558"/>
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="310" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="5">
         <v>14</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D310" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E310" s="155" t="s">
+      <c r="D310" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="F310" s="162" t="s">
+      <c r="F310" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="G310" s="150">
+      <c r="G310" s="160">
         <v>14</v>
       </c>
       <c r="H310" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J310" s="160" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_204_04_zed</v>
       </c>
-      <c r="K310" s="156"/>
-      <c r="L310" s="3" t="s">
+      <c r="K310" s="165"/>
+      <c r="L310" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M310" s="3"/>
-      <c r="N310" s="3"/>
-      <c r="O310" s="3" t="s">
+      <c r="M310" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N310" s="5">
+        <v>7</v>
+      </c>
+      <c r="O310" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="P310" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q310" s="157" t="s">
+      <c r="P310" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q310" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R310" s="157" t="s">
+      <c r="R310" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S310" s="3">
+      <c r="S310" s="5">
         <v>7</v>
       </c>
-      <c r="T310" s="3">
+      <c r="T310" s="5">
         <v>9</v>
       </c>
-      <c r="U310" s="3">
+      <c r="U310" s="5">
         <v>1962</v>
       </c>
-      <c r="V310" s="163" t="str">
-        <f t="shared" si="559"/>
+      <c r="V310" s="168" t="str">
+        <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
-      <c r="W310" s="157">
+      <c r="W310" s="160">
         <v>12</v>
       </c>
-      <c r="X310" s="157">
+      <c r="X310" s="160">
         <v>11</v>
       </c>
-      <c r="Y310" s="157">
+      <c r="Y310" s="160">
         <v>2021</v>
       </c>
-      <c r="Z310" s="157" t="str">
-        <f t="shared" si="558"/>
+      <c r="Z310" s="160" t="str">
+        <f t="shared" si="572"/>
         <v>12/11/2021</v>
       </c>
     </row>
@@ -29000,7 +29518,7 @@
       </c>
       <c r="I311" s="147"/>
       <c r="J311" s="150" t="str">
-        <f t="shared" si="560"/>
+        <f t="shared" si="574"/>
         <v>ProVisioNET_study_111_03_label</v>
       </c>
       <c r="K311" s="147" t="s">
@@ -29083,7 +29601,7 @@
         <v>1</v>
       </c>
       <c r="J312" s="150" t="str">
-        <f t="shared" ref="J312:J319" si="561">CONCATENATE(C312,"_",D312,"_",E312,"_",F312,"_",H312,"_",I312)</f>
+        <f t="shared" ref="J312:J319" si="575">CONCATENATE(C312,"_",D312,"_",E312,"_",F312,"_",H312,"_",I312)</f>
         <v>ProVisioNET_study_111_03_cam1_1</v>
       </c>
       <c r="K312" s="156" t="s">
@@ -29133,7 +29651,7 @@
         <v>2021</v>
       </c>
       <c r="Z312" s="157" t="str">
-        <f t="shared" ref="Z312:Z326" si="562">W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
+        <f t="shared" ref="Z312:Z326" si="576">W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29166,7 +29684,7 @@
         <v>2</v>
       </c>
       <c r="J313" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam1_2</v>
       </c>
       <c r="K313" s="156" t="s">
@@ -29203,7 +29721,7 @@
         <v>2000</v>
       </c>
       <c r="V313" s="163" t="str">
-        <f t="shared" ref="V313:V326" si="563">"1/10/2000"</f>
+        <f t="shared" ref="V313:V326" si="577">"1/10/2000"</f>
         <v>1/10/2000</v>
       </c>
       <c r="W313" s="157">
@@ -29216,7 +29734,7 @@
         <v>2021</v>
       </c>
       <c r="Z313" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29249,7 +29767,7 @@
         <v>1</v>
       </c>
       <c r="J314" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam2_1</v>
       </c>
       <c r="K314" s="156" t="s">
@@ -29286,7 +29804,7 @@
         <v>2000</v>
       </c>
       <c r="V314" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W314" s="157">
@@ -29299,7 +29817,7 @@
         <v>2021</v>
       </c>
       <c r="Z314" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29332,7 +29850,7 @@
         <v>2</v>
       </c>
       <c r="J315" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam2_2</v>
       </c>
       <c r="K315" s="156" t="s">
@@ -29369,7 +29887,7 @@
         <v>2000</v>
       </c>
       <c r="V315" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W315" s="157">
@@ -29382,7 +29900,7 @@
         <v>2021</v>
       </c>
       <c r="Z315" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29415,7 +29933,7 @@
         <v>1</v>
       </c>
       <c r="J316" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam3_1</v>
       </c>
       <c r="K316" s="156" t="s">
@@ -29452,7 +29970,7 @@
         <v>2000</v>
       </c>
       <c r="V316" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W316" s="157">
@@ -29465,7 +29983,7 @@
         <v>2021</v>
       </c>
       <c r="Z316" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29498,7 +30016,7 @@
         <v>2</v>
       </c>
       <c r="J317" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam3_2</v>
       </c>
       <c r="K317" s="156" t="s">
@@ -29535,7 +30053,7 @@
         <v>2000</v>
       </c>
       <c r="V317" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W317" s="157">
@@ -29548,7 +30066,7 @@
         <v>2021</v>
       </c>
       <c r="Z317" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29581,7 +30099,7 @@
         <v>1</v>
       </c>
       <c r="J318" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam4_1</v>
       </c>
       <c r="K318" s="156" t="s">
@@ -29618,7 +30136,7 @@
         <v>2000</v>
       </c>
       <c r="V318" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W318" s="157">
@@ -29631,7 +30149,7 @@
         <v>2021</v>
       </c>
       <c r="Z318" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29664,7 +30182,7 @@
         <v>2</v>
       </c>
       <c r="J319" s="150" t="str">
-        <f t="shared" si="561"/>
+        <f t="shared" si="575"/>
         <v>ProVisioNET_study_111_03_cam4_2</v>
       </c>
       <c r="K319" s="156" t="s">
@@ -29701,7 +30219,7 @@
         <v>2000</v>
       </c>
       <c r="V319" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W319" s="157">
@@ -29714,7 +30232,7 @@
         <v>2021</v>
       </c>
       <c r="Z319" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29744,7 +30262,7 @@
         <v>120</v>
       </c>
       <c r="J320" s="150" t="str">
-        <f t="shared" ref="J320:J326" si="564">CONCATENATE(C320,"_",D320,"_",E320,"_",F320,"_",H320)</f>
+        <f t="shared" ref="J320:J326" si="578">CONCATENATE(C320,"_",D320,"_",E320,"_",F320,"_",H320)</f>
         <v>ProVisioNET_study_111_03_glasses</v>
       </c>
       <c r="K320" s="156" t="s">
@@ -29781,7 +30299,7 @@
         <v>2000</v>
       </c>
       <c r="V320" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W320" s="157">
@@ -29794,7 +30312,7 @@
         <v>2021</v>
       </c>
       <c r="Z320" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29824,7 +30342,7 @@
         <v>121</v>
       </c>
       <c r="J321" s="150" t="str">
-        <f t="shared" si="564"/>
+        <f t="shared" si="578"/>
         <v>ProVisioNET_study_111_03_ambient</v>
       </c>
       <c r="K321" s="156" t="s">
@@ -29861,7 +30379,7 @@
         <v>2000</v>
       </c>
       <c r="V321" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W321" s="157">
@@ -29874,7 +30392,7 @@
         <v>2021</v>
       </c>
       <c r="Z321" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29904,7 +30422,7 @@
         <v>122</v>
       </c>
       <c r="J322" s="150" t="str">
-        <f t="shared" si="564"/>
+        <f t="shared" si="578"/>
         <v>ProVisioNET_study_111_03_ETrawdata</v>
       </c>
       <c r="K322" s="156" t="s">
@@ -29941,7 +30459,7 @@
         <v>2000</v>
       </c>
       <c r="V322" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W322" s="157">
@@ -29954,7 +30472,7 @@
         <v>2021</v>
       </c>
       <c r="Z322" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -29984,7 +30502,7 @@
         <v>186</v>
       </c>
       <c r="J323" s="150" t="str">
-        <f t="shared" si="564"/>
+        <f t="shared" si="578"/>
         <v>ProVisioNET_study_111_03_sri_obs</v>
       </c>
       <c r="K323" s="156" t="s">
@@ -30021,7 +30539,7 @@
         <v>2000</v>
       </c>
       <c r="V323" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W323" s="157">
@@ -30034,7 +30552,7 @@
         <v>2021</v>
       </c>
       <c r="Z323" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -30064,7 +30582,7 @@
         <v>180</v>
       </c>
       <c r="J324" s="150" t="str">
-        <f t="shared" si="564"/>
+        <f t="shared" si="578"/>
         <v>ProVisioNET_study_111_03_sri_ambient</v>
       </c>
       <c r="K324" s="156" t="s">
@@ -30101,7 +30619,7 @@
         <v>2000</v>
       </c>
       <c r="V324" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W324" s="157">
@@ -30114,7 +30632,7 @@
         <v>2021</v>
       </c>
       <c r="Z324" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
@@ -30144,7 +30662,7 @@
         <v>199</v>
       </c>
       <c r="J325" s="150" t="str">
-        <f t="shared" si="564"/>
+        <f t="shared" si="578"/>
         <v>ProVisioNET_study_111_03_fitbit</v>
       </c>
       <c r="K325" s="156" t="s">
@@ -30181,7 +30699,7 @@
         <v>2000</v>
       </c>
       <c r="V325" s="163" t="str">
-        <f t="shared" si="563"/>
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
       <c r="W325" s="157">
@@ -30194,85 +30712,85 @@
         <v>2021</v>
       </c>
       <c r="Z325" s="157" t="str">
-        <f t="shared" si="562"/>
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="326" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="5">
         <v>15</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D326" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E326" s="155" t="s">
+      <c r="D326" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E326" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="F326" s="162" t="s">
+      <c r="F326" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="G326" s="150">
+      <c r="G326" s="160">
         <v>15</v>
       </c>
       <c r="H326" s="160" t="s">
         <v>195</v>
       </c>
       <c r="J326" s="160" t="str">
-        <f t="shared" si="564"/>
+        <f t="shared" si="578"/>
         <v>ProVisioNET_study_111_03_zed</v>
       </c>
-      <c r="K326" s="156"/>
-      <c r="L326" s="3" t="s">
+      <c r="K326" s="165"/>
+      <c r="L326" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M326" s="3" t="s">
+      <c r="M326" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N326" s="3">
+      <c r="N326" s="5">
         <v>3</v>
       </c>
-      <c r="O326" s="3" t="s">
+      <c r="O326" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="P326" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q326" s="157" t="s">
+      <c r="P326" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R326" s="157" t="s">
+      <c r="R326" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S326" s="3">
+      <c r="S326" s="5">
         <v>1</v>
       </c>
-      <c r="T326" s="3">
+      <c r="T326" s="5">
         <v>10</v>
       </c>
-      <c r="U326" s="3">
+      <c r="U326" s="5">
         <v>2000</v>
       </c>
-      <c r="V326" s="163" t="str">
-        <f t="shared" si="563"/>
+      <c r="V326" s="168" t="str">
+        <f t="shared" si="577"/>
         <v>1/10/2000</v>
       </c>
-      <c r="W326" s="157">
+      <c r="W326" s="160">
         <v>15</v>
       </c>
-      <c r="X326" s="157">
+      <c r="X326" s="160">
         <v>11</v>
       </c>
-      <c r="Y326" s="157">
+      <c r="Y326" s="160">
         <v>2021</v>
       </c>
-      <c r="Z326" s="157" t="str">
-        <f t="shared" si="562"/>
+      <c r="Z326" s="160" t="str">
+        <f t="shared" si="576"/>
         <v>15/11/2021</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C8F00BDA-E9F6-4CC6-AAC3-0D9D7130F551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{73B1958F-31C2-44CB-A8FA-B1D6FAF3B585}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642795A3-980E-4551-B63D-5538F24DA391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'subjectlist&amp;labels'!$A$1:$Z$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="228">
   <si>
     <t>study</t>
   </si>
@@ -2248,41 +2257,41 @@
   <dimension ref="A1:Z567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P307" sqref="P307"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB309" sqref="AB309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="50" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>116</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>117</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>117</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>117</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>117</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>117</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>117</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>117</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3408,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>117</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>117</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>116</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>117</v>
       </c>
@@ -3947,7 +3956,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>117</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>117</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>117</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>117</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>117</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>117</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>117</v>
       </c>
@@ -4717,7 +4726,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>117</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>117</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>117</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>116</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>117</v>
       </c>
@@ -5178,7 +5187,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>117</v>
       </c>
@@ -5274,7 +5283,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>117</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5466,7 +5475,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>117</v>
       </c>
@@ -5658,7 +5667,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5754,7 +5763,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
@@ -5850,7 +5859,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>117</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>117</v>
       </c>
@@ -6042,7 +6051,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>117</v>
       </c>
@@ -6138,7 +6147,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>117</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>117</v>
       </c>
@@ -6324,7 +6333,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>116</v>
       </c>
@@ -6405,7 +6414,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>117</v>
       </c>
@@ -6504,7 +6513,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>117</v>
       </c>
@@ -6603,7 +6612,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>117</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>117</v>
       </c>
@@ -6801,7 +6810,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>117</v>
       </c>
@@ -6900,7 +6909,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>117</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>117</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>117</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>117</v>
       </c>
@@ -7283,7 +7292,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>117</v>
       </c>
@@ -7378,7 +7387,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>117</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>117</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>117</v>
       </c>
@@ -7665,7 +7674,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>116</v>
       </c>
@@ -7746,7 +7755,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
@@ -7845,7 +7854,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>117</v>
       </c>
@@ -7944,7 +7953,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
@@ -8043,7 +8052,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>117</v>
       </c>
@@ -8142,7 +8151,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>117</v>
       </c>
@@ -8241,7 +8250,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>117</v>
       </c>
@@ -8339,7 +8348,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>117</v>
       </c>
@@ -8437,7 +8446,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>117</v>
       </c>
@@ -8535,7 +8544,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>117</v>
       </c>
@@ -8632,7 +8641,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>117</v>
       </c>
@@ -8728,7 +8737,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
@@ -8825,7 +8834,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>117</v>
       </c>
@@ -8921,7 +8930,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>117</v>
       </c>
@@ -9017,7 +9026,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>116</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>117</v>
       </c>
@@ -9197,7 +9206,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>117</v>
       </c>
@@ -9296,7 +9305,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>117</v>
       </c>
@@ -9395,7 +9404,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>117</v>
       </c>
@@ -9494,7 +9503,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>117</v>
       </c>
@@ -9593,7 +9602,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>117</v>
       </c>
@@ -9691,7 +9700,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>117</v>
       </c>
@@ -9790,7 +9799,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>117</v>
       </c>
@@ -9888,7 +9897,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>117</v>
       </c>
@@ -9985,7 +9994,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>117</v>
       </c>
@@ -10081,7 +10090,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>117</v>
       </c>
@@ -10179,7 +10188,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>117</v>
       </c>
@@ -10276,7 +10285,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="59" t="s">
         <v>117</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>116</v>
       </c>
@@ -10454,7 +10463,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>117</v>
       </c>
@@ -10552,7 +10561,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>117</v>
       </c>
@@ -10650,7 +10659,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>117</v>
       </c>
@@ -10748,7 +10757,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>117</v>
       </c>
@@ -10846,7 +10855,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>117</v>
       </c>
@@ -10944,7 +10953,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>117</v>
       </c>
@@ -11042,7 +11051,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>117</v>
       </c>
@@ -11140,7 +11149,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>117</v>
       </c>
@@ -11238,7 +11247,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>117</v>
       </c>
@@ -11334,7 +11343,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>117</v>
       </c>
@@ -11430,7 +11439,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>117</v>
       </c>
@@ -11526,7 +11535,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
@@ -11621,7 +11630,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>117</v>
       </c>
@@ -11716,7 +11725,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>117</v>
       </c>
@@ -11809,7 +11818,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="122" t="s">
         <v>117</v>
       </c>
@@ -11903,7 +11912,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
         <v>116</v>
       </c>
@@ -11984,7 +11993,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>117</v>
       </c>
@@ -12078,7 +12087,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>117</v>
       </c>
@@ -12172,7 +12181,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>117</v>
       </c>
@@ -12267,7 +12276,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>117</v>
       </c>
@@ -12362,7 +12371,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>117</v>
       </c>
@@ -12457,7 +12466,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>117</v>
       </c>
@@ -12552,7 +12561,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>117</v>
       </c>
@@ -12647,7 +12656,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>117</v>
       </c>
@@ -12742,7 +12751,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>117</v>
       </c>
@@ -12835,7 +12844,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>117</v>
       </c>
@@ -12928,7 +12937,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>117</v>
       </c>
@@ -13021,7 +13030,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>117</v>
       </c>
@@ -13113,7 +13122,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>117</v>
       </c>
@@ -13205,7 +13214,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>117</v>
       </c>
@@ -13295,7 +13304,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="122" t="s">
         <v>117</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="64" t="s">
         <v>116</v>
       </c>
@@ -13467,7 +13476,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>117</v>
       </c>
@@ -13561,7 +13570,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>117</v>
       </c>
@@ -13655,7 +13664,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>117</v>
       </c>
@@ -13749,7 +13758,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>117</v>
       </c>
@@ -13844,7 +13853,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>117</v>
       </c>
@@ -13939,7 +13948,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>117</v>
       </c>
@@ -14034,7 +14043,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>117</v>
       </c>
@@ -14129,7 +14138,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>117</v>
       </c>
@@ -14224,7 +14233,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>117</v>
       </c>
@@ -14317,7 +14326,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>117</v>
       </c>
@@ -14410,7 +14419,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>117</v>
       </c>
@@ -14503,7 +14512,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="142" t="s">
         <v>117</v>
       </c>
@@ -14595,7 +14604,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>117</v>
       </c>
@@ -14687,7 +14696,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>117</v>
       </c>
@@ -14777,7 +14786,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="122" t="s">
         <v>117</v>
       </c>
@@ -14868,7 +14877,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="146" t="s">
         <v>116</v>
       </c>
@@ -14949,7 +14958,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="154" t="s">
         <v>117</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="154" t="s">
         <v>117</v>
       </c>
@@ -15137,7 +15146,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="154" t="s">
         <v>117</v>
       </c>
@@ -15231,7 +15240,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="154" t="s">
         <v>117</v>
       </c>
@@ -15326,7 +15335,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="154" t="s">
         <v>117</v>
       </c>
@@ -15421,7 +15430,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="154" t="s">
         <v>117</v>
       </c>
@@ -15515,7 +15524,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="154" t="s">
         <v>117</v>
       </c>
@@ -15610,7 +15619,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="154" t="s">
         <v>117</v>
       </c>
@@ -15705,7 +15714,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="154" t="s">
         <v>117</v>
       </c>
@@ -15798,7 +15807,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="154" t="s">
         <v>117</v>
       </c>
@@ -15891,7 +15900,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="154" t="s">
         <v>117</v>
       </c>
@@ -15984,7 +15993,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="154" t="s">
         <v>117</v>
       </c>
@@ -16076,7 +16085,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="154" t="s">
         <v>117</v>
       </c>
@@ -16168,7 +16177,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="154" t="s">
         <v>117</v>
       </c>
@@ -16258,7 +16267,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="159" t="s">
         <v>117</v>
       </c>
@@ -16349,7 +16358,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="146" t="s">
         <v>116</v>
       </c>
@@ -16430,7 +16439,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="154" t="s">
         <v>117</v>
       </c>
@@ -16514,7 +16523,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="154" t="s">
         <v>117</v>
       </c>
@@ -16598,7 +16607,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="154" t="s">
         <v>117</v>
       </c>
@@ -16682,7 +16691,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="154" t="s">
         <v>117</v>
       </c>
@@ -16766,7 +16775,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="154" t="s">
         <v>117</v>
       </c>
@@ -16850,7 +16859,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="154" t="s">
         <v>117</v>
       </c>
@@ -16934,7 +16943,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="154" t="s">
         <v>117</v>
       </c>
@@ -17018,7 +17027,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="154" t="s">
         <v>117</v>
       </c>
@@ -17102,7 +17111,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="154" t="s">
         <v>117</v>
       </c>
@@ -17183,7 +17192,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="154" t="s">
         <v>117</v>
       </c>
@@ -17264,7 +17273,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="154" t="s">
         <v>117</v>
       </c>
@@ -17345,7 +17354,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="154" t="s">
         <v>117</v>
       </c>
@@ -17426,7 +17435,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="154" t="s">
         <v>117</v>
       </c>
@@ -17507,7 +17516,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="154" t="s">
         <v>117</v>
       </c>
@@ -17588,7 +17597,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="165" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="159" t="s">
         <v>117</v>
       </c>
@@ -17668,7 +17677,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="146" t="s">
         <v>117</v>
       </c>
@@ -17749,7 +17758,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="154" t="s">
         <v>117</v>
       </c>
@@ -17832,7 +17841,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="154" t="s">
         <v>117</v>
       </c>
@@ -17915,7 +17924,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="154" t="s">
         <v>117</v>
       </c>
@@ -17998,7 +18007,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="154" t="s">
         <v>117</v>
       </c>
@@ -18081,7 +18090,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="154" t="s">
         <v>117</v>
       </c>
@@ -18164,7 +18173,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="154" t="s">
         <v>117</v>
       </c>
@@ -18247,7 +18256,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="154" t="s">
         <v>117</v>
       </c>
@@ -18330,7 +18339,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="154" t="s">
         <v>117</v>
       </c>
@@ -18413,7 +18422,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="154" t="s">
         <v>117</v>
       </c>
@@ -18493,7 +18502,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="154" t="s">
         <v>117</v>
       </c>
@@ -18573,7 +18582,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="154" t="s">
         <v>117</v>
       </c>
@@ -18653,7 +18662,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="154" t="s">
         <v>117</v>
       </c>
@@ -18733,7 +18742,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="154" t="s">
         <v>117</v>
       </c>
@@ -18813,7 +18822,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="154" t="s">
         <v>117</v>
       </c>
@@ -18893,7 +18902,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="181" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="159" t="s">
         <v>117</v>
       </c>
@@ -18973,7 +18982,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="146" t="s">
         <v>117</v>
       </c>
@@ -19054,7 +19063,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="154" t="s">
         <v>117</v>
       </c>
@@ -19137,7 +19146,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="154" t="s">
         <v>117</v>
       </c>
@@ -19220,7 +19229,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="154" t="s">
         <v>117</v>
       </c>
@@ -19303,7 +19312,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="154" t="s">
         <v>117</v>
       </c>
@@ -19386,7 +19395,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="154" t="s">
         <v>117</v>
       </c>
@@ -19469,7 +19478,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="154" t="s">
         <v>117</v>
       </c>
@@ -19552,7 +19561,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="154" t="s">
         <v>117</v>
       </c>
@@ -19635,7 +19644,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="154" t="s">
         <v>117</v>
       </c>
@@ -19718,7 +19727,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="154" t="s">
         <v>117</v>
       </c>
@@ -19798,7 +19807,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="154" t="s">
         <v>117</v>
       </c>
@@ -19878,7 +19887,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="154" t="s">
         <v>117</v>
       </c>
@@ -19958,7 +19967,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="154" t="s">
         <v>117</v>
       </c>
@@ -20038,7 +20047,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="154" t="s">
         <v>117</v>
       </c>
@@ -20118,7 +20127,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="154" t="s">
         <v>117</v>
       </c>
@@ -20198,7 +20207,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="197" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="159" t="s">
         <v>117</v>
       </c>
@@ -20278,7 +20287,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="146" t="s">
         <v>117</v>
       </c>
@@ -20359,7 +20368,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="154" t="s">
         <v>117</v>
       </c>
@@ -20442,7 +20451,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="154" t="s">
         <v>117</v>
       </c>
@@ -20525,7 +20534,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="154" t="s">
         <v>117</v>
       </c>
@@ -20608,7 +20617,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="154" t="s">
         <v>117</v>
       </c>
@@ -20691,7 +20700,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="154" t="s">
         <v>117</v>
       </c>
@@ -20774,7 +20783,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="154" t="s">
         <v>117</v>
       </c>
@@ -20857,7 +20866,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="154" t="s">
         <v>117</v>
       </c>
@@ -20940,7 +20949,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="154" t="s">
         <v>117</v>
       </c>
@@ -21023,7 +21032,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="154" t="s">
         <v>117</v>
       </c>
@@ -21103,7 +21112,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="154" t="s">
         <v>117</v>
       </c>
@@ -21183,7 +21192,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="154" t="s">
         <v>117</v>
       </c>
@@ -21263,7 +21272,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="154" t="s">
         <v>117</v>
       </c>
@@ -21343,7 +21352,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="154" t="s">
         <v>117</v>
       </c>
@@ -21426,7 +21435,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="154" t="s">
         <v>117</v>
       </c>
@@ -21509,7 +21518,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="154" t="s">
         <v>117</v>
       </c>
@@ -21589,7 +21598,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="214" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="159" t="s">
         <v>117</v>
       </c>
@@ -21669,7 +21678,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="146" t="s">
         <v>117</v>
       </c>
@@ -21750,7 +21759,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="154" t="s">
         <v>117</v>
       </c>
@@ -21833,7 +21842,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="154" t="s">
         <v>117</v>
       </c>
@@ -21916,7 +21925,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="154" t="s">
         <v>117</v>
       </c>
@@ -21999,7 +22008,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="154" t="s">
         <v>117</v>
       </c>
@@ -22082,7 +22091,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="154" t="s">
         <v>117</v>
       </c>
@@ -22165,7 +22174,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="154" t="s">
         <v>117</v>
       </c>
@@ -22248,7 +22257,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="154" t="s">
         <v>117</v>
       </c>
@@ -22331,7 +22340,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="154" t="s">
         <v>117</v>
       </c>
@@ -22414,7 +22423,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="154" t="s">
         <v>117</v>
       </c>
@@ -22494,7 +22503,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="154" t="s">
         <v>117</v>
       </c>
@@ -22574,7 +22583,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="154" t="s">
         <v>117</v>
       </c>
@@ -22654,7 +22663,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="154" t="s">
         <v>117</v>
       </c>
@@ -22734,7 +22743,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="154" t="s">
         <v>117</v>
       </c>
@@ -22814,7 +22823,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="154" t="s">
         <v>117</v>
       </c>
@@ -22894,7 +22903,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="230" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="159" t="s">
         <v>117</v>
       </c>
@@ -22974,7 +22983,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="231" spans="1:26" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="146" t="s">
         <v>117</v>
       </c>
@@ -23055,7 +23064,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="154" t="s">
         <v>117</v>
       </c>
@@ -23138,7 +23147,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="154" t="s">
         <v>117</v>
       </c>
@@ -23221,7 +23230,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="154" t="s">
         <v>117</v>
       </c>
@@ -23304,7 +23313,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="154" t="s">
         <v>117</v>
       </c>
@@ -23387,7 +23396,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="154" t="s">
         <v>117</v>
       </c>
@@ -23470,7 +23479,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="154" t="s">
         <v>117</v>
       </c>
@@ -23553,7 +23562,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="154" t="s">
         <v>117</v>
       </c>
@@ -23636,7 +23645,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="154" t="s">
         <v>117</v>
       </c>
@@ -23719,7 +23728,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="154" t="s">
         <v>117</v>
       </c>
@@ -23799,7 +23808,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="154" t="s">
         <v>117</v>
       </c>
@@ -23879,7 +23888,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="154" t="s">
         <v>117</v>
       </c>
@@ -23959,7 +23968,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="154" t="s">
         <v>117</v>
       </c>
@@ -24039,7 +24048,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="154" t="s">
         <v>117</v>
       </c>
@@ -24119,7 +24128,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="154" t="s">
         <v>117</v>
       </c>
@@ -24199,7 +24208,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="246" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="159" t="s">
         <v>117</v>
       </c>
@@ -24279,7 +24288,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="146" t="s">
         <v>117</v>
       </c>
@@ -24360,7 +24369,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="154" t="s">
         <v>117</v>
       </c>
@@ -24443,7 +24452,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="154" t="s">
         <v>117</v>
       </c>
@@ -24526,7 +24535,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="154" t="s">
         <v>117</v>
       </c>
@@ -24609,7 +24618,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="154" t="s">
         <v>117</v>
       </c>
@@ -24692,7 +24701,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="154" t="s">
         <v>117</v>
       </c>
@@ -24775,7 +24784,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="154" t="s">
         <v>117</v>
       </c>
@@ -24858,7 +24867,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="154" t="s">
         <v>117</v>
       </c>
@@ -24941,7 +24950,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="154" t="s">
         <v>117</v>
       </c>
@@ -25024,7 +25033,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="154" t="s">
         <v>117</v>
       </c>
@@ -25104,7 +25113,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="154" t="s">
         <v>117</v>
       </c>
@@ -25184,7 +25193,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="154" t="s">
         <v>117</v>
       </c>
@@ -25264,7 +25273,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="154" t="s">
         <v>117</v>
       </c>
@@ -25344,7 +25353,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="154" t="s">
         <v>117</v>
       </c>
@@ -25424,7 +25433,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="154" t="s">
         <v>117</v>
       </c>
@@ -25504,7 +25513,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="262" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="159" t="s">
         <v>117</v>
       </c>
@@ -25582,7 +25591,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="146" t="s">
         <v>117</v>
       </c>
@@ -25663,7 +25672,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="154" t="s">
         <v>117</v>
       </c>
@@ -25746,7 +25755,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="154" t="s">
         <v>117</v>
       </c>
@@ -25829,7 +25838,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="154" t="s">
         <v>117</v>
       </c>
@@ -25912,7 +25921,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="154" t="s">
         <v>117</v>
       </c>
@@ -25995,7 +26004,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="154" t="s">
         <v>117</v>
       </c>
@@ -26078,7 +26087,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="154" t="s">
         <v>117</v>
       </c>
@@ -26161,7 +26170,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="154" t="s">
         <v>117</v>
       </c>
@@ -26244,7 +26253,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="154" t="s">
         <v>117</v>
       </c>
@@ -26327,7 +26336,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="154" t="s">
         <v>117</v>
       </c>
@@ -26407,7 +26416,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="154" t="s">
         <v>117</v>
       </c>
@@ -26487,7 +26496,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="154" t="s">
         <v>117</v>
       </c>
@@ -26567,7 +26576,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="154" t="s">
         <v>117</v>
       </c>
@@ -26647,7 +26656,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="154" t="s">
         <v>117</v>
       </c>
@@ -26727,7 +26736,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="154" t="s">
         <v>117</v>
       </c>
@@ -26807,7 +26816,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="278" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="159" t="s">
         <v>117</v>
       </c>
@@ -26885,7 +26894,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="146" t="s">
         <v>117</v>
       </c>
@@ -26966,7 +26975,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="154" t="s">
         <v>117</v>
       </c>
@@ -27049,7 +27058,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="154" t="s">
         <v>117</v>
       </c>
@@ -27132,7 +27141,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="154" t="s">
         <v>117</v>
       </c>
@@ -27215,7 +27224,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="154" t="s">
         <v>117</v>
       </c>
@@ -27298,7 +27307,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="154" t="s">
         <v>117</v>
       </c>
@@ -27381,7 +27390,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="154" t="s">
         <v>117</v>
       </c>
@@ -27464,7 +27473,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="154" t="s">
         <v>117</v>
       </c>
@@ -27547,7 +27556,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="154" t="s">
         <v>117</v>
       </c>
@@ -27630,7 +27639,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="154" t="s">
         <v>117</v>
       </c>
@@ -27710,7 +27719,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="154" t="s">
         <v>117</v>
       </c>
@@ -27790,7 +27799,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="154" t="s">
         <v>117</v>
       </c>
@@ -27870,7 +27879,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="154" t="s">
         <v>117</v>
       </c>
@@ -27950,7 +27959,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="154" t="s">
         <v>117</v>
       </c>
@@ -28030,7 +28039,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="154" t="s">
         <v>117</v>
       </c>
@@ -28110,7 +28119,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="294" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="159" t="s">
         <v>117</v>
       </c>
@@ -28188,7 +28197,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="146" t="s">
         <v>117</v>
       </c>
@@ -28269,7 +28278,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="154" t="s">
         <v>117</v>
       </c>
@@ -28352,7 +28361,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="154" t="s">
         <v>117</v>
       </c>
@@ -28418,7 +28427,7 @@
         <v>1962</v>
       </c>
       <c r="V297" s="163" t="str">
-        <f t="shared" ref="V297:V310" si="573">"7/9/1962"</f>
+        <f t="shared" ref="V297:V314" si="573">"7/9/1962"</f>
         <v>7/9/1962</v>
       </c>
       <c r="W297" s="157">
@@ -28435,7 +28444,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="154" t="s">
         <v>117</v>
       </c>
@@ -28458,14 +28467,14 @@
         <v>14</v>
       </c>
       <c r="H298" s="150" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I298" s="150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J298" s="150" t="str">
         <f t="shared" si="571"/>
-        <v>ProVisioNET_study_204_04_cam2_1</v>
+        <v>ProVisioNET_study_204_04_cam1_3</v>
       </c>
       <c r="K298" s="156" t="s">
         <v>188</v>
@@ -28518,7 +28527,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="154" t="s">
         <v>117</v>
       </c>
@@ -28544,11 +28553,11 @@
         <v>31</v>
       </c>
       <c r="I299" s="150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" s="150" t="str">
         <f t="shared" si="571"/>
-        <v>ProVisioNET_study_204_04_cam2_2</v>
+        <v>ProVisioNET_study_204_04_cam2_1</v>
       </c>
       <c r="K299" s="156" t="s">
         <v>188</v>
@@ -28601,7 +28610,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="300" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="154" t="s">
         <v>117</v>
       </c>
@@ -28624,14 +28633,14 @@
         <v>14</v>
       </c>
       <c r="H300" s="150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I300" s="150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" s="150" t="str">
         <f t="shared" si="571"/>
-        <v>ProVisioNET_study_204_04_cam3_1</v>
+        <v>ProVisioNET_study_204_04_cam2_2</v>
       </c>
       <c r="K300" s="156" t="s">
         <v>188</v>
@@ -28684,7 +28693,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="301" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="154" t="s">
         <v>117</v>
       </c>
@@ -28707,14 +28716,14 @@
         <v>14</v>
       </c>
       <c r="H301" s="150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I301" s="150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J301" s="150" t="str">
         <f t="shared" si="571"/>
-        <v>ProVisioNET_study_204_04_cam3_2</v>
+        <v>ProVisioNET_study_204_04_cam2_3</v>
       </c>
       <c r="K301" s="156" t="s">
         <v>188</v>
@@ -28767,7 +28776,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="302" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="154" t="s">
         <v>117</v>
       </c>
@@ -28790,14 +28799,14 @@
         <v>14</v>
       </c>
       <c r="H302" s="150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I302" s="150">
         <v>1</v>
       </c>
       <c r="J302" s="150" t="str">
         <f t="shared" si="571"/>
-        <v>ProVisioNET_study_204_04_cam4_1</v>
+        <v>ProVisioNET_study_204_04_cam3_1</v>
       </c>
       <c r="K302" s="156" t="s">
         <v>188</v>
@@ -28850,7 +28859,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="303" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="154" t="s">
         <v>117</v>
       </c>
@@ -28873,14 +28882,14 @@
         <v>14</v>
       </c>
       <c r="H303" s="150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I303" s="150">
         <v>2</v>
       </c>
       <c r="J303" s="150" t="str">
         <f t="shared" si="571"/>
-        <v>ProVisioNET_study_204_04_cam4_2</v>
+        <v>ProVisioNET_study_204_04_cam3_2</v>
       </c>
       <c r="K303" s="156" t="s">
         <v>188</v>
@@ -28933,7 +28942,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="304" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="154" t="s">
         <v>117</v>
       </c>
@@ -28956,11 +28965,14 @@
         <v>14</v>
       </c>
       <c r="H304" s="150" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="I304" s="150">
+        <v>3</v>
       </c>
       <c r="J304" s="150" t="str">
-        <f t="shared" ref="J304:J311" si="574">CONCATENATE(C304,"_",D304,"_",E304,"_",F304,"_",H304)</f>
-        <v>ProVisioNET_study_204_04_glasses</v>
+        <f t="shared" ref="J304:J306" si="574">CONCATENATE(C304,"_",D304,"_",E304,"_",F304,"_",H304,"_",I304)</f>
+        <v>ProVisioNET_study_204_04_cam3_3</v>
       </c>
       <c r="K304" s="156" t="s">
         <v>188</v>
@@ -29009,11 +29021,11 @@
         <v>2021</v>
       </c>
       <c r="Z304" s="157" t="str">
-        <f t="shared" si="572"/>
+        <f t="shared" ref="Z304:Z310" si="575">W304&amp;"/"&amp;X304&amp;"/"&amp;Y304</f>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="154" t="s">
         <v>117</v>
       </c>
@@ -29036,11 +29048,14 @@
         <v>14</v>
       </c>
       <c r="H305" s="150" t="s">
-        <v>121</v>
+        <v>33</v>
+      </c>
+      <c r="I305" s="150">
+        <v>1</v>
       </c>
       <c r="J305" s="150" t="str">
         <f t="shared" si="574"/>
-        <v>ProVisioNET_study_204_04_ambient</v>
+        <v>ProVisioNET_study_204_04_cam4_1</v>
       </c>
       <c r="K305" s="156" t="s">
         <v>188</v>
@@ -29089,11 +29104,11 @@
         <v>2021</v>
       </c>
       <c r="Z305" s="157" t="str">
-        <f t="shared" si="572"/>
+        <f t="shared" si="575"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="154" t="s">
         <v>117</v>
       </c>
@@ -29116,11 +29131,14 @@
         <v>14</v>
       </c>
       <c r="H306" s="150" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="I306" s="150">
+        <v>2</v>
       </c>
       <c r="J306" s="150" t="str">
         <f t="shared" si="574"/>
-        <v>ProVisioNET_study_204_04_ETrawdata</v>
+        <v>ProVisioNET_study_204_04_cam4_2</v>
       </c>
       <c r="K306" s="156" t="s">
         <v>188</v>
@@ -29169,11 +29187,11 @@
         <v>2021</v>
       </c>
       <c r="Z306" s="157" t="str">
-        <f t="shared" si="572"/>
+        <f t="shared" si="575"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="154" t="s">
         <v>117</v>
       </c>
@@ -29196,11 +29214,14 @@
         <v>14</v>
       </c>
       <c r="H307" s="150" t="s">
-        <v>186</v>
+        <v>33</v>
+      </c>
+      <c r="I307" s="150">
+        <v>3</v>
       </c>
       <c r="J307" s="150" t="str">
-        <f t="shared" si="574"/>
-        <v>ProVisioNET_study_204_04_sri_obs</v>
+        <f t="shared" ref="J307" si="576">CONCATENATE(C307,"_",D307,"_",E307,"_",F307,"_",H307,"_",I307)</f>
+        <v>ProVisioNET_study_204_04_cam4_3</v>
       </c>
       <c r="K307" s="156" t="s">
         <v>188</v>
@@ -29249,11 +29270,11 @@
         <v>2021</v>
       </c>
       <c r="Z307" s="157" t="str">
-        <f t="shared" si="572"/>
+        <f t="shared" si="575"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="154" t="s">
         <v>117</v>
       </c>
@@ -29276,11 +29297,11 @@
         <v>14</v>
       </c>
       <c r="H308" s="150" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J308" s="150" t="str">
-        <f t="shared" si="574"/>
-        <v>ProVisioNET_study_204_04_sri_ambient</v>
+        <f t="shared" ref="J308:J315" si="577">CONCATENATE(C308,"_",D308,"_",E308,"_",F308,"_",H308)</f>
+        <v>ProVisioNET_study_204_04_glasses</v>
       </c>
       <c r="K308" s="156" t="s">
         <v>188</v>
@@ -29329,11 +29350,11 @@
         <v>2021</v>
       </c>
       <c r="Z308" s="157" t="str">
-        <f t="shared" si="572"/>
+        <f t="shared" si="575"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="154" t="s">
         <v>117</v>
       </c>
@@ -29356,11 +29377,11 @@
         <v>14</v>
       </c>
       <c r="H309" s="150" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="J309" s="150" t="str">
-        <f t="shared" si="574"/>
-        <v>ProVisioNET_study_204_04_fitbit</v>
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_204_04_ambient</v>
       </c>
       <c r="K309" s="156" t="s">
         <v>188</v>
@@ -29409,175 +29430,177 @@
         <v>2021</v>
       </c>
       <c r="Z309" s="157" t="str">
-        <f t="shared" si="572"/>
+        <f t="shared" si="575"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="310" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A310" s="159" t="s">
+    <row r="310" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A310" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310" s="3">
         <v>14</v>
       </c>
-      <c r="C310" s="166" t="s">
+      <c r="C310" t="s">
         <v>176</v>
       </c>
-      <c r="D310" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E310" s="161" t="s">
+      <c r="D310" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" s="155" t="s">
         <v>225</v>
       </c>
-      <c r="F310" s="167" t="s">
+      <c r="F310" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="G310" s="160">
+      <c r="G310" s="150">
         <v>14</v>
       </c>
-      <c r="H310" s="160" t="s">
-        <v>195</v>
-      </c>
-      <c r="J310" s="160" t="str">
-        <f t="shared" si="574"/>
-        <v>ProVisioNET_study_204_04_zed</v>
-      </c>
-      <c r="K310" s="165"/>
-      <c r="L310" s="5" t="s">
+      <c r="H310" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="I310"/>
+      <c r="J310" s="150" t="str">
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_204_04_ETrawdata</v>
+      </c>
+      <c r="K310" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L310" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M310" s="5" t="s">
+      <c r="M310" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N310" s="5">
+      <c r="N310" s="3">
         <v>7</v>
       </c>
-      <c r="O310" s="5" t="s">
+      <c r="O310" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="P310" s="5">
+      <c r="P310" s="3">
         <v>37</v>
       </c>
-      <c r="Q310" s="160" t="s">
+      <c r="Q310" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="R310" s="160" t="s">
+      <c r="R310" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="S310" s="5">
+      <c r="S310" s="3">
         <v>7</v>
       </c>
-      <c r="T310" s="5">
+      <c r="T310" s="3">
         <v>9</v>
       </c>
-      <c r="U310" s="5">
+      <c r="U310" s="3">
         <v>1962</v>
       </c>
-      <c r="V310" s="168" t="str">
+      <c r="V310" s="163" t="str">
         <f t="shared" si="573"/>
         <v>7/9/1962</v>
       </c>
-      <c r="W310" s="160">
+      <c r="W310" s="157">
         <v>12</v>
       </c>
-      <c r="X310" s="160">
+      <c r="X310" s="157">
         <v>11</v>
       </c>
-      <c r="Y310" s="160">
+      <c r="Y310" s="157">
         <v>2021</v>
       </c>
-      <c r="Z310" s="160" t="str">
-        <f t="shared" si="572"/>
+      <c r="Z310" s="157" t="str">
+        <f t="shared" si="575"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="311" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A311" s="146" t="s">
+    <row r="311" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="B311" s="147">
-        <v>15</v>
-      </c>
-      <c r="C311" s="147" t="s">
+      <c r="B311" s="3">
+        <v>14</v>
+      </c>
+      <c r="C311" t="s">
         <v>176</v>
       </c>
-      <c r="D311" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="E311" s="148" t="s">
-        <v>226</v>
-      </c>
-      <c r="F311" s="149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G311" s="147">
-        <v>15</v>
-      </c>
-      <c r="H311" s="147" t="s">
-        <v>117</v>
-      </c>
-      <c r="I311" s="147"/>
+      <c r="D311" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E311" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F311" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G311" s="150">
+        <v>14</v>
+      </c>
+      <c r="H311" s="150" t="s">
+        <v>186</v>
+      </c>
       <c r="J311" s="150" t="str">
-        <f t="shared" si="574"/>
-        <v>ProVisioNET_study_111_03_label</v>
-      </c>
-      <c r="K311" s="147" t="s">
-        <v>115</v>
-      </c>
-      <c r="L311" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="M311" s="147" t="s">
-        <v>214</v>
-      </c>
-      <c r="N311" s="147">
-        <v>3</v>
-      </c>
-      <c r="O311" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="P311" s="147">
-        <v>0</v>
-      </c>
-      <c r="Q311" s="152" t="s">
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_204_04_sri_obs</v>
+      </c>
+      <c r="K311" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N311" s="3">
+        <v>7</v>
+      </c>
+      <c r="O311" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P311" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q311" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="R311" s="152" t="s">
+      <c r="R311" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="S311" s="152">
-        <v>1</v>
-      </c>
-      <c r="T311" s="152">
-        <v>10</v>
-      </c>
-      <c r="U311" s="152">
-        <v>2000</v>
-      </c>
-      <c r="V311" s="152" t="str">
-        <f>S311&amp;"/"&amp;T311&amp;"/"&amp;U311</f>
-        <v>1/10/2000</v>
-      </c>
-      <c r="W311" s="152">
-        <v>15</v>
-      </c>
-      <c r="X311" s="152">
+      <c r="S311" s="3">
+        <v>7</v>
+      </c>
+      <c r="T311" s="3">
+        <v>9</v>
+      </c>
+      <c r="U311" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V311" s="163" t="str">
+        <f t="shared" si="573"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W311" s="157">
+        <v>12</v>
+      </c>
+      <c r="X311" s="157">
         <v>11</v>
       </c>
-      <c r="Y311" s="152">
+      <c r="Y311" s="157">
         <v>2021</v>
       </c>
-      <c r="Z311" s="152" t="str">
-        <f>W311&amp;"/"&amp;X311&amp;"/"&amp;Y311</f>
-        <v>15/11/2021</v>
-      </c>
-    </row>
-    <row r="312" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z311" s="157" t="str">
+        <f>W307&amp;"/"&amp;X307&amp;"/"&amp;Y307</f>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="154" t="s">
         <v>117</v>
       </c>
       <c r="B312" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C312" t="s">
         <v>176</v>
@@ -29586,41 +29609,38 @@
         <v>0</v>
       </c>
       <c r="E312" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F312" s="162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G312" s="150">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H312" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="I312" s="3">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="J312" s="150" t="str">
-        <f t="shared" ref="J312:J319" si="575">CONCATENATE(C312,"_",D312,"_",E312,"_",F312,"_",H312,"_",I312)</f>
-        <v>ProVisioNET_study_111_03_cam1_1</v>
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_204_04_sri_ambient</v>
       </c>
       <c r="K312" s="156" t="s">
         <v>188</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="N312" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P312" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q312" s="157" t="s">
         <v>11</v>
@@ -29629,350 +29649,341 @@
         <v>18</v>
       </c>
       <c r="S312" s="3">
+        <v>7</v>
+      </c>
+      <c r="T312" s="3">
+        <v>9</v>
+      </c>
+      <c r="U312" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V312" s="163" t="str">
+        <f t="shared" si="573"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W312" s="157">
+        <v>12</v>
+      </c>
+      <c r="X312" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y312" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z312" s="157" t="str">
+        <f>W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B313" s="3">
+        <v>14</v>
+      </c>
+      <c r="C313" t="s">
+        <v>176</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E313" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F313" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G313" s="150">
+        <v>14</v>
+      </c>
+      <c r="H313" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J313" s="150" t="str">
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_204_04_fitbit</v>
+      </c>
+      <c r="K313" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N313" s="3">
+        <v>7</v>
+      </c>
+      <c r="O313" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P313" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q313" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R313" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S313" s="3">
+        <v>7</v>
+      </c>
+      <c r="T313" s="3">
+        <v>9</v>
+      </c>
+      <c r="U313" s="3">
+        <v>1962</v>
+      </c>
+      <c r="V313" s="163" t="str">
+        <f t="shared" si="573"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W313" s="157">
+        <v>12</v>
+      </c>
+      <c r="X313" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y313" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z313" s="157" t="str">
+        <f>W313&amp;"/"&amp;X313&amp;"/"&amp;Y313</f>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B314" s="5">
+        <v>14</v>
+      </c>
+      <c r="C314" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="F314" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G314" s="160">
+        <v>14</v>
+      </c>
+      <c r="H314" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="I314" s="166"/>
+      <c r="J314" s="160" t="str">
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_204_04_zed</v>
+      </c>
+      <c r="K314" s="165"/>
+      <c r="L314" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M314" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N314" s="5">
+        <v>7</v>
+      </c>
+      <c r="O314" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P314" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q314" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="R314" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="S314" s="5">
+        <v>7</v>
+      </c>
+      <c r="T314" s="5">
+        <v>9</v>
+      </c>
+      <c r="U314" s="5">
+        <v>1962</v>
+      </c>
+      <c r="V314" s="168" t="str">
+        <f t="shared" si="573"/>
+        <v>7/9/1962</v>
+      </c>
+      <c r="W314" s="160">
+        <v>12</v>
+      </c>
+      <c r="X314" s="160">
+        <v>11</v>
+      </c>
+      <c r="Y314" s="160">
+        <v>2021</v>
+      </c>
+      <c r="Z314" s="160" t="str">
+        <f>W314&amp;"/"&amp;X314&amp;"/"&amp;Y314</f>
+        <v>12/11/2021</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B315" s="147">
+        <v>15</v>
+      </c>
+      <c r="C315" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D315" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E315" s="148" t="s">
+        <v>226</v>
+      </c>
+      <c r="F315" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G315" s="147">
+        <v>15</v>
+      </c>
+      <c r="H315" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I315" s="147"/>
+      <c r="J315" s="150" t="str">
+        <f t="shared" si="577"/>
+        <v>ProVisioNET_study_111_03_label</v>
+      </c>
+      <c r="K315" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L315" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="M315" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="N315" s="147">
+        <v>3</v>
+      </c>
+      <c r="O315" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="P315" s="147">
+        <v>0</v>
+      </c>
+      <c r="Q315" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R315" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S315" s="152">
         <v>1</v>
       </c>
-      <c r="T312" s="3">
+      <c r="T315" s="152">
         <v>10</v>
       </c>
-      <c r="U312" s="3">
+      <c r="U315" s="152">
         <v>2000</v>
       </c>
-      <c r="V312" s="163" t="str">
+      <c r="V315" s="152" t="str">
+        <f>S315&amp;"/"&amp;T315&amp;"/"&amp;U315</f>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W315" s="152">
+        <v>15</v>
+      </c>
+      <c r="X315" s="152">
+        <v>11</v>
+      </c>
+      <c r="Y315" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z315" s="152" t="str">
+        <f>W315&amp;"/"&amp;X315&amp;"/"&amp;Y315</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B316" s="3">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>176</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E316" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F316" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G316" s="150">
+        <v>15</v>
+      </c>
+      <c r="H316" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I316" s="3">
+        <v>1</v>
+      </c>
+      <c r="J316" s="150" t="str">
+        <f t="shared" ref="J316:J323" si="578">CONCATENATE(C316,"_",D316,"_",E316,"_",F316,"_",H316,"_",I316)</f>
+        <v>ProVisioNET_study_111_03_cam1_1</v>
+      </c>
+      <c r="K316" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N316" s="3">
+        <v>3</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P316" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q316" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R316" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S316" s="3">
+        <v>1</v>
+      </c>
+      <c r="T316" s="3">
+        <v>10</v>
+      </c>
+      <c r="U316" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V316" s="163" t="str">
         <f>"1/10/2000"</f>
         <v>1/10/2000</v>
       </c>
-      <c r="W312" s="157">
-        <v>15</v>
-      </c>
-      <c r="X312" s="157">
-        <v>11</v>
-      </c>
-      <c r="Y312" s="157">
-        <v>2021</v>
-      </c>
-      <c r="Z312" s="157" t="str">
-        <f t="shared" ref="Z312:Z326" si="576">W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
-        <v>15/11/2021</v>
-      </c>
-    </row>
-    <row r="313" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A313" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="B313" s="3">
-        <v>15</v>
-      </c>
-      <c r="C313" t="s">
-        <v>176</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E313" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="F313" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G313" s="150">
-        <v>15</v>
-      </c>
-      <c r="H313" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="I313" s="150">
-        <v>2</v>
-      </c>
-      <c r="J313" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam1_2</v>
-      </c>
-      <c r="K313" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="L313" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M313" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N313" s="3">
-        <v>3</v>
-      </c>
-      <c r="O313" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P313" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q313" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="R313" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="S313" s="3">
-        <v>1</v>
-      </c>
-      <c r="T313" s="3">
-        <v>10</v>
-      </c>
-      <c r="U313" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V313" s="163" t="str">
-        <f t="shared" ref="V313:V326" si="577">"1/10/2000"</f>
-        <v>1/10/2000</v>
-      </c>
-      <c r="W313" s="157">
-        <v>15</v>
-      </c>
-      <c r="X313" s="157">
-        <v>11</v>
-      </c>
-      <c r="Y313" s="157">
-        <v>2021</v>
-      </c>
-      <c r="Z313" s="157" t="str">
-        <f t="shared" si="576"/>
-        <v>15/11/2021</v>
-      </c>
-    </row>
-    <row r="314" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A314" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="B314" s="3">
-        <v>15</v>
-      </c>
-      <c r="C314" t="s">
-        <v>176</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E314" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="F314" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G314" s="150">
-        <v>15</v>
-      </c>
-      <c r="H314" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="I314" s="150">
-        <v>1</v>
-      </c>
-      <c r="J314" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam2_1</v>
-      </c>
-      <c r="K314" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M314" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N314" s="3">
-        <v>3</v>
-      </c>
-      <c r="O314" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P314" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q314" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="R314" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="S314" s="3">
-        <v>1</v>
-      </c>
-      <c r="T314" s="3">
-        <v>10</v>
-      </c>
-      <c r="U314" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V314" s="163" t="str">
-        <f t="shared" si="577"/>
-        <v>1/10/2000</v>
-      </c>
-      <c r="W314" s="157">
-        <v>15</v>
-      </c>
-      <c r="X314" s="157">
-        <v>11</v>
-      </c>
-      <c r="Y314" s="157">
-        <v>2021</v>
-      </c>
-      <c r="Z314" s="157" t="str">
-        <f t="shared" si="576"/>
-        <v>15/11/2021</v>
-      </c>
-    </row>
-    <row r="315" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A315" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="B315" s="3">
-        <v>15</v>
-      </c>
-      <c r="C315" t="s">
-        <v>176</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E315" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="F315" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G315" s="150">
-        <v>15</v>
-      </c>
-      <c r="H315" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="I315" s="150">
-        <v>2</v>
-      </c>
-      <c r="J315" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam2_2</v>
-      </c>
-      <c r="K315" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M315" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N315" s="3">
-        <v>3</v>
-      </c>
-      <c r="O315" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P315" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q315" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="R315" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="S315" s="3">
-        <v>1</v>
-      </c>
-      <c r="T315" s="3">
-        <v>10</v>
-      </c>
-      <c r="U315" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V315" s="163" t="str">
-        <f t="shared" si="577"/>
-        <v>1/10/2000</v>
-      </c>
-      <c r="W315" s="157">
-        <v>15</v>
-      </c>
-      <c r="X315" s="157">
-        <v>11</v>
-      </c>
-      <c r="Y315" s="157">
-        <v>2021</v>
-      </c>
-      <c r="Z315" s="157" t="str">
-        <f t="shared" si="576"/>
-        <v>15/11/2021</v>
-      </c>
-    </row>
-    <row r="316" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A316" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="B316" s="3">
-        <v>15</v>
-      </c>
-      <c r="C316" t="s">
-        <v>176</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E316" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="F316" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G316" s="150">
-        <v>15</v>
-      </c>
-      <c r="H316" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="I316" s="150">
-        <v>1</v>
-      </c>
-      <c r="J316" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam3_1</v>
-      </c>
-      <c r="K316" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="L316" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M316" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N316" s="3">
-        <v>3</v>
-      </c>
-      <c r="O316" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P316" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q316" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="R316" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="S316" s="3">
-        <v>1</v>
-      </c>
-      <c r="T316" s="3">
-        <v>10</v>
-      </c>
-      <c r="U316" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V316" s="163" t="str">
-        <f t="shared" si="577"/>
-        <v>1/10/2000</v>
-      </c>
       <c r="W316" s="157">
         <v>15</v>
       </c>
@@ -29983,11 +29994,11 @@
         <v>2021</v>
       </c>
       <c r="Z316" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W316&amp;"/"&amp;X316&amp;"/"&amp;Y316</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="317" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="154" t="s">
         <v>117</v>
       </c>
@@ -30010,14 +30021,14 @@
         <v>15</v>
       </c>
       <c r="H317" s="150" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I317" s="150">
         <v>2</v>
       </c>
       <c r="J317" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam3_2</v>
+        <f t="shared" si="578"/>
+        <v>ProVisioNET_study_111_03_cam1_2</v>
       </c>
       <c r="K317" s="156" t="s">
         <v>188</v>
@@ -30053,7 +30064,7 @@
         <v>2000</v>
       </c>
       <c r="V317" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" ref="V317:V330" si="579">"1/10/2000"</f>
         <v>1/10/2000</v>
       </c>
       <c r="W317" s="157">
@@ -30066,11 +30077,11 @@
         <v>2021</v>
       </c>
       <c r="Z317" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W317&amp;"/"&amp;X317&amp;"/"&amp;Y317</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="318" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="154" t="s">
         <v>117</v>
       </c>
@@ -30093,14 +30104,14 @@
         <v>15</v>
       </c>
       <c r="H318" s="150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I318" s="150">
         <v>1</v>
       </c>
       <c r="J318" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam4_1</v>
+        <f t="shared" si="578"/>
+        <v>ProVisioNET_study_111_03_cam2_1</v>
       </c>
       <c r="K318" s="156" t="s">
         <v>188</v>
@@ -30136,7 +30147,7 @@
         <v>2000</v>
       </c>
       <c r="V318" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W318" s="157">
@@ -30149,11 +30160,11 @@
         <v>2021</v>
       </c>
       <c r="Z318" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W318&amp;"/"&amp;X318&amp;"/"&amp;Y318</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="319" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="154" t="s">
         <v>117</v>
       </c>
@@ -30176,14 +30187,14 @@
         <v>15</v>
       </c>
       <c r="H319" s="150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I319" s="150">
         <v>2</v>
       </c>
       <c r="J319" s="150" t="str">
-        <f t="shared" si="575"/>
-        <v>ProVisioNET_study_111_03_cam4_2</v>
+        <f t="shared" si="578"/>
+        <v>ProVisioNET_study_111_03_cam2_2</v>
       </c>
       <c r="K319" s="156" t="s">
         <v>188</v>
@@ -30219,7 +30230,7 @@
         <v>2000</v>
       </c>
       <c r="V319" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W319" s="157">
@@ -30232,11 +30243,11 @@
         <v>2021</v>
       </c>
       <c r="Z319" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W319&amp;"/"&amp;X319&amp;"/"&amp;Y319</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="320" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="154" t="s">
         <v>117</v>
       </c>
@@ -30259,11 +30270,14 @@
         <v>15</v>
       </c>
       <c r="H320" s="150" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="I320" s="150">
+        <v>1</v>
       </c>
       <c r="J320" s="150" t="str">
-        <f t="shared" ref="J320:J326" si="578">CONCATENATE(C320,"_",D320,"_",E320,"_",F320,"_",H320)</f>
-        <v>ProVisioNET_study_111_03_glasses</v>
+        <f t="shared" si="578"/>
+        <v>ProVisioNET_study_111_03_cam3_1</v>
       </c>
       <c r="K320" s="156" t="s">
         <v>188</v>
@@ -30299,7 +30313,7 @@
         <v>2000</v>
       </c>
       <c r="V320" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W320" s="157">
@@ -30312,11 +30326,11 @@
         <v>2021</v>
       </c>
       <c r="Z320" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W320&amp;"/"&amp;X320&amp;"/"&amp;Y320</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="321" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="154" t="s">
         <v>117</v>
       </c>
@@ -30339,11 +30353,14 @@
         <v>15</v>
       </c>
       <c r="H321" s="150" t="s">
-        <v>121</v>
+        <v>32</v>
+      </c>
+      <c r="I321" s="150">
+        <v>2</v>
       </c>
       <c r="J321" s="150" t="str">
         <f t="shared" si="578"/>
-        <v>ProVisioNET_study_111_03_ambient</v>
+        <v>ProVisioNET_study_111_03_cam3_2</v>
       </c>
       <c r="K321" s="156" t="s">
         <v>188</v>
@@ -30379,7 +30396,7 @@
         <v>2000</v>
       </c>
       <c r="V321" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W321" s="157">
@@ -30392,11 +30409,11 @@
         <v>2021</v>
       </c>
       <c r="Z321" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W321&amp;"/"&amp;X321&amp;"/"&amp;Y321</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="322" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="154" t="s">
         <v>117</v>
       </c>
@@ -30419,11 +30436,14 @@
         <v>15</v>
       </c>
       <c r="H322" s="150" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="I322" s="150">
+        <v>1</v>
       </c>
       <c r="J322" s="150" t="str">
         <f t="shared" si="578"/>
-        <v>ProVisioNET_study_111_03_ETrawdata</v>
+        <v>ProVisioNET_study_111_03_cam4_1</v>
       </c>
       <c r="K322" s="156" t="s">
         <v>188</v>
@@ -30459,7 +30479,7 @@
         <v>2000</v>
       </c>
       <c r="V322" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W322" s="157">
@@ -30472,11 +30492,11 @@
         <v>2021</v>
       </c>
       <c r="Z322" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W322&amp;"/"&amp;X322&amp;"/"&amp;Y322</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="323" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="154" t="s">
         <v>117</v>
       </c>
@@ -30499,11 +30519,14 @@
         <v>15</v>
       </c>
       <c r="H323" s="150" t="s">
-        <v>186</v>
+        <v>33</v>
+      </c>
+      <c r="I323" s="150">
+        <v>2</v>
       </c>
       <c r="J323" s="150" t="str">
         <f t="shared" si="578"/>
-        <v>ProVisioNET_study_111_03_sri_obs</v>
+        <v>ProVisioNET_study_111_03_cam4_2</v>
       </c>
       <c r="K323" s="156" t="s">
         <v>188</v>
@@ -30539,7 +30562,7 @@
         <v>2000</v>
       </c>
       <c r="V323" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W323" s="157">
@@ -30552,11 +30575,11 @@
         <v>2021</v>
       </c>
       <c r="Z323" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W323&amp;"/"&amp;X323&amp;"/"&amp;Y323</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="324" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="154" t="s">
         <v>117</v>
       </c>
@@ -30579,11 +30602,11 @@
         <v>15</v>
       </c>
       <c r="H324" s="150" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J324" s="150" t="str">
-        <f t="shared" si="578"/>
-        <v>ProVisioNET_study_111_03_sri_ambient</v>
+        <f t="shared" ref="J324:J330" si="580">CONCATENATE(C324,"_",D324,"_",E324,"_",F324,"_",H324)</f>
+        <v>ProVisioNET_study_111_03_glasses</v>
       </c>
       <c r="K324" s="156" t="s">
         <v>188</v>
@@ -30619,7 +30642,7 @@
         <v>2000</v>
       </c>
       <c r="V324" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W324" s="157">
@@ -30632,11 +30655,11 @@
         <v>2021</v>
       </c>
       <c r="Z324" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W324&amp;"/"&amp;X324&amp;"/"&amp;Y324</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="325" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="154" t="s">
         <v>117</v>
       </c>
@@ -30659,11 +30682,11 @@
         <v>15</v>
       </c>
       <c r="H325" s="150" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="J325" s="150" t="str">
-        <f t="shared" si="578"/>
-        <v>ProVisioNET_study_111_03_fitbit</v>
+        <f t="shared" si="580"/>
+        <v>ProVisioNET_study_111_03_ambient</v>
       </c>
       <c r="K325" s="156" t="s">
         <v>188</v>
@@ -30699,7 +30722,7 @@
         <v>2000</v>
       </c>
       <c r="V325" s="163" t="str">
-        <f t="shared" si="577"/>
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
       <c r="W325" s="157">
@@ -30712,89 +30735,411 @@
         <v>2021</v>
       </c>
       <c r="Z325" s="157" t="str">
-        <f t="shared" si="576"/>
+        <f>W325&amp;"/"&amp;X325&amp;"/"&amp;Y325</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="326" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A326" s="159" t="s">
+    <row r="326" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="3">
         <v>15</v>
       </c>
-      <c r="C326" s="166" t="s">
+      <c r="C326" t="s">
         <v>176</v>
       </c>
-      <c r="D326" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E326" s="161" t="s">
+      <c r="D326" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E326" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="F326" s="167" t="s">
+      <c r="F326" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="G326" s="160">
+      <c r="G326" s="150">
         <v>15</v>
       </c>
-      <c r="H326" s="160" t="s">
+      <c r="H326" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="I326"/>
+      <c r="J326" s="150" t="str">
+        <f t="shared" si="580"/>
+        <v>ProVisioNET_study_111_03_ETrawdata</v>
+      </c>
+      <c r="K326" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N326" s="3">
+        <v>3</v>
+      </c>
+      <c r="O326" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P326" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R326" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S326" s="3">
+        <v>1</v>
+      </c>
+      <c r="T326" s="3">
+        <v>10</v>
+      </c>
+      <c r="U326" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V326" s="163" t="str">
+        <f t="shared" si="579"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W326" s="157">
+        <v>15</v>
+      </c>
+      <c r="X326" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y326" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z326" s="157" t="str">
+        <f>W326&amp;"/"&amp;X326&amp;"/"&amp;Y326</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B327" s="3">
+        <v>15</v>
+      </c>
+      <c r="C327" t="s">
+        <v>176</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E327" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F327" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G327" s="150">
+        <v>15</v>
+      </c>
+      <c r="H327" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J327" s="150" t="str">
+        <f t="shared" si="580"/>
+        <v>ProVisioNET_study_111_03_sri_obs</v>
+      </c>
+      <c r="K327" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N327" s="3">
+        <v>3</v>
+      </c>
+      <c r="O327" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P327" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q327" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R327" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S327" s="3">
+        <v>1</v>
+      </c>
+      <c r="T327" s="3">
+        <v>10</v>
+      </c>
+      <c r="U327" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V327" s="163" t="str">
+        <f t="shared" si="579"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W327" s="157">
+        <v>15</v>
+      </c>
+      <c r="X327" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y327" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z327" s="157" t="str">
+        <f>W327&amp;"/"&amp;X327&amp;"/"&amp;Y327</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B328" s="3">
+        <v>15</v>
+      </c>
+      <c r="C328" t="s">
+        <v>176</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E328" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F328" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G328" s="150">
+        <v>15</v>
+      </c>
+      <c r="H328" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="J328" s="150" t="str">
+        <f t="shared" si="580"/>
+        <v>ProVisioNET_study_111_03_sri_ambient</v>
+      </c>
+      <c r="K328" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M328" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N328" s="3">
+        <v>3</v>
+      </c>
+      <c r="O328" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P328" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q328" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R328" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S328" s="3">
+        <v>1</v>
+      </c>
+      <c r="T328" s="3">
+        <v>10</v>
+      </c>
+      <c r="U328" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V328" s="163" t="str">
+        <f t="shared" si="579"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W328" s="157">
+        <v>15</v>
+      </c>
+      <c r="X328" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y328" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z328" s="157" t="str">
+        <f>W328&amp;"/"&amp;X328&amp;"/"&amp;Y328</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B329" s="3">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s">
+        <v>176</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E329" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F329" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G329" s="150">
+        <v>15</v>
+      </c>
+      <c r="H329" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J329" s="150" t="str">
+        <f t="shared" si="580"/>
+        <v>ProVisioNET_study_111_03_fitbit</v>
+      </c>
+      <c r="K329" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M329" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N329" s="3">
+        <v>3</v>
+      </c>
+      <c r="O329" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P329" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q329" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R329" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S329" s="3">
+        <v>1</v>
+      </c>
+      <c r="T329" s="3">
+        <v>10</v>
+      </c>
+      <c r="U329" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V329" s="163" t="str">
+        <f t="shared" si="579"/>
+        <v>1/10/2000</v>
+      </c>
+      <c r="W329" s="157">
+        <v>15</v>
+      </c>
+      <c r="X329" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y329" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z329" s="157" t="str">
+        <f>W329&amp;"/"&amp;X329&amp;"/"&amp;Y329</f>
+        <v>15/11/2021</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B330" s="5">
+        <v>15</v>
+      </c>
+      <c r="C330" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E330" s="161" t="s">
+        <v>226</v>
+      </c>
+      <c r="F330" s="167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G330" s="160">
+        <v>15</v>
+      </c>
+      <c r="H330" s="160" t="s">
         <v>195</v>
       </c>
-      <c r="J326" s="160" t="str">
-        <f t="shared" si="578"/>
+      <c r="I330" s="166"/>
+      <c r="J330" s="160" t="str">
+        <f t="shared" si="580"/>
         <v>ProVisioNET_study_111_03_zed</v>
       </c>
-      <c r="K326" s="165"/>
-      <c r="L326" s="5" t="s">
+      <c r="K330" s="165"/>
+      <c r="L330" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M326" s="5" t="s">
+      <c r="M330" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N326" s="5">
+      <c r="N330" s="5">
         <v>3</v>
       </c>
-      <c r="O326" s="5" t="s">
+      <c r="O330" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="P326" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q326" s="160" t="s">
+      <c r="P330" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q330" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R326" s="160" t="s">
+      <c r="R330" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="S326" s="5">
+      <c r="S330" s="5">
         <v>1</v>
       </c>
-      <c r="T326" s="5">
+      <c r="T330" s="5">
         <v>10</v>
       </c>
-      <c r="U326" s="5">
+      <c r="U330" s="5">
         <v>2000</v>
       </c>
-      <c r="V326" s="168" t="str">
-        <f t="shared" si="577"/>
+      <c r="V330" s="168" t="str">
+        <f t="shared" si="579"/>
         <v>1/10/2000</v>
       </c>
-      <c r="W326" s="160">
+      <c r="W330" s="160">
         <v>15</v>
       </c>
-      <c r="X326" s="160">
+      <c r="X330" s="160">
         <v>11</v>
       </c>
-      <c r="Y326" s="160">
+      <c r="Y330" s="160">
         <v>2021</v>
       </c>
-      <c r="Z326" s="160" t="str">
-        <f t="shared" si="576"/>
+      <c r="Z330" s="160" t="str">
+        <f>W330&amp;"/"&amp;X330&amp;"/"&amp;Y330</f>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G567" s="58"/>
       <c r="H567" s="58"/>
       <c r="I567" s="58"/>
@@ -30814,25 +31159,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -30849,7 +31194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -30860,30 +31205,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -30894,35 +31239,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -30933,30 +31278,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -30967,39 +31312,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -31010,40 +31355,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -31054,35 +31399,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -31094,28 +31439,28 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>8</v>
       </c>
@@ -31126,36 +31471,36 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="14"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>67</v>
       </c>
@@ -31164,7 +31509,7 @@
       </c>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
@@ -31186,20 +31531,20 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="89"/>
-    <col min="2" max="9" width="15.6640625" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="3"/>
-    <col min="12" max="12" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11.5546875" style="13"/>
-    <col min="22" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="11.5703125" style="89"/>
+    <col min="2" max="9" width="15.7109375" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="3"/>
+    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11.5703125" style="13"/>
+    <col min="22" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -31243,7 +31588,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -31284,7 +31629,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -31335,7 +31680,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -31382,7 +31727,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -31427,7 +31772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -31474,7 +31819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -31519,7 +31864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91">
         <v>4</v>
       </c>
@@ -31564,7 +31909,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="94" t="s">
         <v>124</v>
@@ -31609,7 +31954,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91">
         <v>5</v>
       </c>
@@ -31656,7 +32001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93"/>
       <c r="B11" s="94" t="s">
         <v>174</v>
@@ -31701,7 +32046,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91">
         <v>6</v>
       </c>
@@ -31736,7 +32081,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="94" t="s">
         <v>125</v>
@@ -31770,7 +32115,7 @@
       </c>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91">
         <v>7</v>
       </c>
@@ -31805,7 +32150,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
       <c r="B15" s="94" t="s">
         <v>90</v>
@@ -31838,7 +32183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91">
         <v>8</v>
       </c>
@@ -31870,7 +32215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="103"/>
       <c r="B17" s="104" t="s">
         <v>89</v>
@@ -31900,7 +32245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100">
         <v>9</v>
       </c>
@@ -31932,7 +32277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="93"/>
       <c r="B19" s="94" t="s">
         <v>150</v>
@@ -31962,7 +32307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91">
         <v>10</v>
       </c>
@@ -31994,7 +32339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
       <c r="B21" s="94" t="s">
         <v>148</v>
@@ -32024,7 +32369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="91">
         <v>11</v>
       </c>
@@ -32054,7 +32399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="93"/>
       <c r="B23" s="94" t="s">
         <v>149</v>
@@ -32084,7 +32429,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91">
         <v>12</v>
       </c>
@@ -32114,7 +32459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93"/>
       <c r="B25" s="94" t="s">
         <v>124</v>
@@ -32144,7 +32489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91">
         <v>13</v>
       </c>
@@ -32176,7 +32521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
       <c r="B27" s="94" t="s">
         <v>175</v>
@@ -32206,7 +32551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>14</v>
       </c>
@@ -32238,7 +32583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="93"/>
       <c r="B29" s="94" t="s">
         <v>125</v>
@@ -32268,7 +32613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91">
         <v>15</v>
       </c>
@@ -32300,7 +32645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="93"/>
       <c r="B31" s="94" t="s">
         <v>90</v>
@@ -32330,7 +32675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91">
         <v>16</v>
       </c>
@@ -32362,7 +32707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="103"/>
       <c r="B33" s="104" t="s">
         <v>89</v>
@@ -32392,7 +32737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="100">
         <v>17</v>
       </c>
@@ -32424,7 +32769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="93"/>
       <c r="B35" s="94" t="s">
         <v>150</v>
@@ -32454,7 +32799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="91">
         <v>18</v>
       </c>
@@ -32486,7 +32831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
       <c r="B37" s="94" t="s">
         <v>148</v>
@@ -32516,7 +32861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="91">
         <v>19</v>
       </c>
@@ -32546,7 +32891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
       <c r="B39" s="94" t="s">
         <v>149</v>
@@ -32576,7 +32921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91">
         <v>20</v>
       </c>
@@ -32606,7 +32951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93"/>
       <c r="B41" s="94" t="s">
         <v>124</v>
@@ -32636,7 +32981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91">
         <v>21</v>
       </c>
@@ -32668,7 +33013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="93"/>
       <c r="B43" s="94" t="s">
         <v>175</v>
@@ -32698,7 +33043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="91">
         <v>22</v>
       </c>
@@ -32730,7 +33075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="93"/>
       <c r="B45" s="94" t="s">
         <v>125</v>
@@ -32760,7 +33105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="91">
         <v>23</v>
       </c>
@@ -32792,7 +33137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="93"/>
       <c r="B47" s="94" t="s">
         <v>90</v>
@@ -32822,7 +33167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="91">
         <v>24</v>
       </c>
@@ -32854,7 +33199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103"/>
       <c r="B49" s="104" t="s">
         <v>89</v>
@@ -32884,7 +33229,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="100">
         <v>25</v>
       </c>
@@ -32916,7 +33261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="93"/>
       <c r="B51" s="94" t="s">
         <v>150</v>
@@ -32946,7 +33291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="91">
         <v>26</v>
       </c>
@@ -32978,7 +33323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="93"/>
       <c r="B53" s="94" t="s">
         <v>148</v>
@@ -33008,7 +33353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="91">
         <v>27</v>
       </c>
@@ -33038,7 +33383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="93"/>
       <c r="B55" s="94" t="s">
         <v>149</v>
@@ -33068,7 +33413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91">
         <v>28</v>
       </c>
@@ -33098,7 +33443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="93"/>
       <c r="B57" s="94" t="s">
         <v>124</v>
@@ -33128,7 +33473,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="96">
         <v>29</v>
       </c>
@@ -33160,7 +33505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="97"/>
       <c r="B59" s="94" t="s">
         <v>174</v>
@@ -33190,7 +33535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="96">
         <v>30</v>
       </c>
@@ -33222,7 +33567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="97"/>
       <c r="B61" s="94" t="s">
         <v>125</v>
@@ -33252,7 +33597,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="96">
         <v>31</v>
       </c>
@@ -33284,7 +33629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="97"/>
       <c r="B63" s="94" t="s">
         <v>90</v>
@@ -33314,7 +33659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="96">
         <v>32</v>
       </c>
@@ -33346,7 +33691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
       <c r="B65" s="104" t="s">
         <v>89</v>
@@ -33376,7 +33721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="106">
         <v>33</v>
       </c>
@@ -33408,7 +33753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="97"/>
       <c r="B67" s="94" t="s">
         <v>150</v>
@@ -33438,7 +33783,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="96">
         <v>34</v>
       </c>
@@ -33470,7 +33815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="97"/>
       <c r="B69" s="94" t="s">
         <v>148</v>
@@ -33500,7 +33845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="96">
         <v>35</v>
       </c>
@@ -33530,7 +33875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="97"/>
       <c r="B71" s="94" t="s">
         <v>149</v>
@@ -33560,7 +33905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="96">
         <v>36</v>
       </c>
@@ -33590,7 +33935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="97"/>
       <c r="B73" s="94" t="s">
         <v>124</v>
@@ -33620,7 +33965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="98">
         <v>37</v>
       </c>
@@ -33652,7 +33997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="99"/>
       <c r="B75" s="94" t="s">
         <v>174</v>
@@ -33682,7 +34027,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="98">
         <v>38</v>
       </c>
@@ -33714,7 +34059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="99"/>
       <c r="B77" s="94" t="s">
         <v>125</v>
@@ -33744,7 +34089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="98">
         <v>39</v>
       </c>
@@ -33776,7 +34121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="99"/>
       <c r="B79" s="94" t="s">
         <v>90</v>
@@ -33806,7 +34151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="98">
         <v>40</v>
       </c>
@@ -33838,7 +34183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="109"/>
       <c r="B81" s="104" t="s">
         <v>89</v>
@@ -33868,7 +34213,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
         <v>41</v>
       </c>
@@ -33900,7 +34245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="99"/>
       <c r="B83" s="94" t="s">
         <v>150</v>
@@ -33930,7 +34275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="98">
         <v>42</v>
       </c>
@@ -33962,7 +34307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="99"/>
       <c r="B85" s="94" t="s">
         <v>148</v>
@@ -33992,7 +34337,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="98">
         <v>43</v>
       </c>
@@ -34022,7 +34367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="99"/>
       <c r="B87" s="94" t="s">
         <v>149</v>
@@ -34052,7 +34397,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="98">
         <v>44</v>
       </c>
@@ -34082,7 +34427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="99"/>
       <c r="B89" s="94" t="s">
         <v>124</v>
@@ -34112,7 +34457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98">
         <v>45</v>
       </c>
@@ -34144,7 +34489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="99"/>
       <c r="B91" s="94" t="s">
         <v>174</v>
@@ -34174,7 +34519,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="98">
         <v>46</v>
       </c>
@@ -34206,7 +34551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="99"/>
       <c r="B93" s="94" t="s">
         <v>125</v>
@@ -34236,7 +34581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="98">
         <v>47</v>
       </c>
@@ -34268,7 +34613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="99"/>
       <c r="B95" s="94" t="s">
         <v>90</v>
@@ -34298,7 +34643,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98">
         <v>48</v>
       </c>
@@ -34330,7 +34675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="109"/>
       <c r="B97" s="104" t="s">
         <v>89</v>
@@ -34360,7 +34705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
         <v>49</v>
       </c>
@@ -34392,7 +34737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="99"/>
       <c r="B99" s="94" t="s">
         <v>150</v>
@@ -34422,7 +34767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98">
         <v>50</v>
       </c>
@@ -34454,7 +34799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="99"/>
       <c r="B101" s="94" t="s">
         <v>148</v>
@@ -34484,7 +34829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="89">
         <v>51</v>
       </c>
@@ -34514,7 +34859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="94" t="s">
         <v>149</v>
       </c>
@@ -34543,7 +34888,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="91">
         <v>52</v>
       </c>
@@ -34573,7 +34918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="93"/>
       <c r="B105" s="94" t="s">
         <v>124</v>
@@ -34603,7 +34948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="96">
         <v>53</v>
       </c>
@@ -34645,7 +34990,7 @@
       <c r="T106" s="76"/>
       <c r="U106" s="76"/>
     </row>
-    <row r="107" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="97"/>
       <c r="B107" s="94" t="s">
         <v>174</v>
@@ -34685,7 +35030,7 @@
       <c r="T107" s="76"/>
       <c r="U107" s="76"/>
     </row>
-    <row r="108" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="96">
         <v>54</v>
       </c>
@@ -34727,7 +35072,7 @@
       <c r="T108" s="76"/>
       <c r="U108" s="76"/>
     </row>
-    <row r="109" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="97"/>
       <c r="B109" s="94" t="s">
         <v>125</v>
@@ -34767,7 +35112,7 @@
       <c r="T109" s="76"/>
       <c r="U109" s="76"/>
     </row>
-    <row r="110" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="96">
         <v>55</v>
       </c>
@@ -34809,7 +35154,7 @@
       <c r="T110" s="76"/>
       <c r="U110" s="76"/>
     </row>
-    <row r="111" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="97"/>
       <c r="B111" s="94" t="s">
         <v>90</v>
@@ -34849,7 +35194,7 @@
       <c r="T111" s="76"/>
       <c r="U111" s="76"/>
     </row>
-    <row r="112" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="96">
         <v>56</v>
       </c>
@@ -34891,7 +35236,7 @@
       <c r="T112" s="76"/>
       <c r="U112" s="76"/>
     </row>
-    <row r="113" spans="1:21" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="97"/>
       <c r="B113" s="94" t="s">
         <v>89</v>
@@ -34931,7 +35276,7 @@
       <c r="T113" s="76"/>
       <c r="U113" s="76"/>
     </row>
-    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="100"/>
       <c r="B114" s="101"/>
       <c r="C114" s="101"/>
@@ -34953,7 +35298,7 @@
       <c r="T114" s="76"/>
       <c r="U114" s="76"/>
     </row>
-    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="100"/>
       <c r="B115" s="101"/>
       <c r="C115" s="101"/>
@@ -34975,7 +35320,7 @@
       <c r="T115" s="76"/>
       <c r="U115" s="76"/>
     </row>
-    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="100"/>
       <c r="B116" s="101"/>
       <c r="C116" s="101"/>
@@ -34997,7 +35342,7 @@
       <c r="T116" s="76"/>
       <c r="U116" s="76"/>
     </row>
-    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="100"/>
       <c r="B117" s="101"/>
       <c r="C117" s="101"/>
@@ -35019,7 +35364,7 @@
       <c r="T117" s="76"/>
       <c r="U117" s="76"/>
     </row>
-    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="100"/>
       <c r="B118" s="101"/>
       <c r="C118" s="101"/>
@@ -35041,7 +35386,7 @@
       <c r="T118" s="76"/>
       <c r="U118" s="76"/>
     </row>
-    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="100"/>
       <c r="B119" s="101"/>
       <c r="C119" s="101"/>
@@ -35063,7 +35408,7 @@
       <c r="T119" s="76"/>
       <c r="U119" s="76"/>
     </row>
-    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="100"/>
       <c r="B120" s="101"/>
       <c r="C120" s="101"/>
@@ -35085,7 +35430,7 @@
       <c r="T120" s="76"/>
       <c r="U120" s="76"/>
     </row>
-    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="100"/>
       <c r="B121" s="101"/>
       <c r="C121" s="101"/>
@@ -35107,7 +35452,7 @@
       <c r="T121" s="76"/>
       <c r="U121" s="76"/>
     </row>
-    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="100"/>
       <c r="B122" s="101"/>
       <c r="C122" s="101"/>
@@ -35129,7 +35474,7 @@
       <c r="T122" s="76"/>
       <c r="U122" s="76"/>
     </row>
-    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="100"/>
       <c r="B123" s="101"/>
       <c r="C123" s="101"/>
@@ -35151,7 +35496,7 @@
       <c r="T123" s="76"/>
       <c r="U123" s="76"/>
     </row>
-    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="100"/>
       <c r="B124" s="101"/>
       <c r="C124" s="101"/>
@@ -35173,7 +35518,7 @@
       <c r="T124" s="76"/>
       <c r="U124" s="76"/>
     </row>
-    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="100"/>
       <c r="B125" s="101"/>
       <c r="C125" s="101"/>
@@ -35195,7 +35540,7 @@
       <c r="T125" s="76"/>
       <c r="U125" s="76"/>
     </row>
-    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="100"/>
       <c r="B126" s="101"/>
       <c r="C126" s="101"/>
@@ -35217,7 +35562,7 @@
       <c r="T126" s="76"/>
       <c r="U126" s="76"/>
     </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="100"/>
       <c r="B127" s="101"/>
       <c r="C127" s="101"/>
@@ -35239,7 +35584,7 @@
       <c r="T127" s="76"/>
       <c r="U127" s="76"/>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="100"/>
       <c r="B128" s="101"/>
       <c r="C128" s="101"/>
@@ -35261,7 +35606,7 @@
       <c r="T128" s="76"/>
       <c r="U128" s="76"/>
     </row>
-    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="100"/>
       <c r="B129" s="101"/>
       <c r="C129" s="101"/>
@@ -35283,7 +35628,7 @@
       <c r="T129" s="76"/>
       <c r="U129" s="76"/>
     </row>
-    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="100"/>
       <c r="B130" s="101"/>
       <c r="C130" s="101"/>
@@ -35305,7 +35650,7 @@
       <c r="T130" s="76"/>
       <c r="U130" s="76"/>
     </row>
-    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="100"/>
       <c r="B131" s="101"/>
       <c r="C131" s="101"/>
@@ -35327,7 +35672,7 @@
       <c r="T131" s="76"/>
       <c r="U131" s="76"/>
     </row>
-    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="100"/>
       <c r="B132" s="101"/>
       <c r="C132" s="101"/>
@@ -35349,7 +35694,7 @@
       <c r="T132" s="76"/>
       <c r="U132" s="76"/>
     </row>
-    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="100"/>
       <c r="B133" s="101"/>
       <c r="C133" s="101"/>
@@ -35371,7 +35716,7 @@
       <c r="T133" s="76"/>
       <c r="U133" s="76"/>
     </row>
-    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="100"/>
       <c r="B134" s="101"/>
       <c r="C134" s="101"/>
@@ -35393,7 +35738,7 @@
       <c r="T134" s="76"/>
       <c r="U134" s="76"/>
     </row>
-    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="100"/>
       <c r="B135" s="101"/>
       <c r="C135" s="101"/>
@@ -35415,7 +35760,7 @@
       <c r="T135" s="76"/>
       <c r="U135" s="76"/>
     </row>
-    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="100"/>
       <c r="B136" s="101"/>
       <c r="C136" s="101"/>
@@ -35437,7 +35782,7 @@
       <c r="T136" s="76"/>
       <c r="U136" s="76"/>
     </row>
-    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="100"/>
       <c r="B137" s="101"/>
       <c r="C137" s="101"/>
@@ -35459,7 +35804,7 @@
       <c r="T137" s="76"/>
       <c r="U137" s="76"/>
     </row>
-    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="100"/>
       <c r="B138" s="101"/>
       <c r="C138" s="101"/>
@@ -35481,7 +35826,7 @@
       <c r="T138" s="76"/>
       <c r="U138" s="76"/>
     </row>
-    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="100"/>
       <c r="B139" s="101"/>
       <c r="C139" s="101"/>
@@ -35503,7 +35848,7 @@
       <c r="T139" s="76"/>
       <c r="U139" s="76"/>
     </row>
-    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="100"/>
       <c r="B140" s="101"/>
       <c r="C140" s="101"/>
@@ -35525,7 +35870,7 @@
       <c r="T140" s="76"/>
       <c r="U140" s="76"/>
     </row>
-    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="100"/>
       <c r="B141" s="101"/>
       <c r="C141" s="101"/>
@@ -35547,7 +35892,7 @@
       <c r="T141" s="76"/>
       <c r="U141" s="76"/>
     </row>
-    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="100"/>
       <c r="B142" s="101"/>
       <c r="C142" s="101"/>
@@ -35569,7 +35914,7 @@
       <c r="T142" s="76"/>
       <c r="U142" s="76"/>
     </row>
-    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="100"/>
       <c r="B143" s="101"/>
       <c r="C143" s="101"/>
@@ -35591,7 +35936,7 @@
       <c r="T143" s="76"/>
       <c r="U143" s="76"/>
     </row>
-    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="100"/>
       <c r="B144" s="101"/>
       <c r="C144" s="101"/>
@@ -35613,7 +35958,7 @@
       <c r="T144" s="76"/>
       <c r="U144" s="76"/>
     </row>
-    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="100"/>
       <c r="B145" s="101"/>
       <c r="C145" s="101"/>
@@ -35635,7 +35980,7 @@
       <c r="T145" s="76"/>
       <c r="U145" s="76"/>
     </row>
-    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="100"/>
       <c r="B146" s="101"/>
       <c r="C146" s="101"/>
@@ -35657,7 +36002,7 @@
       <c r="T146" s="76"/>
       <c r="U146" s="76"/>
     </row>
-    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="100"/>
       <c r="B147" s="101"/>
       <c r="C147" s="101"/>
@@ -35679,7 +36024,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="76"/>
     </row>
-    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="100"/>
       <c r="B148" s="101"/>
       <c r="C148" s="101"/>
@@ -35701,7 +36046,7 @@
       <c r="T148" s="76"/>
       <c r="U148" s="76"/>
     </row>
-    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="100"/>
       <c r="B149" s="101"/>
       <c r="C149" s="101"/>
@@ -35723,7 +36068,7 @@
       <c r="T149" s="76"/>
       <c r="U149" s="76"/>
     </row>
-    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="100"/>
       <c r="B150" s="101"/>
       <c r="C150" s="101"/>
@@ -35745,7 +36090,7 @@
       <c r="T150" s="76"/>
       <c r="U150" s="76"/>
     </row>
-    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="100"/>
       <c r="B151" s="101"/>
       <c r="C151" s="101"/>
@@ -35767,7 +36112,7 @@
       <c r="T151" s="76"/>
       <c r="U151" s="76"/>
     </row>
-    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="100"/>
       <c r="B152" s="101"/>
       <c r="C152" s="101"/>
@@ -35789,7 +36134,7 @@
       <c r="T152" s="76"/>
       <c r="U152" s="76"/>
     </row>
-    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="100"/>
       <c r="B153" s="101"/>
       <c r="C153" s="101"/>
@@ -35811,7 +36156,7 @@
       <c r="T153" s="76"/>
       <c r="U153" s="76"/>
     </row>
-    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="100"/>
       <c r="B154" s="101"/>
       <c r="C154" s="101"/>
@@ -35833,7 +36178,7 @@
       <c r="T154" s="76"/>
       <c r="U154" s="76"/>
     </row>
-    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="100"/>
       <c r="B155" s="101"/>
       <c r="C155" s="101"/>
@@ -35855,7 +36200,7 @@
       <c r="T155" s="76"/>
       <c r="U155" s="76"/>
     </row>
-    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="100"/>
       <c r="B156" s="101"/>
       <c r="C156" s="101"/>
@@ -35877,7 +36222,7 @@
       <c r="T156" s="76"/>
       <c r="U156" s="76"/>
     </row>
-    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="100"/>
       <c r="B157" s="101"/>
       <c r="C157" s="101"/>
@@ -35899,7 +36244,7 @@
       <c r="T157" s="76"/>
       <c r="U157" s="76"/>
     </row>
-    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="100"/>
       <c r="B158" s="101"/>
       <c r="C158" s="101"/>
@@ -35921,7 +36266,7 @@
       <c r="T158" s="76"/>
       <c r="U158" s="76"/>
     </row>
-    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="100"/>
       <c r="B159" s="101"/>
       <c r="C159" s="101"/>
@@ -35943,7 +36288,7 @@
       <c r="T159" s="76"/>
       <c r="U159" s="76"/>
     </row>
-    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="100"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -35965,7 +36310,7 @@
       <c r="T160" s="76"/>
       <c r="U160" s="76"/>
     </row>
-    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="100"/>
       <c r="B161" s="101"/>
       <c r="C161" s="101"/>
@@ -35987,7 +36332,7 @@
       <c r="T161" s="76"/>
       <c r="U161" s="76"/>
     </row>
-    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="100"/>
       <c r="B162" s="101"/>
       <c r="C162" s="101"/>
@@ -36009,7 +36354,7 @@
       <c r="T162" s="76"/>
       <c r="U162" s="76"/>
     </row>
-    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="100"/>
       <c r="B163" s="101"/>
       <c r="C163" s="101"/>
@@ -36031,7 +36376,7 @@
       <c r="T163" s="76"/>
       <c r="U163" s="76"/>
     </row>
-    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="100"/>
       <c r="B164" s="101"/>
       <c r="C164" s="101"/>
@@ -36053,7 +36398,7 @@
       <c r="T164" s="76"/>
       <c r="U164" s="76"/>
     </row>
-    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="100"/>
       <c r="B165" s="101"/>
       <c r="C165" s="101"/>
@@ -36075,7 +36420,7 @@
       <c r="T165" s="76"/>
       <c r="U165" s="76"/>
     </row>
-    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="100"/>
       <c r="B166" s="101"/>
       <c r="C166" s="101"/>
@@ -36097,7 +36442,7 @@
       <c r="T166" s="76"/>
       <c r="U166" s="76"/>
     </row>
-    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="100"/>
       <c r="B167" s="101"/>
       <c r="C167" s="101"/>
@@ -36119,7 +36464,7 @@
       <c r="T167" s="76"/>
       <c r="U167" s="76"/>
     </row>
-    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
@@ -36141,7 +36486,7 @@
       <c r="T168" s="76"/>
       <c r="U168" s="76"/>
     </row>
-    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="100"/>
       <c r="B169" s="101"/>
       <c r="C169" s="101"/>
@@ -36163,7 +36508,7 @@
       <c r="T169" s="76"/>
       <c r="U169" s="76"/>
     </row>
-    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="100"/>
       <c r="B170" s="101"/>
       <c r="C170" s="101"/>
@@ -36185,7 +36530,7 @@
       <c r="T170" s="76"/>
       <c r="U170" s="76"/>
     </row>
-    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="100"/>
       <c r="B171" s="101"/>
       <c r="C171" s="101"/>
@@ -36224,23 +36569,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="129" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="129" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>147</v>
       </c>
@@ -36284,7 +36629,7 @@
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -36332,7 +36677,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="94" t="s">
         <v>150</v>
@@ -36383,7 +36728,7 @@
       <c r="U3" s="87"/>
       <c r="V3" s="88"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -36435,7 +36780,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>148</v>
@@ -36485,7 +36830,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>3</v>
       </c>
@@ -36537,7 +36882,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="94" t="s">
         <v>149</v>
@@ -36587,7 +36932,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
@@ -36620,7 +36965,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -36653,7 +36998,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -36686,7 +37031,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -36719,7 +37064,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -36744,7 +37089,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -36769,7 +37114,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -36794,7 +37139,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -36819,7 +37164,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -36842,7 +37187,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -36865,7 +37210,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
@@ -36888,7 +37233,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -36911,7 +37256,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -36934,7 +37279,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -36957,7 +37302,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -36980,7 +37325,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
@@ -37003,7 +37348,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -37026,7 +37371,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
@@ -37049,7 +37394,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -37072,7 +37417,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="101"/>
       <c r="C27" s="101"/>
@@ -37095,7 +37440,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="101"/>
       <c r="C28" s="101"/>
@@ -37118,7 +37463,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -37141,7 +37486,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="100"/>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -37164,7 +37509,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="101"/>
       <c r="C31" s="101"/>
@@ -37187,7 +37532,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="101"/>
       <c r="C32" s="101"/>
@@ -37210,7 +37555,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="101"/>
       <c r="C33" s="101"/>
@@ -37233,7 +37578,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -37243,7 +37588,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -37253,7 +37598,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -37263,7 +37608,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -37290,12 +37635,12 @@
       <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>100</v>
       </c>
@@ -37318,7 +37663,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -37348,7 +37693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -37378,7 +37723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -37408,7 +37753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -37438,7 +37783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -37468,7 +37813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -37498,7 +37843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -37528,7 +37873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -37558,7 +37903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -37588,7 +37933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -37621,7 +37966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -37654,7 +37999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -37687,7 +38032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -37720,7 +38065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -37751,7 +38096,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -37784,7 +38129,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -37817,7 +38162,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -37848,7 +38193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -37879,7 +38224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -37912,7 +38257,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -37945,7 +38290,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -37978,7 +38323,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -38011,7 +38356,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -38044,7 +38389,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -38077,7 +38422,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -38110,7 +38455,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -38143,7 +38488,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -38176,7 +38521,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -38209,7 +38554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -38242,7 +38587,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -38275,7 +38620,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -38308,7 +38653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -38341,7 +38686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -38374,7 +38719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -38407,7 +38752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -38440,7 +38785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -38473,7 +38818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>37</v>
       </c>
@@ -38504,7 +38849,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>38</v>
       </c>
@@ -38535,7 +38880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
@@ -38568,7 +38913,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -38601,7 +38946,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
@@ -38634,7 +38979,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
@@ -38667,7 +39012,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -38700,7 +39045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -38733,7 +39078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -38766,7 +39111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -38799,7 +39144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>47</v>
       </c>
@@ -38832,7 +39177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -38865,7 +39210,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -38898,7 +39243,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -38931,7 +39276,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -38964,7 +39309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -38997,7 +39342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -39030,7 +39375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -39063,7 +39408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <v>55</v>
       </c>
@@ -39096,7 +39441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="53">
         <v>56</v>
       </c>
@@ -39129,7 +39474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -39160,7 +39505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -39191,7 +39536,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -39224,7 +39569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -39257,7 +39602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -39290,7 +39635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -39323,7 +39668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -39356,7 +39701,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>64</v>
       </c>
@@ -39389,7 +39734,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>65</v>
       </c>
@@ -39422,7 +39767,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>66</v>
       </c>
@@ -39455,7 +39800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>67</v>
       </c>
@@ -39488,7 +39833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>68</v>
       </c>
@@ -39521,7 +39866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>69</v>
       </c>
@@ -39554,7 +39899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>70</v>
       </c>
@@ -39587,7 +39932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="44">
         <v>71</v>
       </c>
@@ -39620,7 +39965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="44">
         <v>72</v>
       </c>
@@ -39653,7 +39998,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="44">
         <v>73</v>
       </c>
@@ -39686,7 +40031,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="44">
         <v>74</v>
       </c>
@@ -39719,7 +40064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>75</v>
       </c>
@@ -39752,7 +40097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>76</v>
       </c>
@@ -39785,7 +40130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -39816,7 +40161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
         <v>78</v>
       </c>
@@ -39847,7 +40192,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -39880,7 +40225,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -39913,7 +40258,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -39946,7 +40291,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -39979,7 +40324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="50">
         <v>83</v>
       </c>
@@ -40012,7 +40357,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="50">
         <v>84</v>
       </c>
@@ -40045,7 +40390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="50">
         <v>85</v>
       </c>
@@ -40078,7 +40423,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="50">
         <v>86</v>
       </c>
@@ -40111,7 +40456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="51">
         <v>87</v>
       </c>
@@ -40144,7 +40489,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <v>88</v>
       </c>
@@ -40177,7 +40522,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <v>89</v>
       </c>
@@ -40210,7 +40555,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="51">
         <v>90</v>
       </c>
@@ -40243,7 +40588,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>91</v>
       </c>
@@ -40276,7 +40621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>92</v>
       </c>
@@ -40309,7 +40654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>93</v>
       </c>
@@ -40342,7 +40687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>94</v>
       </c>
@@ -40375,7 +40720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -40408,7 +40753,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -40441,7 +40786,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -40474,7 +40819,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -40507,7 +40852,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -40540,7 +40885,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/2021_ProVisioNET_subject_labellist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642795A3-980E-4551-B63D-5538F24DA391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD07CD8-A1E5-4FC1-BB54-81A92A5906D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,21 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'subjectlist&amp;labels'!$A$1:$Z$117</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4842" uniqueCount="229">
   <si>
     <t>study</t>
   </si>
@@ -720,6 +711,9 @@
   </si>
   <si>
     <t>Sachkunde</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
 </sst>
 </file>
@@ -2257,41 +2251,41 @@
   <dimension ref="A1:Z567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB309" sqref="AB309"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X334" sqref="X334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="50" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="73" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>116</v>
       </c>
@@ -2452,7 +2446,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>117</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2644,7 +2638,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>117</v>
       </c>
@@ -2740,7 +2734,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>117</v>
       </c>
@@ -2836,7 +2830,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>117</v>
       </c>
@@ -2932,7 +2926,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>117</v>
       </c>
@@ -3028,7 +3022,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>117</v>
       </c>
@@ -3124,7 +3118,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>117</v>
       </c>
@@ -3220,7 +3214,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>117</v>
       </c>
@@ -3314,7 +3308,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>117</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>117</v>
       </c>
@@ -3502,7 +3496,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
@@ -3590,7 +3584,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>117</v>
       </c>
@@ -3683,7 +3677,7 @@
         <v>22/6/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>116</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
@@ -3860,7 +3854,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>117</v>
       </c>
@@ -3956,7 +3950,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>117</v>
       </c>
@@ -4052,7 +4046,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>117</v>
       </c>
@@ -4148,7 +4142,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>117</v>
       </c>
@@ -4244,7 +4238,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>117</v>
       </c>
@@ -4340,7 +4334,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>117</v>
       </c>
@@ -4436,7 +4430,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>117</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -4629,7 +4623,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>117</v>
       </c>
@@ -4726,7 +4720,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>117</v>
       </c>
@@ -4823,7 +4817,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>117</v>
       </c>
@@ -4916,7 +4910,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>117</v>
       </c>
@@ -5010,7 +5004,7 @@
         <v>25/6/2021</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="64" t="s">
         <v>116</v>
       </c>
@@ -5091,7 +5085,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>117</v>
       </c>
@@ -5187,7 +5181,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>117</v>
       </c>
@@ -5283,7 +5277,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>117</v>
       </c>
@@ -5379,7 +5373,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5475,7 +5469,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>117</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>117</v>
       </c>
@@ -5667,7 +5661,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5763,7 +5757,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>117</v>
       </c>
@@ -5955,7 +5949,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>117</v>
       </c>
@@ -6051,7 +6045,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>117</v>
       </c>
@@ -6147,7 +6141,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>117</v>
       </c>
@@ -6240,7 +6234,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>117</v>
       </c>
@@ -6333,7 +6327,7 @@
         <v>28/6/2021</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>116</v>
       </c>
@@ -6414,7 +6408,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>117</v>
       </c>
@@ -6513,7 +6507,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>117</v>
       </c>
@@ -6612,7 +6606,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>117</v>
       </c>
@@ -6711,7 +6705,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>117</v>
       </c>
@@ -6810,7 +6804,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>117</v>
       </c>
@@ -6909,7 +6903,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>117</v>
       </c>
@@ -7002,7 +6996,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>117</v>
       </c>
@@ -7099,7 +7093,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>117</v>
       </c>
@@ -7196,7 +7190,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>117</v>
       </c>
@@ -7292,7 +7286,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>117</v>
       </c>
@@ -7387,7 +7381,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>117</v>
       </c>
@@ -7482,7 +7476,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>117</v>
       </c>
@@ -7578,7 +7572,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>117</v>
       </c>
@@ -7674,7 +7668,7 @@
         <v>29/6/2021</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>116</v>
       </c>
@@ -7755,7 +7749,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>117</v>
       </c>
@@ -7854,7 +7848,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
         <v>117</v>
       </c>
@@ -7953,7 +7947,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
@@ -8052,7 +8046,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>117</v>
       </c>
@@ -8151,7 +8145,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
         <v>117</v>
       </c>
@@ -8250,7 +8244,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>117</v>
       </c>
@@ -8348,7 +8342,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>117</v>
       </c>
@@ -8446,7 +8440,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>117</v>
       </c>
@@ -8544,7 +8538,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>117</v>
       </c>
@@ -8641,7 +8635,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>117</v>
       </c>
@@ -8737,7 +8731,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
@@ -8834,7 +8828,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="61" t="s">
         <v>117</v>
       </c>
@@ -8930,7 +8924,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="61" t="s">
         <v>117</v>
       </c>
@@ -9026,7 +9020,7 @@
         <v>30/6/2021</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>116</v>
       </c>
@@ -9107,7 +9101,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>117</v>
       </c>
@@ -9206,7 +9200,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>117</v>
       </c>
@@ -9305,7 +9299,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>117</v>
       </c>
@@ -9404,7 +9398,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>117</v>
       </c>
@@ -9503,7 +9497,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>117</v>
       </c>
@@ -9602,7 +9596,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>117</v>
       </c>
@@ -9700,7 +9694,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
         <v>117</v>
       </c>
@@ -9799,7 +9793,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>117</v>
       </c>
@@ -9897,7 +9891,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
         <v>117</v>
       </c>
@@ -9994,7 +9988,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="61" t="s">
         <v>117</v>
       </c>
@@ -10090,7 +10084,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="61" t="s">
         <v>117</v>
       </c>
@@ -10188,7 +10182,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="61" t="s">
         <v>117</v>
       </c>
@@ -10285,7 +10279,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" s="59" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="59" t="s">
         <v>117</v>
       </c>
@@ -10382,7 +10376,7 @@
         <v>2/7/2021</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>116</v>
       </c>
@@ -10463,7 +10457,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="61" t="s">
         <v>117</v>
       </c>
@@ -10561,7 +10555,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="61" t="s">
         <v>117</v>
       </c>
@@ -10659,7 +10653,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="61" t="s">
         <v>117</v>
       </c>
@@ -10757,7 +10751,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
         <v>117</v>
       </c>
@@ -10855,7 +10849,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="61" t="s">
         <v>117</v>
       </c>
@@ -10953,7 +10947,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="61" t="s">
         <v>117</v>
       </c>
@@ -11051,7 +11045,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="61" t="s">
         <v>117</v>
       </c>
@@ -11149,7 +11143,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="61" t="s">
         <v>117</v>
       </c>
@@ -11247,7 +11241,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="61" t="s">
         <v>117</v>
       </c>
@@ -11343,7 +11337,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="61" t="s">
         <v>117</v>
       </c>
@@ -11439,7 +11433,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="61" t="s">
         <v>117</v>
       </c>
@@ -11535,7 +11529,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
@@ -11630,7 +11624,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="61" t="s">
         <v>117</v>
       </c>
@@ -11725,7 +11719,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="61" t="s">
         <v>117</v>
       </c>
@@ -11818,7 +11812,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="122" t="s">
         <v>117</v>
       </c>
@@ -11912,7 +11906,7 @@
         <v>21/7/2021</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="64" t="s">
         <v>116</v>
       </c>
@@ -11993,7 +11987,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="61" t="s">
         <v>117</v>
       </c>
@@ -12087,7 +12081,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="61" t="s">
         <v>117</v>
       </c>
@@ -12181,7 +12175,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="61" t="s">
         <v>117</v>
       </c>
@@ -12276,7 +12270,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="61" t="s">
         <v>117</v>
       </c>
@@ -12371,7 +12365,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="61" t="s">
         <v>117</v>
       </c>
@@ -12466,7 +12460,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="61" t="s">
         <v>117</v>
       </c>
@@ -12561,7 +12555,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="61" t="s">
         <v>117</v>
       </c>
@@ -12656,7 +12650,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="61" t="s">
         <v>117</v>
       </c>
@@ -12751,7 +12745,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="61" t="s">
         <v>117</v>
       </c>
@@ -12844,7 +12838,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="61" t="s">
         <v>117</v>
       </c>
@@ -12937,7 +12931,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="61" t="s">
         <v>117</v>
       </c>
@@ -13030,7 +13024,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="61" t="s">
         <v>117</v>
       </c>
@@ -13122,7 +13116,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="61" t="s">
         <v>117</v>
       </c>
@@ -13214,7 +13208,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="61" t="s">
         <v>117</v>
       </c>
@@ -13304,7 +13298,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="122" t="s">
         <v>117</v>
       </c>
@@ -13395,7 +13389,7 @@
         <v>27/7/2021</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>116</v>
       </c>
@@ -13476,7 +13470,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="61" t="s">
         <v>117</v>
       </c>
@@ -13570,7 +13564,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="61" t="s">
         <v>117</v>
       </c>
@@ -13664,7 +13658,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="61" t="s">
         <v>117</v>
       </c>
@@ -13758,7 +13752,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="61" t="s">
         <v>117</v>
       </c>
@@ -13853,7 +13847,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="61" t="s">
         <v>117</v>
       </c>
@@ -13948,7 +13942,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="61" t="s">
         <v>117</v>
       </c>
@@ -14043,7 +14037,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="61" t="s">
         <v>117</v>
       </c>
@@ -14138,7 +14132,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="61" t="s">
         <v>117</v>
       </c>
@@ -14233,7 +14227,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="61" t="s">
         <v>117</v>
       </c>
@@ -14326,7 +14320,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="61" t="s">
         <v>117</v>
       </c>
@@ -14419,7 +14413,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="61" t="s">
         <v>117</v>
       </c>
@@ -14512,7 +14506,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="142" t="s">
         <v>117</v>
       </c>
@@ -14604,7 +14598,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="61" t="s">
         <v>117</v>
       </c>
@@ -14696,7 +14690,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="61" t="s">
         <v>117</v>
       </c>
@@ -14786,7 +14780,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" s="122" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="122" t="s">
         <v>117</v>
       </c>
@@ -14877,7 +14871,7 @@
         <v>28/7/2021</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" s="153" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="146" t="s">
         <v>116</v>
       </c>
@@ -14958,7 +14952,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="154" t="s">
         <v>117</v>
       </c>
@@ -15052,7 +15046,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="154" t="s">
         <v>117</v>
       </c>
@@ -15146,7 +15140,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="154" t="s">
         <v>117</v>
       </c>
@@ -15240,7 +15234,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="154" t="s">
         <v>117</v>
       </c>
@@ -15335,7 +15329,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="154" t="s">
         <v>117</v>
       </c>
@@ -15430,7 +15424,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="154" t="s">
         <v>117</v>
       </c>
@@ -15524,7 +15518,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="154" t="s">
         <v>117</v>
       </c>
@@ -15619,7 +15613,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="154" t="s">
         <v>117</v>
       </c>
@@ -15714,7 +15708,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="154" t="s">
         <v>117</v>
       </c>
@@ -15807,7 +15801,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="154" t="s">
         <v>117</v>
       </c>
@@ -15900,7 +15894,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="154" t="s">
         <v>117</v>
       </c>
@@ -15993,7 +15987,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" s="158" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="154" t="s">
         <v>117</v>
       </c>
@@ -16085,7 +16079,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="154" t="s">
         <v>117</v>
       </c>
@@ -16177,7 +16171,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" s="154" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="154" t="s">
         <v>117</v>
       </c>
@@ -16267,7 +16261,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" s="159" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="159" t="s">
         <v>117</v>
       </c>
@@ -16358,7 +16352,7 @@
         <v>5/8/2021</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="146" t="s">
         <v>116</v>
       </c>
@@ -16439,7 +16433,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="154" t="s">
         <v>117</v>
       </c>
@@ -16523,7 +16517,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="154" t="s">
         <v>117</v>
       </c>
@@ -16607,7 +16601,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="154" t="s">
         <v>117</v>
       </c>
@@ -16691,7 +16685,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="154" t="s">
         <v>117</v>
       </c>
@@ -16775,7 +16769,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="154" t="s">
         <v>117</v>
       </c>
@@ -16859,7 +16853,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="154" t="s">
         <v>117</v>
       </c>
@@ -16943,7 +16937,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="154" t="s">
         <v>117</v>
       </c>
@@ -17027,7 +17021,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="154" t="s">
         <v>117</v>
       </c>
@@ -17111,7 +17105,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="154" t="s">
         <v>117</v>
       </c>
@@ -17192,7 +17186,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="154" t="s">
         <v>117</v>
       </c>
@@ -17273,7 +17267,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="154" t="s">
         <v>117</v>
       </c>
@@ -17354,7 +17348,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="154" t="s">
         <v>117</v>
       </c>
@@ -17435,7 +17429,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="154" t="s">
         <v>117</v>
       </c>
@@ -17516,7 +17510,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="154" t="s">
         <v>117</v>
       </c>
@@ -17597,7 +17591,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="165" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="159" t="s">
         <v>117</v>
       </c>
@@ -17677,7 +17671,7 @@
         <v>31/8/2021</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="146" t="s">
         <v>117</v>
       </c>
@@ -17758,7 +17752,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="154" t="s">
         <v>117</v>
       </c>
@@ -17841,7 +17835,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="154" t="s">
         <v>117</v>
       </c>
@@ -17924,7 +17918,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="154" t="s">
         <v>117</v>
       </c>
@@ -18007,7 +18001,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="154" t="s">
         <v>117</v>
       </c>
@@ -18090,7 +18084,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="154" t="s">
         <v>117</v>
       </c>
@@ -18173,7 +18167,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="154" t="s">
         <v>117</v>
       </c>
@@ -18256,7 +18250,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="154" t="s">
         <v>117</v>
       </c>
@@ -18339,7 +18333,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="154" t="s">
         <v>117</v>
       </c>
@@ -18422,7 +18416,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="154" t="s">
         <v>117</v>
       </c>
@@ -18502,7 +18496,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="154" t="s">
         <v>117</v>
       </c>
@@ -18582,7 +18576,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="154" t="s">
         <v>117</v>
       </c>
@@ -18662,7 +18656,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="154" t="s">
         <v>117</v>
       </c>
@@ -18742,7 +18736,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="154" t="s">
         <v>117</v>
       </c>
@@ -18822,7 +18816,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="154" t="s">
         <v>117</v>
       </c>
@@ -18902,7 +18896,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="181" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="159" t="s">
         <v>117</v>
       </c>
@@ -18982,7 +18976,7 @@
         <v>1/9/2021</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="146" t="s">
         <v>117</v>
       </c>
@@ -19063,7 +19057,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="154" t="s">
         <v>117</v>
       </c>
@@ -19146,7 +19140,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="154" t="s">
         <v>117</v>
       </c>
@@ -19229,7 +19223,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="154" t="s">
         <v>117</v>
       </c>
@@ -19312,7 +19306,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="154" t="s">
         <v>117</v>
       </c>
@@ -19395,7 +19389,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="154" t="s">
         <v>117</v>
       </c>
@@ -19478,7 +19472,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="154" t="s">
         <v>117</v>
       </c>
@@ -19561,7 +19555,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="154" t="s">
         <v>117</v>
       </c>
@@ -19644,7 +19638,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="154" t="s">
         <v>117</v>
       </c>
@@ -19727,7 +19721,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="154" t="s">
         <v>117</v>
       </c>
@@ -19807,7 +19801,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="154" t="s">
         <v>117</v>
       </c>
@@ -19887,7 +19881,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="154" t="s">
         <v>117</v>
       </c>
@@ -19967,7 +19961,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="154" t="s">
         <v>117</v>
       </c>
@@ -20047,7 +20041,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="154" t="s">
         <v>117</v>
       </c>
@@ -20127,7 +20121,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="154" t="s">
         <v>117</v>
       </c>
@@ -20207,7 +20201,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="197" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="159" t="s">
         <v>117</v>
       </c>
@@ -20287,7 +20281,7 @@
         <v>15/9/2021</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="146" t="s">
         <v>117</v>
       </c>
@@ -20368,7 +20362,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="154" t="s">
         <v>117</v>
       </c>
@@ -20451,7 +20445,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="154" t="s">
         <v>117</v>
       </c>
@@ -20534,7 +20528,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="154" t="s">
         <v>117</v>
       </c>
@@ -20617,7 +20611,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="154" t="s">
         <v>117</v>
       </c>
@@ -20700,7 +20694,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="154" t="s">
         <v>117</v>
       </c>
@@ -20783,7 +20777,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="154" t="s">
         <v>117</v>
       </c>
@@ -20866,7 +20860,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="154" t="s">
         <v>117</v>
       </c>
@@ -20949,7 +20943,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="154" t="s">
         <v>117</v>
       </c>
@@ -21032,7 +21026,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="154" t="s">
         <v>117</v>
       </c>
@@ -21112,7 +21106,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="154" t="s">
         <v>117</v>
       </c>
@@ -21192,7 +21186,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="154" t="s">
         <v>117</v>
       </c>
@@ -21272,7 +21266,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="154" t="s">
         <v>117</v>
       </c>
@@ -21352,7 +21346,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="154" t="s">
         <v>117</v>
       </c>
@@ -21435,7 +21429,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="154" t="s">
         <v>117</v>
       </c>
@@ -21518,7 +21512,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="154" t="s">
         <v>117</v>
       </c>
@@ -21598,7 +21592,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="214" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="159" t="s">
         <v>117</v>
       </c>
@@ -21678,7 +21672,7 @@
         <v>27/9/2021</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="146" t="s">
         <v>117</v>
       </c>
@@ -21759,7 +21753,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="154" t="s">
         <v>117</v>
       </c>
@@ -21842,7 +21836,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="154" t="s">
         <v>117</v>
       </c>
@@ -21925,7 +21919,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="154" t="s">
         <v>117</v>
       </c>
@@ -22008,7 +22002,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="154" t="s">
         <v>117</v>
       </c>
@@ -22091,7 +22085,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="154" t="s">
         <v>117</v>
       </c>
@@ -22174,7 +22168,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="154" t="s">
         <v>117</v>
       </c>
@@ -22257,7 +22251,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="154" t="s">
         <v>117</v>
       </c>
@@ -22340,7 +22334,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="154" t="s">
         <v>117</v>
       </c>
@@ -22423,7 +22417,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="154" t="s">
         <v>117</v>
       </c>
@@ -22503,7 +22497,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="154" t="s">
         <v>117</v>
       </c>
@@ -22583,7 +22577,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="154" t="s">
         <v>117</v>
       </c>
@@ -22663,7 +22657,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="154" t="s">
         <v>117</v>
       </c>
@@ -22743,7 +22737,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="154" t="s">
         <v>117</v>
       </c>
@@ -22823,7 +22817,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="154" t="s">
         <v>117</v>
       </c>
@@ -22903,7 +22897,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="230" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="159" t="s">
         <v>117</v>
       </c>
@@ -22983,7 +22977,7 @@
         <v>5/10/2021</v>
       </c>
     </row>
-    <row r="231" spans="1:26" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="146" t="s">
         <v>117</v>
       </c>
@@ -23064,7 +23058,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="154" t="s">
         <v>117</v>
       </c>
@@ -23147,7 +23141,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="154" t="s">
         <v>117</v>
       </c>
@@ -23230,7 +23224,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="154" t="s">
         <v>117</v>
       </c>
@@ -23313,7 +23307,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="154" t="s">
         <v>117</v>
       </c>
@@ -23396,7 +23390,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="154" t="s">
         <v>117</v>
       </c>
@@ -23479,7 +23473,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="154" t="s">
         <v>117</v>
       </c>
@@ -23562,7 +23556,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="154" t="s">
         <v>117</v>
       </c>
@@ -23645,7 +23639,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="154" t="s">
         <v>117</v>
       </c>
@@ -23728,7 +23722,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="154" t="s">
         <v>117</v>
       </c>
@@ -23808,7 +23802,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="154" t="s">
         <v>117</v>
       </c>
@@ -23888,7 +23882,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="154" t="s">
         <v>117</v>
       </c>
@@ -23968,7 +23962,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="154" t="s">
         <v>117</v>
       </c>
@@ -24048,7 +24042,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="154" t="s">
         <v>117</v>
       </c>
@@ -24128,7 +24122,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="154" t="s">
         <v>117</v>
       </c>
@@ -24208,7 +24202,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="246" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="159" t="s">
         <v>117</v>
       </c>
@@ -24288,7 +24282,7 @@
         <v>6/10/2021</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="146" t="s">
         <v>117</v>
       </c>
@@ -24369,7 +24363,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="154" t="s">
         <v>117</v>
       </c>
@@ -24452,7 +24446,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="154" t="s">
         <v>117</v>
       </c>
@@ -24535,7 +24529,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="154" t="s">
         <v>117</v>
       </c>
@@ -24618,7 +24612,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="154" t="s">
         <v>117</v>
       </c>
@@ -24701,7 +24695,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="154" t="s">
         <v>117</v>
       </c>
@@ -24784,7 +24778,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="154" t="s">
         <v>117</v>
       </c>
@@ -24867,7 +24861,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="154" t="s">
         <v>117</v>
       </c>
@@ -24950,7 +24944,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="154" t="s">
         <v>117</v>
       </c>
@@ -25033,7 +25027,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="154" t="s">
         <v>117</v>
       </c>
@@ -25113,7 +25107,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="154" t="s">
         <v>117</v>
       </c>
@@ -25193,7 +25187,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="154" t="s">
         <v>117</v>
       </c>
@@ -25273,7 +25267,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="154" t="s">
         <v>117</v>
       </c>
@@ -25353,7 +25347,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="154" t="s">
         <v>117</v>
       </c>
@@ -25433,7 +25427,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="154" t="s">
         <v>117</v>
       </c>
@@ -25513,7 +25507,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="262" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="159" t="s">
         <v>117</v>
       </c>
@@ -25591,7 +25585,7 @@
         <v>13/10/2021</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="146" t="s">
         <v>117</v>
       </c>
@@ -25672,7 +25666,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="154" t="s">
         <v>117</v>
       </c>
@@ -25755,7 +25749,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="154" t="s">
         <v>117</v>
       </c>
@@ -25838,7 +25832,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="154" t="s">
         <v>117</v>
       </c>
@@ -25921,7 +25915,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="154" t="s">
         <v>117</v>
       </c>
@@ -26004,7 +25998,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="154" t="s">
         <v>117</v>
       </c>
@@ -26087,7 +26081,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="154" t="s">
         <v>117</v>
       </c>
@@ -26170,7 +26164,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="154" t="s">
         <v>117</v>
       </c>
@@ -26253,7 +26247,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="154" t="s">
         <v>117</v>
       </c>
@@ -26336,7 +26330,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="154" t="s">
         <v>117</v>
       </c>
@@ -26416,7 +26410,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="154" t="s">
         <v>117</v>
       </c>
@@ -26496,7 +26490,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="154" t="s">
         <v>117</v>
       </c>
@@ -26576,7 +26570,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="154" t="s">
         <v>117</v>
       </c>
@@ -26656,7 +26650,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="154" t="s">
         <v>117</v>
       </c>
@@ -26736,7 +26730,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="154" t="s">
         <v>117</v>
       </c>
@@ -26816,7 +26810,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="278" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="159" t="s">
         <v>117</v>
       </c>
@@ -26894,7 +26888,7 @@
         <v>18/10/2021</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="146" t="s">
         <v>117</v>
       </c>
@@ -26975,7 +26969,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="154" t="s">
         <v>117</v>
       </c>
@@ -27058,7 +27052,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="154" t="s">
         <v>117</v>
       </c>
@@ -27141,7 +27135,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="154" t="s">
         <v>117</v>
       </c>
@@ -27224,7 +27218,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="154" t="s">
         <v>117</v>
       </c>
@@ -27307,7 +27301,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="154" t="s">
         <v>117</v>
       </c>
@@ -27390,7 +27384,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="154" t="s">
         <v>117</v>
       </c>
@@ -27473,7 +27467,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="154" t="s">
         <v>117</v>
       </c>
@@ -27556,7 +27550,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="154" t="s">
         <v>117</v>
       </c>
@@ -27639,7 +27633,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="154" t="s">
         <v>117</v>
       </c>
@@ -27719,7 +27713,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="154" t="s">
         <v>117</v>
       </c>
@@ -27799,7 +27793,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="154" t="s">
         <v>117</v>
       </c>
@@ -27879,7 +27873,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="154" t="s">
         <v>117</v>
       </c>
@@ -27959,7 +27953,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="154" t="s">
         <v>117</v>
       </c>
@@ -28039,7 +28033,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="154" t="s">
         <v>117</v>
       </c>
@@ -28119,7 +28113,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="294" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="159" t="s">
         <v>117</v>
       </c>
@@ -28197,7 +28191,7 @@
         <v>8/11/2021</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="146" t="s">
         <v>117</v>
       </c>
@@ -28278,7 +28272,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="154" t="s">
         <v>117</v>
       </c>
@@ -28357,11 +28351,11 @@
         <v>2021</v>
       </c>
       <c r="Z296" s="157" t="str">
-        <f t="shared" ref="Z296:Z310" si="572">W296&amp;"/"&amp;X296&amp;"/"&amp;Y296</f>
+        <f t="shared" ref="Z296:Z303" si="572">W296&amp;"/"&amp;X296&amp;"/"&amp;Y296</f>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="154" t="s">
         <v>117</v>
       </c>
@@ -28444,7 +28438,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="154" t="s">
         <v>117</v>
       </c>
@@ -28527,7 +28521,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="154" t="s">
         <v>117</v>
       </c>
@@ -28610,7 +28604,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="300" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="154" t="s">
         <v>117</v>
       </c>
@@ -28693,7 +28687,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="301" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="154" t="s">
         <v>117</v>
       </c>
@@ -28776,7 +28770,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="302" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="154" t="s">
         <v>117</v>
       </c>
@@ -28859,7 +28853,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="303" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="154" t="s">
         <v>117</v>
       </c>
@@ -28942,7 +28936,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="304" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="154" t="s">
         <v>117</v>
       </c>
@@ -29025,7 +29019,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="154" t="s">
         <v>117</v>
       </c>
@@ -29108,7 +29102,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="154" t="s">
         <v>117</v>
       </c>
@@ -29191,7 +29185,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="154" t="s">
         <v>117</v>
       </c>
@@ -29274,7 +29268,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="154" t="s">
         <v>117</v>
       </c>
@@ -29354,7 +29348,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="154" t="s">
         <v>117</v>
       </c>
@@ -29434,7 +29428,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="310" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="154" t="s">
         <v>117</v>
       </c>
@@ -29515,7 +29509,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="311" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="154" t="s">
         <v>117</v>
       </c>
@@ -29595,7 +29589,7 @@
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="312" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="154" t="s">
         <v>117</v>
       </c>
@@ -29671,11 +29665,11 @@
         <v>2021</v>
       </c>
       <c r="Z312" s="157" t="str">
-        <f>W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
+        <f t="shared" ref="Z312:Z330" si="578">W312&amp;"/"&amp;X312&amp;"/"&amp;Y312</f>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="313" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="154" t="s">
         <v>117</v>
       </c>
@@ -29751,11 +29745,11 @@
         <v>2021</v>
       </c>
       <c r="Z313" s="157" t="str">
-        <f>W313&amp;"/"&amp;X313&amp;"/"&amp;Y313</f>
+        <f t="shared" si="578"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="314" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="159" t="s">
         <v>117</v>
       </c>
@@ -29830,11 +29824,11 @@
         <v>2021</v>
       </c>
       <c r="Z314" s="160" t="str">
-        <f>W314&amp;"/"&amp;X314&amp;"/"&amp;Y314</f>
+        <f t="shared" si="578"/>
         <v>12/11/2021</v>
       </c>
     </row>
-    <row r="315" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="146" t="s">
         <v>117</v>
       </c>
@@ -29911,11 +29905,11 @@
         <v>2021</v>
       </c>
       <c r="Z315" s="152" t="str">
-        <f>W315&amp;"/"&amp;X315&amp;"/"&amp;Y315</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="316" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="154" t="s">
         <v>117</v>
       </c>
@@ -29944,7 +29938,7 @@
         <v>1</v>
       </c>
       <c r="J316" s="150" t="str">
-        <f t="shared" ref="J316:J323" si="578">CONCATENATE(C316,"_",D316,"_",E316,"_",F316,"_",H316,"_",I316)</f>
+        <f t="shared" ref="J316:J323" si="579">CONCATENATE(C316,"_",D316,"_",E316,"_",F316,"_",H316,"_",I316)</f>
         <v>ProVisioNET_study_111_03_cam1_1</v>
       </c>
       <c r="K316" s="156" t="s">
@@ -29994,11 +29988,11 @@
         <v>2021</v>
       </c>
       <c r="Z316" s="157" t="str">
-        <f>W316&amp;"/"&amp;X316&amp;"/"&amp;Y316</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="317" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="154" t="s">
         <v>117</v>
       </c>
@@ -30027,7 +30021,7 @@
         <v>2</v>
       </c>
       <c r="J317" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam1_2</v>
       </c>
       <c r="K317" s="156" t="s">
@@ -30064,7 +30058,7 @@
         <v>2000</v>
       </c>
       <c r="V317" s="163" t="str">
-        <f t="shared" ref="V317:V330" si="579">"1/10/2000"</f>
+        <f t="shared" ref="V317:V330" si="580">"1/10/2000"</f>
         <v>1/10/2000</v>
       </c>
       <c r="W317" s="157">
@@ -30077,11 +30071,11 @@
         <v>2021</v>
       </c>
       <c r="Z317" s="157" t="str">
-        <f>W317&amp;"/"&amp;X317&amp;"/"&amp;Y317</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="318" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="154" t="s">
         <v>117</v>
       </c>
@@ -30110,7 +30104,7 @@
         <v>1</v>
       </c>
       <c r="J318" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam2_1</v>
       </c>
       <c r="K318" s="156" t="s">
@@ -30147,7 +30141,7 @@
         <v>2000</v>
       </c>
       <c r="V318" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W318" s="157">
@@ -30160,11 +30154,11 @@
         <v>2021</v>
       </c>
       <c r="Z318" s="157" t="str">
-        <f>W318&amp;"/"&amp;X318&amp;"/"&amp;Y318</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="319" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="154" t="s">
         <v>117</v>
       </c>
@@ -30193,7 +30187,7 @@
         <v>2</v>
       </c>
       <c r="J319" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam2_2</v>
       </c>
       <c r="K319" s="156" t="s">
@@ -30230,7 +30224,7 @@
         <v>2000</v>
       </c>
       <c r="V319" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W319" s="157">
@@ -30243,11 +30237,11 @@
         <v>2021</v>
       </c>
       <c r="Z319" s="157" t="str">
-        <f>W319&amp;"/"&amp;X319&amp;"/"&amp;Y319</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="320" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="154" t="s">
         <v>117</v>
       </c>
@@ -30276,7 +30270,7 @@
         <v>1</v>
       </c>
       <c r="J320" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam3_1</v>
       </c>
       <c r="K320" s="156" t="s">
@@ -30313,7 +30307,7 @@
         <v>2000</v>
       </c>
       <c r="V320" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W320" s="157">
@@ -30326,11 +30320,11 @@
         <v>2021</v>
       </c>
       <c r="Z320" s="157" t="str">
-        <f>W320&amp;"/"&amp;X320&amp;"/"&amp;Y320</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="321" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="154" t="s">
         <v>117</v>
       </c>
@@ -30359,7 +30353,7 @@
         <v>2</v>
       </c>
       <c r="J321" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam3_2</v>
       </c>
       <c r="K321" s="156" t="s">
@@ -30396,7 +30390,7 @@
         <v>2000</v>
       </c>
       <c r="V321" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W321" s="157">
@@ -30409,11 +30403,11 @@
         <v>2021</v>
       </c>
       <c r="Z321" s="157" t="str">
-        <f>W321&amp;"/"&amp;X321&amp;"/"&amp;Y321</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="322" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="154" t="s">
         <v>117</v>
       </c>
@@ -30442,7 +30436,7 @@
         <v>1</v>
       </c>
       <c r="J322" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam4_1</v>
       </c>
       <c r="K322" s="156" t="s">
@@ -30479,7 +30473,7 @@
         <v>2000</v>
       </c>
       <c r="V322" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W322" s="157">
@@ -30492,11 +30486,11 @@
         <v>2021</v>
       </c>
       <c r="Z322" s="157" t="str">
-        <f>W322&amp;"/"&amp;X322&amp;"/"&amp;Y322</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="323" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="154" t="s">
         <v>117</v>
       </c>
@@ -30525,7 +30519,7 @@
         <v>2</v>
       </c>
       <c r="J323" s="150" t="str">
-        <f t="shared" si="578"/>
+        <f t="shared" si="579"/>
         <v>ProVisioNET_study_111_03_cam4_2</v>
       </c>
       <c r="K323" s="156" t="s">
@@ -30562,7 +30556,7 @@
         <v>2000</v>
       </c>
       <c r="V323" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W323" s="157">
@@ -30575,11 +30569,11 @@
         <v>2021</v>
       </c>
       <c r="Z323" s="157" t="str">
-        <f>W323&amp;"/"&amp;X323&amp;"/"&amp;Y323</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="324" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="154" t="s">
         <v>117</v>
       </c>
@@ -30605,7 +30599,7 @@
         <v>120</v>
       </c>
       <c r="J324" s="150" t="str">
-        <f t="shared" ref="J324:J330" si="580">CONCATENATE(C324,"_",D324,"_",E324,"_",F324,"_",H324)</f>
+        <f t="shared" ref="J324:J331" si="581">CONCATENATE(C324,"_",D324,"_",E324,"_",F324,"_",H324)</f>
         <v>ProVisioNET_study_111_03_glasses</v>
       </c>
       <c r="K324" s="156" t="s">
@@ -30642,7 +30636,7 @@
         <v>2000</v>
       </c>
       <c r="V324" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W324" s="157">
@@ -30655,11 +30649,11 @@
         <v>2021</v>
       </c>
       <c r="Z324" s="157" t="str">
-        <f>W324&amp;"/"&amp;X324&amp;"/"&amp;Y324</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="325" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="154" t="s">
         <v>117</v>
       </c>
@@ -30685,7 +30679,7 @@
         <v>121</v>
       </c>
       <c r="J325" s="150" t="str">
-        <f t="shared" si="580"/>
+        <f t="shared" si="581"/>
         <v>ProVisioNET_study_111_03_ambient</v>
       </c>
       <c r="K325" s="156" t="s">
@@ -30722,7 +30716,7 @@
         <v>2000</v>
       </c>
       <c r="V325" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W325" s="157">
@@ -30735,11 +30729,11 @@
         <v>2021</v>
       </c>
       <c r="Z325" s="157" t="str">
-        <f>W325&amp;"/"&amp;X325&amp;"/"&amp;Y325</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="326" spans="1:26" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="154" t="s">
         <v>117</v>
       </c>
@@ -30766,7 +30760,7 @@
       </c>
       <c r="I326"/>
       <c r="J326" s="150" t="str">
-        <f t="shared" si="580"/>
+        <f t="shared" si="581"/>
         <v>ProVisioNET_study_111_03_ETrawdata</v>
       </c>
       <c r="K326" s="156" t="s">
@@ -30803,7 +30797,7 @@
         <v>2000</v>
       </c>
       <c r="V326" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W326" s="157">
@@ -30816,11 +30810,11 @@
         <v>2021</v>
       </c>
       <c r="Z326" s="157" t="str">
-        <f>W326&amp;"/"&amp;X326&amp;"/"&amp;Y326</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="327" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="154" t="s">
         <v>117</v>
       </c>
@@ -30846,7 +30840,7 @@
         <v>186</v>
       </c>
       <c r="J327" s="150" t="str">
-        <f t="shared" si="580"/>
+        <f t="shared" si="581"/>
         <v>ProVisioNET_study_111_03_sri_obs</v>
       </c>
       <c r="K327" s="156" t="s">
@@ -30883,7 +30877,7 @@
         <v>2000</v>
       </c>
       <c r="V327" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W327" s="157">
@@ -30896,11 +30890,11 @@
         <v>2021</v>
       </c>
       <c r="Z327" s="157" t="str">
-        <f>W327&amp;"/"&amp;X327&amp;"/"&amp;Y327</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="328" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="154" t="s">
         <v>117</v>
       </c>
@@ -30926,7 +30920,7 @@
         <v>180</v>
       </c>
       <c r="J328" s="150" t="str">
-        <f t="shared" si="580"/>
+        <f t="shared" si="581"/>
         <v>ProVisioNET_study_111_03_sri_ambient</v>
       </c>
       <c r="K328" s="156" t="s">
@@ -30963,7 +30957,7 @@
         <v>2000</v>
       </c>
       <c r="V328" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W328" s="157">
@@ -30976,11 +30970,11 @@
         <v>2021</v>
       </c>
       <c r="Z328" s="157" t="str">
-        <f>W328&amp;"/"&amp;X328&amp;"/"&amp;Y328</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="329" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="154" t="s">
         <v>117</v>
       </c>
@@ -31006,7 +31000,7 @@
         <v>199</v>
       </c>
       <c r="J329" s="150" t="str">
-        <f t="shared" si="580"/>
+        <f t="shared" si="581"/>
         <v>ProVisioNET_study_111_03_fitbit</v>
       </c>
       <c r="K329" s="156" t="s">
@@ -31043,7 +31037,7 @@
         <v>2000</v>
       </c>
       <c r="V329" s="163" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W329" s="157">
@@ -31056,11 +31050,11 @@
         <v>2021</v>
       </c>
       <c r="Z329" s="157" t="str">
-        <f>W329&amp;"/"&amp;X329&amp;"/"&amp;Y329</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="330" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="159" t="s">
         <v>117</v>
       </c>
@@ -31087,7 +31081,7 @@
       </c>
       <c r="I330" s="166"/>
       <c r="J330" s="160" t="str">
-        <f t="shared" si="580"/>
+        <f t="shared" si="581"/>
         <v>ProVisioNET_study_111_03_zed</v>
       </c>
       <c r="K330" s="165"/>
@@ -31122,7 +31116,7 @@
         <v>2000</v>
       </c>
       <c r="V330" s="168" t="str">
-        <f t="shared" si="579"/>
+        <f t="shared" si="580"/>
         <v>1/10/2000</v>
       </c>
       <c r="W330" s="160">
@@ -31135,11 +31129,1369 @@
         <v>2021</v>
       </c>
       <c r="Z330" s="160" t="str">
-        <f>W330&amp;"/"&amp;X330&amp;"/"&amp;Y330</f>
+        <f t="shared" si="578"/>
         <v>15/11/2021</v>
       </c>
     </row>
-    <row r="567" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B331" s="147">
+        <v>8</v>
+      </c>
+      <c r="C331" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D331" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E331" s="148" t="s">
+        <v>228</v>
+      </c>
+      <c r="F331" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="G331" s="147">
+        <v>16</v>
+      </c>
+      <c r="H331" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="I331" s="147"/>
+      <c r="J331" s="150" t="str">
+        <f t="shared" si="581"/>
+        <v>ProVisioNET_study_205_05_label</v>
+      </c>
+      <c r="K331" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="L331" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="M331" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="N331" s="147">
+        <v>6</v>
+      </c>
+      <c r="O331" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="P331" s="147"/>
+      <c r="Q331" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="R331" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="S331" s="152">
+        <v>12</v>
+      </c>
+      <c r="T331" s="152">
+        <v>3</v>
+      </c>
+      <c r="U331" s="152">
+        <v>1985</v>
+      </c>
+      <c r="V331" s="152" t="str">
+        <f>S331&amp;"/"&amp;T331&amp;"/"&amp;U331</f>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W331" s="152">
+        <v>26</v>
+      </c>
+      <c r="X331" s="152">
+        <v>11</v>
+      </c>
+      <c r="Y331" s="152">
+        <v>2021</v>
+      </c>
+      <c r="Z331" s="152" t="str">
+        <f>W331&amp;"/"&amp;X331&amp;"/"&amp;Y331</f>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B332" s="3">
+        <v>8</v>
+      </c>
+      <c r="C332" t="s">
+        <v>176</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E332" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F332" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G332" s="150">
+        <v>16</v>
+      </c>
+      <c r="H332" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I332" s="3">
+        <v>1</v>
+      </c>
+      <c r="J332" s="150" t="str">
+        <f t="shared" ref="J332:J339" si="582">CONCATENATE(C332,"_",D332,"_",E332,"_",F332,"_",H332,"_",I332)</f>
+        <v>ProVisioNET_study_205_05_cam1_1</v>
+      </c>
+      <c r="K332" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M332" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N332" s="3">
+        <v>6</v>
+      </c>
+      <c r="O332" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R332" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S332" s="3">
+        <v>12</v>
+      </c>
+      <c r="T332" s="3">
+        <v>3</v>
+      </c>
+      <c r="U332" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V332" s="3" t="str">
+        <f>"12/3/1985"</f>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W332" s="157">
+        <v>26</v>
+      </c>
+      <c r="X332" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y332" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z332" s="157" t="str">
+        <f t="shared" ref="Z332:Z345" si="583">W332&amp;"/"&amp;X332&amp;"/"&amp;Y332</f>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B333" s="3">
+        <v>8</v>
+      </c>
+      <c r="C333" t="s">
+        <v>176</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E333" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F333" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G333" s="150">
+        <v>16</v>
+      </c>
+      <c r="H333" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I333" s="150">
+        <v>2</v>
+      </c>
+      <c r="J333" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam1_2</v>
+      </c>
+      <c r="K333" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M333" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N333" s="3">
+        <v>6</v>
+      </c>
+      <c r="O333" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R333" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S333" s="3">
+        <v>12</v>
+      </c>
+      <c r="T333" s="3">
+        <v>3</v>
+      </c>
+      <c r="U333" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V333" s="3" t="str">
+        <f t="shared" ref="V333:V347" si="584">"12/3/1985"</f>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W333" s="157">
+        <v>26</v>
+      </c>
+      <c r="X333" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y333" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z333" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B334" s="3">
+        <v>8</v>
+      </c>
+      <c r="C334" t="s">
+        <v>176</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E334" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F334" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G334" s="150">
+        <v>16</v>
+      </c>
+      <c r="H334" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I334" s="150">
+        <v>1</v>
+      </c>
+      <c r="J334" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam2_1</v>
+      </c>
+      <c r="K334" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M334" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N334" s="3">
+        <v>6</v>
+      </c>
+      <c r="O334" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R334" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S334" s="3">
+        <v>12</v>
+      </c>
+      <c r="T334" s="3">
+        <v>3</v>
+      </c>
+      <c r="U334" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V334" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W334" s="157">
+        <v>26</v>
+      </c>
+      <c r="X334" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y334" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z334" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A335" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B335" s="3">
+        <v>8</v>
+      </c>
+      <c r="C335" t="s">
+        <v>176</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E335" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F335" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G335" s="150">
+        <v>16</v>
+      </c>
+      <c r="H335" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I335" s="150">
+        <v>2</v>
+      </c>
+      <c r="J335" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam2_2</v>
+      </c>
+      <c r="K335" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M335" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N335" s="3">
+        <v>6</v>
+      </c>
+      <c r="O335" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R335" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S335" s="3">
+        <v>12</v>
+      </c>
+      <c r="T335" s="3">
+        <v>3</v>
+      </c>
+      <c r="U335" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V335" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W335" s="157">
+        <v>26</v>
+      </c>
+      <c r="X335" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y335" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z335" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B336" s="3">
+        <v>8</v>
+      </c>
+      <c r="C336" t="s">
+        <v>176</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E336" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F336" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G336" s="150">
+        <v>16</v>
+      </c>
+      <c r="H336" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I336" s="150">
+        <v>1</v>
+      </c>
+      <c r="J336" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam3_1</v>
+      </c>
+      <c r="K336" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M336" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N336" s="3">
+        <v>6</v>
+      </c>
+      <c r="O336" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P336" s="3"/>
+      <c r="Q336" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R336" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S336" s="3">
+        <v>12</v>
+      </c>
+      <c r="T336" s="3">
+        <v>3</v>
+      </c>
+      <c r="U336" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V336" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W336" s="157">
+        <v>26</v>
+      </c>
+      <c r="X336" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y336" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z336" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B337" s="3">
+        <v>8</v>
+      </c>
+      <c r="C337" t="s">
+        <v>176</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E337" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F337" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G337" s="150">
+        <v>16</v>
+      </c>
+      <c r="H337" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="I337" s="150">
+        <v>2</v>
+      </c>
+      <c r="J337" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam3_2</v>
+      </c>
+      <c r="K337" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M337" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N337" s="3">
+        <v>6</v>
+      </c>
+      <c r="O337" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R337" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S337" s="3">
+        <v>12</v>
+      </c>
+      <c r="T337" s="3">
+        <v>3</v>
+      </c>
+      <c r="U337" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V337" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W337" s="157">
+        <v>26</v>
+      </c>
+      <c r="X337" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y337" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z337" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B338" s="3">
+        <v>8</v>
+      </c>
+      <c r="C338" t="s">
+        <v>176</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E338" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F338" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G338" s="150">
+        <v>16</v>
+      </c>
+      <c r="H338" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I338" s="150">
+        <v>1</v>
+      </c>
+      <c r="J338" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam4_1</v>
+      </c>
+      <c r="K338" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N338" s="3">
+        <v>6</v>
+      </c>
+      <c r="O338" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P338" s="3"/>
+      <c r="Q338" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R338" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S338" s="3">
+        <v>12</v>
+      </c>
+      <c r="T338" s="3">
+        <v>3</v>
+      </c>
+      <c r="U338" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V338" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W338" s="157">
+        <v>26</v>
+      </c>
+      <c r="X338" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y338" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z338" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A339" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B339" s="3">
+        <v>8</v>
+      </c>
+      <c r="C339" t="s">
+        <v>176</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E339" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F339" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G339" s="150">
+        <v>16</v>
+      </c>
+      <c r="H339" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I339" s="150">
+        <v>2</v>
+      </c>
+      <c r="J339" s="150" t="str">
+        <f t="shared" si="582"/>
+        <v>ProVisioNET_study_205_05_cam4_2</v>
+      </c>
+      <c r="K339" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M339" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N339" s="3">
+        <v>6</v>
+      </c>
+      <c r="O339" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P339" s="3"/>
+      <c r="Q339" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R339" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S339" s="3">
+        <v>12</v>
+      </c>
+      <c r="T339" s="3">
+        <v>3</v>
+      </c>
+      <c r="U339" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V339" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W339" s="157">
+        <v>26</v>
+      </c>
+      <c r="X339" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y339" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z339" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B340" s="3">
+        <v>8</v>
+      </c>
+      <c r="C340" t="s">
+        <v>176</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F340" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G340" s="150">
+        <v>16</v>
+      </c>
+      <c r="H340" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J340" s="150" t="str">
+        <f t="shared" ref="J340:J343" si="585">CONCATENATE(C340,"_",D340,"_",E340,"_",F340,"_",H340)</f>
+        <v>ProVisioNET_study_205_05_glasses</v>
+      </c>
+      <c r="K340" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N340" s="3">
+        <v>6</v>
+      </c>
+      <c r="O340" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P340" s="3"/>
+      <c r="Q340" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R340" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S340" s="3">
+        <v>12</v>
+      </c>
+      <c r="T340" s="3">
+        <v>3</v>
+      </c>
+      <c r="U340" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V340" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W340" s="157">
+        <v>26</v>
+      </c>
+      <c r="X340" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y340" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z340" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A341" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B341" s="3">
+        <v>8</v>
+      </c>
+      <c r="C341" t="s">
+        <v>176</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E341" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F341" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G341" s="150">
+        <v>16</v>
+      </c>
+      <c r="H341" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="J341" s="150" t="str">
+        <f t="shared" si="585"/>
+        <v>ProVisioNET_study_205_05_ambient</v>
+      </c>
+      <c r="K341" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N341" s="3">
+        <v>6</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P341" s="3"/>
+      <c r="Q341" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R341" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S341" s="3">
+        <v>12</v>
+      </c>
+      <c r="T341" s="3">
+        <v>3</v>
+      </c>
+      <c r="U341" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V341" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W341" s="157">
+        <v>26</v>
+      </c>
+      <c r="X341" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y341" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z341" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B342" s="3">
+        <v>8</v>
+      </c>
+      <c r="C342" t="s">
+        <v>176</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E342" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F342" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G342" s="150">
+        <v>16</v>
+      </c>
+      <c r="H342" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="J342" s="150" t="str">
+        <f t="shared" si="585"/>
+        <v>ProVisioNET_study_205_05_ETrawdata</v>
+      </c>
+      <c r="K342" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N342" s="3">
+        <v>6</v>
+      </c>
+      <c r="O342" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P342" s="3"/>
+      <c r="Q342" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R342" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S342" s="3">
+        <v>12</v>
+      </c>
+      <c r="T342" s="3">
+        <v>3</v>
+      </c>
+      <c r="U342" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V342" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W342" s="157">
+        <v>26</v>
+      </c>
+      <c r="X342" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y342" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z342" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A343" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B343" s="3">
+        <v>8</v>
+      </c>
+      <c r="C343" t="s">
+        <v>176</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E343" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F343" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G343" s="150">
+        <v>16</v>
+      </c>
+      <c r="H343" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="J343" s="150" t="str">
+        <f t="shared" si="585"/>
+        <v>ProVisioNET_study_205_05_sri_obs</v>
+      </c>
+      <c r="K343" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N343" s="3">
+        <v>6</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P343" s="3"/>
+      <c r="Q343" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R343" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S343" s="3">
+        <v>12</v>
+      </c>
+      <c r="T343" s="3">
+        <v>3</v>
+      </c>
+      <c r="U343" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V343" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W343" s="157">
+        <v>26</v>
+      </c>
+      <c r="X343" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y343" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z343" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="344" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A344" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B344" s="3">
+        <v>8</v>
+      </c>
+      <c r="C344" t="s">
+        <v>176</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E344" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F344" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G344" s="150">
+        <v>16</v>
+      </c>
+      <c r="H344" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="I344" s="3">
+        <v>1</v>
+      </c>
+      <c r="J344" s="150" t="str">
+        <f>CONCATENATE(C344,"_",D344,"_",E344,"_",F344,"_",H344,"_",I344)</f>
+        <v>ProVisioNET_study_205_05_sri_ambient_1</v>
+      </c>
+      <c r="K344" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N344" s="3">
+        <v>6</v>
+      </c>
+      <c r="O344" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P344" s="3"/>
+      <c r="Q344" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R344" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S344" s="3">
+        <v>12</v>
+      </c>
+      <c r="T344" s="3">
+        <v>3</v>
+      </c>
+      <c r="U344" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V344" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W344" s="157">
+        <v>26</v>
+      </c>
+      <c r="X344" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y344" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z344" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B345" s="3">
+        <v>8</v>
+      </c>
+      <c r="C345" t="s">
+        <v>176</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E345" s="3">
+        <v>205</v>
+      </c>
+      <c r="F345" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G345" s="150">
+        <v>16</v>
+      </c>
+      <c r="H345" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="I345" s="3">
+        <v>2</v>
+      </c>
+      <c r="J345" s="150" t="str">
+        <f>CONCATENATE(C345,"_",D345,"_",E345,"_",F345,"_",H345,"_",I345)</f>
+        <v>ProVisioNET_study_205_05_sri_ambient_2</v>
+      </c>
+      <c r="K345" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N345" s="3">
+        <v>6</v>
+      </c>
+      <c r="O345" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P345" s="3"/>
+      <c r="Q345" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R345" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S345" s="3">
+        <v>12</v>
+      </c>
+      <c r="T345" s="3">
+        <v>3</v>
+      </c>
+      <c r="U345" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V345" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W345" s="157">
+        <v>26</v>
+      </c>
+      <c r="X345" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y345" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z345" s="157" t="str">
+        <f t="shared" si="583"/>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B346" s="3">
+        <v>8</v>
+      </c>
+      <c r="C346" t="s">
+        <v>176</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E346" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F346" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G346" s="150">
+        <v>16</v>
+      </c>
+      <c r="H346" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="J346" s="150" t="str">
+        <f>CONCATENATE(C346,"_",D346,"_",E346,"_",F346,"_",H346)</f>
+        <v>ProVisioNET_study_205_05_fitbit</v>
+      </c>
+      <c r="K346" s="156" t="s">
+        <v>188</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M346" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N346" s="3">
+        <v>6</v>
+      </c>
+      <c r="O346" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P346" s="3"/>
+      <c r="Q346" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="R346" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="S346" s="3">
+        <v>12</v>
+      </c>
+      <c r="T346" s="3">
+        <v>3</v>
+      </c>
+      <c r="U346" s="3">
+        <v>1985</v>
+      </c>
+      <c r="V346" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W346" s="157">
+        <v>26</v>
+      </c>
+      <c r="X346" s="157">
+        <v>11</v>
+      </c>
+      <c r="Y346" s="157">
+        <v>2021</v>
+      </c>
+      <c r="Z346" s="157" t="str">
+        <f>W346&amp;"/"&amp;X346&amp;"/"&amp;Y346</f>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B347" s="5">
+        <v>8</v>
+      </c>
+      <c r="C347" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E347" s="161" t="s">
+        <v>228</v>
+      </c>
+      <c r="F347" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="G347" s="160">
+        <v>16</v>
+      </c>
+      <c r="H347" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="I347" s="166"/>
+      <c r="J347" s="160" t="str">
+        <f>CONCATENATE(C347,"_",D347,"_",E347,"_",F347,"_",H347)</f>
+        <v>ProVisioNET_study_205_05_zed</v>
+      </c>
+      <c r="K347" s="165" t="s">
+        <v>188</v>
+      </c>
+      <c r="L347" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N347" s="5">
+        <v>6</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P347" s="5"/>
+      <c r="Q347" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="R347" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="S347" s="5">
+        <v>12</v>
+      </c>
+      <c r="T347" s="5">
+        <v>3</v>
+      </c>
+      <c r="U347" s="5">
+        <v>1985</v>
+      </c>
+      <c r="V347" s="3" t="str">
+        <f t="shared" si="584"/>
+        <v>12/3/1985</v>
+      </c>
+      <c r="W347" s="160">
+        <v>26</v>
+      </c>
+      <c r="X347" s="160">
+        <v>11</v>
+      </c>
+      <c r="Y347" s="160">
+        <v>2021</v>
+      </c>
+      <c r="Z347" s="160" t="str">
+        <f>W347&amp;"/"&amp;X347&amp;"/"&amp;Y347</f>
+        <v>26/11/2021</v>
+      </c>
+    </row>
+    <row r="567" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G567" s="58"/>
       <c r="H567" s="58"/>
       <c r="I567" s="58"/>
@@ -31159,25 +32511,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -31194,7 +32546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -31205,30 +32557,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row